--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$98</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="177">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -225,9 +225,6 @@
     <t xml:space="preserve">Tổng tiền lương thực tế tính theo ngày công </t>
   </si>
   <si>
-    <t>Tiền mua hàng chưa thanh toán</t>
-  </si>
-  <si>
     <t>Lương thực lĩnh</t>
   </si>
   <si>
@@ -429,9 +426,6 @@
     <t>Đã ĐT</t>
   </si>
   <si>
-    <t>A+B-C-D+E</t>
-  </si>
-  <si>
     <t>TIỀN MUA HÀNG MINH TÂM THÁNG 8</t>
   </si>
   <si>
@@ -448,6 +442,120 @@
   </si>
   <si>
     <t>Kho vận</t>
+  </si>
+  <si>
+    <t>Thưởng</t>
+  </si>
+  <si>
+    <t>A+B+C-D+E</t>
+  </si>
+  <si>
+    <t>Hàng hóa</t>
+  </si>
+  <si>
+    <t>Chị Thảo Phú thọ trả hàng</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>MC Quang Vinh</t>
+  </si>
+  <si>
+    <t>Chi Phí khai trương 3s</t>
+  </si>
+  <si>
+    <t>Mua sữa Hà Tuyên 36h</t>
+  </si>
+  <si>
+    <t>Vận chuyển</t>
+  </si>
+  <si>
+    <t>Vận chuyển sữa vào chị tuyết</t>
+  </si>
+  <si>
+    <t>Lương, thưởng</t>
+  </si>
+  <si>
+    <t>Chị Hồng Nanomilk</t>
+  </si>
+  <si>
+    <t>Anh Sơn phòng KD ứng lương</t>
+  </si>
+  <si>
+    <t>Đá văn phòng Nanomilk</t>
+  </si>
+  <si>
+    <t>Biển bảng</t>
+  </si>
+  <si>
+    <t>Chi ứng biển đại lý Vinh Anh Bình Phước</t>
+  </si>
+  <si>
+    <t>100 đồng hồ Song hành Media</t>
+  </si>
+  <si>
+    <t>Biển bảng ĐL Phương Hiền Tây Ninh</t>
+  </si>
+  <si>
+    <t>Mừng khai trương ĐL Tường Vy</t>
+  </si>
+  <si>
+    <t>Lương T7 kế toán Hằng</t>
+  </si>
+  <si>
+    <t>thanh toán tiền lương tâm T7</t>
+  </si>
+  <si>
+    <t>Vận Chuyển</t>
+  </si>
+  <si>
+    <t>Tâm chi (công ty trả)</t>
+  </si>
+  <si>
+    <t>Khung Bằng</t>
+  </si>
+  <si>
+    <t>Văn phòng</t>
+  </si>
+  <si>
+    <t>Văn phòng tháng 7</t>
+  </si>
+  <si>
+    <t>Chi phí Quỳnh trang</t>
+  </si>
+  <si>
+    <t>Tâm thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>Thanh toán biển bảng Tường Vy</t>
+  </si>
+  <si>
+    <t>Kệ Hà Linh</t>
+  </si>
+  <si>
+    <t>In quảng cáo Đức Phú Thanh Trì</t>
+  </si>
+  <si>
+    <t>Ứng biển bảng 3s</t>
+  </si>
+  <si>
+    <t>Kệ 3s</t>
+  </si>
+  <si>
+    <t>Trả nôt Biển bảng ĐL Phương Hiền Tây Ninh</t>
+  </si>
+  <si>
+    <t>Anh Văn Sơn ứng tiền đi thị trường</t>
+  </si>
+  <si>
+    <t>Nhập hàng 70T</t>
+  </si>
+  <si>
+    <t>Chị Tuyết SG thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>Hà Linh thanh toán tiền hàng</t>
   </si>
 </sst>
 </file>
@@ -2188,25 +2296,58 @@
     <xf numFmtId="168" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2218,22 +2359,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2281,40 +2413,52 @@
     <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2323,42 +2467,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2368,57 +2476,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2455,6 +2554,42 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2465,33 +2600,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2834,11 +2942,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,7 +2999,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="403" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" s="403"/>
       <c r="C4" s="403"/>
@@ -2933,13 +3041,13 @@
       <c r="B7" s="405"/>
       <c r="C7" s="407"/>
       <c r="D7" s="119" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="119" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="119" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="119" t="s">
         <v>56</v>
@@ -2991,319 +3099,599 @@
       <c r="G12" s="120"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
+      <c r="A13" s="145">
+        <v>44045</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>157</v>
+      </c>
       <c r="D13" s="103"/>
       <c r="E13" s="120"/>
-      <c r="F13" s="103"/>
+      <c r="F13" s="103">
+        <v>1000000</v>
+      </c>
       <c r="G13" s="120"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
+      <c r="A14" s="145">
+        <v>44045</v>
+      </c>
+      <c r="B14" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>156</v>
+      </c>
       <c r="D14" s="103"/>
       <c r="E14" s="120"/>
-      <c r="F14" s="103"/>
+      <c r="F14" s="103">
+        <v>10000000</v>
+      </c>
       <c r="G14" s="120"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
+      <c r="A15" s="145">
+        <v>44046</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" s="103"/>
       <c r="E15" s="120"/>
       <c r="F15" s="103"/>
-      <c r="G15" s="120"/>
+      <c r="G15" s="120">
+        <v>7139000</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
+      <c r="A16" s="145">
+        <v>44046</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="102" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="103">
+        <v>50000000</v>
+      </c>
       <c r="E16" s="120"/>
       <c r="F16" s="103"/>
       <c r="G16" s="120"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
+      <c r="A17" s="145">
+        <v>44047</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="102" t="s">
+        <v>158</v>
+      </c>
       <c r="D17" s="103"/>
       <c r="E17" s="120"/>
-      <c r="F17" s="103"/>
+      <c r="F17" s="103">
+        <v>6290000</v>
+      </c>
       <c r="G17" s="120"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="145"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="102"/>
+      <c r="A18" s="145">
+        <v>44047</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="102" t="s">
+        <v>159</v>
+      </c>
       <c r="D18" s="103"/>
       <c r="E18" s="120"/>
       <c r="F18" s="103"/>
-      <c r="G18" s="120"/>
+      <c r="G18" s="120">
+        <v>5388000</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="102"/>
+      <c r="A19" s="145">
+        <v>44047</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="102" t="s">
+        <v>161</v>
+      </c>
       <c r="D19" s="103"/>
       <c r="E19" s="120"/>
       <c r="F19" s="103"/>
-      <c r="G19" s="120"/>
+      <c r="G19" s="120">
+        <v>420000</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="145"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
+      <c r="A20" s="145">
+        <v>44047</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="102" t="s">
+        <v>162</v>
+      </c>
       <c r="D20" s="103"/>
       <c r="E20" s="120"/>
       <c r="F20" s="103"/>
-      <c r="G20" s="120"/>
+      <c r="G20" s="120">
+        <v>595000</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="145"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
+      <c r="A21" s="145">
+        <v>44047</v>
+      </c>
+      <c r="B21" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="102" t="s">
+        <v>164</v>
+      </c>
       <c r="D21" s="103"/>
       <c r="E21" s="120"/>
       <c r="F21" s="103"/>
-      <c r="G21" s="120"/>
+      <c r="G21" s="120">
+        <f>1257000+1709000</f>
+        <v>2966000</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="145"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
+      <c r="A22" s="145">
+        <v>44047</v>
+      </c>
+      <c r="B22" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="102" t="s">
+        <v>165</v>
+      </c>
       <c r="D22" s="103"/>
       <c r="E22" s="120"/>
       <c r="F22" s="103"/>
-      <c r="G22" s="120"/>
+      <c r="G22" s="120">
+        <v>83000</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="145"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="102"/>
+      <c r="A23" s="145">
+        <v>44047</v>
+      </c>
+      <c r="B23" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="102" t="s">
+        <v>166</v>
+      </c>
       <c r="D23" s="103"/>
-      <c r="E23" s="120"/>
+      <c r="E23" s="120">
+        <f>G22+G21+G20+G19+G18</f>
+        <v>9452000</v>
+      </c>
       <c r="F23" s="103"/>
       <c r="G23" s="120"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="145"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
+      <c r="A24" s="145">
+        <v>44047</v>
+      </c>
+      <c r="B24" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="102" t="s">
+        <v>167</v>
+      </c>
       <c r="D24" s="103"/>
       <c r="E24" s="120"/>
-      <c r="F24" s="103"/>
+      <c r="F24" s="103">
+        <v>6300000</v>
+      </c>
       <c r="G24" s="120"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="102"/>
+      <c r="A25" s="145">
+        <v>44048</v>
+      </c>
+      <c r="B25" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="102" t="s">
+        <v>168</v>
+      </c>
       <c r="D25" s="103"/>
       <c r="E25" s="120"/>
-      <c r="F25" s="103"/>
+      <c r="F25" s="103">
+        <v>10800000</v>
+      </c>
       <c r="G25" s="120"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="145"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="103"/>
+      <c r="A26" s="145">
+        <v>44049</v>
+      </c>
+      <c r="B26" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="103">
+        <v>30000000</v>
+      </c>
       <c r="E26" s="120"/>
       <c r="F26" s="103"/>
       <c r="G26" s="120"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="145"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="121"/>
+      <c r="A27" s="145">
+        <v>44053</v>
+      </c>
+      <c r="B27" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="102" t="s">
+        <v>169</v>
+      </c>
       <c r="D27" s="103"/>
       <c r="E27" s="120"/>
-      <c r="F27" s="103"/>
+      <c r="F27" s="103">
+        <v>3000000</v>
+      </c>
       <c r="G27" s="120"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="145"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
+      <c r="A28" s="145">
+        <v>44053</v>
+      </c>
+      <c r="B28" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="102" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="103">
+        <v>100000000</v>
+      </c>
       <c r="E28" s="120"/>
       <c r="F28" s="103"/>
-      <c r="G28" s="122"/>
+      <c r="G28" s="120"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="102"/>
+      <c r="A29" s="145">
+        <v>44054</v>
+      </c>
+      <c r="B29" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="102" t="s">
+        <v>170</v>
+      </c>
       <c r="D29" s="103"/>
       <c r="E29" s="120"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="122"/>
+      <c r="F29" s="103">
+        <v>10000000</v>
+      </c>
+      <c r="G29" s="120"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="145"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
+      <c r="A30" s="145">
+        <v>44054</v>
+      </c>
+      <c r="B30" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="103">
+        <v>20000000</v>
+      </c>
       <c r="E30" s="120"/>
       <c r="F30" s="103"/>
-      <c r="G30" s="122"/>
+      <c r="G30" s="120"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="145"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="123"/>
+      <c r="A31" s="145">
+        <v>44055</v>
+      </c>
+      <c r="B31" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="102" t="s">
+        <v>171</v>
+      </c>
       <c r="D31" s="103"/>
       <c r="E31" s="120"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="122"/>
+      <c r="F31" s="103">
+        <v>5200000</v>
+      </c>
+      <c r="G31" s="120"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="145"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="102"/>
+      <c r="A32" s="145">
+        <v>44055</v>
+      </c>
+      <c r="B32" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="102" t="s">
+        <v>173</v>
+      </c>
       <c r="D32" s="103"/>
       <c r="E32" s="120"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="122"/>
+      <c r="F32" s="103">
+        <v>7000000</v>
+      </c>
+      <c r="G32" s="120"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="145"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="121"/>
+      <c r="A33" s="145">
+        <v>44055</v>
+      </c>
+      <c r="B33" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="102" t="s">
+        <v>172</v>
+      </c>
       <c r="D33" s="103"/>
       <c r="E33" s="120"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="122"/>
+      <c r="F33" s="103">
+        <v>4770000</v>
+      </c>
+      <c r="G33" s="120"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="145"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="121"/>
+      <c r="A34" s="145">
+        <v>44057</v>
+      </c>
+      <c r="B34" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="102" t="s">
+        <v>171</v>
+      </c>
       <c r="D34" s="103"/>
       <c r="E34" s="120"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="122"/>
+      <c r="F34" s="103">
+        <v>2080000</v>
+      </c>
+      <c r="G34" s="120"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="145"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="102"/>
+      <c r="A35" s="145">
+        <v>44057</v>
+      </c>
+      <c r="B35" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="102" t="s">
+        <v>174</v>
+      </c>
       <c r="D35" s="103"/>
       <c r="E35" s="120"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="122"/>
+      <c r="F35" s="103">
+        <v>115500000</v>
+      </c>
+      <c r="G35" s="120"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="145"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="102"/>
+      <c r="A36" s="145">
+        <v>44058</v>
+      </c>
+      <c r="B36" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="102" t="s">
+        <v>144</v>
+      </c>
       <c r="D36" s="103"/>
       <c r="E36" s="120"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="122"/>
+      <c r="F36" s="103">
+        <v>3000000</v>
+      </c>
+      <c r="G36" s="120"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="145"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="103"/>
+      <c r="A37" s="145">
+        <v>44060</v>
+      </c>
+      <c r="B37" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="103">
+        <v>8000000</v>
+      </c>
       <c r="E37" s="120"/>
       <c r="F37" s="103"/>
-      <c r="G37" s="122"/>
+      <c r="G37" s="120"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="145"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="102"/>
+      <c r="A38" s="145">
+        <v>44060</v>
+      </c>
+      <c r="B38" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="102" t="s">
+        <v>151</v>
+      </c>
       <c r="D38" s="103"/>
       <c r="E38" s="120"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="122"/>
+      <c r="F38" s="103">
+        <v>2000000</v>
+      </c>
+      <c r="G38" s="120"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="145"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="102"/>
+      <c r="A39" s="145">
+        <v>44060</v>
+      </c>
+      <c r="B39" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="102" t="s">
+        <v>150</v>
+      </c>
       <c r="D39" s="103"/>
       <c r="E39" s="120"/>
       <c r="F39" s="103"/>
-      <c r="G39" s="122"/>
+      <c r="G39" s="120"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="145"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="102"/>
+      <c r="A40" s="145">
+        <v>44060</v>
+      </c>
+      <c r="B40" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="102" t="s">
+        <v>148</v>
+      </c>
       <c r="D40" s="103"/>
       <c r="E40" s="120"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="122"/>
+      <c r="F40" s="103">
+        <v>3640000</v>
+      </c>
+      <c r="G40" s="120"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="145"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="102"/>
+      <c r="A41" s="145">
+        <v>44060</v>
+      </c>
+      <c r="B41" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="102" t="s">
+        <v>150</v>
+      </c>
       <c r="D41" s="103"/>
       <c r="E41" s="120"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="122"/>
+      <c r="F41" s="103">
+        <v>3000000</v>
+      </c>
+      <c r="G41" s="120"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="145"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="103"/>
+      <c r="A42" s="145">
+        <v>44061</v>
+      </c>
+      <c r="B42" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="102" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="103">
+        <v>100000000</v>
+      </c>
       <c r="E42" s="120"/>
       <c r="F42" s="103"/>
-      <c r="G42" s="122"/>
+      <c r="G42" s="120"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="145"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="102"/>
+      <c r="A43" s="145">
+        <v>44061</v>
+      </c>
+      <c r="B43" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="102" t="s">
+        <v>152</v>
+      </c>
       <c r="D43" s="103"/>
       <c r="E43" s="120"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="122"/>
+      <c r="F43" s="103">
+        <v>1152000</v>
+      </c>
+      <c r="G43" s="120"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="145"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="102"/>
+      <c r="A44" s="145">
+        <v>44062</v>
+      </c>
+      <c r="B44" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="102" t="s">
+        <v>145</v>
+      </c>
       <c r="D44" s="103"/>
       <c r="E44" s="120"/>
       <c r="F44" s="103"/>
-      <c r="G44" s="122"/>
+      <c r="G44" s="120">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="145"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="102"/>
+      <c r="A45" s="145">
+        <v>44062</v>
+      </c>
+      <c r="B45" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="102" t="s">
+        <v>146</v>
+      </c>
       <c r="D45" s="103"/>
       <c r="E45" s="120"/>
       <c r="F45" s="103"/>
-      <c r="G45" s="122"/>
+      <c r="G45" s="120">
+        <v>3880000</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="145"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="102"/>
+      <c r="A46" s="145">
+        <v>44062</v>
+      </c>
+      <c r="B46" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="102" t="s">
+        <v>154</v>
+      </c>
       <c r="D46" s="103"/>
       <c r="E46" s="120"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="122"/>
+      <c r="F46" s="103">
+        <v>10000000</v>
+      </c>
+      <c r="G46" s="120"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="145"/>
-      <c r="B47" s="101"/>
-      <c r="C47" s="102"/>
+      <c r="A47" s="145">
+        <v>44062</v>
+      </c>
+      <c r="B47" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="121" t="s">
+        <v>155</v>
+      </c>
       <c r="D47" s="103"/>
       <c r="E47" s="120"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="122"/>
+      <c r="F47" s="103">
+        <v>9500000</v>
+      </c>
+      <c r="G47" s="120"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="145"/>
@@ -3335,7 +3723,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="145"/>
       <c r="B51" s="101"/>
-      <c r="C51" s="102"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="103"/>
       <c r="E51" s="120"/>
       <c r="F51" s="103"/>
@@ -3351,9 +3739,9 @@
       <c r="G52" s="122"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="225"/>
-      <c r="B53" s="226"/>
-      <c r="C53" s="227"/>
+      <c r="A53" s="145"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="121"/>
       <c r="D53" s="103"/>
       <c r="E53" s="120"/>
       <c r="F53" s="103"/>
@@ -3362,10 +3750,8 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="145"/>
       <c r="B54" s="101"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="103" t="s">
-        <v>49</v>
-      </c>
+      <c r="C54" s="121"/>
+      <c r="D54" s="103"/>
       <c r="E54" s="120"/>
       <c r="F54" s="103"/>
       <c r="G54" s="122"/>
@@ -3472,7 +3858,7 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="145"/>
       <c r="B66" s="101"/>
-      <c r="C66" s="123"/>
+      <c r="C66" s="102"/>
       <c r="D66" s="103"/>
       <c r="E66" s="120"/>
       <c r="F66" s="103"/>
@@ -3481,7 +3867,7 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="145"/>
       <c r="B67" s="101"/>
-      <c r="C67" s="123"/>
+      <c r="C67" s="102"/>
       <c r="D67" s="103"/>
       <c r="E67" s="120"/>
       <c r="F67" s="103"/>
@@ -3490,7 +3876,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="145"/>
       <c r="B68" s="101"/>
-      <c r="C68" s="123"/>
+      <c r="C68" s="102"/>
       <c r="D68" s="103"/>
       <c r="E68" s="120"/>
       <c r="F68" s="103"/>
@@ -3533,9 +3919,9 @@
       <c r="G72" s="122"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="145"/>
-      <c r="B73" s="101"/>
-      <c r="C73" s="102"/>
+      <c r="A73" s="225"/>
+      <c r="B73" s="226"/>
+      <c r="C73" s="227"/>
       <c r="D73" s="103"/>
       <c r="E73" s="120"/>
       <c r="F73" s="103"/>
@@ -3545,7 +3931,9 @@
       <c r="A74" s="145"/>
       <c r="B74" s="101"/>
       <c r="C74" s="102"/>
-      <c r="D74" s="103"/>
+      <c r="D74" s="103" t="s">
+        <v>49</v>
+      </c>
       <c r="E74" s="120"/>
       <c r="F74" s="103"/>
       <c r="G74" s="122"/>
@@ -3577,126 +3965,306 @@
       <c r="F77" s="103"/>
       <c r="G77" s="122"/>
     </row>
-    <row r="78" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="400" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="145"/>
+      <c r="B78" s="101"/>
+      <c r="C78" s="102"/>
+      <c r="D78" s="103"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="122"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="145"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="103"/>
+      <c r="E79" s="120"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="122"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="145"/>
+      <c r="B80" s="101"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="103"/>
+      <c r="E80" s="120"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="122"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="145"/>
+      <c r="B81" s="101"/>
+      <c r="C81" s="102"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="120"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="122"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="145"/>
+      <c r="B82" s="101"/>
+      <c r="C82" s="102"/>
+      <c r="D82" s="103"/>
+      <c r="E82" s="120"/>
+      <c r="F82" s="103"/>
+      <c r="G82" s="122"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="145"/>
+      <c r="B83" s="101"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="103"/>
+      <c r="E83" s="120"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="122"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="145"/>
+      <c r="B84" s="101"/>
+      <c r="C84" s="102"/>
+      <c r="D84" s="103"/>
+      <c r="E84" s="120"/>
+      <c r="F84" s="103"/>
+      <c r="G84" s="122"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="145"/>
+      <c r="B85" s="101"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="103"/>
+      <c r="E85" s="120"/>
+      <c r="F85" s="103"/>
+      <c r="G85" s="122"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="145"/>
+      <c r="B86" s="101"/>
+      <c r="C86" s="123"/>
+      <c r="D86" s="103"/>
+      <c r="E86" s="120"/>
+      <c r="F86" s="103"/>
+      <c r="G86" s="122"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="145"/>
+      <c r="B87" s="101"/>
+      <c r="C87" s="123"/>
+      <c r="D87" s="103"/>
+      <c r="E87" s="120"/>
+      <c r="F87" s="103"/>
+      <c r="G87" s="122"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="145"/>
+      <c r="B88" s="101"/>
+      <c r="C88" s="123"/>
+      <c r="D88" s="103"/>
+      <c r="E88" s="120"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="122"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="145"/>
+      <c r="B89" s="101"/>
+      <c r="C89" s="102"/>
+      <c r="D89" s="103"/>
+      <c r="E89" s="120"/>
+      <c r="F89" s="103"/>
+      <c r="G89" s="122"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="145"/>
+      <c r="B90" s="101"/>
+      <c r="C90" s="102"/>
+      <c r="D90" s="103"/>
+      <c r="E90" s="120"/>
+      <c r="F90" s="103"/>
+      <c r="G90" s="122"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="145"/>
+      <c r="B91" s="101"/>
+      <c r="C91" s="102"/>
+      <c r="D91" s="103"/>
+      <c r="E91" s="120"/>
+      <c r="F91" s="103"/>
+      <c r="G91" s="122"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="145"/>
+      <c r="B92" s="101"/>
+      <c r="C92" s="102"/>
+      <c r="D92" s="103"/>
+      <c r="E92" s="120"/>
+      <c r="F92" s="103"/>
+      <c r="G92" s="122"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="145"/>
+      <c r="B93" s="101"/>
+      <c r="C93" s="102"/>
+      <c r="D93" s="103"/>
+      <c r="E93" s="120"/>
+      <c r="F93" s="103"/>
+      <c r="G93" s="122"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="145"/>
+      <c r="B94" s="101"/>
+      <c r="C94" s="102"/>
+      <c r="D94" s="103"/>
+      <c r="E94" s="120"/>
+      <c r="F94" s="103"/>
+      <c r="G94" s="122"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="145"/>
+      <c r="B95" s="101"/>
+      <c r="C95" s="102"/>
+      <c r="D95" s="103"/>
+      <c r="E95" s="120"/>
+      <c r="F95" s="103"/>
+      <c r="G95" s="122"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="145"/>
+      <c r="B96" s="101"/>
+      <c r="C96" s="102"/>
+      <c r="D96" s="103"/>
+      <c r="E96" s="120"/>
+      <c r="F96" s="103"/>
+      <c r="G96" s="122"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="145"/>
+      <c r="B97" s="101"/>
+      <c r="C97" s="102"/>
+      <c r="D97" s="103"/>
+      <c r="E97" s="120"/>
+      <c r="F97" s="103"/>
+      <c r="G97" s="122"/>
+    </row>
+    <row r="98" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="400" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="401"/>
-      <c r="C78" s="402"/>
-      <c r="D78" s="124">
-        <f>SUM(D8:D77)</f>
-        <v>0</v>
-      </c>
-      <c r="E78" s="124">
-        <f>SUM(E8:E77)</f>
-        <v>0</v>
-      </c>
-      <c r="F78" s="124">
-        <f>SUM(F8:F77)</f>
-        <v>0</v>
-      </c>
-      <c r="G78" s="124">
-        <f>SUM(G8:G77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="146"/>
-      <c r="B79" s="126"/>
-      <c r="C79" s="126"/>
-      <c r="D79" s="127"/>
-      <c r="E79" s="127"/>
-      <c r="F79" s="127"/>
-      <c r="G79" s="127"/>
-    </row>
-    <row r="80" spans="1:7" s="125" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="399" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" s="399"/>
-      <c r="C80" s="126"/>
-      <c r="D80" s="127"/>
-      <c r="E80" s="127"/>
-      <c r="F80" s="127"/>
-      <c r="G80" s="127"/>
-    </row>
-    <row r="81" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="146"/>
-      <c r="B81" s="126"/>
-      <c r="C81" s="126"/>
-      <c r="D81" s="127"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="127"/>
-      <c r="G81" s="127"/>
-    </row>
-    <row r="82" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="219"/>
-      <c r="B82" s="220"/>
-      <c r="C82" s="221"/>
-      <c r="D82" s="222"/>
-      <c r="E82" s="223"/>
-      <c r="F82" s="222"/>
-      <c r="G82" s="224"/>
-    </row>
-    <row r="83" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="219"/>
-      <c r="B83" s="220"/>
-      <c r="C83" s="221"/>
-      <c r="D83" s="222"/>
-      <c r="E83" s="223"/>
-      <c r="F83" s="222"/>
-      <c r="G83" s="224"/>
-    </row>
-    <row r="84" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="146"/>
-      <c r="B84" s="126"/>
-      <c r="C84" s="126"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
-      <c r="G84" s="127"/>
-    </row>
-    <row r="85" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="147"/>
-      <c r="B85" s="94" t="s">
-        <v>110</v>
-      </c>
-      <c r="C85" s="70"/>
-      <c r="D85" s="94" t="s">
+      <c r="B98" s="401"/>
+      <c r="C98" s="402"/>
+      <c r="D98" s="124">
+        <f>SUM(D8:D97)</f>
+        <v>308000000</v>
+      </c>
+      <c r="E98" s="124">
+        <f>SUM(E8:E97)</f>
+        <v>9452000</v>
+      </c>
+      <c r="F98" s="124">
+        <f>SUM(F8:F97)</f>
+        <v>214232000</v>
+      </c>
+      <c r="G98" s="124">
+        <f>SUM(G8:G97)</f>
+        <v>21471000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="146"/>
+      <c r="B99" s="126"/>
+      <c r="C99" s="126"/>
+      <c r="D99" s="127"/>
+      <c r="E99" s="127"/>
+      <c r="F99" s="127"/>
+      <c r="G99" s="127"/>
+    </row>
+    <row r="100" spans="1:8" s="125" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="399" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" s="399"/>
+      <c r="C100" s="126"/>
+      <c r="D100" s="127"/>
+      <c r="E100" s="127"/>
+      <c r="F100" s="127"/>
+      <c r="G100" s="127"/>
+    </row>
+    <row r="101" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="146"/>
+      <c r="B101" s="126"/>
+      <c r="C101" s="126"/>
+      <c r="D101" s="127"/>
+      <c r="E101" s="127"/>
+      <c r="F101" s="127"/>
+      <c r="G101" s="127"/>
+    </row>
+    <row r="102" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="219"/>
+      <c r="B102" s="220"/>
+      <c r="C102" s="221"/>
+      <c r="D102" s="222"/>
+      <c r="E102" s="223"/>
+      <c r="F102" s="222"/>
+      <c r="G102" s="224"/>
+    </row>
+    <row r="103" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="219"/>
+      <c r="B103" s="220"/>
+      <c r="C103" s="221"/>
+      <c r="D103" s="222"/>
+      <c r="E103" s="223"/>
+      <c r="F103" s="222"/>
+      <c r="G103" s="224"/>
+    </row>
+    <row r="104" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="146"/>
+      <c r="B104" s="126"/>
+      <c r="C104" s="126"/>
+      <c r="D104" s="127"/>
+      <c r="E104" s="127"/>
+      <c r="F104" s="127"/>
+      <c r="G104" s="127"/>
+    </row>
+    <row r="105" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="147"/>
+      <c r="B105" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="70"/>
+      <c r="D105" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
-    </row>
-    <row r="86" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="147"/>
-      <c r="B86" s="4" t="s">
+      <c r="E105" s="70"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
+    </row>
+    <row r="106" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="147"/>
+      <c r="B106" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="4" t="s">
+      <c r="C106" s="5"/>
+      <c r="D106" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="94"/>
-      <c r="C89" s="94"/>
-      <c r="D89" s="139"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="94"/>
+      <c r="C109" s="94"/>
+      <c r="D109" s="139"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:G78">
+  <autoFilter ref="A6:G98">
     <filterColumn colId="3" hiddenButton="1" showButton="0"/>
     <filterColumn colId="5" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="8">
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A98:C98"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -3740,13 +4308,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="277" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="425" t="s">
+      <c r="A1" s="433" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="425"/>
-      <c r="C1" s="425"/>
-      <c r="D1" s="425"/>
-      <c r="E1" s="425"/>
+      <c r="B1" s="433"/>
+      <c r="C1" s="433"/>
+      <c r="D1" s="433"/>
+      <c r="E1" s="433"/>
       <c r="H1" s="278"/>
       <c r="I1" s="278"/>
       <c r="J1" s="278"/>
@@ -3774,153 +4342,153 @@
       <c r="O2" s="278"/>
     </row>
     <row r="3" spans="1:17" s="277" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="426" t="s">
+      <c r="A3" s="434" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="426"/>
-      <c r="C3" s="426"/>
-      <c r="D3" s="426"/>
-      <c r="E3" s="426"/>
-      <c r="F3" s="426"/>
-      <c r="G3" s="426"/>
-      <c r="H3" s="426"/>
-      <c r="I3" s="426"/>
-      <c r="J3" s="426"/>
-      <c r="K3" s="426"/>
-      <c r="L3" s="426"/>
-      <c r="M3" s="426"/>
-      <c r="N3" s="426"/>
-      <c r="O3" s="426"/>
-      <c r="P3" s="426"/>
+      <c r="B3" s="434"/>
+      <c r="C3" s="434"/>
+      <c r="D3" s="434"/>
+      <c r="E3" s="434"/>
+      <c r="F3" s="434"/>
+      <c r="G3" s="434"/>
+      <c r="H3" s="434"/>
+      <c r="I3" s="434"/>
+      <c r="J3" s="434"/>
+      <c r="K3" s="434"/>
+      <c r="L3" s="434"/>
+      <c r="M3" s="434"/>
+      <c r="N3" s="434"/>
+      <c r="O3" s="434"/>
+      <c r="P3" s="434"/>
     </row>
     <row r="4" spans="1:17" s="277" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="426" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="426"/>
-      <c r="C4" s="426"/>
-      <c r="D4" s="426"/>
-      <c r="E4" s="426"/>
-      <c r="F4" s="426"/>
-      <c r="G4" s="426"/>
-      <c r="H4" s="426"/>
-      <c r="I4" s="426"/>
-      <c r="J4" s="426"/>
-      <c r="K4" s="426"/>
-      <c r="L4" s="426"/>
-      <c r="M4" s="426"/>
-      <c r="N4" s="426"/>
-      <c r="O4" s="426"/>
-      <c r="P4" s="426"/>
+      <c r="A4" s="434" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="434"/>
+      <c r="C4" s="434"/>
+      <c r="D4" s="434"/>
+      <c r="E4" s="434"/>
+      <c r="F4" s="434"/>
+      <c r="G4" s="434"/>
+      <c r="H4" s="434"/>
+      <c r="I4" s="434"/>
+      <c r="J4" s="434"/>
+      <c r="K4" s="434"/>
+      <c r="L4" s="434"/>
+      <c r="M4" s="434"/>
+      <c r="N4" s="434"/>
+      <c r="O4" s="434"/>
+      <c r="P4" s="434"/>
     </row>
     <row r="5" spans="1:17" s="277" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="426"/>
-      <c r="B5" s="426"/>
-      <c r="C5" s="426"/>
-      <c r="D5" s="426"/>
-      <c r="E5" s="426"/>
-      <c r="F5" s="426"/>
-      <c r="G5" s="426"/>
-      <c r="H5" s="426"/>
-      <c r="I5" s="426"/>
-      <c r="J5" s="426"/>
-      <c r="K5" s="427"/>
-      <c r="L5" s="427"/>
+      <c r="A5" s="434"/>
+      <c r="B5" s="434"/>
+      <c r="C5" s="434"/>
+      <c r="D5" s="434"/>
+      <c r="E5" s="434"/>
+      <c r="F5" s="434"/>
+      <c r="G5" s="434"/>
+      <c r="H5" s="434"/>
+      <c r="I5" s="434"/>
+      <c r="J5" s="434"/>
+      <c r="K5" s="435"/>
+      <c r="L5" s="435"/>
       <c r="M5" s="278"/>
       <c r="N5" s="278"/>
       <c r="O5" s="278"/>
     </row>
     <row r="6" spans="1:17" s="285" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="428" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="430" t="s">
+      <c r="A6" s="436" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="438" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="428" t="s">
+      <c r="C6" s="436" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="434" t="s">
+      <c r="D6" s="442" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="434"/>
-      <c r="F6" s="435" t="s">
+      <c r="E6" s="442"/>
+      <c r="F6" s="443" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="435"/>
-      <c r="H6" s="435"/>
-      <c r="I6" s="435"/>
-      <c r="J6" s="435"/>
-      <c r="K6" s="435"/>
-      <c r="L6" s="435"/>
-      <c r="M6" s="436"/>
-      <c r="N6" s="436"/>
-      <c r="O6" s="436"/>
-      <c r="P6" s="437" t="s">
+      <c r="G6" s="443"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="443"/>
+      <c r="J6" s="443"/>
+      <c r="K6" s="443"/>
+      <c r="L6" s="443"/>
+      <c r="M6" s="444"/>
+      <c r="N6" s="444"/>
+      <c r="O6" s="444"/>
+      <c r="P6" s="445" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="285" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="429"/>
-      <c r="B7" s="431"/>
-      <c r="C7" s="429"/>
-      <c r="D7" s="428" t="s">
+      <c r="A7" s="437"/>
+      <c r="B7" s="439"/>
+      <c r="C7" s="437"/>
+      <c r="D7" s="436" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="428" t="s">
+      <c r="E7" s="436" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="428" t="s">
+      <c r="F7" s="436" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="428" t="s">
+      <c r="G7" s="436" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="432" t="s">
+      <c r="H7" s="440" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="432" t="s">
+      <c r="I7" s="440" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="439" t="s">
+      <c r="J7" s="447" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="439"/>
-      <c r="L7" s="432" t="s">
+      <c r="K7" s="447"/>
+      <c r="L7" s="440" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="432" t="s">
+      <c r="M7" s="440" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="432" t="s">
+      <c r="N7" s="440" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="432" t="s">
+      <c r="O7" s="440" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="438"/>
+      <c r="P7" s="446"/>
     </row>
     <row r="8" spans="1:17" s="285" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="429"/>
-      <c r="B8" s="431"/>
-      <c r="C8" s="429"/>
-      <c r="D8" s="429"/>
-      <c r="E8" s="429"/>
-      <c r="F8" s="429"/>
-      <c r="G8" s="429"/>
-      <c r="H8" s="433"/>
-      <c r="I8" s="433"/>
+      <c r="A8" s="437"/>
+      <c r="B8" s="439"/>
+      <c r="C8" s="437"/>
+      <c r="D8" s="437"/>
+      <c r="E8" s="437"/>
+      <c r="F8" s="437"/>
+      <c r="G8" s="437"/>
+      <c r="H8" s="441"/>
+      <c r="I8" s="441"/>
       <c r="J8" s="286" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K8" s="287" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="433"/>
-      <c r="M8" s="433"/>
-      <c r="N8" s="433"/>
-      <c r="O8" s="433"/>
-      <c r="P8" s="438"/>
+      <c r="L8" s="441"/>
+      <c r="M8" s="441"/>
+      <c r="N8" s="441"/>
+      <c r="O8" s="441"/>
+      <c r="P8" s="446"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="216"/>
@@ -3959,11 +4527,11 @@
       <c r="P10" s="216"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="413"/>
-      <c r="B11" s="419"/>
-      <c r="C11" s="413"/>
-      <c r="D11" s="413"/>
-      <c r="E11" s="413"/>
+      <c r="A11" s="417"/>
+      <c r="B11" s="424"/>
+      <c r="C11" s="417"/>
+      <c r="D11" s="417"/>
+      <c r="E11" s="417"/>
       <c r="F11" s="318"/>
       <c r="G11" s="318"/>
       <c r="H11" s="319"/>
@@ -3974,14 +4542,14 @@
       <c r="M11" s="319"/>
       <c r="N11" s="319"/>
       <c r="O11" s="319"/>
-      <c r="P11" s="413"/>
+      <c r="P11" s="417"/>
     </row>
     <row r="12" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="415"/>
-      <c r="B12" s="421"/>
-      <c r="C12" s="415"/>
-      <c r="D12" s="415"/>
-      <c r="E12" s="415"/>
+      <c r="A12" s="414"/>
+      <c r="B12" s="426"/>
+      <c r="C12" s="414"/>
+      <c r="D12" s="414"/>
+      <c r="E12" s="414"/>
       <c r="F12" s="325"/>
       <c r="G12" s="325"/>
       <c r="H12" s="326"/>
@@ -3992,15 +4560,15 @@
       <c r="M12" s="326"/>
       <c r="N12" s="326"/>
       <c r="O12" s="326"/>
-      <c r="P12" s="415"/>
+      <c r="P12" s="414"/>
       <c r="Q12" s="291"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="413"/>
-      <c r="B13" s="419"/>
-      <c r="C13" s="413"/>
-      <c r="D13" s="413"/>
-      <c r="E13" s="413"/>
+      <c r="A13" s="417"/>
+      <c r="B13" s="424"/>
+      <c r="C13" s="417"/>
+      <c r="D13" s="417"/>
+      <c r="E13" s="417"/>
       <c r="F13" s="318"/>
       <c r="G13" s="318"/>
       <c r="H13" s="319"/>
@@ -4014,11 +4582,11 @@
       <c r="P13" s="200"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="415"/>
-      <c r="B14" s="421"/>
-      <c r="C14" s="415"/>
-      <c r="D14" s="415"/>
-      <c r="E14" s="415"/>
+      <c r="A14" s="414"/>
+      <c r="B14" s="426"/>
+      <c r="C14" s="414"/>
+      <c r="D14" s="414"/>
+      <c r="E14" s="414"/>
       <c r="F14" s="325"/>
       <c r="G14" s="325"/>
       <c r="H14" s="352"/>
@@ -4068,11 +4636,11 @@
       <c r="P16" s="345"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="413"/>
-      <c r="B17" s="419"/>
-      <c r="C17" s="413"/>
-      <c r="D17" s="416"/>
-      <c r="E17" s="416"/>
+      <c r="A17" s="417"/>
+      <c r="B17" s="424"/>
+      <c r="C17" s="417"/>
+      <c r="D17" s="427"/>
+      <c r="E17" s="427"/>
       <c r="F17" s="318"/>
       <c r="G17" s="318"/>
       <c r="H17" s="353"/>
@@ -4086,11 +4654,11 @@
       <c r="P17" s="332"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="415"/>
-      <c r="B18" s="421"/>
-      <c r="C18" s="415"/>
-      <c r="D18" s="418"/>
-      <c r="E18" s="418"/>
+      <c r="A18" s="414"/>
+      <c r="B18" s="426"/>
+      <c r="C18" s="414"/>
+      <c r="D18" s="429"/>
+      <c r="E18" s="429"/>
       <c r="F18" s="325"/>
       <c r="G18" s="325"/>
       <c r="H18" s="352"/>
@@ -4122,11 +4690,11 @@
       <c r="P19" s="293"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="413"/>
-      <c r="B20" s="419"/>
-      <c r="C20" s="413"/>
-      <c r="D20" s="416"/>
-      <c r="E20" s="416"/>
+      <c r="A20" s="417"/>
+      <c r="B20" s="424"/>
+      <c r="C20" s="417"/>
+      <c r="D20" s="427"/>
+      <c r="E20" s="427"/>
       <c r="F20" s="318"/>
       <c r="G20" s="318"/>
       <c r="H20" s="353"/>
@@ -4140,11 +4708,11 @@
       <c r="P20" s="332"/>
     </row>
     <row r="21" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="414"/>
-      <c r="B21" s="420"/>
-      <c r="C21" s="414"/>
-      <c r="D21" s="417"/>
-      <c r="E21" s="417"/>
+      <c r="A21" s="413"/>
+      <c r="B21" s="425"/>
+      <c r="C21" s="413"/>
+      <c r="D21" s="428"/>
+      <c r="E21" s="428"/>
       <c r="F21" s="322"/>
       <c r="G21" s="322"/>
       <c r="H21" s="323"/>
@@ -4158,11 +4726,11 @@
       <c r="P21" s="331"/>
     </row>
     <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="415"/>
-      <c r="B22" s="421"/>
-      <c r="C22" s="415"/>
-      <c r="D22" s="418"/>
-      <c r="E22" s="418"/>
+      <c r="A22" s="414"/>
+      <c r="B22" s="426"/>
+      <c r="C22" s="414"/>
+      <c r="D22" s="429"/>
+      <c r="E22" s="429"/>
       <c r="F22" s="325"/>
       <c r="G22" s="325"/>
       <c r="H22" s="326"/>
@@ -4177,11 +4745,11 @@
       <c r="R22" s="291"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="440"/>
-      <c r="B23" s="443"/>
-      <c r="C23" s="440"/>
-      <c r="D23" s="440"/>
-      <c r="E23" s="440"/>
+      <c r="A23" s="421"/>
+      <c r="B23" s="430"/>
+      <c r="C23" s="421"/>
+      <c r="D23" s="421"/>
+      <c r="E23" s="421"/>
       <c r="F23" s="360"/>
       <c r="G23" s="360"/>
       <c r="H23" s="361"/>
@@ -4195,11 +4763,11 @@
       <c r="P23" s="360"/>
     </row>
     <row r="24" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="441"/>
-      <c r="B24" s="444"/>
-      <c r="C24" s="441"/>
-      <c r="D24" s="441"/>
-      <c r="E24" s="441"/>
+      <c r="A24" s="415"/>
+      <c r="B24" s="431"/>
+      <c r="C24" s="415"/>
+      <c r="D24" s="415"/>
+      <c r="E24" s="415"/>
       <c r="F24" s="322"/>
       <c r="G24" s="322"/>
       <c r="H24" s="323"/>
@@ -4213,11 +4781,11 @@
       <c r="P24" s="322"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="441"/>
-      <c r="B25" s="444"/>
-      <c r="C25" s="441"/>
-      <c r="D25" s="441"/>
-      <c r="E25" s="441"/>
+      <c r="A25" s="415"/>
+      <c r="B25" s="431"/>
+      <c r="C25" s="415"/>
+      <c r="D25" s="415"/>
+      <c r="E25" s="415"/>
       <c r="F25" s="322"/>
       <c r="G25" s="322"/>
       <c r="H25" s="323"/>
@@ -4231,11 +4799,11 @@
       <c r="P25" s="322"/>
     </row>
     <row r="26" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="441"/>
-      <c r="B26" s="444"/>
-      <c r="C26" s="441"/>
-      <c r="D26" s="441"/>
-      <c r="E26" s="441"/>
+      <c r="A26" s="415"/>
+      <c r="B26" s="431"/>
+      <c r="C26" s="415"/>
+      <c r="D26" s="415"/>
+      <c r="E26" s="415"/>
       <c r="F26" s="322"/>
       <c r="G26" s="322"/>
       <c r="H26" s="323"/>
@@ -4249,11 +4817,11 @@
       <c r="P26" s="322"/>
     </row>
     <row r="27" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="441"/>
-      <c r="B27" s="444"/>
-      <c r="C27" s="441"/>
-      <c r="D27" s="441"/>
-      <c r="E27" s="441"/>
+      <c r="A27" s="415"/>
+      <c r="B27" s="431"/>
+      <c r="C27" s="415"/>
+      <c r="D27" s="415"/>
+      <c r="E27" s="415"/>
       <c r="F27" s="322"/>
       <c r="G27" s="322"/>
       <c r="H27" s="323"/>
@@ -4267,11 +4835,11 @@
       <c r="P27" s="322"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="441"/>
-      <c r="B28" s="444"/>
-      <c r="C28" s="441"/>
-      <c r="D28" s="441"/>
-      <c r="E28" s="441"/>
+      <c r="A28" s="415"/>
+      <c r="B28" s="431"/>
+      <c r="C28" s="415"/>
+      <c r="D28" s="415"/>
+      <c r="E28" s="415"/>
       <c r="F28" s="322"/>
       <c r="G28" s="322"/>
       <c r="H28" s="323"/>
@@ -4285,11 +4853,11 @@
       <c r="P28" s="331"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="442"/>
-      <c r="B29" s="445"/>
-      <c r="C29" s="442"/>
-      <c r="D29" s="442"/>
-      <c r="E29" s="442"/>
+      <c r="A29" s="423"/>
+      <c r="B29" s="432"/>
+      <c r="C29" s="423"/>
+      <c r="D29" s="423"/>
+      <c r="E29" s="423"/>
       <c r="F29" s="325"/>
       <c r="G29" s="325"/>
       <c r="H29" s="326"/>
@@ -4339,11 +4907,11 @@
       <c r="P31" s="342"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="413"/>
-      <c r="B32" s="419"/>
-      <c r="C32" s="413"/>
-      <c r="D32" s="416"/>
-      <c r="E32" s="413"/>
+      <c r="A32" s="417"/>
+      <c r="B32" s="424"/>
+      <c r="C32" s="417"/>
+      <c r="D32" s="427"/>
+      <c r="E32" s="417"/>
       <c r="F32" s="318"/>
       <c r="G32" s="318"/>
       <c r="H32" s="319"/>
@@ -4354,14 +4922,14 @@
       <c r="M32" s="319"/>
       <c r="N32" s="319"/>
       <c r="O32" s="319"/>
-      <c r="P32" s="416"/>
+      <c r="P32" s="427"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="414"/>
-      <c r="B33" s="420"/>
-      <c r="C33" s="414"/>
-      <c r="D33" s="417"/>
-      <c r="E33" s="414"/>
+      <c r="A33" s="413"/>
+      <c r="B33" s="425"/>
+      <c r="C33" s="413"/>
+      <c r="D33" s="428"/>
+      <c r="E33" s="413"/>
       <c r="F33" s="322"/>
       <c r="G33" s="322"/>
       <c r="H33" s="323"/>
@@ -4372,14 +4940,14 @@
       <c r="M33" s="323"/>
       <c r="N33" s="323"/>
       <c r="O33" s="323"/>
-      <c r="P33" s="417"/>
+      <c r="P33" s="428"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="415"/>
-      <c r="B34" s="421"/>
-      <c r="C34" s="415"/>
-      <c r="D34" s="418"/>
-      <c r="E34" s="415"/>
+      <c r="A34" s="414"/>
+      <c r="B34" s="426"/>
+      <c r="C34" s="414"/>
+      <c r="D34" s="429"/>
+      <c r="E34" s="414"/>
       <c r="F34" s="325"/>
       <c r="G34" s="325"/>
       <c r="H34" s="326"/>
@@ -4390,14 +4958,14 @@
       <c r="M34" s="326"/>
       <c r="N34" s="326"/>
       <c r="O34" s="326"/>
-      <c r="P34" s="418"/>
+      <c r="P34" s="429"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="413"/>
-      <c r="B35" s="419"/>
-      <c r="C35" s="413"/>
-      <c r="D35" s="416"/>
-      <c r="E35" s="413"/>
+      <c r="A35" s="417"/>
+      <c r="B35" s="424"/>
+      <c r="C35" s="417"/>
+      <c r="D35" s="427"/>
+      <c r="E35" s="417"/>
       <c r="F35" s="318"/>
       <c r="G35" s="318"/>
       <c r="H35" s="319"/>
@@ -4411,11 +4979,11 @@
       <c r="P35" s="318"/>
     </row>
     <row r="36" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="414"/>
-      <c r="B36" s="420"/>
-      <c r="C36" s="414"/>
-      <c r="D36" s="417"/>
-      <c r="E36" s="414"/>
+      <c r="A36" s="413"/>
+      <c r="B36" s="425"/>
+      <c r="C36" s="413"/>
+      <c r="D36" s="428"/>
+      <c r="E36" s="413"/>
       <c r="F36" s="322"/>
       <c r="G36" s="322"/>
       <c r="H36" s="323"/>
@@ -4429,11 +4997,11 @@
       <c r="P36" s="322"/>
     </row>
     <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="414"/>
-      <c r="B37" s="420"/>
-      <c r="C37" s="414"/>
-      <c r="D37" s="417"/>
-      <c r="E37" s="414"/>
+      <c r="A37" s="413"/>
+      <c r="B37" s="425"/>
+      <c r="C37" s="413"/>
+      <c r="D37" s="428"/>
+      <c r="E37" s="413"/>
       <c r="F37" s="322"/>
       <c r="G37" s="322"/>
       <c r="H37" s="323"/>
@@ -4447,11 +5015,11 @@
       <c r="P37" s="322"/>
     </row>
     <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="414"/>
-      <c r="B38" s="420"/>
-      <c r="C38" s="414"/>
-      <c r="D38" s="417"/>
-      <c r="E38" s="414"/>
+      <c r="A38" s="413"/>
+      <c r="B38" s="425"/>
+      <c r="C38" s="413"/>
+      <c r="D38" s="428"/>
+      <c r="E38" s="413"/>
       <c r="F38" s="322"/>
       <c r="G38" s="322"/>
       <c r="H38" s="323"/>
@@ -4465,11 +5033,11 @@
       <c r="P38" s="322"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="415"/>
-      <c r="B39" s="421"/>
-      <c r="C39" s="415"/>
-      <c r="D39" s="418"/>
-      <c r="E39" s="415"/>
+      <c r="A39" s="414"/>
+      <c r="B39" s="426"/>
+      <c r="C39" s="414"/>
+      <c r="D39" s="429"/>
+      <c r="E39" s="414"/>
       <c r="F39" s="325"/>
       <c r="G39" s="325"/>
       <c r="H39" s="326"/>
@@ -4537,11 +5105,11 @@
       <c r="P42" s="216"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="413"/>
-      <c r="B43" s="419"/>
-      <c r="C43" s="413"/>
-      <c r="D43" s="416"/>
-      <c r="E43" s="413"/>
+      <c r="A43" s="417"/>
+      <c r="B43" s="424"/>
+      <c r="C43" s="417"/>
+      <c r="D43" s="427"/>
+      <c r="E43" s="417"/>
       <c r="F43" s="350"/>
       <c r="G43" s="350"/>
       <c r="H43" s="319"/>
@@ -4555,11 +5123,11 @@
       <c r="P43" s="350"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="414"/>
-      <c r="B44" s="420"/>
-      <c r="C44" s="414"/>
-      <c r="D44" s="417"/>
-      <c r="E44" s="414"/>
+      <c r="A44" s="413"/>
+      <c r="B44" s="425"/>
+      <c r="C44" s="413"/>
+      <c r="D44" s="428"/>
+      <c r="E44" s="413"/>
       <c r="F44" s="365"/>
       <c r="G44" s="365"/>
       <c r="H44" s="323"/>
@@ -4573,11 +5141,11 @@
       <c r="P44" s="365"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="414"/>
-      <c r="B45" s="420"/>
-      <c r="C45" s="414"/>
-      <c r="D45" s="417"/>
-      <c r="E45" s="414"/>
+      <c r="A45" s="413"/>
+      <c r="B45" s="425"/>
+      <c r="C45" s="413"/>
+      <c r="D45" s="428"/>
+      <c r="E45" s="413"/>
       <c r="F45" s="365"/>
       <c r="G45" s="365"/>
       <c r="H45" s="323"/>
@@ -4591,11 +5159,11 @@
       <c r="P45" s="365"/>
     </row>
     <row r="46" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="414"/>
-      <c r="B46" s="420"/>
-      <c r="C46" s="414"/>
-      <c r="D46" s="417"/>
-      <c r="E46" s="414"/>
+      <c r="A46" s="413"/>
+      <c r="B46" s="425"/>
+      <c r="C46" s="413"/>
+      <c r="D46" s="428"/>
+      <c r="E46" s="413"/>
       <c r="F46" s="365"/>
       <c r="G46" s="365"/>
       <c r="H46" s="323"/>
@@ -4609,11 +5177,11 @@
       <c r="P46" s="365"/>
     </row>
     <row r="47" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="414"/>
-      <c r="B47" s="420"/>
-      <c r="C47" s="414"/>
-      <c r="D47" s="417"/>
-      <c r="E47" s="414"/>
+      <c r="A47" s="413"/>
+      <c r="B47" s="425"/>
+      <c r="C47" s="413"/>
+      <c r="D47" s="428"/>
+      <c r="E47" s="413"/>
       <c r="F47" s="365"/>
       <c r="G47" s="365"/>
       <c r="H47" s="323"/>
@@ -4628,11 +5196,11 @@
       <c r="Q47" s="291"/>
     </row>
     <row r="48" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="414"/>
-      <c r="B48" s="420"/>
-      <c r="C48" s="414"/>
-      <c r="D48" s="417"/>
-      <c r="E48" s="414"/>
+      <c r="A48" s="413"/>
+      <c r="B48" s="425"/>
+      <c r="C48" s="413"/>
+      <c r="D48" s="428"/>
+      <c r="E48" s="413"/>
       <c r="F48" s="365"/>
       <c r="G48" s="365"/>
       <c r="H48" s="323"/>
@@ -4647,11 +5215,11 @@
       <c r="Q48" s="291"/>
     </row>
     <row r="49" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="415"/>
-      <c r="B49" s="421"/>
-      <c r="C49" s="415"/>
-      <c r="D49" s="418"/>
-      <c r="E49" s="415"/>
+      <c r="A49" s="414"/>
+      <c r="B49" s="426"/>
+      <c r="C49" s="414"/>
+      <c r="D49" s="429"/>
+      <c r="E49" s="414"/>
       <c r="F49" s="351"/>
       <c r="G49" s="351"/>
       <c r="H49" s="326"/>
@@ -4704,11 +5272,11 @@
       <c r="Q51" s="291"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="413"/>
-      <c r="B52" s="419"/>
-      <c r="C52" s="413"/>
-      <c r="D52" s="416"/>
-      <c r="E52" s="413"/>
+      <c r="A52" s="417"/>
+      <c r="B52" s="424"/>
+      <c r="C52" s="417"/>
+      <c r="D52" s="427"/>
+      <c r="E52" s="417"/>
       <c r="F52" s="369"/>
       <c r="G52" s="369"/>
       <c r="H52" s="319"/>
@@ -4723,11 +5291,11 @@
       <c r="Q52" s="291"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="415"/>
-      <c r="B53" s="421"/>
-      <c r="C53" s="415"/>
-      <c r="D53" s="418"/>
-      <c r="E53" s="415"/>
+      <c r="A53" s="414"/>
+      <c r="B53" s="426"/>
+      <c r="C53" s="414"/>
+      <c r="D53" s="429"/>
+      <c r="E53" s="414"/>
       <c r="F53" s="371"/>
       <c r="G53" s="371"/>
       <c r="H53" s="326"/>
@@ -4742,11 +5310,11 @@
       <c r="Q53" s="291"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="413"/>
-      <c r="B54" s="419"/>
-      <c r="C54" s="413"/>
-      <c r="D54" s="416"/>
-      <c r="E54" s="413"/>
+      <c r="A54" s="417"/>
+      <c r="B54" s="424"/>
+      <c r="C54" s="417"/>
+      <c r="D54" s="427"/>
+      <c r="E54" s="417"/>
       <c r="F54" s="369"/>
       <c r="G54" s="369"/>
       <c r="H54" s="319"/>
@@ -4761,11 +5329,11 @@
       <c r="Q54" s="291"/>
     </row>
     <row r="55" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="414"/>
-      <c r="B55" s="420"/>
-      <c r="C55" s="414"/>
-      <c r="D55" s="417"/>
-      <c r="E55" s="414"/>
+      <c r="A55" s="413"/>
+      <c r="B55" s="425"/>
+      <c r="C55" s="413"/>
+      <c r="D55" s="428"/>
+      <c r="E55" s="413"/>
       <c r="F55" s="370"/>
       <c r="G55" s="370"/>
       <c r="H55" s="323"/>
@@ -4780,11 +5348,11 @@
       <c r="Q55" s="291"/>
     </row>
     <row r="56" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="414"/>
-      <c r="B56" s="420"/>
-      <c r="C56" s="414"/>
-      <c r="D56" s="417"/>
-      <c r="E56" s="414"/>
+      <c r="A56" s="413"/>
+      <c r="B56" s="425"/>
+      <c r="C56" s="413"/>
+      <c r="D56" s="428"/>
+      <c r="E56" s="413"/>
       <c r="F56" s="370"/>
       <c r="G56" s="370"/>
       <c r="H56" s="323"/>
@@ -4799,11 +5367,11 @@
       <c r="Q56" s="291"/>
     </row>
     <row r="57" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="414"/>
-      <c r="B57" s="420"/>
-      <c r="C57" s="414"/>
-      <c r="D57" s="417"/>
-      <c r="E57" s="414"/>
+      <c r="A57" s="413"/>
+      <c r="B57" s="425"/>
+      <c r="C57" s="413"/>
+      <c r="D57" s="428"/>
+      <c r="E57" s="413"/>
       <c r="F57" s="370"/>
       <c r="G57" s="370"/>
       <c r="H57" s="323"/>
@@ -4818,11 +5386,11 @@
       <c r="Q57" s="291"/>
     </row>
     <row r="58" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="414"/>
-      <c r="B58" s="420"/>
-      <c r="C58" s="414"/>
-      <c r="D58" s="417"/>
-      <c r="E58" s="414"/>
+      <c r="A58" s="413"/>
+      <c r="B58" s="425"/>
+      <c r="C58" s="413"/>
+      <c r="D58" s="428"/>
+      <c r="E58" s="413"/>
       <c r="F58" s="370"/>
       <c r="G58" s="370"/>
       <c r="H58" s="323"/>
@@ -4837,11 +5405,11 @@
       <c r="Q58" s="291"/>
     </row>
     <row r="59" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="414"/>
-      <c r="B59" s="420"/>
-      <c r="C59" s="414"/>
-      <c r="D59" s="417"/>
-      <c r="E59" s="414"/>
+      <c r="A59" s="413"/>
+      <c r="B59" s="425"/>
+      <c r="C59" s="413"/>
+      <c r="D59" s="428"/>
+      <c r="E59" s="413"/>
       <c r="F59" s="370"/>
       <c r="G59" s="370"/>
       <c r="H59" s="323"/>
@@ -4856,11 +5424,11 @@
       <c r="Q59" s="291"/>
     </row>
     <row r="60" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="415"/>
-      <c r="B60" s="421"/>
-      <c r="C60" s="415"/>
-      <c r="D60" s="418"/>
-      <c r="E60" s="415"/>
+      <c r="A60" s="414"/>
+      <c r="B60" s="426"/>
+      <c r="C60" s="414"/>
+      <c r="D60" s="429"/>
+      <c r="E60" s="414"/>
       <c r="F60" s="371"/>
       <c r="G60" s="371"/>
       <c r="H60" s="326"/>
@@ -4875,11 +5443,11 @@
       <c r="Q60" s="291"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="413"/>
-      <c r="B61" s="419"/>
-      <c r="C61" s="413"/>
-      <c r="D61" s="416"/>
-      <c r="E61" s="413"/>
+      <c r="A61" s="417"/>
+      <c r="B61" s="424"/>
+      <c r="C61" s="417"/>
+      <c r="D61" s="427"/>
+      <c r="E61" s="417"/>
       <c r="F61" s="369"/>
       <c r="G61" s="369"/>
       <c r="H61" s="319"/>
@@ -4894,11 +5462,11 @@
       <c r="Q61" s="291"/>
     </row>
     <row r="62" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="414"/>
-      <c r="B62" s="420"/>
-      <c r="C62" s="414"/>
-      <c r="D62" s="417"/>
-      <c r="E62" s="414"/>
+      <c r="A62" s="413"/>
+      <c r="B62" s="425"/>
+      <c r="C62" s="413"/>
+      <c r="D62" s="428"/>
+      <c r="E62" s="413"/>
       <c r="F62" s="370"/>
       <c r="G62" s="370"/>
       <c r="H62" s="323"/>
@@ -4913,11 +5481,11 @@
       <c r="Q62" s="291"/>
     </row>
     <row r="63" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="414"/>
-      <c r="B63" s="420"/>
-      <c r="C63" s="414"/>
-      <c r="D63" s="417"/>
-      <c r="E63" s="414"/>
+      <c r="A63" s="413"/>
+      <c r="B63" s="425"/>
+      <c r="C63" s="413"/>
+      <c r="D63" s="428"/>
+      <c r="E63" s="413"/>
       <c r="F63" s="370"/>
       <c r="G63" s="370"/>
       <c r="H63" s="323"/>
@@ -4932,11 +5500,11 @@
       <c r="Q63" s="291"/>
     </row>
     <row r="64" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="414"/>
-      <c r="B64" s="420"/>
-      <c r="C64" s="414"/>
-      <c r="D64" s="417"/>
-      <c r="E64" s="414"/>
+      <c r="A64" s="413"/>
+      <c r="B64" s="425"/>
+      <c r="C64" s="413"/>
+      <c r="D64" s="428"/>
+      <c r="E64" s="413"/>
       <c r="F64" s="370"/>
       <c r="G64" s="370"/>
       <c r="H64" s="323"/>
@@ -4951,11 +5519,11 @@
       <c r="Q64" s="291"/>
     </row>
     <row r="65" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="414"/>
-      <c r="B65" s="420"/>
-      <c r="C65" s="414"/>
-      <c r="D65" s="417"/>
-      <c r="E65" s="414"/>
+      <c r="A65" s="413"/>
+      <c r="B65" s="425"/>
+      <c r="C65" s="413"/>
+      <c r="D65" s="428"/>
+      <c r="E65" s="413"/>
       <c r="F65" s="370"/>
       <c r="G65" s="370"/>
       <c r="H65" s="323"/>
@@ -4969,11 +5537,11 @@
       <c r="P65" s="208"/>
     </row>
     <row r="66" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="414"/>
-      <c r="B66" s="420"/>
-      <c r="C66" s="414"/>
-      <c r="D66" s="417"/>
-      <c r="E66" s="414"/>
+      <c r="A66" s="413"/>
+      <c r="B66" s="425"/>
+      <c r="C66" s="413"/>
+      <c r="D66" s="428"/>
+      <c r="E66" s="413"/>
       <c r="F66" s="370"/>
       <c r="G66" s="370"/>
       <c r="H66" s="323"/>
@@ -4987,11 +5555,11 @@
       <c r="P66" s="208"/>
     </row>
     <row r="67" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="414"/>
-      <c r="B67" s="420"/>
-      <c r="C67" s="414"/>
-      <c r="D67" s="417"/>
-      <c r="E67" s="414"/>
+      <c r="A67" s="413"/>
+      <c r="B67" s="425"/>
+      <c r="C67" s="413"/>
+      <c r="D67" s="428"/>
+      <c r="E67" s="413"/>
       <c r="F67" s="370"/>
       <c r="G67" s="370"/>
       <c r="H67" s="323"/>
@@ -5005,11 +5573,11 @@
       <c r="P67" s="208"/>
     </row>
     <row r="68" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="415"/>
-      <c r="B68" s="421"/>
-      <c r="C68" s="415"/>
-      <c r="D68" s="418"/>
-      <c r="E68" s="415"/>
+      <c r="A68" s="414"/>
+      <c r="B68" s="426"/>
+      <c r="C68" s="414"/>
+      <c r="D68" s="429"/>
+      <c r="E68" s="414"/>
       <c r="F68" s="371"/>
       <c r="G68" s="371"/>
       <c r="H68" s="326"/>
@@ -5059,11 +5627,11 @@
       <c r="P70" s="141"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="413"/>
-      <c r="B71" s="422"/>
-      <c r="C71" s="413"/>
-      <c r="D71" s="413"/>
-      <c r="E71" s="413"/>
+      <c r="A71" s="417"/>
+      <c r="B71" s="418"/>
+      <c r="C71" s="417"/>
+      <c r="D71" s="417"/>
+      <c r="E71" s="417"/>
       <c r="F71" s="369"/>
       <c r="G71" s="369"/>
       <c r="H71" s="319"/>
@@ -5077,11 +5645,11 @@
       <c r="P71" s="203"/>
     </row>
     <row r="72" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="415"/>
-      <c r="B72" s="423"/>
-      <c r="C72" s="415"/>
-      <c r="D72" s="415"/>
-      <c r="E72" s="415"/>
+      <c r="A72" s="414"/>
+      <c r="B72" s="419"/>
+      <c r="C72" s="414"/>
+      <c r="D72" s="414"/>
+      <c r="E72" s="414"/>
       <c r="F72" s="371"/>
       <c r="G72" s="371"/>
       <c r="H72" s="326"/>
@@ -5095,11 +5663,11 @@
       <c r="P72" s="212"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="413"/>
-      <c r="B73" s="422"/>
-      <c r="C73" s="413"/>
-      <c r="D73" s="413"/>
-      <c r="E73" s="413"/>
+      <c r="A73" s="417"/>
+      <c r="B73" s="418"/>
+      <c r="C73" s="417"/>
+      <c r="D73" s="417"/>
+      <c r="E73" s="417"/>
       <c r="F73" s="369"/>
       <c r="G73" s="369"/>
       <c r="H73" s="319"/>
@@ -5113,11 +5681,11 @@
       <c r="P73" s="203"/>
     </row>
     <row r="74" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="414"/>
-      <c r="B74" s="424"/>
-      <c r="C74" s="414"/>
-      <c r="D74" s="414"/>
-      <c r="E74" s="414"/>
+      <c r="A74" s="413"/>
+      <c r="B74" s="420"/>
+      <c r="C74" s="413"/>
+      <c r="D74" s="413"/>
+      <c r="E74" s="413"/>
       <c r="F74" s="370"/>
       <c r="G74" s="370"/>
       <c r="H74" s="323"/>
@@ -5131,11 +5699,11 @@
       <c r="P74" s="370"/>
     </row>
     <row r="75" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="415"/>
-      <c r="B75" s="423"/>
-      <c r="C75" s="415"/>
-      <c r="D75" s="415"/>
-      <c r="E75" s="415"/>
+      <c r="A75" s="414"/>
+      <c r="B75" s="419"/>
+      <c r="C75" s="414"/>
+      <c r="D75" s="414"/>
+      <c r="E75" s="414"/>
       <c r="F75" s="371"/>
       <c r="G75" s="371"/>
       <c r="H75" s="326"/>
@@ -5149,11 +5717,11 @@
       <c r="P75" s="371"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="413"/>
-      <c r="B76" s="422"/>
-      <c r="C76" s="413"/>
-      <c r="D76" s="413"/>
-      <c r="E76" s="413"/>
+      <c r="A76" s="417"/>
+      <c r="B76" s="418"/>
+      <c r="C76" s="417"/>
+      <c r="D76" s="417"/>
+      <c r="E76" s="417"/>
       <c r="F76" s="369"/>
       <c r="G76" s="369"/>
       <c r="H76" s="319"/>
@@ -5164,14 +5732,14 @@
       <c r="M76" s="319"/>
       <c r="N76" s="319"/>
       <c r="O76" s="319"/>
-      <c r="P76" s="413"/>
+      <c r="P76" s="417"/>
     </row>
     <row r="77" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="414"/>
-      <c r="B77" s="424"/>
-      <c r="C77" s="414"/>
-      <c r="D77" s="414"/>
-      <c r="E77" s="414"/>
+      <c r="A77" s="413"/>
+      <c r="B77" s="420"/>
+      <c r="C77" s="413"/>
+      <c r="D77" s="413"/>
+      <c r="E77" s="413"/>
       <c r="F77" s="370"/>
       <c r="G77" s="370"/>
       <c r="H77" s="323"/>
@@ -5182,14 +5750,14 @@
       <c r="M77" s="323"/>
       <c r="N77" s="323"/>
       <c r="O77" s="323"/>
-      <c r="P77" s="414"/>
+      <c r="P77" s="413"/>
     </row>
     <row r="78" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="415"/>
-      <c r="B78" s="423"/>
-      <c r="C78" s="415"/>
-      <c r="D78" s="415"/>
-      <c r="E78" s="415"/>
+      <c r="A78" s="414"/>
+      <c r="B78" s="419"/>
+      <c r="C78" s="414"/>
+      <c r="D78" s="414"/>
+      <c r="E78" s="414"/>
       <c r="F78" s="371"/>
       <c r="G78" s="371"/>
       <c r="H78" s="326"/>
@@ -5200,7 +5768,7 @@
       <c r="M78" s="326"/>
       <c r="N78" s="326"/>
       <c r="O78" s="326"/>
-      <c r="P78" s="415"/>
+      <c r="P78" s="414"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="372"/>
@@ -5221,11 +5789,11 @@
       <c r="P79" s="372"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="413"/>
-      <c r="B80" s="422"/>
-      <c r="C80" s="413"/>
-      <c r="D80" s="413"/>
-      <c r="E80" s="413"/>
+      <c r="A80" s="417"/>
+      <c r="B80" s="418"/>
+      <c r="C80" s="417"/>
+      <c r="D80" s="417"/>
+      <c r="E80" s="417"/>
       <c r="F80" s="369"/>
       <c r="G80" s="369"/>
       <c r="H80" s="319"/>
@@ -5236,14 +5804,14 @@
       <c r="M80" s="319"/>
       <c r="N80" s="319"/>
       <c r="O80" s="319"/>
-      <c r="P80" s="440"/>
+      <c r="P80" s="421"/>
     </row>
     <row r="81" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="414"/>
-      <c r="B81" s="424"/>
-      <c r="C81" s="414"/>
-      <c r="D81" s="414"/>
-      <c r="E81" s="414"/>
+      <c r="A81" s="413"/>
+      <c r="B81" s="420"/>
+      <c r="C81" s="413"/>
+      <c r="D81" s="413"/>
+      <c r="E81" s="413"/>
       <c r="F81" s="370"/>
       <c r="G81" s="370"/>
       <c r="H81" s="323"/>
@@ -5254,14 +5822,14 @@
       <c r="M81" s="323"/>
       <c r="N81" s="323"/>
       <c r="O81" s="323"/>
-      <c r="P81" s="441"/>
+      <c r="P81" s="415"/>
     </row>
     <row r="82" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="414"/>
-      <c r="B82" s="424"/>
-      <c r="C82" s="414"/>
-      <c r="D82" s="414"/>
-      <c r="E82" s="414"/>
+      <c r="A82" s="413"/>
+      <c r="B82" s="420"/>
+      <c r="C82" s="413"/>
+      <c r="D82" s="413"/>
+      <c r="E82" s="413"/>
       <c r="F82" s="370"/>
       <c r="G82" s="370"/>
       <c r="H82" s="323"/>
@@ -5272,14 +5840,14 @@
       <c r="M82" s="323"/>
       <c r="N82" s="323"/>
       <c r="O82" s="323"/>
-      <c r="P82" s="441"/>
+      <c r="P82" s="415"/>
     </row>
     <row r="83" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="414"/>
-      <c r="B83" s="424"/>
-      <c r="C83" s="414"/>
-      <c r="D83" s="414"/>
-      <c r="E83" s="414"/>
+      <c r="A83" s="413"/>
+      <c r="B83" s="420"/>
+      <c r="C83" s="413"/>
+      <c r="D83" s="413"/>
+      <c r="E83" s="413"/>
       <c r="F83" s="370"/>
       <c r="G83" s="370"/>
       <c r="H83" s="323"/>
@@ -5290,14 +5858,14 @@
       <c r="M83" s="323"/>
       <c r="N83" s="323"/>
       <c r="O83" s="323"/>
-      <c r="P83" s="441"/>
+      <c r="P83" s="415"/>
     </row>
     <row r="84" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="414"/>
-      <c r="B84" s="424"/>
-      <c r="C84" s="414"/>
-      <c r="D84" s="414"/>
-      <c r="E84" s="414"/>
+      <c r="A84" s="413"/>
+      <c r="B84" s="420"/>
+      <c r="C84" s="413"/>
+      <c r="D84" s="413"/>
+      <c r="E84" s="413"/>
       <c r="F84" s="370"/>
       <c r="G84" s="370"/>
       <c r="H84" s="323"/>
@@ -5308,14 +5876,14 @@
       <c r="M84" s="323"/>
       <c r="N84" s="323"/>
       <c r="O84" s="323"/>
-      <c r="P84" s="441"/>
+      <c r="P84" s="415"/>
     </row>
     <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="414"/>
-      <c r="B85" s="424"/>
-      <c r="C85" s="414"/>
-      <c r="D85" s="414"/>
-      <c r="E85" s="414"/>
+      <c r="A85" s="413"/>
+      <c r="B85" s="420"/>
+      <c r="C85" s="413"/>
+      <c r="D85" s="413"/>
+      <c r="E85" s="413"/>
       <c r="F85" s="370"/>
       <c r="G85" s="370"/>
       <c r="H85" s="323"/>
@@ -5326,14 +5894,14 @@
       <c r="M85" s="323"/>
       <c r="N85" s="323"/>
       <c r="O85" s="323"/>
-      <c r="P85" s="441"/>
+      <c r="P85" s="415"/>
     </row>
     <row r="86" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="414"/>
-      <c r="B86" s="424"/>
-      <c r="C86" s="414"/>
-      <c r="D86" s="414"/>
-      <c r="E86" s="414"/>
+      <c r="A86" s="413"/>
+      <c r="B86" s="420"/>
+      <c r="C86" s="413"/>
+      <c r="D86" s="413"/>
+      <c r="E86" s="413"/>
       <c r="F86" s="370"/>
       <c r="G86" s="370"/>
       <c r="H86" s="323"/>
@@ -5344,14 +5912,14 @@
       <c r="M86" s="323"/>
       <c r="N86" s="323"/>
       <c r="O86" s="323"/>
-      <c r="P86" s="441"/>
+      <c r="P86" s="415"/>
     </row>
     <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="415"/>
-      <c r="B87" s="423"/>
-      <c r="C87" s="415"/>
-      <c r="D87" s="415"/>
-      <c r="E87" s="415"/>
+      <c r="A87" s="414"/>
+      <c r="B87" s="419"/>
+      <c r="C87" s="414"/>
+      <c r="D87" s="414"/>
+      <c r="E87" s="414"/>
       <c r="F87" s="371"/>
       <c r="G87" s="371"/>
       <c r="H87" s="326"/>
@@ -5362,14 +5930,14 @@
       <c r="M87" s="326"/>
       <c r="N87" s="326"/>
       <c r="O87" s="326"/>
-      <c r="P87" s="442"/>
+      <c r="P87" s="423"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="413"/>
-      <c r="B88" s="422"/>
-      <c r="C88" s="413"/>
-      <c r="D88" s="413"/>
-      <c r="E88" s="413"/>
+      <c r="A88" s="417"/>
+      <c r="B88" s="418"/>
+      <c r="C88" s="417"/>
+      <c r="D88" s="417"/>
+      <c r="E88" s="417"/>
       <c r="F88" s="369"/>
       <c r="G88" s="369"/>
       <c r="H88" s="319"/>
@@ -5380,14 +5948,14 @@
       <c r="M88" s="319"/>
       <c r="N88" s="319"/>
       <c r="O88" s="319"/>
-      <c r="P88" s="440"/>
+      <c r="P88" s="421"/>
     </row>
     <row r="89" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="414"/>
-      <c r="B89" s="424"/>
-      <c r="C89" s="414"/>
-      <c r="D89" s="414"/>
-      <c r="E89" s="414"/>
+      <c r="A89" s="413"/>
+      <c r="B89" s="420"/>
+      <c r="C89" s="413"/>
+      <c r="D89" s="413"/>
+      <c r="E89" s="413"/>
       <c r="F89" s="370"/>
       <c r="G89" s="370"/>
       <c r="H89" s="323"/>
@@ -5398,14 +5966,14 @@
       <c r="M89" s="323"/>
       <c r="N89" s="323"/>
       <c r="O89" s="323"/>
-      <c r="P89" s="441"/>
+      <c r="P89" s="415"/>
     </row>
     <row r="90" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="414"/>
-      <c r="B90" s="424"/>
-      <c r="C90" s="414"/>
-      <c r="D90" s="414"/>
-      <c r="E90" s="414"/>
+      <c r="A90" s="413"/>
+      <c r="B90" s="420"/>
+      <c r="C90" s="413"/>
+      <c r="D90" s="413"/>
+      <c r="E90" s="413"/>
       <c r="F90" s="370"/>
       <c r="G90" s="370"/>
       <c r="H90" s="323"/>
@@ -5416,14 +5984,14 @@
       <c r="M90" s="323"/>
       <c r="N90" s="323"/>
       <c r="O90" s="323"/>
-      <c r="P90" s="441"/>
+      <c r="P90" s="415"/>
     </row>
     <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="414"/>
-      <c r="B91" s="424"/>
-      <c r="C91" s="414"/>
-      <c r="D91" s="414"/>
-      <c r="E91" s="414"/>
+      <c r="A91" s="413"/>
+      <c r="B91" s="420"/>
+      <c r="C91" s="413"/>
+      <c r="D91" s="413"/>
+      <c r="E91" s="413"/>
       <c r="F91" s="370"/>
       <c r="G91" s="370"/>
       <c r="H91" s="323"/>
@@ -5434,14 +6002,14 @@
       <c r="M91" s="323"/>
       <c r="N91" s="323"/>
       <c r="O91" s="323"/>
-      <c r="P91" s="441"/>
+      <c r="P91" s="415"/>
     </row>
     <row r="92" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="414"/>
-      <c r="B92" s="424"/>
-      <c r="C92" s="414"/>
-      <c r="D92" s="414"/>
-      <c r="E92" s="414"/>
+      <c r="A92" s="413"/>
+      <c r="B92" s="420"/>
+      <c r="C92" s="413"/>
+      <c r="D92" s="413"/>
+      <c r="E92" s="413"/>
       <c r="F92" s="370"/>
       <c r="G92" s="370"/>
       <c r="H92" s="323"/>
@@ -5452,14 +6020,14 @@
       <c r="M92" s="323"/>
       <c r="N92" s="323"/>
       <c r="O92" s="323"/>
-      <c r="P92" s="441"/>
+      <c r="P92" s="415"/>
     </row>
     <row r="93" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="414"/>
-      <c r="B93" s="424"/>
-      <c r="C93" s="414"/>
-      <c r="D93" s="414"/>
-      <c r="E93" s="414"/>
+      <c r="A93" s="413"/>
+      <c r="B93" s="420"/>
+      <c r="C93" s="413"/>
+      <c r="D93" s="413"/>
+      <c r="E93" s="413"/>
       <c r="F93" s="370"/>
       <c r="G93" s="370"/>
       <c r="H93" s="323"/>
@@ -5470,14 +6038,14 @@
       <c r="M93" s="323"/>
       <c r="N93" s="323"/>
       <c r="O93" s="323"/>
-      <c r="P93" s="441"/>
+      <c r="P93" s="415"/>
     </row>
     <row r="94" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="415"/>
-      <c r="B94" s="423"/>
-      <c r="C94" s="415"/>
-      <c r="D94" s="415"/>
-      <c r="E94" s="415"/>
+      <c r="A94" s="414"/>
+      <c r="B94" s="419"/>
+      <c r="C94" s="414"/>
+      <c r="D94" s="414"/>
+      <c r="E94" s="414"/>
       <c r="F94" s="371"/>
       <c r="G94" s="371"/>
       <c r="H94" s="326"/>
@@ -5488,14 +6056,14 @@
       <c r="M94" s="326"/>
       <c r="N94" s="326"/>
       <c r="O94" s="326"/>
-      <c r="P94" s="442"/>
+      <c r="P94" s="423"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="413"/>
-      <c r="B95" s="422"/>
-      <c r="C95" s="413"/>
-      <c r="D95" s="413"/>
-      <c r="E95" s="413"/>
+      <c r="A95" s="417"/>
+      <c r="B95" s="418"/>
+      <c r="C95" s="417"/>
+      <c r="D95" s="417"/>
+      <c r="E95" s="417"/>
       <c r="F95" s="369"/>
       <c r="G95" s="369"/>
       <c r="H95" s="319"/>
@@ -5509,11 +6077,11 @@
       <c r="P95" s="369"/>
     </row>
     <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="414"/>
-      <c r="B96" s="424"/>
-      <c r="C96" s="414"/>
-      <c r="D96" s="414"/>
-      <c r="E96" s="414"/>
+      <c r="A96" s="413"/>
+      <c r="B96" s="420"/>
+      <c r="C96" s="413"/>
+      <c r="D96" s="413"/>
+      <c r="E96" s="413"/>
       <c r="F96" s="370"/>
       <c r="G96" s="370"/>
       <c r="H96" s="323"/>
@@ -5527,11 +6095,11 @@
       <c r="P96" s="370"/>
     </row>
     <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="414"/>
-      <c r="B97" s="424"/>
-      <c r="C97" s="414"/>
-      <c r="D97" s="414"/>
-      <c r="E97" s="414"/>
+      <c r="A97" s="413"/>
+      <c r="B97" s="420"/>
+      <c r="C97" s="413"/>
+      <c r="D97" s="413"/>
+      <c r="E97" s="413"/>
       <c r="F97" s="370"/>
       <c r="G97" s="370"/>
       <c r="H97" s="323"/>
@@ -5545,11 +6113,11 @@
       <c r="P97" s="370"/>
     </row>
     <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="415"/>
-      <c r="B98" s="423"/>
-      <c r="C98" s="415"/>
-      <c r="D98" s="415"/>
-      <c r="E98" s="415"/>
+      <c r="A98" s="414"/>
+      <c r="B98" s="419"/>
+      <c r="C98" s="414"/>
+      <c r="D98" s="414"/>
+      <c r="E98" s="414"/>
       <c r="F98" s="371"/>
       <c r="G98" s="371"/>
       <c r="H98" s="326"/>
@@ -5563,11 +6131,11 @@
       <c r="P98" s="371"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="413"/>
-      <c r="B99" s="422"/>
-      <c r="C99" s="413"/>
-      <c r="D99" s="413"/>
-      <c r="E99" s="413"/>
+      <c r="A99" s="417"/>
+      <c r="B99" s="418"/>
+      <c r="C99" s="417"/>
+      <c r="D99" s="417"/>
+      <c r="E99" s="417"/>
       <c r="F99" s="369"/>
       <c r="G99" s="369"/>
       <c r="H99" s="319"/>
@@ -5581,11 +6149,11 @@
       <c r="P99" s="369"/>
     </row>
     <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="415"/>
-      <c r="B100" s="423"/>
-      <c r="C100" s="415"/>
-      <c r="D100" s="415"/>
-      <c r="E100" s="415"/>
+      <c r="A100" s="414"/>
+      <c r="B100" s="419"/>
+      <c r="C100" s="414"/>
+      <c r="D100" s="414"/>
+      <c r="E100" s="414"/>
       <c r="F100" s="371"/>
       <c r="G100" s="371"/>
       <c r="H100" s="326"/>
@@ -5599,11 +6167,11 @@
       <c r="P100" s="371"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="413"/>
-      <c r="B101" s="422"/>
-      <c r="C101" s="413"/>
-      <c r="D101" s="413"/>
-      <c r="E101" s="413"/>
+      <c r="A101" s="417"/>
+      <c r="B101" s="418"/>
+      <c r="C101" s="417"/>
+      <c r="D101" s="417"/>
+      <c r="E101" s="417"/>
       <c r="F101" s="383"/>
       <c r="G101" s="383"/>
       <c r="H101" s="319"/>
@@ -5617,11 +6185,11 @@
       <c r="P101" s="383"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="415"/>
-      <c r="B102" s="423"/>
-      <c r="C102" s="415"/>
-      <c r="D102" s="415"/>
-      <c r="E102" s="415"/>
+      <c r="A102" s="414"/>
+      <c r="B102" s="419"/>
+      <c r="C102" s="414"/>
+      <c r="D102" s="414"/>
+      <c r="E102" s="414"/>
       <c r="F102" s="385"/>
       <c r="G102" s="385"/>
       <c r="H102" s="326"/>
@@ -5635,11 +6203,11 @@
       <c r="P102" s="385"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="413"/>
-      <c r="B103" s="422"/>
-      <c r="C103" s="413"/>
-      <c r="D103" s="413"/>
-      <c r="E103" s="413"/>
+      <c r="A103" s="417"/>
+      <c r="B103" s="418"/>
+      <c r="C103" s="417"/>
+      <c r="D103" s="417"/>
+      <c r="E103" s="417"/>
       <c r="F103" s="383"/>
       <c r="G103" s="383"/>
       <c r="H103" s="319"/>
@@ -5653,11 +6221,11 @@
       <c r="P103" s="383"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="414"/>
-      <c r="B104" s="424"/>
-      <c r="C104" s="414"/>
-      <c r="D104" s="414"/>
-      <c r="E104" s="414"/>
+      <c r="A104" s="413"/>
+      <c r="B104" s="420"/>
+      <c r="C104" s="413"/>
+      <c r="D104" s="413"/>
+      <c r="E104" s="413"/>
       <c r="F104" s="384"/>
       <c r="G104" s="384"/>
       <c r="H104" s="323"/>
@@ -5671,11 +6239,11 @@
       <c r="P104" s="384"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="415"/>
-      <c r="B105" s="423"/>
-      <c r="C105" s="415"/>
-      <c r="D105" s="415"/>
-      <c r="E105" s="415"/>
+      <c r="A105" s="414"/>
+      <c r="B105" s="419"/>
+      <c r="C105" s="414"/>
+      <c r="D105" s="414"/>
+      <c r="E105" s="414"/>
       <c r="F105" s="385"/>
       <c r="G105" s="385"/>
       <c r="H105" s="326"/>
@@ -5689,11 +6257,11 @@
       <c r="P105" s="385"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="440"/>
-      <c r="B106" s="448"/>
-      <c r="C106" s="440"/>
-      <c r="D106" s="440"/>
-      <c r="E106" s="440"/>
+      <c r="A106" s="421"/>
+      <c r="B106" s="422"/>
+      <c r="C106" s="421"/>
+      <c r="D106" s="421"/>
+      <c r="E106" s="421"/>
       <c r="F106" s="318"/>
       <c r="G106" s="318"/>
       <c r="H106" s="319"/>
@@ -5704,14 +6272,14 @@
       <c r="M106" s="319"/>
       <c r="N106" s="319"/>
       <c r="O106" s="319"/>
-      <c r="P106" s="446"/>
+      <c r="P106" s="409"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="441"/>
-      <c r="B107" s="449"/>
-      <c r="C107" s="441"/>
-      <c r="D107" s="441"/>
-      <c r="E107" s="441"/>
+      <c r="A107" s="415"/>
+      <c r="B107" s="416"/>
+      <c r="C107" s="415"/>
+      <c r="D107" s="415"/>
+      <c r="E107" s="415"/>
       <c r="F107" s="322"/>
       <c r="G107" s="322"/>
       <c r="H107" s="323"/>
@@ -5722,14 +6290,14 @@
       <c r="M107" s="323"/>
       <c r="N107" s="323"/>
       <c r="O107" s="323"/>
-      <c r="P107" s="447"/>
+      <c r="P107" s="410"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="441"/>
-      <c r="B108" s="449"/>
-      <c r="C108" s="441"/>
-      <c r="D108" s="441"/>
-      <c r="E108" s="441"/>
+      <c r="A108" s="415"/>
+      <c r="B108" s="416"/>
+      <c r="C108" s="415"/>
+      <c r="D108" s="415"/>
+      <c r="E108" s="415"/>
       <c r="F108" s="322"/>
       <c r="G108" s="322"/>
       <c r="H108" s="323"/>
@@ -5740,14 +6308,14 @@
       <c r="M108" s="323"/>
       <c r="N108" s="323"/>
       <c r="O108" s="323"/>
-      <c r="P108" s="447"/>
+      <c r="P108" s="410"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="441"/>
-      <c r="B109" s="449"/>
-      <c r="C109" s="441"/>
-      <c r="D109" s="441"/>
-      <c r="E109" s="441"/>
+      <c r="A109" s="415"/>
+      <c r="B109" s="416"/>
+      <c r="C109" s="415"/>
+      <c r="D109" s="415"/>
+      <c r="E109" s="415"/>
       <c r="F109" s="322"/>
       <c r="G109" s="322"/>
       <c r="H109" s="323"/>
@@ -5758,14 +6326,14 @@
       <c r="M109" s="323"/>
       <c r="N109" s="323"/>
       <c r="O109" s="323"/>
-      <c r="P109" s="447"/>
+      <c r="P109" s="410"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="441"/>
-      <c r="B110" s="449"/>
-      <c r="C110" s="441"/>
-      <c r="D110" s="441"/>
-      <c r="E110" s="441"/>
+      <c r="A110" s="415"/>
+      <c r="B110" s="416"/>
+      <c r="C110" s="415"/>
+      <c r="D110" s="415"/>
+      <c r="E110" s="415"/>
       <c r="F110" s="322"/>
       <c r="G110" s="322"/>
       <c r="H110" s="323"/>
@@ -5776,14 +6344,14 @@
       <c r="M110" s="323"/>
       <c r="N110" s="323"/>
       <c r="O110" s="323"/>
-      <c r="P110" s="447"/>
+      <c r="P110" s="410"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="441"/>
-      <c r="B111" s="449"/>
-      <c r="C111" s="441"/>
-      <c r="D111" s="441"/>
-      <c r="E111" s="441"/>
+      <c r="A111" s="415"/>
+      <c r="B111" s="416"/>
+      <c r="C111" s="415"/>
+      <c r="D111" s="415"/>
+      <c r="E111" s="415"/>
       <c r="F111" s="389"/>
       <c r="G111" s="389"/>
       <c r="H111" s="390"/>
@@ -5794,14 +6362,14 @@
       <c r="M111" s="390"/>
       <c r="N111" s="390"/>
       <c r="O111" s="390"/>
-      <c r="P111" s="447"/>
+      <c r="P111" s="410"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="413"/>
-      <c r="B112" s="422"/>
-      <c r="C112" s="413"/>
-      <c r="D112" s="413"/>
-      <c r="E112" s="413"/>
+      <c r="A112" s="417"/>
+      <c r="B112" s="418"/>
+      <c r="C112" s="417"/>
+      <c r="D112" s="417"/>
+      <c r="E112" s="417"/>
       <c r="F112" s="383"/>
       <c r="G112" s="383"/>
       <c r="H112" s="319"/>
@@ -5815,11 +6383,11 @@
       <c r="P112" s="386"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="415"/>
-      <c r="B113" s="423"/>
-      <c r="C113" s="415"/>
-      <c r="D113" s="415"/>
-      <c r="E113" s="415"/>
+      <c r="A113" s="414"/>
+      <c r="B113" s="419"/>
+      <c r="C113" s="414"/>
+      <c r="D113" s="414"/>
+      <c r="E113" s="414"/>
       <c r="F113" s="385"/>
       <c r="G113" s="385"/>
       <c r="H113" s="326"/>
@@ -5833,11 +6401,11 @@
       <c r="P113" s="387"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="413"/>
-      <c r="B114" s="422"/>
-      <c r="C114" s="413"/>
-      <c r="D114" s="413"/>
-      <c r="E114" s="413"/>
+      <c r="A114" s="417"/>
+      <c r="B114" s="418"/>
+      <c r="C114" s="417"/>
+      <c r="D114" s="417"/>
+      <c r="E114" s="417"/>
       <c r="F114" s="383"/>
       <c r="G114" s="383"/>
       <c r="H114" s="319"/>
@@ -5851,11 +6419,11 @@
       <c r="P114" s="386"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="415"/>
-      <c r="B115" s="423"/>
-      <c r="C115" s="415"/>
-      <c r="D115" s="415"/>
-      <c r="E115" s="415"/>
+      <c r="A115" s="414"/>
+      <c r="B115" s="419"/>
+      <c r="C115" s="414"/>
+      <c r="D115" s="414"/>
+      <c r="E115" s="414"/>
       <c r="F115" s="385"/>
       <c r="G115" s="385"/>
       <c r="H115" s="326"/>
@@ -5887,11 +6455,11 @@
       <c r="P116" s="293"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="441"/>
-      <c r="B117" s="449"/>
-      <c r="C117" s="441"/>
-      <c r="D117" s="451"/>
-      <c r="E117" s="451"/>
+      <c r="A117" s="415"/>
+      <c r="B117" s="416"/>
+      <c r="C117" s="415"/>
+      <c r="D117" s="412"/>
+      <c r="E117" s="412"/>
       <c r="F117" s="388"/>
       <c r="G117" s="388"/>
       <c r="H117" s="361"/>
@@ -5902,14 +6470,14 @@
       <c r="M117" s="361"/>
       <c r="N117" s="361"/>
       <c r="O117" s="361"/>
-      <c r="P117" s="446"/>
+      <c r="P117" s="409"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="441"/>
-      <c r="B118" s="449"/>
-      <c r="C118" s="441"/>
-      <c r="D118" s="414"/>
-      <c r="E118" s="414"/>
+      <c r="A118" s="415"/>
+      <c r="B118" s="416"/>
+      <c r="C118" s="415"/>
+      <c r="D118" s="413"/>
+      <c r="E118" s="413"/>
       <c r="F118" s="384"/>
       <c r="G118" s="384"/>
       <c r="H118" s="323"/>
@@ -5920,14 +6488,14 @@
       <c r="M118" s="323"/>
       <c r="N118" s="323"/>
       <c r="O118" s="323"/>
-      <c r="P118" s="447"/>
+      <c r="P118" s="410"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="441"/>
-      <c r="B119" s="449"/>
-      <c r="C119" s="441"/>
-      <c r="D119" s="414"/>
-      <c r="E119" s="414"/>
+      <c r="A119" s="415"/>
+      <c r="B119" s="416"/>
+      <c r="C119" s="415"/>
+      <c r="D119" s="413"/>
+      <c r="E119" s="413"/>
       <c r="F119" s="384"/>
       <c r="G119" s="384"/>
       <c r="H119" s="323"/>
@@ -5938,14 +6506,14 @@
       <c r="M119" s="323"/>
       <c r="N119" s="323"/>
       <c r="O119" s="323"/>
-      <c r="P119" s="447"/>
+      <c r="P119" s="410"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="441"/>
-      <c r="B120" s="449"/>
-      <c r="C120" s="441"/>
-      <c r="D120" s="415"/>
-      <c r="E120" s="415"/>
+      <c r="A120" s="415"/>
+      <c r="B120" s="416"/>
+      <c r="C120" s="415"/>
+      <c r="D120" s="414"/>
+      <c r="E120" s="414"/>
       <c r="F120" s="385"/>
       <c r="G120" s="385"/>
       <c r="H120" s="326"/>
@@ -5956,14 +6524,14 @@
       <c r="M120" s="326"/>
       <c r="N120" s="326"/>
       <c r="O120" s="326"/>
-      <c r="P120" s="450"/>
+      <c r="P120" s="411"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="413"/>
-      <c r="B121" s="422"/>
-      <c r="C121" s="413"/>
-      <c r="D121" s="413"/>
-      <c r="E121" s="413"/>
+      <c r="A121" s="417"/>
+      <c r="B121" s="418"/>
+      <c r="C121" s="417"/>
+      <c r="D121" s="417"/>
+      <c r="E121" s="417"/>
       <c r="F121" s="383"/>
       <c r="G121" s="383"/>
       <c r="H121" s="319"/>
@@ -5977,11 +6545,11 @@
       <c r="P121" s="386"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="415"/>
-      <c r="B122" s="423"/>
-      <c r="C122" s="415"/>
-      <c r="D122" s="415"/>
-      <c r="E122" s="415"/>
+      <c r="A122" s="414"/>
+      <c r="B122" s="419"/>
+      <c r="C122" s="414"/>
+      <c r="D122" s="414"/>
+      <c r="E122" s="414"/>
       <c r="F122" s="385"/>
       <c r="G122" s="385"/>
       <c r="H122" s="326"/>
@@ -5995,14 +6563,14 @@
       <c r="P122" s="385"/>
     </row>
     <row r="123" spans="1:17" s="301" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A123" s="411" t="s">
-        <v>78</v>
-      </c>
-      <c r="B123" s="411"/>
-      <c r="C123" s="411"/>
-      <c r="D123" s="411"/>
-      <c r="E123" s="411"/>
-      <c r="F123" s="411"/>
+      <c r="A123" s="450" t="s">
+        <v>77</v>
+      </c>
+      <c r="B123" s="450"/>
+      <c r="C123" s="450"/>
+      <c r="D123" s="450"/>
+      <c r="E123" s="450"/>
+      <c r="F123" s="450"/>
       <c r="G123" s="392">
         <f>SUM(G9:G122)</f>
         <v>0</v>
@@ -6021,18 +6589,18 @@
       <c r="M123" s="398"/>
       <c r="N123" s="398"/>
       <c r="O123" s="398"/>
-      <c r="P123" s="412"/>
-      <c r="Q123" s="409"/>
+      <c r="P123" s="451"/>
+      <c r="Q123" s="448"/>
     </row>
     <row r="124" spans="1:17" s="301" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A124" s="410" t="s">
-        <v>138</v>
-      </c>
-      <c r="B124" s="410"/>
-      <c r="C124" s="410"/>
-      <c r="D124" s="410"/>
-      <c r="E124" s="410"/>
-      <c r="F124" s="410"/>
+      <c r="A124" s="449" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="449"/>
+      <c r="C124" s="449"/>
+      <c r="D124" s="449"/>
+      <c r="E124" s="449"/>
+      <c r="F124" s="449"/>
       <c r="G124" s="295">
         <f>G123</f>
         <v>0</v>
@@ -6048,18 +6616,18 @@
       <c r="M124" s="298"/>
       <c r="N124" s="298"/>
       <c r="O124" s="298"/>
-      <c r="P124" s="412"/>
-      <c r="Q124" s="409"/>
+      <c r="P124" s="451"/>
+      <c r="Q124" s="448"/>
     </row>
     <row r="125" spans="1:17" s="301" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A125" s="410" t="s">
-        <v>79</v>
-      </c>
-      <c r="B125" s="410"/>
-      <c r="C125" s="410"/>
-      <c r="D125" s="410"/>
-      <c r="E125" s="410"/>
-      <c r="F125" s="410"/>
+      <c r="A125" s="449" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" s="449"/>
+      <c r="C125" s="449"/>
+      <c r="D125" s="449"/>
+      <c r="E125" s="449"/>
+      <c r="F125" s="449"/>
       <c r="G125" s="302" t="s">
         <v>49</v>
       </c>
@@ -6076,14 +6644,14 @@
       <c r="O125" s="298"/>
     </row>
     <row r="126" spans="1:17" s="301" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A126" s="410" t="s">
-        <v>80</v>
-      </c>
-      <c r="B126" s="410"/>
-      <c r="C126" s="410"/>
-      <c r="D126" s="410"/>
-      <c r="E126" s="410"/>
-      <c r="F126" s="410"/>
+      <c r="A126" s="449" t="s">
+        <v>79</v>
+      </c>
+      <c r="B126" s="449"/>
+      <c r="C126" s="449"/>
+      <c r="D126" s="449"/>
+      <c r="E126" s="449"/>
+      <c r="F126" s="449"/>
       <c r="G126" s="302"/>
       <c r="H126" s="354"/>
       <c r="I126" s="296"/>
@@ -6098,14 +6666,14 @@
       <c r="O126" s="298"/>
     </row>
     <row r="127" spans="1:17" s="301" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A127" s="410" t="s">
-        <v>81</v>
-      </c>
-      <c r="B127" s="410"/>
-      <c r="C127" s="410"/>
-      <c r="D127" s="410"/>
-      <c r="E127" s="410"/>
-      <c r="F127" s="410"/>
+      <c r="A127" s="449" t="s">
+        <v>80</v>
+      </c>
+      <c r="B127" s="449"/>
+      <c r="C127" s="449"/>
+      <c r="D127" s="449"/>
+      <c r="E127" s="449"/>
+      <c r="F127" s="449"/>
       <c r="G127" s="302"/>
       <c r="H127" s="354"/>
       <c r="I127" s="296"/>
@@ -6122,7 +6690,7 @@
     <row r="130" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C130" s="304"/>
       <c r="E130" s="304" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F130" s="304"/>
       <c r="G130" s="304"/>
@@ -6182,143 +6750,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="161">
-    <mergeCell ref="P117:P120"/>
-    <mergeCell ref="E117:E120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="P106:P111"/>
-    <mergeCell ref="E106:E111"/>
-    <mergeCell ref="D106:D111"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="P88:P94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="C88:C94"/>
-    <mergeCell ref="D88:D94"/>
-    <mergeCell ref="E88:E94"/>
-    <mergeCell ref="P80:P87"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="C80:C87"/>
-    <mergeCell ref="D80:D87"/>
-    <mergeCell ref="E80:E87"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="D61:D68"/>
-    <mergeCell ref="E61:E68"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="D54:D60"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="P32:P34"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="Q123:Q124"/>
     <mergeCell ref="A124:F124"/>
     <mergeCell ref="A125:F125"/>
@@ -6343,6 +6774,143 @@
     <mergeCell ref="E52:E53"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="B73:B75"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="P32:P34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="D61:D68"/>
+    <mergeCell ref="E61:E68"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="D54:D60"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="C80:C87"/>
+    <mergeCell ref="D80:D87"/>
+    <mergeCell ref="E80:E87"/>
+    <mergeCell ref="P76:P78"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="P88:P94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="C88:C94"/>
+    <mergeCell ref="D88:D94"/>
+    <mergeCell ref="E88:E94"/>
+    <mergeCell ref="P80:P87"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="P106:P111"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="P117:P120"/>
+    <mergeCell ref="E117:E120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -6374,93 +6942,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="452" t="s">
+      <c r="A1" s="464" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="452"/>
-      <c r="C1" s="452"/>
-      <c r="D1" s="452"/>
+      <c r="B1" s="464"/>
+      <c r="C1" s="464"/>
+      <c r="D1" s="464"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="453" t="s">
+      <c r="A2" s="465" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="453"/>
-      <c r="C2" s="453"/>
-      <c r="D2" s="453"/>
+      <c r="B2" s="465"/>
+      <c r="C2" s="465"/>
+      <c r="D2" s="465"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="455" t="s">
+      <c r="A3" s="453" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="455"/>
-      <c r="C3" s="455"/>
-      <c r="D3" s="455"/>
-      <c r="E3" s="455"/>
-      <c r="F3" s="455"/>
-      <c r="G3" s="455"/>
-      <c r="H3" s="455"/>
-      <c r="I3" s="455"/>
-      <c r="J3" s="455"/>
-      <c r="K3" s="455"/>
-      <c r="L3" s="455"/>
-      <c r="M3" s="455"/>
-      <c r="N3" s="455"/>
+      <c r="B3" s="453"/>
+      <c r="C3" s="453"/>
+      <c r="D3" s="453"/>
+      <c r="E3" s="453"/>
+      <c r="F3" s="453"/>
+      <c r="G3" s="453"/>
+      <c r="H3" s="453"/>
+      <c r="I3" s="453"/>
+      <c r="J3" s="453"/>
+      <c r="K3" s="453"/>
+      <c r="L3" s="453"/>
+      <c r="M3" s="453"/>
+      <c r="N3" s="453"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="456" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="456"/>
-      <c r="C4" s="456"/>
-      <c r="D4" s="456"/>
-      <c r="E4" s="456"/>
-      <c r="F4" s="456"/>
-      <c r="G4" s="456"/>
-      <c r="H4" s="456"/>
-      <c r="I4" s="457"/>
-      <c r="J4" s="456"/>
-      <c r="K4" s="456"/>
-      <c r="L4" s="456"/>
-      <c r="M4" s="456"/>
-      <c r="N4" s="456"/>
+      <c r="A4" s="454" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="454"/>
+      <c r="C4" s="454"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
+      <c r="G4" s="454"/>
+      <c r="H4" s="454"/>
+      <c r="I4" s="455"/>
+      <c r="J4" s="454"/>
+      <c r="K4" s="454"/>
+      <c r="L4" s="454"/>
+      <c r="M4" s="454"/>
+      <c r="N4" s="454"/>
     </row>
     <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="458" t="s">
+      <c r="A5" s="456" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="459" t="s">
+      <c r="B5" s="457" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="460" t="s">
+      <c r="C5" s="458" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="340" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="461" t="s">
+      <c r="E5" s="459" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="461"/>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463" t="s">
+      <c r="F5" s="459"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
+      <c r="I5" s="460"/>
+      <c r="J5" s="461" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="461" t="s">
+      <c r="K5" s="459" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="461"/>
-      <c r="M5" s="461"/>
-      <c r="N5" s="460" t="s">
+      <c r="L5" s="459"/>
+      <c r="M5" s="459"/>
+      <c r="N5" s="458" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="458"/>
-      <c r="B6" s="459"/>
-      <c r="C6" s="460"/>
+      <c r="A6" s="456"/>
+      <c r="B6" s="457"/>
+      <c r="C6" s="458"/>
       <c r="D6" s="337" t="s">
         <v>41</v>
       </c>
@@ -6479,7 +7047,7 @@
       <c r="I6" s="339" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="463"/>
+      <c r="J6" s="461"/>
       <c r="K6" s="337" t="s">
         <v>45</v>
       </c>
@@ -6489,13 +7057,13 @@
       <c r="M6" s="337" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="460"/>
+      <c r="N6" s="458"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="413"/>
-      <c r="B7" s="419"/>
-      <c r="C7" s="413"/>
-      <c r="D7" s="413"/>
+      <c r="A7" s="417"/>
+      <c r="B7" s="424"/>
+      <c r="C7" s="417"/>
+      <c r="D7" s="417"/>
       <c r="E7" s="200"/>
       <c r="F7" s="200"/>
       <c r="G7" s="201"/>
@@ -6508,10 +7076,10 @@
       <c r="N7" s="203"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="414"/>
-      <c r="B8" s="420"/>
-      <c r="C8" s="414"/>
-      <c r="D8" s="414"/>
+      <c r="A8" s="413"/>
+      <c r="B8" s="425"/>
+      <c r="C8" s="413"/>
+      <c r="D8" s="413"/>
       <c r="E8" s="204"/>
       <c r="F8" s="204"/>
       <c r="G8" s="205"/>
@@ -6524,10 +7092,10 @@
       <c r="N8" s="208"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="414"/>
-      <c r="B9" s="420"/>
-      <c r="C9" s="414"/>
-      <c r="D9" s="414"/>
+      <c r="A9" s="413"/>
+      <c r="B9" s="425"/>
+      <c r="C9" s="413"/>
+      <c r="D9" s="413"/>
       <c r="E9" s="204"/>
       <c r="F9" s="204"/>
       <c r="G9" s="205"/>
@@ -6540,10 +7108,10 @@
       <c r="N9" s="208"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="414"/>
-      <c r="B10" s="420"/>
-      <c r="C10" s="414"/>
-      <c r="D10" s="414"/>
+      <c r="A10" s="413"/>
+      <c r="B10" s="425"/>
+      <c r="C10" s="413"/>
+      <c r="D10" s="413"/>
       <c r="E10" s="204"/>
       <c r="F10" s="204"/>
       <c r="G10" s="205"/>
@@ -6556,10 +7124,10 @@
       <c r="N10" s="208"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="414"/>
-      <c r="B11" s="420"/>
-      <c r="C11" s="414"/>
-      <c r="D11" s="414"/>
+      <c r="A11" s="413"/>
+      <c r="B11" s="425"/>
+      <c r="C11" s="413"/>
+      <c r="D11" s="413"/>
       <c r="E11" s="204"/>
       <c r="F11" s="204"/>
       <c r="G11" s="205"/>
@@ -6572,10 +7140,10 @@
       <c r="N11" s="204"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="414"/>
-      <c r="B12" s="420"/>
-      <c r="C12" s="414"/>
-      <c r="D12" s="414"/>
+      <c r="A12" s="413"/>
+      <c r="B12" s="425"/>
+      <c r="C12" s="413"/>
+      <c r="D12" s="413"/>
       <c r="E12" s="204"/>
       <c r="F12" s="204"/>
       <c r="G12" s="205"/>
@@ -6588,10 +7156,10 @@
       <c r="N12" s="208"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="464"/>
-      <c r="B13" s="465"/>
-      <c r="C13" s="464"/>
-      <c r="D13" s="464"/>
+      <c r="A13" s="462"/>
+      <c r="B13" s="463"/>
+      <c r="C13" s="462"/>
+      <c r="D13" s="462"/>
       <c r="E13" s="378"/>
       <c r="F13" s="378"/>
       <c r="G13" s="379"/>
@@ -6604,10 +7172,10 @@
       <c r="N13" s="382"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="415"/>
-      <c r="B14" s="421"/>
-      <c r="C14" s="415"/>
-      <c r="D14" s="415"/>
+      <c r="A14" s="414"/>
+      <c r="B14" s="426"/>
+      <c r="C14" s="414"/>
+      <c r="D14" s="414"/>
       <c r="E14" s="209"/>
       <c r="F14" s="209"/>
       <c r="G14" s="210"/>
@@ -6620,10 +7188,10 @@
       <c r="N14" s="212"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="413"/>
-      <c r="B15" s="419"/>
-      <c r="C15" s="413"/>
-      <c r="D15" s="413"/>
+      <c r="A15" s="417"/>
+      <c r="B15" s="424"/>
+      <c r="C15" s="417"/>
+      <c r="D15" s="417"/>
       <c r="E15" s="200"/>
       <c r="F15" s="200"/>
       <c r="G15" s="201"/>
@@ -6636,10 +7204,10 @@
       <c r="N15" s="203"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="414"/>
-      <c r="B16" s="420"/>
-      <c r="C16" s="414"/>
-      <c r="D16" s="414"/>
+      <c r="A16" s="413"/>
+      <c r="B16" s="425"/>
+      <c r="C16" s="413"/>
+      <c r="D16" s="413"/>
       <c r="E16" s="204"/>
       <c r="F16" s="204"/>
       <c r="G16" s="205"/>
@@ -6652,10 +7220,10 @@
       <c r="N16" s="208"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="415"/>
-      <c r="B17" s="421"/>
-      <c r="C17" s="415"/>
-      <c r="D17" s="415"/>
+      <c r="A17" s="414"/>
+      <c r="B17" s="426"/>
+      <c r="C17" s="414"/>
+      <c r="D17" s="414"/>
       <c r="E17" s="209"/>
       <c r="F17" s="209"/>
       <c r="G17" s="210"/>
@@ -6668,10 +7236,10 @@
       <c r="N17" s="212"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="413"/>
-      <c r="B18" s="419"/>
-      <c r="C18" s="413"/>
-      <c r="D18" s="413"/>
+      <c r="A18" s="417"/>
+      <c r="B18" s="424"/>
+      <c r="C18" s="417"/>
+      <c r="D18" s="417"/>
       <c r="E18" s="200"/>
       <c r="F18" s="200"/>
       <c r="G18" s="201"/>
@@ -6684,10 +7252,10 @@
       <c r="N18" s="203"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="414"/>
-      <c r="B19" s="420"/>
-      <c r="C19" s="414"/>
-      <c r="D19" s="414"/>
+      <c r="A19" s="413"/>
+      <c r="B19" s="425"/>
+      <c r="C19" s="413"/>
+      <c r="D19" s="413"/>
       <c r="E19" s="204"/>
       <c r="F19" s="204"/>
       <c r="G19" s="205"/>
@@ -6700,10 +7268,10 @@
       <c r="N19" s="208"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="414"/>
-      <c r="B20" s="420"/>
-      <c r="C20" s="414"/>
-      <c r="D20" s="414"/>
+      <c r="A20" s="413"/>
+      <c r="B20" s="425"/>
+      <c r="C20" s="413"/>
+      <c r="D20" s="413"/>
       <c r="E20" s="204"/>
       <c r="F20" s="204"/>
       <c r="G20" s="205"/>
@@ -6716,10 +7284,10 @@
       <c r="N20" s="208"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="415"/>
-      <c r="B21" s="421"/>
-      <c r="C21" s="415"/>
-      <c r="D21" s="415"/>
+      <c r="A21" s="414"/>
+      <c r="B21" s="426"/>
+      <c r="C21" s="414"/>
+      <c r="D21" s="414"/>
       <c r="E21" s="209"/>
       <c r="F21" s="209"/>
       <c r="G21" s="210"/>
@@ -6796,10 +7364,10 @@
       <c r="N25" s="141"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="413"/>
-      <c r="B26" s="419"/>
-      <c r="C26" s="413"/>
-      <c r="D26" s="413"/>
+      <c r="A26" s="417"/>
+      <c r="B26" s="424"/>
+      <c r="C26" s="417"/>
+      <c r="D26" s="417"/>
       <c r="E26" s="200"/>
       <c r="F26" s="200"/>
       <c r="G26" s="201"/>
@@ -6812,10 +7380,10 @@
       <c r="N26" s="203"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="415"/>
-      <c r="B27" s="421"/>
-      <c r="C27" s="415"/>
-      <c r="D27" s="415"/>
+      <c r="A27" s="414"/>
+      <c r="B27" s="426"/>
+      <c r="C27" s="414"/>
+      <c r="D27" s="414"/>
       <c r="E27" s="209"/>
       <c r="F27" s="209"/>
       <c r="G27" s="210"/>
@@ -6860,12 +7428,12 @@
       <c r="N29" s="141"/>
     </row>
     <row r="30" spans="1:14" s="135" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="454" t="s">
+      <c r="A30" s="452" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="454"/>
-      <c r="C30" s="454"/>
-      <c r="D30" s="454"/>
+      <c r="B30" s="452"/>
+      <c r="C30" s="452"/>
+      <c r="D30" s="452"/>
       <c r="E30" s="131"/>
       <c r="F30" s="131">
         <f>SUM(F7:F29)</f>
@@ -6901,7 +7469,7 @@
       <c r="A33" s="218"/>
       <c r="C33" s="191"/>
       <c r="D33" s="304" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E33" s="191"/>
       <c r="F33" s="191"/>
@@ -6953,6 +7521,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
@@ -6969,18 +7549,6 @@
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="D7:D14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7091,7 +7659,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="467" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="467"/>
       <c r="C5" s="467"/>
@@ -7242,7 +7810,7 @@
     <row r="11" spans="1:17" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="129"/>
       <c r="B11" s="136" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="138"/>
       <c r="D11" s="137">
@@ -7356,7 +7924,7 @@
     <row r="17" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="228" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="229"/>
       <c r="D17" s="232"/>
@@ -7389,7 +7957,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="232"/>
@@ -7457,7 +8025,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
@@ -7525,13 +8093,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="476" t="s">
+      <c r="A1" s="469" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="476"/>
-      <c r="C1" s="476"/>
-      <c r="D1" s="476"/>
-      <c r="E1" s="476"/>
+      <c r="B1" s="469"/>
+      <c r="C1" s="469"/>
+      <c r="D1" s="469"/>
+      <c r="E1" s="469"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
@@ -7559,92 +8127,92 @@
       <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="475" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="475"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="475"/>
-      <c r="E4" s="475"/>
-      <c r="F4" s="475"/>
-      <c r="G4" s="475"/>
-      <c r="H4" s="475"/>
-      <c r="I4" s="475"/>
-      <c r="J4" s="475"/>
-      <c r="K4" s="475"/>
-      <c r="L4" s="475"/>
+      <c r="A4" s="470" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="470"/>
+      <c r="C4" s="470"/>
+      <c r="D4" s="470"/>
+      <c r="E4" s="470"/>
+      <c r="F4" s="470"/>
+      <c r="G4" s="470"/>
+      <c r="H4" s="470"/>
+      <c r="I4" s="470"/>
+      <c r="J4" s="470"/>
+      <c r="K4" s="470"/>
+      <c r="L4" s="470"/>
     </row>
     <row r="5" spans="1:12" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="469" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="474" t="s">
+      <c r="A5" s="471" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="475" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="469" t="s">
+      <c r="C5" s="471" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="469" t="s">
+      <c r="D5" s="471" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="469"/>
-      <c r="F5" s="470" t="s">
+      <c r="E5" s="471"/>
+      <c r="F5" s="474" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="470"/>
-      <c r="H5" s="470"/>
-      <c r="I5" s="470"/>
-      <c r="J5" s="470"/>
-      <c r="K5" s="470"/>
-      <c r="L5" s="470"/>
+      <c r="G5" s="474"/>
+      <c r="H5" s="474"/>
+      <c r="I5" s="474"/>
+      <c r="J5" s="474"/>
+      <c r="K5" s="474"/>
+      <c r="L5" s="474"/>
     </row>
     <row r="6" spans="1:12" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="469"/>
-      <c r="B6" s="474"/>
-      <c r="C6" s="469"/>
-      <c r="D6" s="469" t="s">
+      <c r="A6" s="471"/>
+      <c r="B6" s="475"/>
+      <c r="C6" s="471"/>
+      <c r="D6" s="471" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="469" t="s">
+      <c r="E6" s="471" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="469" t="s">
+      <c r="F6" s="471" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="469" t="s">
+      <c r="G6" s="471" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="471" t="s">
+      <c r="H6" s="472" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="471" t="s">
+      <c r="I6" s="472" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="472" t="s">
+      <c r="J6" s="473" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="472"/>
-      <c r="L6" s="471" t="s">
+      <c r="K6" s="473"/>
+      <c r="L6" s="472" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="469"/>
-      <c r="B7" s="474"/>
-      <c r="C7" s="469"/>
-      <c r="D7" s="469"/>
-      <c r="E7" s="469"/>
-      <c r="F7" s="469"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="471"/>
-      <c r="I7" s="471"/>
+      <c r="A7" s="471"/>
+      <c r="B7" s="475"/>
+      <c r="C7" s="471"/>
+      <c r="D7" s="471"/>
+      <c r="E7" s="471"/>
+      <c r="F7" s="471"/>
+      <c r="G7" s="471"/>
+      <c r="H7" s="472"/>
+      <c r="I7" s="472"/>
       <c r="J7" s="151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K7" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="471"/>
+      <c r="L7" s="472"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="95"/>
@@ -7724,8 +8292,8 @@
       <c r="I15" s="193"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="473"/>
-      <c r="B16" s="473"/>
+      <c r="A16" s="476"/>
+      <c r="B16" s="476"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -7735,8 +8303,8 @@
       <c r="H18" s="194"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="473"/>
-      <c r="B20" s="473"/>
+      <c r="A20" s="476"/>
+      <c r="B20" s="476"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
@@ -7744,22 +8312,31 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="95"/>
-      <c r="B34" s="475" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="475"/>
-      <c r="D34" s="475"/>
+      <c r="B34" s="470" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="470"/>
+      <c r="D34" s="470"/>
       <c r="E34" s="95"/>
       <c r="F34" s="95"/>
       <c r="G34" s="95"/>
       <c r="H34" s="95"/>
-      <c r="I34" s="475" t="s">
-        <v>115</v>
-      </c>
-      <c r="J34" s="475"/>
+      <c r="I34" s="470" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" s="470"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="D6:D7"/>
@@ -7770,15 +8347,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -8319,16 +8887,16 @@
       <c r="C1" s="153"/>
       <c r="D1" s="153"/>
       <c r="E1" s="153"/>
-      <c r="Z1" s="482" t="s">
+      <c r="Z1" s="495" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="483"/>
-      <c r="AB1" s="483"/>
-      <c r="AC1" s="483"/>
-      <c r="AD1" s="483"/>
-      <c r="AE1" s="483"/>
-      <c r="AF1" s="483"/>
-      <c r="AG1" s="484"/>
+      <c r="AA1" s="496"/>
+      <c r="AB1" s="496"/>
+      <c r="AC1" s="496"/>
+      <c r="AD1" s="496"/>
+      <c r="AE1" s="496"/>
+      <c r="AF1" s="496"/>
+      <c r="AG1" s="497"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="156" t="s">
@@ -8338,43 +8906,43 @@
       <c r="C2" s="157"/>
       <c r="D2" s="157"/>
       <c r="E2" s="157"/>
-      <c r="Z2" s="477" t="s">
+      <c r="Z2" s="478" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" s="479"/>
+      <c r="AB2" s="479"/>
+      <c r="AC2" s="479"/>
+      <c r="AD2" s="479"/>
+      <c r="AE2" s="480"/>
+      <c r="AF2" s="481" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="478"/>
-      <c r="AB2" s="478"/>
-      <c r="AC2" s="478"/>
-      <c r="AD2" s="478"/>
-      <c r="AE2" s="479"/>
-      <c r="AF2" s="480" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG2" s="481"/>
+      <c r="AG2" s="482"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="156" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="86"/>
       <c r="C3" s="86"/>
       <c r="D3" s="86"/>
       <c r="E3" s="86"/>
-      <c r="Z3" s="477" t="s">
+      <c r="Z3" s="478" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA3" s="479"/>
+      <c r="AB3" s="479"/>
+      <c r="AC3" s="479"/>
+      <c r="AD3" s="479"/>
+      <c r="AE3" s="480"/>
+      <c r="AF3" s="481" t="s">
         <v>90</v>
       </c>
-      <c r="AA3" s="478"/>
-      <c r="AB3" s="478"/>
-      <c r="AC3" s="478"/>
-      <c r="AD3" s="478"/>
-      <c r="AE3" s="479"/>
-      <c r="AF3" s="480" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG3" s="481"/>
+      <c r="AG3" s="482"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="156" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="86"/>
       <c r="C4" s="86"/>
@@ -8383,39 +8951,39 @@
       <c r="T4" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="477" t="s">
+      <c r="Z4" s="478" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA4" s="479"/>
+      <c r="AB4" s="479"/>
+      <c r="AC4" s="479"/>
+      <c r="AD4" s="479"/>
+      <c r="AE4" s="480"/>
+      <c r="AF4" s="481" t="s">
         <v>93</v>
       </c>
-      <c r="AA4" s="478"/>
-      <c r="AB4" s="478"/>
-      <c r="AC4" s="478"/>
-      <c r="AD4" s="478"/>
-      <c r="AE4" s="479"/>
-      <c r="AF4" s="480" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG4" s="481"/>
+      <c r="AG4" s="482"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="156" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="86"/>
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
       <c r="E5" s="86"/>
-      <c r="Z5" s="477" t="s">
+      <c r="Z5" s="478" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA5" s="479"/>
+      <c r="AB5" s="479"/>
+      <c r="AC5" s="479"/>
+      <c r="AD5" s="479"/>
+      <c r="AE5" s="480"/>
+      <c r="AF5" s="481" t="s">
         <v>96</v>
       </c>
-      <c r="AA5" s="478"/>
-      <c r="AB5" s="478"/>
-      <c r="AC5" s="478"/>
-      <c r="AD5" s="478"/>
-      <c r="AE5" s="479"/>
-      <c r="AF5" s="480" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG5" s="481"/>
+      <c r="AG5" s="482"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="158"/>
@@ -8425,94 +8993,94 @@
       <c r="E6" s="158"/>
     </row>
     <row r="7" spans="1:40" s="161" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="486" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="486"/>
-      <c r="C7" s="486"/>
-      <c r="D7" s="486"/>
-      <c r="E7" s="486"/>
-      <c r="F7" s="486"/>
-      <c r="G7" s="486"/>
-      <c r="H7" s="486"/>
-      <c r="I7" s="486"/>
-      <c r="J7" s="486"/>
-      <c r="K7" s="486"/>
-      <c r="L7" s="486"/>
-      <c r="M7" s="486"/>
-      <c r="N7" s="486"/>
-      <c r="O7" s="486"/>
-      <c r="P7" s="486"/>
-      <c r="Q7" s="486"/>
-      <c r="R7" s="486"/>
-      <c r="S7" s="486"/>
-      <c r="T7" s="486"/>
-      <c r="U7" s="486"/>
-      <c r="V7" s="486"/>
-      <c r="W7" s="486"/>
-      <c r="X7" s="486"/>
-      <c r="Y7" s="486"/>
-      <c r="Z7" s="486"/>
-      <c r="AA7" s="486"/>
-      <c r="AB7" s="486"/>
-      <c r="AC7" s="486"/>
-      <c r="AD7" s="486"/>
-      <c r="AE7" s="486"/>
-      <c r="AF7" s="486"/>
-      <c r="AG7" s="486"/>
-      <c r="AH7" s="486"/>
-      <c r="AI7" s="486"/>
-      <c r="AJ7" s="486"/>
-      <c r="AK7" s="486"/>
-      <c r="AL7" s="486"/>
-      <c r="AM7" s="486"/>
+      <c r="A7" s="483" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="483"/>
+      <c r="C7" s="483"/>
+      <c r="D7" s="483"/>
+      <c r="E7" s="483"/>
+      <c r="F7" s="483"/>
+      <c r="G7" s="483"/>
+      <c r="H7" s="483"/>
+      <c r="I7" s="483"/>
+      <c r="J7" s="483"/>
+      <c r="K7" s="483"/>
+      <c r="L7" s="483"/>
+      <c r="M7" s="483"/>
+      <c r="N7" s="483"/>
+      <c r="O7" s="483"/>
+      <c r="P7" s="483"/>
+      <c r="Q7" s="483"/>
+      <c r="R7" s="483"/>
+      <c r="S7" s="483"/>
+      <c r="T7" s="483"/>
+      <c r="U7" s="483"/>
+      <c r="V7" s="483"/>
+      <c r="W7" s="483"/>
+      <c r="X7" s="483"/>
+      <c r="Y7" s="483"/>
+      <c r="Z7" s="483"/>
+      <c r="AA7" s="483"/>
+      <c r="AB7" s="483"/>
+      <c r="AC7" s="483"/>
+      <c r="AD7" s="483"/>
+      <c r="AE7" s="483"/>
+      <c r="AF7" s="483"/>
+      <c r="AG7" s="483"/>
+      <c r="AH7" s="483"/>
+      <c r="AI7" s="483"/>
+      <c r="AJ7" s="483"/>
+      <c r="AK7" s="483"/>
+      <c r="AL7" s="483"/>
+      <c r="AM7" s="483"/>
       <c r="AN7" s="160"/>
     </row>
     <row r="9" spans="1:40" s="166" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="487" t="s">
+      <c r="A9" s="484" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="484" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="487" t="s">
+      <c r="C9" s="484" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="487" t="s">
+      <c r="D9" s="487" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="490" t="s">
+      <c r="E9" s="488"/>
+      <c r="F9" s="488"/>
+      <c r="G9" s="488"/>
+      <c r="H9" s="488"/>
+      <c r="I9" s="488"/>
+      <c r="J9" s="488"/>
+      <c r="K9" s="488"/>
+      <c r="L9" s="488"/>
+      <c r="M9" s="488"/>
+      <c r="N9" s="488"/>
+      <c r="O9" s="488"/>
+      <c r="P9" s="488"/>
+      <c r="Q9" s="488"/>
+      <c r="R9" s="488"/>
+      <c r="S9" s="488"/>
+      <c r="T9" s="488"/>
+      <c r="U9" s="488"/>
+      <c r="V9" s="488"/>
+      <c r="W9" s="488"/>
+      <c r="X9" s="488"/>
+      <c r="Y9" s="488"/>
+      <c r="Z9" s="488"/>
+      <c r="AA9" s="488"/>
+      <c r="AB9" s="488"/>
+      <c r="AC9" s="488"/>
+      <c r="AD9" s="488"/>
+      <c r="AE9" s="488"/>
+      <c r="AF9" s="488"/>
+      <c r="AG9" s="488"/>
+      <c r="AH9" s="489"/>
+      <c r="AI9" s="490" t="s">
         <v>101</v>
-      </c>
-      <c r="E9" s="491"/>
-      <c r="F9" s="491"/>
-      <c r="G9" s="491"/>
-      <c r="H9" s="491"/>
-      <c r="I9" s="491"/>
-      <c r="J9" s="491"/>
-      <c r="K9" s="491"/>
-      <c r="L9" s="491"/>
-      <c r="M9" s="491"/>
-      <c r="N9" s="491"/>
-      <c r="O9" s="491"/>
-      <c r="P9" s="491"/>
-      <c r="Q9" s="491"/>
-      <c r="R9" s="491"/>
-      <c r="S9" s="491"/>
-      <c r="T9" s="491"/>
-      <c r="U9" s="491"/>
-      <c r="V9" s="491"/>
-      <c r="W9" s="491"/>
-      <c r="X9" s="491"/>
-      <c r="Y9" s="491"/>
-      <c r="Z9" s="491"/>
-      <c r="AA9" s="491"/>
-      <c r="AB9" s="491"/>
-      <c r="AC9" s="491"/>
-      <c r="AD9" s="491"/>
-      <c r="AE9" s="491"/>
-      <c r="AF9" s="491"/>
-      <c r="AG9" s="491"/>
-      <c r="AH9" s="492"/>
-      <c r="AI9" s="493" t="s">
-        <v>102</v>
       </c>
       <c r="AJ9" s="162"/>
       <c r="AK9" s="163"/>
@@ -8521,9 +9089,9 @@
       <c r="AN9" s="165"/>
     </row>
     <row r="10" spans="1:40" s="166" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="488"/>
-      <c r="B10" s="488"/>
-      <c r="C10" s="488"/>
+      <c r="A10" s="485"/>
+      <c r="B10" s="485"/>
+      <c r="C10" s="485"/>
       <c r="D10" s="167">
         <v>1</v>
       </c>
@@ -8617,7 +9185,7 @@
       <c r="AH10" s="167">
         <v>31</v>
       </c>
-      <c r="AI10" s="493"/>
+      <c r="AI10" s="490"/>
       <c r="AJ10" s="168"/>
       <c r="AK10" s="164"/>
       <c r="AL10" s="164"/>
@@ -8625,103 +9193,103 @@
       <c r="AN10" s="165"/>
     </row>
     <row r="11" spans="1:40" s="173" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="489"/>
-      <c r="B11" s="489"/>
-      <c r="C11" s="489"/>
+      <c r="A11" s="486"/>
+      <c r="B11" s="486"/>
+      <c r="C11" s="486"/>
       <c r="D11" s="167" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="169" t="s">
+      <c r="F11" s="170" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="170" t="s">
+      <c r="G11" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="171" t="s">
+      <c r="H11" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="167" t="s">
+      <c r="I11" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="167" t="s">
+      <c r="J11" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="169" t="s">
-        <v>109</v>
-      </c>
       <c r="K11" s="167" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="L11" s="169" t="s">
+      <c r="M11" s="170" t="s">
         <v>104</v>
       </c>
-      <c r="M11" s="170" t="s">
+      <c r="N11" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="N11" s="171" t="s">
+      <c r="O11" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="O11" s="167" t="s">
+      <c r="P11" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="P11" s="167" t="s">
+      <c r="Q11" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="Q11" s="169" t="s">
-        <v>109</v>
-      </c>
       <c r="R11" s="167" t="s">
+        <v>102</v>
+      </c>
+      <c r="S11" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="S11" s="169" t="s">
+      <c r="T11" s="170" t="s">
         <v>104</v>
       </c>
-      <c r="T11" s="170" t="s">
+      <c r="U11" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="U11" s="171" t="s">
+      <c r="V11" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="V11" s="167" t="s">
+      <c r="W11" s="169" t="s">
         <v>107</v>
       </c>
-      <c r="W11" s="169" t="s">
+      <c r="X11" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="X11" s="169" t="s">
-        <v>109</v>
-      </c>
       <c r="Y11" s="169" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z11" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="Z11" s="169" t="s">
+      <c r="AA11" s="170" t="s">
         <v>104</v>
       </c>
-      <c r="AA11" s="170" t="s">
+      <c r="AB11" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="AB11" s="171" t="s">
+      <c r="AC11" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="AC11" s="167" t="s">
+      <c r="AD11" s="171" t="s">
         <v>107</v>
       </c>
-      <c r="AD11" s="171" t="s">
+      <c r="AE11" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="AE11" s="167" t="s">
-        <v>109</v>
-      </c>
       <c r="AF11" s="169" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG11" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="AG11" s="169" t="s">
+      <c r="AH11" s="238" t="s">
         <v>104</v>
       </c>
-      <c r="AH11" s="238" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI11" s="493"/>
+      <c r="AI11" s="490"/>
       <c r="AJ11" s="172"/>
       <c r="AN11" s="174"/>
     </row>
@@ -8736,86 +9304,86 @@
         <v>14</v>
       </c>
       <c r="D12" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="238"/>
       <c r="G12" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I12" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L12" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M12" s="238"/>
       <c r="N12" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O12" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P12" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R12" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S12" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T12" s="238"/>
       <c r="U12" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V12" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W12" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X12" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y12" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z12" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA12" s="238"/>
       <c r="AB12" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC12" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD12" s="239" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE12" s="336" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF12" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG12" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH12" s="238"/>
       <c r="AI12" s="175">
@@ -8830,92 +9398,92 @@
         <v>2</v>
       </c>
       <c r="B13" s="198" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="197" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="238"/>
       <c r="G13" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I13" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K13" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L13" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M13" s="238"/>
       <c r="N13" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O13" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P13" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R13" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S13" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T13" s="238"/>
       <c r="U13" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V13" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W13" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X13" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y13" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z13" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA13" s="238"/>
       <c r="AB13" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC13" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD13" s="239" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE13" s="336" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF13" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG13" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH13" s="238"/>
       <c r="AI13" s="175">
@@ -8933,89 +9501,89 @@
         <v>37</v>
       </c>
       <c r="C14" s="197" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="238"/>
       <c r="G14" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L14" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M14" s="238"/>
       <c r="N14" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O14" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P14" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R14" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S14" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T14" s="238"/>
       <c r="U14" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V14" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W14" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X14" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y14" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z14" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA14" s="238"/>
       <c r="AB14" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC14" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD14" s="239" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE14" s="336" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF14" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG14" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH14" s="238"/>
       <c r="AI14" s="175">
@@ -9030,92 +9598,92 @@
         <v>5</v>
       </c>
       <c r="B15" s="195" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="197" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="238"/>
       <c r="G15" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I15" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J15" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K15" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L15" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M15" s="238"/>
       <c r="N15" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O15" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P15" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R15" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S15" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T15" s="238"/>
       <c r="U15" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V15" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W15" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X15" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y15" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z15" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA15" s="238"/>
       <c r="AB15" s="171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC15" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD15" s="239" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE15" s="336" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF15" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG15" s="169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH15" s="238"/>
       <c r="AI15" s="175">
@@ -9126,10 +9694,10 @@
       <c r="AN15" s="174"/>
     </row>
     <row r="16" spans="1:40" s="173" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="494" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="495"/>
+      <c r="A16" s="491" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="492"/>
       <c r="C16" s="176"/>
       <c r="D16" s="176"/>
       <c r="E16" s="177"/>
@@ -9172,49 +9740,49 @@
       <c r="AN16" s="174"/>
     </row>
     <row r="18" spans="1:40" s="186" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="496" t="s">
+      <c r="A18" s="493" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="496"/>
-      <c r="C18" s="496"/>
-      <c r="D18" s="496"/>
-      <c r="E18" s="496"/>
-      <c r="F18" s="496"/>
-      <c r="G18" s="496"/>
+      <c r="B18" s="493"/>
+      <c r="C18" s="493"/>
+      <c r="D18" s="493"/>
+      <c r="E18" s="493"/>
+      <c r="F18" s="493"/>
+      <c r="G18" s="493"/>
       <c r="H18" s="181"/>
-      <c r="I18" s="497"/>
-      <c r="J18" s="497"/>
-      <c r="K18" s="497"/>
-      <c r="L18" s="497"/>
-      <c r="M18" s="497"/>
+      <c r="I18" s="494"/>
+      <c r="J18" s="494"/>
+      <c r="K18" s="494"/>
+      <c r="L18" s="494"/>
+      <c r="M18" s="494"/>
       <c r="N18" s="182"/>
-      <c r="O18" s="497" t="s">
-        <v>112</v>
-      </c>
-      <c r="P18" s="497"/>
-      <c r="Q18" s="497"/>
-      <c r="R18" s="497"/>
-      <c r="S18" s="497"/>
-      <c r="T18" s="497"/>
-      <c r="U18" s="497"/>
-      <c r="V18" s="497"/>
-      <c r="W18" s="497"/>
-      <c r="X18" s="497"/>
-      <c r="Y18" s="497"/>
+      <c r="O18" s="494" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="494"/>
+      <c r="Q18" s="494"/>
+      <c r="R18" s="494"/>
+      <c r="S18" s="494"/>
+      <c r="T18" s="494"/>
+      <c r="U18" s="494"/>
+      <c r="V18" s="494"/>
+      <c r="W18" s="494"/>
+      <c r="X18" s="494"/>
+      <c r="Y18" s="494"/>
       <c r="Z18" s="183"/>
       <c r="AA18" s="183"/>
       <c r="AB18" s="184"/>
-      <c r="AC18" s="497"/>
-      <c r="AD18" s="497"/>
-      <c r="AE18" s="497"/>
-      <c r="AF18" s="497"/>
-      <c r="AG18" s="497"/>
-      <c r="AH18" s="497"/>
-      <c r="AI18" s="497"/>
-      <c r="AJ18" s="497"/>
-      <c r="AK18" s="497"/>
-      <c r="AL18" s="497"/>
-      <c r="AM18" s="497"/>
+      <c r="AC18" s="494"/>
+      <c r="AD18" s="494"/>
+      <c r="AE18" s="494"/>
+      <c r="AF18" s="494"/>
+      <c r="AG18" s="494"/>
+      <c r="AH18" s="494"/>
+      <c r="AI18" s="494"/>
+      <c r="AJ18" s="494"/>
+      <c r="AK18" s="494"/>
+      <c r="AL18" s="494"/>
+      <c r="AM18" s="494"/>
       <c r="AN18" s="185"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -9248,131 +9816,131 @@
       <c r="AN33" s="190"/>
     </row>
     <row r="34" spans="3:40" s="189" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="485"/>
-      <c r="H34" s="485"/>
-      <c r="I34" s="485"/>
-      <c r="J34" s="485"/>
-      <c r="K34" s="485"/>
-      <c r="L34" s="485"/>
-      <c r="M34" s="485"/>
-      <c r="N34" s="485"/>
-      <c r="O34" s="485"/>
-      <c r="P34" s="485"/>
-      <c r="Q34" s="485"/>
-      <c r="R34" s="485"/>
-      <c r="S34" s="485"/>
-      <c r="T34" s="485"/>
-      <c r="U34" s="485"/>
-      <c r="V34" s="485"/>
-      <c r="W34" s="485"/>
-      <c r="X34" s="485"/>
+      <c r="G34" s="477"/>
+      <c r="H34" s="477"/>
+      <c r="I34" s="477"/>
+      <c r="J34" s="477"/>
+      <c r="K34" s="477"/>
+      <c r="L34" s="477"/>
+      <c r="M34" s="477"/>
+      <c r="N34" s="477"/>
+      <c r="O34" s="477"/>
+      <c r="P34" s="477"/>
+      <c r="Q34" s="477"/>
+      <c r="R34" s="477"/>
+      <c r="S34" s="477"/>
+      <c r="T34" s="477"/>
+      <c r="U34" s="477"/>
+      <c r="V34" s="477"/>
+      <c r="W34" s="477"/>
+      <c r="X34" s="477"/>
       <c r="AN34" s="190"/>
     </row>
     <row r="35" spans="3:40" s="189" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="485"/>
-      <c r="H35" s="485"/>
-      <c r="I35" s="485"/>
-      <c r="J35" s="485"/>
-      <c r="K35" s="485"/>
-      <c r="L35" s="485"/>
-      <c r="M35" s="485"/>
-      <c r="N35" s="485"/>
-      <c r="O35" s="485"/>
-      <c r="P35" s="485"/>
-      <c r="Q35" s="485"/>
-      <c r="R35" s="485"/>
-      <c r="S35" s="485"/>
-      <c r="T35" s="485"/>
-      <c r="U35" s="485"/>
-      <c r="V35" s="485"/>
-      <c r="W35" s="485"/>
-      <c r="X35" s="485"/>
+      <c r="G35" s="477"/>
+      <c r="H35" s="477"/>
+      <c r="I35" s="477"/>
+      <c r="J35" s="477"/>
+      <c r="K35" s="477"/>
+      <c r="L35" s="477"/>
+      <c r="M35" s="477"/>
+      <c r="N35" s="477"/>
+      <c r="O35" s="477"/>
+      <c r="P35" s="477"/>
+      <c r="Q35" s="477"/>
+      <c r="R35" s="477"/>
+      <c r="S35" s="477"/>
+      <c r="T35" s="477"/>
+      <c r="U35" s="477"/>
+      <c r="V35" s="477"/>
+      <c r="W35" s="477"/>
+      <c r="X35" s="477"/>
       <c r="AN35" s="190"/>
     </row>
     <row r="36" spans="3:40" s="189" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="485"/>
-      <c r="H36" s="485"/>
-      <c r="I36" s="485"/>
-      <c r="J36" s="485"/>
-      <c r="K36" s="485"/>
-      <c r="L36" s="485"/>
-      <c r="M36" s="485"/>
-      <c r="N36" s="485"/>
-      <c r="O36" s="485"/>
-      <c r="P36" s="485"/>
-      <c r="Q36" s="485"/>
-      <c r="R36" s="485"/>
-      <c r="S36" s="485"/>
-      <c r="T36" s="485"/>
-      <c r="U36" s="485"/>
-      <c r="V36" s="485"/>
-      <c r="W36" s="485"/>
-      <c r="X36" s="485"/>
+      <c r="G36" s="477"/>
+      <c r="H36" s="477"/>
+      <c r="I36" s="477"/>
+      <c r="J36" s="477"/>
+      <c r="K36" s="477"/>
+      <c r="L36" s="477"/>
+      <c r="M36" s="477"/>
+      <c r="N36" s="477"/>
+      <c r="O36" s="477"/>
+      <c r="P36" s="477"/>
+      <c r="Q36" s="477"/>
+      <c r="R36" s="477"/>
+      <c r="S36" s="477"/>
+      <c r="T36" s="477"/>
+      <c r="U36" s="477"/>
+      <c r="V36" s="477"/>
+      <c r="W36" s="477"/>
+      <c r="X36" s="477"/>
       <c r="AN36" s="190"/>
     </row>
     <row r="37" spans="3:40" s="189" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="485"/>
-      <c r="H37" s="485"/>
-      <c r="I37" s="485"/>
-      <c r="J37" s="485"/>
-      <c r="K37" s="485"/>
-      <c r="L37" s="485"/>
-      <c r="M37" s="485"/>
-      <c r="N37" s="485"/>
-      <c r="O37" s="485"/>
-      <c r="P37" s="485"/>
-      <c r="Q37" s="485"/>
-      <c r="R37" s="485"/>
-      <c r="S37" s="485"/>
-      <c r="T37" s="485"/>
-      <c r="U37" s="485"/>
-      <c r="V37" s="485"/>
-      <c r="W37" s="485"/>
-      <c r="X37" s="485"/>
+      <c r="G37" s="477"/>
+      <c r="H37" s="477"/>
+      <c r="I37" s="477"/>
+      <c r="J37" s="477"/>
+      <c r="K37" s="477"/>
+      <c r="L37" s="477"/>
+      <c r="M37" s="477"/>
+      <c r="N37" s="477"/>
+      <c r="O37" s="477"/>
+      <c r="P37" s="477"/>
+      <c r="Q37" s="477"/>
+      <c r="R37" s="477"/>
+      <c r="S37" s="477"/>
+      <c r="T37" s="477"/>
+      <c r="U37" s="477"/>
+      <c r="V37" s="477"/>
+      <c r="W37" s="477"/>
+      <c r="X37" s="477"/>
       <c r="AN37" s="190"/>
     </row>
     <row r="38" spans="3:40" s="189" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="485"/>
-      <c r="H38" s="485"/>
-      <c r="I38" s="485"/>
-      <c r="J38" s="485"/>
-      <c r="K38" s="485"/>
-      <c r="L38" s="485"/>
-      <c r="M38" s="485"/>
-      <c r="N38" s="485"/>
-      <c r="O38" s="485"/>
-      <c r="P38" s="485"/>
-      <c r="Q38" s="485"/>
-      <c r="R38" s="485"/>
-      <c r="S38" s="485"/>
-      <c r="T38" s="485"/>
-      <c r="U38" s="485"/>
-      <c r="V38" s="485"/>
-      <c r="W38" s="485"/>
-      <c r="X38" s="485"/>
+      <c r="G38" s="477"/>
+      <c r="H38" s="477"/>
+      <c r="I38" s="477"/>
+      <c r="J38" s="477"/>
+      <c r="K38" s="477"/>
+      <c r="L38" s="477"/>
+      <c r="M38" s="477"/>
+      <c r="N38" s="477"/>
+      <c r="O38" s="477"/>
+      <c r="P38" s="477"/>
+      <c r="Q38" s="477"/>
+      <c r="R38" s="477"/>
+      <c r="S38" s="477"/>
+      <c r="T38" s="477"/>
+      <c r="U38" s="477"/>
+      <c r="V38" s="477"/>
+      <c r="W38" s="477"/>
+      <c r="X38" s="477"/>
       <c r="AN38" s="190"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="154"/>
       <c r="D39" s="154"/>
-      <c r="G39" s="485"/>
-      <c r="H39" s="485"/>
-      <c r="I39" s="485"/>
-      <c r="J39" s="485"/>
-      <c r="K39" s="485"/>
-      <c r="L39" s="485"/>
-      <c r="M39" s="485"/>
-      <c r="N39" s="485"/>
-      <c r="O39" s="485"/>
-      <c r="P39" s="485"/>
-      <c r="Q39" s="485"/>
-      <c r="R39" s="485"/>
-      <c r="S39" s="485"/>
-      <c r="T39" s="485"/>
-      <c r="U39" s="485"/>
-      <c r="V39" s="485"/>
-      <c r="W39" s="485"/>
-      <c r="X39" s="485"/>
+      <c r="G39" s="477"/>
+      <c r="H39" s="477"/>
+      <c r="I39" s="477"/>
+      <c r="J39" s="477"/>
+      <c r="K39" s="477"/>
+      <c r="L39" s="477"/>
+      <c r="M39" s="477"/>
+      <c r="N39" s="477"/>
+      <c r="O39" s="477"/>
+      <c r="P39" s="477"/>
+      <c r="Q39" s="477"/>
+      <c r="R39" s="477"/>
+      <c r="S39" s="477"/>
+      <c r="T39" s="477"/>
+      <c r="U39" s="477"/>
+      <c r="V39" s="477"/>
+      <c r="W39" s="477"/>
+      <c r="X39" s="477"/>
       <c r="AN39" s="154"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -9382,6 +9950,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -9396,13 +9971,6 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -9413,8 +9981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -9426,7 +9994,7 @@
     <col min="5" max="5" width="6.85546875" style="42" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="43" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="43" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="43" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="43" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="43" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="43" bestFit="1" customWidth="1"/>
@@ -10257,40 +10825,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="256" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="498" t="s">
+      <c r="A1" s="507" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="498"/>
-      <c r="C1" s="498"/>
-      <c r="D1" s="498"/>
+      <c r="B1" s="507"/>
+      <c r="C1" s="507"/>
+      <c r="D1" s="507"/>
       <c r="E1" s="255"/>
-      <c r="F1" s="499" t="s">
+      <c r="F1" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="499"/>
-      <c r="H1" s="499"/>
-      <c r="I1" s="499"/>
-      <c r="J1" s="499"/>
-      <c r="K1" s="499"/>
-      <c r="L1" s="499"/>
+      <c r="G1" s="508"/>
+      <c r="H1" s="508"/>
+      <c r="I1" s="508"/>
+      <c r="J1" s="508"/>
+      <c r="K1" s="508"/>
+      <c r="L1" s="508"/>
     </row>
     <row r="2" spans="1:16" s="256" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="500" t="s">
+      <c r="A2" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="500"/>
-      <c r="C2" s="500"/>
-      <c r="D2" s="500"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
       <c r="E2" s="255"/>
-      <c r="F2" s="501" t="s">
+      <c r="F2" s="510" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="501"/>
-      <c r="H2" s="501"/>
-      <c r="I2" s="501"/>
-      <c r="J2" s="501"/>
-      <c r="K2" s="501"/>
-      <c r="L2" s="501"/>
+      <c r="G2" s="510"/>
+      <c r="H2" s="510"/>
+      <c r="I2" s="510"/>
+      <c r="J2" s="510"/>
+      <c r="K2" s="510"/>
+      <c r="L2" s="510"/>
     </row>
     <row r="3" spans="1:16" s="256" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="257"/>
@@ -10304,45 +10872,45 @@
       <c r="J3" s="258"/>
     </row>
     <row r="4" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="502" t="s">
+      <c r="A4" s="498" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="502"/>
-      <c r="C4" s="502"/>
-      <c r="D4" s="502"/>
-      <c r="E4" s="502"/>
-      <c r="F4" s="502"/>
-      <c r="G4" s="502"/>
-      <c r="H4" s="502"/>
-      <c r="I4" s="502"/>
-      <c r="J4" s="502"/>
-      <c r="K4" s="502"/>
-      <c r="L4" s="502"/>
-      <c r="M4" s="502"/>
+      <c r="B4" s="498"/>
+      <c r="C4" s="498"/>
+      <c r="D4" s="498"/>
+      <c r="E4" s="498"/>
+      <c r="F4" s="498"/>
+      <c r="G4" s="498"/>
+      <c r="H4" s="498"/>
+      <c r="I4" s="498"/>
+      <c r="J4" s="498"/>
+      <c r="K4" s="498"/>
+      <c r="L4" s="498"/>
+      <c r="M4" s="498"/>
     </row>
     <row r="5" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="502" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="502"/>
-      <c r="C5" s="502"/>
-      <c r="D5" s="502"/>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="502"/>
-      <c r="I5" s="502"/>
-      <c r="J5" s="502"/>
-      <c r="K5" s="502"/>
-      <c r="L5" s="502"/>
-      <c r="M5" s="502"/>
+      <c r="A5" s="498" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="498"/>
+      <c r="C5" s="498"/>
+      <c r="D5" s="498"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="498"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="498"/>
+      <c r="J5" s="498"/>
+      <c r="K5" s="498"/>
+      <c r="L5" s="498"/>
+      <c r="M5" s="498"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="503" t="s">
+      <c r="K6" s="499" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="503"/>
-      <c r="M6" s="503"/>
+      <c r="L6" s="499"/>
+      <c r="M6" s="499"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
@@ -10358,28 +10926,28 @@
         <v>64</v>
       </c>
       <c r="E7" s="93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H7" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="K7" s="44" t="s">
+      <c r="L7" s="46" t="s">
         <v>67</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>68</v>
       </c>
       <c r="M7" s="44" t="s">
         <v>20</v>
@@ -10392,36 +10960,36 @@
       <c r="D8" s="49"/>
       <c r="E8" s="51"/>
       <c r="F8" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="H8" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="I8" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="51" t="s">
-        <v>72</v>
-      </c>
       <c r="J8" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K8" s="52" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L8" s="49"/>
       <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="504" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="505"/>
+      <c r="A9" s="500" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="501"/>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="51"/>
       <c r="F9" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
@@ -10439,7 +11007,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="55">
         <v>15000000</v>
@@ -10459,7 +11027,7 @@
         <v>77307692</v>
       </c>
       <c r="K10" s="56">
-        <f>F10+G10-H10-I10+J10</f>
+        <f>F10+G10+H10-I10+J10</f>
         <v>92307692</v>
       </c>
       <c r="L10" s="56"/>
@@ -10470,10 +11038,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="55">
         <v>6000000</v>
@@ -10493,7 +11061,7 @@
         <v>34119519</v>
       </c>
       <c r="K11" s="56">
-        <f t="shared" ref="K11:K12" si="1">F11+G11-H11-I11+J11</f>
+        <f t="shared" ref="K11:K12" si="1">F11+G11+H11-I11+J11</f>
         <v>40119519</v>
       </c>
       <c r="L11" s="56"/>
@@ -10507,7 +11075,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="60">
         <v>6000000</v>
@@ -10524,23 +11092,27 @@
         <f>'Hỗ trợ vận chuyển'!E32</f>
         <v>0</v>
       </c>
-      <c r="H12" s="61"/>
+      <c r="H12" s="61">
+        <v>1000000</v>
+      </c>
       <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
+      <c r="J12" s="61">
+        <v>0</v>
+      </c>
       <c r="K12" s="56">
         <f t="shared" si="1"/>
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="L12" s="61"/>
       <c r="M12" s="58"/>
       <c r="P12" s="149"/>
     </row>
     <row r="13" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="508" t="s">
+      <c r="A13" s="504" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="509"/>
-      <c r="C13" s="510"/>
+      <c r="B13" s="505"/>
+      <c r="C13" s="506"/>
       <c r="D13" s="235">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -10559,16 +11131,16 @@
       </c>
       <c r="K13" s="260">
         <f>SUM(K10:K12)</f>
-        <v>138427211</v>
+        <v>139427211</v>
       </c>
       <c r="L13" s="260"/>
       <c r="M13" s="261"/>
     </row>
     <row r="14" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="506" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="507"/>
+      <c r="A14" s="502" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="503"/>
       <c r="C14" s="87"/>
       <c r="D14" s="88"/>
       <c r="E14" s="276"/>
@@ -10586,10 +11158,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="64">
         <v>5000000</v>
@@ -10606,24 +11178,26 @@
         <f>'Hỗ trợ vận chuyển'!D32</f>
         <v>0</v>
       </c>
-      <c r="H15" s="65"/>
+      <c r="H15" s="65">
+        <v>1000000</v>
+      </c>
       <c r="I15" s="65"/>
       <c r="J15" s="61"/>
       <c r="K15" s="56">
-        <f>F15+G15-H15-I15+J15</f>
-        <v>5000000</v>
+        <f>F15+G15+H15-I15+J15</f>
+        <v>6000000</v>
       </c>
       <c r="L15" s="65"/>
       <c r="M15" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="508" t="s">
+      <c r="A16" s="504" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="509"/>
-      <c r="C16" s="510"/>
+      <c r="B16" s="505"/>
+      <c r="C16" s="506"/>
       <c r="D16" s="262">
         <f>SUM(D15:D15)</f>
         <v>5000000</v>
@@ -10639,24 +11213,24 @@
       <c r="J16" s="262"/>
       <c r="K16" s="262">
         <f>SUM(K14:K15)</f>
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="L16" s="261"/>
       <c r="M16" s="261"/>
     </row>
     <row r="18" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="502"/>
-      <c r="C18" s="502"/>
-      <c r="D18" s="502"/>
+      <c r="B18" s="498"/>
+      <c r="C18" s="498"/>
+      <c r="D18" s="498"/>
       <c r="E18" s="236"/>
-      <c r="I18" s="502"/>
-      <c r="J18" s="502"/>
-      <c r="K18" s="502"/>
-      <c r="L18" s="502"/>
+      <c r="I18" s="498"/>
+      <c r="J18" s="498"/>
+      <c r="K18" s="498"/>
+      <c r="L18" s="498"/>
     </row>
     <row r="19" spans="2:12" s="256" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="264" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="265"/>
       <c r="F19" s="317"/>
@@ -10698,6 +11272,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="A9:B9"/>
@@ -10706,11 +11285,6 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10753,11 +11327,11 @@
       <c r="J2" s="244"/>
     </row>
     <row r="3" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="455" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="455"/>
-      <c r="C3" s="455"/>
+      <c r="A3" s="453" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="453"/>
+      <c r="C3" s="453"/>
       <c r="D3" s="241"/>
       <c r="E3" s="241"/>
       <c r="F3" s="241"/>
@@ -10791,13 +11365,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="519" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="517" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="517" t="s">
-        <v>127</v>
-      </c>
       <c r="D5" s="516" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E5" s="516"/>
     </row>
@@ -10806,10 +11380,10 @@
       <c r="B6" s="520"/>
       <c r="C6" s="518"/>
       <c r="D6" s="252" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="252" t="s">
         <v>128</v>
-      </c>
-      <c r="E6" s="252" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,13 @@
     <sheet name="Hàng khách trả" sheetId="8" r:id="rId3"/>
     <sheet name="BÁO CÁO" sheetId="3" r:id="rId4"/>
     <sheet name="Tiền hàng Tâm" sheetId="4" r:id="rId5"/>
-    <sheet name="bảng chấm công" sheetId="10" r:id="rId6"/>
-    <sheet name="Bảng lương" sheetId="5" r:id="rId7"/>
-    <sheet name="Hỗ trợ vận chuyển" sheetId="11" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId6"/>
+    <sheet name="bảng chấm công" sheetId="10" r:id="rId7"/>
+    <sheet name="Bảng lương" sheetId="5" r:id="rId8"/>
+    <sheet name="Hỗ trợ vận chuyển" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$98</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="255">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -742,6 +743,54 @@
   </si>
   <si>
     <t>Còn phải trả Tâm</t>
+  </si>
+  <si>
+    <t>TIỀN MUA HÀNG VĂN SƠN THÁNG 8</t>
+  </si>
+  <si>
+    <t>Hòa Thanh</t>
+  </si>
+  <si>
+    <t>GCX45</t>
+  </si>
+  <si>
+    <t>Tổng Cộng</t>
+  </si>
+  <si>
+    <t>Nanomilk</t>
+  </si>
+  <si>
+    <t>Tổng tiền hàng Anh Sơn còn nợ công ty (3 đơn)</t>
+  </si>
+  <si>
+    <t>Ký HĐ đại lý Hà Linh 200tr hưởng 12% hoa hồng</t>
+  </si>
+  <si>
+    <t>Ký HĐ đại lý 3s 300tr  hưởng 12% hoa hồng</t>
+  </si>
+  <si>
+    <t>18/8/2020 trả vận huyển hàng Miền nam</t>
+  </si>
+  <si>
+    <t>(I)</t>
+  </si>
+  <si>
+    <t>Chi phí cho đại lý 3s (Mua sữa + Hoa +thuê xe chở kệ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công ty hỗ trợ thuê xe </t>
+  </si>
+  <si>
+    <t>(II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Như vậy, công ty cần phải thanh toán cho Anh Nguyễn Văn Sơn số tiền là {(II)-(I)}: </t>
+  </si>
+  <si>
+    <t>12/8/2020 Ứng hoa hồng</t>
+  </si>
+  <si>
+    <t>17/8/2020 Ứng hoa hồng</t>
   </si>
 </sst>
 </file>
@@ -758,7 +807,7 @@
     <numFmt numFmtId="170" formatCode="#,##0.0"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0.0\ _₫_-;\-* #,##0.0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1053,6 +1102,21 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1368,7 +1432,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="562">
+  <cellXfs count="581">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2494,9 +2558,6 @@
     <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2542,6 +2603,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2572,7 +2657,7 @@
     <xf numFmtId="168" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2581,22 +2666,55 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2605,34 +2723,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2680,26 +2774,23 @@
     <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2731,12 +2822,6 @@
     <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2746,84 +2831,93 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2860,13 +2954,16 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2896,18 +2993,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2938,8 +3023,42 @@
     <xf numFmtId="14" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3308,15 +3427,15 @@
       <c r="H3" s="112"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="433" t="s">
+      <c r="A4" s="440" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="433"/>
-      <c r="C4" s="433"/>
-      <c r="D4" s="433"/>
-      <c r="E4" s="433"/>
-      <c r="F4" s="433"/>
-      <c r="G4" s="433"/>
+      <c r="B4" s="440"/>
+      <c r="C4" s="440"/>
+      <c r="D4" s="440"/>
+      <c r="E4" s="440"/>
+      <c r="F4" s="440"/>
+      <c r="G4" s="440"/>
       <c r="H4" s="112"/>
     </row>
     <row r="5" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.25">
@@ -3328,28 +3447,28 @@
       <c r="G5" s="109"/>
     </row>
     <row r="6" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="434" t="s">
+      <c r="A6" s="441" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="434" t="s">
+      <c r="B6" s="441" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="436" t="s">
+      <c r="C6" s="443" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="438" t="s">
+      <c r="D6" s="445" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="438"/>
-      <c r="F6" s="438" t="s">
+      <c r="E6" s="445"/>
+      <c r="F6" s="445" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="438"/>
+      <c r="G6" s="445"/>
     </row>
     <row r="7" spans="1:8" s="110" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="435"/>
-      <c r="B7" s="435"/>
-      <c r="C7" s="437"/>
+      <c r="A7" s="442"/>
+      <c r="B7" s="442"/>
+      <c r="C7" s="444"/>
       <c r="D7" s="114" t="s">
         <v>81</v>
       </c>
@@ -4475,11 +4594,11 @@
       <c r="G97" s="117"/>
     </row>
     <row r="98" spans="1:8" s="120" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="430" t="s">
+      <c r="A98" s="437" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="431"/>
-      <c r="C98" s="432"/>
+      <c r="B98" s="438"/>
+      <c r="C98" s="439"/>
       <c r="D98" s="119">
         <f>SUM(D8:D97)</f>
         <v>308000000</v>
@@ -4507,10 +4626,10 @@
       <c r="G99" s="122"/>
     </row>
     <row r="100" spans="1:8" s="120" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="429" t="s">
+      <c r="A100" s="436" t="s">
         <v>82</v>
       </c>
-      <c r="B100" s="429"/>
+      <c r="B100" s="436"/>
       <c r="C100" s="121"/>
       <c r="D100" s="122"/>
       <c r="E100" s="122"/>
@@ -4613,11 +4732,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R135"/>
+  <dimension ref="A1:R136"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="8" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="A93:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4642,13 +4761,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="269" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="460" t="s">
+      <c r="A1" s="470" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="460"/>
-      <c r="C1" s="460"/>
-      <c r="D1" s="460"/>
-      <c r="E1" s="460"/>
+      <c r="B1" s="470"/>
+      <c r="C1" s="470"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="H1" s="270"/>
       <c r="I1" s="270"/>
       <c r="J1" s="270"/>
@@ -4676,153 +4795,153 @@
       <c r="O2" s="270"/>
     </row>
     <row r="3" spans="1:17" s="269" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="461" t="s">
+      <c r="A3" s="471" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="461"/>
-      <c r="C3" s="461"/>
-      <c r="D3" s="461"/>
-      <c r="E3" s="461"/>
-      <c r="F3" s="461"/>
-      <c r="G3" s="461"/>
-      <c r="H3" s="461"/>
-      <c r="I3" s="461"/>
-      <c r="J3" s="461"/>
-      <c r="K3" s="461"/>
-      <c r="L3" s="461"/>
-      <c r="M3" s="461"/>
-      <c r="N3" s="461"/>
-      <c r="O3" s="461"/>
-      <c r="P3" s="461"/>
+      <c r="B3" s="471"/>
+      <c r="C3" s="471"/>
+      <c r="D3" s="471"/>
+      <c r="E3" s="471"/>
+      <c r="F3" s="471"/>
+      <c r="G3" s="471"/>
+      <c r="H3" s="471"/>
+      <c r="I3" s="471"/>
+      <c r="J3" s="471"/>
+      <c r="K3" s="471"/>
+      <c r="L3" s="471"/>
+      <c r="M3" s="471"/>
+      <c r="N3" s="471"/>
+      <c r="O3" s="471"/>
+      <c r="P3" s="471"/>
     </row>
     <row r="4" spans="1:17" s="269" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="471" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
-      <c r="D4" s="461"/>
-      <c r="E4" s="461"/>
-      <c r="F4" s="461"/>
-      <c r="G4" s="461"/>
-      <c r="H4" s="461"/>
-      <c r="I4" s="461"/>
-      <c r="J4" s="461"/>
-      <c r="K4" s="461"/>
-      <c r="L4" s="461"/>
-      <c r="M4" s="461"/>
-      <c r="N4" s="461"/>
-      <c r="O4" s="461"/>
-      <c r="P4" s="461"/>
+      <c r="B4" s="471"/>
+      <c r="C4" s="471"/>
+      <c r="D4" s="471"/>
+      <c r="E4" s="471"/>
+      <c r="F4" s="471"/>
+      <c r="G4" s="471"/>
+      <c r="H4" s="471"/>
+      <c r="I4" s="471"/>
+      <c r="J4" s="471"/>
+      <c r="K4" s="471"/>
+      <c r="L4" s="471"/>
+      <c r="M4" s="471"/>
+      <c r="N4" s="471"/>
+      <c r="O4" s="471"/>
+      <c r="P4" s="471"/>
     </row>
     <row r="5" spans="1:17" s="269" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
-      <c r="D5" s="461"/>
-      <c r="E5" s="461"/>
-      <c r="F5" s="461"/>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
-      <c r="I5" s="461"/>
-      <c r="J5" s="461"/>
-      <c r="K5" s="462"/>
-      <c r="L5" s="462"/>
+      <c r="A5" s="471"/>
+      <c r="B5" s="471"/>
+      <c r="C5" s="471"/>
+      <c r="D5" s="471"/>
+      <c r="E5" s="471"/>
+      <c r="F5" s="471"/>
+      <c r="G5" s="471"/>
+      <c r="H5" s="471"/>
+      <c r="I5" s="471"/>
+      <c r="J5" s="471"/>
+      <c r="K5" s="472"/>
+      <c r="L5" s="472"/>
       <c r="M5" s="270"/>
       <c r="N5" s="270"/>
       <c r="O5" s="270"/>
     </row>
     <row r="6" spans="1:17" s="277" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="463" t="s">
+      <c r="A6" s="473" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="465" t="s">
+      <c r="B6" s="475" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="463" t="s">
+      <c r="C6" s="473" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="469" t="s">
+      <c r="D6" s="479" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="469"/>
-      <c r="F6" s="470" t="s">
+      <c r="E6" s="479"/>
+      <c r="F6" s="480" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="470"/>
-      <c r="H6" s="470"/>
-      <c r="I6" s="470"/>
-      <c r="J6" s="470"/>
-      <c r="K6" s="470"/>
-      <c r="L6" s="470"/>
-      <c r="M6" s="471"/>
-      <c r="N6" s="471"/>
-      <c r="O6" s="471"/>
-      <c r="P6" s="472" t="s">
+      <c r="G6" s="480"/>
+      <c r="H6" s="480"/>
+      <c r="I6" s="480"/>
+      <c r="J6" s="480"/>
+      <c r="K6" s="480"/>
+      <c r="L6" s="480"/>
+      <c r="M6" s="481"/>
+      <c r="N6" s="481"/>
+      <c r="O6" s="481"/>
+      <c r="P6" s="482" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="277" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="464"/>
-      <c r="B7" s="466"/>
-      <c r="C7" s="464"/>
-      <c r="D7" s="463" t="s">
+      <c r="A7" s="474"/>
+      <c r="B7" s="476"/>
+      <c r="C7" s="474"/>
+      <c r="D7" s="473" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="463" t="s">
+      <c r="E7" s="473" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="463" t="s">
+      <c r="F7" s="473" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="463" t="s">
+      <c r="G7" s="473" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="467" t="s">
+      <c r="H7" s="477" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="467" t="s">
+      <c r="I7" s="477" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="474" t="s">
+      <c r="J7" s="484" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="474"/>
-      <c r="L7" s="467" t="s">
+      <c r="K7" s="484"/>
+      <c r="L7" s="477" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="467" t="s">
+      <c r="M7" s="477" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="467" t="s">
+      <c r="N7" s="477" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="467" t="s">
+      <c r="O7" s="477" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="473"/>
+      <c r="P7" s="483"/>
     </row>
     <row r="8" spans="1:17" s="277" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="464"/>
-      <c r="B8" s="466"/>
-      <c r="C8" s="464"/>
-      <c r="D8" s="464"/>
-      <c r="E8" s="464"/>
-      <c r="F8" s="464"/>
-      <c r="G8" s="464"/>
-      <c r="H8" s="468"/>
-      <c r="I8" s="468"/>
+      <c r="A8" s="474"/>
+      <c r="B8" s="476"/>
+      <c r="C8" s="474"/>
+      <c r="D8" s="474"/>
+      <c r="E8" s="474"/>
+      <c r="F8" s="474"/>
+      <c r="G8" s="474"/>
+      <c r="H8" s="478"/>
+      <c r="I8" s="478"/>
       <c r="J8" s="278" t="s">
         <v>84</v>
       </c>
       <c r="K8" s="279" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="468"/>
-      <c r="M8" s="468"/>
-      <c r="N8" s="468"/>
-      <c r="O8" s="468"/>
-      <c r="P8" s="473"/>
+      <c r="L8" s="478"/>
+      <c r="M8" s="478"/>
+      <c r="N8" s="478"/>
+      <c r="O8" s="478"/>
+      <c r="P8" s="483"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="208">
@@ -4870,17 +4989,17 @@
       <c r="P9" s="208"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="444">
+      <c r="A10" s="446">
         <v>630</v>
       </c>
-      <c r="B10" s="457">
+      <c r="B10" s="455">
         <v>44044</v>
       </c>
-      <c r="C10" s="444" t="s">
+      <c r="C10" s="446" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="444"/>
-      <c r="E10" s="444"/>
+      <c r="D10" s="446"/>
+      <c r="E10" s="446"/>
       <c r="F10" s="373" t="s">
         <v>186</v>
       </c>
@@ -4891,7 +5010,7 @@
         <v>455000</v>
       </c>
       <c r="I10" s="311">
-        <f t="shared" ref="I10:I84" si="0">G10*H10</f>
+        <f t="shared" ref="I10:I98" si="0">G10*H10</f>
         <v>455000</v>
       </c>
       <c r="J10" s="311"/>
@@ -4911,11 +5030,11 @@
       <c r="P10" s="373"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="440"/>
-      <c r="B11" s="458"/>
-      <c r="C11" s="440"/>
-      <c r="D11" s="440"/>
-      <c r="E11" s="440"/>
+      <c r="A11" s="447"/>
+      <c r="B11" s="456"/>
+      <c r="C11" s="447"/>
+      <c r="D11" s="447"/>
+      <c r="E11" s="447"/>
       <c r="F11" s="374" t="s">
         <v>187</v>
       </c>
@@ -4946,11 +5065,11 @@
       <c r="P11" s="196"/>
     </row>
     <row r="12" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="440"/>
-      <c r="B12" s="458"/>
-      <c r="C12" s="440"/>
-      <c r="D12" s="440"/>
-      <c r="E12" s="440"/>
+      <c r="A12" s="447"/>
+      <c r="B12" s="456"/>
+      <c r="C12" s="447"/>
+      <c r="D12" s="447"/>
+      <c r="E12" s="447"/>
       <c r="F12" s="374" t="s">
         <v>184</v>
       </c>
@@ -4982,11 +5101,11 @@
       <c r="Q12" s="283"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="441"/>
-      <c r="B13" s="459"/>
-      <c r="C13" s="441"/>
-      <c r="D13" s="441"/>
-      <c r="E13" s="441"/>
+      <c r="A13" s="448"/>
+      <c r="B13" s="457"/>
+      <c r="C13" s="448"/>
+      <c r="D13" s="448"/>
+      <c r="E13" s="448"/>
       <c r="F13" s="375" t="s">
         <v>188</v>
       </c>
@@ -5103,17 +5222,17 @@
       <c r="P15" s="285"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="444">
+      <c r="A16" s="446">
         <v>635</v>
       </c>
-      <c r="B16" s="457">
+      <c r="B16" s="455">
         <v>44047</v>
       </c>
-      <c r="C16" s="444"/>
-      <c r="D16" s="479" t="s">
+      <c r="C16" s="446"/>
+      <c r="D16" s="452" t="s">
         <v>193</v>
       </c>
-      <c r="E16" s="479" t="s">
+      <c r="E16" s="452" t="s">
         <v>194</v>
       </c>
       <c r="F16" s="373" t="s">
@@ -5146,11 +5265,11 @@
       <c r="P16" s="376"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="441"/>
-      <c r="B17" s="459"/>
-      <c r="C17" s="441"/>
-      <c r="D17" s="480"/>
-      <c r="E17" s="480"/>
+      <c r="A17" s="448"/>
+      <c r="B17" s="457"/>
+      <c r="C17" s="448"/>
+      <c r="D17" s="454"/>
+      <c r="E17" s="454"/>
       <c r="F17" s="375" t="s">
         <v>187</v>
       </c>
@@ -5181,19 +5300,19 @@
       <c r="P17" s="378"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="444">
+      <c r="A18" s="446">
         <v>637</v>
       </c>
-      <c r="B18" s="457">
+      <c r="B18" s="455">
         <v>44048</v>
       </c>
-      <c r="C18" s="444" t="s">
+      <c r="C18" s="446" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="479" t="s">
+      <c r="D18" s="452" t="s">
         <v>196</v>
       </c>
-      <c r="E18" s="479"/>
+      <c r="E18" s="452"/>
       <c r="F18" s="373" t="s">
         <v>186</v>
       </c>
@@ -5224,11 +5343,11 @@
       <c r="P18" s="376"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="440"/>
-      <c r="B19" s="458"/>
-      <c r="C19" s="440"/>
-      <c r="D19" s="481"/>
-      <c r="E19" s="481"/>
+      <c r="A19" s="447"/>
+      <c r="B19" s="456"/>
+      <c r="C19" s="447"/>
+      <c r="D19" s="453"/>
+      <c r="E19" s="453"/>
       <c r="F19" s="374" t="s">
         <v>187</v>
       </c>
@@ -5259,11 +5378,11 @@
       <c r="P19" s="377"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="440"/>
-      <c r="B20" s="458"/>
-      <c r="C20" s="440"/>
-      <c r="D20" s="481"/>
-      <c r="E20" s="481"/>
+      <c r="A20" s="447"/>
+      <c r="B20" s="456"/>
+      <c r="C20" s="447"/>
+      <c r="D20" s="453"/>
+      <c r="E20" s="453"/>
       <c r="F20" s="374" t="s">
         <v>197</v>
       </c>
@@ -5294,11 +5413,11 @@
       <c r="P20" s="377"/>
     </row>
     <row r="21" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="440"/>
-      <c r="B21" s="458"/>
-      <c r="C21" s="440"/>
-      <c r="D21" s="481"/>
-      <c r="E21" s="481"/>
+      <c r="A21" s="447"/>
+      <c r="B21" s="456"/>
+      <c r="C21" s="447"/>
+      <c r="D21" s="453"/>
+      <c r="E21" s="453"/>
       <c r="F21" s="374" t="s">
         <v>184</v>
       </c>
@@ -5329,11 +5448,11 @@
       <c r="P21" s="377"/>
     </row>
     <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="440"/>
-      <c r="B22" s="458"/>
-      <c r="C22" s="440"/>
-      <c r="D22" s="481"/>
-      <c r="E22" s="481"/>
+      <c r="A22" s="447"/>
+      <c r="B22" s="456"/>
+      <c r="C22" s="447"/>
+      <c r="D22" s="453"/>
+      <c r="E22" s="453"/>
       <c r="F22" s="374" t="s">
         <v>188</v>
       </c>
@@ -5365,11 +5484,11 @@
       <c r="R22" s="283"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="440"/>
-      <c r="B23" s="458"/>
-      <c r="C23" s="440"/>
-      <c r="D23" s="481"/>
-      <c r="E23" s="481"/>
+      <c r="A23" s="447"/>
+      <c r="B23" s="456"/>
+      <c r="C23" s="447"/>
+      <c r="D23" s="453"/>
+      <c r="E23" s="453"/>
       <c r="F23" s="374" t="s">
         <v>190</v>
       </c>
@@ -5400,11 +5519,11 @@
       <c r="P23" s="374"/>
     </row>
     <row r="24" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="440"/>
-      <c r="B24" s="458"/>
-      <c r="C24" s="440"/>
-      <c r="D24" s="481"/>
-      <c r="E24" s="481"/>
+      <c r="A24" s="447"/>
+      <c r="B24" s="456"/>
+      <c r="C24" s="447"/>
+      <c r="D24" s="453"/>
+      <c r="E24" s="453"/>
       <c r="F24" s="374" t="s">
         <v>198</v>
       </c>
@@ -5435,11 +5554,11 @@
       <c r="P24" s="374"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="441"/>
-      <c r="B25" s="459"/>
-      <c r="C25" s="441"/>
-      <c r="D25" s="480"/>
-      <c r="E25" s="480"/>
+      <c r="A25" s="448"/>
+      <c r="B25" s="457"/>
+      <c r="C25" s="448"/>
+      <c r="D25" s="454"/>
+      <c r="E25" s="454"/>
       <c r="F25" s="375" t="s">
         <v>199</v>
       </c>
@@ -5470,19 +5589,19 @@
       <c r="P25" s="375"/>
     </row>
     <row r="26" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="444">
+      <c r="A26" s="446">
         <v>638</v>
       </c>
-      <c r="B26" s="457">
+      <c r="B26" s="455">
         <v>44048</v>
       </c>
-      <c r="C26" s="444" t="s">
+      <c r="C26" s="446" t="s">
         <v>201</v>
       </c>
-      <c r="D26" s="444" t="s">
+      <c r="D26" s="446" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="444" t="s">
+      <c r="E26" s="446" t="s">
         <v>202</v>
       </c>
       <c r="F26" s="373" t="s">
@@ -5515,11 +5634,11 @@
       <c r="P26" s="373"/>
     </row>
     <row r="27" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="440"/>
-      <c r="B27" s="458"/>
-      <c r="C27" s="440"/>
-      <c r="D27" s="440"/>
-      <c r="E27" s="440"/>
+      <c r="A27" s="447"/>
+      <c r="B27" s="456"/>
+      <c r="C27" s="447"/>
+      <c r="D27" s="447"/>
+      <c r="E27" s="447"/>
       <c r="F27" s="374" t="s">
         <v>186</v>
       </c>
@@ -5550,11 +5669,11 @@
       <c r="P27" s="374"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="440"/>
-      <c r="B28" s="458"/>
-      <c r="C28" s="440"/>
-      <c r="D28" s="440"/>
-      <c r="E28" s="440"/>
+      <c r="A28" s="447"/>
+      <c r="B28" s="456"/>
+      <c r="C28" s="447"/>
+      <c r="D28" s="447"/>
+      <c r="E28" s="447"/>
       <c r="F28" s="374" t="s">
         <v>187</v>
       </c>
@@ -5585,11 +5704,11 @@
       <c r="P28" s="377"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="440"/>
-      <c r="B29" s="458"/>
-      <c r="C29" s="440"/>
-      <c r="D29" s="440"/>
-      <c r="E29" s="440"/>
+      <c r="A29" s="447"/>
+      <c r="B29" s="456"/>
+      <c r="C29" s="447"/>
+      <c r="D29" s="447"/>
+      <c r="E29" s="447"/>
       <c r="F29" s="374" t="s">
         <v>197</v>
       </c>
@@ -5620,11 +5739,11 @@
       <c r="P29" s="374"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="440"/>
-      <c r="B30" s="458"/>
-      <c r="C30" s="440"/>
-      <c r="D30" s="440"/>
-      <c r="E30" s="440"/>
+      <c r="A30" s="447"/>
+      <c r="B30" s="456"/>
+      <c r="C30" s="447"/>
+      <c r="D30" s="447"/>
+      <c r="E30" s="447"/>
       <c r="F30" s="374" t="s">
         <v>184</v>
       </c>
@@ -5655,11 +5774,11 @@
       <c r="P30" s="374"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="440"/>
-      <c r="B31" s="458"/>
-      <c r="C31" s="440"/>
-      <c r="D31" s="440"/>
-      <c r="E31" s="440"/>
+      <c r="A31" s="447"/>
+      <c r="B31" s="456"/>
+      <c r="C31" s="447"/>
+      <c r="D31" s="447"/>
+      <c r="E31" s="447"/>
       <c r="F31" s="374" t="s">
         <v>188</v>
       </c>
@@ -5690,11 +5809,11 @@
       <c r="P31" s="374"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="441"/>
-      <c r="B32" s="459"/>
-      <c r="C32" s="441"/>
-      <c r="D32" s="441"/>
-      <c r="E32" s="441"/>
+      <c r="A32" s="448"/>
+      <c r="B32" s="457"/>
+      <c r="C32" s="448"/>
+      <c r="D32" s="448"/>
+      <c r="E32" s="448"/>
       <c r="F32" s="375" t="s">
         <v>199</v>
       </c>
@@ -5725,19 +5844,19 @@
       <c r="P32" s="204"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="450">
+      <c r="A33" s="458">
         <v>639</v>
       </c>
-      <c r="B33" s="454">
+      <c r="B33" s="486">
         <v>44055</v>
       </c>
-      <c r="C33" s="450" t="s">
+      <c r="C33" s="458" t="s">
         <v>181</v>
       </c>
-      <c r="D33" s="448" t="s">
+      <c r="D33" s="466" t="s">
         <v>204</v>
       </c>
-      <c r="E33" s="450"/>
+      <c r="E33" s="458"/>
       <c r="F33" s="381" t="s">
         <v>184</v>
       </c>
@@ -5768,11 +5887,11 @@
       <c r="P33" s="398"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="452"/>
-      <c r="B34" s="455"/>
-      <c r="C34" s="452"/>
-      <c r="D34" s="453"/>
-      <c r="E34" s="452"/>
+      <c r="A34" s="485"/>
+      <c r="B34" s="487"/>
+      <c r="C34" s="485"/>
+      <c r="D34" s="468"/>
+      <c r="E34" s="485"/>
       <c r="F34" s="317" t="s">
         <v>199</v>
       </c>
@@ -5803,19 +5922,19 @@
       <c r="P34" s="204"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="450">
+      <c r="A35" s="458">
         <v>640</v>
       </c>
-      <c r="B35" s="454">
+      <c r="B35" s="486">
         <v>44055</v>
       </c>
-      <c r="C35" s="450" t="s">
+      <c r="C35" s="458" t="s">
         <v>181</v>
       </c>
-      <c r="D35" s="448" t="s">
+      <c r="D35" s="466" t="s">
         <v>205</v>
       </c>
-      <c r="E35" s="450" t="s">
+      <c r="E35" s="458" t="s">
         <v>206</v>
       </c>
       <c r="F35" s="310" t="s">
@@ -5848,11 +5967,11 @@
       <c r="P35" s="310"/>
     </row>
     <row r="36" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="442"/>
-      <c r="B36" s="456"/>
-      <c r="C36" s="442"/>
-      <c r="D36" s="449"/>
-      <c r="E36" s="442"/>
+      <c r="A36" s="459"/>
+      <c r="B36" s="488"/>
+      <c r="C36" s="459"/>
+      <c r="D36" s="467"/>
+      <c r="E36" s="459"/>
       <c r="F36" s="382" t="s">
         <v>199</v>
       </c>
@@ -5883,19 +6002,19 @@
       <c r="P36" s="382"/>
     </row>
     <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="444">
+      <c r="A37" s="446">
         <v>641</v>
       </c>
-      <c r="B37" s="457">
+      <c r="B37" s="455">
         <v>44055</v>
       </c>
-      <c r="C37" s="444" t="s">
+      <c r="C37" s="446" t="s">
         <v>201</v>
       </c>
-      <c r="D37" s="479" t="s">
+      <c r="D37" s="452" t="s">
         <v>208</v>
       </c>
-      <c r="E37" s="444" t="s">
+      <c r="E37" s="446" t="s">
         <v>207</v>
       </c>
       <c r="F37" s="373" t="s">
@@ -5928,11 +6047,11 @@
       <c r="P37" s="373"/>
     </row>
     <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="440"/>
-      <c r="B38" s="458"/>
-      <c r="C38" s="440"/>
-      <c r="D38" s="481"/>
-      <c r="E38" s="440"/>
+      <c r="A38" s="447"/>
+      <c r="B38" s="456"/>
+      <c r="C38" s="447"/>
+      <c r="D38" s="453"/>
+      <c r="E38" s="447"/>
       <c r="F38" s="374" t="s">
         <v>186</v>
       </c>
@@ -5963,11 +6082,11 @@
       <c r="P38" s="374"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="440"/>
-      <c r="B39" s="458"/>
-      <c r="C39" s="440"/>
-      <c r="D39" s="481"/>
-      <c r="E39" s="440"/>
+      <c r="A39" s="447"/>
+      <c r="B39" s="456"/>
+      <c r="C39" s="447"/>
+      <c r="D39" s="453"/>
+      <c r="E39" s="447"/>
       <c r="F39" s="374" t="s">
         <v>187</v>
       </c>
@@ -5998,11 +6117,11 @@
       <c r="P39" s="374"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="440"/>
-      <c r="B40" s="458"/>
-      <c r="C40" s="440"/>
-      <c r="D40" s="481"/>
-      <c r="E40" s="440"/>
+      <c r="A40" s="447"/>
+      <c r="B40" s="456"/>
+      <c r="C40" s="447"/>
+      <c r="D40" s="453"/>
+      <c r="E40" s="447"/>
       <c r="F40" s="374" t="s">
         <v>197</v>
       </c>
@@ -6033,11 +6152,11 @@
       <c r="P40" s="374"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="440"/>
-      <c r="B41" s="458"/>
-      <c r="C41" s="440"/>
-      <c r="D41" s="481"/>
-      <c r="E41" s="440"/>
+      <c r="A41" s="447"/>
+      <c r="B41" s="456"/>
+      <c r="C41" s="447"/>
+      <c r="D41" s="453"/>
+      <c r="E41" s="447"/>
       <c r="F41" s="374" t="s">
         <v>184</v>
       </c>
@@ -6068,11 +6187,11 @@
       <c r="P41" s="374"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="440"/>
-      <c r="B42" s="458"/>
-      <c r="C42" s="440"/>
-      <c r="D42" s="481"/>
-      <c r="E42" s="440"/>
+      <c r="A42" s="447"/>
+      <c r="B42" s="456"/>
+      <c r="C42" s="447"/>
+      <c r="D42" s="453"/>
+      <c r="E42" s="447"/>
       <c r="F42" s="374" t="s">
         <v>188</v>
       </c>
@@ -6103,11 +6222,11 @@
       <c r="P42" s="374"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="440"/>
-      <c r="B43" s="458"/>
-      <c r="C43" s="440"/>
-      <c r="D43" s="481"/>
-      <c r="E43" s="440"/>
+      <c r="A43" s="447"/>
+      <c r="B43" s="456"/>
+      <c r="C43" s="447"/>
+      <c r="D43" s="453"/>
+      <c r="E43" s="447"/>
       <c r="F43" s="374" t="s">
         <v>190</v>
       </c>
@@ -6138,11 +6257,11 @@
       <c r="P43" s="374"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="440"/>
-      <c r="B44" s="458"/>
-      <c r="C44" s="440"/>
-      <c r="D44" s="481"/>
-      <c r="E44" s="440"/>
+      <c r="A44" s="447"/>
+      <c r="B44" s="456"/>
+      <c r="C44" s="447"/>
+      <c r="D44" s="453"/>
+      <c r="E44" s="447"/>
       <c r="F44" s="374" t="s">
         <v>198</v>
       </c>
@@ -6173,11 +6292,11 @@
       <c r="P44" s="374"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="441"/>
-      <c r="B45" s="459"/>
-      <c r="C45" s="441"/>
-      <c r="D45" s="480"/>
-      <c r="E45" s="441"/>
+      <c r="A45" s="448"/>
+      <c r="B45" s="457"/>
+      <c r="C45" s="448"/>
+      <c r="D45" s="454"/>
+      <c r="E45" s="448"/>
       <c r="F45" s="375" t="s">
         <v>199</v>
       </c>
@@ -6253,19 +6372,19 @@
       <c r="P46" s="379"/>
     </row>
     <row r="47" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="444">
+      <c r="A47" s="446">
         <v>645</v>
       </c>
-      <c r="B47" s="457">
+      <c r="B47" s="455">
         <v>44056</v>
       </c>
-      <c r="C47" s="444" t="s">
+      <c r="C47" s="446" t="s">
         <v>201</v>
       </c>
-      <c r="D47" s="479" t="s">
+      <c r="D47" s="452" t="s">
         <v>208</v>
       </c>
-      <c r="E47" s="444" t="s">
+      <c r="E47" s="446" t="s">
         <v>207</v>
       </c>
       <c r="F47" s="373" t="s">
@@ -6299,11 +6418,11 @@
       <c r="Q47" s="283"/>
     </row>
     <row r="48" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="440"/>
-      <c r="B48" s="458"/>
-      <c r="C48" s="440"/>
-      <c r="D48" s="481"/>
-      <c r="E48" s="440"/>
+      <c r="A48" s="447"/>
+      <c r="B48" s="456"/>
+      <c r="C48" s="447"/>
+      <c r="D48" s="453"/>
+      <c r="E48" s="447"/>
       <c r="F48" s="374" t="s">
         <v>187</v>
       </c>
@@ -6335,11 +6454,11 @@
       <c r="Q48" s="283"/>
     </row>
     <row r="49" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="440"/>
-      <c r="B49" s="458"/>
-      <c r="C49" s="440"/>
-      <c r="D49" s="481"/>
-      <c r="E49" s="440"/>
+      <c r="A49" s="447"/>
+      <c r="B49" s="456"/>
+      <c r="C49" s="447"/>
+      <c r="D49" s="453"/>
+      <c r="E49" s="447"/>
       <c r="F49" s="374" t="s">
         <v>197</v>
       </c>
@@ -6371,11 +6490,11 @@
       <c r="Q49" s="283"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="440"/>
-      <c r="B50" s="458"/>
-      <c r="C50" s="440"/>
-      <c r="D50" s="481"/>
-      <c r="E50" s="440"/>
+      <c r="A50" s="447"/>
+      <c r="B50" s="456"/>
+      <c r="C50" s="447"/>
+      <c r="D50" s="453"/>
+      <c r="E50" s="447"/>
       <c r="F50" s="374" t="s">
         <v>188</v>
       </c>
@@ -6407,11 +6526,11 @@
       <c r="Q50" s="283"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="440"/>
-      <c r="B51" s="458"/>
-      <c r="C51" s="440"/>
-      <c r="D51" s="481"/>
-      <c r="E51" s="440"/>
+      <c r="A51" s="447"/>
+      <c r="B51" s="456"/>
+      <c r="C51" s="447"/>
+      <c r="D51" s="453"/>
+      <c r="E51" s="447"/>
       <c r="F51" s="374" t="s">
         <v>190</v>
       </c>
@@ -6443,11 +6562,11 @@
       <c r="Q51" s="283"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="440"/>
-      <c r="B52" s="458"/>
-      <c r="C52" s="440"/>
-      <c r="D52" s="481"/>
-      <c r="E52" s="440"/>
+      <c r="A52" s="447"/>
+      <c r="B52" s="456"/>
+      <c r="C52" s="447"/>
+      <c r="D52" s="453"/>
+      <c r="E52" s="447"/>
       <c r="F52" s="374" t="s">
         <v>198</v>
       </c>
@@ -6479,11 +6598,11 @@
       <c r="Q52" s="283"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="441"/>
-      <c r="B53" s="459"/>
-      <c r="C53" s="441"/>
-      <c r="D53" s="480"/>
-      <c r="E53" s="441"/>
+      <c r="A53" s="448"/>
+      <c r="B53" s="457"/>
+      <c r="C53" s="448"/>
+      <c r="D53" s="454"/>
+      <c r="E53" s="448"/>
       <c r="F53" s="375" t="s">
         <v>199</v>
       </c>
@@ -6515,17 +6634,17 @@
       <c r="Q53" s="283"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="450">
+      <c r="A54" s="458">
         <v>646</v>
       </c>
-      <c r="B54" s="454">
+      <c r="B54" s="486">
         <v>44053</v>
       </c>
-      <c r="C54" s="450" t="s">
+      <c r="C54" s="458" t="s">
         <v>185</v>
       </c>
-      <c r="D54" s="448"/>
-      <c r="E54" s="450"/>
+      <c r="D54" s="466"/>
+      <c r="E54" s="458"/>
       <c r="F54" s="282" t="s">
         <v>186</v>
       </c>
@@ -6557,11 +6676,11 @@
       <c r="Q54" s="283"/>
     </row>
     <row r="55" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="442"/>
-      <c r="B55" s="456"/>
-      <c r="C55" s="442"/>
-      <c r="D55" s="449"/>
-      <c r="E55" s="442"/>
+      <c r="A55" s="459"/>
+      <c r="B55" s="488"/>
+      <c r="C55" s="459"/>
+      <c r="D55" s="467"/>
+      <c r="E55" s="459"/>
       <c r="F55" s="382" t="s">
         <v>187</v>
       </c>
@@ -6593,21 +6712,21 @@
       <c r="Q55" s="283"/>
     </row>
     <row r="56" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="425">
+      <c r="A56" s="424">
         <v>655</v>
       </c>
-      <c r="B56" s="426">
+      <c r="B56" s="425">
         <v>44053</v>
       </c>
-      <c r="C56" s="425"/>
-      <c r="D56" s="427" t="s">
+      <c r="C56" s="424"/>
+      <c r="D56" s="426" t="s">
         <v>233</v>
       </c>
-      <c r="E56" s="425"/>
-      <c r="F56" s="425" t="s">
+      <c r="E56" s="424"/>
+      <c r="F56" s="424" t="s">
         <v>186</v>
       </c>
-      <c r="G56" s="425">
+      <c r="G56" s="424">
         <v>24</v>
       </c>
       <c r="H56" s="409">
@@ -6631,23 +6750,23 @@
         <f>L56</f>
         <v>5460000</v>
       </c>
-      <c r="P56" s="425"/>
+      <c r="P56" s="424"/>
       <c r="Q56" s="283"/>
     </row>
     <row r="57" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="444">
+      <c r="A57" s="446">
         <v>647</v>
       </c>
-      <c r="B57" s="457">
+      <c r="B57" s="455">
         <v>44056</v>
       </c>
-      <c r="C57" s="444" t="s">
+      <c r="C57" s="446" t="s">
         <v>181</v>
       </c>
-      <c r="D57" s="479" t="s">
+      <c r="D57" s="452" t="s">
         <v>211</v>
       </c>
-      <c r="E57" s="444" t="s">
+      <c r="E57" s="446" t="s">
         <v>212</v>
       </c>
       <c r="F57" s="373" t="s">
@@ -6677,17 +6796,17 @@
       </c>
       <c r="N57" s="311"/>
       <c r="O57" s="311"/>
-      <c r="P57" s="479" t="s">
+      <c r="P57" s="452" t="s">
         <v>213</v>
       </c>
       <c r="Q57" s="283"/>
     </row>
     <row r="58" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="441"/>
-      <c r="B58" s="459"/>
-      <c r="C58" s="441"/>
-      <c r="D58" s="480"/>
-      <c r="E58" s="441"/>
+      <c r="A58" s="448"/>
+      <c r="B58" s="457"/>
+      <c r="C58" s="448"/>
+      <c r="D58" s="454"/>
+      <c r="E58" s="448"/>
       <c r="F58" s="375" t="s">
         <v>187</v>
       </c>
@@ -6715,23 +6834,23 @@
       </c>
       <c r="N58" s="318"/>
       <c r="O58" s="318"/>
-      <c r="P58" s="480"/>
+      <c r="P58" s="454"/>
       <c r="Q58" s="283"/>
     </row>
     <row r="59" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="444">
+      <c r="A59" s="446">
         <v>650</v>
       </c>
-      <c r="B59" s="457">
+      <c r="B59" s="455">
         <v>44057</v>
       </c>
-      <c r="C59" s="444" t="s">
+      <c r="C59" s="446" t="s">
         <v>201</v>
       </c>
-      <c r="D59" s="479" t="s">
+      <c r="D59" s="452" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="444" t="s">
+      <c r="E59" s="446" t="s">
         <v>207</v>
       </c>
       <c r="F59" s="373" t="s">
@@ -6765,11 +6884,11 @@
       <c r="Q59" s="283"/>
     </row>
     <row r="60" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="440"/>
-      <c r="B60" s="458"/>
-      <c r="C60" s="440"/>
-      <c r="D60" s="481"/>
-      <c r="E60" s="440"/>
+      <c r="A60" s="447"/>
+      <c r="B60" s="456"/>
+      <c r="C60" s="447"/>
+      <c r="D60" s="453"/>
+      <c r="E60" s="447"/>
       <c r="F60" s="374" t="s">
         <v>187</v>
       </c>
@@ -6801,11 +6920,11 @@
       <c r="Q60" s="283"/>
     </row>
     <row r="61" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="440"/>
-      <c r="B61" s="458"/>
-      <c r="C61" s="440"/>
-      <c r="D61" s="481"/>
-      <c r="E61" s="440"/>
+      <c r="A61" s="447"/>
+      <c r="B61" s="456"/>
+      <c r="C61" s="447"/>
+      <c r="D61" s="453"/>
+      <c r="E61" s="447"/>
       <c r="F61" s="374" t="s">
         <v>197</v>
       </c>
@@ -6837,11 +6956,11 @@
       <c r="Q61" s="283"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="440"/>
-      <c r="B62" s="458"/>
-      <c r="C62" s="440"/>
-      <c r="D62" s="481"/>
-      <c r="E62" s="440"/>
+      <c r="A62" s="447"/>
+      <c r="B62" s="456"/>
+      <c r="C62" s="447"/>
+      <c r="D62" s="453"/>
+      <c r="E62" s="447"/>
       <c r="F62" s="374" t="s">
         <v>184</v>
       </c>
@@ -6873,11 +6992,11 @@
       <c r="Q62" s="283"/>
     </row>
     <row r="63" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="440"/>
-      <c r="B63" s="458"/>
-      <c r="C63" s="440"/>
-      <c r="D63" s="481"/>
-      <c r="E63" s="440"/>
+      <c r="A63" s="447"/>
+      <c r="B63" s="456"/>
+      <c r="C63" s="447"/>
+      <c r="D63" s="453"/>
+      <c r="E63" s="447"/>
       <c r="F63" s="374" t="s">
         <v>198</v>
       </c>
@@ -6909,11 +7028,11 @@
       <c r="Q63" s="283"/>
     </row>
     <row r="64" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="441"/>
-      <c r="B64" s="459"/>
-      <c r="C64" s="441"/>
-      <c r="D64" s="480"/>
-      <c r="E64" s="441"/>
+      <c r="A64" s="448"/>
+      <c r="B64" s="457"/>
+      <c r="C64" s="448"/>
+      <c r="D64" s="454"/>
+      <c r="E64" s="448"/>
       <c r="F64" s="375" t="s">
         <v>199</v>
       </c>
@@ -6945,17 +7064,17 @@
       <c r="Q64" s="283"/>
     </row>
     <row r="65" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="444">
+      <c r="A65" s="446">
         <v>751</v>
       </c>
-      <c r="B65" s="457">
+      <c r="B65" s="455">
         <v>44060</v>
       </c>
-      <c r="C65" s="444"/>
-      <c r="D65" s="479" t="s">
+      <c r="C65" s="446"/>
+      <c r="D65" s="452" t="s">
         <v>214</v>
       </c>
-      <c r="E65" s="444" t="s">
+      <c r="E65" s="446" t="s">
         <v>215</v>
       </c>
       <c r="F65" s="373" t="s">
@@ -6991,11 +7110,11 @@
       <c r="Q65" s="283"/>
     </row>
     <row r="66" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="440"/>
-      <c r="B66" s="458"/>
-      <c r="C66" s="440"/>
-      <c r="D66" s="481"/>
-      <c r="E66" s="440"/>
+      <c r="A66" s="447"/>
+      <c r="B66" s="456"/>
+      <c r="C66" s="447"/>
+      <c r="D66" s="453"/>
+      <c r="E66" s="447"/>
       <c r="F66" s="374" t="s">
         <v>186</v>
       </c>
@@ -7026,11 +7145,11 @@
       <c r="P66" s="200"/>
     </row>
     <row r="67" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="440"/>
-      <c r="B67" s="458"/>
-      <c r="C67" s="440"/>
-      <c r="D67" s="481"/>
-      <c r="E67" s="440"/>
+      <c r="A67" s="447"/>
+      <c r="B67" s="456"/>
+      <c r="C67" s="447"/>
+      <c r="D67" s="453"/>
+      <c r="E67" s="447"/>
       <c r="F67" s="374" t="s">
         <v>184</v>
       </c>
@@ -7061,11 +7180,11 @@
       <c r="P67" s="200"/>
     </row>
     <row r="68" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="441"/>
-      <c r="B68" s="459"/>
-      <c r="C68" s="441"/>
-      <c r="D68" s="480"/>
-      <c r="E68" s="441"/>
+      <c r="A68" s="448"/>
+      <c r="B68" s="457"/>
+      <c r="C68" s="448"/>
+      <c r="D68" s="454"/>
+      <c r="E68" s="448"/>
       <c r="F68" s="375" t="s">
         <v>199</v>
       </c>
@@ -7186,17 +7305,17 @@
       <c r="P70" s="136"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="444">
+      <c r="A71" s="446">
         <v>757</v>
       </c>
-      <c r="B71" s="445">
+      <c r="B71" s="449">
         <v>44061</v>
       </c>
-      <c r="C71" s="444"/>
-      <c r="D71" s="444" t="s">
+      <c r="C71" s="446"/>
+      <c r="D71" s="446" t="s">
         <v>220</v>
       </c>
-      <c r="E71" s="444" t="s">
+      <c r="E71" s="446" t="s">
         <v>221</v>
       </c>
       <c r="F71" s="373" t="s">
@@ -7229,11 +7348,11 @@
       <c r="P71" s="195"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="440"/>
-      <c r="B72" s="447"/>
-      <c r="C72" s="440"/>
-      <c r="D72" s="440"/>
-      <c r="E72" s="440"/>
+      <c r="A72" s="447"/>
+      <c r="B72" s="450"/>
+      <c r="C72" s="447"/>
+      <c r="D72" s="447"/>
+      <c r="E72" s="447"/>
       <c r="F72" s="374" t="s">
         <v>187</v>
       </c>
@@ -7264,11 +7383,11 @@
       <c r="P72" s="200"/>
     </row>
     <row r="73" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="440"/>
-      <c r="B73" s="447"/>
-      <c r="C73" s="440"/>
-      <c r="D73" s="440"/>
-      <c r="E73" s="440"/>
+      <c r="A73" s="447"/>
+      <c r="B73" s="450"/>
+      <c r="C73" s="447"/>
+      <c r="D73" s="447"/>
+      <c r="E73" s="447"/>
       <c r="F73" s="374" t="s">
         <v>197</v>
       </c>
@@ -7299,11 +7418,11 @@
       <c r="P73" s="200"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="440"/>
-      <c r="B74" s="447"/>
-      <c r="C74" s="440"/>
-      <c r="D74" s="440"/>
-      <c r="E74" s="440"/>
+      <c r="A74" s="447"/>
+      <c r="B74" s="450"/>
+      <c r="C74" s="447"/>
+      <c r="D74" s="447"/>
+      <c r="E74" s="447"/>
       <c r="F74" s="374" t="s">
         <v>184</v>
       </c>
@@ -7334,11 +7453,11 @@
       <c r="P74" s="200"/>
     </row>
     <row r="75" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="440"/>
-      <c r="B75" s="447"/>
-      <c r="C75" s="440"/>
-      <c r="D75" s="440"/>
-      <c r="E75" s="440"/>
+      <c r="A75" s="447"/>
+      <c r="B75" s="450"/>
+      <c r="C75" s="447"/>
+      <c r="D75" s="447"/>
+      <c r="E75" s="447"/>
       <c r="F75" s="374" t="s">
         <v>198</v>
       </c>
@@ -7369,11 +7488,11 @@
       <c r="P75" s="374"/>
     </row>
     <row r="76" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="441"/>
-      <c r="B76" s="446"/>
-      <c r="C76" s="441"/>
-      <c r="D76" s="441"/>
-      <c r="E76" s="441"/>
+      <c r="A76" s="448"/>
+      <c r="B76" s="451"/>
+      <c r="C76" s="448"/>
+      <c r="D76" s="448"/>
+      <c r="E76" s="448"/>
       <c r="F76" s="375" t="s">
         <v>199</v>
       </c>
@@ -7404,17 +7523,17 @@
       <c r="P76" s="375"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="450">
+      <c r="A77" s="458">
         <v>761</v>
       </c>
-      <c r="B77" s="451">
+      <c r="B77" s="460">
         <v>44063</v>
       </c>
-      <c r="C77" s="450"/>
-      <c r="D77" s="450" t="s">
+      <c r="C77" s="458"/>
+      <c r="D77" s="458" t="s">
         <v>214</v>
       </c>
-      <c r="E77" s="450" t="s">
+      <c r="E77" s="458" t="s">
         <v>215</v>
       </c>
       <c r="F77" s="345" t="s">
@@ -7449,11 +7568,11 @@
       <c r="P77" s="192"/>
     </row>
     <row r="78" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="442"/>
-      <c r="B78" s="443"/>
-      <c r="C78" s="442"/>
-      <c r="D78" s="442"/>
-      <c r="E78" s="442"/>
+      <c r="A78" s="459"/>
+      <c r="B78" s="461"/>
+      <c r="C78" s="459"/>
+      <c r="D78" s="459"/>
+      <c r="E78" s="459"/>
       <c r="F78" s="382" t="s">
         <v>197</v>
       </c>
@@ -7472,7 +7591,7 @@
         <v>0.41</v>
       </c>
       <c r="L78" s="364">
-        <f t="shared" ref="L78:L84" si="10">I78*(1-K78)</f>
+        <f t="shared" ref="L78:L98" si="10">I78*(1-K78)</f>
         <v>3363000.0000000005</v>
       </c>
       <c r="M78" s="364"/>
@@ -7484,19 +7603,19 @@
       <c r="P78" s="352"/>
     </row>
     <row r="79" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="444">
+      <c r="A79" s="458">
         <v>762</v>
       </c>
-      <c r="B79" s="445">
+      <c r="B79" s="460">
         <v>44063</v>
       </c>
-      <c r="C79" s="444" t="s">
+      <c r="C79" s="458" t="s">
         <v>201</v>
       </c>
-      <c r="D79" s="444" t="s">
+      <c r="D79" s="458" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="444"/>
+      <c r="E79" s="458"/>
       <c r="F79" s="373" t="s">
         <v>203</v>
       </c>
@@ -7527,11 +7646,11 @@
       <c r="P79" s="192"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="440"/>
-      <c r="B80" s="447"/>
-      <c r="C80" s="440"/>
-      <c r="D80" s="440"/>
-      <c r="E80" s="440"/>
+      <c r="A80" s="459"/>
+      <c r="B80" s="461"/>
+      <c r="C80" s="459"/>
+      <c r="D80" s="459"/>
+      <c r="E80" s="459"/>
       <c r="F80" s="374" t="s">
         <v>186</v>
       </c>
@@ -7562,11 +7681,11 @@
       <c r="P80" s="374"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="441"/>
-      <c r="B81" s="446"/>
-      <c r="C81" s="441"/>
-      <c r="D81" s="441"/>
-      <c r="E81" s="441"/>
+      <c r="A81" s="459"/>
+      <c r="B81" s="461"/>
+      <c r="C81" s="459"/>
+      <c r="D81" s="459"/>
+      <c r="E81" s="459"/>
       <c r="F81" s="375" t="s">
         <v>187</v>
       </c>
@@ -7596,557 +7715,813 @@
       </c>
       <c r="P81" s="201"/>
     </row>
-    <row r="82" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="444">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="485"/>
+      <c r="B82" s="568"/>
+      <c r="C82" s="485"/>
+      <c r="D82" s="485"/>
+      <c r="E82" s="485"/>
+      <c r="F82" s="431" t="s">
+        <v>199</v>
+      </c>
+      <c r="G82" s="431">
+        <v>5</v>
+      </c>
+      <c r="H82" s="409">
+        <v>455000</v>
+      </c>
+      <c r="I82" s="409">
+        <f t="shared" si="0"/>
+        <v>2275000</v>
+      </c>
+      <c r="J82" s="409"/>
+      <c r="K82" s="410">
+        <v>0.5</v>
+      </c>
+      <c r="L82" s="409">
+        <f t="shared" si="10"/>
+        <v>1137500</v>
+      </c>
+      <c r="M82" s="409"/>
+      <c r="N82" s="409"/>
+      <c r="O82" s="409">
+        <f>L82</f>
+        <v>1137500</v>
+      </c>
+      <c r="P82" s="387"/>
+    </row>
+    <row r="83" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="446">
         <v>763</v>
       </c>
-      <c r="B82" s="445">
+      <c r="B83" s="449">
         <v>44063</v>
       </c>
-      <c r="C82" s="444"/>
-      <c r="D82" s="444" t="s">
+      <c r="C83" s="446"/>
+      <c r="D83" s="446" t="s">
         <v>193</v>
       </c>
-      <c r="E82" s="444" t="s">
+      <c r="E83" s="446" t="s">
         <v>194</v>
       </c>
-      <c r="F82" s="373" t="s">
+      <c r="F83" s="373" t="s">
         <v>203</v>
       </c>
-      <c r="G82" s="373">
+      <c r="G83" s="373">
         <v>48</v>
       </c>
-      <c r="H82" s="311">
+      <c r="H83" s="311">
         <v>225000</v>
       </c>
-      <c r="I82" s="311">
+      <c r="I83" s="311">
         <f t="shared" si="0"/>
         <v>10800000</v>
       </c>
-      <c r="J82" s="311"/>
-      <c r="K82" s="313">
+      <c r="J83" s="311"/>
+      <c r="K83" s="313">
         <v>0.5</v>
       </c>
-      <c r="L82" s="311">
+      <c r="L83" s="311">
         <f t="shared" si="10"/>
         <v>5400000</v>
       </c>
-      <c r="M82" s="311"/>
-      <c r="N82" s="311"/>
-      <c r="O82" s="311">
-        <f>L82</f>
+      <c r="M83" s="311"/>
+      <c r="N83" s="311"/>
+      <c r="O83" s="311">
+        <f>L83</f>
         <v>5400000</v>
       </c>
-      <c r="P82" s="192"/>
-    </row>
-    <row r="83" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="440"/>
-      <c r="B83" s="447"/>
-      <c r="C83" s="440"/>
-      <c r="D83" s="440"/>
-      <c r="E83" s="440"/>
-      <c r="F83" s="374" t="s">
+      <c r="P83" s="192"/>
+    </row>
+    <row r="84" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="447"/>
+      <c r="B84" s="450"/>
+      <c r="C84" s="447"/>
+      <c r="D84" s="447"/>
+      <c r="E84" s="447"/>
+      <c r="F84" s="374" t="s">
         <v>186</v>
       </c>
-      <c r="G83" s="374">
+      <c r="G84" s="374">
         <v>36</v>
       </c>
-      <c r="H83" s="315">
+      <c r="H84" s="315">
         <v>455000</v>
       </c>
-      <c r="I83" s="315">
+      <c r="I84" s="315">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
-      <c r="J83" s="315"/>
-      <c r="K83" s="316">
+      <c r="J84" s="315"/>
+      <c r="K84" s="316">
         <v>0.5</v>
       </c>
-      <c r="L83" s="315">
+      <c r="L84" s="315">
         <f t="shared" si="10"/>
         <v>8190000</v>
       </c>
-      <c r="M83" s="315"/>
-      <c r="N83" s="315"/>
-      <c r="O83" s="315">
-        <f t="shared" ref="O83:O84" si="12">L83</f>
+      <c r="M84" s="315"/>
+      <c r="N84" s="315"/>
+      <c r="O84" s="315">
+        <f t="shared" ref="O84:O98" si="12">L84</f>
         <v>8190000</v>
       </c>
-      <c r="P83" s="196"/>
-    </row>
-    <row r="84" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="441"/>
-      <c r="B84" s="446"/>
-      <c r="C84" s="441"/>
-      <c r="D84" s="441"/>
-      <c r="E84" s="441"/>
-      <c r="F84" s="375" t="s">
+      <c r="P84" s="196"/>
+    </row>
+    <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="448"/>
+      <c r="B85" s="451"/>
+      <c r="C85" s="448"/>
+      <c r="D85" s="448"/>
+      <c r="E85" s="448"/>
+      <c r="F85" s="375" t="s">
         <v>184</v>
       </c>
-      <c r="G84" s="375">
+      <c r="G85" s="375">
         <v>36</v>
       </c>
-      <c r="H84" s="318">
+      <c r="H85" s="318">
         <v>485000</v>
       </c>
-      <c r="I84" s="318">
+      <c r="I85" s="318">
         <f t="shared" si="0"/>
         <v>17460000</v>
       </c>
-      <c r="J84" s="318"/>
-      <c r="K84" s="320">
+      <c r="J85" s="318"/>
+      <c r="K85" s="320">
         <v>0.5</v>
       </c>
-      <c r="L84" s="318">
+      <c r="L85" s="318">
         <f t="shared" si="10"/>
         <v>8730000</v>
       </c>
-      <c r="M84" s="318"/>
-      <c r="N84" s="318"/>
-      <c r="O84" s="318">
+      <c r="M85" s="318"/>
+      <c r="N85" s="318"/>
+      <c r="O85" s="318">
         <f t="shared" si="12"/>
         <v>8730000</v>
       </c>
-      <c r="P84" s="201"/>
-    </row>
-    <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="388"/>
-      <c r="B85" s="414"/>
-      <c r="C85" s="388"/>
-      <c r="D85" s="388"/>
-      <c r="E85" s="388"/>
-      <c r="F85" s="381"/>
-      <c r="G85" s="381"/>
-      <c r="H85" s="339"/>
-      <c r="I85" s="339"/>
-      <c r="J85" s="339"/>
-      <c r="K85" s="340"/>
-      <c r="L85" s="339"/>
-      <c r="M85" s="339"/>
-      <c r="N85" s="339"/>
-      <c r="O85" s="339"/>
-      <c r="P85" s="387"/>
+      <c r="P85" s="201"/>
     </row>
     <row r="86" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="196"/>
-      <c r="B86" s="413"/>
-      <c r="C86" s="196"/>
-      <c r="D86" s="196"/>
-      <c r="E86" s="196"/>
-      <c r="F86" s="346"/>
-      <c r="G86" s="346"/>
-      <c r="H86" s="315"/>
-      <c r="I86" s="315"/>
-      <c r="J86" s="315"/>
-      <c r="K86" s="316"/>
-      <c r="L86" s="315"/>
-      <c r="M86" s="315"/>
-      <c r="N86" s="315"/>
-      <c r="O86" s="315"/>
+      <c r="A86" s="458">
+        <v>764</v>
+      </c>
+      <c r="B86" s="460">
+        <v>44065</v>
+      </c>
+      <c r="C86" s="458"/>
+      <c r="D86" s="458" t="s">
+        <v>193</v>
+      </c>
+      <c r="E86" s="458" t="s">
+        <v>194</v>
+      </c>
+      <c r="F86" s="381" t="s">
+        <v>186</v>
+      </c>
+      <c r="G86" s="381">
+        <v>12</v>
+      </c>
+      <c r="H86" s="339">
+        <v>455000</v>
+      </c>
+      <c r="I86" s="339">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
+      <c r="J86" s="339"/>
+      <c r="K86" s="340">
+        <v>0.5</v>
+      </c>
+      <c r="L86" s="339">
+        <f t="shared" si="10"/>
+        <v>2730000</v>
+      </c>
+      <c r="M86" s="339"/>
+      <c r="N86" s="339"/>
+      <c r="O86" s="339">
+        <f t="shared" si="12"/>
+        <v>2730000</v>
+      </c>
       <c r="P86" s="387"/>
     </row>
     <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="196"/>
-      <c r="B87" s="413"/>
-      <c r="C87" s="196"/>
-      <c r="D87" s="196"/>
-      <c r="E87" s="196"/>
-      <c r="F87" s="346"/>
-      <c r="G87" s="346"/>
-      <c r="H87" s="315"/>
-      <c r="I87" s="315"/>
+      <c r="A87" s="459"/>
+      <c r="B87" s="461"/>
+      <c r="C87" s="459"/>
+      <c r="D87" s="459"/>
+      <c r="E87" s="459"/>
+      <c r="F87" s="346" t="s">
+        <v>187</v>
+      </c>
+      <c r="G87" s="346">
+        <v>60</v>
+      </c>
+      <c r="H87" s="315">
+        <v>465000</v>
+      </c>
+      <c r="I87" s="315">
+        <f t="shared" si="0"/>
+        <v>27900000</v>
+      </c>
       <c r="J87" s="315"/>
-      <c r="K87" s="316"/>
-      <c r="L87" s="315"/>
+      <c r="K87" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L87" s="315">
+        <f t="shared" si="10"/>
+        <v>13950000</v>
+      </c>
       <c r="M87" s="315"/>
       <c r="N87" s="315"/>
-      <c r="O87" s="315"/>
+      <c r="O87" s="315">
+        <f t="shared" si="12"/>
+        <v>13950000</v>
+      </c>
       <c r="P87" s="387"/>
     </row>
     <row r="88" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="201"/>
-      <c r="B88" s="412"/>
-      <c r="C88" s="201"/>
-      <c r="D88" s="201"/>
-      <c r="E88" s="201"/>
-      <c r="F88" s="347"/>
-      <c r="G88" s="347"/>
-      <c r="H88" s="318"/>
-      <c r="I88" s="318"/>
-      <c r="J88" s="318"/>
-      <c r="K88" s="320"/>
-      <c r="L88" s="318"/>
-      <c r="M88" s="318"/>
-      <c r="N88" s="318"/>
-      <c r="O88" s="318"/>
-      <c r="P88" s="391"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="444"/>
-      <c r="B89" s="445"/>
-      <c r="C89" s="444"/>
-      <c r="D89" s="444"/>
-      <c r="E89" s="444"/>
-      <c r="F89" s="345"/>
-      <c r="G89" s="345"/>
-      <c r="H89" s="311"/>
-      <c r="I89" s="311"/>
-      <c r="J89" s="311"/>
-      <c r="K89" s="313"/>
-      <c r="L89" s="311"/>
-      <c r="M89" s="311"/>
-      <c r="N89" s="311"/>
-      <c r="O89" s="311"/>
-      <c r="P89" s="450"/>
-    </row>
-    <row r="90" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="440"/>
-      <c r="B90" s="447"/>
-      <c r="C90" s="440"/>
-      <c r="D90" s="440"/>
-      <c r="E90" s="440"/>
-      <c r="F90" s="346"/>
-      <c r="G90" s="346"/>
-      <c r="H90" s="315"/>
-      <c r="I90" s="315"/>
-      <c r="J90" s="315"/>
-      <c r="K90" s="316"/>
-      <c r="L90" s="315"/>
-      <c r="M90" s="315"/>
-      <c r="N90" s="315"/>
-      <c r="O90" s="315"/>
-      <c r="P90" s="442"/>
+      <c r="A88" s="459"/>
+      <c r="B88" s="461"/>
+      <c r="C88" s="459"/>
+      <c r="D88" s="459"/>
+      <c r="E88" s="459"/>
+      <c r="F88" s="346" t="s">
+        <v>197</v>
+      </c>
+      <c r="G88" s="346">
+        <v>36</v>
+      </c>
+      <c r="H88" s="315">
+        <v>475000</v>
+      </c>
+      <c r="I88" s="315">
+        <f t="shared" si="0"/>
+        <v>17100000</v>
+      </c>
+      <c r="J88" s="315"/>
+      <c r="K88" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L88" s="315">
+        <f t="shared" si="10"/>
+        <v>8550000</v>
+      </c>
+      <c r="M88" s="315"/>
+      <c r="N88" s="315"/>
+      <c r="O88" s="315">
+        <f t="shared" si="12"/>
+        <v>8550000</v>
+      </c>
+      <c r="P88" s="387"/>
+    </row>
+    <row r="89" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="485"/>
+      <c r="B89" s="568"/>
+      <c r="C89" s="485"/>
+      <c r="D89" s="485"/>
+      <c r="E89" s="485"/>
+      <c r="F89" s="347" t="s">
+        <v>199</v>
+      </c>
+      <c r="G89" s="347">
+        <v>36</v>
+      </c>
+      <c r="H89" s="318">
+        <v>455000</v>
+      </c>
+      <c r="I89" s="318">
+        <f t="shared" si="0"/>
+        <v>16380000</v>
+      </c>
+      <c r="J89" s="318"/>
+      <c r="K89" s="320">
+        <v>0.5</v>
+      </c>
+      <c r="L89" s="318">
+        <f t="shared" si="10"/>
+        <v>8190000</v>
+      </c>
+      <c r="M89" s="318"/>
+      <c r="N89" s="318"/>
+      <c r="O89" s="318">
+        <f t="shared" si="12"/>
+        <v>8190000</v>
+      </c>
+      <c r="P89" s="391"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="458">
+        <v>768</v>
+      </c>
+      <c r="B90" s="460">
+        <v>44065</v>
+      </c>
+      <c r="C90" s="458"/>
+      <c r="D90" s="458" t="s">
+        <v>240</v>
+      </c>
+      <c r="E90" s="458" t="s">
+        <v>194</v>
+      </c>
+      <c r="F90" s="345" t="s">
+        <v>203</v>
+      </c>
+      <c r="G90" s="345">
+        <v>24</v>
+      </c>
+      <c r="H90" s="311">
+        <v>225000</v>
+      </c>
+      <c r="I90" s="311">
+        <f t="shared" si="0"/>
+        <v>5400000</v>
+      </c>
+      <c r="J90" s="311"/>
+      <c r="K90" s="313"/>
+      <c r="L90" s="318">
+        <f t="shared" si="10"/>
+        <v>5400000</v>
+      </c>
+      <c r="M90" s="311"/>
+      <c r="N90" s="311"/>
+      <c r="O90" s="318">
+        <f t="shared" si="12"/>
+        <v>5400000</v>
+      </c>
+      <c r="P90" s="386"/>
     </row>
     <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="440"/>
-      <c r="B91" s="447"/>
-      <c r="C91" s="440"/>
-      <c r="D91" s="440"/>
-      <c r="E91" s="440"/>
-      <c r="F91" s="346"/>
-      <c r="G91" s="346"/>
-      <c r="H91" s="315"/>
-      <c r="I91" s="315"/>
+      <c r="A91" s="459"/>
+      <c r="B91" s="461"/>
+      <c r="C91" s="459"/>
+      <c r="D91" s="459"/>
+      <c r="E91" s="459"/>
+      <c r="F91" s="346" t="s">
+        <v>186</v>
+      </c>
+      <c r="G91" s="346">
+        <v>12</v>
+      </c>
+      <c r="H91" s="315">
+        <v>455000</v>
+      </c>
+      <c r="I91" s="315">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
       <c r="J91" s="315"/>
       <c r="K91" s="316"/>
-      <c r="L91" s="315"/>
+      <c r="L91" s="318">
+        <f t="shared" si="10"/>
+        <v>5460000</v>
+      </c>
       <c r="M91" s="315"/>
       <c r="N91" s="315"/>
-      <c r="O91" s="315"/>
-      <c r="P91" s="442"/>
-    </row>
-    <row r="92" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="440"/>
-      <c r="B92" s="447"/>
-      <c r="C92" s="440"/>
-      <c r="D92" s="440"/>
-      <c r="E92" s="440"/>
-      <c r="F92" s="346"/>
-      <c r="G92" s="346"/>
-      <c r="H92" s="315"/>
-      <c r="I92" s="315"/>
-      <c r="J92" s="315"/>
-      <c r="K92" s="316"/>
-      <c r="L92" s="315"/>
-      <c r="M92" s="315"/>
-      <c r="N92" s="315"/>
-      <c r="O92" s="315"/>
-      <c r="P92" s="442"/>
+      <c r="O91" s="318">
+        <f t="shared" si="12"/>
+        <v>5460000</v>
+      </c>
+      <c r="P91" s="387"/>
+    </row>
+    <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="459"/>
+      <c r="B92" s="461"/>
+      <c r="C92" s="459"/>
+      <c r="D92" s="459"/>
+      <c r="E92" s="459"/>
+      <c r="F92" s="382" t="s">
+        <v>188</v>
+      </c>
+      <c r="G92" s="382">
+        <v>12</v>
+      </c>
+      <c r="H92" s="364">
+        <v>485000</v>
+      </c>
+      <c r="I92" s="364">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+      <c r="J92" s="364"/>
+      <c r="K92" s="365"/>
+      <c r="L92" s="364">
+        <f t="shared" si="10"/>
+        <v>5820000</v>
+      </c>
+      <c r="M92" s="364"/>
+      <c r="N92" s="364"/>
+      <c r="O92" s="364">
+        <f t="shared" si="12"/>
+        <v>5820000</v>
+      </c>
+      <c r="P92" s="387"/>
     </row>
     <row r="93" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="440"/>
-      <c r="B93" s="447"/>
-      <c r="C93" s="440"/>
-      <c r="D93" s="440"/>
-      <c r="E93" s="440"/>
-      <c r="F93" s="346"/>
-      <c r="G93" s="346"/>
-      <c r="H93" s="315"/>
-      <c r="I93" s="315"/>
-      <c r="J93" s="315"/>
-      <c r="K93" s="316"/>
-      <c r="L93" s="315"/>
-      <c r="M93" s="315"/>
-      <c r="N93" s="315"/>
-      <c r="O93" s="315"/>
-      <c r="P93" s="442"/>
+      <c r="A93" s="446">
+        <v>469</v>
+      </c>
+      <c r="B93" s="449">
+        <v>44068</v>
+      </c>
+      <c r="C93" s="446" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="446" t="s">
+        <v>222</v>
+      </c>
+      <c r="E93" s="192"/>
+      <c r="F93" s="432" t="s">
+        <v>203</v>
+      </c>
+      <c r="G93" s="432">
+        <v>12</v>
+      </c>
+      <c r="H93" s="311">
+        <v>225000</v>
+      </c>
+      <c r="I93" s="311">
+        <f t="shared" si="0"/>
+        <v>2700000</v>
+      </c>
+      <c r="J93" s="311"/>
+      <c r="K93" s="313">
+        <v>0.5</v>
+      </c>
+      <c r="L93" s="311">
+        <f t="shared" si="10"/>
+        <v>1350000</v>
+      </c>
+      <c r="M93" s="311"/>
+      <c r="N93" s="311"/>
+      <c r="O93" s="311">
+        <f t="shared" si="12"/>
+        <v>1350000</v>
+      </c>
+      <c r="P93" s="192"/>
     </row>
     <row r="94" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="440"/>
-      <c r="B94" s="447"/>
-      <c r="C94" s="440"/>
-      <c r="D94" s="440"/>
-      <c r="E94" s="440"/>
-      <c r="F94" s="346"/>
-      <c r="G94" s="346"/>
-      <c r="H94" s="315"/>
-      <c r="I94" s="315"/>
+      <c r="A94" s="447"/>
+      <c r="B94" s="450"/>
+      <c r="C94" s="447"/>
+      <c r="D94" s="447"/>
+      <c r="E94" s="196"/>
+      <c r="F94" s="429" t="s">
+        <v>186</v>
+      </c>
+      <c r="G94" s="429">
+        <v>12</v>
+      </c>
+      <c r="H94" s="315">
+        <v>455000</v>
+      </c>
+      <c r="I94" s="315">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
       <c r="J94" s="315"/>
-      <c r="K94" s="316"/>
-      <c r="L94" s="315"/>
+      <c r="K94" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L94" s="315">
+        <f t="shared" si="10"/>
+        <v>2730000</v>
+      </c>
       <c r="M94" s="315"/>
       <c r="N94" s="315"/>
-      <c r="O94" s="315"/>
-      <c r="P94" s="442"/>
+      <c r="O94" s="315">
+        <f t="shared" si="12"/>
+        <v>2730000</v>
+      </c>
+      <c r="P94" s="196"/>
     </row>
     <row r="95" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="441"/>
-      <c r="B95" s="446"/>
-      <c r="C95" s="441"/>
-      <c r="D95" s="441"/>
-      <c r="E95" s="441"/>
-      <c r="F95" s="347"/>
-      <c r="G95" s="347"/>
-      <c r="H95" s="318"/>
-      <c r="I95" s="318"/>
-      <c r="J95" s="318"/>
-      <c r="K95" s="320"/>
-      <c r="L95" s="318"/>
-      <c r="M95" s="318"/>
-      <c r="N95" s="318"/>
-      <c r="O95" s="318"/>
-      <c r="P95" s="452"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="444"/>
-      <c r="B96" s="445"/>
-      <c r="C96" s="444"/>
-      <c r="D96" s="444"/>
-      <c r="E96" s="444"/>
-      <c r="F96" s="345"/>
-      <c r="G96" s="345"/>
-      <c r="H96" s="311"/>
-      <c r="I96" s="311"/>
-      <c r="J96" s="311"/>
-      <c r="K96" s="313"/>
-      <c r="L96" s="311"/>
-      <c r="M96" s="311"/>
-      <c r="N96" s="311"/>
-      <c r="O96" s="311"/>
-      <c r="P96" s="345"/>
-    </row>
-    <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="440"/>
-      <c r="B97" s="447"/>
-      <c r="C97" s="440"/>
-      <c r="D97" s="440"/>
-      <c r="E97" s="440"/>
-      <c r="F97" s="346"/>
-      <c r="G97" s="346"/>
-      <c r="H97" s="315"/>
-      <c r="I97" s="315"/>
+      <c r="A95" s="447"/>
+      <c r="B95" s="450"/>
+      <c r="C95" s="447"/>
+      <c r="D95" s="447"/>
+      <c r="E95" s="196"/>
+      <c r="F95" s="429" t="s">
+        <v>241</v>
+      </c>
+      <c r="G95" s="429">
+        <v>12</v>
+      </c>
+      <c r="H95" s="315">
+        <v>255000</v>
+      </c>
+      <c r="I95" s="315">
+        <f t="shared" si="0"/>
+        <v>3060000</v>
+      </c>
+      <c r="J95" s="315"/>
+      <c r="K95" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L95" s="315">
+        <f t="shared" si="10"/>
+        <v>1530000</v>
+      </c>
+      <c r="M95" s="315"/>
+      <c r="N95" s="315"/>
+      <c r="O95" s="315">
+        <f t="shared" si="12"/>
+        <v>1530000</v>
+      </c>
+      <c r="P95" s="196"/>
+    </row>
+    <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="447"/>
+      <c r="B96" s="450"/>
+      <c r="C96" s="447"/>
+      <c r="D96" s="447"/>
+      <c r="E96" s="196"/>
+      <c r="F96" s="429" t="s">
+        <v>184</v>
+      </c>
+      <c r="G96" s="429">
+        <v>12</v>
+      </c>
+      <c r="H96" s="315">
+        <v>485000</v>
+      </c>
+      <c r="I96" s="315">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+      <c r="J96" s="315"/>
+      <c r="K96" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L96" s="315">
+        <f t="shared" si="10"/>
+        <v>2910000</v>
+      </c>
+      <c r="M96" s="315"/>
+      <c r="N96" s="315"/>
+      <c r="O96" s="315">
+        <f t="shared" si="12"/>
+        <v>2910000</v>
+      </c>
+      <c r="P96" s="196"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="447"/>
+      <c r="B97" s="450"/>
+      <c r="C97" s="447"/>
+      <c r="D97" s="447"/>
+      <c r="E97" s="196"/>
+      <c r="F97" s="429" t="s">
+        <v>190</v>
+      </c>
+      <c r="G97" s="429">
+        <v>9</v>
+      </c>
+      <c r="H97" s="315">
+        <v>550000</v>
+      </c>
+      <c r="I97" s="315">
+        <f t="shared" si="0"/>
+        <v>4950000</v>
+      </c>
       <c r="J97" s="315"/>
-      <c r="K97" s="316"/>
-      <c r="L97" s="315"/>
+      <c r="K97" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L97" s="315">
+        <f t="shared" si="10"/>
+        <v>2475000</v>
+      </c>
       <c r="M97" s="315"/>
       <c r="N97" s="315"/>
-      <c r="O97" s="315"/>
-      <c r="P97" s="346"/>
+      <c r="O97" s="315">
+        <f t="shared" si="12"/>
+        <v>2475000</v>
+      </c>
+      <c r="P97" s="429"/>
     </row>
     <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="440"/>
-      <c r="B98" s="447"/>
-      <c r="C98" s="440"/>
-      <c r="D98" s="440"/>
-      <c r="E98" s="440"/>
-      <c r="F98" s="346"/>
-      <c r="G98" s="346"/>
-      <c r="H98" s="315"/>
-      <c r="I98" s="315"/>
-      <c r="J98" s="315"/>
-      <c r="K98" s="316"/>
-      <c r="L98" s="315"/>
-      <c r="M98" s="315"/>
-      <c r="N98" s="315"/>
-      <c r="O98" s="315"/>
-      <c r="P98" s="346"/>
+      <c r="A98" s="448"/>
+      <c r="B98" s="451"/>
+      <c r="C98" s="448"/>
+      <c r="D98" s="448"/>
+      <c r="E98" s="201"/>
+      <c r="F98" s="430" t="s">
+        <v>199</v>
+      </c>
+      <c r="G98" s="430">
+        <v>10</v>
+      </c>
+      <c r="H98" s="318">
+        <v>455000</v>
+      </c>
+      <c r="I98" s="318">
+        <f t="shared" si="0"/>
+        <v>4550000</v>
+      </c>
+      <c r="J98" s="318"/>
+      <c r="K98" s="320">
+        <v>0.5</v>
+      </c>
+      <c r="L98" s="318">
+        <f t="shared" si="10"/>
+        <v>2275000</v>
+      </c>
+      <c r="M98" s="318"/>
+      <c r="N98" s="318"/>
+      <c r="O98" s="318">
+        <f t="shared" si="12"/>
+        <v>2275000</v>
+      </c>
+      <c r="P98" s="430"/>
     </row>
     <row r="99" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="441"/>
-      <c r="B99" s="446"/>
-      <c r="C99" s="441"/>
-      <c r="D99" s="441"/>
-      <c r="E99" s="441"/>
-      <c r="F99" s="347"/>
-      <c r="G99" s="347"/>
-      <c r="H99" s="318"/>
-      <c r="I99" s="318"/>
-      <c r="J99" s="319"/>
-      <c r="K99" s="320"/>
-      <c r="L99" s="318"/>
-      <c r="M99" s="318"/>
-      <c r="N99" s="318"/>
-      <c r="O99" s="318"/>
-      <c r="P99" s="347"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="444"/>
-      <c r="B100" s="445"/>
-      <c r="C100" s="444"/>
-      <c r="D100" s="444"/>
-      <c r="E100" s="444"/>
-      <c r="F100" s="345"/>
-      <c r="G100" s="345"/>
-      <c r="H100" s="311"/>
-      <c r="I100" s="311"/>
-      <c r="J100" s="312"/>
-      <c r="K100" s="313"/>
-      <c r="L100" s="311"/>
-      <c r="M100" s="311"/>
-      <c r="N100" s="311"/>
-      <c r="O100" s="311"/>
-      <c r="P100" s="345"/>
-    </row>
-    <row r="101" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="441"/>
-      <c r="B101" s="446"/>
-      <c r="C101" s="441"/>
-      <c r="D101" s="441"/>
-      <c r="E101" s="441"/>
-      <c r="F101" s="347"/>
-      <c r="G101" s="347"/>
-      <c r="H101" s="318"/>
-      <c r="I101" s="318"/>
-      <c r="J101" s="319"/>
-      <c r="K101" s="320"/>
-      <c r="L101" s="318"/>
-      <c r="M101" s="318"/>
-      <c r="N101" s="318"/>
-      <c r="O101" s="318"/>
-      <c r="P101" s="347"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="444"/>
-      <c r="B102" s="445"/>
-      <c r="C102" s="444"/>
-      <c r="D102" s="444"/>
-      <c r="E102" s="444"/>
-      <c r="F102" s="357"/>
-      <c r="G102" s="357"/>
-      <c r="H102" s="311"/>
-      <c r="I102" s="311"/>
-      <c r="J102" s="312"/>
-      <c r="K102" s="313"/>
-      <c r="L102" s="311"/>
-      <c r="M102" s="311"/>
-      <c r="N102" s="311"/>
-      <c r="O102" s="311"/>
-      <c r="P102" s="357"/>
+      <c r="A99" s="388"/>
+      <c r="B99" s="413"/>
+      <c r="C99" s="388"/>
+      <c r="D99" s="388"/>
+      <c r="E99" s="388"/>
+      <c r="F99" s="428"/>
+      <c r="G99" s="428"/>
+      <c r="H99" s="339"/>
+      <c r="I99" s="339"/>
+      <c r="J99" s="339"/>
+      <c r="K99" s="340"/>
+      <c r="L99" s="339"/>
+      <c r="M99" s="339"/>
+      <c r="N99" s="339"/>
+      <c r="O99" s="339"/>
+      <c r="P99" s="428"/>
+    </row>
+    <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="201"/>
+      <c r="B100" s="412"/>
+      <c r="C100" s="201"/>
+      <c r="D100" s="201"/>
+      <c r="E100" s="201"/>
+      <c r="F100" s="347"/>
+      <c r="G100" s="347"/>
+      <c r="H100" s="318"/>
+      <c r="I100" s="318"/>
+      <c r="J100" s="319"/>
+      <c r="K100" s="320"/>
+      <c r="L100" s="318"/>
+      <c r="M100" s="318"/>
+      <c r="N100" s="318"/>
+      <c r="O100" s="318"/>
+      <c r="P100" s="347"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="446"/>
+      <c r="B101" s="449"/>
+      <c r="C101" s="446"/>
+      <c r="D101" s="446"/>
+      <c r="E101" s="446"/>
+      <c r="F101" s="345"/>
+      <c r="G101" s="345"/>
+      <c r="H101" s="311"/>
+      <c r="I101" s="311"/>
+      <c r="J101" s="312"/>
+      <c r="K101" s="313"/>
+      <c r="L101" s="311"/>
+      <c r="M101" s="311"/>
+      <c r="N101" s="311"/>
+      <c r="O101" s="311"/>
+      <c r="P101" s="345"/>
+    </row>
+    <row r="102" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="448"/>
+      <c r="B102" s="451"/>
+      <c r="C102" s="448"/>
+      <c r="D102" s="448"/>
+      <c r="E102" s="448"/>
+      <c r="F102" s="347"/>
+      <c r="G102" s="347"/>
+      <c r="H102" s="318"/>
+      <c r="I102" s="318"/>
+      <c r="J102" s="319"/>
+      <c r="K102" s="320"/>
+      <c r="L102" s="318"/>
+      <c r="M102" s="318"/>
+      <c r="N102" s="318"/>
+      <c r="O102" s="318"/>
+      <c r="P102" s="347"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="441"/>
-      <c r="B103" s="446"/>
-      <c r="C103" s="441"/>
-      <c r="D103" s="441"/>
-      <c r="E103" s="441"/>
-      <c r="F103" s="359"/>
-      <c r="G103" s="359"/>
-      <c r="H103" s="318"/>
-      <c r="I103" s="318"/>
-      <c r="J103" s="319"/>
-      <c r="K103" s="320"/>
-      <c r="L103" s="318"/>
-      <c r="M103" s="318"/>
-      <c r="N103" s="318"/>
-      <c r="O103" s="318"/>
-      <c r="P103" s="359"/>
+      <c r="A103" s="446"/>
+      <c r="B103" s="449"/>
+      <c r="C103" s="446"/>
+      <c r="D103" s="446"/>
+      <c r="E103" s="446"/>
+      <c r="F103" s="357"/>
+      <c r="G103" s="357"/>
+      <c r="H103" s="311"/>
+      <c r="I103" s="311"/>
+      <c r="J103" s="312"/>
+      <c r="K103" s="313"/>
+      <c r="L103" s="311"/>
+      <c r="M103" s="311"/>
+      <c r="N103" s="311"/>
+      <c r="O103" s="311"/>
+      <c r="P103" s="357"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="444"/>
-      <c r="B104" s="445"/>
-      <c r="C104" s="444"/>
-      <c r="D104" s="444"/>
-      <c r="E104" s="444"/>
-      <c r="F104" s="357"/>
-      <c r="G104" s="357"/>
-      <c r="H104" s="311"/>
-      <c r="I104" s="311"/>
-      <c r="J104" s="312"/>
-      <c r="K104" s="313"/>
-      <c r="L104" s="311"/>
-      <c r="M104" s="311"/>
-      <c r="N104" s="311"/>
-      <c r="O104" s="311"/>
-      <c r="P104" s="357"/>
+      <c r="A104" s="448"/>
+      <c r="B104" s="451"/>
+      <c r="C104" s="448"/>
+      <c r="D104" s="448"/>
+      <c r="E104" s="448"/>
+      <c r="F104" s="359"/>
+      <c r="G104" s="359"/>
+      <c r="H104" s="318"/>
+      <c r="I104" s="318"/>
+      <c r="J104" s="319"/>
+      <c r="K104" s="320"/>
+      <c r="L104" s="318"/>
+      <c r="M104" s="318"/>
+      <c r="N104" s="318"/>
+      <c r="O104" s="318"/>
+      <c r="P104" s="359"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="440"/>
-      <c r="B105" s="447"/>
-      <c r="C105" s="440"/>
-      <c r="D105" s="440"/>
-      <c r="E105" s="440"/>
-      <c r="F105" s="358"/>
-      <c r="G105" s="358"/>
-      <c r="H105" s="315"/>
-      <c r="I105" s="315"/>
-      <c r="J105" s="199"/>
-      <c r="K105" s="316"/>
-      <c r="L105" s="315"/>
-      <c r="M105" s="315"/>
-      <c r="N105" s="315"/>
-      <c r="O105" s="315"/>
-      <c r="P105" s="358"/>
+      <c r="A105" s="446"/>
+      <c r="B105" s="449"/>
+      <c r="C105" s="446"/>
+      <c r="D105" s="446"/>
+      <c r="E105" s="446"/>
+      <c r="F105" s="357"/>
+      <c r="G105" s="357"/>
+      <c r="H105" s="311"/>
+      <c r="I105" s="311"/>
+      <c r="J105" s="312"/>
+      <c r="K105" s="313"/>
+      <c r="L105" s="311"/>
+      <c r="M105" s="311"/>
+      <c r="N105" s="311"/>
+      <c r="O105" s="311"/>
+      <c r="P105" s="357"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="441"/>
-      <c r="B106" s="446"/>
-      <c r="C106" s="441"/>
-      <c r="D106" s="441"/>
-      <c r="E106" s="441"/>
-      <c r="F106" s="359"/>
-      <c r="G106" s="359"/>
-      <c r="H106" s="318"/>
-      <c r="I106" s="318"/>
-      <c r="J106" s="333"/>
-      <c r="K106" s="320"/>
-      <c r="L106" s="318"/>
-      <c r="M106" s="318"/>
-      <c r="N106" s="318"/>
-      <c r="O106" s="318"/>
-      <c r="P106" s="359"/>
+      <c r="A106" s="447"/>
+      <c r="B106" s="450"/>
+      <c r="C106" s="447"/>
+      <c r="D106" s="447"/>
+      <c r="E106" s="447"/>
+      <c r="F106" s="358"/>
+      <c r="G106" s="358"/>
+      <c r="H106" s="315"/>
+      <c r="I106" s="315"/>
+      <c r="J106" s="199"/>
+      <c r="K106" s="316"/>
+      <c r="L106" s="315"/>
+      <c r="M106" s="315"/>
+      <c r="N106" s="315"/>
+      <c r="O106" s="315"/>
+      <c r="P106" s="358"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="450"/>
+      <c r="A107" s="448"/>
       <c r="B107" s="451"/>
-      <c r="C107" s="450"/>
-      <c r="D107" s="450"/>
-      <c r="E107" s="450"/>
-      <c r="F107" s="310"/>
-      <c r="G107" s="310"/>
-      <c r="H107" s="311"/>
-      <c r="I107" s="311"/>
-      <c r="J107" s="312"/>
-      <c r="K107" s="313"/>
-      <c r="L107" s="311"/>
-      <c r="M107" s="311"/>
-      <c r="N107" s="311"/>
-      <c r="O107" s="311"/>
-      <c r="P107" s="448"/>
+      <c r="C107" s="448"/>
+      <c r="D107" s="448"/>
+      <c r="E107" s="448"/>
+      <c r="F107" s="359"/>
+      <c r="G107" s="359"/>
+      <c r="H107" s="318"/>
+      <c r="I107" s="318"/>
+      <c r="J107" s="333"/>
+      <c r="K107" s="320"/>
+      <c r="L107" s="318"/>
+      <c r="M107" s="318"/>
+      <c r="N107" s="318"/>
+      <c r="O107" s="318"/>
+      <c r="P107" s="359"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="442"/>
-      <c r="B108" s="443"/>
-      <c r="C108" s="442"/>
-      <c r="D108" s="442"/>
-      <c r="E108" s="442"/>
-      <c r="F108" s="314"/>
-      <c r="G108" s="314"/>
-      <c r="H108" s="315"/>
-      <c r="I108" s="315"/>
-      <c r="J108" s="199"/>
-      <c r="K108" s="316"/>
-      <c r="L108" s="315"/>
-      <c r="M108" s="315"/>
-      <c r="N108" s="315"/>
-      <c r="O108" s="315"/>
-      <c r="P108" s="449"/>
+      <c r="A108" s="458"/>
+      <c r="B108" s="460"/>
+      <c r="C108" s="458"/>
+      <c r="D108" s="458"/>
+      <c r="E108" s="458"/>
+      <c r="F108" s="310"/>
+      <c r="G108" s="310"/>
+      <c r="H108" s="311"/>
+      <c r="I108" s="311"/>
+      <c r="J108" s="312"/>
+      <c r="K108" s="313"/>
+      <c r="L108" s="311"/>
+      <c r="M108" s="311"/>
+      <c r="N108" s="311"/>
+      <c r="O108" s="311"/>
+      <c r="P108" s="466"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="442"/>
-      <c r="B109" s="443"/>
-      <c r="C109" s="442"/>
-      <c r="D109" s="442"/>
-      <c r="E109" s="442"/>
+      <c r="A109" s="459"/>
+      <c r="B109" s="461"/>
+      <c r="C109" s="459"/>
+      <c r="D109" s="459"/>
+      <c r="E109" s="459"/>
       <c r="F109" s="314"/>
       <c r="G109" s="314"/>
       <c r="H109" s="315"/>
@@ -8157,14 +8532,14 @@
       <c r="M109" s="315"/>
       <c r="N109" s="315"/>
       <c r="O109" s="315"/>
-      <c r="P109" s="449"/>
+      <c r="P109" s="467"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="442"/>
-      <c r="B110" s="443"/>
-      <c r="C110" s="442"/>
-      <c r="D110" s="442"/>
-      <c r="E110" s="442"/>
+      <c r="A110" s="459"/>
+      <c r="B110" s="461"/>
+      <c r="C110" s="459"/>
+      <c r="D110" s="459"/>
+      <c r="E110" s="459"/>
       <c r="F110" s="314"/>
       <c r="G110" s="314"/>
       <c r="H110" s="315"/>
@@ -8175,14 +8550,14 @@
       <c r="M110" s="315"/>
       <c r="N110" s="315"/>
       <c r="O110" s="315"/>
-      <c r="P110" s="449"/>
+      <c r="P110" s="467"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="442"/>
-      <c r="B111" s="443"/>
-      <c r="C111" s="442"/>
-      <c r="D111" s="442"/>
-      <c r="E111" s="442"/>
+      <c r="A111" s="459"/>
+      <c r="B111" s="461"/>
+      <c r="C111" s="459"/>
+      <c r="D111" s="459"/>
+      <c r="E111" s="459"/>
       <c r="F111" s="314"/>
       <c r="G111" s="314"/>
       <c r="H111" s="315"/>
@@ -8193,158 +8568,158 @@
       <c r="M111" s="315"/>
       <c r="N111" s="315"/>
       <c r="O111" s="315"/>
-      <c r="P111" s="449"/>
+      <c r="P111" s="467"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="442"/>
-      <c r="B112" s="443"/>
-      <c r="C112" s="442"/>
-      <c r="D112" s="442"/>
-      <c r="E112" s="442"/>
-      <c r="F112" s="363"/>
-      <c r="G112" s="363"/>
-      <c r="H112" s="364"/>
-      <c r="I112" s="364"/>
-      <c r="J112" s="355"/>
-      <c r="K112" s="365"/>
-      <c r="L112" s="364"/>
-      <c r="M112" s="364"/>
-      <c r="N112" s="364"/>
-      <c r="O112" s="364"/>
-      <c r="P112" s="449"/>
+      <c r="A112" s="459"/>
+      <c r="B112" s="461"/>
+      <c r="C112" s="459"/>
+      <c r="D112" s="459"/>
+      <c r="E112" s="459"/>
+      <c r="F112" s="314"/>
+      <c r="G112" s="314"/>
+      <c r="H112" s="315"/>
+      <c r="I112" s="315"/>
+      <c r="J112" s="199"/>
+      <c r="K112" s="316"/>
+      <c r="L112" s="315"/>
+      <c r="M112" s="315"/>
+      <c r="N112" s="315"/>
+      <c r="O112" s="315"/>
+      <c r="P112" s="467"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="444"/>
-      <c r="B113" s="445"/>
-      <c r="C113" s="444"/>
-      <c r="D113" s="444"/>
-      <c r="E113" s="444"/>
-      <c r="F113" s="357"/>
-      <c r="G113" s="357"/>
-      <c r="H113" s="311"/>
-      <c r="I113" s="311"/>
-      <c r="J113" s="312"/>
-      <c r="K113" s="313"/>
-      <c r="L113" s="311"/>
-      <c r="M113" s="311"/>
-      <c r="N113" s="311"/>
-      <c r="O113" s="311"/>
-      <c r="P113" s="360"/>
+      <c r="A113" s="459"/>
+      <c r="B113" s="461"/>
+      <c r="C113" s="459"/>
+      <c r="D113" s="459"/>
+      <c r="E113" s="459"/>
+      <c r="F113" s="363"/>
+      <c r="G113" s="363"/>
+      <c r="H113" s="364"/>
+      <c r="I113" s="364"/>
+      <c r="J113" s="355"/>
+      <c r="K113" s="365"/>
+      <c r="L113" s="364"/>
+      <c r="M113" s="364"/>
+      <c r="N113" s="364"/>
+      <c r="O113" s="364"/>
+      <c r="P113" s="467"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="441"/>
-      <c r="B114" s="446"/>
-      <c r="C114" s="441"/>
-      <c r="D114" s="441"/>
-      <c r="E114" s="441"/>
-      <c r="F114" s="359"/>
-      <c r="G114" s="359"/>
-      <c r="H114" s="318"/>
-      <c r="I114" s="318"/>
-      <c r="J114" s="319"/>
-      <c r="K114" s="320"/>
-      <c r="L114" s="318"/>
-      <c r="M114" s="318"/>
-      <c r="N114" s="318"/>
-      <c r="O114" s="318"/>
-      <c r="P114" s="361"/>
+      <c r="A114" s="446"/>
+      <c r="B114" s="449"/>
+      <c r="C114" s="446"/>
+      <c r="D114" s="446"/>
+      <c r="E114" s="446"/>
+      <c r="F114" s="357"/>
+      <c r="G114" s="357"/>
+      <c r="H114" s="311"/>
+      <c r="I114" s="311"/>
+      <c r="J114" s="312"/>
+      <c r="K114" s="313"/>
+      <c r="L114" s="311"/>
+      <c r="M114" s="311"/>
+      <c r="N114" s="311"/>
+      <c r="O114" s="311"/>
+      <c r="P114" s="360"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="444"/>
-      <c r="B115" s="445"/>
-      <c r="C115" s="444"/>
-      <c r="D115" s="444"/>
-      <c r="E115" s="444"/>
-      <c r="F115" s="357"/>
-      <c r="G115" s="357"/>
-      <c r="H115" s="311"/>
-      <c r="I115" s="311"/>
-      <c r="J115" s="312"/>
-      <c r="K115" s="313"/>
-      <c r="L115" s="311"/>
-      <c r="M115" s="311"/>
-      <c r="N115" s="311"/>
-      <c r="O115" s="311"/>
-      <c r="P115" s="360"/>
+      <c r="A115" s="448"/>
+      <c r="B115" s="451"/>
+      <c r="C115" s="448"/>
+      <c r="D115" s="448"/>
+      <c r="E115" s="448"/>
+      <c r="F115" s="359"/>
+      <c r="G115" s="359"/>
+      <c r="H115" s="318"/>
+      <c r="I115" s="318"/>
+      <c r="J115" s="319"/>
+      <c r="K115" s="320"/>
+      <c r="L115" s="318"/>
+      <c r="M115" s="318"/>
+      <c r="N115" s="318"/>
+      <c r="O115" s="318"/>
+      <c r="P115" s="361"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A116" s="441"/>
-      <c r="B116" s="446"/>
-      <c r="C116" s="441"/>
-      <c r="D116" s="441"/>
-      <c r="E116" s="441"/>
-      <c r="F116" s="359"/>
-      <c r="G116" s="359"/>
-      <c r="H116" s="318"/>
-      <c r="I116" s="318"/>
-      <c r="J116" s="319"/>
-      <c r="K116" s="320"/>
-      <c r="L116" s="318"/>
-      <c r="M116" s="318"/>
-      <c r="N116" s="318"/>
-      <c r="O116" s="318"/>
-      <c r="P116" s="361"/>
+      <c r="A116" s="446"/>
+      <c r="B116" s="449"/>
+      <c r="C116" s="446"/>
+      <c r="D116" s="446"/>
+      <c r="E116" s="446"/>
+      <c r="F116" s="357"/>
+      <c r="G116" s="357"/>
+      <c r="H116" s="311"/>
+      <c r="I116" s="311"/>
+      <c r="J116" s="312"/>
+      <c r="K116" s="313"/>
+      <c r="L116" s="311"/>
+      <c r="M116" s="311"/>
+      <c r="N116" s="311"/>
+      <c r="O116" s="311"/>
+      <c r="P116" s="360"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="208"/>
-      <c r="B117" s="286"/>
-      <c r="C117" s="208"/>
-      <c r="D117" s="208"/>
-      <c r="E117" s="208"/>
-      <c r="F117" s="208"/>
-      <c r="G117" s="208"/>
-      <c r="H117" s="280"/>
-      <c r="I117" s="280"/>
-      <c r="J117" s="350"/>
-      <c r="K117" s="281"/>
-      <c r="L117" s="280"/>
-      <c r="M117" s="280"/>
-      <c r="N117" s="280"/>
-      <c r="O117" s="280"/>
-      <c r="P117" s="285"/>
+      <c r="A117" s="448"/>
+      <c r="B117" s="451"/>
+      <c r="C117" s="448"/>
+      <c r="D117" s="448"/>
+      <c r="E117" s="448"/>
+      <c r="F117" s="359"/>
+      <c r="G117" s="359"/>
+      <c r="H117" s="318"/>
+      <c r="I117" s="318"/>
+      <c r="J117" s="319"/>
+      <c r="K117" s="320"/>
+      <c r="L117" s="318"/>
+      <c r="M117" s="318"/>
+      <c r="N117" s="318"/>
+      <c r="O117" s="318"/>
+      <c r="P117" s="361"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="442"/>
-      <c r="B118" s="443"/>
-      <c r="C118" s="442"/>
-      <c r="D118" s="439"/>
-      <c r="E118" s="439"/>
-      <c r="F118" s="362"/>
-      <c r="G118" s="362"/>
-      <c r="H118" s="339"/>
-      <c r="I118" s="339"/>
-      <c r="J118" s="341"/>
-      <c r="K118" s="340"/>
-      <c r="L118" s="339"/>
-      <c r="M118" s="339"/>
-      <c r="N118" s="339"/>
-      <c r="O118" s="339"/>
-      <c r="P118" s="448"/>
+      <c r="A118" s="208"/>
+      <c r="B118" s="286"/>
+      <c r="C118" s="208"/>
+      <c r="D118" s="208"/>
+      <c r="E118" s="208"/>
+      <c r="F118" s="208"/>
+      <c r="G118" s="208"/>
+      <c r="H118" s="280"/>
+      <c r="I118" s="280"/>
+      <c r="J118" s="350"/>
+      <c r="K118" s="281"/>
+      <c r="L118" s="280"/>
+      <c r="M118" s="280"/>
+      <c r="N118" s="280"/>
+      <c r="O118" s="280"/>
+      <c r="P118" s="285"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="442"/>
-      <c r="B119" s="443"/>
-      <c r="C119" s="442"/>
-      <c r="D119" s="440"/>
-      <c r="E119" s="440"/>
-      <c r="F119" s="358"/>
-      <c r="G119" s="358"/>
-      <c r="H119" s="315"/>
-      <c r="I119" s="315"/>
-      <c r="J119" s="199"/>
-      <c r="K119" s="316"/>
-      <c r="L119" s="315"/>
-      <c r="M119" s="315"/>
-      <c r="N119" s="315"/>
-      <c r="O119" s="315"/>
-      <c r="P119" s="449"/>
+      <c r="A119" s="459"/>
+      <c r="B119" s="461"/>
+      <c r="C119" s="459"/>
+      <c r="D119" s="469"/>
+      <c r="E119" s="469"/>
+      <c r="F119" s="362"/>
+      <c r="G119" s="362"/>
+      <c r="H119" s="339"/>
+      <c r="I119" s="339"/>
+      <c r="J119" s="341"/>
+      <c r="K119" s="340"/>
+      <c r="L119" s="339"/>
+      <c r="M119" s="339"/>
+      <c r="N119" s="339"/>
+      <c r="O119" s="339"/>
+      <c r="P119" s="466"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="442"/>
-      <c r="B120" s="443"/>
-      <c r="C120" s="442"/>
-      <c r="D120" s="440"/>
-      <c r="E120" s="440"/>
+      <c r="A120" s="459"/>
+      <c r="B120" s="461"/>
+      <c r="C120" s="459"/>
+      <c r="D120" s="447"/>
+      <c r="E120" s="447"/>
       <c r="F120" s="358"/>
       <c r="G120" s="358"/>
       <c r="H120" s="315"/>
@@ -8355,239 +8730,257 @@
       <c r="M120" s="315"/>
       <c r="N120" s="315"/>
       <c r="O120" s="315"/>
-      <c r="P120" s="449"/>
+      <c r="P120" s="467"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="442"/>
-      <c r="B121" s="443"/>
-      <c r="C121" s="442"/>
-      <c r="D121" s="441"/>
-      <c r="E121" s="441"/>
-      <c r="F121" s="359"/>
-      <c r="G121" s="359"/>
-      <c r="H121" s="318"/>
-      <c r="I121" s="318"/>
-      <c r="J121" s="319"/>
-      <c r="K121" s="320"/>
-      <c r="L121" s="318"/>
-      <c r="M121" s="318"/>
-      <c r="N121" s="318"/>
-      <c r="O121" s="318"/>
-      <c r="P121" s="453"/>
+      <c r="A121" s="459"/>
+      <c r="B121" s="461"/>
+      <c r="C121" s="459"/>
+      <c r="D121" s="447"/>
+      <c r="E121" s="447"/>
+      <c r="F121" s="358"/>
+      <c r="G121" s="358"/>
+      <c r="H121" s="315"/>
+      <c r="I121" s="315"/>
+      <c r="J121" s="199"/>
+      <c r="K121" s="316"/>
+      <c r="L121" s="315"/>
+      <c r="M121" s="315"/>
+      <c r="N121" s="315"/>
+      <c r="O121" s="315"/>
+      <c r="P121" s="467"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="444"/>
-      <c r="B122" s="445"/>
-      <c r="C122" s="444"/>
-      <c r="D122" s="444"/>
-      <c r="E122" s="444"/>
-      <c r="F122" s="357"/>
-      <c r="G122" s="357"/>
-      <c r="H122" s="311"/>
-      <c r="I122" s="311"/>
-      <c r="J122" s="312"/>
-      <c r="K122" s="313"/>
-      <c r="L122" s="311"/>
-      <c r="M122" s="311"/>
-      <c r="N122" s="311"/>
-      <c r="O122" s="311"/>
-      <c r="P122" s="360"/>
+      <c r="A122" s="459"/>
+      <c r="B122" s="461"/>
+      <c r="C122" s="459"/>
+      <c r="D122" s="448"/>
+      <c r="E122" s="448"/>
+      <c r="F122" s="359"/>
+      <c r="G122" s="359"/>
+      <c r="H122" s="318"/>
+      <c r="I122" s="318"/>
+      <c r="J122" s="319"/>
+      <c r="K122" s="320"/>
+      <c r="L122" s="318"/>
+      <c r="M122" s="318"/>
+      <c r="N122" s="318"/>
+      <c r="O122" s="318"/>
+      <c r="P122" s="468"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A123" s="441"/>
-      <c r="B123" s="446"/>
-      <c r="C123" s="441"/>
-      <c r="D123" s="441"/>
-      <c r="E123" s="441"/>
-      <c r="F123" s="359"/>
-      <c r="G123" s="359"/>
-      <c r="H123" s="318"/>
-      <c r="I123" s="318"/>
-      <c r="J123" s="319"/>
-      <c r="K123" s="320"/>
-      <c r="L123" s="318"/>
-      <c r="M123" s="318"/>
-      <c r="N123" s="318"/>
-      <c r="O123" s="318"/>
-      <c r="P123" s="359"/>
-    </row>
-    <row r="124" spans="1:17" s="293" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A124" s="477" t="s">
+      <c r="A123" s="446"/>
+      <c r="B123" s="449"/>
+      <c r="C123" s="446"/>
+      <c r="D123" s="446"/>
+      <c r="E123" s="446"/>
+      <c r="F123" s="357"/>
+      <c r="G123" s="357"/>
+      <c r="H123" s="311"/>
+      <c r="I123" s="311"/>
+      <c r="J123" s="312"/>
+      <c r="K123" s="313"/>
+      <c r="L123" s="311"/>
+      <c r="M123" s="311"/>
+      <c r="N123" s="311"/>
+      <c r="O123" s="311"/>
+      <c r="P123" s="360"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" s="448"/>
+      <c r="B124" s="451"/>
+      <c r="C124" s="448"/>
+      <c r="D124" s="448"/>
+      <c r="E124" s="448"/>
+      <c r="F124" s="359"/>
+      <c r="G124" s="359"/>
+      <c r="H124" s="318"/>
+      <c r="I124" s="318"/>
+      <c r="J124" s="319"/>
+      <c r="K124" s="320"/>
+      <c r="L124" s="318"/>
+      <c r="M124" s="318"/>
+      <c r="N124" s="318"/>
+      <c r="O124" s="318"/>
+      <c r="P124" s="359"/>
+    </row>
+    <row r="125" spans="1:17" s="293" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A125" s="464" t="s">
         <v>77</v>
       </c>
-      <c r="B124" s="477"/>
-      <c r="C124" s="477"/>
-      <c r="D124" s="477"/>
-      <c r="E124" s="477"/>
-      <c r="F124" s="477"/>
-      <c r="G124" s="366">
-        <f>SUM(G9:G123)</f>
-        <v>1955</v>
-      </c>
-      <c r="H124" s="367"/>
-      <c r="I124" s="368">
-        <f>SUM(I9:I123)</f>
-        <v>877800000</v>
-      </c>
-      <c r="J124" s="369"/>
-      <c r="K124" s="370"/>
-      <c r="L124" s="371">
-        <f>SUM(L9:L123)</f>
-        <v>493293850</v>
-      </c>
-      <c r="M124" s="372"/>
-      <c r="N124" s="372"/>
-      <c r="O124" s="372"/>
-      <c r="P124" s="478"/>
-      <c r="Q124" s="475"/>
-    </row>
-    <row r="125" spans="1:17" s="293" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A125" s="476" t="s">
+      <c r="B125" s="464"/>
+      <c r="C125" s="464"/>
+      <c r="D125" s="464"/>
+      <c r="E125" s="464"/>
+      <c r="F125" s="464"/>
+      <c r="G125" s="366">
+        <f>SUM(G9:G124)</f>
+        <v>2219</v>
+      </c>
+      <c r="H125" s="367"/>
+      <c r="I125" s="368">
+        <f>SUM(I9:I124)</f>
+        <v>990135000</v>
+      </c>
+      <c r="J125" s="369"/>
+      <c r="K125" s="370"/>
+      <c r="L125" s="371">
+        <f>SUM(L9:L124)</f>
+        <v>557801350</v>
+      </c>
+      <c r="M125" s="372"/>
+      <c r="N125" s="372"/>
+      <c r="O125" s="372"/>
+      <c r="P125" s="465"/>
+      <c r="Q125" s="462"/>
+    </row>
+    <row r="126" spans="1:17" s="293" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A126" s="463" t="s">
         <v>136</v>
       </c>
-      <c r="B125" s="476"/>
-      <c r="C125" s="476"/>
-      <c r="D125" s="476"/>
-      <c r="E125" s="476"/>
-      <c r="F125" s="476"/>
-      <c r="G125" s="287">
-        <f>G124</f>
-        <v>1955</v>
-      </c>
-      <c r="H125" s="335"/>
-      <c r="I125" s="289"/>
-      <c r="J125" s="290"/>
-      <c r="K125" s="291"/>
-      <c r="L125" s="292">
-        <f>L124</f>
-        <v>493293850</v>
-      </c>
-      <c r="M125" s="290"/>
-      <c r="N125" s="290"/>
-      <c r="O125" s="290"/>
-      <c r="P125" s="478"/>
-      <c r="Q125" s="475"/>
-    </row>
-    <row r="126" spans="1:17" s="293" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A126" s="476" t="s">
-        <v>78</v>
-      </c>
-      <c r="B126" s="476"/>
-      <c r="C126" s="476"/>
-      <c r="D126" s="476"/>
-      <c r="E126" s="476"/>
-      <c r="F126" s="476"/>
-      <c r="G126" s="294" t="s">
-        <v>49</v>
+      <c r="B126" s="463"/>
+      <c r="C126" s="463"/>
+      <c r="D126" s="463"/>
+      <c r="E126" s="463"/>
+      <c r="F126" s="463"/>
+      <c r="G126" s="287">
+        <f>G125</f>
+        <v>2219</v>
       </c>
       <c r="H126" s="335"/>
-      <c r="I126" s="290"/>
+      <c r="I126" s="289"/>
       <c r="J126" s="290"/>
-      <c r="K126" s="294"/>
+      <c r="K126" s="291"/>
       <c r="L126" s="292">
-        <f>SUM(M9:M123)</f>
-        <v>96147050</v>
+        <f>L125</f>
+        <v>557801350</v>
       </c>
       <c r="M126" s="290"/>
       <c r="N126" s="290"/>
       <c r="O126" s="290"/>
+      <c r="P126" s="465"/>
+      <c r="Q126" s="462"/>
     </row>
     <row r="127" spans="1:17" s="293" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A127" s="476" t="s">
-        <v>79</v>
-      </c>
-      <c r="B127" s="476"/>
-      <c r="C127" s="476"/>
-      <c r="D127" s="476"/>
-      <c r="E127" s="476"/>
-      <c r="F127" s="476"/>
-      <c r="G127" s="294"/>
+      <c r="A127" s="463" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" s="463"/>
+      <c r="C127" s="463"/>
+      <c r="D127" s="463"/>
+      <c r="E127" s="463"/>
+      <c r="F127" s="463"/>
+      <c r="G127" s="294" t="s">
+        <v>49</v>
+      </c>
       <c r="H127" s="335"/>
-      <c r="I127" s="288"/>
+      <c r="I127" s="290"/>
       <c r="J127" s="290"/>
-      <c r="K127" s="291"/>
+      <c r="K127" s="294"/>
       <c r="L127" s="292">
-        <f>SUM(N9:N123)</f>
-        <v>22518400.000000004</v>
+        <f>SUM(M9:M124)</f>
+        <v>96147050</v>
       </c>
       <c r="M127" s="290"/>
       <c r="N127" s="290"/>
       <c r="O127" s="290"/>
     </row>
     <row r="128" spans="1:17" s="293" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A128" s="476" t="s">
-        <v>80</v>
-      </c>
-      <c r="B128" s="476"/>
-      <c r="C128" s="476"/>
-      <c r="D128" s="476"/>
-      <c r="E128" s="476"/>
-      <c r="F128" s="476"/>
+      <c r="A128" s="463" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128" s="463"/>
+      <c r="C128" s="463"/>
+      <c r="D128" s="463"/>
+      <c r="E128" s="463"/>
+      <c r="F128" s="463"/>
       <c r="G128" s="294"/>
       <c r="H128" s="335"/>
       <c r="I128" s="288"/>
       <c r="J128" s="290"/>
       <c r="K128" s="291"/>
       <c r="L128" s="292">
-        <f>SUM(O9:O123)</f>
-        <v>374628400</v>
+        <f>SUM(N9:N124)</f>
+        <v>22518400.000000004</v>
       </c>
       <c r="M128" s="290"/>
       <c r="N128" s="290"/>
       <c r="O128" s="290"/>
     </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C131" s="296"/>
-      <c r="E131" s="296" t="s">
+    <row r="129" spans="1:15" s="293" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A129" s="463" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" s="463"/>
+      <c r="C129" s="463"/>
+      <c r="D129" s="463"/>
+      <c r="E129" s="463"/>
+      <c r="F129" s="463"/>
+      <c r="G129" s="294"/>
+      <c r="H129" s="335"/>
+      <c r="I129" s="288"/>
+      <c r="J129" s="290"/>
+      <c r="K129" s="291"/>
+      <c r="L129" s="292">
+        <f>SUM(O9:O124)</f>
+        <v>439135900</v>
+      </c>
+      <c r="M129" s="290"/>
+      <c r="N129" s="290"/>
+      <c r="O129" s="290"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C132" s="296"/>
+      <c r="E132" s="296" t="s">
         <v>109</v>
       </c>
-      <c r="F131" s="296"/>
-      <c r="G131" s="296"/>
-      <c r="H131" s="336"/>
-      <c r="I131" s="297"/>
-      <c r="J131" s="298"/>
-      <c r="K131" s="282"/>
-      <c r="L131" s="205" t="s">
-        <v>14</v>
-      </c>
-      <c r="M131" s="298"/>
-      <c r="N131" s="298"/>
-      <c r="O131" s="298"/>
-    </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C132" s="299"/>
-      <c r="E132" s="299" t="s">
-        <v>15</v>
-      </c>
-      <c r="F132" s="299"/>
-      <c r="G132" s="299"/>
-      <c r="H132" s="337"/>
-      <c r="I132" s="300"/>
+      <c r="F132" s="296"/>
+      <c r="G132" s="296"/>
+      <c r="H132" s="336"/>
+      <c r="I132" s="297"/>
       <c r="J132" s="298"/>
       <c r="K132" s="282"/>
-      <c r="L132" s="13" t="s">
-        <v>16</v>
+      <c r="L132" s="205" t="s">
+        <v>14</v>
       </c>
       <c r="M132" s="298"/>
       <c r="N132" s="298"/>
       <c r="O132" s="298"/>
     </row>
-    <row r="135" spans="2:15" s="301" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="302"/>
-      <c r="C135" s="296"/>
-      <c r="E135" s="296"/>
-      <c r="F135" s="303"/>
-      <c r="G135" s="303"/>
-      <c r="H135" s="338"/>
-      <c r="I135" s="304"/>
-      <c r="J135" s="304"/>
-      <c r="L135" s="304"/>
-      <c r="M135" s="304"/>
-      <c r="N135" s="304"/>
-      <c r="O135" s="304"/>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C133" s="299"/>
+      <c r="E133" s="299" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="299"/>
+      <c r="G133" s="299"/>
+      <c r="H133" s="337"/>
+      <c r="I133" s="300"/>
+      <c r="J133" s="298"/>
+      <c r="K133" s="282"/>
+      <c r="L133" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M133" s="298"/>
+      <c r="N133" s="298"/>
+      <c r="O133" s="298"/>
+    </row>
+    <row r="136" spans="1:15" s="301" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="302"/>
+      <c r="C136" s="296"/>
+      <c r="E136" s="296"/>
+      <c r="F136" s="303"/>
+      <c r="G136" s="303"/>
+      <c r="H136" s="338"/>
+      <c r="I136" s="304"/>
+      <c r="J136" s="304"/>
+      <c r="L136" s="304"/>
+      <c r="M136" s="304"/>
+      <c r="N136" s="304"/>
+      <c r="O136" s="304"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:P128">
+  <autoFilter ref="A6:P129">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -8598,71 +8991,64 @@
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
-  <mergeCells count="163">
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="Q124:Q125"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="P124:P125"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="P118:P121"/>
-    <mergeCell ref="E118:E121"/>
+  <mergeCells count="166">
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="D119:D122"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="D93:D98"/>
+    <mergeCell ref="C93:C98"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:P4"/>
@@ -8685,40 +9071,59 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="C89:C95"/>
-    <mergeCell ref="D89:D95"/>
-    <mergeCell ref="E89:E95"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="P125:P126"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="P119:P122"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="Q125:Q126"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="P108:P113"/>
+    <mergeCell ref="E108:E113"/>
+    <mergeCell ref="D108:D113"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="A108:A113"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="B37:B45"/>
     <mergeCell ref="A37:A45"/>
     <mergeCell ref="A47:A53"/>
     <mergeCell ref="B47:B53"/>
@@ -8729,39 +9134,30 @@
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="P107:P112"/>
-    <mergeCell ref="E107:E112"/>
-    <mergeCell ref="D107:D112"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="P89:P95"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="E77:E78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -8793,93 +9189,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="492" t="s">
+      <c r="A1" s="489" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="492"/>
-      <c r="C1" s="492"/>
-      <c r="D1" s="492"/>
+      <c r="B1" s="489"/>
+      <c r="C1" s="489"/>
+      <c r="D1" s="489"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="493" t="s">
+      <c r="A2" s="490" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="493"/>
-      <c r="C2" s="493"/>
-      <c r="D2" s="493"/>
+      <c r="B2" s="490"/>
+      <c r="C2" s="490"/>
+      <c r="D2" s="490"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="483" t="s">
+      <c r="A3" s="492" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="483"/>
-      <c r="C3" s="483"/>
-      <c r="D3" s="483"/>
-      <c r="E3" s="483"/>
-      <c r="F3" s="483"/>
-      <c r="G3" s="483"/>
-      <c r="H3" s="483"/>
-      <c r="I3" s="483"/>
-      <c r="J3" s="483"/>
-      <c r="K3" s="483"/>
-      <c r="L3" s="483"/>
-      <c r="M3" s="483"/>
-      <c r="N3" s="483"/>
+      <c r="B3" s="492"/>
+      <c r="C3" s="492"/>
+      <c r="D3" s="492"/>
+      <c r="E3" s="492"/>
+      <c r="F3" s="492"/>
+      <c r="G3" s="492"/>
+      <c r="H3" s="492"/>
+      <c r="I3" s="492"/>
+      <c r="J3" s="492"/>
+      <c r="K3" s="492"/>
+      <c r="L3" s="492"/>
+      <c r="M3" s="492"/>
+      <c r="N3" s="492"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="484" t="s">
+      <c r="A4" s="493" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="484"/>
-      <c r="C4" s="484"/>
-      <c r="D4" s="484"/>
-      <c r="E4" s="484"/>
-      <c r="F4" s="484"/>
-      <c r="G4" s="484"/>
-      <c r="H4" s="484"/>
-      <c r="I4" s="485"/>
-      <c r="J4" s="484"/>
-      <c r="K4" s="484"/>
-      <c r="L4" s="484"/>
-      <c r="M4" s="484"/>
-      <c r="N4" s="484"/>
+      <c r="B4" s="493"/>
+      <c r="C4" s="493"/>
+      <c r="D4" s="493"/>
+      <c r="E4" s="493"/>
+      <c r="F4" s="493"/>
+      <c r="G4" s="493"/>
+      <c r="H4" s="493"/>
+      <c r="I4" s="494"/>
+      <c r="J4" s="493"/>
+      <c r="K4" s="493"/>
+      <c r="L4" s="493"/>
+      <c r="M4" s="493"/>
+      <c r="N4" s="493"/>
     </row>
     <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="486" t="s">
+      <c r="A5" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="487" t="s">
+      <c r="B5" s="496" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="488" t="s">
+      <c r="C5" s="497" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="329" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="489" t="s">
+      <c r="E5" s="498" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="489"/>
-      <c r="G5" s="489"/>
-      <c r="H5" s="489"/>
-      <c r="I5" s="490"/>
-      <c r="J5" s="491" t="s">
+      <c r="F5" s="498"/>
+      <c r="G5" s="498"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="499"/>
+      <c r="J5" s="500" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="489" t="s">
+      <c r="K5" s="498" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="489"/>
-      <c r="M5" s="489"/>
-      <c r="N5" s="488" t="s">
+      <c r="L5" s="498"/>
+      <c r="M5" s="498"/>
+      <c r="N5" s="497" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="486"/>
-      <c r="B6" s="487"/>
-      <c r="C6" s="488"/>
+      <c r="A6" s="495"/>
+      <c r="B6" s="496"/>
+      <c r="C6" s="497"/>
       <c r="D6" s="326" t="s">
         <v>41</v>
       </c>
@@ -8898,7 +9294,7 @@
       <c r="I6" s="328" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="491"/>
+      <c r="J6" s="500"/>
       <c r="K6" s="326" t="s">
         <v>45</v>
       </c>
@@ -8908,7 +9304,7 @@
       <c r="M6" s="326" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="488"/>
+      <c r="N6" s="497"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="386">
@@ -8949,14 +9345,14 @@
       <c r="N7" s="404"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="444">
+      <c r="A8" s="446">
         <v>642</v>
       </c>
-      <c r="B8" s="457">
+      <c r="B8" s="455">
         <v>44056</v>
       </c>
-      <c r="C8" s="444"/>
-      <c r="D8" s="444" t="s">
+      <c r="C8" s="446"/>
+      <c r="D8" s="446" t="s">
         <v>193</v>
       </c>
       <c r="E8" s="192" t="s">
@@ -8985,10 +9381,10 @@
       <c r="N8" s="195"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="441"/>
-      <c r="B9" s="459"/>
-      <c r="C9" s="441"/>
-      <c r="D9" s="441"/>
+      <c r="A9" s="448"/>
+      <c r="B9" s="457"/>
+      <c r="C9" s="448"/>
+      <c r="D9" s="448"/>
       <c r="E9" s="201" t="s">
         <v>198</v>
       </c>
@@ -9053,16 +9449,36 @@
       <c r="N10" s="398"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="196"/>
-      <c r="B11" s="389"/>
+      <c r="A11" s="196">
+        <v>767</v>
+      </c>
+      <c r="B11" s="389">
+        <v>44065</v>
+      </c>
       <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="197"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="199"/>
+      <c r="D11" s="196" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="196" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="196">
+        <v>12</v>
+      </c>
+      <c r="G11" s="197">
+        <v>485000</v>
+      </c>
+      <c r="H11" s="197">
+        <f>F11*G11</f>
+        <v>5820000</v>
+      </c>
+      <c r="I11" s="198">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="199">
+        <f>H11*(1-I11)</f>
+        <v>2910000</v>
+      </c>
       <c r="K11" s="196"/>
       <c r="L11" s="196"/>
       <c r="M11" s="342"/>
@@ -9117,10 +9533,10 @@
       <c r="N14" s="204"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="444"/>
-      <c r="B15" s="457"/>
-      <c r="C15" s="444"/>
-      <c r="D15" s="444"/>
+      <c r="A15" s="446"/>
+      <c r="B15" s="455"/>
+      <c r="C15" s="446"/>
+      <c r="D15" s="446"/>
       <c r="E15" s="192"/>
       <c r="F15" s="192"/>
       <c r="G15" s="193"/>
@@ -9133,10 +9549,10 @@
       <c r="N15" s="195"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="440"/>
-      <c r="B16" s="458"/>
-      <c r="C16" s="440"/>
-      <c r="D16" s="440"/>
+      <c r="A16" s="447"/>
+      <c r="B16" s="456"/>
+      <c r="C16" s="447"/>
+      <c r="D16" s="447"/>
       <c r="E16" s="196"/>
       <c r="F16" s="196"/>
       <c r="G16" s="197"/>
@@ -9149,10 +9565,10 @@
       <c r="N16" s="200"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="441"/>
-      <c r="B17" s="459"/>
-      <c r="C17" s="441"/>
-      <c r="D17" s="441"/>
+      <c r="A17" s="448"/>
+      <c r="B17" s="457"/>
+      <c r="C17" s="448"/>
+      <c r="D17" s="448"/>
       <c r="E17" s="201"/>
       <c r="F17" s="201"/>
       <c r="G17" s="202"/>
@@ -9165,10 +9581,10 @@
       <c r="N17" s="204"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="444"/>
-      <c r="B18" s="457"/>
-      <c r="C18" s="444"/>
-      <c r="D18" s="444"/>
+      <c r="A18" s="446"/>
+      <c r="B18" s="455"/>
+      <c r="C18" s="446"/>
+      <c r="D18" s="446"/>
       <c r="E18" s="192"/>
       <c r="F18" s="192"/>
       <c r="G18" s="193"/>
@@ -9181,10 +9597,10 @@
       <c r="N18" s="195"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="440"/>
-      <c r="B19" s="458"/>
-      <c r="C19" s="440"/>
-      <c r="D19" s="440"/>
+      <c r="A19" s="447"/>
+      <c r="B19" s="456"/>
+      <c r="C19" s="447"/>
+      <c r="D19" s="447"/>
       <c r="E19" s="196"/>
       <c r="F19" s="196"/>
       <c r="G19" s="197"/>
@@ -9197,10 +9613,10 @@
       <c r="N19" s="200"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="440"/>
-      <c r="B20" s="458"/>
-      <c r="C20" s="440"/>
-      <c r="D20" s="440"/>
+      <c r="A20" s="447"/>
+      <c r="B20" s="456"/>
+      <c r="C20" s="447"/>
+      <c r="D20" s="447"/>
       <c r="E20" s="196"/>
       <c r="F20" s="196"/>
       <c r="G20" s="197"/>
@@ -9213,10 +9629,10 @@
       <c r="N20" s="200"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="441"/>
-      <c r="B21" s="459"/>
-      <c r="C21" s="441"/>
-      <c r="D21" s="441"/>
+      <c r="A21" s="448"/>
+      <c r="B21" s="457"/>
+      <c r="C21" s="448"/>
+      <c r="D21" s="448"/>
       <c r="E21" s="201"/>
       <c r="F21" s="201"/>
       <c r="G21" s="202"/>
@@ -9293,10 +9709,10 @@
       <c r="N25" s="136"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="444"/>
-      <c r="B26" s="457"/>
-      <c r="C26" s="444"/>
-      <c r="D26" s="444"/>
+      <c r="A26" s="446"/>
+      <c r="B26" s="455"/>
+      <c r="C26" s="446"/>
+      <c r="D26" s="446"/>
       <c r="E26" s="192"/>
       <c r="F26" s="192"/>
       <c r="G26" s="193"/>
@@ -9309,10 +9725,10 @@
       <c r="N26" s="195"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="441"/>
-      <c r="B27" s="459"/>
-      <c r="C27" s="441"/>
-      <c r="D27" s="441"/>
+      <c r="A27" s="448"/>
+      <c r="B27" s="457"/>
+      <c r="C27" s="448"/>
+      <c r="D27" s="448"/>
       <c r="E27" s="201"/>
       <c r="F27" s="201"/>
       <c r="G27" s="202"/>
@@ -9357,29 +9773,29 @@
       <c r="N29" s="136"/>
     </row>
     <row r="30" spans="1:14" s="130" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="482" t="s">
+      <c r="A30" s="491" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="482"/>
-      <c r="C30" s="482"/>
-      <c r="D30" s="482"/>
+      <c r="B30" s="491"/>
+      <c r="C30" s="491"/>
+      <c r="D30" s="491"/>
       <c r="E30" s="126"/>
       <c r="F30" s="126">
         <f>SUM(F7:F29)</f>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G30" s="127">
         <f>SUM(G7:G29)</f>
-        <v>1955000</v>
+        <v>2440000</v>
       </c>
       <c r="H30" s="127">
         <f>SUM(H7:H29)</f>
-        <v>31595000</v>
+        <v>37415000</v>
       </c>
       <c r="I30" s="128"/>
       <c r="J30" s="129">
         <f>SUM(J7:J29)</f>
-        <v>17388700</v>
+        <v>20298700</v>
       </c>
       <c r="K30" s="126"/>
       <c r="L30" s="126"/>
@@ -9450,18 +9866,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
@@ -9478,6 +9882,18 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9566,14 +9982,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="494" t="s">
+      <c r="A4" s="501" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="494"/>
-      <c r="C4" s="494"/>
-      <c r="D4" s="494"/>
-      <c r="E4" s="494"/>
-      <c r="F4" s="494"/>
+      <c r="B4" s="501"/>
+      <c r="C4" s="501"/>
+      <c r="D4" s="501"/>
+      <c r="E4" s="501"/>
+      <c r="F4" s="501"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -9587,14 +10003,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="495" t="s">
+      <c r="A5" s="502" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="495"/>
-      <c r="C5" s="495"/>
-      <c r="D5" s="495"/>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
+      <c r="B5" s="502"/>
+      <c r="C5" s="502"/>
+      <c r="D5" s="502"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -9663,12 +10079,12 @@
         <v>52</v>
       </c>
       <c r="C8" s="64">
-        <f>'DOANH THU'!G125</f>
-        <v>1955</v>
+        <f>'DOANH THU'!G126</f>
+        <v>2219</v>
       </c>
       <c r="D8" s="74">
-        <f>'DOANH THU'!L125</f>
-        <v>493293850</v>
+        <f>'DOANH THU'!L126</f>
+        <v>557801350</v>
       </c>
       <c r="E8" s="73"/>
       <c r="F8" s="65"/>
@@ -9693,7 +10109,7 @@
       </c>
       <c r="C9" s="76"/>
       <c r="D9" s="77">
-        <f>'DOANH THU'!L126</f>
+        <f>'DOANH THU'!L127</f>
         <v>96147050</v>
       </c>
       <c r="E9" s="76"/>
@@ -9719,7 +10135,7 @@
       </c>
       <c r="C10" s="76"/>
       <c r="D10" s="77">
-        <f>'DOANH THU'!L127</f>
+        <f>'DOANH THU'!L128</f>
         <v>22518400.000000004</v>
       </c>
       <c r="E10" s="76"/>
@@ -9744,7 +10160,7 @@
       <c r="C11" s="133"/>
       <c r="D11" s="132">
         <f>'Hàng khách trả'!J30</f>
-        <v>17388700</v>
+        <v>20298700</v>
       </c>
       <c r="E11" s="125"/>
       <c r="F11" s="65"/>
@@ -9768,7 +10184,7 @@
       <c r="C12" s="81"/>
       <c r="D12" s="82">
         <f>D8-D9-D10</f>
-        <v>374628400</v>
+        <v>439135900</v>
       </c>
       <c r="E12" s="79"/>
       <c r="F12" s="65"/>
@@ -9941,10 +10357,10 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="496" t="s">
+      <c r="A25" s="503" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="496"/>
+      <c r="B25" s="503"/>
       <c r="C25" s="31"/>
       <c r="D25" s="226">
         <f>C24-D24</f>
@@ -10000,8 +10416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10023,13 +10439,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="497" t="s">
+      <c r="A1" s="523" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="497"/>
-      <c r="C1" s="497"/>
-      <c r="D1" s="497"/>
-      <c r="E1" s="497"/>
+      <c r="B1" s="523"/>
+      <c r="C1" s="523"/>
+      <c r="D1" s="523"/>
+      <c r="E1" s="523"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
@@ -10049,105 +10465,105 @@
       <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="498" t="s">
+      <c r="A3" s="515" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="498"/>
-      <c r="C3" s="498"/>
-      <c r="D3" s="498"/>
-      <c r="E3" s="498"/>
-      <c r="F3" s="498"/>
-      <c r="G3" s="498"/>
-      <c r="H3" s="498"/>
-      <c r="I3" s="498"/>
-      <c r="J3" s="498"/>
-      <c r="K3" s="498"/>
-      <c r="L3" s="498"/>
+      <c r="B3" s="515"/>
+      <c r="C3" s="515"/>
+      <c r="D3" s="515"/>
+      <c r="E3" s="515"/>
+      <c r="F3" s="515"/>
+      <c r="G3" s="515"/>
+      <c r="H3" s="515"/>
+      <c r="I3" s="515"/>
+      <c r="J3" s="515"/>
+      <c r="K3" s="515"/>
+      <c r="L3" s="515"/>
     </row>
     <row r="4" spans="1:12" s="137" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="499" t="s">
+      <c r="A4" s="519" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="503" t="s">
+      <c r="B4" s="520" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="499" t="s">
+      <c r="C4" s="519" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="499" t="s">
+      <c r="D4" s="519" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="499"/>
-      <c r="F4" s="502" t="s">
+      <c r="E4" s="519"/>
+      <c r="F4" s="521" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="502"/>
-      <c r="H4" s="502"/>
-      <c r="I4" s="502"/>
-      <c r="J4" s="502"/>
-      <c r="K4" s="502"/>
-      <c r="L4" s="502"/>
+      <c r="G4" s="521"/>
+      <c r="H4" s="521"/>
+      <c r="I4" s="521"/>
+      <c r="J4" s="521"/>
+      <c r="K4" s="521"/>
+      <c r="L4" s="521"/>
     </row>
     <row r="5" spans="1:12" s="137" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="499"/>
-      <c r="B5" s="503"/>
-      <c r="C5" s="499"/>
-      <c r="D5" s="499" t="s">
+      <c r="A5" s="519"/>
+      <c r="B5" s="520"/>
+      <c r="C5" s="519"/>
+      <c r="D5" s="519" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="499" t="s">
+      <c r="E5" s="519" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="499" t="s">
+      <c r="F5" s="519" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="499" t="s">
+      <c r="G5" s="519" t="s">
         <v>236</v>
       </c>
-      <c r="H5" s="500" t="s">
+      <c r="H5" s="518" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="500" t="s">
+      <c r="I5" s="518" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="501" t="s">
+      <c r="J5" s="522" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="501"/>
-      <c r="L5" s="500" t="s">
+      <c r="K5" s="522"/>
+      <c r="L5" s="518" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="137" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="499"/>
-      <c r="B6" s="503"/>
-      <c r="C6" s="499"/>
-      <c r="D6" s="499"/>
-      <c r="E6" s="499"/>
-      <c r="F6" s="499"/>
-      <c r="G6" s="499"/>
-      <c r="H6" s="500"/>
-      <c r="I6" s="500"/>
+      <c r="A6" s="519"/>
+      <c r="B6" s="520"/>
+      <c r="C6" s="519"/>
+      <c r="D6" s="519"/>
+      <c r="E6" s="519"/>
+      <c r="F6" s="519"/>
+      <c r="G6" s="519"/>
+      <c r="H6" s="518"/>
+      <c r="I6" s="518"/>
       <c r="J6" s="146" t="s">
         <v>84</v>
       </c>
       <c r="K6" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="500"/>
+      <c r="L6" s="518"/>
     </row>
     <row r="7" spans="1:12" s="282" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="444">
+      <c r="A7" s="446">
         <v>630</v>
       </c>
-      <c r="B7" s="457">
+      <c r="B7" s="455">
         <v>44044</v>
       </c>
-      <c r="C7" s="444" t="s">
+      <c r="C7" s="446" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="444"/>
-      <c r="E7" s="444"/>
+      <c r="D7" s="446"/>
+      <c r="E7" s="446"/>
       <c r="F7" s="373" t="s">
         <v>186</v>
       </c>
@@ -10169,11 +10585,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="282" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="440"/>
-      <c r="B8" s="458"/>
-      <c r="C8" s="440"/>
-      <c r="D8" s="440"/>
-      <c r="E8" s="440"/>
+      <c r="A8" s="447"/>
+      <c r="B8" s="456"/>
+      <c r="C8" s="447"/>
+      <c r="D8" s="447"/>
+      <c r="E8" s="447"/>
       <c r="F8" s="374" t="s">
         <v>187</v>
       </c>
@@ -10195,11 +10611,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="440"/>
-      <c r="B9" s="458"/>
-      <c r="C9" s="440"/>
-      <c r="D9" s="440"/>
-      <c r="E9" s="440"/>
+      <c r="A9" s="447"/>
+      <c r="B9" s="456"/>
+      <c r="C9" s="447"/>
+      <c r="D9" s="447"/>
+      <c r="E9" s="447"/>
       <c r="F9" s="374" t="s">
         <v>184</v>
       </c>
@@ -10221,11 +10637,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="282" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="441"/>
-      <c r="B10" s="459"/>
-      <c r="C10" s="441"/>
-      <c r="D10" s="441"/>
-      <c r="E10" s="441"/>
+      <c r="A10" s="448"/>
+      <c r="B10" s="457"/>
+      <c r="C10" s="448"/>
+      <c r="D10" s="448"/>
+      <c r="E10" s="448"/>
       <c r="F10" s="375" t="s">
         <v>188</v>
       </c>
@@ -10279,17 +10695,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="282" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="450">
+      <c r="A12" s="458">
         <v>646</v>
       </c>
-      <c r="B12" s="454">
+      <c r="B12" s="486">
         <v>44053</v>
       </c>
-      <c r="C12" s="450" t="s">
+      <c r="C12" s="458" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="448"/>
-      <c r="E12" s="450"/>
+      <c r="D12" s="466"/>
+      <c r="E12" s="458"/>
       <c r="F12" s="282" t="s">
         <v>186</v>
       </c>
@@ -10311,11 +10727,11 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="442"/>
-      <c r="B13" s="456"/>
-      <c r="C13" s="442"/>
-      <c r="D13" s="449"/>
-      <c r="E13" s="442"/>
+      <c r="A13" s="459"/>
+      <c r="B13" s="488"/>
+      <c r="C13" s="459"/>
+      <c r="D13" s="467"/>
+      <c r="E13" s="459"/>
       <c r="F13" s="382" t="s">
         <v>187</v>
       </c>
@@ -10337,132 +10753,132 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="504" t="s">
+      <c r="A14" s="512" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="505"/>
-      <c r="C14" s="505"/>
-      <c r="D14" s="505"/>
-      <c r="E14" s="505"/>
-      <c r="F14" s="506"/>
-      <c r="G14" s="415">
+      <c r="B14" s="513"/>
+      <c r="C14" s="513"/>
+      <c r="D14" s="513"/>
+      <c r="E14" s="513"/>
+      <c r="F14" s="514"/>
+      <c r="G14" s="414">
         <f>SUM(G7:G13)</f>
         <v>11</v>
       </c>
-      <c r="H14" s="415"/>
-      <c r="I14" s="416">
+      <c r="H14" s="414"/>
+      <c r="I14" s="415">
         <f>SUM(I7:I13)</f>
         <v>5225000</v>
       </c>
-      <c r="J14" s="417"/>
-      <c r="K14" s="417"/>
-      <c r="L14" s="416">
+      <c r="J14" s="416"/>
+      <c r="K14" s="416"/>
+      <c r="L14" s="415">
         <f>SUM(L7:L13)</f>
         <v>3082750.0000000005</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="498" t="s">
+      <c r="A15" s="515" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="498"/>
-      <c r="C15" s="498"/>
-      <c r="D15" s="498"/>
-      <c r="E15" s="498"/>
-      <c r="F15" s="498"/>
-      <c r="G15" s="498"/>
-      <c r="H15" s="498"/>
-      <c r="I15" s="498"/>
-      <c r="J15" s="498"/>
-      <c r="K15" s="498"/>
-      <c r="L15" s="498"/>
+      <c r="B15" s="515"/>
+      <c r="C15" s="515"/>
+      <c r="D15" s="515"/>
+      <c r="E15" s="515"/>
+      <c r="F15" s="515"/>
+      <c r="G15" s="515"/>
+      <c r="H15" s="515"/>
+      <c r="I15" s="515"/>
+      <c r="J15" s="515"/>
+      <c r="K15" s="515"/>
+      <c r="L15" s="515"/>
     </row>
     <row r="16" spans="1:12" s="137" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="499" t="s">
+      <c r="A16" s="519" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="503" t="s">
+      <c r="B16" s="520" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="499" t="s">
+      <c r="C16" s="519" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="499" t="s">
+      <c r="D16" s="519" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="499"/>
-      <c r="F16" s="502" t="s">
+      <c r="E16" s="519"/>
+      <c r="F16" s="521" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="502"/>
-      <c r="H16" s="502"/>
-      <c r="I16" s="502"/>
-      <c r="J16" s="502"/>
-      <c r="K16" s="502"/>
-      <c r="L16" s="502"/>
+      <c r="G16" s="521"/>
+      <c r="H16" s="521"/>
+      <c r="I16" s="521"/>
+      <c r="J16" s="521"/>
+      <c r="K16" s="521"/>
+      <c r="L16" s="521"/>
     </row>
     <row r="17" spans="1:14" s="137" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="499"/>
-      <c r="B17" s="503"/>
-      <c r="C17" s="499"/>
-      <c r="D17" s="499" t="s">
+      <c r="A17" s="519"/>
+      <c r="B17" s="520"/>
+      <c r="C17" s="519"/>
+      <c r="D17" s="519" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="499" t="s">
+      <c r="E17" s="519" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="499" t="s">
+      <c r="F17" s="519" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="499" t="s">
+      <c r="G17" s="519" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="500" t="s">
+      <c r="H17" s="518" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="500" t="s">
+      <c r="I17" s="518" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="501" t="s">
+      <c r="J17" s="522" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="501"/>
-      <c r="L17" s="500" t="s">
+      <c r="K17" s="522"/>
+      <c r="L17" s="518" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="137" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="499"/>
-      <c r="B18" s="503"/>
-      <c r="C18" s="499"/>
-      <c r="D18" s="499"/>
-      <c r="E18" s="499"/>
-      <c r="F18" s="499"/>
-      <c r="G18" s="499"/>
-      <c r="H18" s="500"/>
-      <c r="I18" s="500"/>
+      <c r="A18" s="519"/>
+      <c r="B18" s="520"/>
+      <c r="C18" s="519"/>
+      <c r="D18" s="519"/>
+      <c r="E18" s="519"/>
+      <c r="F18" s="519"/>
+      <c r="G18" s="519"/>
+      <c r="H18" s="518"/>
+      <c r="I18" s="518"/>
       <c r="J18" s="384" t="s">
         <v>84</v>
       </c>
       <c r="K18" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="500"/>
+      <c r="L18" s="518"/>
     </row>
     <row r="19" spans="1:14" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="444">
+      <c r="A19" s="446">
         <v>647</v>
       </c>
-      <c r="B19" s="457">
+      <c r="B19" s="455">
         <v>44056</v>
       </c>
-      <c r="C19" s="444" t="s">
+      <c r="C19" s="446" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="479" t="s">
+      <c r="D19" s="452" t="s">
         <v>211</v>
       </c>
-      <c r="E19" s="444" t="s">
+      <c r="E19" s="446" t="s">
         <v>212</v>
       </c>
       <c r="F19" s="373" t="s">
@@ -10489,11 +10905,11 @@
       <c r="M19" s="283"/>
     </row>
     <row r="20" spans="1:14" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="441"/>
-      <c r="B20" s="459"/>
-      <c r="C20" s="441"/>
-      <c r="D20" s="480"/>
-      <c r="E20" s="441"/>
+      <c r="A20" s="448"/>
+      <c r="B20" s="457"/>
+      <c r="C20" s="448"/>
+      <c r="D20" s="454"/>
+      <c r="E20" s="448"/>
       <c r="F20" s="375" t="s">
         <v>187</v>
       </c>
@@ -10518,265 +10934,265 @@
       <c r="M20" s="283"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="418"/>
-      <c r="B21" s="419"/>
-      <c r="C21" s="417"/>
-      <c r="D21" s="417"/>
-      <c r="E21" s="417"/>
-      <c r="F21" s="417"/>
-      <c r="G21" s="417"/>
-      <c r="H21" s="417"/>
-      <c r="I21" s="507" t="s">
+      <c r="A21" s="417"/>
+      <c r="B21" s="418"/>
+      <c r="C21" s="416"/>
+      <c r="D21" s="416"/>
+      <c r="E21" s="416"/>
+      <c r="F21" s="416"/>
+      <c r="G21" s="416"/>
+      <c r="H21" s="416"/>
+      <c r="I21" s="511" t="s">
         <v>224</v>
       </c>
-      <c r="J21" s="507"/>
-      <c r="K21" s="507"/>
-      <c r="L21" s="417">
+      <c r="J21" s="511"/>
+      <c r="K21" s="511"/>
+      <c r="L21" s="416">
         <v>382000</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="504" t="s">
+      <c r="A22" s="512" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="505"/>
-      <c r="C22" s="505"/>
-      <c r="D22" s="505"/>
-      <c r="E22" s="506"/>
-      <c r="F22" s="420"/>
-      <c r="G22" s="420">
+      <c r="B22" s="513"/>
+      <c r="C22" s="513"/>
+      <c r="D22" s="513"/>
+      <c r="E22" s="514"/>
+      <c r="F22" s="419"/>
+      <c r="G22" s="419">
         <f>SUM(G19:G21)</f>
         <v>5</v>
       </c>
-      <c r="H22" s="420"/>
-      <c r="I22" s="421">
+      <c r="H22" s="419"/>
+      <c r="I22" s="420">
         <f>SUM(I19:I20)</f>
         <v>2295000</v>
       </c>
-      <c r="J22" s="420"/>
-      <c r="K22" s="420"/>
-      <c r="L22" s="421">
+      <c r="J22" s="419"/>
+      <c r="K22" s="419"/>
+      <c r="L22" s="420">
         <f>L19+L20-L21</f>
         <v>1109750</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="423" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="498" t="s">
+    <row r="23" spans="1:14" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="515" t="s">
         <v>225</v>
       </c>
-      <c r="B23" s="498"/>
-      <c r="C23" s="498"/>
+      <c r="B23" s="515"/>
+      <c r="C23" s="515"/>
       <c r="D23" s="383"/>
       <c r="E23" s="383"/>
       <c r="F23" s="383"/>
       <c r="G23" s="383"/>
       <c r="H23" s="383"/>
-      <c r="I23" s="422"/>
-      <c r="L23" s="422"/>
-    </row>
-    <row r="24" spans="1:14" s="423" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="421"/>
+      <c r="L23" s="421"/>
+    </row>
+    <row r="24" spans="1:14" s="422" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="383"/>
       <c r="B24" s="383"/>
       <c r="C24" s="383"/>
-      <c r="D24" s="508" t="s">
+      <c r="D24" s="516" t="s">
         <v>226</v>
       </c>
-      <c r="E24" s="508"/>
-      <c r="F24" s="508"/>
-      <c r="G24" s="508"/>
-      <c r="H24" s="508"/>
-      <c r="I24" s="508"/>
-      <c r="J24" s="509" t="s">
+      <c r="E24" s="516"/>
+      <c r="F24" s="516"/>
+      <c r="G24" s="516"/>
+      <c r="H24" s="516"/>
+      <c r="I24" s="516"/>
+      <c r="J24" s="517" t="s">
         <v>50</v>
       </c>
-      <c r="K24" s="509"/>
-      <c r="L24" s="422"/>
-    </row>
-    <row r="25" spans="1:14" s="423" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="517"/>
+      <c r="L24" s="421"/>
+    </row>
+    <row r="25" spans="1:14" s="422" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="383"/>
       <c r="B25" s="383"/>
       <c r="C25" s="383"/>
-      <c r="D25" s="510" t="s">
+      <c r="D25" s="504" t="s">
         <v>227</v>
       </c>
-      <c r="E25" s="510"/>
-      <c r="F25" s="510"/>
-      <c r="G25" s="510"/>
-      <c r="H25" s="510"/>
-      <c r="I25" s="510"/>
-      <c r="J25" s="511">
+      <c r="E25" s="504"/>
+      <c r="F25" s="504"/>
+      <c r="G25" s="504"/>
+      <c r="H25" s="504"/>
+      <c r="I25" s="504"/>
+      <c r="J25" s="505">
         <v>550415</v>
       </c>
-      <c r="K25" s="511"/>
-      <c r="L25" s="422"/>
-    </row>
-    <row r="26" spans="1:14" s="423" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="505"/>
+      <c r="L25" s="421"/>
+    </row>
+    <row r="26" spans="1:14" s="422" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="383"/>
       <c r="B26" s="383"/>
       <c r="C26" s="383"/>
-      <c r="D26" s="510" t="s">
+      <c r="D26" s="504" t="s">
         <v>228</v>
       </c>
-      <c r="E26" s="510"/>
-      <c r="F26" s="510"/>
-      <c r="G26" s="510"/>
-      <c r="H26" s="510"/>
-      <c r="I26" s="510"/>
-      <c r="J26" s="511">
+      <c r="E26" s="504"/>
+      <c r="F26" s="504"/>
+      <c r="G26" s="504"/>
+      <c r="H26" s="504"/>
+      <c r="I26" s="504"/>
+      <c r="J26" s="505">
         <f>L14</f>
         <v>3082750.0000000005</v>
       </c>
-      <c r="K26" s="511"/>
-      <c r="L26" s="422"/>
-    </row>
-    <row r="27" spans="1:14" s="423" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="505"/>
+      <c r="L26" s="421"/>
+    </row>
+    <row r="27" spans="1:14" s="422" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="383"/>
       <c r="B27" s="383"/>
       <c r="C27" s="383"/>
-      <c r="D27" s="510" t="s">
+      <c r="D27" s="504" t="s">
         <v>229</v>
       </c>
-      <c r="E27" s="510"/>
-      <c r="F27" s="510"/>
-      <c r="G27" s="510"/>
-      <c r="H27" s="510"/>
-      <c r="I27" s="510"/>
-      <c r="J27" s="511">
+      <c r="E27" s="504"/>
+      <c r="F27" s="504"/>
+      <c r="G27" s="504"/>
+      <c r="H27" s="504"/>
+      <c r="I27" s="504"/>
+      <c r="J27" s="505">
         <f>L22</f>
         <v>1109750</v>
       </c>
-      <c r="K27" s="511"/>
-      <c r="N27" s="424"/>
-    </row>
-    <row r="28" spans="1:14" s="423" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="428"/>
-      <c r="B28" s="428"/>
-      <c r="C28" s="428"/>
-      <c r="D28" s="512" t="s">
+      <c r="K27" s="505"/>
+      <c r="N27" s="423"/>
+    </row>
+    <row r="28" spans="1:14" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="427"/>
+      <c r="B28" s="427"/>
+      <c r="C28" s="427"/>
+      <c r="D28" s="506" t="s">
         <v>234</v>
       </c>
-      <c r="E28" s="513"/>
-      <c r="F28" s="513"/>
-      <c r="G28" s="513"/>
-      <c r="H28" s="513"/>
-      <c r="I28" s="514"/>
-      <c r="J28" s="515">
+      <c r="E28" s="507"/>
+      <c r="F28" s="507"/>
+      <c r="G28" s="507"/>
+      <c r="H28" s="507"/>
+      <c r="I28" s="508"/>
+      <c r="J28" s="509">
         <f>150000+250000</f>
         <v>400000</v>
       </c>
-      <c r="K28" s="516"/>
-    </row>
-    <row r="29" spans="1:14" s="423" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="428"/>
-      <c r="B29" s="428"/>
-      <c r="C29" s="428"/>
-      <c r="D29" s="512" t="s">
+      <c r="K28" s="510"/>
+    </row>
+    <row r="29" spans="1:14" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="427"/>
+      <c r="B29" s="427"/>
+      <c r="C29" s="427"/>
+      <c r="D29" s="506" t="s">
         <v>237</v>
       </c>
-      <c r="E29" s="513"/>
-      <c r="F29" s="513"/>
-      <c r="G29" s="513"/>
-      <c r="H29" s="513"/>
-      <c r="I29" s="514"/>
-      <c r="J29" s="515">
+      <c r="E29" s="507"/>
+      <c r="F29" s="507"/>
+      <c r="G29" s="507"/>
+      <c r="H29" s="507"/>
+      <c r="I29" s="508"/>
+      <c r="J29" s="509">
         <v>3471000</v>
       </c>
-      <c r="K29" s="516"/>
-    </row>
-    <row r="30" spans="1:14" s="423" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="510"/>
+    </row>
+    <row r="30" spans="1:14" s="422" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="383"/>
       <c r="B30" s="383"/>
       <c r="C30" s="383"/>
-      <c r="D30" s="512" t="s">
+      <c r="D30" s="506" t="s">
         <v>230</v>
       </c>
-      <c r="E30" s="513"/>
-      <c r="F30" s="513"/>
-      <c r="G30" s="513"/>
-      <c r="H30" s="513"/>
-      <c r="I30" s="514"/>
-      <c r="J30" s="515">
+      <c r="E30" s="507"/>
+      <c r="F30" s="507"/>
+      <c r="G30" s="507"/>
+      <c r="H30" s="507"/>
+      <c r="I30" s="508"/>
+      <c r="J30" s="509">
         <f>'Bảng lương'!K15</f>
         <v>6080000</v>
       </c>
-      <c r="K30" s="516"/>
-      <c r="L30" s="422"/>
-    </row>
-    <row r="31" spans="1:14" s="423" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="510"/>
+      <c r="L30" s="421"/>
+    </row>
+    <row r="31" spans="1:14" s="422" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="383"/>
       <c r="B31" s="383"/>
       <c r="C31" s="383"/>
-      <c r="D31" s="510" t="s">
+      <c r="D31" s="504" t="s">
         <v>231</v>
       </c>
-      <c r="E31" s="510"/>
-      <c r="F31" s="510"/>
-      <c r="G31" s="510"/>
-      <c r="H31" s="510"/>
-      <c r="I31" s="510"/>
-      <c r="J31" s="511">
+      <c r="E31" s="504"/>
+      <c r="F31" s="504"/>
+      <c r="G31" s="504"/>
+      <c r="H31" s="504"/>
+      <c r="I31" s="504"/>
+      <c r="J31" s="505">
         <f>J30+J28+J29-J27-J26-J25</f>
         <v>5208085</v>
       </c>
-      <c r="K31" s="511"/>
+      <c r="K31" s="505"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L32" s="424" t="s">
+      <c r="L32" s="423" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L33" s="417" t="s">
+      <c r="L33" s="416" t="s">
         <v>238</v>
       </c>
-      <c r="M33" s="561">
+      <c r="M33" s="435">
         <f>J31-2500000</f>
         <v>2708085</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="93"/>
-      <c r="B34" s="498" t="s">
+      <c r="B34" s="515" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="498"/>
-      <c r="D34" s="498"/>
+      <c r="C34" s="515"/>
+      <c r="D34" s="515"/>
       <c r="E34" s="93"/>
       <c r="F34" s="93"/>
       <c r="G34" s="93"/>
       <c r="H34" s="93"/>
-      <c r="I34" s="498" t="s">
+      <c r="I34" s="515" t="s">
         <v>114</v>
       </c>
-      <c r="J34" s="498"/>
+      <c r="J34" s="515"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="A14:F14"/>
@@ -10793,31 +11209,31 @@
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="J29:K29"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10825,6 +11241,1002 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="523" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="523"/>
+      <c r="C1" s="523"/>
+      <c r="D1" s="523"/>
+      <c r="E1" s="523"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+    </row>
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="515" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="515"/>
+      <c r="C3" s="515"/>
+      <c r="D3" s="515"/>
+      <c r="E3" s="515"/>
+      <c r="F3" s="515"/>
+      <c r="G3" s="515"/>
+      <c r="H3" s="515"/>
+      <c r="I3" s="515"/>
+      <c r="J3" s="515"/>
+      <c r="K3" s="515"/>
+      <c r="L3" s="515"/>
+    </row>
+    <row r="4" spans="1:12" s="137" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="519" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="520" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="519" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="519" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="519"/>
+      <c r="F4" s="521" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="521"/>
+      <c r="H4" s="521"/>
+      <c r="I4" s="521"/>
+      <c r="J4" s="521"/>
+      <c r="K4" s="521"/>
+      <c r="L4" s="521"/>
+    </row>
+    <row r="5" spans="1:12" s="137" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="519"/>
+      <c r="B5" s="520"/>
+      <c r="C5" s="519"/>
+      <c r="D5" s="519" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="519" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="519" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="519" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="518" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="518" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="522" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="522"/>
+      <c r="L5" s="518" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="137" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="519"/>
+      <c r="B6" s="520"/>
+      <c r="C6" s="519"/>
+      <c r="D6" s="519"/>
+      <c r="E6" s="519"/>
+      <c r="F6" s="519"/>
+      <c r="G6" s="519"/>
+      <c r="H6" s="518"/>
+      <c r="I6" s="518"/>
+      <c r="J6" s="434" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="145" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="518"/>
+    </row>
+    <row r="7" spans="1:12" s="282" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="446">
+        <v>612</v>
+      </c>
+      <c r="B7" s="449">
+        <v>44032</v>
+      </c>
+      <c r="C7" s="446" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="446" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="446" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="432" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="432">
+        <v>12</v>
+      </c>
+      <c r="H7" s="311">
+        <v>455000</v>
+      </c>
+      <c r="I7" s="311">
+        <f t="shared" ref="I7:I23" si="0">G7*H7</f>
+        <v>5460000</v>
+      </c>
+      <c r="J7" s="311"/>
+      <c r="K7" s="313">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="311">
+        <f t="shared" ref="L7:L13" si="1">I7*(1-K7)-J7</f>
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="447"/>
+      <c r="B8" s="450"/>
+      <c r="C8" s="447"/>
+      <c r="D8" s="447"/>
+      <c r="E8" s="447"/>
+      <c r="F8" s="429" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="429">
+        <v>12</v>
+      </c>
+      <c r="H8" s="315">
+        <v>465000</v>
+      </c>
+      <c r="I8" s="315">
+        <f t="shared" si="0"/>
+        <v>5580000</v>
+      </c>
+      <c r="J8" s="315"/>
+      <c r="K8" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="315">
+        <f t="shared" si="1"/>
+        <v>2790000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="447"/>
+      <c r="B9" s="450"/>
+      <c r="C9" s="447"/>
+      <c r="D9" s="447"/>
+      <c r="E9" s="447"/>
+      <c r="F9" s="429" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="429">
+        <v>12</v>
+      </c>
+      <c r="H9" s="315">
+        <v>475000</v>
+      </c>
+      <c r="I9" s="315">
+        <f t="shared" si="0"/>
+        <v>5700000</v>
+      </c>
+      <c r="J9" s="315"/>
+      <c r="K9" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="315">
+        <f t="shared" si="1"/>
+        <v>2850000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="447"/>
+      <c r="B10" s="450"/>
+      <c r="C10" s="447"/>
+      <c r="D10" s="447"/>
+      <c r="E10" s="447"/>
+      <c r="F10" s="429" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="429">
+        <v>12</v>
+      </c>
+      <c r="H10" s="315">
+        <v>485000</v>
+      </c>
+      <c r="I10" s="315">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+      <c r="J10" s="315"/>
+      <c r="K10" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="315">
+        <f t="shared" si="1"/>
+        <v>2910000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="447"/>
+      <c r="B11" s="450"/>
+      <c r="C11" s="447"/>
+      <c r="D11" s="447"/>
+      <c r="E11" s="447"/>
+      <c r="F11" s="429" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="429">
+        <v>10</v>
+      </c>
+      <c r="H11" s="315">
+        <v>550000</v>
+      </c>
+      <c r="I11" s="315">
+        <f t="shared" si="0"/>
+        <v>5500000</v>
+      </c>
+      <c r="J11" s="315"/>
+      <c r="K11" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="315">
+        <f t="shared" si="1"/>
+        <v>2750000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="447"/>
+      <c r="B12" s="450"/>
+      <c r="C12" s="447"/>
+      <c r="D12" s="447"/>
+      <c r="E12" s="447"/>
+      <c r="F12" s="429" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="429">
+        <v>12</v>
+      </c>
+      <c r="H12" s="315">
+        <v>455000</v>
+      </c>
+      <c r="I12" s="315">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
+      <c r="J12" s="315"/>
+      <c r="K12" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="315">
+        <f t="shared" si="1"/>
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="448"/>
+      <c r="B13" s="451"/>
+      <c r="C13" s="448"/>
+      <c r="D13" s="448"/>
+      <c r="E13" s="448"/>
+      <c r="F13" s="430" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="430">
+        <v>12</v>
+      </c>
+      <c r="H13" s="318">
+        <v>455000</v>
+      </c>
+      <c r="I13" s="318">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
+      <c r="J13" s="318"/>
+      <c r="K13" s="320">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="318">
+        <f t="shared" si="1"/>
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="446">
+        <v>762</v>
+      </c>
+      <c r="B14" s="449">
+        <v>44063</v>
+      </c>
+      <c r="C14" s="446" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="446" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="446" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="432" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="432">
+        <v>5</v>
+      </c>
+      <c r="H14" s="311">
+        <v>225000</v>
+      </c>
+      <c r="I14" s="311">
+        <f t="shared" si="0"/>
+        <v>1125000</v>
+      </c>
+      <c r="J14" s="311"/>
+      <c r="K14" s="313">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="311">
+        <f t="shared" ref="L14:L23" si="2">I14*(1-K14)</f>
+        <v>562500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="282" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="447"/>
+      <c r="B15" s="450"/>
+      <c r="C15" s="447"/>
+      <c r="D15" s="447"/>
+      <c r="E15" s="447"/>
+      <c r="F15" s="429" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="429">
+        <v>10</v>
+      </c>
+      <c r="H15" s="315">
+        <v>455000</v>
+      </c>
+      <c r="I15" s="315">
+        <f t="shared" si="0"/>
+        <v>4550000</v>
+      </c>
+      <c r="J15" s="315"/>
+      <c r="K15" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="315">
+        <f t="shared" si="2"/>
+        <v>2275000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="282" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="447"/>
+      <c r="B16" s="450"/>
+      <c r="C16" s="447"/>
+      <c r="D16" s="447"/>
+      <c r="E16" s="447"/>
+      <c r="F16" s="429" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="429">
+        <v>5</v>
+      </c>
+      <c r="H16" s="315">
+        <v>465000</v>
+      </c>
+      <c r="I16" s="315">
+        <f t="shared" si="0"/>
+        <v>2325000</v>
+      </c>
+      <c r="J16" s="315"/>
+      <c r="K16" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="315">
+        <f t="shared" si="2"/>
+        <v>1162500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="282" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="448"/>
+      <c r="B17" s="451"/>
+      <c r="C17" s="448"/>
+      <c r="D17" s="448"/>
+      <c r="E17" s="448"/>
+      <c r="F17" s="430" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="430">
+        <v>5</v>
+      </c>
+      <c r="H17" s="318">
+        <v>455000</v>
+      </c>
+      <c r="I17" s="318">
+        <f t="shared" si="0"/>
+        <v>2275000</v>
+      </c>
+      <c r="J17" s="318"/>
+      <c r="K17" s="320">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="318">
+        <f t="shared" si="2"/>
+        <v>1137500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="446">
+        <v>469</v>
+      </c>
+      <c r="B18" s="449">
+        <v>44068</v>
+      </c>
+      <c r="C18" s="446" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="446" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="458" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" s="432" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="432">
+        <v>12</v>
+      </c>
+      <c r="H18" s="311">
+        <v>225000</v>
+      </c>
+      <c r="I18" s="311">
+        <f t="shared" si="0"/>
+        <v>2700000</v>
+      </c>
+      <c r="J18" s="311"/>
+      <c r="K18" s="313">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="311">
+        <f t="shared" si="2"/>
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="447"/>
+      <c r="B19" s="450"/>
+      <c r="C19" s="447"/>
+      <c r="D19" s="447"/>
+      <c r="E19" s="459"/>
+      <c r="F19" s="429" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="429">
+        <v>12</v>
+      </c>
+      <c r="H19" s="315">
+        <v>455000</v>
+      </c>
+      <c r="I19" s="315">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
+      <c r="J19" s="315"/>
+      <c r="K19" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="315">
+        <f t="shared" si="2"/>
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="447"/>
+      <c r="B20" s="450"/>
+      <c r="C20" s="447"/>
+      <c r="D20" s="447"/>
+      <c r="E20" s="459"/>
+      <c r="F20" s="429" t="s">
+        <v>241</v>
+      </c>
+      <c r="G20" s="429">
+        <v>12</v>
+      </c>
+      <c r="H20" s="315">
+        <v>255000</v>
+      </c>
+      <c r="I20" s="315">
+        <f t="shared" si="0"/>
+        <v>3060000</v>
+      </c>
+      <c r="J20" s="315"/>
+      <c r="K20" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="315">
+        <f t="shared" si="2"/>
+        <v>1530000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="447"/>
+      <c r="B21" s="450"/>
+      <c r="C21" s="447"/>
+      <c r="D21" s="447"/>
+      <c r="E21" s="459"/>
+      <c r="F21" s="429" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" s="429">
+        <v>12</v>
+      </c>
+      <c r="H21" s="315">
+        <v>485000</v>
+      </c>
+      <c r="I21" s="315">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+      <c r="J21" s="315"/>
+      <c r="K21" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="315">
+        <f t="shared" si="2"/>
+        <v>2910000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="282" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="447"/>
+      <c r="B22" s="450"/>
+      <c r="C22" s="447"/>
+      <c r="D22" s="447"/>
+      <c r="E22" s="459"/>
+      <c r="F22" s="429" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="429">
+        <v>9</v>
+      </c>
+      <c r="H22" s="315">
+        <v>550000</v>
+      </c>
+      <c r="I22" s="315">
+        <f t="shared" si="0"/>
+        <v>4950000</v>
+      </c>
+      <c r="J22" s="315"/>
+      <c r="K22" s="316">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="315">
+        <f t="shared" si="2"/>
+        <v>2475000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="448"/>
+      <c r="B23" s="451"/>
+      <c r="C23" s="448"/>
+      <c r="D23" s="448"/>
+      <c r="E23" s="485"/>
+      <c r="F23" s="430" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" s="430">
+        <v>10</v>
+      </c>
+      <c r="H23" s="318">
+        <v>455000</v>
+      </c>
+      <c r="I23" s="318">
+        <f t="shared" si="0"/>
+        <v>4550000</v>
+      </c>
+      <c r="J23" s="318"/>
+      <c r="K23" s="320">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="318">
+        <f t="shared" si="2"/>
+        <v>2275000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="569" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="569"/>
+      <c r="C24" s="569"/>
+      <c r="D24" s="569"/>
+      <c r="E24" s="569"/>
+      <c r="F24" s="569"/>
+      <c r="G24" s="570"/>
+      <c r="H24" s="570"/>
+      <c r="I24" s="570"/>
+      <c r="J24" s="570"/>
+      <c r="K24" s="570"/>
+      <c r="L24" s="571">
+        <f>SUM(L7:L23)</f>
+        <v>37897500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="515" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="515"/>
+      <c r="C26" s="515"/>
+      <c r="D26" s="433"/>
+      <c r="E26" s="433"/>
+      <c r="F26" s="433"/>
+      <c r="G26" s="433"/>
+      <c r="H26" s="433"/>
+      <c r="I26" s="421"/>
+      <c r="J26" s="422"/>
+      <c r="K26" s="422"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="433"/>
+      <c r="B27" s="433"/>
+      <c r="C27" s="433"/>
+      <c r="D27" s="516" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27" s="516"/>
+      <c r="F27" s="516"/>
+      <c r="G27" s="516"/>
+      <c r="H27" s="516"/>
+      <c r="I27" s="516"/>
+      <c r="J27" s="517" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="517"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="433"/>
+      <c r="B28" s="433"/>
+      <c r="C28" s="433"/>
+      <c r="D28" s="504" t="s">
+        <v>244</v>
+      </c>
+      <c r="E28" s="504"/>
+      <c r="F28" s="504"/>
+      <c r="G28" s="504"/>
+      <c r="H28" s="504"/>
+      <c r="I28" s="504"/>
+      <c r="J28" s="505">
+        <f>L24</f>
+        <v>37897500</v>
+      </c>
+      <c r="K28" s="505"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="433"/>
+      <c r="B29" s="433"/>
+      <c r="C29" s="433"/>
+      <c r="D29" s="504" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="504"/>
+      <c r="F29" s="504"/>
+      <c r="G29" s="504"/>
+      <c r="H29" s="504"/>
+      <c r="I29" s="504"/>
+      <c r="J29" s="505">
+        <v>7000000</v>
+      </c>
+      <c r="K29" s="505"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="433"/>
+      <c r="B30" s="433"/>
+      <c r="C30" s="433"/>
+      <c r="D30" s="572" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30" s="504"/>
+      <c r="F30" s="504"/>
+      <c r="G30" s="504"/>
+      <c r="H30" s="504"/>
+      <c r="I30" s="504"/>
+      <c r="J30" s="505">
+        <v>2000000</v>
+      </c>
+      <c r="K30" s="505"/>
+    </row>
+    <row r="31" spans="1:12" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="433"/>
+      <c r="B31" s="433"/>
+      <c r="C31" s="433"/>
+      <c r="D31" s="576" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="577"/>
+      <c r="F31" s="577"/>
+      <c r="G31" s="577"/>
+      <c r="H31" s="577"/>
+      <c r="I31" s="577"/>
+      <c r="J31" s="578">
+        <f>SUM(J28:K30)</f>
+        <v>46897500</v>
+      </c>
+      <c r="K31" s="578"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="433"/>
+      <c r="B33" s="433"/>
+      <c r="C33" s="433"/>
+      <c r="D33" s="572" t="s">
+        <v>245</v>
+      </c>
+      <c r="E33" s="504"/>
+      <c r="F33" s="504"/>
+      <c r="G33" s="504"/>
+      <c r="H33" s="504"/>
+      <c r="I33" s="504"/>
+      <c r="J33" s="505">
+        <f>12%*200000000</f>
+        <v>24000000</v>
+      </c>
+      <c r="K33" s="505"/>
+    </row>
+    <row r="34" spans="1:11" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="433"/>
+      <c r="B34" s="433"/>
+      <c r="C34" s="433"/>
+      <c r="D34" s="572" t="s">
+        <v>246</v>
+      </c>
+      <c r="E34" s="504"/>
+      <c r="F34" s="504"/>
+      <c r="G34" s="504"/>
+      <c r="H34" s="504"/>
+      <c r="I34" s="504"/>
+      <c r="J34" s="505">
+        <f>12%*300000000</f>
+        <v>36000000</v>
+      </c>
+      <c r="K34" s="505"/>
+    </row>
+    <row r="35" spans="1:11" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="433"/>
+      <c r="B35" s="433"/>
+      <c r="C35" s="433"/>
+      <c r="D35" s="572" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" s="504"/>
+      <c r="F35" s="504"/>
+      <c r="G35" s="504"/>
+      <c r="H35" s="504"/>
+      <c r="I35" s="504"/>
+      <c r="J35" s="505">
+        <v>4880000</v>
+      </c>
+      <c r="K35" s="505"/>
+    </row>
+    <row r="36" spans="1:11" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="433"/>
+      <c r="B36" s="433"/>
+      <c r="C36" s="433"/>
+      <c r="D36" s="572" t="s">
+        <v>250</v>
+      </c>
+      <c r="E36" s="504"/>
+      <c r="F36" s="504"/>
+      <c r="G36" s="504"/>
+      <c r="H36" s="504"/>
+      <c r="I36" s="504"/>
+      <c r="J36" s="505">
+        <v>8000000</v>
+      </c>
+      <c r="K36" s="505"/>
+    </row>
+    <row r="37" spans="1:11" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="433"/>
+      <c r="B37" s="433"/>
+      <c r="C37" s="433"/>
+      <c r="D37" s="572" t="s">
+        <v>247</v>
+      </c>
+      <c r="E37" s="504"/>
+      <c r="F37" s="504"/>
+      <c r="G37" s="504"/>
+      <c r="H37" s="504"/>
+      <c r="I37" s="504"/>
+      <c r="J37" s="505">
+        <v>700000</v>
+      </c>
+      <c r="K37" s="505"/>
+    </row>
+    <row r="38" spans="1:11" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="433"/>
+      <c r="B38" s="433"/>
+      <c r="C38" s="433"/>
+      <c r="D38" s="576" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" s="577"/>
+      <c r="F38" s="577"/>
+      <c r="G38" s="577"/>
+      <c r="H38" s="577"/>
+      <c r="I38" s="577"/>
+      <c r="J38" s="578">
+        <f>SUM(J33:K37)</f>
+        <v>73580000</v>
+      </c>
+      <c r="K38" s="578"/>
+    </row>
+    <row r="39" spans="1:11" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="433"/>
+      <c r="B39" s="433"/>
+      <c r="C39" s="433"/>
+      <c r="D39" s="573"/>
+      <c r="E39" s="574"/>
+      <c r="F39" s="574"/>
+      <c r="G39" s="574"/>
+      <c r="H39" s="574"/>
+      <c r="I39" s="574"/>
+      <c r="J39" s="575"/>
+      <c r="K39" s="575"/>
+    </row>
+    <row r="40" spans="1:11" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="433"/>
+      <c r="B40" s="579" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="579"/>
+      <c r="D40" s="579"/>
+      <c r="E40" s="579"/>
+      <c r="F40" s="579"/>
+      <c r="G40" s="579"/>
+      <c r="H40" s="579"/>
+      <c r="I40" s="579"/>
+      <c r="J40" s="580">
+        <f>J38-J31</f>
+        <v>26682500</v>
+      </c>
+      <c r="K40" s="580"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="67"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="433"/>
+      <c r="B42" s="515" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="515"/>
+      <c r="D42" s="515"/>
+      <c r="E42" s="433"/>
+      <c r="F42" s="433"/>
+      <c r="G42" s="433"/>
+      <c r="H42" s="433"/>
+      <c r="I42" s="515" t="s">
+        <v>114</v>
+      </c>
+      <c r="J42" s="515"/>
+      <c r="K42" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.44" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
@@ -11358,16 +12770,16 @@
       <c r="C1" s="148"/>
       <c r="D1" s="148"/>
       <c r="E1" s="148"/>
-      <c r="Z1" s="535" t="s">
+      <c r="Z1" s="529" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="536"/>
-      <c r="AB1" s="536"/>
-      <c r="AC1" s="536"/>
-      <c r="AD1" s="536"/>
-      <c r="AE1" s="536"/>
-      <c r="AF1" s="536"/>
-      <c r="AG1" s="537"/>
+      <c r="AA1" s="530"/>
+      <c r="AB1" s="530"/>
+      <c r="AC1" s="530"/>
+      <c r="AD1" s="530"/>
+      <c r="AE1" s="530"/>
+      <c r="AF1" s="530"/>
+      <c r="AG1" s="531"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="151" t="s">
@@ -11377,18 +12789,18 @@
       <c r="C2" s="152"/>
       <c r="D2" s="152"/>
       <c r="E2" s="152"/>
-      <c r="Z2" s="518" t="s">
+      <c r="Z2" s="524" t="s">
         <v>86</v>
       </c>
-      <c r="AA2" s="519"/>
-      <c r="AB2" s="519"/>
-      <c r="AC2" s="519"/>
-      <c r="AD2" s="519"/>
-      <c r="AE2" s="520"/>
-      <c r="AF2" s="521" t="s">
+      <c r="AA2" s="525"/>
+      <c r="AB2" s="525"/>
+      <c r="AC2" s="525"/>
+      <c r="AD2" s="525"/>
+      <c r="AE2" s="526"/>
+      <c r="AF2" s="527" t="s">
         <v>87</v>
       </c>
-      <c r="AG2" s="522"/>
+      <c r="AG2" s="528"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="151" t="s">
@@ -11398,18 +12810,18 @@
       <c r="C3" s="84"/>
       <c r="D3" s="84"/>
       <c r="E3" s="84"/>
-      <c r="Z3" s="518" t="s">
+      <c r="Z3" s="524" t="s">
         <v>89</v>
       </c>
-      <c r="AA3" s="519"/>
-      <c r="AB3" s="519"/>
-      <c r="AC3" s="519"/>
-      <c r="AD3" s="519"/>
-      <c r="AE3" s="520"/>
-      <c r="AF3" s="521" t="s">
+      <c r="AA3" s="525"/>
+      <c r="AB3" s="525"/>
+      <c r="AC3" s="525"/>
+      <c r="AD3" s="525"/>
+      <c r="AE3" s="526"/>
+      <c r="AF3" s="527" t="s">
         <v>90</v>
       </c>
-      <c r="AG3" s="522"/>
+      <c r="AG3" s="528"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="151" t="s">
@@ -11422,18 +12834,18 @@
       <c r="T4" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="518" t="s">
+      <c r="Z4" s="524" t="s">
         <v>92</v>
       </c>
-      <c r="AA4" s="519"/>
-      <c r="AB4" s="519"/>
-      <c r="AC4" s="519"/>
-      <c r="AD4" s="519"/>
-      <c r="AE4" s="520"/>
-      <c r="AF4" s="521" t="s">
+      <c r="AA4" s="525"/>
+      <c r="AB4" s="525"/>
+      <c r="AC4" s="525"/>
+      <c r="AD4" s="525"/>
+      <c r="AE4" s="526"/>
+      <c r="AF4" s="527" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="522"/>
+      <c r="AG4" s="528"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="151" t="s">
@@ -11443,18 +12855,18 @@
       <c r="C5" s="84"/>
       <c r="D5" s="84"/>
       <c r="E5" s="84"/>
-      <c r="Z5" s="518" t="s">
+      <c r="Z5" s="524" t="s">
         <v>95</v>
       </c>
-      <c r="AA5" s="519"/>
-      <c r="AB5" s="519"/>
-      <c r="AC5" s="519"/>
-      <c r="AD5" s="519"/>
-      <c r="AE5" s="520"/>
-      <c r="AF5" s="521" t="s">
+      <c r="AA5" s="525"/>
+      <c r="AB5" s="525"/>
+      <c r="AC5" s="525"/>
+      <c r="AD5" s="525"/>
+      <c r="AE5" s="526"/>
+      <c r="AF5" s="527" t="s">
         <v>96</v>
       </c>
-      <c r="AG5" s="522"/>
+      <c r="AG5" s="528"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="153"/>
@@ -11464,93 +12876,93 @@
       <c r="E6" s="153"/>
     </row>
     <row r="7" spans="1:40" s="156" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="523" t="s">
+      <c r="A7" s="533" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="523"/>
-      <c r="C7" s="523"/>
-      <c r="D7" s="523"/>
-      <c r="E7" s="523"/>
-      <c r="F7" s="523"/>
-      <c r="G7" s="523"/>
-      <c r="H7" s="523"/>
-      <c r="I7" s="523"/>
-      <c r="J7" s="523"/>
-      <c r="K7" s="523"/>
-      <c r="L7" s="523"/>
-      <c r="M7" s="523"/>
-      <c r="N7" s="523"/>
-      <c r="O7" s="523"/>
-      <c r="P7" s="523"/>
-      <c r="Q7" s="523"/>
-      <c r="R7" s="523"/>
-      <c r="S7" s="523"/>
-      <c r="T7" s="523"/>
-      <c r="U7" s="523"/>
-      <c r="V7" s="523"/>
-      <c r="W7" s="523"/>
-      <c r="X7" s="523"/>
-      <c r="Y7" s="523"/>
-      <c r="Z7" s="523"/>
-      <c r="AA7" s="523"/>
-      <c r="AB7" s="523"/>
-      <c r="AC7" s="523"/>
-      <c r="AD7" s="523"/>
-      <c r="AE7" s="523"/>
-      <c r="AF7" s="523"/>
-      <c r="AG7" s="523"/>
-      <c r="AH7" s="523"/>
-      <c r="AI7" s="523"/>
-      <c r="AJ7" s="523"/>
-      <c r="AK7" s="523"/>
-      <c r="AL7" s="523"/>
-      <c r="AM7" s="523"/>
+      <c r="B7" s="533"/>
+      <c r="C7" s="533"/>
+      <c r="D7" s="533"/>
+      <c r="E7" s="533"/>
+      <c r="F7" s="533"/>
+      <c r="G7" s="533"/>
+      <c r="H7" s="533"/>
+      <c r="I7" s="533"/>
+      <c r="J7" s="533"/>
+      <c r="K7" s="533"/>
+      <c r="L7" s="533"/>
+      <c r="M7" s="533"/>
+      <c r="N7" s="533"/>
+      <c r="O7" s="533"/>
+      <c r="P7" s="533"/>
+      <c r="Q7" s="533"/>
+      <c r="R7" s="533"/>
+      <c r="S7" s="533"/>
+      <c r="T7" s="533"/>
+      <c r="U7" s="533"/>
+      <c r="V7" s="533"/>
+      <c r="W7" s="533"/>
+      <c r="X7" s="533"/>
+      <c r="Y7" s="533"/>
+      <c r="Z7" s="533"/>
+      <c r="AA7" s="533"/>
+      <c r="AB7" s="533"/>
+      <c r="AC7" s="533"/>
+      <c r="AD7" s="533"/>
+      <c r="AE7" s="533"/>
+      <c r="AF7" s="533"/>
+      <c r="AG7" s="533"/>
+      <c r="AH7" s="533"/>
+      <c r="AI7" s="533"/>
+      <c r="AJ7" s="533"/>
+      <c r="AK7" s="533"/>
+      <c r="AL7" s="533"/>
+      <c r="AM7" s="533"/>
       <c r="AN7" s="155"/>
     </row>
     <row r="9" spans="1:40" s="161" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="524" t="s">
+      <c r="A9" s="534" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="524" t="s">
+      <c r="B9" s="534" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="524" t="s">
+      <c r="C9" s="534" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="527" t="s">
+      <c r="D9" s="537" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="528"/>
-      <c r="F9" s="528"/>
-      <c r="G9" s="528"/>
-      <c r="H9" s="528"/>
-      <c r="I9" s="528"/>
-      <c r="J9" s="528"/>
-      <c r="K9" s="528"/>
-      <c r="L9" s="528"/>
-      <c r="M9" s="528"/>
-      <c r="N9" s="528"/>
-      <c r="O9" s="528"/>
-      <c r="P9" s="528"/>
-      <c r="Q9" s="528"/>
-      <c r="R9" s="528"/>
-      <c r="S9" s="528"/>
-      <c r="T9" s="528"/>
-      <c r="U9" s="528"/>
-      <c r="V9" s="528"/>
-      <c r="W9" s="528"/>
-      <c r="X9" s="528"/>
-      <c r="Y9" s="528"/>
-      <c r="Z9" s="528"/>
-      <c r="AA9" s="528"/>
-      <c r="AB9" s="528"/>
-      <c r="AC9" s="528"/>
-      <c r="AD9" s="528"/>
-      <c r="AE9" s="528"/>
-      <c r="AF9" s="528"/>
-      <c r="AG9" s="528"/>
-      <c r="AH9" s="529"/>
-      <c r="AI9" s="530" t="s">
+      <c r="E9" s="538"/>
+      <c r="F9" s="538"/>
+      <c r="G9" s="538"/>
+      <c r="H9" s="538"/>
+      <c r="I9" s="538"/>
+      <c r="J9" s="538"/>
+      <c r="K9" s="538"/>
+      <c r="L9" s="538"/>
+      <c r="M9" s="538"/>
+      <c r="N9" s="538"/>
+      <c r="O9" s="538"/>
+      <c r="P9" s="538"/>
+      <c r="Q9" s="538"/>
+      <c r="R9" s="538"/>
+      <c r="S9" s="538"/>
+      <c r="T9" s="538"/>
+      <c r="U9" s="538"/>
+      <c r="V9" s="538"/>
+      <c r="W9" s="538"/>
+      <c r="X9" s="538"/>
+      <c r="Y9" s="538"/>
+      <c r="Z9" s="538"/>
+      <c r="AA9" s="538"/>
+      <c r="AB9" s="538"/>
+      <c r="AC9" s="538"/>
+      <c r="AD9" s="538"/>
+      <c r="AE9" s="538"/>
+      <c r="AF9" s="538"/>
+      <c r="AG9" s="538"/>
+      <c r="AH9" s="539"/>
+      <c r="AI9" s="540" t="s">
         <v>101</v>
       </c>
       <c r="AJ9" s="157"/>
@@ -11560,9 +12972,9 @@
       <c r="AN9" s="160"/>
     </row>
     <row r="10" spans="1:40" s="161" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="525"/>
-      <c r="B10" s="525"/>
-      <c r="C10" s="525"/>
+      <c r="A10" s="535"/>
+      <c r="B10" s="535"/>
+      <c r="C10" s="535"/>
       <c r="D10" s="162">
         <v>1</v>
       </c>
@@ -11656,7 +13068,7 @@
       <c r="AH10" s="162">
         <v>31</v>
       </c>
-      <c r="AI10" s="530"/>
+      <c r="AI10" s="540"/>
       <c r="AJ10" s="163"/>
       <c r="AK10" s="159"/>
       <c r="AL10" s="159"/>
@@ -11664,9 +13076,9 @@
       <c r="AN10" s="160"/>
     </row>
     <row r="11" spans="1:40" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="526"/>
-      <c r="B11" s="526"/>
-      <c r="C11" s="526"/>
+      <c r="A11" s="536"/>
+      <c r="B11" s="536"/>
+      <c r="C11" s="536"/>
       <c r="D11" s="162" t="s">
         <v>102</v>
       </c>
@@ -11760,7 +13172,7 @@
       <c r="AH11" s="230" t="s">
         <v>104</v>
       </c>
-      <c r="AI11" s="530"/>
+      <c r="AI11" s="540"/>
       <c r="AJ11" s="167"/>
       <c r="AN11" s="169"/>
     </row>
@@ -12165,10 +13577,10 @@
       <c r="AN15" s="169"/>
     </row>
     <row r="16" spans="1:40" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="531" t="s">
+      <c r="A16" s="541" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="532"/>
+      <c r="B16" s="542"/>
       <c r="C16" s="171"/>
       <c r="D16" s="171"/>
       <c r="E16" s="172"/>
@@ -12211,49 +13623,49 @@
       <c r="AN16" s="169"/>
     </row>
     <row r="18" spans="1:40" s="181" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="533" t="s">
+      <c r="A18" s="543" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="533"/>
-      <c r="C18" s="533"/>
-      <c r="D18" s="533"/>
-      <c r="E18" s="533"/>
-      <c r="F18" s="533"/>
-      <c r="G18" s="533"/>
+      <c r="B18" s="543"/>
+      <c r="C18" s="543"/>
+      <c r="D18" s="543"/>
+      <c r="E18" s="543"/>
+      <c r="F18" s="543"/>
+      <c r="G18" s="543"/>
       <c r="H18" s="176"/>
-      <c r="I18" s="534"/>
-      <c r="J18" s="534"/>
-      <c r="K18" s="534"/>
-      <c r="L18" s="534"/>
-      <c r="M18" s="534"/>
+      <c r="I18" s="544"/>
+      <c r="J18" s="544"/>
+      <c r="K18" s="544"/>
+      <c r="L18" s="544"/>
+      <c r="M18" s="544"/>
       <c r="N18" s="177"/>
-      <c r="O18" s="534" t="s">
+      <c r="O18" s="544" t="s">
         <v>111</v>
       </c>
-      <c r="P18" s="534"/>
-      <c r="Q18" s="534"/>
-      <c r="R18" s="534"/>
-      <c r="S18" s="534"/>
-      <c r="T18" s="534"/>
-      <c r="U18" s="534"/>
-      <c r="V18" s="534"/>
-      <c r="W18" s="534"/>
-      <c r="X18" s="534"/>
-      <c r="Y18" s="534"/>
+      <c r="P18" s="544"/>
+      <c r="Q18" s="544"/>
+      <c r="R18" s="544"/>
+      <c r="S18" s="544"/>
+      <c r="T18" s="544"/>
+      <c r="U18" s="544"/>
+      <c r="V18" s="544"/>
+      <c r="W18" s="544"/>
+      <c r="X18" s="544"/>
+      <c r="Y18" s="544"/>
       <c r="Z18" s="178"/>
       <c r="AA18" s="178"/>
       <c r="AB18" s="179"/>
-      <c r="AC18" s="534"/>
-      <c r="AD18" s="534"/>
-      <c r="AE18" s="534"/>
-      <c r="AF18" s="534"/>
-      <c r="AG18" s="534"/>
-      <c r="AH18" s="534"/>
-      <c r="AI18" s="534"/>
-      <c r="AJ18" s="534"/>
-      <c r="AK18" s="534"/>
-      <c r="AL18" s="534"/>
-      <c r="AM18" s="534"/>
+      <c r="AC18" s="544"/>
+      <c r="AD18" s="544"/>
+      <c r="AE18" s="544"/>
+      <c r="AF18" s="544"/>
+      <c r="AG18" s="544"/>
+      <c r="AH18" s="544"/>
+      <c r="AI18" s="544"/>
+      <c r="AJ18" s="544"/>
+      <c r="AK18" s="544"/>
+      <c r="AL18" s="544"/>
+      <c r="AM18" s="544"/>
       <c r="AN18" s="180"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -12287,131 +13699,131 @@
       <c r="AN33" s="185"/>
     </row>
     <row r="34" spans="3:40" s="184" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="517"/>
-      <c r="H34" s="517"/>
-      <c r="I34" s="517"/>
-      <c r="J34" s="517"/>
-      <c r="K34" s="517"/>
-      <c r="L34" s="517"/>
-      <c r="M34" s="517"/>
-      <c r="N34" s="517"/>
-      <c r="O34" s="517"/>
-      <c r="P34" s="517"/>
-      <c r="Q34" s="517"/>
-      <c r="R34" s="517"/>
-      <c r="S34" s="517"/>
-      <c r="T34" s="517"/>
-      <c r="U34" s="517"/>
-      <c r="V34" s="517"/>
-      <c r="W34" s="517"/>
-      <c r="X34" s="517"/>
+      <c r="G34" s="532"/>
+      <c r="H34" s="532"/>
+      <c r="I34" s="532"/>
+      <c r="J34" s="532"/>
+      <c r="K34" s="532"/>
+      <c r="L34" s="532"/>
+      <c r="M34" s="532"/>
+      <c r="N34" s="532"/>
+      <c r="O34" s="532"/>
+      <c r="P34" s="532"/>
+      <c r="Q34" s="532"/>
+      <c r="R34" s="532"/>
+      <c r="S34" s="532"/>
+      <c r="T34" s="532"/>
+      <c r="U34" s="532"/>
+      <c r="V34" s="532"/>
+      <c r="W34" s="532"/>
+      <c r="X34" s="532"/>
       <c r="AN34" s="185"/>
     </row>
     <row r="35" spans="3:40" s="184" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="517"/>
-      <c r="H35" s="517"/>
-      <c r="I35" s="517"/>
-      <c r="J35" s="517"/>
-      <c r="K35" s="517"/>
-      <c r="L35" s="517"/>
-      <c r="M35" s="517"/>
-      <c r="N35" s="517"/>
-      <c r="O35" s="517"/>
-      <c r="P35" s="517"/>
-      <c r="Q35" s="517"/>
-      <c r="R35" s="517"/>
-      <c r="S35" s="517"/>
-      <c r="T35" s="517"/>
-      <c r="U35" s="517"/>
-      <c r="V35" s="517"/>
-      <c r="W35" s="517"/>
-      <c r="X35" s="517"/>
+      <c r="G35" s="532"/>
+      <c r="H35" s="532"/>
+      <c r="I35" s="532"/>
+      <c r="J35" s="532"/>
+      <c r="K35" s="532"/>
+      <c r="L35" s="532"/>
+      <c r="M35" s="532"/>
+      <c r="N35" s="532"/>
+      <c r="O35" s="532"/>
+      <c r="P35" s="532"/>
+      <c r="Q35" s="532"/>
+      <c r="R35" s="532"/>
+      <c r="S35" s="532"/>
+      <c r="T35" s="532"/>
+      <c r="U35" s="532"/>
+      <c r="V35" s="532"/>
+      <c r="W35" s="532"/>
+      <c r="X35" s="532"/>
       <c r="AN35" s="185"/>
     </row>
     <row r="36" spans="3:40" s="184" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="517"/>
-      <c r="H36" s="517"/>
-      <c r="I36" s="517"/>
-      <c r="J36" s="517"/>
-      <c r="K36" s="517"/>
-      <c r="L36" s="517"/>
-      <c r="M36" s="517"/>
-      <c r="N36" s="517"/>
-      <c r="O36" s="517"/>
-      <c r="P36" s="517"/>
-      <c r="Q36" s="517"/>
-      <c r="R36" s="517"/>
-      <c r="S36" s="517"/>
-      <c r="T36" s="517"/>
-      <c r="U36" s="517"/>
-      <c r="V36" s="517"/>
-      <c r="W36" s="517"/>
-      <c r="X36" s="517"/>
+      <c r="G36" s="532"/>
+      <c r="H36" s="532"/>
+      <c r="I36" s="532"/>
+      <c r="J36" s="532"/>
+      <c r="K36" s="532"/>
+      <c r="L36" s="532"/>
+      <c r="M36" s="532"/>
+      <c r="N36" s="532"/>
+      <c r="O36" s="532"/>
+      <c r="P36" s="532"/>
+      <c r="Q36" s="532"/>
+      <c r="R36" s="532"/>
+      <c r="S36" s="532"/>
+      <c r="T36" s="532"/>
+      <c r="U36" s="532"/>
+      <c r="V36" s="532"/>
+      <c r="W36" s="532"/>
+      <c r="X36" s="532"/>
       <c r="AN36" s="185"/>
     </row>
     <row r="37" spans="3:40" s="184" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="517"/>
-      <c r="H37" s="517"/>
-      <c r="I37" s="517"/>
-      <c r="J37" s="517"/>
-      <c r="K37" s="517"/>
-      <c r="L37" s="517"/>
-      <c r="M37" s="517"/>
-      <c r="N37" s="517"/>
-      <c r="O37" s="517"/>
-      <c r="P37" s="517"/>
-      <c r="Q37" s="517"/>
-      <c r="R37" s="517"/>
-      <c r="S37" s="517"/>
-      <c r="T37" s="517"/>
-      <c r="U37" s="517"/>
-      <c r="V37" s="517"/>
-      <c r="W37" s="517"/>
-      <c r="X37" s="517"/>
+      <c r="G37" s="532"/>
+      <c r="H37" s="532"/>
+      <c r="I37" s="532"/>
+      <c r="J37" s="532"/>
+      <c r="K37" s="532"/>
+      <c r="L37" s="532"/>
+      <c r="M37" s="532"/>
+      <c r="N37" s="532"/>
+      <c r="O37" s="532"/>
+      <c r="P37" s="532"/>
+      <c r="Q37" s="532"/>
+      <c r="R37" s="532"/>
+      <c r="S37" s="532"/>
+      <c r="T37" s="532"/>
+      <c r="U37" s="532"/>
+      <c r="V37" s="532"/>
+      <c r="W37" s="532"/>
+      <c r="X37" s="532"/>
       <c r="AN37" s="185"/>
     </row>
     <row r="38" spans="3:40" s="184" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="517"/>
-      <c r="H38" s="517"/>
-      <c r="I38" s="517"/>
-      <c r="J38" s="517"/>
-      <c r="K38" s="517"/>
-      <c r="L38" s="517"/>
-      <c r="M38" s="517"/>
-      <c r="N38" s="517"/>
-      <c r="O38" s="517"/>
-      <c r="P38" s="517"/>
-      <c r="Q38" s="517"/>
-      <c r="R38" s="517"/>
-      <c r="S38" s="517"/>
-      <c r="T38" s="517"/>
-      <c r="U38" s="517"/>
-      <c r="V38" s="517"/>
-      <c r="W38" s="517"/>
-      <c r="X38" s="517"/>
+      <c r="G38" s="532"/>
+      <c r="H38" s="532"/>
+      <c r="I38" s="532"/>
+      <c r="J38" s="532"/>
+      <c r="K38" s="532"/>
+      <c r="L38" s="532"/>
+      <c r="M38" s="532"/>
+      <c r="N38" s="532"/>
+      <c r="O38" s="532"/>
+      <c r="P38" s="532"/>
+      <c r="Q38" s="532"/>
+      <c r="R38" s="532"/>
+      <c r="S38" s="532"/>
+      <c r="T38" s="532"/>
+      <c r="U38" s="532"/>
+      <c r="V38" s="532"/>
+      <c r="W38" s="532"/>
+      <c r="X38" s="532"/>
       <c r="AN38" s="185"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="149"/>
       <c r="D39" s="149"/>
-      <c r="G39" s="517"/>
-      <c r="H39" s="517"/>
-      <c r="I39" s="517"/>
-      <c r="J39" s="517"/>
-      <c r="K39" s="517"/>
-      <c r="L39" s="517"/>
-      <c r="M39" s="517"/>
-      <c r="N39" s="517"/>
-      <c r="O39" s="517"/>
-      <c r="P39" s="517"/>
-      <c r="Q39" s="517"/>
-      <c r="R39" s="517"/>
-      <c r="S39" s="517"/>
-      <c r="T39" s="517"/>
-      <c r="U39" s="517"/>
-      <c r="V39" s="517"/>
-      <c r="W39" s="517"/>
-      <c r="X39" s="517"/>
+      <c r="G39" s="532"/>
+      <c r="H39" s="532"/>
+      <c r="I39" s="532"/>
+      <c r="J39" s="532"/>
+      <c r="K39" s="532"/>
+      <c r="L39" s="532"/>
+      <c r="M39" s="532"/>
+      <c r="N39" s="532"/>
+      <c r="O39" s="532"/>
+      <c r="P39" s="532"/>
+      <c r="Q39" s="532"/>
+      <c r="R39" s="532"/>
+      <c r="S39" s="532"/>
+      <c r="T39" s="532"/>
+      <c r="U39" s="532"/>
+      <c r="V39" s="532"/>
+      <c r="W39" s="532"/>
+      <c r="X39" s="532"/>
       <c r="AN39" s="149"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -12421,13 +13833,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -12442,13 +13847,20 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
@@ -13296,40 +14708,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="248" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="547" t="s">
+      <c r="A1" s="545" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="547"/>
-      <c r="C1" s="547"/>
-      <c r="D1" s="547"/>
+      <c r="B1" s="545"/>
+      <c r="C1" s="545"/>
+      <c r="D1" s="545"/>
       <c r="E1" s="247"/>
-      <c r="F1" s="548" t="s">
+      <c r="F1" s="546" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="548"/>
-      <c r="H1" s="548"/>
-      <c r="I1" s="548"/>
-      <c r="J1" s="548"/>
-      <c r="K1" s="548"/>
-      <c r="L1" s="548"/>
+      <c r="G1" s="546"/>
+      <c r="H1" s="546"/>
+      <c r="I1" s="546"/>
+      <c r="J1" s="546"/>
+      <c r="K1" s="546"/>
+      <c r="L1" s="546"/>
     </row>
     <row r="2" spans="1:16" s="248" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="549" t="s">
+      <c r="A2" s="547" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="549"/>
-      <c r="C2" s="549"/>
-      <c r="D2" s="549"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
       <c r="E2" s="247"/>
-      <c r="F2" s="550" t="s">
+      <c r="F2" s="548" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="550"/>
-      <c r="H2" s="550"/>
-      <c r="I2" s="550"/>
-      <c r="J2" s="550"/>
-      <c r="K2" s="550"/>
-      <c r="L2" s="550"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="548"/>
+      <c r="J2" s="548"/>
+      <c r="K2" s="548"/>
+      <c r="L2" s="548"/>
     </row>
     <row r="3" spans="1:16" s="248" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="249"/>
@@ -13343,45 +14755,45 @@
       <c r="J3" s="250"/>
     </row>
     <row r="4" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="538" t="s">
+      <c r="A4" s="549" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="538"/>
-      <c r="C4" s="538"/>
-      <c r="D4" s="538"/>
-      <c r="E4" s="538"/>
-      <c r="F4" s="538"/>
-      <c r="G4" s="538"/>
-      <c r="H4" s="538"/>
-      <c r="I4" s="538"/>
-      <c r="J4" s="538"/>
-      <c r="K4" s="538"/>
-      <c r="L4" s="538"/>
-      <c r="M4" s="538"/>
+      <c r="B4" s="549"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="549"/>
+      <c r="E4" s="549"/>
+      <c r="F4" s="549"/>
+      <c r="G4" s="549"/>
+      <c r="H4" s="549"/>
+      <c r="I4" s="549"/>
+      <c r="J4" s="549"/>
+      <c r="K4" s="549"/>
+      <c r="L4" s="549"/>
+      <c r="M4" s="549"/>
     </row>
     <row r="5" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="538" t="s">
+      <c r="A5" s="549" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="538"/>
-      <c r="C5" s="538"/>
-      <c r="D5" s="538"/>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="538"/>
-      <c r="I5" s="538"/>
-      <c r="J5" s="538"/>
-      <c r="K5" s="538"/>
-      <c r="L5" s="538"/>
-      <c r="M5" s="538"/>
+      <c r="B5" s="549"/>
+      <c r="C5" s="549"/>
+      <c r="D5" s="549"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="549"/>
+      <c r="I5" s="549"/>
+      <c r="J5" s="549"/>
+      <c r="K5" s="549"/>
+      <c r="L5" s="549"/>
+      <c r="M5" s="549"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="539" t="s">
+      <c r="K6" s="550" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="539"/>
-      <c r="M6" s="539"/>
+      <c r="L6" s="550"/>
+      <c r="M6" s="550"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
@@ -13452,10 +14864,10 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="540" t="s">
+      <c r="A9" s="551" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="541"/>
+      <c r="B9" s="552"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="E9" s="49"/>
@@ -13579,11 +14991,11 @@
       <c r="P12" s="144"/>
     </row>
     <row r="13" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="544" t="s">
+      <c r="A13" s="555" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="545"/>
-      <c r="C13" s="546"/>
+      <c r="B13" s="556"/>
+      <c r="C13" s="557"/>
       <c r="D13" s="227">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -13608,10 +15020,10 @@
       <c r="M13" s="253"/>
     </row>
     <row r="14" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="542" t="s">
+      <c r="A14" s="553" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="543"/>
+      <c r="B14" s="554"/>
       <c r="C14" s="85"/>
       <c r="D14" s="86"/>
       <c r="E14" s="268"/>
@@ -13664,11 +15076,11 @@
       </c>
     </row>
     <row r="16" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="544" t="s">
+      <c r="A16" s="555" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="545"/>
-      <c r="C16" s="546"/>
+      <c r="B16" s="556"/>
+      <c r="C16" s="557"/>
       <c r="D16" s="254">
         <f>SUM(D15:D15)</f>
         <v>5000000</v>
@@ -13690,14 +15102,14 @@
       <c r="M16" s="253"/>
     </row>
     <row r="18" spans="2:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="538"/>
-      <c r="C18" s="538"/>
-      <c r="D18" s="538"/>
+      <c r="B18" s="549"/>
+      <c r="C18" s="549"/>
+      <c r="D18" s="549"/>
       <c r="E18" s="228"/>
-      <c r="I18" s="538"/>
-      <c r="J18" s="538"/>
-      <c r="K18" s="538"/>
-      <c r="L18" s="538"/>
+      <c r="I18" s="549"/>
+      <c r="J18" s="549"/>
+      <c r="K18" s="549"/>
+      <c r="L18" s="549"/>
     </row>
     <row r="19" spans="2:12" s="248" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="256" t="s">
@@ -13743,11 +15155,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="A9:B9"/>
@@ -13756,13 +15163,18 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
@@ -13780,29 +15192,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="234" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="551" t="s">
+      <c r="A1" s="558" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="551"/>
-      <c r="C1" s="551"/>
+      <c r="B1" s="558"/>
+      <c r="C1" s="558"/>
       <c r="I1" s="235"/>
       <c r="J1" s="236"/>
     </row>
     <row r="2" spans="1:14" s="234" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="552" t="s">
+      <c r="A2" s="559" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="552"/>
-      <c r="C2" s="552"/>
+      <c r="B2" s="559"/>
+      <c r="C2" s="559"/>
       <c r="I2" s="235"/>
       <c r="J2" s="236"/>
     </row>
     <row r="3" spans="1:14" s="234" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="483" t="s">
+      <c r="A3" s="492" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="483"/>
-      <c r="C3" s="483"/>
+      <c r="B3" s="492"/>
+      <c r="C3" s="492"/>
       <c r="D3" s="233"/>
       <c r="E3" s="233"/>
       <c r="F3" s="233"/>
@@ -13832,24 +15244,24 @@
       <c r="N4" s="233"/>
     </row>
     <row r="5" spans="1:14" s="234" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="557" t="s">
+      <c r="A5" s="564" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="559" t="s">
+      <c r="B5" s="566" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="557" t="s">
+      <c r="C5" s="564" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="556" t="s">
+      <c r="D5" s="563" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="556"/>
+      <c r="E5" s="563"/>
     </row>
     <row r="6" spans="1:14" s="234" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="558"/>
-      <c r="B6" s="560"/>
-      <c r="C6" s="558"/>
+      <c r="A6" s="565"/>
+      <c r="B6" s="567"/>
+      <c r="C6" s="565"/>
       <c r="D6" s="244" t="s">
         <v>127</v>
       </c>
@@ -14063,11 +15475,11 @@
       <c r="E31" s="243"/>
     </row>
     <row r="32" spans="1:5" s="246" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="553" t="s">
+      <c r="A32" s="560" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="554"/>
-      <c r="C32" s="555"/>
+      <c r="B32" s="561"/>
+      <c r="C32" s="562"/>
       <c r="D32" s="245">
         <f t="shared" ref="D32:E32" si="0">SUM(D7:D31)</f>
         <v>80000</v>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="278">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -847,6 +847,21 @@
   </si>
   <si>
     <t>TIỀN CÔNG TY THANH TOÁN CHO EM HẰNG</t>
+  </si>
+  <si>
+    <t>Như Vậy:</t>
+  </si>
+  <si>
+    <t>Tổng chi phí từ 22/7/2020 đến hết 26/08/2020 là</t>
+  </si>
+  <si>
+    <t>Cụ thể</t>
+  </si>
+  <si>
+    <t>Hằng</t>
+  </si>
+  <si>
+    <t>Chi trả tiền bỉm cho anh lệ</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1503,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="610">
+  <cellXfs count="614">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2711,6 +2726,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2741,6 +2771,15 @@
     <xf numFmtId="168" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2750,70 +2789,76 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2825,12 +2870,6 @@
     <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2861,17 +2900,14 @@
     <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2903,12 +2939,6 @@
     <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2918,73 +2948,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2996,7 +3041,13 @@
     <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3023,24 +3074,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3077,13 +3137,16 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3113,18 +3176,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3155,42 +3206,12 @@
     <xf numFmtId="14" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3557,15 +3578,15 @@
       <c r="H3" s="112"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="454" t="s">
+      <c r="A4" s="459" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="454"/>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
-      <c r="G4" s="454"/>
+      <c r="B4" s="459"/>
+      <c r="C4" s="459"/>
+      <c r="D4" s="459"/>
+      <c r="E4" s="459"/>
+      <c r="F4" s="459"/>
+      <c r="G4" s="459"/>
       <c r="H4" s="112"/>
     </row>
     <row r="5" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.25">
@@ -3577,28 +3598,28 @@
       <c r="G5" s="109"/>
     </row>
     <row r="6" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="455" t="s">
+      <c r="A6" s="460" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="455" t="s">
+      <c r="B6" s="460" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="457" t="s">
+      <c r="C6" s="462" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="459" t="s">
+      <c r="D6" s="464" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="459"/>
-      <c r="F6" s="459" t="s">
+      <c r="E6" s="464"/>
+      <c r="F6" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="459"/>
+      <c r="G6" s="464"/>
     </row>
     <row r="7" spans="1:8" s="110" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="456"/>
-      <c r="B7" s="456"/>
-      <c r="C7" s="458"/>
+      <c r="A7" s="461"/>
+      <c r="B7" s="461"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="114" t="s">
         <v>81</v>
       </c>
@@ -4791,11 +4812,11 @@
       <c r="G100" s="117"/>
     </row>
     <row r="101" spans="1:8" s="120" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="451" t="s">
+      <c r="A101" s="456" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="452"/>
-      <c r="C101" s="453"/>
+      <c r="B101" s="457"/>
+      <c r="C101" s="458"/>
       <c r="D101" s="119">
         <f>SUM(D8:D100)</f>
         <v>318000000</v>
@@ -4823,10 +4844,10 @@
       <c r="G102" s="122"/>
     </row>
     <row r="103" spans="1:8" s="120" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="450" t="s">
+      <c r="A103" s="455" t="s">
         <v>82</v>
       </c>
-      <c r="B103" s="450"/>
+      <c r="B103" s="455"/>
       <c r="C103" s="121"/>
       <c r="D103" s="122"/>
       <c r="E103" s="122"/>
@@ -4926,7 +4947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -5770,40 +5791,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="248" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="584" t="s">
+      <c r="A1" s="587" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="584"/>
-      <c r="C1" s="584"/>
-      <c r="D1" s="584"/>
+      <c r="B1" s="587"/>
+      <c r="C1" s="587"/>
+      <c r="D1" s="587"/>
       <c r="E1" s="247"/>
-      <c r="F1" s="585" t="s">
+      <c r="F1" s="588" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="585"/>
-      <c r="H1" s="585"/>
-      <c r="I1" s="585"/>
-      <c r="J1" s="585"/>
-      <c r="K1" s="585"/>
-      <c r="L1" s="585"/>
+      <c r="G1" s="588"/>
+      <c r="H1" s="588"/>
+      <c r="I1" s="588"/>
+      <c r="J1" s="588"/>
+      <c r="K1" s="588"/>
+      <c r="L1" s="588"/>
     </row>
     <row r="2" spans="1:16" s="248" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="586" t="s">
+      <c r="A2" s="589" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="586"/>
-      <c r="C2" s="586"/>
-      <c r="D2" s="586"/>
+      <c r="B2" s="589"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="589"/>
       <c r="E2" s="247"/>
-      <c r="F2" s="587" t="s">
+      <c r="F2" s="590" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="587"/>
-      <c r="H2" s="587"/>
-      <c r="I2" s="587"/>
-      <c r="J2" s="587"/>
-      <c r="K2" s="587"/>
-      <c r="L2" s="587"/>
+      <c r="G2" s="590"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="590"/>
+      <c r="J2" s="590"/>
+      <c r="K2" s="590"/>
+      <c r="L2" s="590"/>
     </row>
     <row r="3" spans="1:16" s="248" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="249"/>
@@ -5817,45 +5838,45 @@
       <c r="J3" s="250"/>
     </row>
     <row r="4" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="575" t="s">
+      <c r="A4" s="591" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="575"/>
-      <c r="C4" s="575"/>
-      <c r="D4" s="575"/>
-      <c r="E4" s="575"/>
-      <c r="F4" s="575"/>
-      <c r="G4" s="575"/>
-      <c r="H4" s="575"/>
-      <c r="I4" s="575"/>
-      <c r="J4" s="575"/>
-      <c r="K4" s="575"/>
-      <c r="L4" s="575"/>
-      <c r="M4" s="575"/>
+      <c r="B4" s="591"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="591"/>
+      <c r="E4" s="591"/>
+      <c r="F4" s="591"/>
+      <c r="G4" s="591"/>
+      <c r="H4" s="591"/>
+      <c r="I4" s="591"/>
+      <c r="J4" s="591"/>
+      <c r="K4" s="591"/>
+      <c r="L4" s="591"/>
+      <c r="M4" s="591"/>
     </row>
     <row r="5" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="575" t="s">
+      <c r="A5" s="591" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="575"/>
-      <c r="C5" s="575"/>
-      <c r="D5" s="575"/>
-      <c r="E5" s="575"/>
-      <c r="F5" s="575"/>
-      <c r="G5" s="575"/>
-      <c r="H5" s="575"/>
-      <c r="I5" s="575"/>
-      <c r="J5" s="575"/>
-      <c r="K5" s="575"/>
-      <c r="L5" s="575"/>
-      <c r="M5" s="575"/>
+      <c r="B5" s="591"/>
+      <c r="C5" s="591"/>
+      <c r="D5" s="591"/>
+      <c r="E5" s="591"/>
+      <c r="F5" s="591"/>
+      <c r="G5" s="591"/>
+      <c r="H5" s="591"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="591"/>
+      <c r="M5" s="591"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="576" t="s">
+      <c r="K6" s="592" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="576"/>
-      <c r="M6" s="576"/>
+      <c r="L6" s="592"/>
+      <c r="M6" s="592"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
@@ -5926,10 +5947,10 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="577" t="s">
+      <c r="A9" s="593" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="578"/>
+      <c r="B9" s="594"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="E9" s="49"/>
@@ -6053,11 +6074,11 @@
       <c r="P12" s="144"/>
     </row>
     <row r="13" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="581" t="s">
+      <c r="A13" s="597" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="582"/>
-      <c r="C13" s="583"/>
+      <c r="B13" s="598"/>
+      <c r="C13" s="599"/>
       <c r="D13" s="227">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -6082,10 +6103,10 @@
       <c r="M13" s="253"/>
     </row>
     <row r="14" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="579" t="s">
+      <c r="A14" s="595" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="580"/>
+      <c r="B14" s="596"/>
       <c r="C14" s="85"/>
       <c r="D14" s="86"/>
       <c r="E14" s="268"/>
@@ -6136,11 +6157,11 @@
       <c r="M15" s="60"/>
     </row>
     <row r="16" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="581" t="s">
+      <c r="A16" s="597" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="582"/>
-      <c r="C16" s="583"/>
+      <c r="B16" s="598"/>
+      <c r="C16" s="599"/>
       <c r="D16" s="254">
         <f>SUM(D15:D15)</f>
         <v>5000000</v>
@@ -6162,14 +6183,14 @@
       <c r="M16" s="253"/>
     </row>
     <row r="18" spans="2:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="575"/>
-      <c r="C18" s="575"/>
-      <c r="D18" s="575"/>
+      <c r="B18" s="591"/>
+      <c r="C18" s="591"/>
+      <c r="D18" s="591"/>
       <c r="E18" s="228"/>
-      <c r="I18" s="575"/>
-      <c r="J18" s="575"/>
-      <c r="K18" s="575"/>
-      <c r="L18" s="575"/>
+      <c r="I18" s="591"/>
+      <c r="J18" s="591"/>
+      <c r="K18" s="591"/>
+      <c r="L18" s="591"/>
     </row>
     <row r="19" spans="2:12" s="248" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="256" t="s">
@@ -6215,11 +6236,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="A9:B9"/>
@@ -6228,6 +6244,11 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -6252,29 +6273,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="234" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="588" t="s">
+      <c r="A1" s="600" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="588"/>
-      <c r="C1" s="588"/>
+      <c r="B1" s="600"/>
+      <c r="C1" s="600"/>
       <c r="I1" s="235"/>
       <c r="J1" s="236"/>
     </row>
     <row r="2" spans="1:14" s="234" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="589" t="s">
+      <c r="A2" s="601" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="589"/>
-      <c r="C2" s="589"/>
+      <c r="B2" s="601"/>
+      <c r="C2" s="601"/>
       <c r="I2" s="235"/>
       <c r="J2" s="236"/>
     </row>
     <row r="3" spans="1:14" s="234" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="505" t="s">
+      <c r="A3" s="512" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="505"/>
-      <c r="C3" s="505"/>
+      <c r="B3" s="512"/>
+      <c r="C3" s="512"/>
       <c r="D3" s="233"/>
       <c r="E3" s="233"/>
       <c r="F3" s="233"/>
@@ -6304,24 +6325,24 @@
       <c r="N4" s="233"/>
     </row>
     <row r="5" spans="1:14" s="234" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="594" t="s">
+      <c r="A5" s="606" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="596" t="s">
+      <c r="B5" s="608" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="594" t="s">
+      <c r="C5" s="606" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="593" t="s">
+      <c r="D5" s="605" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="593"/>
+      <c r="E5" s="605"/>
     </row>
     <row r="6" spans="1:14" s="234" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="595"/>
-      <c r="B6" s="597"/>
-      <c r="C6" s="595"/>
+      <c r="A6" s="607"/>
+      <c r="B6" s="609"/>
+      <c r="C6" s="607"/>
       <c r="D6" s="244" t="s">
         <v>127</v>
       </c>
@@ -6535,11 +6556,11 @@
       <c r="E31" s="243"/>
     </row>
     <row r="32" spans="1:5" s="246" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="590" t="s">
+      <c r="A32" s="602" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="591"/>
-      <c r="C32" s="592"/>
+      <c r="B32" s="603"/>
+      <c r="C32" s="604"/>
       <c r="D32" s="245">
         <f t="shared" ref="D32:E32" si="0">SUM(D7:D31)</f>
         <v>80000</v>
@@ -6596,13 +6617,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="269" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="485" t="s">
+      <c r="A1" s="495" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="485"/>
-      <c r="C1" s="485"/>
-      <c r="D1" s="485"/>
-      <c r="E1" s="485"/>
+      <c r="B1" s="495"/>
+      <c r="C1" s="495"/>
+      <c r="D1" s="495"/>
+      <c r="E1" s="495"/>
       <c r="H1" s="270"/>
       <c r="I1" s="270"/>
       <c r="J1" s="270"/>
@@ -6630,153 +6651,153 @@
       <c r="O2" s="270"/>
     </row>
     <row r="3" spans="1:17" s="269" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="486" t="s">
+      <c r="A3" s="496" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="486"/>
-      <c r="C3" s="486"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="486"/>
-      <c r="F3" s="486"/>
-      <c r="G3" s="486"/>
-      <c r="H3" s="486"/>
-      <c r="I3" s="486"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="486"/>
-      <c r="L3" s="486"/>
-      <c r="M3" s="486"/>
-      <c r="N3" s="486"/>
-      <c r="O3" s="486"/>
-      <c r="P3" s="486"/>
+      <c r="B3" s="496"/>
+      <c r="C3" s="496"/>
+      <c r="D3" s="496"/>
+      <c r="E3" s="496"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="496"/>
+      <c r="I3" s="496"/>
+      <c r="J3" s="496"/>
+      <c r="K3" s="496"/>
+      <c r="L3" s="496"/>
+      <c r="M3" s="496"/>
+      <c r="N3" s="496"/>
+      <c r="O3" s="496"/>
+      <c r="P3" s="496"/>
     </row>
     <row r="4" spans="1:17" s="269" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="486" t="s">
+      <c r="A4" s="496" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="486"/>
-      <c r="C4" s="486"/>
-      <c r="D4" s="486"/>
-      <c r="E4" s="486"/>
-      <c r="F4" s="486"/>
-      <c r="G4" s="486"/>
-      <c r="H4" s="486"/>
-      <c r="I4" s="486"/>
-      <c r="J4" s="486"/>
-      <c r="K4" s="486"/>
-      <c r="L4" s="486"/>
-      <c r="M4" s="486"/>
-      <c r="N4" s="486"/>
-      <c r="O4" s="486"/>
-      <c r="P4" s="486"/>
+      <c r="B4" s="496"/>
+      <c r="C4" s="496"/>
+      <c r="D4" s="496"/>
+      <c r="E4" s="496"/>
+      <c r="F4" s="496"/>
+      <c r="G4" s="496"/>
+      <c r="H4" s="496"/>
+      <c r="I4" s="496"/>
+      <c r="J4" s="496"/>
+      <c r="K4" s="496"/>
+      <c r="L4" s="496"/>
+      <c r="M4" s="496"/>
+      <c r="N4" s="496"/>
+      <c r="O4" s="496"/>
+      <c r="P4" s="496"/>
     </row>
     <row r="5" spans="1:17" s="269" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="486"/>
-      <c r="B5" s="486"/>
-      <c r="C5" s="486"/>
-      <c r="D5" s="486"/>
-      <c r="E5" s="486"/>
-      <c r="F5" s="486"/>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
-      <c r="I5" s="486"/>
-      <c r="J5" s="486"/>
-      <c r="K5" s="487"/>
-      <c r="L5" s="487"/>
+      <c r="A5" s="496"/>
+      <c r="B5" s="496"/>
+      <c r="C5" s="496"/>
+      <c r="D5" s="496"/>
+      <c r="E5" s="496"/>
+      <c r="F5" s="496"/>
+      <c r="G5" s="496"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="496"/>
+      <c r="J5" s="496"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="497"/>
       <c r="M5" s="270"/>
       <c r="N5" s="270"/>
       <c r="O5" s="270"/>
     </row>
     <row r="6" spans="1:17" s="277" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="488" t="s">
+      <c r="A6" s="489" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="490" t="s">
+      <c r="B6" s="498" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="488" t="s">
+      <c r="C6" s="489" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="494" t="s">
+      <c r="D6" s="502" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="494"/>
-      <c r="F6" s="495" t="s">
+      <c r="E6" s="502"/>
+      <c r="F6" s="503" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="495"/>
-      <c r="H6" s="495"/>
-      <c r="I6" s="495"/>
-      <c r="J6" s="495"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="495"/>
-      <c r="M6" s="496"/>
-      <c r="N6" s="496"/>
-      <c r="O6" s="496"/>
-      <c r="P6" s="497" t="s">
+      <c r="G6" s="503"/>
+      <c r="H6" s="503"/>
+      <c r="I6" s="503"/>
+      <c r="J6" s="503"/>
+      <c r="K6" s="503"/>
+      <c r="L6" s="503"/>
+      <c r="M6" s="504"/>
+      <c r="N6" s="504"/>
+      <c r="O6" s="504"/>
+      <c r="P6" s="505" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="277" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="489"/>
-      <c r="B7" s="491"/>
-      <c r="C7" s="489"/>
-      <c r="D7" s="488" t="s">
+      <c r="A7" s="490"/>
+      <c r="B7" s="499"/>
+      <c r="C7" s="490"/>
+      <c r="D7" s="489" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="488" t="s">
+      <c r="E7" s="489" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="488" t="s">
+      <c r="F7" s="489" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="488" t="s">
+      <c r="G7" s="489" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="492" t="s">
+      <c r="H7" s="500" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="492" t="s">
+      <c r="I7" s="500" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="499" t="s">
+      <c r="J7" s="507" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="499"/>
-      <c r="L7" s="492" t="s">
+      <c r="K7" s="507"/>
+      <c r="L7" s="500" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="492" t="s">
+      <c r="M7" s="500" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="492" t="s">
+      <c r="N7" s="500" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="492" t="s">
+      <c r="O7" s="500" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="498"/>
+      <c r="P7" s="506"/>
     </row>
     <row r="8" spans="1:17" s="277" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="489"/>
-      <c r="B8" s="491"/>
-      <c r="C8" s="489"/>
-      <c r="D8" s="489"/>
-      <c r="E8" s="489"/>
-      <c r="F8" s="489"/>
-      <c r="G8" s="489"/>
-      <c r="H8" s="493"/>
-      <c r="I8" s="493"/>
+      <c r="A8" s="490"/>
+      <c r="B8" s="499"/>
+      <c r="C8" s="490"/>
+      <c r="D8" s="490"/>
+      <c r="E8" s="490"/>
+      <c r="F8" s="490"/>
+      <c r="G8" s="490"/>
+      <c r="H8" s="501"/>
+      <c r="I8" s="501"/>
       <c r="J8" s="278" t="s">
         <v>84</v>
       </c>
       <c r="K8" s="279" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="493"/>
-      <c r="M8" s="493"/>
-      <c r="N8" s="493"/>
-      <c r="O8" s="493"/>
-      <c r="P8" s="498"/>
+      <c r="L8" s="501"/>
+      <c r="M8" s="501"/>
+      <c r="N8" s="501"/>
+      <c r="O8" s="501"/>
+      <c r="P8" s="506"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="208">
@@ -6824,17 +6845,17 @@
       <c r="P9" s="208"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="460">
+      <c r="A10" s="468">
         <v>630</v>
       </c>
-      <c r="B10" s="482">
+      <c r="B10" s="465">
         <v>44044</v>
       </c>
-      <c r="C10" s="460" t="s">
+      <c r="C10" s="468" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="460"/>
-      <c r="E10" s="460"/>
+      <c r="D10" s="468"/>
+      <c r="E10" s="468"/>
       <c r="F10" s="373" t="s">
         <v>185</v>
       </c>
@@ -6865,11 +6886,11 @@
       <c r="P10" s="373"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="461"/>
-      <c r="B11" s="483"/>
-      <c r="C11" s="461"/>
-      <c r="D11" s="461"/>
-      <c r="E11" s="461"/>
+      <c r="A11" s="469"/>
+      <c r="B11" s="466"/>
+      <c r="C11" s="469"/>
+      <c r="D11" s="469"/>
+      <c r="E11" s="469"/>
       <c r="F11" s="374" t="s">
         <v>186</v>
       </c>
@@ -6900,11 +6921,11 @@
       <c r="P11" s="196"/>
     </row>
     <row r="12" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="461"/>
-      <c r="B12" s="483"/>
-      <c r="C12" s="461"/>
-      <c r="D12" s="461"/>
-      <c r="E12" s="461"/>
+      <c r="A12" s="469"/>
+      <c r="B12" s="466"/>
+      <c r="C12" s="469"/>
+      <c r="D12" s="469"/>
+      <c r="E12" s="469"/>
       <c r="F12" s="374" t="s">
         <v>183</v>
       </c>
@@ -6936,11 +6957,11 @@
       <c r="Q12" s="283"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="462"/>
-      <c r="B13" s="484"/>
-      <c r="C13" s="462"/>
-      <c r="D13" s="462"/>
-      <c r="E13" s="462"/>
+      <c r="A13" s="470"/>
+      <c r="B13" s="467"/>
+      <c r="C13" s="470"/>
+      <c r="D13" s="470"/>
+      <c r="E13" s="470"/>
       <c r="F13" s="375" t="s">
         <v>187</v>
       </c>
@@ -7057,17 +7078,17 @@
       <c r="P15" s="285"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="460">
+      <c r="A16" s="468">
         <v>635</v>
       </c>
-      <c r="B16" s="482">
+      <c r="B16" s="465">
         <v>44047</v>
       </c>
-      <c r="C16" s="460"/>
-      <c r="D16" s="479" t="s">
+      <c r="C16" s="468"/>
+      <c r="D16" s="471" t="s">
         <v>192</v>
       </c>
-      <c r="E16" s="479" t="s">
+      <c r="E16" s="471" t="s">
         <v>193</v>
       </c>
       <c r="F16" s="373" t="s">
@@ -7100,11 +7121,11 @@
       <c r="P16" s="376"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="462"/>
-      <c r="B17" s="484"/>
-      <c r="C17" s="462"/>
-      <c r="D17" s="481"/>
-      <c r="E17" s="481"/>
+      <c r="A17" s="470"/>
+      <c r="B17" s="467"/>
+      <c r="C17" s="470"/>
+      <c r="D17" s="473"/>
+      <c r="E17" s="473"/>
       <c r="F17" s="375" t="s">
         <v>186</v>
       </c>
@@ -7135,19 +7156,19 @@
       <c r="P17" s="378"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="460">
+      <c r="A18" s="468">
         <v>637</v>
       </c>
-      <c r="B18" s="482">
+      <c r="B18" s="465">
         <v>44048</v>
       </c>
-      <c r="C18" s="460" t="s">
+      <c r="C18" s="468" t="s">
         <v>194</v>
       </c>
-      <c r="D18" s="479" t="s">
+      <c r="D18" s="471" t="s">
         <v>195</v>
       </c>
-      <c r="E18" s="479"/>
+      <c r="E18" s="471"/>
       <c r="F18" s="373" t="s">
         <v>185</v>
       </c>
@@ -7178,11 +7199,11 @@
       <c r="P18" s="376"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="461"/>
-      <c r="B19" s="483"/>
-      <c r="C19" s="461"/>
-      <c r="D19" s="480"/>
-      <c r="E19" s="480"/>
+      <c r="A19" s="469"/>
+      <c r="B19" s="466"/>
+      <c r="C19" s="469"/>
+      <c r="D19" s="472"/>
+      <c r="E19" s="472"/>
       <c r="F19" s="374" t="s">
         <v>186</v>
       </c>
@@ -7213,11 +7234,11 @@
       <c r="P19" s="377"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="461"/>
-      <c r="B20" s="483"/>
-      <c r="C20" s="461"/>
-      <c r="D20" s="480"/>
-      <c r="E20" s="480"/>
+      <c r="A20" s="469"/>
+      <c r="B20" s="466"/>
+      <c r="C20" s="469"/>
+      <c r="D20" s="472"/>
+      <c r="E20" s="472"/>
       <c r="F20" s="374" t="s">
         <v>196</v>
       </c>
@@ -7248,11 +7269,11 @@
       <c r="P20" s="377"/>
     </row>
     <row r="21" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="461"/>
-      <c r="B21" s="483"/>
-      <c r="C21" s="461"/>
-      <c r="D21" s="480"/>
-      <c r="E21" s="480"/>
+      <c r="A21" s="469"/>
+      <c r="B21" s="466"/>
+      <c r="C21" s="469"/>
+      <c r="D21" s="472"/>
+      <c r="E21" s="472"/>
       <c r="F21" s="374" t="s">
         <v>183</v>
       </c>
@@ -7283,11 +7304,11 @@
       <c r="P21" s="377"/>
     </row>
     <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="461"/>
-      <c r="B22" s="483"/>
-      <c r="C22" s="461"/>
-      <c r="D22" s="480"/>
-      <c r="E22" s="480"/>
+      <c r="A22" s="469"/>
+      <c r="B22" s="466"/>
+      <c r="C22" s="469"/>
+      <c r="D22" s="472"/>
+      <c r="E22" s="472"/>
       <c r="F22" s="374" t="s">
         <v>187</v>
       </c>
@@ -7319,11 +7340,11 @@
       <c r="R22" s="283"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="461"/>
-      <c r="B23" s="483"/>
-      <c r="C23" s="461"/>
-      <c r="D23" s="480"/>
-      <c r="E23" s="480"/>
+      <c r="A23" s="469"/>
+      <c r="B23" s="466"/>
+      <c r="C23" s="469"/>
+      <c r="D23" s="472"/>
+      <c r="E23" s="472"/>
       <c r="F23" s="374" t="s">
         <v>189</v>
       </c>
@@ -7354,11 +7375,11 @@
       <c r="P23" s="374"/>
     </row>
     <row r="24" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="461"/>
-      <c r="B24" s="483"/>
-      <c r="C24" s="461"/>
-      <c r="D24" s="480"/>
-      <c r="E24" s="480"/>
+      <c r="A24" s="469"/>
+      <c r="B24" s="466"/>
+      <c r="C24" s="469"/>
+      <c r="D24" s="472"/>
+      <c r="E24" s="472"/>
       <c r="F24" s="374" t="s">
         <v>197</v>
       </c>
@@ -7389,11 +7410,11 @@
       <c r="P24" s="374"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="462"/>
-      <c r="B25" s="484"/>
-      <c r="C25" s="462"/>
-      <c r="D25" s="481"/>
-      <c r="E25" s="481"/>
+      <c r="A25" s="470"/>
+      <c r="B25" s="467"/>
+      <c r="C25" s="470"/>
+      <c r="D25" s="473"/>
+      <c r="E25" s="473"/>
       <c r="F25" s="375" t="s">
         <v>198</v>
       </c>
@@ -7424,19 +7445,19 @@
       <c r="P25" s="375"/>
     </row>
     <row r="26" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="460">
+      <c r="A26" s="468">
         <v>638</v>
       </c>
-      <c r="B26" s="482">
+      <c r="B26" s="465">
         <v>44048</v>
       </c>
-      <c r="C26" s="460" t="s">
+      <c r="C26" s="468" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="460" t="s">
+      <c r="D26" s="468" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="460" t="s">
+      <c r="E26" s="468" t="s">
         <v>201</v>
       </c>
       <c r="F26" s="373" t="s">
@@ -7469,11 +7490,11 @@
       <c r="P26" s="373"/>
     </row>
     <row r="27" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="461"/>
-      <c r="B27" s="483"/>
-      <c r="C27" s="461"/>
-      <c r="D27" s="461"/>
-      <c r="E27" s="461"/>
+      <c r="A27" s="469"/>
+      <c r="B27" s="466"/>
+      <c r="C27" s="469"/>
+      <c r="D27" s="469"/>
+      <c r="E27" s="469"/>
       <c r="F27" s="374" t="s">
         <v>185</v>
       </c>
@@ -7504,11 +7525,11 @@
       <c r="P27" s="374"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="461"/>
-      <c r="B28" s="483"/>
-      <c r="C28" s="461"/>
-      <c r="D28" s="461"/>
-      <c r="E28" s="461"/>
+      <c r="A28" s="469"/>
+      <c r="B28" s="466"/>
+      <c r="C28" s="469"/>
+      <c r="D28" s="469"/>
+      <c r="E28" s="469"/>
       <c r="F28" s="374" t="s">
         <v>186</v>
       </c>
@@ -7539,11 +7560,11 @@
       <c r="P28" s="377"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="461"/>
-      <c r="B29" s="483"/>
-      <c r="C29" s="461"/>
-      <c r="D29" s="461"/>
-      <c r="E29" s="461"/>
+      <c r="A29" s="469"/>
+      <c r="B29" s="466"/>
+      <c r="C29" s="469"/>
+      <c r="D29" s="469"/>
+      <c r="E29" s="469"/>
       <c r="F29" s="374" t="s">
         <v>196</v>
       </c>
@@ -7574,11 +7595,11 @@
       <c r="P29" s="374"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="461"/>
-      <c r="B30" s="483"/>
-      <c r="C30" s="461"/>
-      <c r="D30" s="461"/>
-      <c r="E30" s="461"/>
+      <c r="A30" s="469"/>
+      <c r="B30" s="466"/>
+      <c r="C30" s="469"/>
+      <c r="D30" s="469"/>
+      <c r="E30" s="469"/>
       <c r="F30" s="374" t="s">
         <v>183</v>
       </c>
@@ -7609,11 +7630,11 @@
       <c r="P30" s="374"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="461"/>
-      <c r="B31" s="483"/>
-      <c r="C31" s="461"/>
-      <c r="D31" s="461"/>
-      <c r="E31" s="461"/>
+      <c r="A31" s="469"/>
+      <c r="B31" s="466"/>
+      <c r="C31" s="469"/>
+      <c r="D31" s="469"/>
+      <c r="E31" s="469"/>
       <c r="F31" s="374" t="s">
         <v>187</v>
       </c>
@@ -7644,11 +7665,11 @@
       <c r="P31" s="374"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="462"/>
-      <c r="B32" s="484"/>
-      <c r="C32" s="462"/>
-      <c r="D32" s="462"/>
-      <c r="E32" s="462"/>
+      <c r="A32" s="470"/>
+      <c r="B32" s="467"/>
+      <c r="C32" s="470"/>
+      <c r="D32" s="470"/>
+      <c r="E32" s="470"/>
       <c r="F32" s="375" t="s">
         <v>198</v>
       </c>
@@ -7679,19 +7700,19 @@
       <c r="P32" s="204"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="463">
+      <c r="A33" s="474">
         <v>639</v>
       </c>
-      <c r="B33" s="475">
+      <c r="B33" s="476">
         <v>44055</v>
       </c>
-      <c r="C33" s="463" t="s">
+      <c r="C33" s="474" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="473" t="s">
+      <c r="D33" s="478" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="463"/>
+      <c r="E33" s="474"/>
       <c r="F33" s="381" t="s">
         <v>183</v>
       </c>
@@ -7722,11 +7743,11 @@
       <c r="P33" s="398"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="465"/>
-      <c r="B34" s="476"/>
-      <c r="C34" s="465"/>
-      <c r="D34" s="474"/>
-      <c r="E34" s="465"/>
+      <c r="A34" s="480"/>
+      <c r="B34" s="508"/>
+      <c r="C34" s="480"/>
+      <c r="D34" s="493"/>
+      <c r="E34" s="480"/>
       <c r="F34" s="317" t="s">
         <v>198</v>
       </c>
@@ -7757,19 +7778,19 @@
       <c r="P34" s="204"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="463">
+      <c r="A35" s="474">
         <v>640</v>
       </c>
-      <c r="B35" s="475">
+      <c r="B35" s="476">
         <v>44055</v>
       </c>
-      <c r="C35" s="463" t="s">
+      <c r="C35" s="474" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="473" t="s">
+      <c r="D35" s="478" t="s">
         <v>204</v>
       </c>
-      <c r="E35" s="463" t="s">
+      <c r="E35" s="474" t="s">
         <v>205</v>
       </c>
       <c r="F35" s="310" t="s">
@@ -7802,11 +7823,11 @@
       <c r="P35" s="310"/>
     </row>
     <row r="36" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="464"/>
-      <c r="B36" s="478"/>
-      <c r="C36" s="464"/>
-      <c r="D36" s="477"/>
-      <c r="E36" s="464"/>
+      <c r="A36" s="475"/>
+      <c r="B36" s="477"/>
+      <c r="C36" s="475"/>
+      <c r="D36" s="479"/>
+      <c r="E36" s="475"/>
       <c r="F36" s="382" t="s">
         <v>198</v>
       </c>
@@ -7837,19 +7858,19 @@
       <c r="P36" s="382"/>
     </row>
     <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="460">
+      <c r="A37" s="468">
         <v>641</v>
       </c>
-      <c r="B37" s="482">
+      <c r="B37" s="465">
         <v>44055</v>
       </c>
-      <c r="C37" s="460" t="s">
+      <c r="C37" s="468" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="479" t="s">
+      <c r="D37" s="471" t="s">
         <v>207</v>
       </c>
-      <c r="E37" s="460" t="s">
+      <c r="E37" s="468" t="s">
         <v>206</v>
       </c>
       <c r="F37" s="373" t="s">
@@ -7882,11 +7903,11 @@
       <c r="P37" s="373"/>
     </row>
     <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="461"/>
-      <c r="B38" s="483"/>
-      <c r="C38" s="461"/>
-      <c r="D38" s="480"/>
-      <c r="E38" s="461"/>
+      <c r="A38" s="469"/>
+      <c r="B38" s="466"/>
+      <c r="C38" s="469"/>
+      <c r="D38" s="472"/>
+      <c r="E38" s="469"/>
       <c r="F38" s="374" t="s">
         <v>185</v>
       </c>
@@ -7917,11 +7938,11 @@
       <c r="P38" s="374"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="461"/>
-      <c r="B39" s="483"/>
-      <c r="C39" s="461"/>
-      <c r="D39" s="480"/>
-      <c r="E39" s="461"/>
+      <c r="A39" s="469"/>
+      <c r="B39" s="466"/>
+      <c r="C39" s="469"/>
+      <c r="D39" s="472"/>
+      <c r="E39" s="469"/>
       <c r="F39" s="374" t="s">
         <v>186</v>
       </c>
@@ -7952,11 +7973,11 @@
       <c r="P39" s="374"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="461"/>
-      <c r="B40" s="483"/>
-      <c r="C40" s="461"/>
-      <c r="D40" s="480"/>
-      <c r="E40" s="461"/>
+      <c r="A40" s="469"/>
+      <c r="B40" s="466"/>
+      <c r="C40" s="469"/>
+      <c r="D40" s="472"/>
+      <c r="E40" s="469"/>
       <c r="F40" s="374" t="s">
         <v>196</v>
       </c>
@@ -7987,11 +8008,11 @@
       <c r="P40" s="374"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="461"/>
-      <c r="B41" s="483"/>
-      <c r="C41" s="461"/>
-      <c r="D41" s="480"/>
-      <c r="E41" s="461"/>
+      <c r="A41" s="469"/>
+      <c r="B41" s="466"/>
+      <c r="C41" s="469"/>
+      <c r="D41" s="472"/>
+      <c r="E41" s="469"/>
       <c r="F41" s="374" t="s">
         <v>183</v>
       </c>
@@ -8022,11 +8043,11 @@
       <c r="P41" s="374"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="461"/>
-      <c r="B42" s="483"/>
-      <c r="C42" s="461"/>
-      <c r="D42" s="480"/>
-      <c r="E42" s="461"/>
+      <c r="A42" s="469"/>
+      <c r="B42" s="466"/>
+      <c r="C42" s="469"/>
+      <c r="D42" s="472"/>
+      <c r="E42" s="469"/>
       <c r="F42" s="374" t="s">
         <v>187</v>
       </c>
@@ -8057,11 +8078,11 @@
       <c r="P42" s="374"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="461"/>
-      <c r="B43" s="483"/>
-      <c r="C43" s="461"/>
-      <c r="D43" s="480"/>
-      <c r="E43" s="461"/>
+      <c r="A43" s="469"/>
+      <c r="B43" s="466"/>
+      <c r="C43" s="469"/>
+      <c r="D43" s="472"/>
+      <c r="E43" s="469"/>
       <c r="F43" s="374" t="s">
         <v>189</v>
       </c>
@@ -8092,11 +8113,11 @@
       <c r="P43" s="374"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="461"/>
-      <c r="B44" s="483"/>
-      <c r="C44" s="461"/>
-      <c r="D44" s="480"/>
-      <c r="E44" s="461"/>
+      <c r="A44" s="469"/>
+      <c r="B44" s="466"/>
+      <c r="C44" s="469"/>
+      <c r="D44" s="472"/>
+      <c r="E44" s="469"/>
       <c r="F44" s="374" t="s">
         <v>197</v>
       </c>
@@ -8127,11 +8148,11 @@
       <c r="P44" s="374"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="462"/>
-      <c r="B45" s="484"/>
-      <c r="C45" s="462"/>
-      <c r="D45" s="481"/>
-      <c r="E45" s="462"/>
+      <c r="A45" s="470"/>
+      <c r="B45" s="467"/>
+      <c r="C45" s="470"/>
+      <c r="D45" s="473"/>
+      <c r="E45" s="470"/>
       <c r="F45" s="375" t="s">
         <v>198</v>
       </c>
@@ -8207,19 +8228,19 @@
       <c r="P46" s="379"/>
     </row>
     <row r="47" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="460">
+      <c r="A47" s="468">
         <v>645</v>
       </c>
-      <c r="B47" s="482">
+      <c r="B47" s="465">
         <v>44056</v>
       </c>
-      <c r="C47" s="460" t="s">
+      <c r="C47" s="468" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="479" t="s">
+      <c r="D47" s="471" t="s">
         <v>207</v>
       </c>
-      <c r="E47" s="460" t="s">
+      <c r="E47" s="468" t="s">
         <v>206</v>
       </c>
       <c r="F47" s="373" t="s">
@@ -8253,11 +8274,11 @@
       <c r="Q47" s="283"/>
     </row>
     <row r="48" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="461"/>
-      <c r="B48" s="483"/>
-      <c r="C48" s="461"/>
-      <c r="D48" s="480"/>
-      <c r="E48" s="461"/>
+      <c r="A48" s="469"/>
+      <c r="B48" s="466"/>
+      <c r="C48" s="469"/>
+      <c r="D48" s="472"/>
+      <c r="E48" s="469"/>
       <c r="F48" s="374" t="s">
         <v>186</v>
       </c>
@@ -8289,11 +8310,11 @@
       <c r="Q48" s="283"/>
     </row>
     <row r="49" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="461"/>
-      <c r="B49" s="483"/>
-      <c r="C49" s="461"/>
-      <c r="D49" s="480"/>
-      <c r="E49" s="461"/>
+      <c r="A49" s="469"/>
+      <c r="B49" s="466"/>
+      <c r="C49" s="469"/>
+      <c r="D49" s="472"/>
+      <c r="E49" s="469"/>
       <c r="F49" s="374" t="s">
         <v>196</v>
       </c>
@@ -8325,11 +8346,11 @@
       <c r="Q49" s="283"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="461"/>
-      <c r="B50" s="483"/>
-      <c r="C50" s="461"/>
-      <c r="D50" s="480"/>
-      <c r="E50" s="461"/>
+      <c r="A50" s="469"/>
+      <c r="B50" s="466"/>
+      <c r="C50" s="469"/>
+      <c r="D50" s="472"/>
+      <c r="E50" s="469"/>
       <c r="F50" s="374" t="s">
         <v>187</v>
       </c>
@@ -8361,11 +8382,11 @@
       <c r="Q50" s="283"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="461"/>
-      <c r="B51" s="483"/>
-      <c r="C51" s="461"/>
-      <c r="D51" s="480"/>
-      <c r="E51" s="461"/>
+      <c r="A51" s="469"/>
+      <c r="B51" s="466"/>
+      <c r="C51" s="469"/>
+      <c r="D51" s="472"/>
+      <c r="E51" s="469"/>
       <c r="F51" s="374" t="s">
         <v>189</v>
       </c>
@@ -8397,11 +8418,11 @@
       <c r="Q51" s="283"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="461"/>
-      <c r="B52" s="483"/>
-      <c r="C52" s="461"/>
-      <c r="D52" s="480"/>
-      <c r="E52" s="461"/>
+      <c r="A52" s="469"/>
+      <c r="B52" s="466"/>
+      <c r="C52" s="469"/>
+      <c r="D52" s="472"/>
+      <c r="E52" s="469"/>
       <c r="F52" s="374" t="s">
         <v>197</v>
       </c>
@@ -8433,11 +8454,11 @@
       <c r="Q52" s="283"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="462"/>
-      <c r="B53" s="484"/>
-      <c r="C53" s="462"/>
-      <c r="D53" s="481"/>
-      <c r="E53" s="462"/>
+      <c r="A53" s="470"/>
+      <c r="B53" s="467"/>
+      <c r="C53" s="470"/>
+      <c r="D53" s="473"/>
+      <c r="E53" s="470"/>
       <c r="F53" s="375" t="s">
         <v>198</v>
       </c>
@@ -8469,17 +8490,17 @@
       <c r="Q53" s="283"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="463">
+      <c r="A54" s="474">
         <v>646</v>
       </c>
-      <c r="B54" s="475">
+      <c r="B54" s="476">
         <v>44053</v>
       </c>
-      <c r="C54" s="463" t="s">
+      <c r="C54" s="474" t="s">
         <v>184</v>
       </c>
-      <c r="D54" s="473"/>
-      <c r="E54" s="463"/>
+      <c r="D54" s="478"/>
+      <c r="E54" s="474"/>
       <c r="F54" s="282" t="s">
         <v>185</v>
       </c>
@@ -8511,11 +8532,11 @@
       <c r="Q54" s="283"/>
     </row>
     <row r="55" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="464"/>
-      <c r="B55" s="478"/>
-      <c r="C55" s="464"/>
-      <c r="D55" s="477"/>
-      <c r="E55" s="464"/>
+      <c r="A55" s="475"/>
+      <c r="B55" s="477"/>
+      <c r="C55" s="475"/>
+      <c r="D55" s="479"/>
+      <c r="E55" s="475"/>
       <c r="F55" s="382" t="s">
         <v>186</v>
       </c>
@@ -8589,19 +8610,19 @@
       <c r="Q56" s="283"/>
     </row>
     <row r="57" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="460">
+      <c r="A57" s="468">
         <v>647</v>
       </c>
-      <c r="B57" s="482">
+      <c r="B57" s="465">
         <v>44056</v>
       </c>
-      <c r="C57" s="460" t="s">
+      <c r="C57" s="468" t="s">
         <v>180</v>
       </c>
-      <c r="D57" s="479" t="s">
+      <c r="D57" s="471" t="s">
         <v>210</v>
       </c>
-      <c r="E57" s="460" t="s">
+      <c r="E57" s="468" t="s">
         <v>211</v>
       </c>
       <c r="F57" s="373" t="s">
@@ -8631,17 +8652,17 @@
       </c>
       <c r="N57" s="311"/>
       <c r="O57" s="311"/>
-      <c r="P57" s="479" t="s">
+      <c r="P57" s="471" t="s">
         <v>212</v>
       </c>
       <c r="Q57" s="283"/>
     </row>
     <row r="58" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="462"/>
-      <c r="B58" s="484"/>
-      <c r="C58" s="462"/>
-      <c r="D58" s="481"/>
-      <c r="E58" s="462"/>
+      <c r="A58" s="470"/>
+      <c r="B58" s="467"/>
+      <c r="C58" s="470"/>
+      <c r="D58" s="473"/>
+      <c r="E58" s="470"/>
       <c r="F58" s="375" t="s">
         <v>186</v>
       </c>
@@ -8669,23 +8690,23 @@
       </c>
       <c r="N58" s="318"/>
       <c r="O58" s="318"/>
-      <c r="P58" s="481"/>
+      <c r="P58" s="473"/>
       <c r="Q58" s="283"/>
     </row>
     <row r="59" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="460">
+      <c r="A59" s="468">
         <v>650</v>
       </c>
-      <c r="B59" s="482">
+      <c r="B59" s="465">
         <v>44057</v>
       </c>
-      <c r="C59" s="460" t="s">
+      <c r="C59" s="468" t="s">
         <v>200</v>
       </c>
-      <c r="D59" s="479" t="s">
+      <c r="D59" s="471" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="460" t="s">
+      <c r="E59" s="468" t="s">
         <v>206</v>
       </c>
       <c r="F59" s="373" t="s">
@@ -8719,11 +8740,11 @@
       <c r="Q59" s="283"/>
     </row>
     <row r="60" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="461"/>
-      <c r="B60" s="483"/>
-      <c r="C60" s="461"/>
-      <c r="D60" s="480"/>
-      <c r="E60" s="461"/>
+      <c r="A60" s="469"/>
+      <c r="B60" s="466"/>
+      <c r="C60" s="469"/>
+      <c r="D60" s="472"/>
+      <c r="E60" s="469"/>
       <c r="F60" s="374" t="s">
         <v>186</v>
       </c>
@@ -8755,11 +8776,11 @@
       <c r="Q60" s="283"/>
     </row>
     <row r="61" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="461"/>
-      <c r="B61" s="483"/>
-      <c r="C61" s="461"/>
-      <c r="D61" s="480"/>
-      <c r="E61" s="461"/>
+      <c r="A61" s="469"/>
+      <c r="B61" s="466"/>
+      <c r="C61" s="469"/>
+      <c r="D61" s="472"/>
+      <c r="E61" s="469"/>
       <c r="F61" s="374" t="s">
         <v>196</v>
       </c>
@@ -8791,11 +8812,11 @@
       <c r="Q61" s="283"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="461"/>
-      <c r="B62" s="483"/>
-      <c r="C62" s="461"/>
-      <c r="D62" s="480"/>
-      <c r="E62" s="461"/>
+      <c r="A62" s="469"/>
+      <c r="B62" s="466"/>
+      <c r="C62" s="469"/>
+      <c r="D62" s="472"/>
+      <c r="E62" s="469"/>
       <c r="F62" s="374" t="s">
         <v>183</v>
       </c>
@@ -8827,11 +8848,11 @@
       <c r="Q62" s="283"/>
     </row>
     <row r="63" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="461"/>
-      <c r="B63" s="483"/>
-      <c r="C63" s="461"/>
-      <c r="D63" s="480"/>
-      <c r="E63" s="461"/>
+      <c r="A63" s="469"/>
+      <c r="B63" s="466"/>
+      <c r="C63" s="469"/>
+      <c r="D63" s="472"/>
+      <c r="E63" s="469"/>
       <c r="F63" s="374" t="s">
         <v>197</v>
       </c>
@@ -8863,11 +8884,11 @@
       <c r="Q63" s="283"/>
     </row>
     <row r="64" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="462"/>
-      <c r="B64" s="484"/>
-      <c r="C64" s="462"/>
-      <c r="D64" s="481"/>
-      <c r="E64" s="462"/>
+      <c r="A64" s="470"/>
+      <c r="B64" s="467"/>
+      <c r="C64" s="470"/>
+      <c r="D64" s="473"/>
+      <c r="E64" s="470"/>
       <c r="F64" s="375" t="s">
         <v>198</v>
       </c>
@@ -8899,17 +8920,17 @@
       <c r="Q64" s="283"/>
     </row>
     <row r="65" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="460">
+      <c r="A65" s="468">
         <v>751</v>
       </c>
-      <c r="B65" s="482">
+      <c r="B65" s="465">
         <v>44060</v>
       </c>
-      <c r="C65" s="460"/>
-      <c r="D65" s="479" t="s">
+      <c r="C65" s="468"/>
+      <c r="D65" s="471" t="s">
         <v>213</v>
       </c>
-      <c r="E65" s="460" t="s">
+      <c r="E65" s="468" t="s">
         <v>214</v>
       </c>
       <c r="F65" s="373" t="s">
@@ -8945,11 +8966,11 @@
       <c r="Q65" s="283"/>
     </row>
     <row r="66" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="461"/>
-      <c r="B66" s="483"/>
-      <c r="C66" s="461"/>
-      <c r="D66" s="480"/>
-      <c r="E66" s="461"/>
+      <c r="A66" s="469"/>
+      <c r="B66" s="466"/>
+      <c r="C66" s="469"/>
+      <c r="D66" s="472"/>
+      <c r="E66" s="469"/>
       <c r="F66" s="374" t="s">
         <v>185</v>
       </c>
@@ -8980,11 +9001,11 @@
       <c r="P66" s="200"/>
     </row>
     <row r="67" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="461"/>
-      <c r="B67" s="483"/>
-      <c r="C67" s="461"/>
-      <c r="D67" s="480"/>
-      <c r="E67" s="461"/>
+      <c r="A67" s="469"/>
+      <c r="B67" s="466"/>
+      <c r="C67" s="469"/>
+      <c r="D67" s="472"/>
+      <c r="E67" s="469"/>
       <c r="F67" s="374" t="s">
         <v>183</v>
       </c>
@@ -9015,11 +9036,11 @@
       <c r="P67" s="200"/>
     </row>
     <row r="68" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="462"/>
-      <c r="B68" s="484"/>
-      <c r="C68" s="462"/>
-      <c r="D68" s="481"/>
-      <c r="E68" s="462"/>
+      <c r="A68" s="470"/>
+      <c r="B68" s="467"/>
+      <c r="C68" s="470"/>
+      <c r="D68" s="473"/>
+      <c r="E68" s="470"/>
       <c r="F68" s="375" t="s">
         <v>198</v>
       </c>
@@ -9140,17 +9161,17 @@
       <c r="P70" s="136"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="460">
+      <c r="A71" s="468">
         <v>757</v>
       </c>
-      <c r="B71" s="469">
+      <c r="B71" s="484">
         <v>44061</v>
       </c>
-      <c r="C71" s="460"/>
-      <c r="D71" s="460" t="s">
+      <c r="C71" s="468"/>
+      <c r="D71" s="468" t="s">
         <v>219</v>
       </c>
-      <c r="E71" s="460" t="s">
+      <c r="E71" s="468" t="s">
         <v>220</v>
       </c>
       <c r="F71" s="373" t="s">
@@ -9183,11 +9204,11 @@
       <c r="P71" s="195"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="461"/>
-      <c r="B72" s="470"/>
-      <c r="C72" s="461"/>
-      <c r="D72" s="461"/>
-      <c r="E72" s="461"/>
+      <c r="A72" s="469"/>
+      <c r="B72" s="485"/>
+      <c r="C72" s="469"/>
+      <c r="D72" s="469"/>
+      <c r="E72" s="469"/>
       <c r="F72" s="374" t="s">
         <v>186</v>
       </c>
@@ -9218,11 +9239,11 @@
       <c r="P72" s="200"/>
     </row>
     <row r="73" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="461"/>
-      <c r="B73" s="470"/>
-      <c r="C73" s="461"/>
-      <c r="D73" s="461"/>
-      <c r="E73" s="461"/>
+      <c r="A73" s="469"/>
+      <c r="B73" s="485"/>
+      <c r="C73" s="469"/>
+      <c r="D73" s="469"/>
+      <c r="E73" s="469"/>
       <c r="F73" s="374" t="s">
         <v>196</v>
       </c>
@@ -9253,11 +9274,11 @@
       <c r="P73" s="200"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="461"/>
-      <c r="B74" s="470"/>
-      <c r="C74" s="461"/>
-      <c r="D74" s="461"/>
-      <c r="E74" s="461"/>
+      <c r="A74" s="469"/>
+      <c r="B74" s="485"/>
+      <c r="C74" s="469"/>
+      <c r="D74" s="469"/>
+      <c r="E74" s="469"/>
       <c r="F74" s="374" t="s">
         <v>183</v>
       </c>
@@ -9288,11 +9309,11 @@
       <c r="P74" s="200"/>
     </row>
     <row r="75" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="461"/>
-      <c r="B75" s="470"/>
-      <c r="C75" s="461"/>
-      <c r="D75" s="461"/>
-      <c r="E75" s="461"/>
+      <c r="A75" s="469"/>
+      <c r="B75" s="485"/>
+      <c r="C75" s="469"/>
+      <c r="D75" s="469"/>
+      <c r="E75" s="469"/>
       <c r="F75" s="374" t="s">
         <v>197</v>
       </c>
@@ -9323,11 +9344,11 @@
       <c r="P75" s="374"/>
     </row>
     <row r="76" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="462"/>
-      <c r="B76" s="471"/>
-      <c r="C76" s="462"/>
-      <c r="D76" s="462"/>
-      <c r="E76" s="462"/>
+      <c r="A76" s="470"/>
+      <c r="B76" s="486"/>
+      <c r="C76" s="470"/>
+      <c r="D76" s="470"/>
+      <c r="E76" s="470"/>
       <c r="F76" s="375" t="s">
         <v>198</v>
       </c>
@@ -9358,17 +9379,17 @@
       <c r="P76" s="375"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="463">
+      <c r="A77" s="474">
         <v>761</v>
       </c>
-      <c r="B77" s="466">
+      <c r="B77" s="481">
         <v>44063</v>
       </c>
-      <c r="C77" s="463"/>
-      <c r="D77" s="463" t="s">
+      <c r="C77" s="474"/>
+      <c r="D77" s="474" t="s">
         <v>213</v>
       </c>
-      <c r="E77" s="463" t="s">
+      <c r="E77" s="474" t="s">
         <v>214</v>
       </c>
       <c r="F77" s="345" t="s">
@@ -9403,11 +9424,11 @@
       <c r="P77" s="192"/>
     </row>
     <row r="78" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="464"/>
-      <c r="B78" s="467"/>
-      <c r="C78" s="464"/>
-      <c r="D78" s="464"/>
-      <c r="E78" s="464"/>
+      <c r="A78" s="475"/>
+      <c r="B78" s="482"/>
+      <c r="C78" s="475"/>
+      <c r="D78" s="475"/>
+      <c r="E78" s="475"/>
       <c r="F78" s="382" t="s">
         <v>196</v>
       </c>
@@ -9438,19 +9459,19 @@
       <c r="P78" s="352"/>
     </row>
     <row r="79" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="463">
+      <c r="A79" s="474">
         <v>762</v>
       </c>
-      <c r="B79" s="466">
+      <c r="B79" s="481">
         <v>44063</v>
       </c>
-      <c r="C79" s="463" t="s">
+      <c r="C79" s="474" t="s">
         <v>200</v>
       </c>
-      <c r="D79" s="463" t="s">
+      <c r="D79" s="474" t="s">
         <v>221</v>
       </c>
-      <c r="E79" s="463"/>
+      <c r="E79" s="474"/>
       <c r="F79" s="373" t="s">
         <v>202</v>
       </c>
@@ -9481,11 +9502,11 @@
       <c r="P79" s="192"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="464"/>
-      <c r="B80" s="467"/>
-      <c r="C80" s="464"/>
-      <c r="D80" s="464"/>
-      <c r="E80" s="464"/>
+      <c r="A80" s="475"/>
+      <c r="B80" s="482"/>
+      <c r="C80" s="475"/>
+      <c r="D80" s="475"/>
+      <c r="E80" s="475"/>
       <c r="F80" s="374" t="s">
         <v>185</v>
       </c>
@@ -9516,11 +9537,11 @@
       <c r="P80" s="374"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="464"/>
-      <c r="B81" s="467"/>
-      <c r="C81" s="464"/>
-      <c r="D81" s="464"/>
-      <c r="E81" s="464"/>
+      <c r="A81" s="475"/>
+      <c r="B81" s="482"/>
+      <c r="C81" s="475"/>
+      <c r="D81" s="475"/>
+      <c r="E81" s="475"/>
       <c r="F81" s="375" t="s">
         <v>186</v>
       </c>
@@ -9551,11 +9572,11 @@
       <c r="P81" s="201"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="465"/>
-      <c r="B82" s="468"/>
-      <c r="C82" s="465"/>
-      <c r="D82" s="465"/>
-      <c r="E82" s="465"/>
+      <c r="A82" s="480"/>
+      <c r="B82" s="483"/>
+      <c r="C82" s="480"/>
+      <c r="D82" s="480"/>
+      <c r="E82" s="480"/>
       <c r="F82" s="431" t="s">
         <v>198</v>
       </c>
@@ -9586,17 +9607,17 @@
       <c r="P82" s="387"/>
     </row>
     <row r="83" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="460">
+      <c r="A83" s="468">
         <v>763</v>
       </c>
-      <c r="B83" s="469">
+      <c r="B83" s="484">
         <v>44063</v>
       </c>
-      <c r="C83" s="460"/>
-      <c r="D83" s="460" t="s">
+      <c r="C83" s="468"/>
+      <c r="D83" s="468" t="s">
         <v>192</v>
       </c>
-      <c r="E83" s="460" t="s">
+      <c r="E83" s="468" t="s">
         <v>193</v>
       </c>
       <c r="F83" s="373" t="s">
@@ -9629,11 +9650,11 @@
       <c r="P83" s="192"/>
     </row>
     <row r="84" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="461"/>
-      <c r="B84" s="470"/>
-      <c r="C84" s="461"/>
-      <c r="D84" s="461"/>
-      <c r="E84" s="461"/>
+      <c r="A84" s="469"/>
+      <c r="B84" s="485"/>
+      <c r="C84" s="469"/>
+      <c r="D84" s="469"/>
+      <c r="E84" s="469"/>
       <c r="F84" s="374" t="s">
         <v>185</v>
       </c>
@@ -9664,11 +9685,11 @@
       <c r="P84" s="196"/>
     </row>
     <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="462"/>
-      <c r="B85" s="471"/>
-      <c r="C85" s="462"/>
-      <c r="D85" s="462"/>
-      <c r="E85" s="462"/>
+      <c r="A85" s="470"/>
+      <c r="B85" s="486"/>
+      <c r="C85" s="470"/>
+      <c r="D85" s="470"/>
+      <c r="E85" s="470"/>
       <c r="F85" s="375" t="s">
         <v>183</v>
       </c>
@@ -9699,17 +9720,17 @@
       <c r="P85" s="201"/>
     </row>
     <row r="86" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="463">
+      <c r="A86" s="474">
         <v>764</v>
       </c>
-      <c r="B86" s="466">
+      <c r="B86" s="481">
         <v>44065</v>
       </c>
-      <c r="C86" s="463"/>
-      <c r="D86" s="463" t="s">
+      <c r="C86" s="474"/>
+      <c r="D86" s="474" t="s">
         <v>192</v>
       </c>
-      <c r="E86" s="463" t="s">
+      <c r="E86" s="474" t="s">
         <v>193</v>
       </c>
       <c r="F86" s="381" t="s">
@@ -9742,11 +9763,11 @@
       <c r="P86" s="387"/>
     </row>
     <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="464"/>
-      <c r="B87" s="467"/>
-      <c r="C87" s="464"/>
-      <c r="D87" s="464"/>
-      <c r="E87" s="464"/>
+      <c r="A87" s="475"/>
+      <c r="B87" s="482"/>
+      <c r="C87" s="475"/>
+      <c r="D87" s="475"/>
+      <c r="E87" s="475"/>
       <c r="F87" s="346" t="s">
         <v>186</v>
       </c>
@@ -9777,11 +9798,11 @@
       <c r="P87" s="387"/>
     </row>
     <row r="88" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="464"/>
-      <c r="B88" s="467"/>
-      <c r="C88" s="464"/>
-      <c r="D88" s="464"/>
-      <c r="E88" s="464"/>
+      <c r="A88" s="475"/>
+      <c r="B88" s="482"/>
+      <c r="C88" s="475"/>
+      <c r="D88" s="475"/>
+      <c r="E88" s="475"/>
       <c r="F88" s="346" t="s">
         <v>196</v>
       </c>
@@ -9812,11 +9833,11 @@
       <c r="P88" s="387"/>
     </row>
     <row r="89" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="465"/>
-      <c r="B89" s="468"/>
-      <c r="C89" s="465"/>
-      <c r="D89" s="465"/>
-      <c r="E89" s="465"/>
+      <c r="A89" s="480"/>
+      <c r="B89" s="483"/>
+      <c r="C89" s="480"/>
+      <c r="D89" s="480"/>
+      <c r="E89" s="480"/>
       <c r="F89" s="347" t="s">
         <v>198</v>
       </c>
@@ -9847,17 +9868,17 @@
       <c r="P89" s="391"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="463">
+      <c r="A90" s="474">
         <v>768</v>
       </c>
-      <c r="B90" s="466">
+      <c r="B90" s="481">
         <v>44065</v>
       </c>
-      <c r="C90" s="463"/>
-      <c r="D90" s="463" t="s">
+      <c r="C90" s="474"/>
+      <c r="D90" s="474" t="s">
         <v>237</v>
       </c>
-      <c r="E90" s="463" t="s">
+      <c r="E90" s="474" t="s">
         <v>193</v>
       </c>
       <c r="F90" s="345" t="s">
@@ -9888,11 +9909,11 @@
       <c r="P90" s="386"/>
     </row>
     <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="464"/>
-      <c r="B91" s="467"/>
-      <c r="C91" s="464"/>
-      <c r="D91" s="464"/>
-      <c r="E91" s="464"/>
+      <c r="A91" s="475"/>
+      <c r="B91" s="482"/>
+      <c r="C91" s="475"/>
+      <c r="D91" s="475"/>
+      <c r="E91" s="475"/>
       <c r="F91" s="346" t="s">
         <v>185</v>
       </c>
@@ -9921,11 +9942,11 @@
       <c r="P91" s="387"/>
     </row>
     <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="464"/>
-      <c r="B92" s="467"/>
-      <c r="C92" s="464"/>
-      <c r="D92" s="464"/>
-      <c r="E92" s="464"/>
+      <c r="A92" s="475"/>
+      <c r="B92" s="482"/>
+      <c r="C92" s="475"/>
+      <c r="D92" s="475"/>
+      <c r="E92" s="475"/>
       <c r="F92" s="382" t="s">
         <v>187</v>
       </c>
@@ -9954,16 +9975,16 @@
       <c r="P92" s="387"/>
     </row>
     <row r="93" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="460">
+      <c r="A93" s="468">
         <v>469</v>
       </c>
-      <c r="B93" s="469">
+      <c r="B93" s="484">
         <v>44068</v>
       </c>
-      <c r="C93" s="460" t="s">
+      <c r="C93" s="468" t="s">
         <v>200</v>
       </c>
-      <c r="D93" s="460" t="s">
+      <c r="D93" s="468" t="s">
         <v>221</v>
       </c>
       <c r="E93" s="192"/>
@@ -9997,10 +10018,10 @@
       <c r="P93" s="192"/>
     </row>
     <row r="94" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="461"/>
-      <c r="B94" s="470"/>
-      <c r="C94" s="461"/>
-      <c r="D94" s="461"/>
+      <c r="A94" s="469"/>
+      <c r="B94" s="485"/>
+      <c r="C94" s="469"/>
+      <c r="D94" s="469"/>
       <c r="E94" s="196"/>
       <c r="F94" s="429" t="s">
         <v>185</v>
@@ -10032,10 +10053,10 @@
       <c r="P94" s="196"/>
     </row>
     <row r="95" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="461"/>
-      <c r="B95" s="470"/>
-      <c r="C95" s="461"/>
-      <c r="D95" s="461"/>
+      <c r="A95" s="469"/>
+      <c r="B95" s="485"/>
+      <c r="C95" s="469"/>
+      <c r="D95" s="469"/>
       <c r="E95" s="196"/>
       <c r="F95" s="429" t="s">
         <v>238</v>
@@ -10067,10 +10088,10 @@
       <c r="P95" s="196"/>
     </row>
     <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="461"/>
-      <c r="B96" s="470"/>
-      <c r="C96" s="461"/>
-      <c r="D96" s="461"/>
+      <c r="A96" s="469"/>
+      <c r="B96" s="485"/>
+      <c r="C96" s="469"/>
+      <c r="D96" s="469"/>
       <c r="E96" s="196"/>
       <c r="F96" s="429" t="s">
         <v>183</v>
@@ -10102,10 +10123,10 @@
       <c r="P96" s="196"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="461"/>
-      <c r="B97" s="470"/>
-      <c r="C97" s="461"/>
-      <c r="D97" s="461"/>
+      <c r="A97" s="469"/>
+      <c r="B97" s="485"/>
+      <c r="C97" s="469"/>
+      <c r="D97" s="469"/>
       <c r="E97" s="196"/>
       <c r="F97" s="429" t="s">
         <v>189</v>
@@ -10137,10 +10158,10 @@
       <c r="P97" s="429"/>
     </row>
     <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="462"/>
-      <c r="B98" s="471"/>
-      <c r="C98" s="462"/>
-      <c r="D98" s="462"/>
+      <c r="A98" s="470"/>
+      <c r="B98" s="486"/>
+      <c r="C98" s="470"/>
+      <c r="D98" s="470"/>
       <c r="E98" s="201"/>
       <c r="F98" s="430" t="s">
         <v>198</v>
@@ -10210,11 +10231,11 @@
       <c r="P100" s="347"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="460"/>
-      <c r="B101" s="469"/>
-      <c r="C101" s="460"/>
-      <c r="D101" s="460"/>
-      <c r="E101" s="460"/>
+      <c r="A101" s="468"/>
+      <c r="B101" s="484"/>
+      <c r="C101" s="468"/>
+      <c r="D101" s="468"/>
+      <c r="E101" s="468"/>
       <c r="F101" s="345"/>
       <c r="G101" s="345"/>
       <c r="H101" s="311"/>
@@ -10228,11 +10249,11 @@
       <c r="P101" s="345"/>
     </row>
     <row r="102" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="462"/>
-      <c r="B102" s="471"/>
-      <c r="C102" s="462"/>
-      <c r="D102" s="462"/>
-      <c r="E102" s="462"/>
+      <c r="A102" s="470"/>
+      <c r="B102" s="486"/>
+      <c r="C102" s="470"/>
+      <c r="D102" s="470"/>
+      <c r="E102" s="470"/>
       <c r="F102" s="347"/>
       <c r="G102" s="347"/>
       <c r="H102" s="318"/>
@@ -10246,11 +10267,11 @@
       <c r="P102" s="347"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="460"/>
-      <c r="B103" s="469"/>
-      <c r="C103" s="460"/>
-      <c r="D103" s="460"/>
-      <c r="E103" s="460"/>
+      <c r="A103" s="468"/>
+      <c r="B103" s="484"/>
+      <c r="C103" s="468"/>
+      <c r="D103" s="468"/>
+      <c r="E103" s="468"/>
       <c r="F103" s="357"/>
       <c r="G103" s="357"/>
       <c r="H103" s="311"/>
@@ -10264,11 +10285,11 @@
       <c r="P103" s="357"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="462"/>
-      <c r="B104" s="471"/>
-      <c r="C104" s="462"/>
-      <c r="D104" s="462"/>
-      <c r="E104" s="462"/>
+      <c r="A104" s="470"/>
+      <c r="B104" s="486"/>
+      <c r="C104" s="470"/>
+      <c r="D104" s="470"/>
+      <c r="E104" s="470"/>
       <c r="F104" s="359"/>
       <c r="G104" s="359"/>
       <c r="H104" s="318"/>
@@ -10282,11 +10303,11 @@
       <c r="P104" s="359"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="460"/>
-      <c r="B105" s="469"/>
-      <c r="C105" s="460"/>
-      <c r="D105" s="460"/>
-      <c r="E105" s="460"/>
+      <c r="A105" s="468"/>
+      <c r="B105" s="484"/>
+      <c r="C105" s="468"/>
+      <c r="D105" s="468"/>
+      <c r="E105" s="468"/>
       <c r="F105" s="357"/>
       <c r="G105" s="357"/>
       <c r="H105" s="311"/>
@@ -10300,11 +10321,11 @@
       <c r="P105" s="357"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="461"/>
-      <c r="B106" s="470"/>
-      <c r="C106" s="461"/>
-      <c r="D106" s="461"/>
-      <c r="E106" s="461"/>
+      <c r="A106" s="469"/>
+      <c r="B106" s="485"/>
+      <c r="C106" s="469"/>
+      <c r="D106" s="469"/>
+      <c r="E106" s="469"/>
       <c r="F106" s="358"/>
       <c r="G106" s="358"/>
       <c r="H106" s="315"/>
@@ -10318,11 +10339,11 @@
       <c r="P106" s="358"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="462"/>
-      <c r="B107" s="471"/>
-      <c r="C107" s="462"/>
-      <c r="D107" s="462"/>
-      <c r="E107" s="462"/>
+      <c r="A107" s="470"/>
+      <c r="B107" s="486"/>
+      <c r="C107" s="470"/>
+      <c r="D107" s="470"/>
+      <c r="E107" s="470"/>
       <c r="F107" s="359"/>
       <c r="G107" s="359"/>
       <c r="H107" s="318"/>
@@ -10336,11 +10357,11 @@
       <c r="P107" s="359"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="463"/>
-      <c r="B108" s="466"/>
-      <c r="C108" s="463"/>
-      <c r="D108" s="463"/>
-      <c r="E108" s="463"/>
+      <c r="A108" s="474"/>
+      <c r="B108" s="481"/>
+      <c r="C108" s="474"/>
+      <c r="D108" s="474"/>
+      <c r="E108" s="474"/>
       <c r="F108" s="310"/>
       <c r="G108" s="310"/>
       <c r="H108" s="311"/>
@@ -10351,14 +10372,14 @@
       <c r="M108" s="311"/>
       <c r="N108" s="311"/>
       <c r="O108" s="311"/>
-      <c r="P108" s="473"/>
+      <c r="P108" s="478"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="464"/>
-      <c r="B109" s="467"/>
-      <c r="C109" s="464"/>
-      <c r="D109" s="464"/>
-      <c r="E109" s="464"/>
+      <c r="A109" s="475"/>
+      <c r="B109" s="482"/>
+      <c r="C109" s="475"/>
+      <c r="D109" s="475"/>
+      <c r="E109" s="475"/>
       <c r="F109" s="314"/>
       <c r="G109" s="314"/>
       <c r="H109" s="315"/>
@@ -10369,14 +10390,14 @@
       <c r="M109" s="315"/>
       <c r="N109" s="315"/>
       <c r="O109" s="315"/>
-      <c r="P109" s="477"/>
+      <c r="P109" s="479"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="464"/>
-      <c r="B110" s="467"/>
-      <c r="C110" s="464"/>
-      <c r="D110" s="464"/>
-      <c r="E110" s="464"/>
+      <c r="A110" s="475"/>
+      <c r="B110" s="482"/>
+      <c r="C110" s="475"/>
+      <c r="D110" s="475"/>
+      <c r="E110" s="475"/>
       <c r="F110" s="314"/>
       <c r="G110" s="314"/>
       <c r="H110" s="315"/>
@@ -10387,14 +10408,14 @@
       <c r="M110" s="315"/>
       <c r="N110" s="315"/>
       <c r="O110" s="315"/>
-      <c r="P110" s="477"/>
+      <c r="P110" s="479"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="464"/>
-      <c r="B111" s="467"/>
-      <c r="C111" s="464"/>
-      <c r="D111" s="464"/>
-      <c r="E111" s="464"/>
+      <c r="A111" s="475"/>
+      <c r="B111" s="482"/>
+      <c r="C111" s="475"/>
+      <c r="D111" s="475"/>
+      <c r="E111" s="475"/>
       <c r="F111" s="314"/>
       <c r="G111" s="314"/>
       <c r="H111" s="315"/>
@@ -10405,14 +10426,14 @@
       <c r="M111" s="315"/>
       <c r="N111" s="315"/>
       <c r="O111" s="315"/>
-      <c r="P111" s="477"/>
+      <c r="P111" s="479"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="464"/>
-      <c r="B112" s="467"/>
-      <c r="C112" s="464"/>
-      <c r="D112" s="464"/>
-      <c r="E112" s="464"/>
+      <c r="A112" s="475"/>
+      <c r="B112" s="482"/>
+      <c r="C112" s="475"/>
+      <c r="D112" s="475"/>
+      <c r="E112" s="475"/>
       <c r="F112" s="314"/>
       <c r="G112" s="314"/>
       <c r="H112" s="315"/>
@@ -10423,14 +10444,14 @@
       <c r="M112" s="315"/>
       <c r="N112" s="315"/>
       <c r="O112" s="315"/>
-      <c r="P112" s="477"/>
+      <c r="P112" s="479"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="464"/>
-      <c r="B113" s="467"/>
-      <c r="C113" s="464"/>
-      <c r="D113" s="464"/>
-      <c r="E113" s="464"/>
+      <c r="A113" s="475"/>
+      <c r="B113" s="482"/>
+      <c r="C113" s="475"/>
+      <c r="D113" s="475"/>
+      <c r="E113" s="475"/>
       <c r="F113" s="363"/>
       <c r="G113" s="363"/>
       <c r="H113" s="364"/>
@@ -10441,14 +10462,14 @@
       <c r="M113" s="364"/>
       <c r="N113" s="364"/>
       <c r="O113" s="364"/>
-      <c r="P113" s="477"/>
+      <c r="P113" s="479"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="460"/>
-      <c r="B114" s="469"/>
-      <c r="C114" s="460"/>
-      <c r="D114" s="460"/>
-      <c r="E114" s="460"/>
+      <c r="A114" s="468"/>
+      <c r="B114" s="484"/>
+      <c r="C114" s="468"/>
+      <c r="D114" s="468"/>
+      <c r="E114" s="468"/>
       <c r="F114" s="357"/>
       <c r="G114" s="357"/>
       <c r="H114" s="311"/>
@@ -10462,11 +10483,11 @@
       <c r="P114" s="360"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="462"/>
-      <c r="B115" s="471"/>
-      <c r="C115" s="462"/>
-      <c r="D115" s="462"/>
-      <c r="E115" s="462"/>
+      <c r="A115" s="470"/>
+      <c r="B115" s="486"/>
+      <c r="C115" s="470"/>
+      <c r="D115" s="470"/>
+      <c r="E115" s="470"/>
       <c r="F115" s="359"/>
       <c r="G115" s="359"/>
       <c r="H115" s="318"/>
@@ -10480,11 +10501,11 @@
       <c r="P115" s="361"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A116" s="460"/>
-      <c r="B116" s="469"/>
-      <c r="C116" s="460"/>
-      <c r="D116" s="460"/>
-      <c r="E116" s="460"/>
+      <c r="A116" s="468"/>
+      <c r="B116" s="484"/>
+      <c r="C116" s="468"/>
+      <c r="D116" s="468"/>
+      <c r="E116" s="468"/>
       <c r="F116" s="357"/>
       <c r="G116" s="357"/>
       <c r="H116" s="311"/>
@@ -10498,11 +10519,11 @@
       <c r="P116" s="360"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="462"/>
-      <c r="B117" s="471"/>
-      <c r="C117" s="462"/>
-      <c r="D117" s="462"/>
-      <c r="E117" s="462"/>
+      <c r="A117" s="470"/>
+      <c r="B117" s="486"/>
+      <c r="C117" s="470"/>
+      <c r="D117" s="470"/>
+      <c r="E117" s="470"/>
       <c r="F117" s="359"/>
       <c r="G117" s="359"/>
       <c r="H117" s="318"/>
@@ -10534,11 +10555,11 @@
       <c r="P118" s="285"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="464"/>
-      <c r="B119" s="467"/>
-      <c r="C119" s="464"/>
-      <c r="D119" s="472"/>
-      <c r="E119" s="472"/>
+      <c r="A119" s="475"/>
+      <c r="B119" s="482"/>
+      <c r="C119" s="475"/>
+      <c r="D119" s="494"/>
+      <c r="E119" s="494"/>
       <c r="F119" s="362"/>
       <c r="G119" s="362"/>
       <c r="H119" s="339"/>
@@ -10549,14 +10570,14 @@
       <c r="M119" s="339"/>
       <c r="N119" s="339"/>
       <c r="O119" s="339"/>
-      <c r="P119" s="473"/>
+      <c r="P119" s="478"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="464"/>
-      <c r="B120" s="467"/>
-      <c r="C120" s="464"/>
-      <c r="D120" s="461"/>
-      <c r="E120" s="461"/>
+      <c r="A120" s="475"/>
+      <c r="B120" s="482"/>
+      <c r="C120" s="475"/>
+      <c r="D120" s="469"/>
+      <c r="E120" s="469"/>
       <c r="F120" s="358"/>
       <c r="G120" s="358"/>
       <c r="H120" s="315"/>
@@ -10567,14 +10588,14 @@
       <c r="M120" s="315"/>
       <c r="N120" s="315"/>
       <c r="O120" s="315"/>
-      <c r="P120" s="477"/>
+      <c r="P120" s="479"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="464"/>
-      <c r="B121" s="467"/>
-      <c r="C121" s="464"/>
-      <c r="D121" s="461"/>
-      <c r="E121" s="461"/>
+      <c r="A121" s="475"/>
+      <c r="B121" s="482"/>
+      <c r="C121" s="475"/>
+      <c r="D121" s="469"/>
+      <c r="E121" s="469"/>
       <c r="F121" s="358"/>
       <c r="G121" s="358"/>
       <c r="H121" s="315"/>
@@ -10585,14 +10606,14 @@
       <c r="M121" s="315"/>
       <c r="N121" s="315"/>
       <c r="O121" s="315"/>
-      <c r="P121" s="477"/>
+      <c r="P121" s="479"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="464"/>
-      <c r="B122" s="467"/>
-      <c r="C122" s="464"/>
-      <c r="D122" s="462"/>
-      <c r="E122" s="462"/>
+      <c r="A122" s="475"/>
+      <c r="B122" s="482"/>
+      <c r="C122" s="475"/>
+      <c r="D122" s="470"/>
+      <c r="E122" s="470"/>
       <c r="F122" s="359"/>
       <c r="G122" s="359"/>
       <c r="H122" s="318"/>
@@ -10603,14 +10624,14 @@
       <c r="M122" s="318"/>
       <c r="N122" s="318"/>
       <c r="O122" s="318"/>
-      <c r="P122" s="474"/>
+      <c r="P122" s="493"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A123" s="460"/>
-      <c r="B123" s="469"/>
-      <c r="C123" s="460"/>
-      <c r="D123" s="460"/>
-      <c r="E123" s="460"/>
+      <c r="A123" s="468"/>
+      <c r="B123" s="484"/>
+      <c r="C123" s="468"/>
+      <c r="D123" s="468"/>
+      <c r="E123" s="468"/>
       <c r="F123" s="357"/>
       <c r="G123" s="357"/>
       <c r="H123" s="311"/>
@@ -10624,11 +10645,11 @@
       <c r="P123" s="360"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A124" s="462"/>
-      <c r="B124" s="471"/>
-      <c r="C124" s="462"/>
-      <c r="D124" s="462"/>
-      <c r="E124" s="462"/>
+      <c r="A124" s="470"/>
+      <c r="B124" s="486"/>
+      <c r="C124" s="470"/>
+      <c r="D124" s="470"/>
+      <c r="E124" s="470"/>
       <c r="F124" s="359"/>
       <c r="G124" s="359"/>
       <c r="H124" s="318"/>
@@ -10642,14 +10663,14 @@
       <c r="P124" s="359"/>
     </row>
     <row r="125" spans="1:17" s="293" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A125" s="501" t="s">
+      <c r="A125" s="491" t="s">
         <v>77</v>
       </c>
-      <c r="B125" s="501"/>
-      <c r="C125" s="501"/>
-      <c r="D125" s="501"/>
-      <c r="E125" s="501"/>
-      <c r="F125" s="501"/>
+      <c r="B125" s="491"/>
+      <c r="C125" s="491"/>
+      <c r="D125" s="491"/>
+      <c r="E125" s="491"/>
+      <c r="F125" s="491"/>
       <c r="G125" s="366">
         <f>SUM(G9:G124)</f>
         <v>2219</v>
@@ -10668,18 +10689,18 @@
       <c r="M125" s="372"/>
       <c r="N125" s="372"/>
       <c r="O125" s="372"/>
-      <c r="P125" s="502"/>
-      <c r="Q125" s="503"/>
+      <c r="P125" s="492"/>
+      <c r="Q125" s="487"/>
     </row>
     <row r="126" spans="1:17" s="293" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A126" s="500" t="s">
+      <c r="A126" s="488" t="s">
         <v>135</v>
       </c>
-      <c r="B126" s="500"/>
-      <c r="C126" s="500"/>
-      <c r="D126" s="500"/>
-      <c r="E126" s="500"/>
-      <c r="F126" s="500"/>
+      <c r="B126" s="488"/>
+      <c r="C126" s="488"/>
+      <c r="D126" s="488"/>
+      <c r="E126" s="488"/>
+      <c r="F126" s="488"/>
       <c r="G126" s="287">
         <f>G125</f>
         <v>2219</v>
@@ -10695,18 +10716,18 @@
       <c r="M126" s="290"/>
       <c r="N126" s="290"/>
       <c r="O126" s="290"/>
-      <c r="P126" s="502"/>
-      <c r="Q126" s="503"/>
+      <c r="P126" s="492"/>
+      <c r="Q126" s="487"/>
     </row>
     <row r="127" spans="1:17" s="293" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A127" s="500" t="s">
+      <c r="A127" s="488" t="s">
         <v>78</v>
       </c>
-      <c r="B127" s="500"/>
-      <c r="C127" s="500"/>
-      <c r="D127" s="500"/>
-      <c r="E127" s="500"/>
-      <c r="F127" s="500"/>
+      <c r="B127" s="488"/>
+      <c r="C127" s="488"/>
+      <c r="D127" s="488"/>
+      <c r="E127" s="488"/>
+      <c r="F127" s="488"/>
       <c r="G127" s="294" t="s">
         <v>49</v>
       </c>
@@ -10723,14 +10744,14 @@
       <c r="O127" s="290"/>
     </row>
     <row r="128" spans="1:17" s="293" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A128" s="500" t="s">
+      <c r="A128" s="488" t="s">
         <v>79</v>
       </c>
-      <c r="B128" s="500"/>
-      <c r="C128" s="500"/>
-      <c r="D128" s="500"/>
-      <c r="E128" s="500"/>
-      <c r="F128" s="500"/>
+      <c r="B128" s="488"/>
+      <c r="C128" s="488"/>
+      <c r="D128" s="488"/>
+      <c r="E128" s="488"/>
+      <c r="F128" s="488"/>
       <c r="G128" s="294"/>
       <c r="H128" s="335"/>
       <c r="I128" s="288"/>
@@ -10745,14 +10766,14 @@
       <c r="O128" s="290"/>
     </row>
     <row r="129" spans="1:15" s="293" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A129" s="500" t="s">
+      <c r="A129" s="488" t="s">
         <v>80</v>
       </c>
-      <c r="B129" s="500"/>
-      <c r="C129" s="500"/>
-      <c r="D129" s="500"/>
-      <c r="E129" s="500"/>
-      <c r="F129" s="500"/>
+      <c r="B129" s="488"/>
+      <c r="C129" s="488"/>
+      <c r="D129" s="488"/>
+      <c r="E129" s="488"/>
+      <c r="F129" s="488"/>
       <c r="G129" s="294"/>
       <c r="H129" s="335"/>
       <c r="I129" s="288"/>
@@ -10829,6 +10850,148 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="166">
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="D119:D122"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="P125:P126"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="P119:P122"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="Q125:Q126"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="P108:P113"/>
+    <mergeCell ref="E108:E113"/>
+    <mergeCell ref="D108:D113"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="A108:A113"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="D93:D98"/>
+    <mergeCell ref="C93:C98"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A77:A78"/>
     <mergeCell ref="B47:B53"/>
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="D47:D53"/>
@@ -10853,148 +11016,6 @@
     <mergeCell ref="E65:E68"/>
     <mergeCell ref="E71:E76"/>
     <mergeCell ref="D71:D76"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="Q125:Q126"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="P108:P113"/>
-    <mergeCell ref="E108:E113"/>
-    <mergeCell ref="D108:D113"/>
-    <mergeCell ref="C108:C113"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="A108:A113"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="D93:D98"/>
-    <mergeCell ref="C93:C98"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="P125:P126"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="P119:P122"/>
-    <mergeCell ref="E119:E122"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="D119:D122"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11026,93 +11047,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="514" t="s">
+      <c r="A1" s="509" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="514"/>
-      <c r="C1" s="514"/>
-      <c r="D1" s="514"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="515" t="s">
+      <c r="A2" s="510" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="515"/>
-      <c r="C2" s="515"/>
-      <c r="D2" s="515"/>
+      <c r="B2" s="510"/>
+      <c r="C2" s="510"/>
+      <c r="D2" s="510"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="505" t="s">
+      <c r="A3" s="512" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="505"/>
-      <c r="C3" s="505"/>
-      <c r="D3" s="505"/>
-      <c r="E3" s="505"/>
-      <c r="F3" s="505"/>
-      <c r="G3" s="505"/>
-      <c r="H3" s="505"/>
-      <c r="I3" s="505"/>
-      <c r="J3" s="505"/>
-      <c r="K3" s="505"/>
-      <c r="L3" s="505"/>
-      <c r="M3" s="505"/>
-      <c r="N3" s="505"/>
+      <c r="B3" s="512"/>
+      <c r="C3" s="512"/>
+      <c r="D3" s="512"/>
+      <c r="E3" s="512"/>
+      <c r="F3" s="512"/>
+      <c r="G3" s="512"/>
+      <c r="H3" s="512"/>
+      <c r="I3" s="512"/>
+      <c r="J3" s="512"/>
+      <c r="K3" s="512"/>
+      <c r="L3" s="512"/>
+      <c r="M3" s="512"/>
+      <c r="N3" s="512"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="506" t="s">
+      <c r="A4" s="513" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="506"/>
-      <c r="C4" s="506"/>
-      <c r="D4" s="506"/>
-      <c r="E4" s="506"/>
-      <c r="F4" s="506"/>
-      <c r="G4" s="506"/>
-      <c r="H4" s="506"/>
-      <c r="I4" s="507"/>
-      <c r="J4" s="506"/>
-      <c r="K4" s="506"/>
-      <c r="L4" s="506"/>
-      <c r="M4" s="506"/>
-      <c r="N4" s="506"/>
+      <c r="B4" s="513"/>
+      <c r="C4" s="513"/>
+      <c r="D4" s="513"/>
+      <c r="E4" s="513"/>
+      <c r="F4" s="513"/>
+      <c r="G4" s="513"/>
+      <c r="H4" s="513"/>
+      <c r="I4" s="514"/>
+      <c r="J4" s="513"/>
+      <c r="K4" s="513"/>
+      <c r="L4" s="513"/>
+      <c r="M4" s="513"/>
+      <c r="N4" s="513"/>
     </row>
     <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="508" t="s">
+      <c r="A5" s="515" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="509" t="s">
+      <c r="B5" s="516" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="510" t="s">
+      <c r="C5" s="517" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="329" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="511" t="s">
+      <c r="E5" s="518" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="512"/>
-      <c r="J5" s="513" t="s">
+      <c r="F5" s="518"/>
+      <c r="G5" s="518"/>
+      <c r="H5" s="518"/>
+      <c r="I5" s="519"/>
+      <c r="J5" s="520" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="511" t="s">
+      <c r="K5" s="518" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="511"/>
-      <c r="M5" s="511"/>
-      <c r="N5" s="510" t="s">
+      <c r="L5" s="518"/>
+      <c r="M5" s="518"/>
+      <c r="N5" s="517" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="508"/>
-      <c r="B6" s="509"/>
-      <c r="C6" s="510"/>
+      <c r="A6" s="515"/>
+      <c r="B6" s="516"/>
+      <c r="C6" s="517"/>
       <c r="D6" s="326" t="s">
         <v>41</v>
       </c>
@@ -11131,7 +11152,7 @@
       <c r="I6" s="328" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="513"/>
+      <c r="J6" s="520"/>
       <c r="K6" s="326" t="s">
         <v>45</v>
       </c>
@@ -11141,7 +11162,7 @@
       <c r="M6" s="326" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="510"/>
+      <c r="N6" s="517"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="386">
@@ -11182,14 +11203,14 @@
       <c r="N7" s="404"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="460">
+      <c r="A8" s="468">
         <v>642</v>
       </c>
-      <c r="B8" s="482">
+      <c r="B8" s="465">
         <v>44056</v>
       </c>
-      <c r="C8" s="460"/>
-      <c r="D8" s="460" t="s">
+      <c r="C8" s="468"/>
+      <c r="D8" s="468" t="s">
         <v>192</v>
       </c>
       <c r="E8" s="192" t="s">
@@ -11218,10 +11239,10 @@
       <c r="N8" s="195"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="462"/>
-      <c r="B9" s="484"/>
-      <c r="C9" s="462"/>
-      <c r="D9" s="462"/>
+      <c r="A9" s="470"/>
+      <c r="B9" s="467"/>
+      <c r="C9" s="470"/>
+      <c r="D9" s="470"/>
       <c r="E9" s="201" t="s">
         <v>197</v>
       </c>
@@ -11370,10 +11391,10 @@
       <c r="N14" s="204"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="460"/>
-      <c r="B15" s="482"/>
-      <c r="C15" s="460"/>
-      <c r="D15" s="460"/>
+      <c r="A15" s="468"/>
+      <c r="B15" s="465"/>
+      <c r="C15" s="468"/>
+      <c r="D15" s="468"/>
       <c r="E15" s="192"/>
       <c r="F15" s="192"/>
       <c r="G15" s="193"/>
@@ -11386,10 +11407,10 @@
       <c r="N15" s="195"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="461"/>
-      <c r="B16" s="483"/>
-      <c r="C16" s="461"/>
-      <c r="D16" s="461"/>
+      <c r="A16" s="469"/>
+      <c r="B16" s="466"/>
+      <c r="C16" s="469"/>
+      <c r="D16" s="469"/>
       <c r="E16" s="196"/>
       <c r="F16" s="196"/>
       <c r="G16" s="197"/>
@@ -11402,10 +11423,10 @@
       <c r="N16" s="200"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="462"/>
-      <c r="B17" s="484"/>
-      <c r="C17" s="462"/>
-      <c r="D17" s="462"/>
+      <c r="A17" s="470"/>
+      <c r="B17" s="467"/>
+      <c r="C17" s="470"/>
+      <c r="D17" s="470"/>
       <c r="E17" s="201"/>
       <c r="F17" s="201"/>
       <c r="G17" s="202"/>
@@ -11418,10 +11439,10 @@
       <c r="N17" s="204"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="460"/>
-      <c r="B18" s="482"/>
-      <c r="C18" s="460"/>
-      <c r="D18" s="460"/>
+      <c r="A18" s="468"/>
+      <c r="B18" s="465"/>
+      <c r="C18" s="468"/>
+      <c r="D18" s="468"/>
       <c r="E18" s="192"/>
       <c r="F18" s="192"/>
       <c r="G18" s="193"/>
@@ -11434,10 +11455,10 @@
       <c r="N18" s="195"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="461"/>
-      <c r="B19" s="483"/>
-      <c r="C19" s="461"/>
-      <c r="D19" s="461"/>
+      <c r="A19" s="469"/>
+      <c r="B19" s="466"/>
+      <c r="C19" s="469"/>
+      <c r="D19" s="469"/>
       <c r="E19" s="196"/>
       <c r="F19" s="196"/>
       <c r="G19" s="197"/>
@@ -11450,10 +11471,10 @@
       <c r="N19" s="200"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="461"/>
-      <c r="B20" s="483"/>
-      <c r="C20" s="461"/>
-      <c r="D20" s="461"/>
+      <c r="A20" s="469"/>
+      <c r="B20" s="466"/>
+      <c r="C20" s="469"/>
+      <c r="D20" s="469"/>
       <c r="E20" s="196"/>
       <c r="F20" s="196"/>
       <c r="G20" s="197"/>
@@ -11466,10 +11487,10 @@
       <c r="N20" s="200"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="462"/>
-      <c r="B21" s="484"/>
-      <c r="C21" s="462"/>
-      <c r="D21" s="462"/>
+      <c r="A21" s="470"/>
+      <c r="B21" s="467"/>
+      <c r="C21" s="470"/>
+      <c r="D21" s="470"/>
       <c r="E21" s="201"/>
       <c r="F21" s="201"/>
       <c r="G21" s="202"/>
@@ -11546,10 +11567,10 @@
       <c r="N25" s="136"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="460"/>
-      <c r="B26" s="482"/>
-      <c r="C26" s="460"/>
-      <c r="D26" s="460"/>
+      <c r="A26" s="468"/>
+      <c r="B26" s="465"/>
+      <c r="C26" s="468"/>
+      <c r="D26" s="468"/>
       <c r="E26" s="192"/>
       <c r="F26" s="192"/>
       <c r="G26" s="193"/>
@@ -11562,10 +11583,10 @@
       <c r="N26" s="195"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="462"/>
-      <c r="B27" s="484"/>
-      <c r="C27" s="462"/>
-      <c r="D27" s="462"/>
+      <c r="A27" s="470"/>
+      <c r="B27" s="467"/>
+      <c r="C27" s="470"/>
+      <c r="D27" s="470"/>
       <c r="E27" s="201"/>
       <c r="F27" s="201"/>
       <c r="G27" s="202"/>
@@ -11610,12 +11631,12 @@
       <c r="N29" s="136"/>
     </row>
     <row r="30" spans="1:14" s="130" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="504" t="s">
+      <c r="A30" s="511" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="504"/>
-      <c r="C30" s="504"/>
-      <c r="D30" s="504"/>
+      <c r="B30" s="511"/>
+      <c r="C30" s="511"/>
+      <c r="D30" s="511"/>
       <c r="E30" s="126"/>
       <c r="F30" s="126">
         <f>SUM(F7:F29)</f>
@@ -11703,18 +11724,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
@@ -11731,6 +11740,18 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11819,14 +11840,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="516" t="s">
+      <c r="A4" s="521" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="516"/>
-      <c r="C4" s="516"/>
-      <c r="D4" s="516"/>
-      <c r="E4" s="516"/>
-      <c r="F4" s="516"/>
+      <c r="B4" s="521"/>
+      <c r="C4" s="521"/>
+      <c r="D4" s="521"/>
+      <c r="E4" s="521"/>
+      <c r="F4" s="521"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -11840,14 +11861,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="517" t="s">
+      <c r="A5" s="522" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="517"/>
-      <c r="C5" s="517"/>
-      <c r="D5" s="517"/>
-      <c r="E5" s="517"/>
-      <c r="F5" s="517"/>
+      <c r="B5" s="522"/>
+      <c r="C5" s="522"/>
+      <c r="D5" s="522"/>
+      <c r="E5" s="522"/>
+      <c r="F5" s="522"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -12194,10 +12215,10 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="518" t="s">
+      <c r="A25" s="523" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="518"/>
+      <c r="B25" s="523"/>
       <c r="C25" s="31"/>
       <c r="D25" s="226">
         <f>C24-D24</f>
@@ -12253,8 +12274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12276,13 +12297,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="519" t="s">
+      <c r="A1" s="548" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="519"/>
-      <c r="C1" s="519"/>
-      <c r="D1" s="519"/>
-      <c r="E1" s="519"/>
+      <c r="B1" s="548"/>
+      <c r="C1" s="548"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
@@ -12302,105 +12323,105 @@
       <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="520" t="s">
+      <c r="A3" s="542" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="520"/>
-      <c r="C3" s="520"/>
-      <c r="D3" s="520"/>
-      <c r="E3" s="520"/>
-      <c r="F3" s="520"/>
-      <c r="G3" s="520"/>
-      <c r="H3" s="520"/>
-      <c r="I3" s="520"/>
-      <c r="J3" s="520"/>
-      <c r="K3" s="520"/>
-      <c r="L3" s="520"/>
+      <c r="B3" s="542"/>
+      <c r="C3" s="542"/>
+      <c r="D3" s="542"/>
+      <c r="E3" s="542"/>
+      <c r="F3" s="542"/>
+      <c r="G3" s="542"/>
+      <c r="H3" s="542"/>
+      <c r="I3" s="542"/>
+      <c r="J3" s="542"/>
+      <c r="K3" s="542"/>
+      <c r="L3" s="542"/>
     </row>
     <row r="4" spans="1:12" s="137" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="521" t="s">
+      <c r="A4" s="543" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="525" t="s">
+      <c r="B4" s="544" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="521" t="s">
+      <c r="C4" s="543" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="521" t="s">
+      <c r="D4" s="543" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="521"/>
-      <c r="F4" s="524" t="s">
+      <c r="E4" s="543"/>
+      <c r="F4" s="545" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="524"/>
-      <c r="H4" s="524"/>
-      <c r="I4" s="524"/>
-      <c r="J4" s="524"/>
-      <c r="K4" s="524"/>
-      <c r="L4" s="524"/>
+      <c r="G4" s="545"/>
+      <c r="H4" s="545"/>
+      <c r="I4" s="545"/>
+      <c r="J4" s="545"/>
+      <c r="K4" s="545"/>
+      <c r="L4" s="545"/>
     </row>
     <row r="5" spans="1:12" s="137" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="521"/>
-      <c r="B5" s="525"/>
-      <c r="C5" s="521"/>
-      <c r="D5" s="521" t="s">
+      <c r="A5" s="543"/>
+      <c r="B5" s="544"/>
+      <c r="C5" s="543"/>
+      <c r="D5" s="543" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="521" t="s">
+      <c r="E5" s="543" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="521" t="s">
+      <c r="F5" s="543" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="521" t="s">
+      <c r="G5" s="543" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="522" t="s">
+      <c r="H5" s="546" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="522" t="s">
+      <c r="I5" s="546" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="523" t="s">
+      <c r="J5" s="547" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="523"/>
-      <c r="L5" s="522" t="s">
+      <c r="K5" s="547"/>
+      <c r="L5" s="546" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="137" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="521"/>
-      <c r="B6" s="525"/>
-      <c r="C6" s="521"/>
-      <c r="D6" s="521"/>
-      <c r="E6" s="521"/>
-      <c r="F6" s="521"/>
-      <c r="G6" s="521"/>
-      <c r="H6" s="522"/>
-      <c r="I6" s="522"/>
+      <c r="A6" s="543"/>
+      <c r="B6" s="544"/>
+      <c r="C6" s="543"/>
+      <c r="D6" s="543"/>
+      <c r="E6" s="543"/>
+      <c r="F6" s="543"/>
+      <c r="G6" s="543"/>
+      <c r="H6" s="546"/>
+      <c r="I6" s="546"/>
       <c r="J6" s="146" t="s">
         <v>84</v>
       </c>
       <c r="K6" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="522"/>
+      <c r="L6" s="546"/>
     </row>
     <row r="7" spans="1:12" s="282" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="460">
+      <c r="A7" s="468">
         <v>630</v>
       </c>
-      <c r="B7" s="482">
+      <c r="B7" s="465">
         <v>44044</v>
       </c>
-      <c r="C7" s="460" t="s">
+      <c r="C7" s="468" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="460"/>
-      <c r="E7" s="460"/>
+      <c r="D7" s="468"/>
+      <c r="E7" s="468"/>
       <c r="F7" s="373" t="s">
         <v>185</v>
       </c>
@@ -12422,11 +12443,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="282" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="461"/>
-      <c r="B8" s="483"/>
-      <c r="C8" s="461"/>
-      <c r="D8" s="461"/>
-      <c r="E8" s="461"/>
+      <c r="A8" s="469"/>
+      <c r="B8" s="466"/>
+      <c r="C8" s="469"/>
+      <c r="D8" s="469"/>
+      <c r="E8" s="469"/>
       <c r="F8" s="374" t="s">
         <v>186</v>
       </c>
@@ -12448,11 +12469,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="461"/>
-      <c r="B9" s="483"/>
-      <c r="C9" s="461"/>
-      <c r="D9" s="461"/>
-      <c r="E9" s="461"/>
+      <c r="A9" s="469"/>
+      <c r="B9" s="466"/>
+      <c r="C9" s="469"/>
+      <c r="D9" s="469"/>
+      <c r="E9" s="469"/>
       <c r="F9" s="374" t="s">
         <v>183</v>
       </c>
@@ -12474,11 +12495,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="282" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="462"/>
-      <c r="B10" s="484"/>
-      <c r="C10" s="462"/>
-      <c r="D10" s="462"/>
-      <c r="E10" s="462"/>
+      <c r="A10" s="470"/>
+      <c r="B10" s="467"/>
+      <c r="C10" s="470"/>
+      <c r="D10" s="470"/>
+      <c r="E10" s="470"/>
       <c r="F10" s="375" t="s">
         <v>187</v>
       </c>
@@ -12532,17 +12553,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="282" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="463">
+      <c r="A12" s="474">
         <v>646</v>
       </c>
-      <c r="B12" s="475">
+      <c r="B12" s="476">
         <v>44053</v>
       </c>
-      <c r="C12" s="463" t="s">
+      <c r="C12" s="474" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="473"/>
-      <c r="E12" s="463"/>
+      <c r="D12" s="478"/>
+      <c r="E12" s="474"/>
       <c r="F12" s="282" t="s">
         <v>185</v>
       </c>
@@ -12564,11 +12585,11 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="464"/>
-      <c r="B13" s="478"/>
-      <c r="C13" s="464"/>
-      <c r="D13" s="477"/>
-      <c r="E13" s="464"/>
+      <c r="A13" s="475"/>
+      <c r="B13" s="477"/>
+      <c r="C13" s="475"/>
+      <c r="D13" s="479"/>
+      <c r="E13" s="475"/>
       <c r="F13" s="382" t="s">
         <v>186</v>
       </c>
@@ -12590,14 +12611,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="526" t="s">
+      <c r="A14" s="539" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="527"/>
-      <c r="C14" s="527"/>
-      <c r="D14" s="527"/>
-      <c r="E14" s="527"/>
-      <c r="F14" s="528"/>
+      <c r="B14" s="540"/>
+      <c r="C14" s="540"/>
+      <c r="D14" s="540"/>
+      <c r="E14" s="540"/>
+      <c r="F14" s="541"/>
       <c r="G14" s="414">
         <f>SUM(G7:G13)</f>
         <v>11</v>
@@ -12615,135 +12636,135 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="603"/>
-      <c r="B15" s="603"/>
-      <c r="C15" s="603"/>
-      <c r="D15" s="603"/>
-      <c r="E15" s="603"/>
-      <c r="F15" s="603"/>
-      <c r="G15" s="603"/>
-      <c r="H15" s="603"/>
-      <c r="I15" s="608"/>
-      <c r="J15" s="609"/>
-      <c r="K15" s="609"/>
-      <c r="L15" s="608"/>
+      <c r="A15" s="450"/>
+      <c r="B15" s="450"/>
+      <c r="C15" s="450"/>
+      <c r="D15" s="450"/>
+      <c r="E15" s="450"/>
+      <c r="F15" s="450"/>
+      <c r="G15" s="450"/>
+      <c r="H15" s="450"/>
+      <c r="I15" s="453"/>
+      <c r="J15" s="454"/>
+      <c r="K15" s="454"/>
+      <c r="L15" s="453"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="603"/>
-      <c r="B16" s="603"/>
-      <c r="C16" s="603"/>
-      <c r="D16" s="603"/>
-      <c r="E16" s="603"/>
-      <c r="F16" s="603"/>
-      <c r="G16" s="603"/>
-      <c r="H16" s="603"/>
-      <c r="I16" s="608"/>
-      <c r="J16" s="609"/>
-      <c r="K16" s="609"/>
-      <c r="L16" s="608"/>
+      <c r="A16" s="450"/>
+      <c r="B16" s="450"/>
+      <c r="C16" s="450"/>
+      <c r="D16" s="450"/>
+      <c r="E16" s="450"/>
+      <c r="F16" s="450"/>
+      <c r="G16" s="450"/>
+      <c r="H16" s="450"/>
+      <c r="I16" s="453"/>
+      <c r="J16" s="454"/>
+      <c r="K16" s="454"/>
+      <c r="L16" s="453"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="520" t="s">
+      <c r="A17" s="542" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="520"/>
-      <c r="C17" s="520"/>
-      <c r="D17" s="520"/>
-      <c r="E17" s="520"/>
-      <c r="F17" s="520"/>
-      <c r="G17" s="520"/>
-      <c r="H17" s="520"/>
-      <c r="I17" s="520"/>
-      <c r="J17" s="520"/>
-      <c r="K17" s="520"/>
-      <c r="L17" s="520"/>
+      <c r="B17" s="542"/>
+      <c r="C17" s="542"/>
+      <c r="D17" s="542"/>
+      <c r="E17" s="542"/>
+      <c r="F17" s="542"/>
+      <c r="G17" s="542"/>
+      <c r="H17" s="542"/>
+      <c r="I17" s="542"/>
+      <c r="J17" s="542"/>
+      <c r="K17" s="542"/>
+      <c r="L17" s="542"/>
     </row>
     <row r="18" spans="1:14" s="137" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="521" t="s">
+      <c r="A18" s="543" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="525" t="s">
+      <c r="B18" s="544" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="521" t="s">
+      <c r="C18" s="543" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="521" t="s">
+      <c r="D18" s="543" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="521"/>
-      <c r="F18" s="524" t="s">
+      <c r="E18" s="543"/>
+      <c r="F18" s="545" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="524"/>
-      <c r="H18" s="524"/>
-      <c r="I18" s="524"/>
-      <c r="J18" s="524"/>
-      <c r="K18" s="524"/>
-      <c r="L18" s="524"/>
+      <c r="G18" s="545"/>
+      <c r="H18" s="545"/>
+      <c r="I18" s="545"/>
+      <c r="J18" s="545"/>
+      <c r="K18" s="545"/>
+      <c r="L18" s="545"/>
     </row>
     <row r="19" spans="1:14" s="137" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="521"/>
-      <c r="B19" s="525"/>
-      <c r="C19" s="521"/>
-      <c r="D19" s="521" t="s">
+      <c r="A19" s="543"/>
+      <c r="B19" s="544"/>
+      <c r="C19" s="543"/>
+      <c r="D19" s="543" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="521" t="s">
+      <c r="E19" s="543" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="521" t="s">
+      <c r="F19" s="543" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="521" t="s">
+      <c r="G19" s="543" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="522" t="s">
+      <c r="H19" s="546" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="522" t="s">
+      <c r="I19" s="546" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="523" t="s">
+      <c r="J19" s="547" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="523"/>
-      <c r="L19" s="522" t="s">
+      <c r="K19" s="547"/>
+      <c r="L19" s="546" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="137" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="521"/>
-      <c r="B20" s="525"/>
-      <c r="C20" s="521"/>
-      <c r="D20" s="521"/>
-      <c r="E20" s="521"/>
-      <c r="F20" s="521"/>
-      <c r="G20" s="521"/>
-      <c r="H20" s="522"/>
-      <c r="I20" s="522"/>
+      <c r="A20" s="543"/>
+      <c r="B20" s="544"/>
+      <c r="C20" s="543"/>
+      <c r="D20" s="543"/>
+      <c r="E20" s="543"/>
+      <c r="F20" s="543"/>
+      <c r="G20" s="543"/>
+      <c r="H20" s="546"/>
+      <c r="I20" s="546"/>
       <c r="J20" s="384" t="s">
         <v>84</v>
       </c>
       <c r="K20" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="522"/>
+      <c r="L20" s="546"/>
     </row>
     <row r="21" spans="1:14" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="460">
+      <c r="A21" s="468">
         <v>647</v>
       </c>
-      <c r="B21" s="482">
+      <c r="B21" s="465">
         <v>44056</v>
       </c>
-      <c r="C21" s="460" t="s">
+      <c r="C21" s="468" t="s">
         <v>180</v>
       </c>
-      <c r="D21" s="479" t="s">
+      <c r="D21" s="471" t="s">
         <v>210</v>
       </c>
-      <c r="E21" s="460" t="s">
+      <c r="E21" s="468" t="s">
         <v>211</v>
       </c>
       <c r="F21" s="373" t="s">
@@ -12770,11 +12791,11 @@
       <c r="M21" s="283"/>
     </row>
     <row r="22" spans="1:14" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="462"/>
-      <c r="B22" s="484"/>
-      <c r="C22" s="462"/>
-      <c r="D22" s="481"/>
-      <c r="E22" s="462"/>
+      <c r="A22" s="470"/>
+      <c r="B22" s="467"/>
+      <c r="C22" s="470"/>
+      <c r="D22" s="473"/>
+      <c r="E22" s="470"/>
       <c r="F22" s="375" t="s">
         <v>186</v>
       </c>
@@ -12807,23 +12828,23 @@
       <c r="F23" s="416"/>
       <c r="G23" s="416"/>
       <c r="H23" s="416"/>
-      <c r="I23" s="529" t="s">
+      <c r="I23" s="538" t="s">
         <v>223</v>
       </c>
-      <c r="J23" s="529"/>
-      <c r="K23" s="529"/>
+      <c r="J23" s="538"/>
+      <c r="K23" s="538"/>
       <c r="L23" s="416">
         <v>382000</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="526" t="s">
+      <c r="A24" s="539" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="527"/>
-      <c r="C24" s="527"/>
-      <c r="D24" s="527"/>
-      <c r="E24" s="528"/>
+      <c r="B24" s="540"/>
+      <c r="C24" s="540"/>
+      <c r="D24" s="540"/>
+      <c r="E24" s="541"/>
       <c r="F24" s="419"/>
       <c r="G24" s="419">
         <f>SUM(G21:G23)</f>
@@ -12842,25 +12863,25 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="603"/>
-      <c r="B25" s="603"/>
-      <c r="C25" s="603"/>
-      <c r="D25" s="603"/>
-      <c r="E25" s="603"/>
-      <c r="F25" s="604"/>
-      <c r="G25" s="604"/>
-      <c r="H25" s="604"/>
-      <c r="I25" s="605"/>
-      <c r="J25" s="604"/>
-      <c r="K25" s="604"/>
-      <c r="L25" s="605"/>
+      <c r="A25" s="450"/>
+      <c r="B25" s="450"/>
+      <c r="C25" s="450"/>
+      <c r="D25" s="450"/>
+      <c r="E25" s="450"/>
+      <c r="F25" s="451"/>
+      <c r="G25" s="451"/>
+      <c r="H25" s="451"/>
+      <c r="I25" s="452"/>
+      <c r="J25" s="451"/>
+      <c r="K25" s="451"/>
+      <c r="L25" s="452"/>
     </row>
     <row r="26" spans="1:14" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="520" t="s">
+      <c r="A26" s="542" t="s">
         <v>224</v>
       </c>
-      <c r="B26" s="520"/>
-      <c r="C26" s="520"/>
+      <c r="B26" s="542"/>
+      <c r="C26" s="542"/>
       <c r="D26" s="449"/>
       <c r="E26" s="449"/>
       <c r="F26" s="449"/>
@@ -12873,164 +12894,164 @@
       <c r="A27" s="383"/>
       <c r="B27" s="383"/>
       <c r="C27" s="383"/>
-      <c r="D27" s="600" t="s">
+      <c r="D27" s="533" t="s">
         <v>225</v>
       </c>
-      <c r="E27" s="601"/>
-      <c r="F27" s="601"/>
-      <c r="G27" s="601"/>
-      <c r="H27" s="601"/>
-      <c r="I27" s="602"/>
-      <c r="J27" s="598" t="s">
+      <c r="E27" s="534"/>
+      <c r="F27" s="534"/>
+      <c r="G27" s="534"/>
+      <c r="H27" s="534"/>
+      <c r="I27" s="535"/>
+      <c r="J27" s="531" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="599"/>
+      <c r="K27" s="532"/>
       <c r="L27" s="421"/>
     </row>
     <row r="28" spans="1:14" s="422" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="383"/>
       <c r="B28" s="383"/>
       <c r="C28" s="383"/>
-      <c r="D28" s="534" t="s">
+      <c r="D28" s="526" t="s">
         <v>226</v>
       </c>
-      <c r="E28" s="535"/>
-      <c r="F28" s="535"/>
-      <c r="G28" s="535"/>
-      <c r="H28" s="535"/>
-      <c r="I28" s="536"/>
-      <c r="J28" s="537">
+      <c r="E28" s="527"/>
+      <c r="F28" s="527"/>
+      <c r="G28" s="527"/>
+      <c r="H28" s="527"/>
+      <c r="I28" s="528"/>
+      <c r="J28" s="524">
         <v>550415</v>
       </c>
-      <c r="K28" s="538"/>
+      <c r="K28" s="525"/>
       <c r="L28" s="421"/>
     </row>
     <row r="29" spans="1:14" s="422" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="383"/>
       <c r="B29" s="383"/>
       <c r="C29" s="383"/>
-      <c r="D29" s="534" t="s">
+      <c r="D29" s="526" t="s">
         <v>227</v>
       </c>
-      <c r="E29" s="535"/>
-      <c r="F29" s="535"/>
-      <c r="G29" s="535"/>
-      <c r="H29" s="535"/>
-      <c r="I29" s="536"/>
-      <c r="J29" s="537">
+      <c r="E29" s="527"/>
+      <c r="F29" s="527"/>
+      <c r="G29" s="527"/>
+      <c r="H29" s="527"/>
+      <c r="I29" s="528"/>
+      <c r="J29" s="524">
         <f>L14</f>
         <v>3082750.0000000005</v>
       </c>
-      <c r="K29" s="538"/>
+      <c r="K29" s="525"/>
       <c r="L29" s="421"/>
     </row>
     <row r="30" spans="1:14" s="422" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="383"/>
       <c r="B30" s="383"/>
       <c r="C30" s="383"/>
-      <c r="D30" s="534" t="s">
+      <c r="D30" s="526" t="s">
         <v>228</v>
       </c>
-      <c r="E30" s="535"/>
-      <c r="F30" s="535"/>
-      <c r="G30" s="535"/>
-      <c r="H30" s="535"/>
-      <c r="I30" s="536"/>
-      <c r="J30" s="537">
+      <c r="E30" s="527"/>
+      <c r="F30" s="527"/>
+      <c r="G30" s="527"/>
+      <c r="H30" s="527"/>
+      <c r="I30" s="528"/>
+      <c r="J30" s="524">
         <f>L24</f>
         <v>1109750</v>
       </c>
-      <c r="K30" s="538"/>
+      <c r="K30" s="525"/>
       <c r="N30" s="423"/>
     </row>
     <row r="31" spans="1:14" s="422" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="427"/>
       <c r="B31" s="427"/>
       <c r="C31" s="427"/>
-      <c r="D31" s="534" t="s">
+      <c r="D31" s="526" t="s">
         <v>254</v>
       </c>
-      <c r="E31" s="535"/>
-      <c r="F31" s="535"/>
-      <c r="G31" s="535"/>
-      <c r="H31" s="535"/>
-      <c r="I31" s="536"/>
-      <c r="J31" s="537">
+      <c r="E31" s="527"/>
+      <c r="F31" s="527"/>
+      <c r="G31" s="527"/>
+      <c r="H31" s="527"/>
+      <c r="I31" s="528"/>
+      <c r="J31" s="524">
         <f>150000+250000</f>
         <v>400000</v>
       </c>
-      <c r="K31" s="538"/>
+      <c r="K31" s="525"/>
     </row>
     <row r="32" spans="1:14" s="422" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="427"/>
       <c r="B32" s="427"/>
       <c r="C32" s="427"/>
-      <c r="D32" s="534" t="s">
+      <c r="D32" s="526" t="s">
         <v>255</v>
       </c>
-      <c r="E32" s="535"/>
-      <c r="F32" s="535"/>
-      <c r="G32" s="535"/>
-      <c r="H32" s="535"/>
-      <c r="I32" s="536"/>
-      <c r="J32" s="537">
+      <c r="E32" s="527"/>
+      <c r="F32" s="527"/>
+      <c r="G32" s="527"/>
+      <c r="H32" s="527"/>
+      <c r="I32" s="528"/>
+      <c r="J32" s="524">
         <v>674000</v>
       </c>
-      <c r="K32" s="538"/>
+      <c r="K32" s="525"/>
     </row>
     <row r="33" spans="1:12" s="422" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="441"/>
       <c r="B33" s="441"/>
       <c r="C33" s="441"/>
-      <c r="D33" s="534" t="s">
+      <c r="D33" s="526" t="s">
         <v>256</v>
       </c>
-      <c r="E33" s="535"/>
-      <c r="F33" s="535"/>
-      <c r="G33" s="535"/>
-      <c r="H33" s="535"/>
-      <c r="I33" s="536"/>
-      <c r="J33" s="537">
+      <c r="E33" s="527"/>
+      <c r="F33" s="527"/>
+      <c r="G33" s="527"/>
+      <c r="H33" s="527"/>
+      <c r="I33" s="528"/>
+      <c r="J33" s="524">
         <v>889000</v>
       </c>
-      <c r="K33" s="538"/>
+      <c r="K33" s="525"/>
     </row>
     <row r="34" spans="1:12" s="422" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="383"/>
       <c r="B34" s="383"/>
       <c r="C34" s="383"/>
-      <c r="D34" s="534" t="s">
+      <c r="D34" s="526" t="s">
         <v>229</v>
       </c>
-      <c r="E34" s="535"/>
-      <c r="F34" s="535"/>
-      <c r="G34" s="535"/>
-      <c r="H34" s="535"/>
-      <c r="I34" s="536"/>
-      <c r="J34" s="537">
+      <c r="E34" s="527"/>
+      <c r="F34" s="527"/>
+      <c r="G34" s="527"/>
+      <c r="H34" s="527"/>
+      <c r="I34" s="528"/>
+      <c r="J34" s="524">
         <f>'Bảng lương'!K15</f>
         <v>6080000</v>
       </c>
-      <c r="K34" s="538"/>
+      <c r="K34" s="525"/>
       <c r="L34" s="421"/>
     </row>
     <row r="35" spans="1:12" s="422" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="383"/>
       <c r="B35" s="383"/>
       <c r="C35" s="383"/>
-      <c r="D35" s="532" t="s">
+      <c r="D35" s="536" t="s">
         <v>230</v>
       </c>
-      <c r="E35" s="532"/>
-      <c r="F35" s="532"/>
-      <c r="G35" s="532"/>
-      <c r="H35" s="532"/>
-      <c r="I35" s="532"/>
-      <c r="J35" s="533">
+      <c r="E35" s="536"/>
+      <c r="F35" s="536"/>
+      <c r="G35" s="536"/>
+      <c r="H35" s="536"/>
+      <c r="I35" s="536"/>
+      <c r="J35" s="537">
         <f>J34+J33+J32+J31-J30-J29-J28</f>
         <v>3300084.9999999995</v>
       </c>
-      <c r="K35" s="533"/>
+      <c r="K35" s="537"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J36" s="423" t="s">
@@ -13038,10 +13059,10 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J37" s="606" t="s">
+      <c r="J37" s="529" t="s">
         <v>235</v>
       </c>
-      <c r="K37" s="607"/>
+      <c r="K37" s="530"/>
       <c r="L37" s="435">
         <f>J35-2500000</f>
         <v>800084.99999999953</v>
@@ -13049,22 +13070,75 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="93"/>
-      <c r="B38" s="520" t="s">
+      <c r="B38" s="542" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="520"/>
-      <c r="D38" s="520"/>
+      <c r="C38" s="542"/>
+      <c r="D38" s="542"/>
       <c r="E38" s="93"/>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
       <c r="H38" s="93"/>
-      <c r="I38" s="520" t="s">
+      <c r="I38" s="542" t="s">
         <v>114</v>
       </c>
-      <c r="J38" s="520"/>
+      <c r="J38" s="542"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="D34:I34"/>
     <mergeCell ref="J37:K37"/>
@@ -13081,59 +13155,6 @@
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="D29:I29"/>
     <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.91" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -13164,13 +13185,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="519" t="s">
+      <c r="A1" s="548" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="519"/>
-      <c r="C1" s="519"/>
-      <c r="D1" s="519"/>
-      <c r="E1" s="519"/>
+      <c r="B1" s="548"/>
+      <c r="C1" s="548"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
@@ -13190,107 +13211,107 @@
       <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="520" t="s">
+      <c r="A3" s="542" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="520"/>
-      <c r="C3" s="520"/>
-      <c r="D3" s="520"/>
-      <c r="E3" s="520"/>
-      <c r="F3" s="520"/>
-      <c r="G3" s="520"/>
-      <c r="H3" s="520"/>
-      <c r="I3" s="520"/>
-      <c r="J3" s="520"/>
-      <c r="K3" s="520"/>
-      <c r="L3" s="520"/>
+      <c r="B3" s="542"/>
+      <c r="C3" s="542"/>
+      <c r="D3" s="542"/>
+      <c r="E3" s="542"/>
+      <c r="F3" s="542"/>
+      <c r="G3" s="542"/>
+      <c r="H3" s="542"/>
+      <c r="I3" s="542"/>
+      <c r="J3" s="542"/>
+      <c r="K3" s="542"/>
+      <c r="L3" s="542"/>
     </row>
     <row r="4" spans="1:12" s="137" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="521" t="s">
+      <c r="A4" s="543" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="525" t="s">
+      <c r="B4" s="544" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="521" t="s">
+      <c r="C4" s="543" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="521" t="s">
+      <c r="D4" s="543" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="521"/>
-      <c r="F4" s="524" t="s">
+      <c r="E4" s="543"/>
+      <c r="F4" s="545" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="524"/>
-      <c r="H4" s="524"/>
-      <c r="I4" s="524"/>
-      <c r="J4" s="524"/>
-      <c r="K4" s="524"/>
-      <c r="L4" s="524"/>
+      <c r="G4" s="545"/>
+      <c r="H4" s="545"/>
+      <c r="I4" s="545"/>
+      <c r="J4" s="545"/>
+      <c r="K4" s="545"/>
+      <c r="L4" s="545"/>
     </row>
     <row r="5" spans="1:12" s="137" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="521"/>
-      <c r="B5" s="525"/>
-      <c r="C5" s="521"/>
-      <c r="D5" s="521" t="s">
+      <c r="A5" s="543"/>
+      <c r="B5" s="544"/>
+      <c r="C5" s="543"/>
+      <c r="D5" s="543" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="521" t="s">
+      <c r="E5" s="543" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="521" t="s">
+      <c r="F5" s="543" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="521" t="s">
+      <c r="G5" s="543" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="522" t="s">
+      <c r="H5" s="546" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="522" t="s">
+      <c r="I5" s="546" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="523" t="s">
+      <c r="J5" s="547" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="523"/>
-      <c r="L5" s="522" t="s">
+      <c r="K5" s="547"/>
+      <c r="L5" s="546" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="137" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="521"/>
-      <c r="B6" s="525"/>
-      <c r="C6" s="521"/>
-      <c r="D6" s="521"/>
-      <c r="E6" s="521"/>
-      <c r="F6" s="521"/>
-      <c r="G6" s="521"/>
-      <c r="H6" s="522"/>
-      <c r="I6" s="522"/>
+      <c r="A6" s="543"/>
+      <c r="B6" s="544"/>
+      <c r="C6" s="543"/>
+      <c r="D6" s="543"/>
+      <c r="E6" s="543"/>
+      <c r="F6" s="543"/>
+      <c r="G6" s="543"/>
+      <c r="H6" s="546"/>
+      <c r="I6" s="546"/>
       <c r="J6" s="434" t="s">
         <v>84</v>
       </c>
       <c r="K6" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="522"/>
+      <c r="L6" s="546"/>
     </row>
     <row r="7" spans="1:12" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="460">
+      <c r="A7" s="468">
         <v>612</v>
       </c>
-      <c r="B7" s="469">
+      <c r="B7" s="484">
         <v>44032</v>
       </c>
-      <c r="C7" s="460" t="s">
+      <c r="C7" s="468" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="460" t="s">
+      <c r="D7" s="468" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="460" t="s">
+      <c r="E7" s="468" t="s">
         <v>240</v>
       </c>
       <c r="F7" s="432" t="s">
@@ -13316,11 +13337,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="461"/>
-      <c r="B8" s="470"/>
-      <c r="C8" s="461"/>
-      <c r="D8" s="461"/>
-      <c r="E8" s="461"/>
+      <c r="A8" s="469"/>
+      <c r="B8" s="485"/>
+      <c r="C8" s="469"/>
+      <c r="D8" s="469"/>
+      <c r="E8" s="469"/>
       <c r="F8" s="429" t="s">
         <v>186</v>
       </c>
@@ -13344,11 +13365,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="461"/>
-      <c r="B9" s="470"/>
-      <c r="C9" s="461"/>
-      <c r="D9" s="461"/>
-      <c r="E9" s="461"/>
+      <c r="A9" s="469"/>
+      <c r="B9" s="485"/>
+      <c r="C9" s="469"/>
+      <c r="D9" s="469"/>
+      <c r="E9" s="469"/>
       <c r="F9" s="429" t="s">
         <v>196</v>
       </c>
@@ -13372,11 +13393,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="461"/>
-      <c r="B10" s="470"/>
-      <c r="C10" s="461"/>
-      <c r="D10" s="461"/>
-      <c r="E10" s="461"/>
+      <c r="A10" s="469"/>
+      <c r="B10" s="485"/>
+      <c r="C10" s="469"/>
+      <c r="D10" s="469"/>
+      <c r="E10" s="469"/>
       <c r="F10" s="429" t="s">
         <v>187</v>
       </c>
@@ -13400,11 +13421,11 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="461"/>
-      <c r="B11" s="470"/>
-      <c r="C11" s="461"/>
-      <c r="D11" s="461"/>
-      <c r="E11" s="461"/>
+      <c r="A11" s="469"/>
+      <c r="B11" s="485"/>
+      <c r="C11" s="469"/>
+      <c r="D11" s="469"/>
+      <c r="E11" s="469"/>
       <c r="F11" s="429" t="s">
         <v>189</v>
       </c>
@@ -13428,11 +13449,11 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="461"/>
-      <c r="B12" s="470"/>
-      <c r="C12" s="461"/>
-      <c r="D12" s="461"/>
-      <c r="E12" s="461"/>
+      <c r="A12" s="469"/>
+      <c r="B12" s="485"/>
+      <c r="C12" s="469"/>
+      <c r="D12" s="469"/>
+      <c r="E12" s="469"/>
       <c r="F12" s="429" t="s">
         <v>197</v>
       </c>
@@ -13456,11 +13477,11 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="462"/>
-      <c r="B13" s="471"/>
-      <c r="C13" s="462"/>
-      <c r="D13" s="462"/>
-      <c r="E13" s="462"/>
+      <c r="A13" s="470"/>
+      <c r="B13" s="486"/>
+      <c r="C13" s="470"/>
+      <c r="D13" s="470"/>
+      <c r="E13" s="470"/>
       <c r="F13" s="430" t="s">
         <v>198</v>
       </c>
@@ -13484,19 +13505,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="460">
+      <c r="A14" s="468">
         <v>762</v>
       </c>
-      <c r="B14" s="469">
+      <c r="B14" s="484">
         <v>44063</v>
       </c>
-      <c r="C14" s="460" t="s">
+      <c r="C14" s="468" t="s">
         <v>200</v>
       </c>
-      <c r="D14" s="460" t="s">
+      <c r="D14" s="468" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="460" t="s">
+      <c r="E14" s="468" t="s">
         <v>240</v>
       </c>
       <c r="F14" s="432" t="s">
@@ -13522,11 +13543,11 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="461"/>
-      <c r="B15" s="470"/>
-      <c r="C15" s="461"/>
-      <c r="D15" s="461"/>
-      <c r="E15" s="461"/>
+      <c r="A15" s="469"/>
+      <c r="B15" s="485"/>
+      <c r="C15" s="469"/>
+      <c r="D15" s="469"/>
+      <c r="E15" s="469"/>
       <c r="F15" s="429" t="s">
         <v>185</v>
       </c>
@@ -13550,11 +13571,11 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="461"/>
-      <c r="B16" s="470"/>
-      <c r="C16" s="461"/>
-      <c r="D16" s="461"/>
-      <c r="E16" s="461"/>
+      <c r="A16" s="469"/>
+      <c r="B16" s="485"/>
+      <c r="C16" s="469"/>
+      <c r="D16" s="469"/>
+      <c r="E16" s="469"/>
       <c r="F16" s="429" t="s">
         <v>186</v>
       </c>
@@ -13578,11 +13599,11 @@
       </c>
     </row>
     <row r="17" spans="1:12" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="462"/>
-      <c r="B17" s="471"/>
-      <c r="C17" s="462"/>
-      <c r="D17" s="462"/>
-      <c r="E17" s="462"/>
+      <c r="A17" s="470"/>
+      <c r="B17" s="486"/>
+      <c r="C17" s="470"/>
+      <c r="D17" s="470"/>
+      <c r="E17" s="470"/>
       <c r="F17" s="430" t="s">
         <v>198</v>
       </c>
@@ -13606,19 +13627,19 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="460">
+      <c r="A18" s="468">
         <v>469</v>
       </c>
-      <c r="B18" s="469">
+      <c r="B18" s="484">
         <v>44068</v>
       </c>
-      <c r="C18" s="460" t="s">
+      <c r="C18" s="468" t="s">
         <v>200</v>
       </c>
-      <c r="D18" s="460" t="s">
+      <c r="D18" s="468" t="s">
         <v>221</v>
       </c>
-      <c r="E18" s="463" t="s">
+      <c r="E18" s="474" t="s">
         <v>240</v>
       </c>
       <c r="F18" s="432" t="s">
@@ -13644,11 +13665,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="461"/>
-      <c r="B19" s="470"/>
-      <c r="C19" s="461"/>
-      <c r="D19" s="461"/>
-      <c r="E19" s="464"/>
+      <c r="A19" s="469"/>
+      <c r="B19" s="485"/>
+      <c r="C19" s="469"/>
+      <c r="D19" s="469"/>
+      <c r="E19" s="475"/>
       <c r="F19" s="429" t="s">
         <v>185</v>
       </c>
@@ -13672,11 +13693,11 @@
       </c>
     </row>
     <row r="20" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="461"/>
-      <c r="B20" s="470"/>
-      <c r="C20" s="461"/>
-      <c r="D20" s="461"/>
-      <c r="E20" s="464"/>
+      <c r="A20" s="469"/>
+      <c r="B20" s="485"/>
+      <c r="C20" s="469"/>
+      <c r="D20" s="469"/>
+      <c r="E20" s="475"/>
       <c r="F20" s="429" t="s">
         <v>238</v>
       </c>
@@ -13700,11 +13721,11 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="461"/>
-      <c r="B21" s="470"/>
-      <c r="C21" s="461"/>
-      <c r="D21" s="461"/>
-      <c r="E21" s="464"/>
+      <c r="A21" s="469"/>
+      <c r="B21" s="485"/>
+      <c r="C21" s="469"/>
+      <c r="D21" s="469"/>
+      <c r="E21" s="475"/>
       <c r="F21" s="429" t="s">
         <v>183</v>
       </c>
@@ -13728,11 +13749,11 @@
       </c>
     </row>
     <row r="22" spans="1:12" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="461"/>
-      <c r="B22" s="470"/>
-      <c r="C22" s="461"/>
-      <c r="D22" s="461"/>
-      <c r="E22" s="464"/>
+      <c r="A22" s="469"/>
+      <c r="B22" s="485"/>
+      <c r="C22" s="469"/>
+      <c r="D22" s="469"/>
+      <c r="E22" s="475"/>
       <c r="F22" s="429" t="s">
         <v>189</v>
       </c>
@@ -13756,11 +13777,11 @@
       </c>
     </row>
     <row r="23" spans="1:12" s="282" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="462"/>
-      <c r="B23" s="471"/>
-      <c r="C23" s="462"/>
-      <c r="D23" s="462"/>
-      <c r="E23" s="465"/>
+      <c r="A23" s="470"/>
+      <c r="B23" s="486"/>
+      <c r="C23" s="470"/>
+      <c r="D23" s="470"/>
+      <c r="E23" s="480"/>
       <c r="F23" s="430" t="s">
         <v>198</v>
       </c>
@@ -13784,14 +13805,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="545" t="s">
+      <c r="A24" s="549" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="545"/>
-      <c r="C24" s="545"/>
-      <c r="D24" s="545"/>
-      <c r="E24" s="545"/>
-      <c r="F24" s="545"/>
+      <c r="B24" s="549"/>
+      <c r="C24" s="549"/>
+      <c r="D24" s="549"/>
+      <c r="E24" s="549"/>
+      <c r="F24" s="549"/>
       <c r="G24" s="436"/>
       <c r="H24" s="436"/>
       <c r="I24" s="436"/>
@@ -13803,11 +13824,11 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="520" t="s">
+      <c r="A26" s="542" t="s">
         <v>224</v>
       </c>
-      <c r="B26" s="520"/>
-      <c r="C26" s="520"/>
+      <c r="B26" s="542"/>
+      <c r="C26" s="542"/>
       <c r="D26" s="433"/>
       <c r="E26" s="433"/>
       <c r="F26" s="433"/>
@@ -13821,193 +13842,193 @@
       <c r="A27" s="433"/>
       <c r="B27" s="433"/>
       <c r="C27" s="433"/>
-      <c r="D27" s="530" t="s">
+      <c r="D27" s="550" t="s">
         <v>225</v>
       </c>
-      <c r="E27" s="530"/>
-      <c r="F27" s="530"/>
-      <c r="G27" s="530"/>
-      <c r="H27" s="530"/>
-      <c r="I27" s="530"/>
-      <c r="J27" s="531" t="s">
+      <c r="E27" s="550"/>
+      <c r="F27" s="550"/>
+      <c r="G27" s="550"/>
+      <c r="H27" s="550"/>
+      <c r="I27" s="550"/>
+      <c r="J27" s="551" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="531"/>
+      <c r="K27" s="551"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="433"/>
       <c r="B28" s="433"/>
       <c r="C28" s="433"/>
-      <c r="D28" s="532" t="s">
+      <c r="D28" s="536" t="s">
         <v>241</v>
       </c>
-      <c r="E28" s="532"/>
-      <c r="F28" s="532"/>
-      <c r="G28" s="532"/>
-      <c r="H28" s="532"/>
-      <c r="I28" s="532"/>
-      <c r="J28" s="533">
+      <c r="E28" s="536"/>
+      <c r="F28" s="536"/>
+      <c r="G28" s="536"/>
+      <c r="H28" s="536"/>
+      <c r="I28" s="536"/>
+      <c r="J28" s="537">
         <f>L24</f>
         <v>37897500</v>
       </c>
-      <c r="K28" s="533"/>
+      <c r="K28" s="537"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="433"/>
       <c r="B29" s="433"/>
       <c r="C29" s="433"/>
-      <c r="D29" s="532" t="s">
+      <c r="D29" s="536" t="s">
         <v>250</v>
       </c>
-      <c r="E29" s="532"/>
-      <c r="F29" s="532"/>
-      <c r="G29" s="532"/>
-      <c r="H29" s="532"/>
-      <c r="I29" s="532"/>
-      <c r="J29" s="533">
+      <c r="E29" s="536"/>
+      <c r="F29" s="536"/>
+      <c r="G29" s="536"/>
+      <c r="H29" s="536"/>
+      <c r="I29" s="536"/>
+      <c r="J29" s="537">
         <v>7000000</v>
       </c>
-      <c r="K29" s="533"/>
+      <c r="K29" s="537"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="433"/>
       <c r="B30" s="433"/>
       <c r="C30" s="433"/>
-      <c r="D30" s="542" t="s">
+      <c r="D30" s="552" t="s">
         <v>251</v>
       </c>
-      <c r="E30" s="532"/>
-      <c r="F30" s="532"/>
-      <c r="G30" s="532"/>
-      <c r="H30" s="532"/>
-      <c r="I30" s="532"/>
-      <c r="J30" s="533">
+      <c r="E30" s="536"/>
+      <c r="F30" s="536"/>
+      <c r="G30" s="536"/>
+      <c r="H30" s="536"/>
+      <c r="I30" s="536"/>
+      <c r="J30" s="537">
         <v>2000000</v>
       </c>
-      <c r="K30" s="533"/>
+      <c r="K30" s="537"/>
     </row>
     <row r="31" spans="1:12" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="433"/>
       <c r="B31" s="433"/>
       <c r="C31" s="433"/>
-      <c r="D31" s="539" t="s">
+      <c r="D31" s="555" t="s">
         <v>245</v>
       </c>
-      <c r="E31" s="540"/>
-      <c r="F31" s="540"/>
-      <c r="G31" s="540"/>
-      <c r="H31" s="540"/>
-      <c r="I31" s="540"/>
-      <c r="J31" s="541">
+      <c r="E31" s="556"/>
+      <c r="F31" s="556"/>
+      <c r="G31" s="556"/>
+      <c r="H31" s="556"/>
+      <c r="I31" s="556"/>
+      <c r="J31" s="557">
         <f>SUM(J28:K30)</f>
         <v>46897500</v>
       </c>
-      <c r="K31" s="541"/>
+      <c r="K31" s="557"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="433"/>
       <c r="B33" s="433"/>
       <c r="C33" s="433"/>
-      <c r="D33" s="542" t="s">
+      <c r="D33" s="552" t="s">
         <v>242</v>
       </c>
-      <c r="E33" s="532"/>
-      <c r="F33" s="532"/>
-      <c r="G33" s="532"/>
-      <c r="H33" s="532"/>
-      <c r="I33" s="532"/>
-      <c r="J33" s="533">
+      <c r="E33" s="536"/>
+      <c r="F33" s="536"/>
+      <c r="G33" s="536"/>
+      <c r="H33" s="536"/>
+      <c r="I33" s="536"/>
+      <c r="J33" s="537">
         <f>12%*200000000</f>
         <v>24000000</v>
       </c>
-      <c r="K33" s="533"/>
+      <c r="K33" s="537"/>
     </row>
     <row r="34" spans="1:11" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="433"/>
       <c r="B34" s="433"/>
       <c r="C34" s="433"/>
-      <c r="D34" s="542" t="s">
+      <c r="D34" s="552" t="s">
         <v>243</v>
       </c>
-      <c r="E34" s="532"/>
-      <c r="F34" s="532"/>
-      <c r="G34" s="532"/>
-      <c r="H34" s="532"/>
-      <c r="I34" s="532"/>
-      <c r="J34" s="533">
+      <c r="E34" s="536"/>
+      <c r="F34" s="536"/>
+      <c r="G34" s="536"/>
+      <c r="H34" s="536"/>
+      <c r="I34" s="536"/>
+      <c r="J34" s="537">
         <f>12%*300000000</f>
         <v>36000000</v>
       </c>
-      <c r="K34" s="533"/>
+      <c r="K34" s="537"/>
     </row>
     <row r="35" spans="1:11" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="433"/>
       <c r="B35" s="433"/>
       <c r="C35" s="433"/>
-      <c r="D35" s="542" t="s">
+      <c r="D35" s="552" t="s">
         <v>246</v>
       </c>
-      <c r="E35" s="532"/>
-      <c r="F35" s="532"/>
-      <c r="G35" s="532"/>
-      <c r="H35" s="532"/>
-      <c r="I35" s="532"/>
-      <c r="J35" s="533">
+      <c r="E35" s="536"/>
+      <c r="F35" s="536"/>
+      <c r="G35" s="536"/>
+      <c r="H35" s="536"/>
+      <c r="I35" s="536"/>
+      <c r="J35" s="537">
         <v>4880000</v>
       </c>
-      <c r="K35" s="533"/>
+      <c r="K35" s="537"/>
     </row>
     <row r="36" spans="1:11" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="433"/>
       <c r="B36" s="433"/>
       <c r="C36" s="433"/>
-      <c r="D36" s="542" t="s">
+      <c r="D36" s="552" t="s">
         <v>247</v>
       </c>
-      <c r="E36" s="532"/>
-      <c r="F36" s="532"/>
-      <c r="G36" s="532"/>
-      <c r="H36" s="532"/>
-      <c r="I36" s="532"/>
-      <c r="J36" s="533">
+      <c r="E36" s="536"/>
+      <c r="F36" s="536"/>
+      <c r="G36" s="536"/>
+      <c r="H36" s="536"/>
+      <c r="I36" s="536"/>
+      <c r="J36" s="537">
         <v>8000000</v>
       </c>
-      <c r="K36" s="533"/>
+      <c r="K36" s="537"/>
     </row>
     <row r="37" spans="1:11" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="433"/>
       <c r="B37" s="433"/>
       <c r="C37" s="433"/>
-      <c r="D37" s="542" t="s">
+      <c r="D37" s="552" t="s">
         <v>244</v>
       </c>
-      <c r="E37" s="532"/>
-      <c r="F37" s="532"/>
-      <c r="G37" s="532"/>
-      <c r="H37" s="532"/>
-      <c r="I37" s="532"/>
-      <c r="J37" s="533">
+      <c r="E37" s="536"/>
+      <c r="F37" s="536"/>
+      <c r="G37" s="536"/>
+      <c r="H37" s="536"/>
+      <c r="I37" s="536"/>
+      <c r="J37" s="537">
         <v>700000</v>
       </c>
-      <c r="K37" s="533"/>
+      <c r="K37" s="537"/>
     </row>
     <row r="38" spans="1:11" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="433"/>
       <c r="B38" s="433"/>
       <c r="C38" s="433"/>
-      <c r="D38" s="539" t="s">
+      <c r="D38" s="555" t="s">
         <v>248</v>
       </c>
-      <c r="E38" s="540"/>
-      <c r="F38" s="540"/>
-      <c r="G38" s="540"/>
-      <c r="H38" s="540"/>
-      <c r="I38" s="540"/>
-      <c r="J38" s="541">
+      <c r="E38" s="556"/>
+      <c r="F38" s="556"/>
+      <c r="G38" s="556"/>
+      <c r="H38" s="556"/>
+      <c r="I38" s="556"/>
+      <c r="J38" s="557">
         <f>SUM(J33:K37)</f>
         <v>73580000</v>
       </c>
-      <c r="K38" s="541"/>
+      <c r="K38" s="557"/>
     </row>
     <row r="39" spans="1:11" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="433"/>
@@ -14024,21 +14045,21 @@
     </row>
     <row r="40" spans="1:11" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="433"/>
-      <c r="B40" s="543" t="s">
+      <c r="B40" s="553" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="543"/>
-      <c r="D40" s="543"/>
-      <c r="E40" s="543"/>
-      <c r="F40" s="543"/>
-      <c r="G40" s="543"/>
-      <c r="H40" s="543"/>
-      <c r="I40" s="543"/>
-      <c r="J40" s="544">
+      <c r="C40" s="553"/>
+      <c r="D40" s="553"/>
+      <c r="E40" s="553"/>
+      <c r="F40" s="553"/>
+      <c r="G40" s="553"/>
+      <c r="H40" s="553"/>
+      <c r="I40" s="553"/>
+      <c r="J40" s="554">
         <f>J38-J31</f>
         <v>26682500</v>
       </c>
-      <c r="K40" s="544"/>
+      <c r="K40" s="554"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="67"/>
@@ -14055,43 +14076,45 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="433"/>
-      <c r="B42" s="520" t="s">
+      <c r="B42" s="542" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="520"/>
-      <c r="D42" s="520"/>
+      <c r="C42" s="542"/>
+      <c r="D42" s="542"/>
       <c r="E42" s="433"/>
       <c r="F42" s="433"/>
       <c r="G42" s="433"/>
       <c r="H42" s="433"/>
-      <c r="I42" s="520" t="s">
+      <c r="I42" s="542" t="s">
         <v>114</v>
       </c>
-      <c r="J42" s="520"/>
+      <c r="J42" s="542"/>
       <c r="K42" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="J31:K31"/>
     <mergeCell ref="D29:I29"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="E14:E17"/>
@@ -14108,28 +14131,26 @@
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="D27:I27"/>
     <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.44" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -14138,297 +14159,356 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="65"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="519" t="s">
+    <row r="1" spans="2:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="548" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="519"/>
-      <c r="C1" s="519"/>
-      <c r="D1" s="519"/>
-      <c r="E1" s="519"/>
-      <c r="F1" s="67"/>
+      <c r="C1" s="548"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
+      <c r="F1" s="548"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
       <c r="I1" s="67"/>
-    </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="J1" s="67"/>
+    </row>
+    <row r="2" spans="2:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
-      <c r="F2" s="67"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="67"/>
       <c r="H2" s="67"/>
       <c r="I2" s="67"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="505" t="s">
+      <c r="J2" s="67"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="512" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="505"/>
-      <c r="C4" s="505"/>
-      <c r="D4" s="233"/>
+      <c r="C4" s="512"/>
+      <c r="D4" s="512"/>
       <c r="E4" s="233"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="442" t="s">
+      <c r="F4" s="233"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="442" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="442"/>
       <c r="C5" s="442"/>
       <c r="D5" s="442"/>
       <c r="E5" s="442"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="546" t="s">
+      <c r="F5" s="442"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="558" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="547"/>
-      <c r="C6" s="548"/>
-      <c r="D6" s="442"/>
+      <c r="C6" s="559"/>
+      <c r="D6" s="560"/>
       <c r="E6" s="442"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="446" t="s">
+      <c r="F6" s="442"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="446" t="s">
         <v>262</v>
       </c>
-      <c r="B7" s="549">
+      <c r="C7" s="561">
         <v>1071000</v>
       </c>
-      <c r="C7" s="550"/>
-      <c r="D7" s="442"/>
+      <c r="D7" s="562"/>
       <c r="E7" s="442"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="443"/>
-      <c r="B8" s="448" t="s">
+      <c r="F7" s="442"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="443"/>
+      <c r="C8" s="448" t="s">
         <v>263</v>
       </c>
-      <c r="C8" s="448">
+      <c r="D8" s="448">
         <v>397000</v>
       </c>
-      <c r="D8" s="442"/>
       <c r="E8" s="442"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="443"/>
-      <c r="B9" s="448" t="s">
+      <c r="F8" s="442"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="443"/>
+      <c r="C9" s="448" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="448">
+      <c r="D9" s="448">
         <v>674000</v>
       </c>
-      <c r="D9" s="442"/>
       <c r="E9" s="442"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="447" t="s">
+      <c r="F9" s="442"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="447" t="s">
         <v>265</v>
       </c>
-      <c r="B10" s="444"/>
       <c r="C10" s="444"/>
-      <c r="D10" s="442"/>
+      <c r="D10" s="444"/>
       <c r="E10" s="442"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="443"/>
-      <c r="B11" s="444" t="s">
+      <c r="F10" s="442"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="443"/>
+      <c r="C11" s="444" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="444">
+      <c r="D11" s="444">
         <v>0</v>
       </c>
-      <c r="D11" s="442"/>
       <c r="E11" s="442"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="443"/>
-      <c r="B12" s="444" t="s">
+      <c r="F11" s="442"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="443"/>
+      <c r="C12" s="444" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="444">
+      <c r="D12" s="444">
         <v>190000</v>
       </c>
-      <c r="D12" s="442"/>
       <c r="E12" s="442"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="443"/>
-      <c r="B13" s="444" t="s">
+      <c r="F12" s="442"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="443"/>
+      <c r="C13" s="444" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="444">
+      <c r="D13" s="444">
         <v>165000</v>
       </c>
-      <c r="D13" s="442"/>
       <c r="E13" s="442"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="443"/>
-      <c r="B14" s="444" t="s">
+      <c r="F13" s="442"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="443"/>
+      <c r="C14" s="444" t="s">
         <v>271</v>
       </c>
-      <c r="C14" s="444">
+      <c r="D14" s="444">
         <v>544000</v>
       </c>
-      <c r="D14" s="442"/>
       <c r="E14" s="442"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="443"/>
-      <c r="B15" s="444" t="s">
+      <c r="F14" s="442"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="443"/>
+      <c r="C15" s="444" t="s">
         <v>268</v>
       </c>
-      <c r="C15" s="444">
+      <c r="D15" s="444">
         <v>172000</v>
       </c>
-      <c r="D15" s="442"/>
       <c r="E15" s="442"/>
-    </row>
-    <row r="16" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="442"/>
-      <c r="B16" s="445"/>
+      <c r="F15" s="442"/>
+    </row>
+    <row r="16" spans="2:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="442"/>
       <c r="C16" s="445"/>
-      <c r="D16" s="442"/>
+      <c r="D16" s="445"/>
       <c r="E16" s="442"/>
-    </row>
-    <row r="17" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="442"/>
-      <c r="B17" s="445"/>
+      <c r="F16" s="442"/>
+    </row>
+    <row r="17" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="442"/>
       <c r="C17" s="445"/>
-      <c r="D17" s="442"/>
+      <c r="D17" s="445"/>
       <c r="E17" s="442"/>
-    </row>
-    <row r="18" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="546" t="s">
+      <c r="F17" s="442"/>
+    </row>
+    <row r="18" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="558" t="s">
         <v>269</v>
       </c>
-      <c r="B18" s="547"/>
-      <c r="C18" s="548"/>
-      <c r="D18" s="442"/>
+      <c r="C18" s="559"/>
+      <c r="D18" s="560"/>
       <c r="E18" s="442"/>
-    </row>
-    <row r="19" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="446" t="s">
+      <c r="F18" s="442"/>
+    </row>
+    <row r="19" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="446" t="s">
         <v>262</v>
       </c>
-      <c r="B19" s="549">
-        <v>3292000</v>
-      </c>
-      <c r="C19" s="550"/>
-      <c r="D19" s="442"/>
+      <c r="C19" s="561">
+        <f>D23+D24+D25+D26+D27+D28</f>
+        <v>3692000</v>
+      </c>
+      <c r="D19" s="562"/>
       <c r="E19" s="442"/>
-    </row>
-    <row r="20" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="443"/>
-      <c r="B20" s="448" t="s">
+      <c r="F19" s="442"/>
+    </row>
+    <row r="20" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="443"/>
+      <c r="C20" s="448" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="448">
+      <c r="D20" s="448">
         <v>2403000</v>
       </c>
-      <c r="D20" s="442"/>
       <c r="E20" s="442"/>
-    </row>
-    <row r="21" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="443"/>
-      <c r="B21" s="448" t="s">
+      <c r="F20" s="442"/>
+    </row>
+    <row r="21" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="443"/>
+      <c r="C21" s="448" t="s">
         <v>264</v>
       </c>
-      <c r="C21" s="448">
-        <v>889000</v>
-      </c>
-      <c r="D21" s="442"/>
+      <c r="D21" s="448">
+        <f>C19-D20</f>
+        <v>1289000</v>
+      </c>
       <c r="E21" s="442"/>
-    </row>
-    <row r="22" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="447" t="s">
+      <c r="F21" s="442"/>
+    </row>
+    <row r="22" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="447" t="s">
         <v>265</v>
       </c>
-      <c r="B22" s="444"/>
       <c r="C22" s="444"/>
-      <c r="D22" s="442"/>
+      <c r="D22" s="444"/>
       <c r="E22" s="442"/>
-    </row>
-    <row r="23" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="443"/>
-      <c r="B23" s="444" t="s">
+      <c r="F22" s="442"/>
+    </row>
+    <row r="23" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="447"/>
+      <c r="C23" s="444" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23" s="444">
+        <v>400000</v>
+      </c>
+      <c r="E23" s="442"/>
+      <c r="F23" s="442"/>
+    </row>
+    <row r="24" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="443"/>
+      <c r="C24" s="444" t="s">
         <v>266</v>
       </c>
-      <c r="C23" s="444">
+      <c r="D24" s="444">
         <v>990000</v>
       </c>
-      <c r="D23" s="442"/>
-      <c r="E23" s="442"/>
-    </row>
-    <row r="24" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="443"/>
-      <c r="B24" s="444" t="s">
+      <c r="E24" s="442"/>
+      <c r="F24" s="442"/>
+    </row>
+    <row r="25" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="443"/>
+      <c r="C25" s="444" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="444">
+      <c r="D25" s="444">
         <v>345000</v>
       </c>
-      <c r="D24" s="442"/>
-      <c r="E24" s="442"/>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="443"/>
-      <c r="B25" s="444" t="s">
+      <c r="E25" s="442"/>
+      <c r="F25" s="442"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="443"/>
+      <c r="C26" s="444" t="s">
         <v>267</v>
       </c>
-      <c r="C25" s="444">
+      <c r="D26" s="444">
         <v>304000</v>
       </c>
-      <c r="D25" s="442"/>
-      <c r="E25" s="442"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="443"/>
-      <c r="B26" s="444" t="s">
+      <c r="E26" s="442"/>
+      <c r="F26" s="442"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="443"/>
+      <c r="C27" s="444" t="s">
         <v>270</v>
       </c>
-      <c r="C26" s="444">
+      <c r="D27" s="444">
         <v>1453000</v>
       </c>
-      <c r="D26" s="442"/>
-      <c r="E26" s="442"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="443"/>
-      <c r="B27" s="444" t="s">
+      <c r="E27" s="442"/>
+      <c r="F27" s="442"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="443"/>
+      <c r="C28" s="444" t="s">
         <v>268</v>
       </c>
-      <c r="C27" s="444">
+      <c r="D28" s="444">
         <v>200000</v>
       </c>
-      <c r="D27" s="442"/>
-      <c r="E27" s="442"/>
+      <c r="E28" s="442"/>
+      <c r="F28" s="442"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="610" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" s="610"/>
+      <c r="C31" s="610"/>
+      <c r="D31" s="610"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="610"/>
+      <c r="B32" s="611" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" s="611"/>
+      <c r="D32" s="612">
+        <f>C7+C19</f>
+        <v>4763000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="610"/>
+      <c r="B33" s="549" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" s="613" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="612">
+        <f>D8+D20</f>
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="610"/>
+      <c r="B34" s="549"/>
+      <c r="C34" s="613" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="612">
+        <f>D21+D9</f>
+        <v>1963000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A18:C18"/>
+  <mergeCells count="8">
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -14446,13 +14526,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="519" t="s">
+      <c r="A1" s="548" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="519"/>
-      <c r="C1" s="519"/>
-      <c r="D1" s="519"/>
-      <c r="E1" s="519"/>
+      <c r="B1" s="548"/>
+      <c r="C1" s="548"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
@@ -14472,88 +14552,88 @@
       <c r="I2" s="67"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="553" t="s">
+      <c r="A4" s="565" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="553"/>
-      <c r="C4" s="553"/>
-      <c r="D4" s="553"/>
-      <c r="E4" s="553"/>
-      <c r="F4" s="553"/>
-      <c r="G4" s="553"/>
-      <c r="H4" s="553"/>
+      <c r="B4" s="565"/>
+      <c r="C4" s="565"/>
+      <c r="D4" s="565"/>
+      <c r="E4" s="565"/>
+      <c r="F4" s="565"/>
+      <c r="G4" s="565"/>
+      <c r="H4" s="565"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="530" t="s">
+      <c r="A6" s="550" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="530"/>
-      <c r="C6" s="530"/>
-      <c r="D6" s="530"/>
-      <c r="E6" s="530"/>
-      <c r="F6" s="530"/>
-      <c r="G6" s="531" t="s">
+      <c r="B6" s="550"/>
+      <c r="C6" s="550"/>
+      <c r="D6" s="550"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="551" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="531"/>
+      <c r="H6" s="551"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="532" t="s">
+      <c r="A7" s="536" t="s">
         <v>257</v>
       </c>
-      <c r="B7" s="532"/>
-      <c r="C7" s="532"/>
-      <c r="D7" s="532"/>
-      <c r="E7" s="532"/>
-      <c r="F7" s="532"/>
-      <c r="G7" s="533">
+      <c r="B7" s="536"/>
+      <c r="C7" s="536"/>
+      <c r="D7" s="536"/>
+      <c r="E7" s="536"/>
+      <c r="F7" s="536"/>
+      <c r="G7" s="537">
         <v>397000</v>
       </c>
-      <c r="H7" s="533"/>
+      <c r="H7" s="537"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="532" t="s">
+      <c r="A8" s="536" t="s">
         <v>258</v>
       </c>
-      <c r="B8" s="532"/>
-      <c r="C8" s="532"/>
-      <c r="D8" s="532"/>
-      <c r="E8" s="532"/>
-      <c r="F8" s="532"/>
-      <c r="G8" s="533">
+      <c r="B8" s="536"/>
+      <c r="C8" s="536"/>
+      <c r="D8" s="536"/>
+      <c r="E8" s="536"/>
+      <c r="F8" s="536"/>
+      <c r="G8" s="537">
         <v>2403000</v>
       </c>
-      <c r="H8" s="533"/>
+      <c r="H8" s="537"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="534" t="s">
+      <c r="A9" s="526" t="s">
         <v>229</v>
       </c>
-      <c r="B9" s="535"/>
-      <c r="C9" s="535"/>
-      <c r="D9" s="535"/>
-      <c r="E9" s="535"/>
-      <c r="F9" s="536"/>
-      <c r="G9" s="537">
+      <c r="B9" s="527"/>
+      <c r="C9" s="527"/>
+      <c r="D9" s="527"/>
+      <c r="E9" s="527"/>
+      <c r="F9" s="528"/>
+      <c r="G9" s="524">
         <f>'Bảng lương'!K12</f>
         <v>7135000</v>
       </c>
-      <c r="H9" s="538"/>
+      <c r="H9" s="525"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="551" t="s">
+      <c r="A10" s="563" t="s">
         <v>259</v>
       </c>
-      <c r="B10" s="551"/>
-      <c r="C10" s="551"/>
-      <c r="D10" s="551"/>
-      <c r="E10" s="551"/>
-      <c r="F10" s="551"/>
-      <c r="G10" s="552">
+      <c r="B10" s="563"/>
+      <c r="C10" s="563"/>
+      <c r="D10" s="563"/>
+      <c r="E10" s="563"/>
+      <c r="F10" s="563"/>
+      <c r="G10" s="564">
         <f>SUM(G7:H9)</f>
         <v>9935000</v>
       </c>
-      <c r="H10" s="552"/>
+      <c r="H10" s="564"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -15109,16 +15189,16 @@
       <c r="C1" s="148"/>
       <c r="D1" s="148"/>
       <c r="E1" s="148"/>
-      <c r="Z1" s="572" t="s">
+      <c r="Z1" s="571" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="573"/>
-      <c r="AB1" s="573"/>
-      <c r="AC1" s="573"/>
-      <c r="AD1" s="573"/>
-      <c r="AE1" s="573"/>
-      <c r="AF1" s="573"/>
-      <c r="AG1" s="574"/>
+      <c r="AA1" s="572"/>
+      <c r="AB1" s="572"/>
+      <c r="AC1" s="572"/>
+      <c r="AD1" s="572"/>
+      <c r="AE1" s="572"/>
+      <c r="AF1" s="572"/>
+      <c r="AG1" s="573"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="151" t="s">
@@ -15128,18 +15208,18 @@
       <c r="C2" s="152"/>
       <c r="D2" s="152"/>
       <c r="E2" s="152"/>
-      <c r="Z2" s="555" t="s">
+      <c r="Z2" s="566" t="s">
         <v>86</v>
       </c>
-      <c r="AA2" s="556"/>
-      <c r="AB2" s="556"/>
-      <c r="AC2" s="556"/>
-      <c r="AD2" s="556"/>
-      <c r="AE2" s="557"/>
-      <c r="AF2" s="558" t="s">
+      <c r="AA2" s="567"/>
+      <c r="AB2" s="567"/>
+      <c r="AC2" s="567"/>
+      <c r="AD2" s="567"/>
+      <c r="AE2" s="568"/>
+      <c r="AF2" s="569" t="s">
         <v>87</v>
       </c>
-      <c r="AG2" s="559"/>
+      <c r="AG2" s="570"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="151" t="s">
@@ -15149,18 +15229,18 @@
       <c r="C3" s="84"/>
       <c r="D3" s="84"/>
       <c r="E3" s="84"/>
-      <c r="Z3" s="555" t="s">
+      <c r="Z3" s="566" t="s">
         <v>89</v>
       </c>
-      <c r="AA3" s="556"/>
-      <c r="AB3" s="556"/>
-      <c r="AC3" s="556"/>
-      <c r="AD3" s="556"/>
-      <c r="AE3" s="557"/>
-      <c r="AF3" s="558" t="s">
+      <c r="AA3" s="567"/>
+      <c r="AB3" s="567"/>
+      <c r="AC3" s="567"/>
+      <c r="AD3" s="567"/>
+      <c r="AE3" s="568"/>
+      <c r="AF3" s="569" t="s">
         <v>90</v>
       </c>
-      <c r="AG3" s="559"/>
+      <c r="AG3" s="570"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="151" t="s">
@@ -15173,18 +15253,18 @@
       <c r="T4" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="555" t="s">
+      <c r="Z4" s="566" t="s">
         <v>92</v>
       </c>
-      <c r="AA4" s="556"/>
-      <c r="AB4" s="556"/>
-      <c r="AC4" s="556"/>
-      <c r="AD4" s="556"/>
-      <c r="AE4" s="557"/>
-      <c r="AF4" s="558" t="s">
+      <c r="AA4" s="567"/>
+      <c r="AB4" s="567"/>
+      <c r="AC4" s="567"/>
+      <c r="AD4" s="567"/>
+      <c r="AE4" s="568"/>
+      <c r="AF4" s="569" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="559"/>
+      <c r="AG4" s="570"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="151" t="s">
@@ -15194,18 +15274,18 @@
       <c r="C5" s="84"/>
       <c r="D5" s="84"/>
       <c r="E5" s="84"/>
-      <c r="Z5" s="555" t="s">
+      <c r="Z5" s="566" t="s">
         <v>95</v>
       </c>
-      <c r="AA5" s="556"/>
-      <c r="AB5" s="556"/>
-      <c r="AC5" s="556"/>
-      <c r="AD5" s="556"/>
-      <c r="AE5" s="557"/>
-      <c r="AF5" s="558" t="s">
+      <c r="AA5" s="567"/>
+      <c r="AB5" s="567"/>
+      <c r="AC5" s="567"/>
+      <c r="AD5" s="567"/>
+      <c r="AE5" s="568"/>
+      <c r="AF5" s="569" t="s">
         <v>96</v>
       </c>
-      <c r="AG5" s="559"/>
+      <c r="AG5" s="570"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="153"/>
@@ -15215,93 +15295,93 @@
       <c r="E6" s="153"/>
     </row>
     <row r="7" spans="1:40" s="156" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="560" t="s">
+      <c r="A7" s="575" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="560"/>
-      <c r="C7" s="560"/>
-      <c r="D7" s="560"/>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="560"/>
-      <c r="J7" s="560"/>
-      <c r="K7" s="560"/>
-      <c r="L7" s="560"/>
-      <c r="M7" s="560"/>
-      <c r="N7" s="560"/>
-      <c r="O7" s="560"/>
-      <c r="P7" s="560"/>
-      <c r="Q7" s="560"/>
-      <c r="R7" s="560"/>
-      <c r="S7" s="560"/>
-      <c r="T7" s="560"/>
-      <c r="U7" s="560"/>
-      <c r="V7" s="560"/>
-      <c r="W7" s="560"/>
-      <c r="X7" s="560"/>
-      <c r="Y7" s="560"/>
-      <c r="Z7" s="560"/>
-      <c r="AA7" s="560"/>
-      <c r="AB7" s="560"/>
-      <c r="AC7" s="560"/>
-      <c r="AD7" s="560"/>
-      <c r="AE7" s="560"/>
-      <c r="AF7" s="560"/>
-      <c r="AG7" s="560"/>
-      <c r="AH7" s="560"/>
-      <c r="AI7" s="560"/>
-      <c r="AJ7" s="560"/>
-      <c r="AK7" s="560"/>
-      <c r="AL7" s="560"/>
-      <c r="AM7" s="560"/>
+      <c r="B7" s="575"/>
+      <c r="C7" s="575"/>
+      <c r="D7" s="575"/>
+      <c r="E7" s="575"/>
+      <c r="F7" s="575"/>
+      <c r="G7" s="575"/>
+      <c r="H7" s="575"/>
+      <c r="I7" s="575"/>
+      <c r="J7" s="575"/>
+      <c r="K7" s="575"/>
+      <c r="L7" s="575"/>
+      <c r="M7" s="575"/>
+      <c r="N7" s="575"/>
+      <c r="O7" s="575"/>
+      <c r="P7" s="575"/>
+      <c r="Q7" s="575"/>
+      <c r="R7" s="575"/>
+      <c r="S7" s="575"/>
+      <c r="T7" s="575"/>
+      <c r="U7" s="575"/>
+      <c r="V7" s="575"/>
+      <c r="W7" s="575"/>
+      <c r="X7" s="575"/>
+      <c r="Y7" s="575"/>
+      <c r="Z7" s="575"/>
+      <c r="AA7" s="575"/>
+      <c r="AB7" s="575"/>
+      <c r="AC7" s="575"/>
+      <c r="AD7" s="575"/>
+      <c r="AE7" s="575"/>
+      <c r="AF7" s="575"/>
+      <c r="AG7" s="575"/>
+      <c r="AH7" s="575"/>
+      <c r="AI7" s="575"/>
+      <c r="AJ7" s="575"/>
+      <c r="AK7" s="575"/>
+      <c r="AL7" s="575"/>
+      <c r="AM7" s="575"/>
       <c r="AN7" s="155"/>
     </row>
     <row r="9" spans="1:40" s="161" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="561" t="s">
+      <c r="A9" s="576" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="561" t="s">
+      <c r="B9" s="576" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="561" t="s">
+      <c r="C9" s="576" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="564" t="s">
+      <c r="D9" s="579" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="565"/>
-      <c r="F9" s="565"/>
-      <c r="G9" s="565"/>
-      <c r="H9" s="565"/>
-      <c r="I9" s="565"/>
-      <c r="J9" s="565"/>
-      <c r="K9" s="565"/>
-      <c r="L9" s="565"/>
-      <c r="M9" s="565"/>
-      <c r="N9" s="565"/>
-      <c r="O9" s="565"/>
-      <c r="P9" s="565"/>
-      <c r="Q9" s="565"/>
-      <c r="R9" s="565"/>
-      <c r="S9" s="565"/>
-      <c r="T9" s="565"/>
-      <c r="U9" s="565"/>
-      <c r="V9" s="565"/>
-      <c r="W9" s="565"/>
-      <c r="X9" s="565"/>
-      <c r="Y9" s="565"/>
-      <c r="Z9" s="565"/>
-      <c r="AA9" s="565"/>
-      <c r="AB9" s="565"/>
-      <c r="AC9" s="565"/>
-      <c r="AD9" s="565"/>
-      <c r="AE9" s="565"/>
-      <c r="AF9" s="565"/>
-      <c r="AG9" s="565"/>
-      <c r="AH9" s="566"/>
-      <c r="AI9" s="567" t="s">
+      <c r="E9" s="580"/>
+      <c r="F9" s="580"/>
+      <c r="G9" s="580"/>
+      <c r="H9" s="580"/>
+      <c r="I9" s="580"/>
+      <c r="J9" s="580"/>
+      <c r="K9" s="580"/>
+      <c r="L9" s="580"/>
+      <c r="M9" s="580"/>
+      <c r="N9" s="580"/>
+      <c r="O9" s="580"/>
+      <c r="P9" s="580"/>
+      <c r="Q9" s="580"/>
+      <c r="R9" s="580"/>
+      <c r="S9" s="580"/>
+      <c r="T9" s="580"/>
+      <c r="U9" s="580"/>
+      <c r="V9" s="580"/>
+      <c r="W9" s="580"/>
+      <c r="X9" s="580"/>
+      <c r="Y9" s="580"/>
+      <c r="Z9" s="580"/>
+      <c r="AA9" s="580"/>
+      <c r="AB9" s="580"/>
+      <c r="AC9" s="580"/>
+      <c r="AD9" s="580"/>
+      <c r="AE9" s="580"/>
+      <c r="AF9" s="580"/>
+      <c r="AG9" s="580"/>
+      <c r="AH9" s="581"/>
+      <c r="AI9" s="582" t="s">
         <v>101</v>
       </c>
       <c r="AJ9" s="157"/>
@@ -15311,9 +15391,9 @@
       <c r="AN9" s="160"/>
     </row>
     <row r="10" spans="1:40" s="161" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="562"/>
-      <c r="B10" s="562"/>
-      <c r="C10" s="562"/>
+      <c r="A10" s="577"/>
+      <c r="B10" s="577"/>
+      <c r="C10" s="577"/>
       <c r="D10" s="162">
         <v>1</v>
       </c>
@@ -15407,7 +15487,7 @@
       <c r="AH10" s="162">
         <v>31</v>
       </c>
-      <c r="AI10" s="567"/>
+      <c r="AI10" s="582"/>
       <c r="AJ10" s="163"/>
       <c r="AK10" s="159"/>
       <c r="AL10" s="159"/>
@@ -15415,9 +15495,9 @@
       <c r="AN10" s="160"/>
     </row>
     <row r="11" spans="1:40" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="563"/>
-      <c r="B11" s="563"/>
-      <c r="C11" s="563"/>
+      <c r="A11" s="578"/>
+      <c r="B11" s="578"/>
+      <c r="C11" s="578"/>
       <c r="D11" s="162" t="s">
         <v>102</v>
       </c>
@@ -15511,7 +15591,7 @@
       <c r="AH11" s="230" t="s">
         <v>104</v>
       </c>
-      <c r="AI11" s="567"/>
+      <c r="AI11" s="582"/>
       <c r="AJ11" s="167"/>
       <c r="AN11" s="169"/>
     </row>
@@ -15916,10 +15996,10 @@
       <c r="AN15" s="169"/>
     </row>
     <row r="16" spans="1:40" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="568" t="s">
+      <c r="A16" s="583" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="569"/>
+      <c r="B16" s="584"/>
       <c r="C16" s="171"/>
       <c r="D16" s="171"/>
       <c r="E16" s="172"/>
@@ -15962,49 +16042,49 @@
       <c r="AN16" s="169"/>
     </row>
     <row r="18" spans="1:40" s="181" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="570" t="s">
+      <c r="A18" s="585" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="570"/>
-      <c r="C18" s="570"/>
-      <c r="D18" s="570"/>
-      <c r="E18" s="570"/>
-      <c r="F18" s="570"/>
-      <c r="G18" s="570"/>
+      <c r="B18" s="585"/>
+      <c r="C18" s="585"/>
+      <c r="D18" s="585"/>
+      <c r="E18" s="585"/>
+      <c r="F18" s="585"/>
+      <c r="G18" s="585"/>
       <c r="H18" s="176"/>
-      <c r="I18" s="571"/>
-      <c r="J18" s="571"/>
-      <c r="K18" s="571"/>
-      <c r="L18" s="571"/>
-      <c r="M18" s="571"/>
+      <c r="I18" s="586"/>
+      <c r="J18" s="586"/>
+      <c r="K18" s="586"/>
+      <c r="L18" s="586"/>
+      <c r="M18" s="586"/>
       <c r="N18" s="177"/>
-      <c r="O18" s="571" t="s">
+      <c r="O18" s="586" t="s">
         <v>111</v>
       </c>
-      <c r="P18" s="571"/>
-      <c r="Q18" s="571"/>
-      <c r="R18" s="571"/>
-      <c r="S18" s="571"/>
-      <c r="T18" s="571"/>
-      <c r="U18" s="571"/>
-      <c r="V18" s="571"/>
-      <c r="W18" s="571"/>
-      <c r="X18" s="571"/>
-      <c r="Y18" s="571"/>
+      <c r="P18" s="586"/>
+      <c r="Q18" s="586"/>
+      <c r="R18" s="586"/>
+      <c r="S18" s="586"/>
+      <c r="T18" s="586"/>
+      <c r="U18" s="586"/>
+      <c r="V18" s="586"/>
+      <c r="W18" s="586"/>
+      <c r="X18" s="586"/>
+      <c r="Y18" s="586"/>
       <c r="Z18" s="178"/>
       <c r="AA18" s="178"/>
       <c r="AB18" s="179"/>
-      <c r="AC18" s="571"/>
-      <c r="AD18" s="571"/>
-      <c r="AE18" s="571"/>
-      <c r="AF18" s="571"/>
-      <c r="AG18" s="571"/>
-      <c r="AH18" s="571"/>
-      <c r="AI18" s="571"/>
-      <c r="AJ18" s="571"/>
-      <c r="AK18" s="571"/>
-      <c r="AL18" s="571"/>
-      <c r="AM18" s="571"/>
+      <c r="AC18" s="586"/>
+      <c r="AD18" s="586"/>
+      <c r="AE18" s="586"/>
+      <c r="AF18" s="586"/>
+      <c r="AG18" s="586"/>
+      <c r="AH18" s="586"/>
+      <c r="AI18" s="586"/>
+      <c r="AJ18" s="586"/>
+      <c r="AK18" s="586"/>
+      <c r="AL18" s="586"/>
+      <c r="AM18" s="586"/>
       <c r="AN18" s="180"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -16038,131 +16118,131 @@
       <c r="AN33" s="185"/>
     </row>
     <row r="34" spans="3:40" s="184" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="554"/>
-      <c r="H34" s="554"/>
-      <c r="I34" s="554"/>
-      <c r="J34" s="554"/>
-      <c r="K34" s="554"/>
-      <c r="L34" s="554"/>
-      <c r="M34" s="554"/>
-      <c r="N34" s="554"/>
-      <c r="O34" s="554"/>
-      <c r="P34" s="554"/>
-      <c r="Q34" s="554"/>
-      <c r="R34" s="554"/>
-      <c r="S34" s="554"/>
-      <c r="T34" s="554"/>
-      <c r="U34" s="554"/>
-      <c r="V34" s="554"/>
-      <c r="W34" s="554"/>
-      <c r="X34" s="554"/>
+      <c r="G34" s="574"/>
+      <c r="H34" s="574"/>
+      <c r="I34" s="574"/>
+      <c r="J34" s="574"/>
+      <c r="K34" s="574"/>
+      <c r="L34" s="574"/>
+      <c r="M34" s="574"/>
+      <c r="N34" s="574"/>
+      <c r="O34" s="574"/>
+      <c r="P34" s="574"/>
+      <c r="Q34" s="574"/>
+      <c r="R34" s="574"/>
+      <c r="S34" s="574"/>
+      <c r="T34" s="574"/>
+      <c r="U34" s="574"/>
+      <c r="V34" s="574"/>
+      <c r="W34" s="574"/>
+      <c r="X34" s="574"/>
       <c r="AN34" s="185"/>
     </row>
     <row r="35" spans="3:40" s="184" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="554"/>
-      <c r="H35" s="554"/>
-      <c r="I35" s="554"/>
-      <c r="J35" s="554"/>
-      <c r="K35" s="554"/>
-      <c r="L35" s="554"/>
-      <c r="M35" s="554"/>
-      <c r="N35" s="554"/>
-      <c r="O35" s="554"/>
-      <c r="P35" s="554"/>
-      <c r="Q35" s="554"/>
-      <c r="R35" s="554"/>
-      <c r="S35" s="554"/>
-      <c r="T35" s="554"/>
-      <c r="U35" s="554"/>
-      <c r="V35" s="554"/>
-      <c r="W35" s="554"/>
-      <c r="X35" s="554"/>
+      <c r="G35" s="574"/>
+      <c r="H35" s="574"/>
+      <c r="I35" s="574"/>
+      <c r="J35" s="574"/>
+      <c r="K35" s="574"/>
+      <c r="L35" s="574"/>
+      <c r="M35" s="574"/>
+      <c r="N35" s="574"/>
+      <c r="O35" s="574"/>
+      <c r="P35" s="574"/>
+      <c r="Q35" s="574"/>
+      <c r="R35" s="574"/>
+      <c r="S35" s="574"/>
+      <c r="T35" s="574"/>
+      <c r="U35" s="574"/>
+      <c r="V35" s="574"/>
+      <c r="W35" s="574"/>
+      <c r="X35" s="574"/>
       <c r="AN35" s="185"/>
     </row>
     <row r="36" spans="3:40" s="184" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="554"/>
-      <c r="H36" s="554"/>
-      <c r="I36" s="554"/>
-      <c r="J36" s="554"/>
-      <c r="K36" s="554"/>
-      <c r="L36" s="554"/>
-      <c r="M36" s="554"/>
-      <c r="N36" s="554"/>
-      <c r="O36" s="554"/>
-      <c r="P36" s="554"/>
-      <c r="Q36" s="554"/>
-      <c r="R36" s="554"/>
-      <c r="S36" s="554"/>
-      <c r="T36" s="554"/>
-      <c r="U36" s="554"/>
-      <c r="V36" s="554"/>
-      <c r="W36" s="554"/>
-      <c r="X36" s="554"/>
+      <c r="G36" s="574"/>
+      <c r="H36" s="574"/>
+      <c r="I36" s="574"/>
+      <c r="J36" s="574"/>
+      <c r="K36" s="574"/>
+      <c r="L36" s="574"/>
+      <c r="M36" s="574"/>
+      <c r="N36" s="574"/>
+      <c r="O36" s="574"/>
+      <c r="P36" s="574"/>
+      <c r="Q36" s="574"/>
+      <c r="R36" s="574"/>
+      <c r="S36" s="574"/>
+      <c r="T36" s="574"/>
+      <c r="U36" s="574"/>
+      <c r="V36" s="574"/>
+      <c r="W36" s="574"/>
+      <c r="X36" s="574"/>
       <c r="AN36" s="185"/>
     </row>
     <row r="37" spans="3:40" s="184" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="554"/>
-      <c r="H37" s="554"/>
-      <c r="I37" s="554"/>
-      <c r="J37" s="554"/>
-      <c r="K37" s="554"/>
-      <c r="L37" s="554"/>
-      <c r="M37" s="554"/>
-      <c r="N37" s="554"/>
-      <c r="O37" s="554"/>
-      <c r="P37" s="554"/>
-      <c r="Q37" s="554"/>
-      <c r="R37" s="554"/>
-      <c r="S37" s="554"/>
-      <c r="T37" s="554"/>
-      <c r="U37" s="554"/>
-      <c r="V37" s="554"/>
-      <c r="W37" s="554"/>
-      <c r="X37" s="554"/>
+      <c r="G37" s="574"/>
+      <c r="H37" s="574"/>
+      <c r="I37" s="574"/>
+      <c r="J37" s="574"/>
+      <c r="K37" s="574"/>
+      <c r="L37" s="574"/>
+      <c r="M37" s="574"/>
+      <c r="N37" s="574"/>
+      <c r="O37" s="574"/>
+      <c r="P37" s="574"/>
+      <c r="Q37" s="574"/>
+      <c r="R37" s="574"/>
+      <c r="S37" s="574"/>
+      <c r="T37" s="574"/>
+      <c r="U37" s="574"/>
+      <c r="V37" s="574"/>
+      <c r="W37" s="574"/>
+      <c r="X37" s="574"/>
       <c r="AN37" s="185"/>
     </row>
     <row r="38" spans="3:40" s="184" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="554"/>
-      <c r="H38" s="554"/>
-      <c r="I38" s="554"/>
-      <c r="J38" s="554"/>
-      <c r="K38" s="554"/>
-      <c r="L38" s="554"/>
-      <c r="M38" s="554"/>
-      <c r="N38" s="554"/>
-      <c r="O38" s="554"/>
-      <c r="P38" s="554"/>
-      <c r="Q38" s="554"/>
-      <c r="R38" s="554"/>
-      <c r="S38" s="554"/>
-      <c r="T38" s="554"/>
-      <c r="U38" s="554"/>
-      <c r="V38" s="554"/>
-      <c r="W38" s="554"/>
-      <c r="X38" s="554"/>
+      <c r="G38" s="574"/>
+      <c r="H38" s="574"/>
+      <c r="I38" s="574"/>
+      <c r="J38" s="574"/>
+      <c r="K38" s="574"/>
+      <c r="L38" s="574"/>
+      <c r="M38" s="574"/>
+      <c r="N38" s="574"/>
+      <c r="O38" s="574"/>
+      <c r="P38" s="574"/>
+      <c r="Q38" s="574"/>
+      <c r="R38" s="574"/>
+      <c r="S38" s="574"/>
+      <c r="T38" s="574"/>
+      <c r="U38" s="574"/>
+      <c r="V38" s="574"/>
+      <c r="W38" s="574"/>
+      <c r="X38" s="574"/>
       <c r="AN38" s="185"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="149"/>
       <c r="D39" s="149"/>
-      <c r="G39" s="554"/>
-      <c r="H39" s="554"/>
-      <c r="I39" s="554"/>
-      <c r="J39" s="554"/>
-      <c r="K39" s="554"/>
-      <c r="L39" s="554"/>
-      <c r="M39" s="554"/>
-      <c r="N39" s="554"/>
-      <c r="O39" s="554"/>
-      <c r="P39" s="554"/>
-      <c r="Q39" s="554"/>
-      <c r="R39" s="554"/>
-      <c r="S39" s="554"/>
-      <c r="T39" s="554"/>
-      <c r="U39" s="554"/>
-      <c r="V39" s="554"/>
-      <c r="W39" s="554"/>
-      <c r="X39" s="554"/>
+      <c r="G39" s="574"/>
+      <c r="H39" s="574"/>
+      <c r="I39" s="574"/>
+      <c r="J39" s="574"/>
+      <c r="K39" s="574"/>
+      <c r="L39" s="574"/>
+      <c r="M39" s="574"/>
+      <c r="N39" s="574"/>
+      <c r="O39" s="574"/>
+      <c r="P39" s="574"/>
+      <c r="Q39" s="574"/>
+      <c r="R39" s="574"/>
+      <c r="S39" s="574"/>
+      <c r="T39" s="574"/>
+      <c r="U39" s="574"/>
+      <c r="V39" s="574"/>
+      <c r="W39" s="574"/>
+      <c r="X39" s="574"/>
       <c r="AN39" s="149"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -16172,13 +16252,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -16193,6 +16266,13 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="403">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -500,9 +500,6 @@
     <t>Chi phí Quỳnh trang</t>
   </si>
   <si>
-    <t>Tâm thanh toán tiền hàng</t>
-  </si>
-  <si>
     <t>Thanh toán biển bảng Tường Vy</t>
   </si>
   <si>
@@ -953,45 +950,15 @@
     <t>máy giặt</t>
   </si>
   <si>
-    <t>Chị mến trả hàng 1 thùng bầu</t>
-  </si>
-  <si>
-    <t>Chị Huệ trả hàng 1 thùng bầu</t>
-  </si>
-  <si>
-    <t>Chị Hà phú thọ thanh toán tiền hàng</t>
-  </si>
-  <si>
-    <t>Chị Quỳnh Anh Trần Khát Chân</t>
-  </si>
-  <si>
-    <t>Anh Công nhân viên sale</t>
-  </si>
-  <si>
     <t>Vận chuyển hàng Miền Nam</t>
   </si>
   <si>
-    <t>Khách lẻ anh Lâm</t>
-  </si>
-  <si>
-    <t>Chị Hải Lào Cai trả hàng</t>
-  </si>
-  <si>
-    <t>Chị Hà Việt trì</t>
-  </si>
-  <si>
     <t>Chị Huệ điện biên</t>
   </si>
   <si>
     <t>Vận chuyển cho chị huệ</t>
   </si>
   <si>
-    <t>Chị Thắm yên bái</t>
-  </si>
-  <si>
-    <t>Khách lẻ quỳnh trang</t>
-  </si>
-  <si>
     <t>PC/PT</t>
   </si>
   <si>
@@ -1067,9 +1034,6 @@
     <t>PT00158</t>
   </si>
   <si>
-    <t>Chị phương yên châu</t>
-  </si>
-  <si>
     <t>PC00145</t>
   </si>
   <si>
@@ -1221,6 +1185,57 @@
   </si>
   <si>
     <t>Tháng 8/2020</t>
+  </si>
+  <si>
+    <t>Chị Hà phú thọ thanh toán tiền hàng HĐ số 628</t>
+  </si>
+  <si>
+    <t>Tâm thanh toán tiền hàng (Đối trừ lương)</t>
+  </si>
+  <si>
+    <t>Chị Hà Việt trì thanh toán tiền hàng HĐ số 644</t>
+  </si>
+  <si>
+    <t>Chị Hải Lào Cai thanh toán tiền hàng HĐ số 640</t>
+  </si>
+  <si>
+    <t>Khách lẻ anh Lâm thanh toán tiền hàng HĐ số 639</t>
+  </si>
+  <si>
+    <t>Anh Công nhân viên sale thanh toán tiền hàngHĐ số 637)</t>
+  </si>
+  <si>
+    <t>Chị Quỳnh Anh Trần Khát Chân  thanh toán HĐ số 634</t>
+  </si>
+  <si>
+    <t>Chị Quân thanh toán tiền hàng HĐ số 647</t>
+  </si>
+  <si>
+    <t>Chị Huệ điện biên thanh toán tiền hàng HĐ số 751</t>
+  </si>
+  <si>
+    <t>Chị Thắm yên bái thanh toán tiền hàng HĐ số 754</t>
+  </si>
+  <si>
+    <t>Anh Chuyến thanh toán tiền hàng HĐ số 755</t>
+  </si>
+  <si>
+    <t>Chị Huệ điện biên thanh toán tiền hàng HĐ số 761</t>
+  </si>
+  <si>
+    <t>Khách lẻ quỳnh trang thanh toán tiền hàng HĐ số 783</t>
+  </si>
+  <si>
+    <t>Chị phương yên châu thanh toán tiền hàng HĐ số 777</t>
+  </si>
+  <si>
+    <t>Chị Hải Lào Cai trả hàng HĐ số 643</t>
+  </si>
+  <si>
+    <t>Chị mến trả hàng 1 thùng bầu HĐ 551 (Bổ sung thiếu T5)</t>
+  </si>
+  <si>
+    <t>Chị Huệ trả hàng 1 thùng bầu HĐ 1168 (Bổ sung thiếu T6)</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1884,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="686">
+  <cellXfs count="698">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3259,16 +3274,58 @@
     <xf numFmtId="14" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3277,22 +3334,10 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3304,46 +3349,10 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3391,17 +3400,77 @@
     <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3409,24 +3478,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3457,42 +3508,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3502,6 +3517,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3511,111 +3538,99 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3652,33 +3667,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3715,6 +3721,42 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3727,33 +3769,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3784,6 +3799,32 @@
     <xf numFmtId="14" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="23" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4094,11 +4135,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4179,7 +4221,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="509" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C6" s="504" t="s">
         <v>5</v>
@@ -4219,13 +4261,13 @@
         <v>43974</v>
       </c>
       <c r="B8" s="471" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C8" s="472" t="s">
         <v>136</v>
       </c>
       <c r="D8" s="473" t="s">
-        <v>308</v>
+        <v>401</v>
       </c>
       <c r="E8" s="474"/>
       <c r="F8" s="475"/>
@@ -4239,13 +4281,13 @@
         <v>44011</v>
       </c>
       <c r="B9" s="471" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C9" s="472" t="s">
         <v>136</v>
       </c>
       <c r="D9" s="473" t="s">
-        <v>309</v>
+        <v>402</v>
       </c>
       <c r="E9" s="474"/>
       <c r="F9" s="475"/>
@@ -4254,18 +4296,18 @@
         <v>3433800</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="471">
         <v>44039</v>
       </c>
       <c r="B10" s="471" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C10" s="472" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" s="473" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E10" s="474"/>
       <c r="F10" s="475"/>
@@ -4275,37 +4317,37 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="471">
+      <c r="A11" s="686">
         <v>44045</v>
       </c>
-      <c r="B11" s="471" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="472" t="s">
+      <c r="B11" s="686" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="473" t="s">
-        <v>310</v>
-      </c>
-      <c r="E11" s="474"/>
-      <c r="F11" s="475">
+      <c r="D11" s="688" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11" s="689"/>
+      <c r="F11" s="690">
         <v>5044500</v>
       </c>
       <c r="G11" s="474"/>
       <c r="H11" s="475"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="471">
         <v>44045</v>
       </c>
       <c r="B12" s="471" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C12" s="472" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" s="473" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E12" s="474"/>
       <c r="F12" s="475"/>
@@ -4314,18 +4356,18 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="471">
         <v>44045</v>
       </c>
       <c r="B13" s="471" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C13" s="472" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="473" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E13" s="474"/>
       <c r="F13" s="475"/>
@@ -4339,13 +4381,13 @@
         <v>44045</v>
       </c>
       <c r="B14" s="471" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C14" s="472" t="s">
         <v>136</v>
       </c>
       <c r="D14" s="473" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E14" s="474"/>
       <c r="F14" s="475"/>
@@ -4359,7 +4401,7 @@
         <v>44045</v>
       </c>
       <c r="B15" s="471" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C15" s="472" t="s">
         <v>137</v>
@@ -4379,7 +4421,7 @@
         <v>44045</v>
       </c>
       <c r="B16" s="471" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C16" s="472" t="s">
         <v>144</v>
@@ -4399,13 +4441,13 @@
         <v>44046</v>
       </c>
       <c r="B17" s="471" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C17" s="472" t="s">
         <v>136</v>
       </c>
       <c r="D17" s="473" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17" s="474"/>
       <c r="F17" s="475"/>
@@ -4415,62 +4457,62 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="471">
+      <c r="A18" s="686">
         <v>44046</v>
       </c>
-      <c r="B18" s="471" t="s">
-        <v>323</v>
-      </c>
-      <c r="C18" s="472" t="s">
+      <c r="B18" s="686" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="473" t="s">
-        <v>297</v>
-      </c>
-      <c r="E18" s="474"/>
-      <c r="F18" s="475">
+      <c r="D18" s="688" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" s="689"/>
+      <c r="F18" s="690">
         <v>649000</v>
       </c>
       <c r="G18" s="474"/>
       <c r="H18" s="475"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="471">
+      <c r="A19" s="686">
         <v>44046</v>
       </c>
-      <c r="B19" s="471" t="s">
-        <v>324</v>
-      </c>
-      <c r="C19" s="472" t="s">
+      <c r="B19" s="686" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="473" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="474">
+      <c r="D19" s="688" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="689">
         <v>50000000</v>
       </c>
-      <c r="F19" s="475"/>
+      <c r="F19" s="690"/>
       <c r="G19" s="474"/>
       <c r="H19" s="475"/>
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="471">
+      <c r="A20" s="686">
         <v>44047</v>
       </c>
-      <c r="B20" s="471" t="s">
-        <v>325</v>
-      </c>
-      <c r="C20" s="472" t="s">
+      <c r="B20" s="686" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="473" t="s">
-        <v>311</v>
-      </c>
-      <c r="E20" s="474">
+      <c r="D20" s="688" t="s">
+        <v>392</v>
+      </c>
+      <c r="E20" s="689">
         <v>1097400</v>
       </c>
-      <c r="F20" s="475"/>
+      <c r="F20" s="690"/>
       <c r="G20" s="474"/>
       <c r="H20" s="475"/>
     </row>
@@ -4479,7 +4521,7 @@
         <v>44047</v>
       </c>
       <c r="B21" s="471" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C21" s="472" t="s">
         <v>141</v>
@@ -4499,7 +4541,7 @@
         <v>44047</v>
       </c>
       <c r="B22" s="471" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C22" s="472" t="s">
         <v>141</v>
@@ -4519,7 +4561,7 @@
         <v>44047</v>
       </c>
       <c r="B23" s="471" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C23" s="472" t="s">
         <v>151</v>
@@ -4539,7 +4581,7 @@
         <v>44047</v>
       </c>
       <c r="B24" s="471" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C24" s="472" t="s">
         <v>137</v>
@@ -4559,7 +4601,7 @@
         <v>44047</v>
       </c>
       <c r="B25" s="471" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C25" s="472" t="s">
         <v>154</v>
@@ -4580,7 +4622,7 @@
         <v>44047</v>
       </c>
       <c r="B26" s="471" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C26" s="472" t="s">
         <v>137</v>
@@ -4596,20 +4638,20 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="471">
+      <c r="A27" s="686">
         <v>44047</v>
       </c>
-      <c r="B27" s="471" t="s">
-        <v>326</v>
-      </c>
-      <c r="C27" s="472" t="s">
+      <c r="B27" s="686" t="s">
+        <v>315</v>
+      </c>
+      <c r="C27" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="473" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="474"/>
-      <c r="F27" s="475">
+      <c r="D27" s="688" t="s">
+        <v>387</v>
+      </c>
+      <c r="E27" s="689"/>
+      <c r="F27" s="690">
         <f>H26+H25+H24+H23+H22</f>
         <v>9452000</v>
       </c>
@@ -4621,13 +4663,13 @@
         <v>44047</v>
       </c>
       <c r="B28" s="471" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C28" s="472" t="s">
         <v>144</v>
       </c>
       <c r="D28" s="473" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E28" s="474"/>
       <c r="F28" s="475"/>
@@ -4636,18 +4678,18 @@
       </c>
       <c r="H28" s="475"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="471">
         <v>44047</v>
       </c>
       <c r="B29" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C29" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D29" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E29" s="474"/>
       <c r="F29" s="475"/>
@@ -4661,13 +4703,13 @@
         <v>44048</v>
       </c>
       <c r="B30" s="471" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C30" s="472" t="s">
         <v>136</v>
       </c>
       <c r="D30" s="473" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E30" s="474"/>
       <c r="F30" s="475"/>
@@ -4677,20 +4719,20 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="471">
+      <c r="A31" s="686">
         <v>44048</v>
       </c>
-      <c r="B31" s="471" t="s">
-        <v>327</v>
-      </c>
-      <c r="C31" s="472" t="s">
+      <c r="B31" s="686" t="s">
+        <v>316</v>
+      </c>
+      <c r="C31" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="473" t="s">
-        <v>312</v>
-      </c>
-      <c r="E31" s="474"/>
-      <c r="F31" s="475">
+      <c r="D31" s="688" t="s">
+        <v>391</v>
+      </c>
+      <c r="E31" s="689"/>
+      <c r="F31" s="690">
         <v>5737500</v>
       </c>
       <c r="G31" s="474"/>
@@ -4701,13 +4743,13 @@
         <v>44048</v>
       </c>
       <c r="B32" s="471" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C32" s="472" t="s">
         <v>144</v>
       </c>
       <c r="D32" s="473" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E32" s="474"/>
       <c r="F32" s="475"/>
@@ -4716,18 +4758,18 @@
       </c>
       <c r="H32" s="475"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="471">
         <v>44048</v>
       </c>
       <c r="B33" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C33" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D33" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E33" s="474"/>
       <c r="F33" s="475"/>
@@ -4737,37 +4779,37 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="471">
+      <c r="A34" s="686">
         <v>44049</v>
       </c>
-      <c r="B34" s="471" t="s">
-        <v>328</v>
-      </c>
-      <c r="C34" s="472" t="s">
+      <c r="B34" s="686" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="473" t="s">
-        <v>166</v>
-      </c>
-      <c r="E34" s="474">
+      <c r="D34" s="688" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="689">
         <v>30000000</v>
       </c>
-      <c r="F34" s="475"/>
+      <c r="F34" s="690"/>
       <c r="G34" s="474"/>
       <c r="H34" s="475"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="471">
         <v>44049</v>
       </c>
       <c r="B35" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C35" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D35" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E35" s="474"/>
       <c r="F35" s="475"/>
@@ -4776,18 +4818,18 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="471">
         <v>44049</v>
       </c>
       <c r="B36" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C36" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D36" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E36" s="474"/>
       <c r="F36" s="475"/>
@@ -4796,18 +4838,18 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="471">
         <v>44050</v>
       </c>
       <c r="B37" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C37" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D37" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E37" s="474"/>
       <c r="F37" s="475"/>
@@ -4816,18 +4858,18 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="471">
         <v>44051</v>
       </c>
       <c r="B38" s="471" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C38" s="472" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D38" s="473" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E38" s="474"/>
       <c r="F38" s="475"/>
@@ -4841,13 +4883,13 @@
         <v>44051</v>
       </c>
       <c r="B39" s="471" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C39" s="472" t="s">
         <v>136</v>
       </c>
       <c r="D39" s="473" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E39" s="474"/>
       <c r="F39" s="475"/>
@@ -4861,13 +4903,13 @@
         <v>44051</v>
       </c>
       <c r="B40" s="471" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C40" s="472" t="s">
         <v>137</v>
       </c>
       <c r="D40" s="473" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E40" s="474"/>
       <c r="F40" s="475"/>
@@ -4881,13 +4923,13 @@
         <v>44051</v>
       </c>
       <c r="B41" s="471" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C41" s="472" t="s">
         <v>137</v>
       </c>
       <c r="D41" s="473" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E41" s="474"/>
       <c r="F41" s="475"/>
@@ -4901,13 +4943,13 @@
         <v>44053</v>
       </c>
       <c r="B42" s="471" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C42" s="472" t="s">
         <v>137</v>
       </c>
       <c r="D42" s="473" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E42" s="474"/>
       <c r="F42" s="475"/>
@@ -4917,22 +4959,22 @@
       <c r="H42" s="475"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="471">
+      <c r="A43" s="686">
         <v>44053</v>
       </c>
-      <c r="B43" s="471" t="s">
-        <v>329</v>
-      </c>
-      <c r="C43" s="472" t="s">
+      <c r="B43" s="686" t="s">
+        <v>318</v>
+      </c>
+      <c r="C43" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="473" t="s">
-        <v>165</v>
-      </c>
-      <c r="E43" s="474">
+      <c r="D43" s="688" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="689">
         <v>100000000</v>
       </c>
-      <c r="F43" s="475"/>
+      <c r="F43" s="690"/>
       <c r="G43" s="474"/>
       <c r="H43" s="475"/>
     </row>
@@ -4941,13 +4983,13 @@
         <v>44054</v>
       </c>
       <c r="B44" s="471" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C44" s="472" t="s">
         <v>144</v>
       </c>
       <c r="D44" s="473" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E44" s="474"/>
       <c r="F44" s="475"/>
@@ -4957,22 +4999,22 @@
       <c r="H44" s="475"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="471">
+      <c r="A45" s="686">
         <v>44054</v>
       </c>
-      <c r="B45" s="471" t="s">
-        <v>330</v>
-      </c>
-      <c r="C45" s="472" t="s">
+      <c r="B45" s="686" t="s">
+        <v>319</v>
+      </c>
+      <c r="C45" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="473" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="474">
+      <c r="D45" s="688" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="689">
         <v>20000000</v>
       </c>
-      <c r="F45" s="475"/>
+      <c r="F45" s="690"/>
       <c r="G45" s="474"/>
       <c r="H45" s="475"/>
     </row>
@@ -4981,13 +5023,13 @@
         <v>44054</v>
       </c>
       <c r="B46" s="471" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C46" s="472" t="s">
         <v>137</v>
       </c>
       <c r="D46" s="473" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E46" s="474"/>
       <c r="F46" s="475"/>
@@ -4997,42 +5039,42 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="471">
+      <c r="A47" s="686">
         <v>44055</v>
       </c>
-      <c r="B47" s="471" t="s">
-        <v>331</v>
-      </c>
-      <c r="C47" s="472" t="s">
+      <c r="B47" s="686" t="s">
+        <v>320</v>
+      </c>
+      <c r="C47" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="473" t="s">
-        <v>314</v>
-      </c>
-      <c r="E47" s="474"/>
-      <c r="F47" s="475">
+      <c r="D47" s="688" t="s">
+        <v>390</v>
+      </c>
+      <c r="E47" s="689"/>
+      <c r="F47" s="690">
         <v>554600</v>
       </c>
       <c r="G47" s="474"/>
       <c r="H47" s="475"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="471">
+      <c r="A48" s="686">
         <v>44055</v>
       </c>
-      <c r="B48" s="471" t="s">
-        <v>332</v>
-      </c>
-      <c r="C48" s="472" t="s">
+      <c r="B48" s="686" t="s">
+        <v>321</v>
+      </c>
+      <c r="C48" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="473" t="s">
-        <v>299</v>
-      </c>
-      <c r="E48" s="474">
+      <c r="D48" s="688" t="s">
+        <v>298</v>
+      </c>
+      <c r="E48" s="689">
         <v>100000000</v>
       </c>
-      <c r="F48" s="475"/>
+      <c r="F48" s="690"/>
       <c r="G48" s="474"/>
       <c r="H48" s="475"/>
     </row>
@@ -5041,13 +5083,13 @@
         <v>44055</v>
       </c>
       <c r="B49" s="471" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C49" s="472" t="s">
         <v>144</v>
       </c>
       <c r="D49" s="473" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E49" s="474"/>
       <c r="F49" s="475"/>
@@ -5061,13 +5103,13 @@
         <v>44055</v>
       </c>
       <c r="B50" s="471" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C50" s="472" t="s">
         <v>141</v>
       </c>
       <c r="D50" s="473" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E50" s="474"/>
       <c r="F50" s="475"/>
@@ -5077,20 +5119,20 @@
       <c r="H50" s="475"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="471">
+      <c r="A51" s="686">
         <v>44055</v>
       </c>
-      <c r="B51" s="471" t="s">
-        <v>333</v>
-      </c>
-      <c r="C51" s="472" t="s">
+      <c r="B51" s="686" t="s">
+        <v>322</v>
+      </c>
+      <c r="C51" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="473" t="s">
-        <v>199</v>
-      </c>
-      <c r="E51" s="474"/>
-      <c r="F51" s="475">
+      <c r="D51" s="688" t="s">
+        <v>389</v>
+      </c>
+      <c r="E51" s="689"/>
+      <c r="F51" s="690">
         <v>6655200</v>
       </c>
       <c r="G51" s="474"/>
@@ -5101,13 +5143,13 @@
         <v>44055</v>
       </c>
       <c r="B52" s="471" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C52" s="472" t="s">
         <v>144</v>
       </c>
       <c r="D52" s="473" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E52" s="474"/>
       <c r="F52" s="475"/>
@@ -5116,38 +5158,38 @@
       </c>
       <c r="H52" s="475"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="471">
+    <row r="53" spans="1:8" s="697" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="693">
         <v>44056</v>
       </c>
-      <c r="B53" s="471" t="s">
-        <v>371</v>
-      </c>
-      <c r="C53" s="472" t="s">
+      <c r="B53" s="693" t="s">
+        <v>359</v>
+      </c>
+      <c r="C53" s="694" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="473" t="s">
-        <v>315</v>
-      </c>
-      <c r="E53" s="474"/>
-      <c r="F53" s="475"/>
-      <c r="G53" s="474"/>
-      <c r="H53" s="475">
+      <c r="D53" s="695" t="s">
+        <v>400</v>
+      </c>
+      <c r="E53" s="696"/>
+      <c r="F53" s="414"/>
+      <c r="G53" s="696"/>
+      <c r="H53" s="414">
         <v>3292200</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="471">
         <v>44056</v>
       </c>
       <c r="B54" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C54" s="472" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D54" s="473" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E54" s="474"/>
       <c r="F54" s="475"/>
@@ -5156,18 +5198,18 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="471">
         <v>44056</v>
       </c>
       <c r="B55" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C55" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D55" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D55" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E55" s="474"/>
       <c r="F55" s="475"/>
@@ -5176,18 +5218,18 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="471">
         <v>44056</v>
       </c>
       <c r="B56" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C56" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D56" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E56" s="474"/>
       <c r="F56" s="475"/>
@@ -5197,57 +5239,57 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="471">
+      <c r="A57" s="686">
         <v>44056</v>
       </c>
-      <c r="B57" s="471" t="s">
-        <v>334</v>
-      </c>
-      <c r="C57" s="472" t="s">
+      <c r="B57" s="686" t="s">
+        <v>323</v>
+      </c>
+      <c r="C57" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D57" s="473" t="s">
-        <v>316</v>
-      </c>
-      <c r="E57" s="474"/>
-      <c r="F57" s="475">
+      <c r="D57" s="688" t="s">
+        <v>388</v>
+      </c>
+      <c r="E57" s="689"/>
+      <c r="F57" s="690">
         <v>6867600</v>
       </c>
       <c r="G57" s="474"/>
       <c r="H57" s="475"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="471">
+      <c r="A58" s="686">
         <v>44056</v>
       </c>
-      <c r="B58" s="471" t="s">
-        <v>335</v>
-      </c>
-      <c r="C58" s="472" t="s">
+      <c r="B58" s="686" t="s">
+        <v>324</v>
+      </c>
+      <c r="C58" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D58" s="473" t="s">
-        <v>201</v>
-      </c>
-      <c r="E58" s="474"/>
-      <c r="F58" s="475">
+      <c r="D58" s="688" t="s">
+        <v>393</v>
+      </c>
+      <c r="E58" s="689"/>
+      <c r="F58" s="690">
         <v>1354050</v>
       </c>
       <c r="G58" s="474"/>
       <c r="H58" s="475"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="471">
         <v>44057</v>
       </c>
       <c r="B59" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C59" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D59" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E59" s="474"/>
       <c r="F59" s="475"/>
@@ -5261,13 +5303,13 @@
         <v>44057</v>
       </c>
       <c r="B60" s="471" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C60" s="472" t="s">
         <v>144</v>
       </c>
       <c r="D60" s="473" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E60" s="474"/>
       <c r="F60" s="475"/>
@@ -5281,13 +5323,13 @@
         <v>44057</v>
       </c>
       <c r="B61" s="471" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C61" s="472" t="s">
         <v>136</v>
       </c>
       <c r="D61" s="473" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E61" s="474"/>
       <c r="F61" s="475"/>
@@ -5297,18 +5339,18 @@
       </c>
       <c r="H61" s="475"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="471">
         <v>44057</v>
       </c>
       <c r="B62" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C62" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D62" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D62" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E62" s="474"/>
       <c r="F62" s="475"/>
@@ -5317,18 +5359,18 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="471">
         <v>44058</v>
       </c>
       <c r="B63" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C63" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D63" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D63" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E63" s="474"/>
       <c r="F63" s="475"/>
@@ -5342,7 +5384,7 @@
         <v>44058</v>
       </c>
       <c r="B64" s="471" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C64" s="472" t="s">
         <v>137</v>
@@ -5357,18 +5399,18 @@
       </c>
       <c r="H64" s="475"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="471">
         <v>44059</v>
       </c>
       <c r="B65" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C65" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D65" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E65" s="474"/>
       <c r="F65" s="475"/>
@@ -5377,18 +5419,18 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="471">
         <v>44060</v>
       </c>
       <c r="B66" s="471" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C66" s="472" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D66" s="473" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E66" s="474"/>
       <c r="F66" s="475"/>
@@ -5398,40 +5440,40 @@
       <c r="H66" s="475"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="471">
+      <c r="A67" s="686">
         <v>44060</v>
       </c>
-      <c r="B67" s="471" t="s">
-        <v>336</v>
-      </c>
-      <c r="C67" s="472" t="s">
+      <c r="B67" s="686" t="s">
+        <v>325</v>
+      </c>
+      <c r="C67" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="473" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" s="474">
+      <c r="D67" s="688" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="689">
         <v>8000000</v>
       </c>
-      <c r="F67" s="475"/>
+      <c r="F67" s="690"/>
       <c r="G67" s="474"/>
       <c r="H67" s="475"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="471">
+      <c r="A68" s="686">
         <v>44060</v>
       </c>
-      <c r="B68" s="471" t="s">
-        <v>337</v>
-      </c>
-      <c r="C68" s="472" t="s">
+      <c r="B68" s="686" t="s">
+        <v>326</v>
+      </c>
+      <c r="C68" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="473" t="s">
-        <v>317</v>
-      </c>
-      <c r="E68" s="474"/>
-      <c r="F68" s="475">
+      <c r="D68" s="688" t="s">
+        <v>394</v>
+      </c>
+      <c r="E68" s="689"/>
+      <c r="F68" s="690">
         <v>16284000</v>
       </c>
       <c r="G68" s="474"/>
@@ -5442,13 +5484,13 @@
         <v>44060</v>
       </c>
       <c r="B69" s="471" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C69" s="472" t="s">
         <v>151</v>
       </c>
       <c r="D69" s="473" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E69" s="474"/>
       <c r="F69" s="475"/>
@@ -5462,13 +5504,13 @@
         <v>44060</v>
       </c>
       <c r="B70" s="471" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C70" s="472" t="s">
         <v>141</v>
       </c>
       <c r="D70" s="473" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E70" s="474"/>
       <c r="F70" s="475"/>
@@ -5482,7 +5524,7 @@
         <v>44060</v>
       </c>
       <c r="B71" s="471" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C71" s="472" t="s">
         <v>139</v>
@@ -5502,7 +5544,7 @@
         <v>44060</v>
       </c>
       <c r="B72" s="471" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C72" s="472" t="s">
         <v>141</v>
@@ -5518,40 +5560,40 @@
       <c r="H72" s="475"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="471">
+      <c r="A73" s="686">
         <v>44061</v>
       </c>
-      <c r="B73" s="471" t="s">
-        <v>338</v>
-      </c>
-      <c r="C73" s="472" t="s">
+      <c r="B73" s="686" t="s">
+        <v>327</v>
+      </c>
+      <c r="C73" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="473" t="s">
-        <v>165</v>
-      </c>
-      <c r="E73" s="474">
+      <c r="D73" s="688" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" s="689">
         <v>100000000</v>
       </c>
-      <c r="F73" s="475"/>
+      <c r="F73" s="690"/>
       <c r="G73" s="474"/>
       <c r="H73" s="475"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="471">
+      <c r="A74" s="686">
         <v>44061</v>
       </c>
-      <c r="B74" s="471" t="s">
-        <v>339</v>
-      </c>
-      <c r="C74" s="472" t="s">
+      <c r="B74" s="686" t="s">
+        <v>328</v>
+      </c>
+      <c r="C74" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D74" s="473" t="s">
-        <v>319</v>
-      </c>
-      <c r="E74" s="474"/>
-      <c r="F74" s="475">
+      <c r="D74" s="688" t="s">
+        <v>395</v>
+      </c>
+      <c r="E74" s="689"/>
+      <c r="F74" s="690">
         <v>3363000</v>
       </c>
       <c r="G74" s="474"/>
@@ -5562,13 +5604,13 @@
         <v>44061</v>
       </c>
       <c r="B75" s="471" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C75" s="472" t="s">
         <v>151</v>
       </c>
       <c r="D75" s="473" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E75" s="474"/>
       <c r="F75" s="475"/>
@@ -5582,7 +5624,7 @@
         <v>44061</v>
       </c>
       <c r="B76" s="471" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C76" s="472" t="s">
         <v>137</v>
@@ -5598,20 +5640,20 @@
       <c r="H76" s="475"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="471">
+      <c r="A77" s="686">
         <v>44061</v>
       </c>
-      <c r="B77" s="471" t="s">
-        <v>340</v>
-      </c>
-      <c r="C77" s="472" t="s">
+      <c r="B77" s="686" t="s">
+        <v>329</v>
+      </c>
+      <c r="C77" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="473" t="s">
-        <v>208</v>
-      </c>
-      <c r="E77" s="474"/>
-      <c r="F77" s="475">
+      <c r="D77" s="688" t="s">
+        <v>396</v>
+      </c>
+      <c r="E77" s="689"/>
+      <c r="F77" s="690">
         <v>1430750</v>
       </c>
       <c r="G77" s="474"/>
@@ -5622,13 +5664,13 @@
         <v>44062</v>
       </c>
       <c r="B78" s="471" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C78" s="472" t="s">
         <v>137</v>
       </c>
       <c r="D78" s="473" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E78" s="474"/>
       <c r="F78" s="475"/>
@@ -5642,13 +5684,13 @@
         <v>44062</v>
       </c>
       <c r="B79" s="471" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C79" s="472" t="s">
         <v>136</v>
       </c>
       <c r="D79" s="473" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E79" s="474"/>
       <c r="F79" s="475"/>
@@ -5662,13 +5704,13 @@
         <v>44062</v>
       </c>
       <c r="B80" s="471" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C80" s="472" t="s">
         <v>136</v>
       </c>
       <c r="D80" s="473" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E80" s="474"/>
       <c r="F80" s="475"/>
@@ -5683,7 +5725,7 @@
         <v>44062</v>
       </c>
       <c r="B81" s="471" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C81" s="472" t="s">
         <v>144</v>
@@ -5703,7 +5745,7 @@
         <v>44062</v>
       </c>
       <c r="B82" s="471" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C82" s="472" t="s">
         <v>137</v>
@@ -5723,13 +5765,13 @@
         <v>44062</v>
       </c>
       <c r="B83" s="471" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C83" s="472" t="s">
         <v>151</v>
       </c>
       <c r="D83" s="476" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E83" s="474"/>
       <c r="F83" s="475"/>
@@ -5739,20 +5781,20 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="471">
+      <c r="A84" s="686">
         <v>44063</v>
       </c>
-      <c r="B84" s="471" t="s">
-        <v>341</v>
-      </c>
-      <c r="C84" s="472" t="s">
+      <c r="B84" s="686" t="s">
+        <v>330</v>
+      </c>
+      <c r="C84" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D84" s="476" t="s">
-        <v>317</v>
-      </c>
-      <c r="E84" s="474"/>
-      <c r="F84" s="475">
+      <c r="D84" s="691" t="s">
+        <v>397</v>
+      </c>
+      <c r="E84" s="689"/>
+      <c r="F84" s="690">
         <v>6584400</v>
       </c>
       <c r="G84" s="474"/>
@@ -5763,13 +5805,13 @@
         <v>44063</v>
       </c>
       <c r="B85" s="471" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C85" s="472" t="s">
         <v>151</v>
       </c>
       <c r="D85" s="476" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E85" s="474"/>
       <c r="F85" s="475"/>
@@ -5778,18 +5820,18 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="471">
         <v>44064</v>
       </c>
       <c r="B86" s="471" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C86" s="472" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="473" t="s">
         <v>167</v>
-      </c>
-      <c r="D86" s="473" t="s">
-        <v>168</v>
       </c>
       <c r="E86" s="474"/>
       <c r="F86" s="475"/>
@@ -5798,18 +5840,18 @@
       </c>
       <c r="H86" s="477"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="471">
         <v>44064</v>
       </c>
       <c r="B87" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C87" s="472" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D87" s="473" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E87" s="474"/>
       <c r="F87" s="475"/>
@@ -5819,22 +5861,22 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="471">
+      <c r="A88" s="686">
         <v>44064</v>
       </c>
-      <c r="B88" s="471" t="s">
-        <v>342</v>
-      </c>
-      <c r="C88" s="472" t="s">
+      <c r="B88" s="686" t="s">
+        <v>331</v>
+      </c>
+      <c r="C88" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D88" s="473" t="s">
-        <v>299</v>
-      </c>
-      <c r="E88" s="474">
+      <c r="D88" s="688" t="s">
+        <v>298</v>
+      </c>
+      <c r="E88" s="689">
         <v>80000000</v>
       </c>
-      <c r="F88" s="475"/>
+      <c r="F88" s="690"/>
       <c r="G88" s="474"/>
       <c r="H88" s="477"/>
     </row>
@@ -5843,13 +5885,13 @@
         <v>44064</v>
       </c>
       <c r="B89" s="471" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C89" s="472" t="s">
         <v>136</v>
       </c>
       <c r="D89" s="473" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E89" s="474"/>
       <c r="F89" s="475"/>
@@ -5859,18 +5901,18 @@
       </c>
       <c r="H89" s="477"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="471">
         <v>44064</v>
       </c>
       <c r="B90" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C90" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D90" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D90" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E90" s="474"/>
       <c r="F90" s="475"/>
@@ -5879,18 +5921,18 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="471">
         <v>44065</v>
       </c>
       <c r="B91" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C91" s="472" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="473" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E91" s="474"/>
       <c r="F91" s="475"/>
@@ -5899,18 +5941,18 @@
         <v>1014560</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="471">
         <v>44065</v>
       </c>
       <c r="B92" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C92" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D92" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D92" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E92" s="474"/>
       <c r="F92" s="475"/>
@@ -5924,13 +5966,13 @@
         <v>44065</v>
       </c>
       <c r="B93" s="471" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C93" s="472" t="s">
         <v>137</v>
       </c>
       <c r="D93" s="473" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E93" s="474"/>
       <c r="F93" s="475"/>
@@ -5939,18 +5981,18 @@
       </c>
       <c r="H93" s="477"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="471">
         <v>44066</v>
       </c>
       <c r="B94" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C94" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D94" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D94" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E94" s="474"/>
       <c r="F94" s="475"/>
@@ -5959,18 +6001,18 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="471">
         <v>44066</v>
       </c>
       <c r="B95" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C95" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D95" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D95" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E95" s="474"/>
       <c r="F95" s="475"/>
@@ -5979,18 +6021,18 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="471">
         <v>44067</v>
       </c>
       <c r="B96" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C96" s="472" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D96" s="473" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E96" s="474"/>
       <c r="F96" s="475"/>
@@ -6000,37 +6042,37 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="471">
+      <c r="A97" s="686">
         <v>44068</v>
       </c>
-      <c r="B97" s="471" t="s">
-        <v>343</v>
-      </c>
-      <c r="C97" s="472" t="s">
+      <c r="B97" s="686" t="s">
+        <v>332</v>
+      </c>
+      <c r="C97" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D97" s="473" t="s">
-        <v>166</v>
-      </c>
-      <c r="E97" s="474">
+      <c r="D97" s="688" t="s">
+        <v>165</v>
+      </c>
+      <c r="E97" s="689">
         <v>10000000</v>
       </c>
-      <c r="F97" s="475"/>
+      <c r="F97" s="690"/>
       <c r="G97" s="474"/>
       <c r="H97" s="477"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="471">
         <v>44069</v>
       </c>
       <c r="B98" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C98" s="472" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D98" s="473" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E98" s="474"/>
       <c r="F98" s="475"/>
@@ -6044,13 +6086,13 @@
         <v>44070</v>
       </c>
       <c r="B99" s="471" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C99" s="472" t="s">
         <v>136</v>
       </c>
       <c r="D99" s="478" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E99" s="474"/>
       <c r="F99" s="475"/>
@@ -6065,13 +6107,13 @@
         <v>44070</v>
       </c>
       <c r="B100" s="471" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C100" s="472" t="s">
         <v>151</v>
       </c>
       <c r="D100" s="478" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E100" s="474"/>
       <c r="F100" s="475"/>
@@ -6080,21 +6122,21 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="471">
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="686">
         <v>44070</v>
       </c>
-      <c r="B101" s="471" t="s">
-        <v>345</v>
-      </c>
-      <c r="C101" s="472" t="s">
+      <c r="B101" s="686" t="s">
+        <v>334</v>
+      </c>
+      <c r="C101" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D101" s="478" t="s">
-        <v>346</v>
-      </c>
-      <c r="E101" s="474"/>
-      <c r="F101" s="475">
+      <c r="D101" s="692" t="s">
+        <v>399</v>
+      </c>
+      <c r="E101" s="689"/>
+      <c r="F101" s="690">
         <v>3327600</v>
       </c>
       <c r="G101" s="474"/>
@@ -6105,13 +6147,13 @@
         <v>44071</v>
       </c>
       <c r="B102" s="471" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C102" s="472" t="s">
         <v>141</v>
       </c>
       <c r="D102" s="476" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E102" s="474"/>
       <c r="F102" s="475"/>
@@ -6120,18 +6162,18 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="471">
         <v>44071</v>
       </c>
       <c r="B103" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C103" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D103" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D103" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E103" s="474"/>
       <c r="F103" s="475"/>
@@ -6141,37 +6183,37 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="471">
+      <c r="A104" s="686">
         <v>44071</v>
       </c>
-      <c r="B104" s="471" t="s">
-        <v>344</v>
-      </c>
-      <c r="C104" s="472" t="s">
+      <c r="B104" s="686" t="s">
+        <v>333</v>
+      </c>
+      <c r="C104" s="687" t="s">
         <v>136</v>
       </c>
-      <c r="D104" s="473" t="s">
-        <v>320</v>
-      </c>
-      <c r="E104" s="474"/>
-      <c r="F104" s="475">
+      <c r="D104" s="688" t="s">
+        <v>398</v>
+      </c>
+      <c r="E104" s="689"/>
+      <c r="F104" s="690">
         <v>225000</v>
       </c>
       <c r="G104" s="474"/>
       <c r="H104" s="477"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="471">
         <v>44073</v>
       </c>
       <c r="B105" s="471" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C105" s="472" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D105" s="473" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E105" s="474"/>
       <c r="F105" s="475"/>
@@ -6180,18 +6222,18 @@
         <v>1736000</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="471">
         <v>44073</v>
       </c>
       <c r="B106" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C106" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D106" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D106" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E106" s="474"/>
       <c r="F106" s="475"/>
@@ -6200,18 +6242,18 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="471">
         <v>44073</v>
       </c>
       <c r="B107" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C107" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D107" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D107" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E107" s="474"/>
       <c r="F107" s="475"/>
@@ -6220,18 +6262,18 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="471">
         <v>44074</v>
       </c>
       <c r="B108" s="471" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C108" s="472" t="s">
+        <v>260</v>
+      </c>
+      <c r="D108" s="473" t="s">
         <v>261</v>
-      </c>
-      <c r="D108" s="473" t="s">
-        <v>262</v>
       </c>
       <c r="E108" s="474"/>
       <c r="F108" s="475"/>
@@ -6246,13 +6288,13 @@
         <v>44074</v>
       </c>
       <c r="B109" s="471" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C109" s="472" t="s">
         <v>144</v>
       </c>
       <c r="D109" s="473" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E109" s="474"/>
       <c r="F109" s="475"/>
@@ -6266,13 +6308,13 @@
         <v>44074</v>
       </c>
       <c r="B110" s="471" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C110" s="472" t="s">
         <v>144</v>
       </c>
       <c r="D110" s="473" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E110" s="474"/>
       <c r="F110" s="475"/>
@@ -6404,6 +6446,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:H111">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="Biển bảng"/>
+        <filter val="Hàng hóa"/>
+        <filter val="Khác"/>
+        <filter val="Lương, thưởng"/>
+        <filter val="Vận Chuyển"/>
+        <filter val="Văn phòng"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
@@ -6459,13 +6511,13 @@
       <c r="J2" s="197"/>
     </row>
     <row r="3" spans="1:14" s="195" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="573" t="s">
+      <c r="A3" s="585" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="573"/>
-      <c r="C3" s="573"/>
-      <c r="D3" s="573"/>
-      <c r="E3" s="573"/>
+      <c r="B3" s="585"/>
+      <c r="C3" s="585"/>
+      <c r="D3" s="585"/>
+      <c r="E3" s="585"/>
       <c r="F3" s="194"/>
       <c r="G3" s="194"/>
       <c r="H3" s="194"/>
@@ -6526,7 +6578,7 @@
         <v>44045</v>
       </c>
       <c r="C7" s="199" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="254">
         <v>20000</v>
@@ -6541,7 +6593,7 @@
         <v>44048</v>
       </c>
       <c r="C8" s="200" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D8" s="204"/>
       <c r="E8" s="204">
@@ -6556,7 +6608,7 @@
         <v>44055</v>
       </c>
       <c r="C9" s="200" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" s="204"/>
       <c r="E9" s="204">
@@ -6571,7 +6623,7 @@
         <v>44055</v>
       </c>
       <c r="C10" s="200" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" s="204"/>
       <c r="E10" s="204">
@@ -6586,7 +6638,7 @@
         <v>44056</v>
       </c>
       <c r="C11" s="200" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11" s="204"/>
       <c r="E11" s="204">
@@ -6601,7 +6653,7 @@
         <v>44056</v>
       </c>
       <c r="C12" s="200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="204">
         <v>20000</v>
@@ -6616,7 +6668,7 @@
         <v>44060</v>
       </c>
       <c r="C13" s="200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13" s="204">
         <v>20000</v>
@@ -6633,7 +6685,7 @@
         <v>44061</v>
       </c>
       <c r="C14" s="200" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D14" s="204"/>
       <c r="E14" s="204">
@@ -6648,7 +6700,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="200" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D15" s="204"/>
       <c r="E15" s="204">
@@ -6663,7 +6715,7 @@
         <v>44061</v>
       </c>
       <c r="C16" s="200" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D16" s="204">
         <v>20000</v>
@@ -6678,7 +6730,7 @@
         <v>44063</v>
       </c>
       <c r="C17" s="200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="204"/>
       <c r="E17" s="204">
@@ -6818,8 +6870,8 @@
   <dimension ref="A1:R134"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L49" sqref="L49:L50"/>
+      <pane ySplit="8" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L114" sqref="L114:L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6844,13 +6896,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="540" t="s">
+      <c r="A1" s="538" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="540"/>
-      <c r="C1" s="540"/>
-      <c r="D1" s="540"/>
-      <c r="E1" s="540"/>
+      <c r="B1" s="538"/>
+      <c r="C1" s="538"/>
+      <c r="D1" s="538"/>
+      <c r="E1" s="538"/>
       <c r="N1" s="233"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -6864,165 +6916,165 @@
       <c r="N2" s="237"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="541" t="s">
+      <c r="A3" s="539" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="541"/>
-      <c r="C3" s="541"/>
-      <c r="D3" s="541"/>
-      <c r="E3" s="541"/>
-      <c r="F3" s="541"/>
-      <c r="G3" s="541"/>
-      <c r="H3" s="541"/>
-      <c r="I3" s="541"/>
-      <c r="J3" s="541"/>
-      <c r="K3" s="541"/>
-      <c r="L3" s="541"/>
-      <c r="M3" s="541"/>
-      <c r="N3" s="541"/>
-      <c r="O3" s="541"/>
-      <c r="P3" s="541"/>
+      <c r="B3" s="539"/>
+      <c r="C3" s="539"/>
+      <c r="D3" s="539"/>
+      <c r="E3" s="539"/>
+      <c r="F3" s="539"/>
+      <c r="G3" s="539"/>
+      <c r="H3" s="539"/>
+      <c r="I3" s="539"/>
+      <c r="J3" s="539"/>
+      <c r="K3" s="539"/>
+      <c r="L3" s="539"/>
+      <c r="M3" s="539"/>
+      <c r="N3" s="539"/>
+      <c r="O3" s="539"/>
+      <c r="P3" s="539"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="541" t="s">
+      <c r="A4" s="539" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="541"/>
-      <c r="C4" s="541"/>
-      <c r="D4" s="541"/>
-      <c r="E4" s="541"/>
-      <c r="F4" s="541"/>
-      <c r="G4" s="541"/>
-      <c r="H4" s="541"/>
-      <c r="I4" s="541"/>
-      <c r="J4" s="541"/>
-      <c r="K4" s="541"/>
-      <c r="L4" s="541"/>
-      <c r="M4" s="541"/>
-      <c r="N4" s="541"/>
-      <c r="O4" s="541"/>
-      <c r="P4" s="541"/>
+      <c r="B4" s="539"/>
+      <c r="C4" s="539"/>
+      <c r="D4" s="539"/>
+      <c r="E4" s="539"/>
+      <c r="F4" s="539"/>
+      <c r="G4" s="539"/>
+      <c r="H4" s="539"/>
+      <c r="I4" s="539"/>
+      <c r="J4" s="539"/>
+      <c r="K4" s="539"/>
+      <c r="L4" s="539"/>
+      <c r="M4" s="539"/>
+      <c r="N4" s="539"/>
+      <c r="O4" s="539"/>
+      <c r="P4" s="539"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="541"/>
-      <c r="B5" s="541"/>
-      <c r="C5" s="541"/>
-      <c r="D5" s="541"/>
-      <c r="E5" s="541"/>
-      <c r="F5" s="541"/>
-      <c r="G5" s="541"/>
-      <c r="H5" s="541"/>
-      <c r="I5" s="541"/>
-      <c r="J5" s="541"/>
-      <c r="K5" s="542"/>
-      <c r="L5" s="542"/>
+      <c r="A5" s="539"/>
+      <c r="B5" s="539"/>
+      <c r="C5" s="539"/>
+      <c r="D5" s="539"/>
+      <c r="E5" s="539"/>
+      <c r="F5" s="539"/>
+      <c r="G5" s="539"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="539"/>
+      <c r="J5" s="539"/>
+      <c r="K5" s="540"/>
+      <c r="L5" s="540"/>
     </row>
     <row r="6" spans="1:17" s="238" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="543" t="s">
+      <c r="A6" s="541" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="543" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="543" t="s">
+      <c r="C6" s="541" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="549" t="s">
+      <c r="D6" s="547" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="549"/>
-      <c r="F6" s="550" t="s">
+      <c r="E6" s="547"/>
+      <c r="F6" s="548" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="550"/>
-      <c r="H6" s="550"/>
-      <c r="I6" s="550"/>
-      <c r="J6" s="550"/>
-      <c r="K6" s="550"/>
-      <c r="L6" s="550"/>
-      <c r="M6" s="551"/>
-      <c r="N6" s="551"/>
-      <c r="O6" s="551"/>
-      <c r="P6" s="552" t="s">
+      <c r="G6" s="548"/>
+      <c r="H6" s="548"/>
+      <c r="I6" s="548"/>
+      <c r="J6" s="548"/>
+      <c r="K6" s="548"/>
+      <c r="L6" s="548"/>
+      <c r="M6" s="549"/>
+      <c r="N6" s="549"/>
+      <c r="O6" s="549"/>
+      <c r="P6" s="550" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="238" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="544"/>
-      <c r="B7" s="546"/>
-      <c r="C7" s="544"/>
-      <c r="D7" s="543" t="s">
+      <c r="A7" s="542"/>
+      <c r="B7" s="544"/>
+      <c r="C7" s="542"/>
+      <c r="D7" s="541" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="543" t="s">
+      <c r="E7" s="541" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="543" t="s">
+      <c r="F7" s="541" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="543" t="s">
+      <c r="G7" s="541" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="547" t="s">
+      <c r="H7" s="545" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="547" t="s">
+      <c r="I7" s="545" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="554" t="s">
+      <c r="J7" s="552" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="554"/>
-      <c r="L7" s="547" t="s">
+      <c r="K7" s="552"/>
+      <c r="L7" s="545" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="547" t="s">
+      <c r="M7" s="545" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="547" t="s">
+      <c r="N7" s="545" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="547" t="s">
+      <c r="O7" s="545" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="553"/>
+      <c r="P7" s="551"/>
     </row>
     <row r="8" spans="1:17" s="238" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="544"/>
-      <c r="B8" s="546"/>
-      <c r="C8" s="544"/>
-      <c r="D8" s="544"/>
-      <c r="E8" s="544"/>
-      <c r="F8" s="544"/>
-      <c r="G8" s="544"/>
-      <c r="H8" s="548"/>
-      <c r="I8" s="548"/>
+      <c r="A8" s="542"/>
+      <c r="B8" s="544"/>
+      <c r="C8" s="542"/>
+      <c r="D8" s="542"/>
+      <c r="E8" s="542"/>
+      <c r="F8" s="542"/>
+      <c r="G8" s="542"/>
+      <c r="H8" s="546"/>
+      <c r="I8" s="546"/>
       <c r="J8" s="379" t="s">
         <v>84</v>
       </c>
       <c r="K8" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="548"/>
-      <c r="M8" s="548"/>
-      <c r="N8" s="548"/>
-      <c r="O8" s="548"/>
-      <c r="P8" s="553"/>
+      <c r="L8" s="546"/>
+      <c r="M8" s="546"/>
+      <c r="N8" s="546"/>
+      <c r="O8" s="546"/>
+      <c r="P8" s="551"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="517">
+      <c r="A9" s="511">
         <v>630</v>
       </c>
-      <c r="B9" s="526">
+      <c r="B9" s="519">
         <v>44044</v>
       </c>
-      <c r="C9" s="517" t="s">
+      <c r="C9" s="511" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="511"/>
+      <c r="E9" s="511"/>
+      <c r="F9" s="380" t="s">
         <v>175</v>
-      </c>
-      <c r="D9" s="517"/>
-      <c r="E9" s="517"/>
-      <c r="F9" s="380" t="s">
-        <v>176</v>
       </c>
       <c r="G9" s="380">
         <v>1</v>
@@ -7051,13 +7103,13 @@
       <c r="P9" s="380"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="518"/>
-      <c r="B10" s="527"/>
-      <c r="C10" s="518"/>
-      <c r="D10" s="518"/>
-      <c r="E10" s="518"/>
+      <c r="A10" s="515"/>
+      <c r="B10" s="523"/>
+      <c r="C10" s="515"/>
+      <c r="D10" s="515"/>
+      <c r="E10" s="515"/>
       <c r="F10" s="385" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G10" s="385">
         <v>1</v>
@@ -7086,13 +7138,13 @@
       <c r="P10" s="372"/>
     </row>
     <row r="11" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="518"/>
-      <c r="B11" s="527"/>
-      <c r="C11" s="518"/>
-      <c r="D11" s="518"/>
-      <c r="E11" s="518"/>
+      <c r="A11" s="515"/>
+      <c r="B11" s="523"/>
+      <c r="C11" s="515"/>
+      <c r="D11" s="515"/>
+      <c r="E11" s="515"/>
       <c r="F11" s="385" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" s="385">
         <v>4</v>
@@ -7122,13 +7174,13 @@
       <c r="Q11" s="395"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="519"/>
-      <c r="B12" s="528"/>
-      <c r="C12" s="519"/>
-      <c r="D12" s="519"/>
-      <c r="E12" s="519"/>
+      <c r="A12" s="512"/>
+      <c r="B12" s="520"/>
+      <c r="C12" s="512"/>
+      <c r="D12" s="512"/>
+      <c r="E12" s="512"/>
       <c r="F12" s="381" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G12" s="381">
         <v>1</v>
@@ -7157,23 +7209,23 @@
       <c r="P12" s="374"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="511">
+      <c r="A13" s="517">
         <v>628</v>
       </c>
-      <c r="B13" s="513">
+      <c r="B13" s="531">
         <v>44045</v>
       </c>
-      <c r="C13" s="511" t="s">
+      <c r="C13" s="517" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="517" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="511" t="s">
+      <c r="E13" s="517" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="511" t="s">
+      <c r="F13" s="373" t="s">
         <v>173</v>
-      </c>
-      <c r="F13" s="373" t="s">
-        <v>174</v>
       </c>
       <c r="G13" s="373">
         <v>12</v>
@@ -7202,13 +7254,13 @@
       <c r="P13" s="373"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="529"/>
-      <c r="B14" s="530"/>
-      <c r="C14" s="529"/>
-      <c r="D14" s="529"/>
-      <c r="E14" s="529"/>
+      <c r="A14" s="518"/>
+      <c r="B14" s="537"/>
+      <c r="C14" s="518"/>
+      <c r="D14" s="518"/>
+      <c r="E14" s="518"/>
       <c r="F14" s="400" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G14" s="400">
         <v>6</v>
@@ -7244,12 +7296,12 @@
         <v>44046</v>
       </c>
       <c r="C15" s="404" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" s="404"/>
       <c r="E15" s="404"/>
       <c r="F15" s="400" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G15" s="400">
         <v>2</v>
@@ -7285,16 +7337,16 @@
         <v>44047</v>
       </c>
       <c r="C16" s="373" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" s="407" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="407" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="407" t="s">
-        <v>182</v>
-      </c>
       <c r="F16" s="373" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G16" s="373">
         <v>4</v>
@@ -7323,21 +7375,21 @@
       <c r="P16" s="407"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="517">
+      <c r="A17" s="511">
         <v>635</v>
       </c>
-      <c r="B17" s="526">
+      <c r="B17" s="519">
         <v>44047</v>
       </c>
-      <c r="C17" s="517"/>
-      <c r="D17" s="523" t="s">
+      <c r="C17" s="511"/>
+      <c r="D17" s="533" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="533" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="523" t="s">
-        <v>184</v>
-      </c>
       <c r="F17" s="380" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G17" s="380">
         <v>24</v>
@@ -7366,13 +7418,13 @@
       <c r="P17" s="411"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="519"/>
-      <c r="B18" s="528"/>
-      <c r="C18" s="519"/>
-      <c r="D18" s="525"/>
-      <c r="E18" s="525"/>
+      <c r="A18" s="512"/>
+      <c r="B18" s="520"/>
+      <c r="C18" s="512"/>
+      <c r="D18" s="535"/>
+      <c r="E18" s="535"/>
       <c r="F18" s="381" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G18" s="381">
         <v>24</v>
@@ -7401,21 +7453,21 @@
       <c r="P18" s="413"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="517">
+      <c r="A19" s="511">
         <v>637</v>
       </c>
-      <c r="B19" s="526">
+      <c r="B19" s="519">
         <v>44048</v>
       </c>
-      <c r="C19" s="517" t="s">
+      <c r="C19" s="511" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="533" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="523" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="523"/>
+      <c r="E19" s="533"/>
       <c r="F19" s="380" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G19" s="380">
         <v>3</v>
@@ -7444,13 +7496,13 @@
       <c r="P19" s="411"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="518"/>
-      <c r="B20" s="527"/>
-      <c r="C20" s="518"/>
-      <c r="D20" s="524"/>
-      <c r="E20" s="524"/>
+      <c r="A20" s="515"/>
+      <c r="B20" s="523"/>
+      <c r="C20" s="515"/>
+      <c r="D20" s="534"/>
+      <c r="E20" s="534"/>
       <c r="F20" s="385" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G20" s="385">
         <v>3</v>
@@ -7479,13 +7531,13 @@
       <c r="P20" s="415"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="518"/>
-      <c r="B21" s="527"/>
-      <c r="C21" s="518"/>
-      <c r="D21" s="524"/>
-      <c r="E21" s="524"/>
+      <c r="A21" s="515"/>
+      <c r="B21" s="523"/>
+      <c r="C21" s="515"/>
+      <c r="D21" s="534"/>
+      <c r="E21" s="534"/>
       <c r="F21" s="385" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G21" s="385">
         <v>3</v>
@@ -7514,13 +7566,13 @@
       <c r="P21" s="415"/>
     </row>
     <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="518"/>
-      <c r="B22" s="527"/>
-      <c r="C22" s="518"/>
-      <c r="D22" s="524"/>
-      <c r="E22" s="524"/>
+      <c r="A22" s="515"/>
+      <c r="B22" s="523"/>
+      <c r="C22" s="515"/>
+      <c r="D22" s="534"/>
+      <c r="E22" s="534"/>
       <c r="F22" s="385" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G22" s="385">
         <v>3</v>
@@ -7549,13 +7601,13 @@
       <c r="P22" s="415"/>
     </row>
     <row r="23" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="518"/>
-      <c r="B23" s="527"/>
-      <c r="C23" s="518"/>
-      <c r="D23" s="524"/>
-      <c r="E23" s="524"/>
+      <c r="A23" s="515"/>
+      <c r="B23" s="523"/>
+      <c r="C23" s="515"/>
+      <c r="D23" s="534"/>
+      <c r="E23" s="534"/>
       <c r="F23" s="385" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G23" s="385">
         <v>3</v>
@@ -7585,13 +7637,13 @@
       <c r="R23" s="395"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="518"/>
-      <c r="B24" s="527"/>
-      <c r="C24" s="518"/>
-      <c r="D24" s="524"/>
-      <c r="E24" s="524"/>
+      <c r="A24" s="515"/>
+      <c r="B24" s="523"/>
+      <c r="C24" s="515"/>
+      <c r="D24" s="534"/>
+      <c r="E24" s="534"/>
       <c r="F24" s="385" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G24" s="385">
         <v>3</v>
@@ -7620,13 +7672,13 @@
       <c r="P24" s="385"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="518"/>
-      <c r="B25" s="527"/>
-      <c r="C25" s="518"/>
-      <c r="D25" s="524"/>
-      <c r="E25" s="524"/>
+      <c r="A25" s="515"/>
+      <c r="B25" s="523"/>
+      <c r="C25" s="515"/>
+      <c r="D25" s="534"/>
+      <c r="E25" s="534"/>
       <c r="F25" s="385" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G25" s="385">
         <v>3</v>
@@ -7655,13 +7707,13 @@
       <c r="P25" s="385"/>
     </row>
     <row r="26" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="519"/>
-      <c r="B26" s="528"/>
-      <c r="C26" s="519"/>
-      <c r="D26" s="525"/>
-      <c r="E26" s="525"/>
+      <c r="A26" s="512"/>
+      <c r="B26" s="520"/>
+      <c r="C26" s="512"/>
+      <c r="D26" s="535"/>
+      <c r="E26" s="535"/>
       <c r="F26" s="381" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G26" s="381">
         <v>3</v>
@@ -7690,23 +7742,23 @@
       <c r="P26" s="381"/>
     </row>
     <row r="27" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="517">
+      <c r="A27" s="511">
         <v>638</v>
       </c>
-      <c r="B27" s="526">
+      <c r="B27" s="519">
         <v>44048</v>
       </c>
-      <c r="C27" s="517" t="s">
+      <c r="C27" s="511" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="511" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="511" t="s">
         <v>191</v>
       </c>
-      <c r="D27" s="517" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" s="517" t="s">
+      <c r="F27" s="380" t="s">
         <v>192</v>
-      </c>
-      <c r="F27" s="380" t="s">
-        <v>193</v>
       </c>
       <c r="G27" s="380">
         <v>48</v>
@@ -7735,13 +7787,13 @@
       <c r="P27" s="380"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="518"/>
-      <c r="B28" s="527"/>
-      <c r="C28" s="518"/>
-      <c r="D28" s="518"/>
-      <c r="E28" s="518"/>
+      <c r="A28" s="515"/>
+      <c r="B28" s="523"/>
+      <c r="C28" s="515"/>
+      <c r="D28" s="515"/>
+      <c r="E28" s="515"/>
       <c r="F28" s="385" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G28" s="385">
         <v>36</v>
@@ -7770,13 +7822,13 @@
       <c r="P28" s="385"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="518"/>
-      <c r="B29" s="527"/>
-      <c r="C29" s="518"/>
-      <c r="D29" s="518"/>
-      <c r="E29" s="518"/>
+      <c r="A29" s="515"/>
+      <c r="B29" s="523"/>
+      <c r="C29" s="515"/>
+      <c r="D29" s="515"/>
+      <c r="E29" s="515"/>
       <c r="F29" s="385" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G29" s="385">
         <v>48</v>
@@ -7805,13 +7857,13 @@
       <c r="P29" s="415"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="518"/>
-      <c r="B30" s="527"/>
-      <c r="C30" s="518"/>
-      <c r="D30" s="518"/>
-      <c r="E30" s="518"/>
+      <c r="A30" s="515"/>
+      <c r="B30" s="523"/>
+      <c r="C30" s="515"/>
+      <c r="D30" s="515"/>
+      <c r="E30" s="515"/>
       <c r="F30" s="385" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G30" s="385">
         <v>24</v>
@@ -7840,13 +7892,13 @@
       <c r="P30" s="385"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="518"/>
-      <c r="B31" s="527"/>
-      <c r="C31" s="518"/>
-      <c r="D31" s="518"/>
-      <c r="E31" s="518"/>
+      <c r="A31" s="515"/>
+      <c r="B31" s="523"/>
+      <c r="C31" s="515"/>
+      <c r="D31" s="515"/>
+      <c r="E31" s="515"/>
       <c r="F31" s="385" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G31" s="385">
         <v>36</v>
@@ -7875,13 +7927,13 @@
       <c r="P31" s="385"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="518"/>
-      <c r="B32" s="527"/>
-      <c r="C32" s="518"/>
-      <c r="D32" s="518"/>
-      <c r="E32" s="518"/>
+      <c r="A32" s="515"/>
+      <c r="B32" s="523"/>
+      <c r="C32" s="515"/>
+      <c r="D32" s="515"/>
+      <c r="E32" s="515"/>
       <c r="F32" s="385" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G32" s="385">
         <v>24</v>
@@ -7910,13 +7962,13 @@
       <c r="P32" s="385"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="519"/>
-      <c r="B33" s="528"/>
-      <c r="C33" s="519"/>
-      <c r="D33" s="519"/>
-      <c r="E33" s="519"/>
+      <c r="A33" s="512"/>
+      <c r="B33" s="520"/>
+      <c r="C33" s="512"/>
+      <c r="D33" s="512"/>
+      <c r="E33" s="512"/>
       <c r="F33" s="381" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G33" s="381">
         <v>24</v>
@@ -7945,21 +7997,21 @@
       <c r="P33" s="422"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="517">
+      <c r="A34" s="511">
         <v>653</v>
       </c>
-      <c r="B34" s="526">
+      <c r="B34" s="519">
         <v>44051</v>
       </c>
-      <c r="C34" s="517"/>
-      <c r="D34" s="517" t="s">
+      <c r="C34" s="511"/>
+      <c r="D34" s="511" t="s">
+        <v>275</v>
+      </c>
+      <c r="E34" s="511" t="s">
         <v>276</v>
       </c>
-      <c r="E34" s="517" t="s">
-        <v>277</v>
-      </c>
       <c r="F34" s="380" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G34" s="380">
         <v>12</v>
@@ -7988,13 +8040,13 @@
       <c r="P34" s="423"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="519"/>
-      <c r="B35" s="528"/>
-      <c r="C35" s="519"/>
-      <c r="D35" s="519"/>
-      <c r="E35" s="519"/>
+      <c r="A35" s="512"/>
+      <c r="B35" s="520"/>
+      <c r="C35" s="512"/>
+      <c r="D35" s="512"/>
+      <c r="E35" s="512"/>
       <c r="F35" s="381" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G35" s="381">
         <v>12</v>
@@ -8023,19 +8075,19 @@
       <c r="P35" s="422"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="511">
+      <c r="A36" s="517">
         <v>646</v>
       </c>
-      <c r="B36" s="513">
+      <c r="B36" s="531">
         <v>44053</v>
       </c>
-      <c r="C36" s="511" t="s">
+      <c r="C36" s="517" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="529"/>
+      <c r="E36" s="517"/>
+      <c r="F36" s="230" t="s">
         <v>175</v>
-      </c>
-      <c r="D36" s="515"/>
-      <c r="E36" s="511"/>
-      <c r="F36" s="230" t="s">
-        <v>176</v>
       </c>
       <c r="G36" s="230">
         <v>1</v>
@@ -8065,13 +8117,13 @@
       <c r="Q36" s="395"/>
     </row>
     <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="512"/>
-      <c r="B37" s="514"/>
-      <c r="C37" s="512"/>
-      <c r="D37" s="516"/>
-      <c r="E37" s="512"/>
+      <c r="A37" s="527"/>
+      <c r="B37" s="532"/>
+      <c r="C37" s="527"/>
+      <c r="D37" s="530"/>
+      <c r="E37" s="527"/>
       <c r="F37" s="383" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G37" s="383">
         <v>1</v>
@@ -8101,21 +8153,21 @@
       <c r="Q37" s="395"/>
     </row>
     <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="517">
+      <c r="A38" s="511">
         <v>657</v>
       </c>
-      <c r="B38" s="526">
+      <c r="B38" s="519">
         <v>44053</v>
       </c>
-      <c r="C38" s="526" t="s">
+      <c r="C38" s="519" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="524" t="s">
         <v>273</v>
       </c>
-      <c r="D38" s="556" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" s="526"/>
+      <c r="E38" s="519"/>
       <c r="F38" s="380" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G38" s="380">
         <v>1</v>
@@ -8142,13 +8194,13 @@
       <c r="Q38" s="395"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="518"/>
-      <c r="B39" s="527"/>
-      <c r="C39" s="527"/>
-      <c r="D39" s="557"/>
-      <c r="E39" s="527"/>
+      <c r="A39" s="515"/>
+      <c r="B39" s="523"/>
+      <c r="C39" s="523"/>
+      <c r="D39" s="525"/>
+      <c r="E39" s="523"/>
       <c r="F39" s="385" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G39" s="385">
         <v>1</v>
@@ -8175,13 +8227,13 @@
       <c r="Q39" s="395"/>
     </row>
     <row r="40" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="518"/>
-      <c r="B40" s="527"/>
-      <c r="C40" s="527"/>
-      <c r="D40" s="557"/>
-      <c r="E40" s="527"/>
+      <c r="A40" s="515"/>
+      <c r="B40" s="523"/>
+      <c r="C40" s="523"/>
+      <c r="D40" s="525"/>
+      <c r="E40" s="523"/>
       <c r="F40" s="385" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G40" s="385">
         <v>1</v>
@@ -8208,13 +8260,13 @@
       <c r="Q40" s="395"/>
     </row>
     <row r="41" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="518"/>
-      <c r="B41" s="527"/>
-      <c r="C41" s="527"/>
-      <c r="D41" s="557"/>
-      <c r="E41" s="527"/>
+      <c r="A41" s="515"/>
+      <c r="B41" s="523"/>
+      <c r="C41" s="523"/>
+      <c r="D41" s="525"/>
+      <c r="E41" s="523"/>
       <c r="F41" s="385" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G41" s="385">
         <v>1</v>
@@ -8241,13 +8293,13 @@
       <c r="Q41" s="395"/>
     </row>
     <row r="42" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="518"/>
-      <c r="B42" s="527"/>
-      <c r="C42" s="527"/>
-      <c r="D42" s="557"/>
-      <c r="E42" s="527"/>
+      <c r="A42" s="515"/>
+      <c r="B42" s="523"/>
+      <c r="C42" s="523"/>
+      <c r="D42" s="525"/>
+      <c r="E42" s="523"/>
       <c r="F42" s="385" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G42" s="385">
         <v>1</v>
@@ -8274,13 +8326,13 @@
       <c r="Q42" s="395"/>
     </row>
     <row r="43" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="518"/>
-      <c r="B43" s="527"/>
-      <c r="C43" s="527"/>
-      <c r="D43" s="557"/>
-      <c r="E43" s="527"/>
+      <c r="A43" s="515"/>
+      <c r="B43" s="523"/>
+      <c r="C43" s="523"/>
+      <c r="D43" s="525"/>
+      <c r="E43" s="523"/>
       <c r="F43" s="385" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G43" s="385">
         <v>1</v>
@@ -8307,13 +8359,13 @@
       <c r="Q43" s="395"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="518"/>
-      <c r="B44" s="527"/>
-      <c r="C44" s="527"/>
-      <c r="D44" s="557"/>
-      <c r="E44" s="527"/>
+      <c r="A44" s="515"/>
+      <c r="B44" s="523"/>
+      <c r="C44" s="523"/>
+      <c r="D44" s="525"/>
+      <c r="E44" s="523"/>
       <c r="F44" s="385" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G44" s="385">
         <v>1</v>
@@ -8340,13 +8392,13 @@
       <c r="Q44" s="395"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="519"/>
-      <c r="B45" s="528"/>
-      <c r="C45" s="528"/>
-      <c r="D45" s="558"/>
-      <c r="E45" s="528"/>
+      <c r="A45" s="512"/>
+      <c r="B45" s="520"/>
+      <c r="C45" s="520"/>
+      <c r="D45" s="526"/>
+      <c r="E45" s="520"/>
       <c r="F45" s="381" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G45" s="381">
         <v>1</v>
@@ -8381,11 +8433,11 @@
       </c>
       <c r="C46" s="373"/>
       <c r="D46" s="407" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E46" s="373"/>
       <c r="F46" s="373" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G46" s="373">
         <v>24</v>
@@ -8415,21 +8467,21 @@
       <c r="Q46" s="395"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="512">
+      <c r="A47" s="527">
         <v>639</v>
       </c>
-      <c r="B47" s="514">
+      <c r="B47" s="532">
         <v>44055</v>
       </c>
-      <c r="C47" s="512" t="s">
-        <v>171</v>
-      </c>
-      <c r="D47" s="516" t="s">
-        <v>194</v>
-      </c>
-      <c r="E47" s="512"/>
+      <c r="C47" s="527" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="530" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="527"/>
       <c r="F47" s="384" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G47" s="384">
         <v>1</v>
@@ -8458,13 +8510,13 @@
       <c r="P47" s="428"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="529"/>
-      <c r="B48" s="530"/>
-      <c r="C48" s="529"/>
-      <c r="D48" s="555"/>
-      <c r="E48" s="529"/>
+      <c r="A48" s="518"/>
+      <c r="B48" s="537"/>
+      <c r="C48" s="518"/>
+      <c r="D48" s="536"/>
+      <c r="E48" s="518"/>
       <c r="F48" s="381" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G48" s="381">
         <v>1</v>
@@ -8493,23 +8545,23 @@
       <c r="P48" s="422"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="511">
+      <c r="A49" s="517">
         <v>640</v>
       </c>
-      <c r="B49" s="513">
+      <c r="B49" s="531">
         <v>44055</v>
       </c>
-      <c r="C49" s="511" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="515" t="s">
+      <c r="C49" s="517" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="529" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" s="517" t="s">
         <v>195</v>
       </c>
-      <c r="E49" s="511" t="s">
-        <v>196</v>
-      </c>
       <c r="F49" s="380" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G49" s="380">
         <v>12</v>
@@ -8538,13 +8590,13 @@
       <c r="P49" s="380"/>
     </row>
     <row r="50" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="512"/>
-      <c r="B50" s="514"/>
-      <c r="C50" s="512"/>
-      <c r="D50" s="516"/>
-      <c r="E50" s="512"/>
+      <c r="A50" s="527"/>
+      <c r="B50" s="532"/>
+      <c r="C50" s="527"/>
+      <c r="D50" s="530"/>
+      <c r="E50" s="527"/>
       <c r="F50" s="383" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G50" s="383">
         <v>12</v>
@@ -8573,23 +8625,23 @@
       <c r="P50" s="383"/>
     </row>
     <row r="51" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="517">
+      <c r="A51" s="511">
         <v>641</v>
       </c>
-      <c r="B51" s="526">
+      <c r="B51" s="519">
         <v>44055</v>
       </c>
-      <c r="C51" s="517" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="523" t="s">
-        <v>198</v>
-      </c>
-      <c r="E51" s="517" t="s">
+      <c r="C51" s="511" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="533" t="s">
         <v>197</v>
       </c>
+      <c r="E51" s="511" t="s">
+        <v>196</v>
+      </c>
       <c r="F51" s="380" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G51" s="380">
         <v>48</v>
@@ -8618,13 +8670,13 @@
       <c r="P51" s="380"/>
     </row>
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="518"/>
-      <c r="B52" s="527"/>
-      <c r="C52" s="518"/>
-      <c r="D52" s="524"/>
-      <c r="E52" s="518"/>
+      <c r="A52" s="515"/>
+      <c r="B52" s="523"/>
+      <c r="C52" s="515"/>
+      <c r="D52" s="534"/>
+      <c r="E52" s="515"/>
       <c r="F52" s="385" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G52" s="385">
         <v>36</v>
@@ -8653,13 +8705,13 @@
       <c r="P52" s="385"/>
     </row>
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="518"/>
-      <c r="B53" s="527"/>
-      <c r="C53" s="518"/>
-      <c r="D53" s="524"/>
-      <c r="E53" s="518"/>
+      <c r="A53" s="515"/>
+      <c r="B53" s="523"/>
+      <c r="C53" s="515"/>
+      <c r="D53" s="534"/>
+      <c r="E53" s="515"/>
       <c r="F53" s="385" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G53" s="385">
         <v>36</v>
@@ -8688,13 +8740,13 @@
       <c r="P53" s="385"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="518"/>
-      <c r="B54" s="527"/>
-      <c r="C54" s="518"/>
-      <c r="D54" s="524"/>
-      <c r="E54" s="518"/>
+      <c r="A54" s="515"/>
+      <c r="B54" s="523"/>
+      <c r="C54" s="515"/>
+      <c r="D54" s="534"/>
+      <c r="E54" s="515"/>
       <c r="F54" s="385" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G54" s="385">
         <v>24</v>
@@ -8723,13 +8775,13 @@
       <c r="P54" s="385"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="518"/>
-      <c r="B55" s="527"/>
-      <c r="C55" s="518"/>
-      <c r="D55" s="524"/>
-      <c r="E55" s="518"/>
+      <c r="A55" s="515"/>
+      <c r="B55" s="523"/>
+      <c r="C55" s="515"/>
+      <c r="D55" s="534"/>
+      <c r="E55" s="515"/>
       <c r="F55" s="385" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G55" s="385">
         <v>12</v>
@@ -8758,13 +8810,13 @@
       <c r="P55" s="385"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="518"/>
-      <c r="B56" s="527"/>
-      <c r="C56" s="518"/>
-      <c r="D56" s="524"/>
-      <c r="E56" s="518"/>
+      <c r="A56" s="515"/>
+      <c r="B56" s="523"/>
+      <c r="C56" s="515"/>
+      <c r="D56" s="534"/>
+      <c r="E56" s="515"/>
       <c r="F56" s="385" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G56" s="385">
         <v>12</v>
@@ -8793,13 +8845,13 @@
       <c r="P56" s="385"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="518"/>
-      <c r="B57" s="527"/>
-      <c r="C57" s="518"/>
-      <c r="D57" s="524"/>
-      <c r="E57" s="518"/>
+      <c r="A57" s="515"/>
+      <c r="B57" s="523"/>
+      <c r="C57" s="515"/>
+      <c r="D57" s="534"/>
+      <c r="E57" s="515"/>
       <c r="F57" s="385" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G57" s="385">
         <v>48</v>
@@ -8828,13 +8880,13 @@
       <c r="P57" s="385"/>
     </row>
     <row r="58" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="518"/>
-      <c r="B58" s="527"/>
-      <c r="C58" s="518"/>
-      <c r="D58" s="524"/>
-      <c r="E58" s="518"/>
+      <c r="A58" s="515"/>
+      <c r="B58" s="523"/>
+      <c r="C58" s="515"/>
+      <c r="D58" s="534"/>
+      <c r="E58" s="515"/>
       <c r="F58" s="385" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G58" s="385">
         <v>12</v>
@@ -8863,13 +8915,13 @@
       <c r="P58" s="385"/>
     </row>
     <row r="59" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="519"/>
-      <c r="B59" s="528"/>
-      <c r="C59" s="519"/>
-      <c r="D59" s="525"/>
-      <c r="E59" s="519"/>
+      <c r="A59" s="512"/>
+      <c r="B59" s="520"/>
+      <c r="C59" s="512"/>
+      <c r="D59" s="535"/>
+      <c r="E59" s="512"/>
       <c r="F59" s="381" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G59" s="381">
         <v>24</v>
@@ -8905,16 +8957,16 @@
         <v>44056</v>
       </c>
       <c r="C60" s="389" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="430" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="430" t="s">
-        <v>172</v>
-      </c>
       <c r="E60" s="389" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F60" s="382" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G60" s="382">
         <v>24</v>
@@ -8943,23 +8995,23 @@
       <c r="P60" s="382"/>
     </row>
     <row r="61" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="517">
+      <c r="A61" s="511">
         <v>645</v>
       </c>
-      <c r="B61" s="526">
+      <c r="B61" s="519">
         <v>44056</v>
       </c>
-      <c r="C61" s="517" t="s">
-        <v>191</v>
-      </c>
-      <c r="D61" s="523" t="s">
-        <v>198</v>
-      </c>
-      <c r="E61" s="517" t="s">
+      <c r="C61" s="511" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61" s="533" t="s">
         <v>197</v>
       </c>
+      <c r="E61" s="511" t="s">
+        <v>196</v>
+      </c>
       <c r="F61" s="380" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G61" s="380">
         <v>36</v>
@@ -8989,13 +9041,13 @@
       <c r="Q61" s="395"/>
     </row>
     <row r="62" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="518"/>
-      <c r="B62" s="527"/>
-      <c r="C62" s="518"/>
-      <c r="D62" s="524"/>
-      <c r="E62" s="518"/>
+      <c r="A62" s="515"/>
+      <c r="B62" s="523"/>
+      <c r="C62" s="515"/>
+      <c r="D62" s="534"/>
+      <c r="E62" s="515"/>
       <c r="F62" s="385" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G62" s="385">
         <v>36</v>
@@ -9025,13 +9077,13 @@
       <c r="Q62" s="395"/>
     </row>
     <row r="63" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="518"/>
-      <c r="B63" s="527"/>
-      <c r="C63" s="518"/>
-      <c r="D63" s="524"/>
-      <c r="E63" s="518"/>
+      <c r="A63" s="515"/>
+      <c r="B63" s="523"/>
+      <c r="C63" s="515"/>
+      <c r="D63" s="534"/>
+      <c r="E63" s="515"/>
       <c r="F63" s="385" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G63" s="385">
         <v>24</v>
@@ -9061,13 +9113,13 @@
       <c r="Q63" s="395"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="518"/>
-      <c r="B64" s="527"/>
-      <c r="C64" s="518"/>
-      <c r="D64" s="524"/>
-      <c r="E64" s="518"/>
+      <c r="A64" s="515"/>
+      <c r="B64" s="523"/>
+      <c r="C64" s="515"/>
+      <c r="D64" s="534"/>
+      <c r="E64" s="515"/>
       <c r="F64" s="385" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G64" s="385">
         <v>12</v>
@@ -9097,13 +9149,13 @@
       <c r="Q64" s="395"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="518"/>
-      <c r="B65" s="527"/>
-      <c r="C65" s="518"/>
-      <c r="D65" s="524"/>
-      <c r="E65" s="518"/>
+      <c r="A65" s="515"/>
+      <c r="B65" s="523"/>
+      <c r="C65" s="515"/>
+      <c r="D65" s="534"/>
+      <c r="E65" s="515"/>
       <c r="F65" s="385" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G65" s="385">
         <v>24</v>
@@ -9133,13 +9185,13 @@
       <c r="Q65" s="395"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="518"/>
-      <c r="B66" s="527"/>
-      <c r="C66" s="518"/>
-      <c r="D66" s="524"/>
-      <c r="E66" s="518"/>
+      <c r="A66" s="515"/>
+      <c r="B66" s="523"/>
+      <c r="C66" s="515"/>
+      <c r="D66" s="534"/>
+      <c r="E66" s="515"/>
       <c r="F66" s="385" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G66" s="385">
         <v>12</v>
@@ -9169,13 +9221,13 @@
       <c r="Q66" s="395"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="519"/>
-      <c r="B67" s="528"/>
-      <c r="C67" s="519"/>
-      <c r="D67" s="525"/>
-      <c r="E67" s="519"/>
+      <c r="A67" s="512"/>
+      <c r="B67" s="520"/>
+      <c r="C67" s="512"/>
+      <c r="D67" s="535"/>
+      <c r="E67" s="512"/>
       <c r="F67" s="381" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G67" s="381">
         <v>24</v>
@@ -9205,23 +9257,23 @@
       <c r="Q67" s="395"/>
     </row>
     <row r="68" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="517">
+      <c r="A68" s="511">
         <v>647</v>
       </c>
-      <c r="B68" s="526">
+      <c r="B68" s="519">
         <v>44056</v>
       </c>
-      <c r="C68" s="517" t="s">
-        <v>171</v>
-      </c>
-      <c r="D68" s="523" t="s">
+      <c r="C68" s="511" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="533" t="s">
+        <v>200</v>
+      </c>
+      <c r="E68" s="511" t="s">
         <v>201</v>
       </c>
-      <c r="E68" s="517" t="s">
-        <v>202</v>
-      </c>
       <c r="F68" s="380" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G68" s="380">
         <v>3</v>
@@ -9247,19 +9299,19 @@
       </c>
       <c r="N68" s="391"/>
       <c r="O68" s="391"/>
-      <c r="P68" s="523" t="s">
-        <v>203</v>
+      <c r="P68" s="533" t="s">
+        <v>202</v>
       </c>
       <c r="Q68" s="395"/>
     </row>
     <row r="69" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="519"/>
-      <c r="B69" s="528"/>
-      <c r="C69" s="519"/>
-      <c r="D69" s="525"/>
-      <c r="E69" s="519"/>
+      <c r="A69" s="512"/>
+      <c r="B69" s="520"/>
+      <c r="C69" s="512"/>
+      <c r="D69" s="535"/>
+      <c r="E69" s="512"/>
       <c r="F69" s="381" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G69" s="381">
         <v>2</v>
@@ -9285,7 +9337,7 @@
       </c>
       <c r="N69" s="396"/>
       <c r="O69" s="396"/>
-      <c r="P69" s="525"/>
+      <c r="P69" s="535"/>
       <c r="Q69" s="395"/>
     </row>
     <row r="70" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -9296,14 +9348,14 @@
         <v>44057</v>
       </c>
       <c r="C70" s="382" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D70" s="432" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E70" s="382"/>
       <c r="F70" s="382" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G70" s="382">
         <v>1</v>
@@ -9330,23 +9382,23 @@
       <c r="Q70" s="395"/>
     </row>
     <row r="71" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="517">
+      <c r="A71" s="511">
         <v>650</v>
       </c>
-      <c r="B71" s="526">
+      <c r="B71" s="519">
         <v>44057</v>
       </c>
-      <c r="C71" s="517" t="s">
-        <v>191</v>
-      </c>
-      <c r="D71" s="523" t="s">
-        <v>198</v>
-      </c>
-      <c r="E71" s="517" t="s">
+      <c r="C71" s="511" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="533" t="s">
         <v>197</v>
       </c>
+      <c r="E71" s="511" t="s">
+        <v>196</v>
+      </c>
       <c r="F71" s="380" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G71" s="380">
         <v>24</v>
@@ -9376,13 +9428,13 @@
       <c r="Q71" s="395"/>
     </row>
     <row r="72" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="518"/>
-      <c r="B72" s="527"/>
-      <c r="C72" s="518"/>
-      <c r="D72" s="524"/>
-      <c r="E72" s="518"/>
+      <c r="A72" s="515"/>
+      <c r="B72" s="523"/>
+      <c r="C72" s="515"/>
+      <c r="D72" s="534"/>
+      <c r="E72" s="515"/>
       <c r="F72" s="385" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G72" s="385">
         <v>24</v>
@@ -9412,13 +9464,13 @@
       <c r="Q72" s="395"/>
     </row>
     <row r="73" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="518"/>
-      <c r="B73" s="527"/>
-      <c r="C73" s="518"/>
-      <c r="D73" s="524"/>
-      <c r="E73" s="518"/>
+      <c r="A73" s="515"/>
+      <c r="B73" s="523"/>
+      <c r="C73" s="515"/>
+      <c r="D73" s="534"/>
+      <c r="E73" s="515"/>
       <c r="F73" s="385" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G73" s="385">
         <v>24</v>
@@ -9448,13 +9500,13 @@
       <c r="Q73" s="395"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="518"/>
-      <c r="B74" s="527"/>
-      <c r="C74" s="518"/>
-      <c r="D74" s="524"/>
-      <c r="E74" s="518"/>
+      <c r="A74" s="515"/>
+      <c r="B74" s="523"/>
+      <c r="C74" s="515"/>
+      <c r="D74" s="534"/>
+      <c r="E74" s="515"/>
       <c r="F74" s="385" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G74" s="385">
         <v>72</v>
@@ -9484,13 +9536,13 @@
       <c r="Q74" s="395"/>
     </row>
     <row r="75" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="518"/>
-      <c r="B75" s="527"/>
-      <c r="C75" s="518"/>
-      <c r="D75" s="524"/>
-      <c r="E75" s="518"/>
+      <c r="A75" s="515"/>
+      <c r="B75" s="523"/>
+      <c r="C75" s="515"/>
+      <c r="D75" s="534"/>
+      <c r="E75" s="515"/>
       <c r="F75" s="385" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G75" s="385">
         <v>36</v>
@@ -9520,13 +9572,13 @@
       <c r="Q75" s="395"/>
     </row>
     <row r="76" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="519"/>
-      <c r="B76" s="528"/>
-      <c r="C76" s="519"/>
-      <c r="D76" s="525"/>
-      <c r="E76" s="519"/>
+      <c r="A76" s="512"/>
+      <c r="B76" s="520"/>
+      <c r="C76" s="512"/>
+      <c r="D76" s="535"/>
+      <c r="E76" s="512"/>
       <c r="F76" s="381" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G76" s="381">
         <v>36</v>
@@ -9556,21 +9608,21 @@
       <c r="Q76" s="395"/>
     </row>
     <row r="77" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="517">
+      <c r="A77" s="511">
         <v>751</v>
       </c>
-      <c r="B77" s="526">
+      <c r="B77" s="519">
         <v>44060</v>
       </c>
-      <c r="C77" s="517"/>
-      <c r="D77" s="523" t="s">
+      <c r="C77" s="511"/>
+      <c r="D77" s="533" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="511" t="s">
         <v>204</v>
       </c>
-      <c r="E77" s="517" t="s">
-        <v>205</v>
-      </c>
       <c r="F77" s="380" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G77" s="380">
         <v>24</v>
@@ -9602,13 +9654,13 @@
       <c r="Q77" s="395"/>
     </row>
     <row r="78" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="518"/>
-      <c r="B78" s="527"/>
-      <c r="C78" s="518"/>
-      <c r="D78" s="524"/>
-      <c r="E78" s="518"/>
+      <c r="A78" s="515"/>
+      <c r="B78" s="523"/>
+      <c r="C78" s="515"/>
+      <c r="D78" s="534"/>
+      <c r="E78" s="515"/>
       <c r="F78" s="385" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G78" s="385">
         <v>24</v>
@@ -9637,13 +9689,13 @@
       <c r="P78" s="433"/>
     </row>
     <row r="79" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="518"/>
-      <c r="B79" s="527"/>
-      <c r="C79" s="518"/>
-      <c r="D79" s="524"/>
-      <c r="E79" s="518"/>
+      <c r="A79" s="515"/>
+      <c r="B79" s="523"/>
+      <c r="C79" s="515"/>
+      <c r="D79" s="534"/>
+      <c r="E79" s="515"/>
       <c r="F79" s="385" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G79" s="385">
         <v>12</v>
@@ -9672,13 +9724,13 @@
       <c r="P79" s="433"/>
     </row>
     <row r="80" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="519"/>
-      <c r="B80" s="528"/>
-      <c r="C80" s="519"/>
-      <c r="D80" s="525"/>
-      <c r="E80" s="519"/>
+      <c r="A80" s="512"/>
+      <c r="B80" s="520"/>
+      <c r="C80" s="512"/>
+      <c r="D80" s="535"/>
+      <c r="E80" s="512"/>
       <c r="F80" s="381" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G80" s="381">
         <v>12</v>
@@ -9714,16 +9766,16 @@
         <v>44061</v>
       </c>
       <c r="C81" s="404" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D81" s="434" t="s">
+        <v>205</v>
+      </c>
+      <c r="E81" s="404" t="s">
         <v>206</v>
       </c>
-      <c r="E81" s="404" t="s">
-        <v>207</v>
-      </c>
       <c r="F81" s="400" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G81" s="400">
         <v>12</v>
@@ -9759,16 +9811,16 @@
         <v>44061</v>
       </c>
       <c r="C82" s="373" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D82" s="373" t="s">
+        <v>207</v>
+      </c>
+      <c r="E82" s="373" t="s">
         <v>208</v>
       </c>
-      <c r="E82" s="373" t="s">
-        <v>209</v>
-      </c>
       <c r="F82" s="373" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G82" s="373">
         <v>5</v>
@@ -9797,21 +9849,21 @@
       <c r="P82" s="436"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="517">
+      <c r="A83" s="511">
         <v>757</v>
       </c>
-      <c r="B83" s="520">
+      <c r="B83" s="513">
         <v>44061</v>
       </c>
-      <c r="C83" s="517"/>
-      <c r="D83" s="517" t="s">
+      <c r="C83" s="511"/>
+      <c r="D83" s="511" t="s">
+        <v>209</v>
+      </c>
+      <c r="E83" s="511" t="s">
         <v>210</v>
       </c>
-      <c r="E83" s="517" t="s">
-        <v>211</v>
-      </c>
       <c r="F83" s="380" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G83" s="380">
         <v>156</v>
@@ -9840,13 +9892,13 @@
       <c r="P83" s="423"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="518"/>
-      <c r="B84" s="521"/>
-      <c r="C84" s="518"/>
-      <c r="D84" s="518"/>
-      <c r="E84" s="518"/>
+      <c r="A84" s="515"/>
+      <c r="B84" s="516"/>
+      <c r="C84" s="515"/>
+      <c r="D84" s="515"/>
+      <c r="E84" s="515"/>
       <c r="F84" s="385" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G84" s="385">
         <v>48</v>
@@ -9875,13 +9927,13 @@
       <c r="P84" s="433"/>
     </row>
     <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="518"/>
-      <c r="B85" s="521"/>
-      <c r="C85" s="518"/>
-      <c r="D85" s="518"/>
-      <c r="E85" s="518"/>
+      <c r="A85" s="515"/>
+      <c r="B85" s="516"/>
+      <c r="C85" s="515"/>
+      <c r="D85" s="515"/>
+      <c r="E85" s="515"/>
       <c r="F85" s="385" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G85" s="385">
         <v>96</v>
@@ -9910,13 +9962,13 @@
       <c r="P85" s="433"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="518"/>
-      <c r="B86" s="521"/>
-      <c r="C86" s="518"/>
-      <c r="D86" s="518"/>
-      <c r="E86" s="518"/>
+      <c r="A86" s="515"/>
+      <c r="B86" s="516"/>
+      <c r="C86" s="515"/>
+      <c r="D86" s="515"/>
+      <c r="E86" s="515"/>
       <c r="F86" s="385" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G86" s="385">
         <v>192</v>
@@ -9945,13 +9997,13 @@
       <c r="P86" s="433"/>
     </row>
     <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="518"/>
-      <c r="B87" s="521"/>
-      <c r="C87" s="518"/>
-      <c r="D87" s="518"/>
-      <c r="E87" s="518"/>
+      <c r="A87" s="515"/>
+      <c r="B87" s="516"/>
+      <c r="C87" s="515"/>
+      <c r="D87" s="515"/>
+      <c r="E87" s="515"/>
       <c r="F87" s="385" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G87" s="385">
         <v>72</v>
@@ -9980,13 +10032,13 @@
       <c r="P87" s="385"/>
     </row>
     <row r="88" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="519"/>
-      <c r="B88" s="522"/>
-      <c r="C88" s="519"/>
-      <c r="D88" s="519"/>
-      <c r="E88" s="519"/>
+      <c r="A88" s="512"/>
+      <c r="B88" s="514"/>
+      <c r="C88" s="512"/>
+      <c r="D88" s="512"/>
+      <c r="E88" s="512"/>
       <c r="F88" s="381" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G88" s="381">
         <v>84</v>
@@ -10015,21 +10067,21 @@
       <c r="P88" s="381"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="511">
+      <c r="A89" s="517">
         <v>761</v>
       </c>
-      <c r="B89" s="536">
+      <c r="B89" s="521">
         <v>44063</v>
       </c>
-      <c r="C89" s="511"/>
-      <c r="D89" s="511" t="s">
+      <c r="C89" s="517"/>
+      <c r="D89" s="517" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="517" t="s">
         <v>204</v>
       </c>
-      <c r="E89" s="511" t="s">
-        <v>205</v>
-      </c>
       <c r="F89" s="380" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G89" s="380">
         <v>12</v>
@@ -10060,13 +10112,13 @@
       <c r="P89" s="375"/>
     </row>
     <row r="90" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="512"/>
-      <c r="B90" s="537"/>
-      <c r="C90" s="512"/>
-      <c r="D90" s="512"/>
-      <c r="E90" s="512"/>
+      <c r="A90" s="527"/>
+      <c r="B90" s="528"/>
+      <c r="C90" s="527"/>
+      <c r="D90" s="527"/>
+      <c r="E90" s="527"/>
       <c r="F90" s="383" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G90" s="383">
         <v>12</v>
@@ -10095,21 +10147,21 @@
       <c r="P90" s="437"/>
     </row>
     <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="517">
+      <c r="A91" s="511">
         <v>762</v>
       </c>
-      <c r="B91" s="520">
+      <c r="B91" s="513">
         <v>44063</v>
       </c>
-      <c r="C91" s="517" t="s">
-        <v>191</v>
-      </c>
-      <c r="D91" s="517" t="s">
-        <v>212</v>
-      </c>
-      <c r="E91" s="517"/>
+      <c r="C91" s="511" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" s="511" t="s">
+        <v>211</v>
+      </c>
+      <c r="E91" s="511"/>
       <c r="F91" s="380" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G91" s="380">
         <v>5</v>
@@ -10138,13 +10190,13 @@
       <c r="P91" s="375"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="518"/>
-      <c r="B92" s="521"/>
-      <c r="C92" s="518"/>
-      <c r="D92" s="518"/>
-      <c r="E92" s="518"/>
+      <c r="A92" s="515"/>
+      <c r="B92" s="516"/>
+      <c r="C92" s="515"/>
+      <c r="D92" s="515"/>
+      <c r="E92" s="515"/>
       <c r="F92" s="385" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G92" s="385">
         <v>10</v>
@@ -10173,13 +10225,13 @@
       <c r="P92" s="385"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="518"/>
-      <c r="B93" s="521"/>
-      <c r="C93" s="518"/>
-      <c r="D93" s="518"/>
-      <c r="E93" s="518"/>
+      <c r="A93" s="515"/>
+      <c r="B93" s="516"/>
+      <c r="C93" s="515"/>
+      <c r="D93" s="515"/>
+      <c r="E93" s="515"/>
       <c r="F93" s="385" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G93" s="385">
         <v>5</v>
@@ -10208,13 +10260,13 @@
       <c r="P93" s="372"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="519"/>
-      <c r="B94" s="522"/>
-      <c r="C94" s="519"/>
-      <c r="D94" s="519"/>
-      <c r="E94" s="519"/>
+      <c r="A94" s="512"/>
+      <c r="B94" s="514"/>
+      <c r="C94" s="512"/>
+      <c r="D94" s="512"/>
+      <c r="E94" s="512"/>
       <c r="F94" s="381" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G94" s="381">
         <v>5</v>
@@ -10243,21 +10295,21 @@
       <c r="P94" s="374"/>
     </row>
     <row r="95" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="517">
+      <c r="A95" s="511">
         <v>763</v>
       </c>
-      <c r="B95" s="520">
+      <c r="B95" s="513">
         <v>44063</v>
       </c>
-      <c r="C95" s="517"/>
-      <c r="D95" s="517" t="s">
+      <c r="C95" s="511"/>
+      <c r="D95" s="511" t="s">
+        <v>182</v>
+      </c>
+      <c r="E95" s="511" t="s">
         <v>183</v>
       </c>
-      <c r="E95" s="517" t="s">
-        <v>184</v>
-      </c>
       <c r="F95" s="380" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G95" s="380">
         <v>48</v>
@@ -10286,13 +10338,13 @@
       <c r="P95" s="375"/>
     </row>
     <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="518"/>
-      <c r="B96" s="521"/>
-      <c r="C96" s="518"/>
-      <c r="D96" s="518"/>
-      <c r="E96" s="518"/>
+      <c r="A96" s="515"/>
+      <c r="B96" s="516"/>
+      <c r="C96" s="515"/>
+      <c r="D96" s="515"/>
+      <c r="E96" s="515"/>
       <c r="F96" s="385" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G96" s="385">
         <v>36</v>
@@ -10321,13 +10373,13 @@
       <c r="P96" s="372"/>
     </row>
     <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="519"/>
-      <c r="B97" s="522"/>
-      <c r="C97" s="519"/>
-      <c r="D97" s="519"/>
-      <c r="E97" s="519"/>
+      <c r="A97" s="512"/>
+      <c r="B97" s="514"/>
+      <c r="C97" s="512"/>
+      <c r="D97" s="512"/>
+      <c r="E97" s="512"/>
       <c r="F97" s="381" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G97" s="381">
         <v>36</v>
@@ -10356,21 +10408,21 @@
       <c r="P97" s="374"/>
     </row>
     <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="511">
+      <c r="A98" s="517">
         <v>764</v>
       </c>
-      <c r="B98" s="536">
+      <c r="B98" s="521">
         <v>44065</v>
       </c>
-      <c r="C98" s="511"/>
-      <c r="D98" s="511" t="s">
+      <c r="C98" s="517"/>
+      <c r="D98" s="517" t="s">
+        <v>182</v>
+      </c>
+      <c r="E98" s="517" t="s">
         <v>183</v>
       </c>
-      <c r="E98" s="511" t="s">
-        <v>184</v>
-      </c>
       <c r="F98" s="384" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G98" s="384">
         <v>12</v>
@@ -10399,13 +10451,13 @@
       <c r="P98" s="389"/>
     </row>
     <row r="99" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="512"/>
-      <c r="B99" s="537"/>
-      <c r="C99" s="512"/>
-      <c r="D99" s="512"/>
-      <c r="E99" s="512"/>
+      <c r="A99" s="527"/>
+      <c r="B99" s="528"/>
+      <c r="C99" s="527"/>
+      <c r="D99" s="527"/>
+      <c r="E99" s="527"/>
       <c r="F99" s="385" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G99" s="385">
         <v>60</v>
@@ -10434,13 +10486,13 @@
       <c r="P99" s="389"/>
     </row>
     <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="512"/>
-      <c r="B100" s="537"/>
-      <c r="C100" s="512"/>
-      <c r="D100" s="512"/>
-      <c r="E100" s="512"/>
+      <c r="A100" s="527"/>
+      <c r="B100" s="528"/>
+      <c r="C100" s="527"/>
+      <c r="D100" s="527"/>
+      <c r="E100" s="527"/>
       <c r="F100" s="385" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G100" s="385">
         <v>36</v>
@@ -10469,13 +10521,13 @@
       <c r="P100" s="389"/>
     </row>
     <row r="101" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="529"/>
-      <c r="B101" s="538"/>
-      <c r="C101" s="529"/>
-      <c r="D101" s="529"/>
-      <c r="E101" s="529"/>
+      <c r="A101" s="518"/>
+      <c r="B101" s="522"/>
+      <c r="C101" s="518"/>
+      <c r="D101" s="518"/>
+      <c r="E101" s="518"/>
       <c r="F101" s="381" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G101" s="381">
         <v>36</v>
@@ -10504,21 +10556,21 @@
       <c r="P101" s="404"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="511">
+      <c r="A102" s="517">
         <v>768</v>
       </c>
-      <c r="B102" s="536">
+      <c r="B102" s="521">
         <v>44065</v>
       </c>
-      <c r="C102" s="511"/>
-      <c r="D102" s="511" t="s">
-        <v>224</v>
-      </c>
-      <c r="E102" s="511" t="s">
-        <v>184</v>
+      <c r="C102" s="517"/>
+      <c r="D102" s="517" t="s">
+        <v>223</v>
+      </c>
+      <c r="E102" s="517" t="s">
+        <v>183</v>
       </c>
       <c r="F102" s="380" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G102" s="380">
         <v>24</v>
@@ -10545,13 +10597,13 @@
       <c r="P102" s="371"/>
     </row>
     <row r="103" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="512"/>
-      <c r="B103" s="537"/>
-      <c r="C103" s="512"/>
-      <c r="D103" s="512"/>
-      <c r="E103" s="512"/>
+      <c r="A103" s="527"/>
+      <c r="B103" s="528"/>
+      <c r="C103" s="527"/>
+      <c r="D103" s="527"/>
+      <c r="E103" s="527"/>
       <c r="F103" s="385" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G103" s="385">
         <v>12</v>
@@ -10578,13 +10630,13 @@
       <c r="P103" s="389"/>
     </row>
     <row r="104" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="512"/>
-      <c r="B104" s="537"/>
-      <c r="C104" s="512"/>
-      <c r="D104" s="512"/>
-      <c r="E104" s="512"/>
+      <c r="A104" s="527"/>
+      <c r="B104" s="528"/>
+      <c r="C104" s="527"/>
+      <c r="D104" s="527"/>
+      <c r="E104" s="527"/>
       <c r="F104" s="383" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G104" s="383">
         <v>12</v>
@@ -10611,21 +10663,21 @@
       <c r="P104" s="389"/>
     </row>
     <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="511">
+      <c r="A105" s="517">
         <v>773</v>
       </c>
-      <c r="B105" s="536">
+      <c r="B105" s="521">
         <v>44066</v>
       </c>
-      <c r="C105" s="511"/>
-      <c r="D105" s="511" t="s">
+      <c r="C105" s="517"/>
+      <c r="D105" s="517" t="s">
+        <v>279</v>
+      </c>
+      <c r="E105" s="517" t="s">
         <v>280</v>
       </c>
-      <c r="E105" s="511" t="s">
-        <v>281</v>
-      </c>
       <c r="F105" s="380" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G105" s="380">
         <v>600</v>
@@ -10654,13 +10706,13 @@
       <c r="P105" s="375"/>
     </row>
     <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="529"/>
-      <c r="B106" s="538"/>
-      <c r="C106" s="529"/>
-      <c r="D106" s="529"/>
-      <c r="E106" s="529"/>
+      <c r="A106" s="518"/>
+      <c r="B106" s="522"/>
+      <c r="C106" s="518"/>
+      <c r="D106" s="518"/>
+      <c r="E106" s="518"/>
       <c r="F106" s="381" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G106" s="381">
         <v>120</v>
@@ -10689,21 +10741,21 @@
       <c r="P106" s="374"/>
     </row>
     <row r="107" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="531">
+      <c r="A107" s="557">
         <v>769</v>
       </c>
-      <c r="B107" s="539">
+      <c r="B107" s="558">
         <v>44068</v>
       </c>
-      <c r="C107" s="531" t="s">
-        <v>191</v>
-      </c>
-      <c r="D107" s="531" t="s">
-        <v>212</v>
-      </c>
-      <c r="E107" s="531"/>
+      <c r="C107" s="557" t="s">
+        <v>190</v>
+      </c>
+      <c r="D107" s="557" t="s">
+        <v>211</v>
+      </c>
+      <c r="E107" s="557"/>
       <c r="F107" s="373" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G107" s="373">
         <v>12</v>
@@ -10732,13 +10784,13 @@
       <c r="P107" s="451"/>
     </row>
     <row r="108" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="531"/>
-      <c r="B108" s="539"/>
-      <c r="C108" s="531"/>
-      <c r="D108" s="531"/>
-      <c r="E108" s="531"/>
+      <c r="A108" s="557"/>
+      <c r="B108" s="558"/>
+      <c r="C108" s="557"/>
+      <c r="D108" s="557"/>
+      <c r="E108" s="557"/>
       <c r="F108" s="373" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G108" s="373">
         <v>12</v>
@@ -10767,13 +10819,13 @@
       <c r="P108" s="451"/>
     </row>
     <row r="109" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="531"/>
-      <c r="B109" s="539"/>
-      <c r="C109" s="531"/>
-      <c r="D109" s="531"/>
-      <c r="E109" s="531"/>
+      <c r="A109" s="557"/>
+      <c r="B109" s="558"/>
+      <c r="C109" s="557"/>
+      <c r="D109" s="557"/>
+      <c r="E109" s="557"/>
       <c r="F109" s="373" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G109" s="373">
         <v>12</v>
@@ -10802,13 +10854,13 @@
       <c r="P109" s="451"/>
     </row>
     <row r="110" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="531"/>
-      <c r="B110" s="539"/>
-      <c r="C110" s="531"/>
-      <c r="D110" s="531"/>
-      <c r="E110" s="531"/>
+      <c r="A110" s="557"/>
+      <c r="B110" s="558"/>
+      <c r="C110" s="557"/>
+      <c r="D110" s="557"/>
+      <c r="E110" s="557"/>
       <c r="F110" s="373" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G110" s="373">
         <v>12</v>
@@ -10837,13 +10889,13 @@
       <c r="P110" s="451"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="531"/>
-      <c r="B111" s="539"/>
-      <c r="C111" s="531"/>
-      <c r="D111" s="531"/>
-      <c r="E111" s="531"/>
+      <c r="A111" s="557"/>
+      <c r="B111" s="558"/>
+      <c r="C111" s="557"/>
+      <c r="D111" s="557"/>
+      <c r="E111" s="557"/>
       <c r="F111" s="373" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G111" s="373">
         <v>9</v>
@@ -10872,13 +10924,13 @@
       <c r="P111" s="373"/>
     </row>
     <row r="112" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="531"/>
-      <c r="B112" s="539"/>
-      <c r="C112" s="531"/>
-      <c r="D112" s="531"/>
-      <c r="E112" s="531"/>
+      <c r="A112" s="557"/>
+      <c r="B112" s="558"/>
+      <c r="C112" s="557"/>
+      <c r="D112" s="557"/>
+      <c r="E112" s="557"/>
       <c r="F112" s="373" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G112" s="373">
         <v>10</v>
@@ -10915,11 +10967,11 @@
       </c>
       <c r="C113" s="451"/>
       <c r="D113" s="451" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E113" s="451"/>
       <c r="F113" s="373" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G113" s="373">
         <v>24</v>
@@ -10948,23 +11000,23 @@
       <c r="P113" s="373"/>
     </row>
     <row r="114" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="517">
+      <c r="A114" s="511">
         <v>777</v>
       </c>
-      <c r="B114" s="520">
+      <c r="B114" s="513">
         <v>44070</v>
       </c>
-      <c r="C114" s="517" t="s">
-        <v>171</v>
-      </c>
-      <c r="D114" s="517" t="s">
+      <c r="C114" s="511" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114" s="511" t="s">
+        <v>283</v>
+      </c>
+      <c r="E114" s="511" t="s">
         <v>284</v>
       </c>
-      <c r="E114" s="517" t="s">
-        <v>285</v>
-      </c>
       <c r="F114" s="380" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G114" s="380">
         <v>6</v>
@@ -10993,13 +11045,13 @@
       <c r="P114" s="380"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="519"/>
-      <c r="B115" s="522"/>
-      <c r="C115" s="519"/>
-      <c r="D115" s="519"/>
-      <c r="E115" s="519"/>
+      <c r="A115" s="512"/>
+      <c r="B115" s="514"/>
+      <c r="C115" s="512"/>
+      <c r="D115" s="512"/>
+      <c r="E115" s="512"/>
       <c r="F115" s="381" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G115" s="381">
         <v>6</v>
@@ -11035,12 +11087,12 @@
         <v>44071</v>
       </c>
       <c r="C116" s="404" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D116" s="404"/>
       <c r="E116" s="404"/>
       <c r="F116" s="400" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G116" s="400">
         <v>24</v>
@@ -11077,11 +11129,11 @@
       </c>
       <c r="C117" s="451"/>
       <c r="D117" s="451" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E117" s="451"/>
       <c r="F117" s="373" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G117" s="373">
         <v>1</v>
@@ -11110,21 +11162,21 @@
       <c r="P117" s="373"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="517">
+      <c r="A118" s="511">
         <v>780</v>
       </c>
-      <c r="B118" s="520">
+      <c r="B118" s="513">
         <v>44071</v>
       </c>
-      <c r="C118" s="517" t="s">
-        <v>191</v>
-      </c>
-      <c r="D118" s="517" t="s">
-        <v>287</v>
-      </c>
-      <c r="E118" s="517"/>
+      <c r="C118" s="511" t="s">
+        <v>190</v>
+      </c>
+      <c r="D118" s="511" t="s">
+        <v>286</v>
+      </c>
+      <c r="E118" s="511"/>
       <c r="F118" s="380" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G118" s="380">
         <v>72</v>
@@ -11153,13 +11205,13 @@
       <c r="P118" s="380"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="518"/>
-      <c r="B119" s="521"/>
-      <c r="C119" s="518"/>
-      <c r="D119" s="518"/>
-      <c r="E119" s="518"/>
+      <c r="A119" s="515"/>
+      <c r="B119" s="516"/>
+      <c r="C119" s="515"/>
+      <c r="D119" s="515"/>
+      <c r="E119" s="515"/>
       <c r="F119" s="385" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G119" s="385">
         <v>36</v>
@@ -11188,13 +11240,13 @@
       <c r="P119" s="385"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="518"/>
-      <c r="B120" s="521"/>
-      <c r="C120" s="518"/>
-      <c r="D120" s="518"/>
-      <c r="E120" s="518"/>
+      <c r="A120" s="515"/>
+      <c r="B120" s="516"/>
+      <c r="C120" s="515"/>
+      <c r="D120" s="515"/>
+      <c r="E120" s="515"/>
       <c r="F120" s="385" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G120" s="385">
         <v>24</v>
@@ -11223,13 +11275,13 @@
       <c r="P120" s="385"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="519"/>
-      <c r="B121" s="522"/>
-      <c r="C121" s="519"/>
-      <c r="D121" s="519"/>
-      <c r="E121" s="519"/>
+      <c r="A121" s="512"/>
+      <c r="B121" s="514"/>
+      <c r="C121" s="512"/>
+      <c r="D121" s="512"/>
+      <c r="E121" s="512"/>
       <c r="F121" s="381" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G121" s="381">
         <v>36</v>
@@ -11266,11 +11318,11 @@
       </c>
       <c r="C122" s="404"/>
       <c r="D122" s="404" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E122" s="404"/>
       <c r="F122" s="384" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G122" s="384">
         <v>12</v>
@@ -11299,14 +11351,14 @@
       <c r="P122" s="430"/>
     </row>
     <row r="123" spans="1:17" s="250" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A123" s="533" t="s">
+      <c r="A123" s="554" t="s">
         <v>77</v>
       </c>
-      <c r="B123" s="533"/>
-      <c r="C123" s="533"/>
-      <c r="D123" s="533"/>
-      <c r="E123" s="533"/>
-      <c r="F123" s="533"/>
+      <c r="B123" s="554"/>
+      <c r="C123" s="554"/>
+      <c r="D123" s="554"/>
+      <c r="E123" s="554"/>
+      <c r="F123" s="554"/>
       <c r="G123" s="291">
         <f>SUM(G13:G122)</f>
         <v>3212</v>
@@ -11325,18 +11377,18 @@
       <c r="M123" s="297"/>
       <c r="N123" s="297"/>
       <c r="O123" s="297"/>
-      <c r="P123" s="534"/>
-      <c r="Q123" s="535"/>
+      <c r="P123" s="555"/>
+      <c r="Q123" s="556"/>
     </row>
     <row r="124" spans="1:17" s="250" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A124" s="532" t="s">
+      <c r="A124" s="553" t="s">
         <v>131</v>
       </c>
-      <c r="B124" s="532"/>
-      <c r="C124" s="532"/>
-      <c r="D124" s="532"/>
-      <c r="E124" s="532"/>
-      <c r="F124" s="532"/>
+      <c r="B124" s="553"/>
+      <c r="C124" s="553"/>
+      <c r="D124" s="553"/>
+      <c r="E124" s="553"/>
+      <c r="F124" s="553"/>
       <c r="G124" s="244">
         <f>G123</f>
         <v>3212</v>
@@ -11352,18 +11404,18 @@
       <c r="M124" s="247"/>
       <c r="N124" s="247"/>
       <c r="O124" s="247"/>
-      <c r="P124" s="534"/>
-      <c r="Q124" s="535"/>
+      <c r="P124" s="555"/>
+      <c r="Q124" s="556"/>
     </row>
     <row r="125" spans="1:17" s="250" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A125" s="532" t="s">
+      <c r="A125" s="553" t="s">
         <v>78</v>
       </c>
-      <c r="B125" s="532"/>
-      <c r="C125" s="532"/>
-      <c r="D125" s="532"/>
-      <c r="E125" s="532"/>
-      <c r="F125" s="532"/>
+      <c r="B125" s="553"/>
+      <c r="C125" s="553"/>
+      <c r="D125" s="553"/>
+      <c r="E125" s="553"/>
+      <c r="F125" s="553"/>
       <c r="G125" s="251" t="s">
         <v>49</v>
       </c>
@@ -11380,14 +11432,14 @@
       <c r="O125" s="247"/>
     </row>
     <row r="126" spans="1:17" s="250" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A126" s="532" t="s">
+      <c r="A126" s="553" t="s">
         <v>79</v>
       </c>
-      <c r="B126" s="532"/>
-      <c r="C126" s="532"/>
-      <c r="D126" s="532"/>
-      <c r="E126" s="532"/>
-      <c r="F126" s="532"/>
+      <c r="B126" s="553"/>
+      <c r="C126" s="553"/>
+      <c r="D126" s="553"/>
+      <c r="E126" s="553"/>
+      <c r="F126" s="553"/>
       <c r="G126" s="251"/>
       <c r="H126" s="273"/>
       <c r="I126" s="245"/>
@@ -11402,14 +11454,14 @@
       <c r="O126" s="247"/>
     </row>
     <row r="127" spans="1:17" s="250" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A127" s="532" t="s">
+      <c r="A127" s="553" t="s">
         <v>80</v>
       </c>
-      <c r="B127" s="532"/>
-      <c r="C127" s="532"/>
-      <c r="D127" s="532"/>
-      <c r="E127" s="532"/>
-      <c r="F127" s="532"/>
+      <c r="B127" s="553"/>
+      <c r="C127" s="553"/>
+      <c r="D127" s="553"/>
+      <c r="E127" s="553"/>
+      <c r="F127" s="553"/>
       <c r="G127" s="251"/>
       <c r="H127" s="273"/>
       <c r="I127" s="245"/>
@@ -11485,16 +11537,127 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="155">
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="D61:D67"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="E91:E94"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="P123:P124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="Q123:Q124"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="D107:D112"/>
+    <mergeCell ref="C107:C112"/>
+    <mergeCell ref="E107:E112"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="E51:E59"/>
+    <mergeCell ref="D51:D59"/>
+    <mergeCell ref="C51:C59"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="D47:D48"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
@@ -11519,127 +11682,16 @@
     <mergeCell ref="D102:D104"/>
     <mergeCell ref="C102:C104"/>
     <mergeCell ref="B102:B104"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="E51:E59"/>
-    <mergeCell ref="D51:D59"/>
-    <mergeCell ref="C51:C59"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="P123:P124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="Q123:Q124"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="D107:D112"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="E107:E112"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="C61:C67"/>
-    <mergeCell ref="D61:D67"/>
-    <mergeCell ref="E61:E67"/>
-    <mergeCell ref="E91:E94"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E118:E121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11672,93 +11724,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="559" t="s">
+      <c r="A1" s="577" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="559"/>
-      <c r="C1" s="559"/>
-      <c r="D1" s="559"/>
+      <c r="B1" s="577"/>
+      <c r="C1" s="577"/>
+      <c r="D1" s="577"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="560" t="s">
+      <c r="A2" s="578" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="560"/>
-      <c r="C2" s="560"/>
-      <c r="D2" s="560"/>
+      <c r="B2" s="578"/>
+      <c r="C2" s="578"/>
+      <c r="D2" s="578"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="573" t="s">
+      <c r="A3" s="585" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="573"/>
-      <c r="C3" s="573"/>
-      <c r="D3" s="573"/>
-      <c r="E3" s="573"/>
-      <c r="F3" s="573"/>
-      <c r="G3" s="573"/>
-      <c r="H3" s="573"/>
-      <c r="I3" s="573"/>
-      <c r="J3" s="573"/>
-      <c r="K3" s="573"/>
-      <c r="L3" s="573"/>
-      <c r="M3" s="573"/>
-      <c r="N3" s="573"/>
+      <c r="B3" s="585"/>
+      <c r="C3" s="585"/>
+      <c r="D3" s="585"/>
+      <c r="E3" s="585"/>
+      <c r="F3" s="585"/>
+      <c r="G3" s="585"/>
+      <c r="H3" s="585"/>
+      <c r="I3" s="585"/>
+      <c r="J3" s="585"/>
+      <c r="K3" s="585"/>
+      <c r="L3" s="585"/>
+      <c r="M3" s="585"/>
+      <c r="N3" s="585"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="574" t="s">
+      <c r="A4" s="586" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="574"/>
-      <c r="C4" s="574"/>
-      <c r="D4" s="574"/>
-      <c r="E4" s="574"/>
-      <c r="F4" s="574"/>
-      <c r="G4" s="574"/>
-      <c r="H4" s="574"/>
-      <c r="I4" s="575"/>
-      <c r="J4" s="574"/>
-      <c r="K4" s="574"/>
-      <c r="L4" s="574"/>
-      <c r="M4" s="574"/>
-      <c r="N4" s="574"/>
+      <c r="B4" s="586"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="586"/>
+      <c r="E4" s="586"/>
+      <c r="F4" s="586"/>
+      <c r="G4" s="586"/>
+      <c r="H4" s="586"/>
+      <c r="I4" s="587"/>
+      <c r="J4" s="586"/>
+      <c r="K4" s="586"/>
+      <c r="L4" s="586"/>
+      <c r="M4" s="586"/>
+      <c r="N4" s="586"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="576" t="s">
+      <c r="A5" s="588" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="573" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="577" t="s">
+      <c r="C5" s="566" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="269" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="585" t="s">
+      <c r="E5" s="574" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="585"/>
-      <c r="G5" s="585"/>
-      <c r="H5" s="585"/>
-      <c r="I5" s="586"/>
-      <c r="J5" s="587" t="s">
+      <c r="F5" s="574"/>
+      <c r="G5" s="574"/>
+      <c r="H5" s="574"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="576" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="585" t="s">
+      <c r="K5" s="574" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="585"/>
-      <c r="M5" s="585"/>
-      <c r="N5" s="577" t="s">
+      <c r="L5" s="574"/>
+      <c r="M5" s="574"/>
+      <c r="N5" s="566" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="576"/>
-      <c r="B6" s="584"/>
-      <c r="C6" s="577"/>
+      <c r="A6" s="588"/>
+      <c r="B6" s="573"/>
+      <c r="C6" s="566"/>
       <c r="D6" s="266" t="s">
         <v>41</v>
       </c>
@@ -11777,7 +11829,7 @@
       <c r="I6" s="268" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="587"/>
+      <c r="J6" s="576"/>
       <c r="K6" s="266" t="s">
         <v>45</v>
       </c>
@@ -11787,7 +11839,7 @@
       <c r="M6" s="266" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="577"/>
+      <c r="N6" s="566"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="448">
@@ -11797,13 +11849,13 @@
         <v>44046</v>
       </c>
       <c r="C7" s="306" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="306" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="306" t="s">
         <v>179</v>
-      </c>
-      <c r="E7" s="306" t="s">
-        <v>180</v>
       </c>
       <c r="F7" s="306">
         <v>22</v>
@@ -11831,20 +11883,20 @@
       <c r="N7" s="320"/>
     </row>
     <row r="8" spans="1:17" s="242" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="567">
+      <c r="A8" s="579">
         <v>656</v>
       </c>
-      <c r="B8" s="561">
+      <c r="B8" s="563">
         <v>44053</v>
       </c>
-      <c r="C8" s="570" t="s">
-        <v>275</v>
-      </c>
-      <c r="D8" s="570" t="s">
-        <v>183</v>
+      <c r="C8" s="582" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="582" t="s">
+        <v>182</v>
       </c>
       <c r="E8" s="358" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F8" s="358">
         <v>1</v>
@@ -11873,12 +11925,12 @@
       <c r="Q8" s="243"/>
     </row>
     <row r="9" spans="1:17" s="242" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="569"/>
-      <c r="B9" s="562"/>
-      <c r="C9" s="571"/>
-      <c r="D9" s="571"/>
+      <c r="A9" s="581"/>
+      <c r="B9" s="565"/>
+      <c r="C9" s="583"/>
+      <c r="D9" s="583"/>
       <c r="E9" s="359" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="359">
         <v>1</v>
@@ -11907,12 +11959,12 @@
       <c r="Q9" s="243"/>
     </row>
     <row r="10" spans="1:17" s="242" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="569"/>
-      <c r="B10" s="562"/>
-      <c r="C10" s="571"/>
-      <c r="D10" s="571"/>
+      <c r="A10" s="581"/>
+      <c r="B10" s="565"/>
+      <c r="C10" s="583"/>
+      <c r="D10" s="583"/>
       <c r="E10" s="359" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F10" s="359">
         <v>1</v>
@@ -11941,12 +11993,12 @@
       <c r="Q10" s="243"/>
     </row>
     <row r="11" spans="1:17" s="242" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="569"/>
-      <c r="B11" s="562"/>
-      <c r="C11" s="571"/>
-      <c r="D11" s="571"/>
+      <c r="A11" s="581"/>
+      <c r="B11" s="565"/>
+      <c r="C11" s="583"/>
+      <c r="D11" s="583"/>
       <c r="E11" s="359" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11" s="359">
         <v>1</v>
@@ -11975,12 +12027,12 @@
       <c r="Q11" s="243"/>
     </row>
     <row r="12" spans="1:17" s="242" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="569"/>
-      <c r="B12" s="562"/>
-      <c r="C12" s="571"/>
-      <c r="D12" s="571"/>
+      <c r="A12" s="581"/>
+      <c r="B12" s="565"/>
+      <c r="C12" s="583"/>
+      <c r="D12" s="583"/>
       <c r="E12" s="359" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F12" s="359">
         <v>1</v>
@@ -12009,12 +12061,12 @@
       <c r="Q12" s="243"/>
     </row>
     <row r="13" spans="1:17" s="242" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="569"/>
-      <c r="B13" s="562"/>
-      <c r="C13" s="571"/>
-      <c r="D13" s="571"/>
+      <c r="A13" s="581"/>
+      <c r="B13" s="565"/>
+      <c r="C13" s="583"/>
+      <c r="D13" s="583"/>
       <c r="E13" s="359" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F13" s="359">
         <v>1</v>
@@ -12043,12 +12095,12 @@
       <c r="Q13" s="243"/>
     </row>
     <row r="14" spans="1:17" s="242" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="569"/>
-      <c r="B14" s="562"/>
-      <c r="C14" s="571"/>
-      <c r="D14" s="571"/>
+      <c r="A14" s="581"/>
+      <c r="B14" s="565"/>
+      <c r="C14" s="583"/>
+      <c r="D14" s="583"/>
       <c r="E14" s="359" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F14" s="359">
         <v>1</v>
@@ -12077,12 +12129,12 @@
       <c r="Q14" s="243"/>
     </row>
     <row r="15" spans="1:17" s="242" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="568"/>
-      <c r="B15" s="563"/>
-      <c r="C15" s="572"/>
-      <c r="D15" s="572"/>
+      <c r="A15" s="580"/>
+      <c r="B15" s="564"/>
+      <c r="C15" s="584"/>
+      <c r="D15" s="584"/>
       <c r="E15" s="360" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" s="360">
         <v>1</v>
@@ -12119,10 +12171,10 @@
       </c>
       <c r="C16" s="370"/>
       <c r="D16" s="370" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16" s="361" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" s="361">
         <v>24</v>
@@ -12151,18 +12203,18 @@
       <c r="Q16" s="243"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="567">
+      <c r="A17" s="579">
         <v>642</v>
       </c>
-      <c r="B17" s="561">
+      <c r="B17" s="563">
         <v>44056</v>
       </c>
-      <c r="C17" s="564"/>
-      <c r="D17" s="564" t="s">
-        <v>183</v>
+      <c r="C17" s="560"/>
+      <c r="D17" s="560" t="s">
+        <v>182</v>
       </c>
       <c r="E17" s="162" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F17" s="162">
         <v>24</v>
@@ -12190,12 +12242,12 @@
       <c r="N17" s="165"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="568"/>
-      <c r="B18" s="563"/>
-      <c r="C18" s="566"/>
-      <c r="D18" s="566"/>
+      <c r="A18" s="580"/>
+      <c r="B18" s="564"/>
+      <c r="C18" s="562"/>
+      <c r="D18" s="562"/>
       <c r="E18" s="171" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F18" s="171">
         <v>5</v>
@@ -12230,13 +12282,13 @@
         <v>44056</v>
       </c>
       <c r="C19" s="307" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D19" s="307" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E19" s="307" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F19" s="307">
         <v>12</v>
@@ -12272,10 +12324,10 @@
       </c>
       <c r="C20" s="166"/>
       <c r="D20" s="166" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E20" s="166" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F20" s="166">
         <v>12</v>
@@ -12303,18 +12355,18 @@
       <c r="N20" s="166"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="582">
+      <c r="A21" s="571">
         <v>776</v>
       </c>
-      <c r="B21" s="580">
+      <c r="B21" s="569">
         <v>44070</v>
       </c>
-      <c r="C21" s="578"/>
-      <c r="D21" s="578" t="s">
-        <v>283</v>
+      <c r="C21" s="567"/>
+      <c r="D21" s="567" t="s">
+        <v>282</v>
       </c>
       <c r="E21" s="166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F21" s="166">
         <v>5</v>
@@ -12342,12 +12394,12 @@
       <c r="N21" s="166"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="583"/>
-      <c r="B22" s="581"/>
-      <c r="C22" s="579"/>
-      <c r="D22" s="579"/>
+      <c r="A22" s="572"/>
+      <c r="B22" s="570"/>
+      <c r="C22" s="568"/>
+      <c r="D22" s="568"/>
       <c r="E22" s="166" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F22" s="166">
         <v>7</v>
@@ -12383,10 +12435,10 @@
       </c>
       <c r="C23" s="166"/>
       <c r="D23" s="166" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E23" s="166" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F23" s="166">
         <v>12</v>
@@ -12446,10 +12498,10 @@
       <c r="N25" s="174"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="564"/>
-      <c r="B26" s="561"/>
-      <c r="C26" s="564"/>
-      <c r="D26" s="564"/>
+      <c r="A26" s="560"/>
+      <c r="B26" s="563"/>
+      <c r="C26" s="560"/>
+      <c r="D26" s="560"/>
       <c r="E26" s="162"/>
       <c r="F26" s="162"/>
       <c r="G26" s="163"/>
@@ -12462,10 +12514,10 @@
       <c r="N26" s="165"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="565"/>
-      <c r="B27" s="562"/>
-      <c r="C27" s="565"/>
-      <c r="D27" s="565"/>
+      <c r="A27" s="561"/>
+      <c r="B27" s="565"/>
+      <c r="C27" s="561"/>
+      <c r="D27" s="561"/>
       <c r="E27" s="166"/>
       <c r="F27" s="166"/>
       <c r="G27" s="167"/>
@@ -12478,10 +12530,10 @@
       <c r="N27" s="170"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="566"/>
-      <c r="B28" s="563"/>
-      <c r="C28" s="566"/>
-      <c r="D28" s="566"/>
+      <c r="A28" s="562"/>
+      <c r="B28" s="564"/>
+      <c r="C28" s="562"/>
+      <c r="D28" s="562"/>
       <c r="E28" s="171"/>
       <c r="F28" s="171"/>
       <c r="G28" s="172"/>
@@ -12494,10 +12546,10 @@
       <c r="N28" s="174"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="564"/>
-      <c r="B29" s="561"/>
-      <c r="C29" s="564"/>
-      <c r="D29" s="564"/>
+      <c r="A29" s="560"/>
+      <c r="B29" s="563"/>
+      <c r="C29" s="560"/>
+      <c r="D29" s="560"/>
       <c r="E29" s="162"/>
       <c r="F29" s="162"/>
       <c r="G29" s="163"/>
@@ -12510,10 +12562,10 @@
       <c r="N29" s="165"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="565"/>
-      <c r="B30" s="562"/>
-      <c r="C30" s="565"/>
-      <c r="D30" s="565"/>
+      <c r="A30" s="561"/>
+      <c r="B30" s="565"/>
+      <c r="C30" s="561"/>
+      <c r="D30" s="561"/>
       <c r="E30" s="166"/>
       <c r="F30" s="166"/>
       <c r="G30" s="167"/>
@@ -12526,10 +12578,10 @@
       <c r="N30" s="170"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="565"/>
-      <c r="B31" s="562"/>
-      <c r="C31" s="565"/>
-      <c r="D31" s="565"/>
+      <c r="A31" s="561"/>
+      <c r="B31" s="565"/>
+      <c r="C31" s="561"/>
+      <c r="D31" s="561"/>
       <c r="E31" s="166"/>
       <c r="F31" s="166"/>
       <c r="G31" s="167"/>
@@ -12542,10 +12594,10 @@
       <c r="N31" s="170"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="566"/>
-      <c r="B32" s="563"/>
-      <c r="C32" s="566"/>
-      <c r="D32" s="566"/>
+      <c r="A32" s="562"/>
+      <c r="B32" s="564"/>
+      <c r="C32" s="562"/>
+      <c r="D32" s="562"/>
       <c r="E32" s="171"/>
       <c r="F32" s="171"/>
       <c r="G32" s="172"/>
@@ -12622,10 +12674,10 @@
       <c r="N36" s="112"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="564"/>
-      <c r="B37" s="561"/>
-      <c r="C37" s="564"/>
-      <c r="D37" s="564"/>
+      <c r="A37" s="560"/>
+      <c r="B37" s="563"/>
+      <c r="C37" s="560"/>
+      <c r="D37" s="560"/>
       <c r="E37" s="162"/>
       <c r="F37" s="162"/>
       <c r="G37" s="163"/>
@@ -12638,10 +12690,10 @@
       <c r="N37" s="165"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="566"/>
-      <c r="B38" s="563"/>
-      <c r="C38" s="566"/>
-      <c r="D38" s="566"/>
+      <c r="A38" s="562"/>
+      <c r="B38" s="564"/>
+      <c r="C38" s="562"/>
+      <c r="D38" s="562"/>
       <c r="E38" s="171"/>
       <c r="F38" s="171"/>
       <c r="G38" s="172"/>
@@ -12686,12 +12738,12 @@
       <c r="N40" s="112"/>
     </row>
     <row r="41" spans="1:14" s="106" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="588" t="s">
+      <c r="A41" s="559" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="588"/>
-      <c r="C41" s="588"/>
-      <c r="D41" s="588"/>
+      <c r="B41" s="559"/>
+      <c r="C41" s="559"/>
+      <c r="D41" s="559"/>
       <c r="E41" s="102"/>
       <c r="F41" s="102">
         <f>SUM(F7:F40)</f>
@@ -12779,26 +12831,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B26:B28"/>
@@ -12815,6 +12847,26 @@
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12825,7 +12877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -12925,7 +12977,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="590" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B5" s="590"/>
       <c r="C5" s="590"/>
@@ -13360,13 +13412,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="623" t="s">
+      <c r="A1" s="608" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="623"/>
-      <c r="C1" s="623"/>
-      <c r="D1" s="623"/>
-      <c r="E1" s="623"/>
+      <c r="B1" s="608"/>
+      <c r="C1" s="608"/>
+      <c r="D1" s="608"/>
+      <c r="E1" s="608"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
@@ -13386,107 +13438,107 @@
       <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="599" t="s">
+      <c r="A3" s="609" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="599"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="599"/>
-      <c r="F3" s="599"/>
-      <c r="G3" s="599"/>
-      <c r="H3" s="599"/>
-      <c r="I3" s="599"/>
-      <c r="J3" s="599"/>
-      <c r="K3" s="599"/>
-      <c r="L3" s="599"/>
+      <c r="B3" s="609"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="609"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="609"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="609"/>
     </row>
     <row r="4" spans="1:12" s="113" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="598" t="s">
+      <c r="A4" s="610" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="618" t="s">
+      <c r="B4" s="614" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="598" t="s">
+      <c r="C4" s="610" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="598" t="s">
+      <c r="D4" s="610" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="598"/>
-      <c r="F4" s="597" t="s">
+      <c r="E4" s="610"/>
+      <c r="F4" s="613" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="597"/>
-      <c r="H4" s="597"/>
-      <c r="I4" s="597"/>
-      <c r="J4" s="597"/>
-      <c r="K4" s="597"/>
-      <c r="L4" s="597"/>
+      <c r="G4" s="613"/>
+      <c r="H4" s="613"/>
+      <c r="I4" s="613"/>
+      <c r="J4" s="613"/>
+      <c r="K4" s="613"/>
+      <c r="L4" s="613"/>
     </row>
     <row r="5" spans="1:12" s="113" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="598"/>
-      <c r="B5" s="618"/>
-      <c r="C5" s="598"/>
-      <c r="D5" s="598" t="s">
+      <c r="A5" s="610"/>
+      <c r="B5" s="614"/>
+      <c r="C5" s="610"/>
+      <c r="D5" s="610" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="598" t="s">
+      <c r="E5" s="610" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="598" t="s">
+      <c r="F5" s="610" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="598" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="601" t="s">
+      <c r="G5" s="610" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="611" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="601" t="s">
+      <c r="I5" s="611" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="600" t="s">
+      <c r="J5" s="612" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="600"/>
-      <c r="L5" s="601" t="s">
+      <c r="K5" s="612"/>
+      <c r="L5" s="611" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="598"/>
-      <c r="B6" s="618"/>
-      <c r="C6" s="598"/>
-      <c r="D6" s="598"/>
-      <c r="E6" s="598"/>
-      <c r="F6" s="598"/>
-      <c r="G6" s="598"/>
-      <c r="H6" s="601"/>
-      <c r="I6" s="601"/>
+      <c r="A6" s="610"/>
+      <c r="B6" s="614"/>
+      <c r="C6" s="610"/>
+      <c r="D6" s="610"/>
+      <c r="E6" s="610"/>
+      <c r="F6" s="610"/>
+      <c r="G6" s="610"/>
+      <c r="H6" s="611"/>
+      <c r="I6" s="611"/>
       <c r="J6" s="116" t="s">
         <v>84</v>
       </c>
       <c r="K6" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="601"/>
+      <c r="L6" s="611"/>
     </row>
     <row r="7" spans="1:12" s="242" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="564">
+      <c r="A7" s="560">
         <v>630</v>
       </c>
-      <c r="B7" s="561">
+      <c r="B7" s="563">
         <v>44044</v>
       </c>
-      <c r="C7" s="564" t="s">
+      <c r="C7" s="560" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="560"/>
+      <c r="E7" s="560"/>
+      <c r="F7" s="298" t="s">
         <v>175</v>
-      </c>
-      <c r="D7" s="564"/>
-      <c r="E7" s="564"/>
-      <c r="F7" s="298" t="s">
-        <v>176</v>
       </c>
       <c r="G7" s="298">
         <v>1</v>
@@ -13506,13 +13558,13 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="242" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="565"/>
-      <c r="B8" s="562"/>
-      <c r="C8" s="565"/>
-      <c r="D8" s="565"/>
-      <c r="E8" s="565"/>
+      <c r="A8" s="561"/>
+      <c r="B8" s="565"/>
+      <c r="C8" s="561"/>
+      <c r="D8" s="561"/>
+      <c r="E8" s="561"/>
       <c r="F8" s="299" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G8" s="299">
         <v>1</v>
@@ -13532,13 +13584,13 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="242" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="565"/>
-      <c r="B9" s="562"/>
-      <c r="C9" s="565"/>
-      <c r="D9" s="565"/>
-      <c r="E9" s="565"/>
+      <c r="A9" s="561"/>
+      <c r="B9" s="565"/>
+      <c r="C9" s="561"/>
+      <c r="D9" s="561"/>
+      <c r="E9" s="561"/>
       <c r="F9" s="299" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G9" s="299">
         <v>4</v>
@@ -13558,13 +13610,13 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="242" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="566"/>
-      <c r="B10" s="563"/>
-      <c r="C10" s="566"/>
-      <c r="D10" s="566"/>
-      <c r="E10" s="566"/>
+      <c r="A10" s="562"/>
+      <c r="B10" s="564"/>
+      <c r="C10" s="562"/>
+      <c r="D10" s="562"/>
+      <c r="E10" s="562"/>
       <c r="F10" s="300" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G10" s="300">
         <v>1</v>
@@ -13591,12 +13643,12 @@
         <v>44046</v>
       </c>
       <c r="C11" s="310" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="310"/>
       <c r="E11" s="310"/>
       <c r="F11" s="301" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" s="301">
         <v>2</v>
@@ -13616,19 +13668,19 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="242" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="616">
+      <c r="A12" s="615">
         <v>646</v>
       </c>
-      <c r="B12" s="619">
+      <c r="B12" s="617">
         <v>44053</v>
       </c>
-      <c r="C12" s="616" t="s">
+      <c r="C12" s="615" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="619"/>
+      <c r="E12" s="615"/>
+      <c r="F12" s="242" t="s">
         <v>175</v>
-      </c>
-      <c r="D12" s="621"/>
-      <c r="E12" s="616"/>
-      <c r="F12" s="242" t="s">
-        <v>176</v>
       </c>
       <c r="G12" s="242">
         <v>1</v>
@@ -13648,13 +13700,13 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="242" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="617"/>
-      <c r="B13" s="620"/>
-      <c r="C13" s="617"/>
-      <c r="D13" s="622"/>
-      <c r="E13" s="617"/>
+      <c r="A13" s="616"/>
+      <c r="B13" s="618"/>
+      <c r="C13" s="616"/>
+      <c r="D13" s="620"/>
+      <c r="E13" s="616"/>
       <c r="F13" s="302" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G13" s="302">
         <v>1</v>
@@ -13674,14 +13726,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="604" t="s">
+      <c r="A14" s="599" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="605"/>
-      <c r="C14" s="605"/>
-      <c r="D14" s="605"/>
-      <c r="E14" s="605"/>
-      <c r="F14" s="606"/>
+      <c r="B14" s="600"/>
+      <c r="C14" s="600"/>
+      <c r="D14" s="600"/>
+      <c r="E14" s="600"/>
+      <c r="F14" s="601"/>
       <c r="G14" s="326">
         <f>SUM(G7:G13)</f>
         <v>11</v>
@@ -13727,111 +13779,111 @@
       <c r="L16" s="348"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="599" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" s="599"/>
-      <c r="C17" s="599"/>
-      <c r="D17" s="599"/>
-      <c r="E17" s="599"/>
-      <c r="F17" s="599"/>
-      <c r="G17" s="599"/>
-      <c r="H17" s="599"/>
-      <c r="I17" s="599"/>
-      <c r="J17" s="599"/>
-      <c r="K17" s="599"/>
-      <c r="L17" s="599"/>
+      <c r="A17" s="609" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="609"/>
+      <c r="C17" s="609"/>
+      <c r="D17" s="609"/>
+      <c r="E17" s="609"/>
+      <c r="F17" s="609"/>
+      <c r="G17" s="609"/>
+      <c r="H17" s="609"/>
+      <c r="I17" s="609"/>
+      <c r="J17" s="609"/>
+      <c r="K17" s="609"/>
+      <c r="L17" s="609"/>
     </row>
     <row r="18" spans="1:13" s="113" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="598" t="s">
+      <c r="A18" s="610" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="618" t="s">
+      <c r="B18" s="614" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="598" t="s">
+      <c r="C18" s="610" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="598" t="s">
+      <c r="D18" s="610" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="598"/>
-      <c r="F18" s="597" t="s">
+      <c r="E18" s="610"/>
+      <c r="F18" s="613" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="597"/>
-      <c r="H18" s="597"/>
-      <c r="I18" s="597"/>
-      <c r="J18" s="597"/>
-      <c r="K18" s="597"/>
-      <c r="L18" s="597"/>
+      <c r="G18" s="613"/>
+      <c r="H18" s="613"/>
+      <c r="I18" s="613"/>
+      <c r="J18" s="613"/>
+      <c r="K18" s="613"/>
+      <c r="L18" s="613"/>
     </row>
     <row r="19" spans="1:13" s="113" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="598"/>
-      <c r="B19" s="618"/>
-      <c r="C19" s="598"/>
-      <c r="D19" s="598" t="s">
+      <c r="A19" s="610"/>
+      <c r="B19" s="614"/>
+      <c r="C19" s="610"/>
+      <c r="D19" s="610" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="598" t="s">
+      <c r="E19" s="610" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="598" t="s">
+      <c r="F19" s="610" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="598" t="s">
+      <c r="G19" s="610" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="601" t="s">
+      <c r="H19" s="611" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="601" t="s">
+      <c r="I19" s="611" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="600" t="s">
+      <c r="J19" s="612" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="600"/>
-      <c r="L19" s="601" t="s">
+      <c r="K19" s="612"/>
+      <c r="L19" s="611" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="598"/>
-      <c r="B20" s="618"/>
-      <c r="C20" s="598"/>
-      <c r="D20" s="598"/>
-      <c r="E20" s="598"/>
-      <c r="F20" s="598"/>
-      <c r="G20" s="598"/>
-      <c r="H20" s="601"/>
-      <c r="I20" s="601"/>
+      <c r="A20" s="610"/>
+      <c r="B20" s="614"/>
+      <c r="C20" s="610"/>
+      <c r="D20" s="610"/>
+      <c r="E20" s="610"/>
+      <c r="F20" s="610"/>
+      <c r="G20" s="610"/>
+      <c r="H20" s="611"/>
+      <c r="I20" s="611"/>
       <c r="J20" s="304" t="s">
         <v>84</v>
       </c>
       <c r="K20" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="601"/>
+      <c r="L20" s="611"/>
     </row>
     <row r="21" spans="1:13" s="242" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="564">
+      <c r="A21" s="560">
         <v>647</v>
       </c>
-      <c r="B21" s="561">
+      <c r="B21" s="563">
         <v>44056</v>
       </c>
-      <c r="C21" s="564" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="614" t="s">
+      <c r="C21" s="560" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="621" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="560" t="s">
         <v>201</v>
       </c>
-      <c r="E21" s="564" t="s">
-        <v>202</v>
-      </c>
       <c r="F21" s="298" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G21" s="298">
         <v>3</v>
@@ -13854,13 +13906,13 @@
       <c r="M21" s="243"/>
     </row>
     <row r="22" spans="1:13" s="242" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="566"/>
-      <c r="B22" s="563"/>
-      <c r="C22" s="566"/>
-      <c r="D22" s="615"/>
-      <c r="E22" s="566"/>
+      <c r="A22" s="562"/>
+      <c r="B22" s="564"/>
+      <c r="C22" s="562"/>
+      <c r="D22" s="622"/>
+      <c r="E22" s="562"/>
       <c r="F22" s="300" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G22" s="300">
         <v>2</v>
@@ -13891,23 +13943,23 @@
       <c r="F23" s="328"/>
       <c r="G23" s="328"/>
       <c r="H23" s="328"/>
-      <c r="I23" s="603" t="s">
-        <v>214</v>
-      </c>
-      <c r="J23" s="603"/>
-      <c r="K23" s="603"/>
+      <c r="I23" s="623" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="623"/>
+      <c r="K23" s="623"/>
       <c r="L23" s="498">
         <v>382000</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="604" t="s">
+      <c r="A24" s="599" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="605"/>
-      <c r="C24" s="605"/>
-      <c r="D24" s="605"/>
-      <c r="E24" s="606"/>
+      <c r="B24" s="600"/>
+      <c r="C24" s="600"/>
+      <c r="D24" s="600"/>
+      <c r="E24" s="601"/>
       <c r="F24" s="331"/>
       <c r="G24" s="331">
         <f>SUM(G21:G23)</f>
@@ -13940,92 +13992,92 @@
       <c r="L25" s="347"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="599" t="s">
-        <v>271</v>
-      </c>
-      <c r="B26" s="599"/>
-      <c r="C26" s="599"/>
-      <c r="D26" s="599"/>
-      <c r="E26" s="599"/>
-      <c r="F26" s="599"/>
-      <c r="G26" s="599"/>
-      <c r="H26" s="599"/>
-      <c r="I26" s="599"/>
-      <c r="J26" s="599"/>
-      <c r="K26" s="599"/>
-      <c r="L26" s="599"/>
+      <c r="A26" s="609" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" s="609"/>
+      <c r="C26" s="609"/>
+      <c r="D26" s="609"/>
+      <c r="E26" s="609"/>
+      <c r="F26" s="609"/>
+      <c r="G26" s="609"/>
+      <c r="H26" s="609"/>
+      <c r="I26" s="609"/>
+      <c r="J26" s="609"/>
+      <c r="K26" s="609"/>
+      <c r="L26" s="609"/>
     </row>
     <row r="27" spans="1:13" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="598" t="s">
+      <c r="A27" s="610" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="602" t="s">
+      <c r="B27" s="629" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="598" t="s">
+      <c r="C27" s="610" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="598" t="s">
+      <c r="D27" s="610" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="598"/>
-      <c r="F27" s="597" t="s">
+      <c r="E27" s="610"/>
+      <c r="F27" s="613" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="597"/>
-      <c r="H27" s="597"/>
-      <c r="I27" s="597"/>
-      <c r="J27" s="597"/>
-      <c r="K27" s="597"/>
-      <c r="L27" s="597"/>
+      <c r="G27" s="613"/>
+      <c r="H27" s="613"/>
+      <c r="I27" s="613"/>
+      <c r="J27" s="613"/>
+      <c r="K27" s="613"/>
+      <c r="L27" s="613"/>
     </row>
     <row r="28" spans="1:13" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="598"/>
-      <c r="B28" s="602"/>
-      <c r="C28" s="598"/>
-      <c r="D28" s="598" t="s">
+      <c r="A28" s="610"/>
+      <c r="B28" s="629"/>
+      <c r="C28" s="610"/>
+      <c r="D28" s="610" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="598" t="s">
+      <c r="E28" s="610" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="598" t="s">
+      <c r="F28" s="610" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="598" t="s">
+      <c r="G28" s="610" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="601" t="s">
+      <c r="H28" s="611" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="601" t="s">
+      <c r="I28" s="611" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="600" t="s">
+      <c r="J28" s="612" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="600"/>
-      <c r="L28" s="601" t="s">
+      <c r="K28" s="612"/>
+      <c r="L28" s="611" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="598"/>
-      <c r="B29" s="602"/>
-      <c r="C29" s="598"/>
-      <c r="D29" s="598"/>
-      <c r="E29" s="598"/>
-      <c r="F29" s="598"/>
-      <c r="G29" s="598"/>
-      <c r="H29" s="601"/>
-      <c r="I29" s="601"/>
+      <c r="A29" s="610"/>
+      <c r="B29" s="629"/>
+      <c r="C29" s="610"/>
+      <c r="D29" s="610"/>
+      <c r="E29" s="610"/>
+      <c r="F29" s="610"/>
+      <c r="G29" s="610"/>
+      <c r="H29" s="611"/>
+      <c r="I29" s="611"/>
       <c r="J29" s="356" t="s">
         <v>84</v>
       </c>
       <c r="K29" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="601"/>
+      <c r="L29" s="611"/>
     </row>
     <row r="30" spans="1:13" s="242" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="178">
@@ -14035,12 +14087,12 @@
         <v>44071</v>
       </c>
       <c r="C30" s="178" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" s="178"/>
       <c r="E30" s="178"/>
       <c r="F30" s="178" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G30" s="178">
         <v>1</v>
@@ -14075,11 +14127,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="334" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="599" t="s">
-        <v>215</v>
-      </c>
-      <c r="B32" s="599"/>
-      <c r="C32" s="599"/>
+      <c r="A32" s="609" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="609"/>
+      <c r="C32" s="609"/>
       <c r="D32" s="344"/>
       <c r="E32" s="344"/>
       <c r="F32" s="344"/>
@@ -14092,225 +14144,225 @@
       <c r="A33" s="303"/>
       <c r="B33" s="303"/>
       <c r="C33" s="303"/>
-      <c r="D33" s="611" t="s">
-        <v>216</v>
-      </c>
-      <c r="E33" s="612"/>
-      <c r="F33" s="612"/>
-      <c r="G33" s="612"/>
-      <c r="H33" s="612"/>
-      <c r="I33" s="613"/>
-      <c r="J33" s="609" t="s">
+      <c r="D33" s="626" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="627"/>
+      <c r="F33" s="627"/>
+      <c r="G33" s="627"/>
+      <c r="H33" s="627"/>
+      <c r="I33" s="628"/>
+      <c r="J33" s="624" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="610"/>
+      <c r="K33" s="625"/>
       <c r="L33" s="333"/>
     </row>
     <row r="34" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="303"/>
       <c r="B34" s="303"/>
       <c r="C34" s="303"/>
-      <c r="D34" s="592" t="s">
-        <v>217</v>
-      </c>
-      <c r="E34" s="593"/>
-      <c r="F34" s="593"/>
-      <c r="G34" s="593"/>
-      <c r="H34" s="593"/>
-      <c r="I34" s="594"/>
-      <c r="J34" s="595">
+      <c r="D34" s="596" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="597"/>
+      <c r="F34" s="597"/>
+      <c r="G34" s="597"/>
+      <c r="H34" s="597"/>
+      <c r="I34" s="598"/>
+      <c r="J34" s="604">
         <v>550415</v>
       </c>
-      <c r="K34" s="596"/>
+      <c r="K34" s="605"/>
       <c r="L34" s="333"/>
     </row>
     <row r="35" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="303"/>
       <c r="B35" s="303"/>
       <c r="C35" s="303"/>
-      <c r="D35" s="592" t="s">
-        <v>218</v>
-      </c>
-      <c r="E35" s="593"/>
-      <c r="F35" s="593"/>
-      <c r="G35" s="593"/>
-      <c r="H35" s="593"/>
-      <c r="I35" s="594"/>
-      <c r="J35" s="595">
+      <c r="D35" s="596" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="597"/>
+      <c r="F35" s="597"/>
+      <c r="G35" s="597"/>
+      <c r="H35" s="597"/>
+      <c r="I35" s="598"/>
+      <c r="J35" s="604">
         <f>L14</f>
         <v>3082750.0000000005</v>
       </c>
-      <c r="K35" s="596"/>
+      <c r="K35" s="605"/>
       <c r="L35" s="333"/>
     </row>
     <row r="36" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="303"/>
       <c r="B36" s="303"/>
       <c r="C36" s="303"/>
-      <c r="D36" s="592" t="s">
-        <v>219</v>
-      </c>
-      <c r="E36" s="593"/>
-      <c r="F36" s="593"/>
-      <c r="G36" s="593"/>
-      <c r="H36" s="593"/>
-      <c r="I36" s="594"/>
-      <c r="J36" s="595">
+      <c r="D36" s="596" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="597"/>
+      <c r="F36" s="597"/>
+      <c r="G36" s="597"/>
+      <c r="H36" s="597"/>
+      <c r="I36" s="598"/>
+      <c r="J36" s="604">
         <f>L24</f>
         <v>1109750</v>
       </c>
-      <c r="K36" s="596"/>
+      <c r="K36" s="605"/>
       <c r="N36" s="335"/>
     </row>
     <row r="37" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="355"/>
       <c r="B37" s="355"/>
       <c r="C37" s="355"/>
-      <c r="D37" s="592" t="s">
-        <v>272</v>
-      </c>
-      <c r="E37" s="593"/>
-      <c r="F37" s="593"/>
-      <c r="G37" s="593"/>
-      <c r="H37" s="593"/>
-      <c r="I37" s="594"/>
-      <c r="J37" s="595">
+      <c r="D37" s="596" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" s="597"/>
+      <c r="F37" s="597"/>
+      <c r="G37" s="597"/>
+      <c r="H37" s="597"/>
+      <c r="I37" s="598"/>
+      <c r="J37" s="604">
         <f>L31</f>
         <v>225000</v>
       </c>
-      <c r="K37" s="596"/>
+      <c r="K37" s="605"/>
       <c r="N37" s="335"/>
     </row>
     <row r="38" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="354"/>
       <c r="B38" s="354"/>
       <c r="C38" s="354"/>
-      <c r="D38" s="592" t="s">
-        <v>256</v>
-      </c>
-      <c r="E38" s="593"/>
-      <c r="F38" s="593"/>
-      <c r="G38" s="593"/>
-      <c r="H38" s="593"/>
-      <c r="I38" s="594"/>
-      <c r="J38" s="595">
+      <c r="D38" s="596" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="597"/>
+      <c r="F38" s="597"/>
+      <c r="G38" s="597"/>
+      <c r="H38" s="597"/>
+      <c r="I38" s="598"/>
+      <c r="J38" s="604">
         <v>5000000</v>
       </c>
-      <c r="K38" s="596"/>
+      <c r="K38" s="605"/>
       <c r="N38" s="335"/>
     </row>
     <row r="39" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="354"/>
       <c r="B39" s="354"/>
       <c r="C39" s="354"/>
-      <c r="D39" s="604" t="s">
-        <v>226</v>
-      </c>
-      <c r="E39" s="605"/>
-      <c r="F39" s="605"/>
-      <c r="G39" s="605"/>
-      <c r="H39" s="605"/>
-      <c r="I39" s="606"/>
-      <c r="J39" s="607">
+      <c r="D39" s="599" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="600"/>
+      <c r="F39" s="600"/>
+      <c r="G39" s="600"/>
+      <c r="H39" s="600"/>
+      <c r="I39" s="601"/>
+      <c r="J39" s="606">
         <f>SUM(J34:K38)</f>
         <v>9967915</v>
       </c>
-      <c r="K39" s="608"/>
+      <c r="K39" s="607"/>
       <c r="N39" s="335"/>
     </row>
     <row r="40" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="303"/>
       <c r="B40" s="303"/>
       <c r="C40" s="303"/>
-      <c r="D40" s="592" t="s">
-        <v>220</v>
-      </c>
-      <c r="E40" s="593"/>
-      <c r="F40" s="593"/>
-      <c r="G40" s="593"/>
-      <c r="H40" s="593"/>
-      <c r="I40" s="594"/>
-      <c r="J40" s="595">
+      <c r="D40" s="596" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="597"/>
+      <c r="F40" s="597"/>
+      <c r="G40" s="597"/>
+      <c r="H40" s="597"/>
+      <c r="I40" s="598"/>
+      <c r="J40" s="604">
         <f>'Bảng lương'!K15</f>
         <v>5695384.615384616</v>
       </c>
-      <c r="K40" s="596"/>
+      <c r="K40" s="605"/>
       <c r="L40" s="333"/>
     </row>
     <row r="41" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="354"/>
       <c r="B41" s="354"/>
       <c r="C41" s="354"/>
-      <c r="D41" s="592" t="s">
-        <v>251</v>
-      </c>
-      <c r="E41" s="593"/>
-      <c r="F41" s="593"/>
-      <c r="G41" s="593"/>
-      <c r="H41" s="593"/>
-      <c r="I41" s="594"/>
-      <c r="J41" s="595">
+      <c r="D41" s="596" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" s="597"/>
+      <c r="F41" s="597"/>
+      <c r="G41" s="597"/>
+      <c r="H41" s="597"/>
+      <c r="I41" s="598"/>
+      <c r="J41" s="604">
         <f>'Chi phí văn phòng'!D9</f>
         <v>674000</v>
       </c>
-      <c r="K41" s="596"/>
+      <c r="K41" s="605"/>
       <c r="L41" s="333"/>
     </row>
     <row r="42" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="354"/>
       <c r="B42" s="354"/>
       <c r="C42" s="354"/>
-      <c r="D42" s="592" t="s">
-        <v>252</v>
-      </c>
-      <c r="E42" s="593"/>
-      <c r="F42" s="593"/>
-      <c r="G42" s="593"/>
-      <c r="H42" s="593"/>
-      <c r="I42" s="594"/>
-      <c r="J42" s="595">
+      <c r="D42" s="596" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42" s="597"/>
+      <c r="F42" s="597"/>
+      <c r="G42" s="597"/>
+      <c r="H42" s="597"/>
+      <c r="I42" s="598"/>
+      <c r="J42" s="604">
         <f>'Chi phí văn phòng'!D21</f>
         <v>1289000</v>
       </c>
-      <c r="K42" s="596"/>
+      <c r="K42" s="605"/>
       <c r="L42" s="333"/>
     </row>
     <row r="43" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="354"/>
       <c r="B43" s="354"/>
       <c r="C43" s="354"/>
-      <c r="D43" s="604" t="s">
-        <v>227</v>
-      </c>
-      <c r="E43" s="605"/>
-      <c r="F43" s="605"/>
-      <c r="G43" s="605"/>
-      <c r="H43" s="605"/>
-      <c r="I43" s="606"/>
-      <c r="J43" s="607">
+      <c r="D43" s="599" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" s="600"/>
+      <c r="F43" s="600"/>
+      <c r="G43" s="600"/>
+      <c r="H43" s="600"/>
+      <c r="I43" s="601"/>
+      <c r="J43" s="606">
         <f>SUM(J40:K42)</f>
         <v>7658384.615384616</v>
       </c>
-      <c r="K43" s="608"/>
+      <c r="K43" s="607"/>
       <c r="L43" s="333"/>
     </row>
     <row r="44" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="303"/>
       <c r="B44" s="303"/>
       <c r="C44" s="303"/>
-      <c r="D44" s="628" t="s">
-        <v>255</v>
-      </c>
-      <c r="E44" s="628"/>
-      <c r="F44" s="628"/>
-      <c r="G44" s="628"/>
-      <c r="H44" s="628"/>
-      <c r="I44" s="628"/>
-      <c r="J44" s="629">
+      <c r="D44" s="602" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44" s="602"/>
+      <c r="F44" s="602"/>
+      <c r="G44" s="602"/>
+      <c r="H44" s="602"/>
+      <c r="I44" s="602"/>
+      <c r="J44" s="603">
         <f>J39-J43</f>
         <v>2309530.384615384</v>
       </c>
-      <c r="K44" s="629"/>
+      <c r="K44" s="603"/>
     </row>
     <row r="45" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="354"/>
@@ -14320,14 +14372,14 @@
       <c r="E45" s="336"/>
       <c r="F45" s="336"/>
       <c r="G45" s="336"/>
-      <c r="H45" s="624" t="s">
-        <v>253</v>
-      </c>
-      <c r="I45" s="624"/>
-      <c r="J45" s="625">
+      <c r="H45" s="592" t="s">
+        <v>252</v>
+      </c>
+      <c r="I45" s="592"/>
+      <c r="J45" s="593">
         <v>2500000</v>
       </c>
-      <c r="K45" s="625"/>
+      <c r="K45" s="593"/>
     </row>
     <row r="46" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="350"/>
@@ -14337,58 +14389,86 @@
       <c r="E46" s="336"/>
       <c r="F46" s="336"/>
       <c r="G46" s="336"/>
-      <c r="H46" s="627" t="s">
-        <v>254</v>
-      </c>
-      <c r="I46" s="627"/>
-      <c r="J46" s="626">
+      <c r="H46" s="595" t="s">
+        <v>253</v>
+      </c>
+      <c r="I46" s="595"/>
+      <c r="J46" s="594">
         <f>J44+J45</f>
         <v>4809530.384615384</v>
       </c>
-      <c r="K46" s="626"/>
+      <c r="K46" s="594"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="93"/>
-      <c r="B47" s="599" t="s">
+      <c r="B47" s="609" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="599"/>
-      <c r="D47" s="599"/>
+      <c r="C47" s="609"/>
+      <c r="D47" s="609"/>
       <c r="E47" s="93"/>
       <c r="F47" s="93"/>
       <c r="G47" s="93"/>
       <c r="H47" s="93"/>
-      <c r="I47" s="599" t="s">
+      <c r="I47" s="609" t="s">
         <v>113</v>
       </c>
-      <c r="J47" s="599"/>
+      <c r="J47" s="609"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:L20"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="D4:E4"/>
@@ -14405,58 +14485,30 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
   </mergeCells>
   <pageMargins left="0.91" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -14480,13 +14532,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="623" t="s">
+      <c r="B1" s="608" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="623"/>
-      <c r="D1" s="623"/>
-      <c r="E1" s="623"/>
-      <c r="F1" s="623"/>
+      <c r="C1" s="608"/>
+      <c r="D1" s="608"/>
+      <c r="E1" s="608"/>
+      <c r="F1" s="608"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
       <c r="I1" s="67"/>
@@ -14506,11 +14558,11 @@
       <c r="J2" s="67"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="573" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="573"/>
-      <c r="D4" s="573"/>
+      <c r="B4" s="585" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="585"/>
+      <c r="D4" s="585"/>
       <c r="E4" s="194"/>
       <c r="F4" s="194"/>
     </row>
@@ -14525,7 +14577,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="632" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="633"/>
       <c r="D6" s="634"/>
@@ -14534,7 +14586,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="341" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="635">
         <v>1071000</v>
@@ -14546,7 +14598,7 @@
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="338"/>
       <c r="C8" s="343" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D8" s="343">
         <v>397000</v>
@@ -14557,7 +14609,7 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="338"/>
       <c r="C9" s="343" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D9" s="343">
         <v>674000</v>
@@ -14567,7 +14619,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="342" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C10" s="339"/>
       <c r="D10" s="339"/>
@@ -14577,7 +14629,7 @@
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="338"/>
       <c r="C11" s="339" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D11" s="339">
         <v>0</v>
@@ -14599,7 +14651,7 @@
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="338"/>
       <c r="C13" s="339" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D13" s="339">
         <v>165000</v>
@@ -14610,7 +14662,7 @@
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="338"/>
       <c r="C14" s="339" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D14" s="339">
         <v>544000</v>
@@ -14621,7 +14673,7 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="338"/>
       <c r="C15" s="339" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D15" s="339">
         <v>172000</v>
@@ -14645,7 +14697,7 @@
     </row>
     <row r="18" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="632" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18" s="633"/>
       <c r="D18" s="634"/>
@@ -14654,7 +14706,7 @@
     </row>
     <row r="19" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="341" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" s="635">
         <f>D23+D24+D25+D26+D27+D28</f>
@@ -14667,7 +14719,7 @@
     <row r="20" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="338"/>
       <c r="C20" s="343" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D20" s="343">
         <v>2403000</v>
@@ -14678,7 +14730,7 @@
     <row r="21" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="338"/>
       <c r="C21" s="343" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D21" s="343">
         <f>C19-D20</f>
@@ -14689,7 +14741,7 @@
     </row>
     <row r="22" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="342" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C22" s="339"/>
       <c r="D22" s="339"/>
@@ -14699,7 +14751,7 @@
     <row r="23" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="342"/>
       <c r="C23" s="339" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D23" s="339">
         <v>400000</v>
@@ -14710,7 +14762,7 @@
     <row r="24" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="338"/>
       <c r="C24" s="339" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D24" s="339">
         <v>990000</v>
@@ -14732,7 +14784,7 @@
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="338"/>
       <c r="C26" s="339" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D26" s="339">
         <v>304000</v>
@@ -14743,7 +14795,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="338"/>
       <c r="C27" s="339" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D27" s="339">
         <v>1453000</v>
@@ -14754,7 +14806,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="338"/>
       <c r="C28" s="339" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D28" s="339">
         <v>200000</v>
@@ -14764,7 +14816,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="351" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" s="351"/>
       <c r="C31" s="351"/>
@@ -14773,7 +14825,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="351"/>
       <c r="B32" s="631" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C32" s="631"/>
       <c r="D32" s="352">
@@ -14784,10 +14836,10 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="351"/>
       <c r="B33" s="630" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="353" t="s">
         <v>248</v>
-      </c>
-      <c r="C33" s="353" t="s">
-        <v>249</v>
       </c>
       <c r="D33" s="352">
         <f>D8+D20</f>
@@ -14798,7 +14850,7 @@
       <c r="A34" s="351"/>
       <c r="B34" s="630"/>
       <c r="C34" s="353" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" s="352">
         <f>D21+D9</f>
@@ -14832,13 +14884,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="623" t="s">
+      <c r="A1" s="608" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="623"/>
-      <c r="C1" s="623"/>
-      <c r="D1" s="623"/>
-      <c r="E1" s="623"/>
+      <c r="B1" s="608"/>
+      <c r="C1" s="608"/>
+      <c r="D1" s="608"/>
+      <c r="E1" s="608"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
@@ -14859,7 +14911,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="639" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B4" s="639"/>
       <c r="C4" s="639"/>
@@ -14871,7 +14923,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="640" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="640"/>
       <c r="C6" s="640"/>
@@ -14885,7 +14937,7 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="637" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="637"/>
       <c r="C7" s="637"/>
@@ -14899,7 +14951,7 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="637" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="637"/>
       <c r="C8" s="637"/>
@@ -14912,34 +14964,34 @@
       <c r="H8" s="638"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="592" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="593"/>
-      <c r="C9" s="593"/>
-      <c r="D9" s="593"/>
-      <c r="E9" s="593"/>
-      <c r="F9" s="594"/>
-      <c r="G9" s="595">
+      <c r="A9" s="596" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="597"/>
+      <c r="C9" s="597"/>
+      <c r="D9" s="597"/>
+      <c r="E9" s="597"/>
+      <c r="F9" s="598"/>
+      <c r="G9" s="604">
         <f>'Bảng lương'!K12</f>
         <v>7135000</v>
       </c>
-      <c r="H9" s="596"/>
+      <c r="H9" s="605"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="628" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" s="628"/>
-      <c r="C10" s="628"/>
-      <c r="D10" s="628"/>
-      <c r="E10" s="628"/>
-      <c r="F10" s="628"/>
-      <c r="G10" s="629">
+      <c r="A10" s="602" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="602"/>
+      <c r="C10" s="602"/>
+      <c r="D10" s="602"/>
+      <c r="E10" s="602"/>
+      <c r="F10" s="602"/>
+      <c r="G10" s="603">
         <f>SUM(G7:H9)</f>
         <v>9935000</v>
       </c>
-      <c r="H10" s="629"/>
+      <c r="H10" s="603"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -15495,16 +15547,16 @@
       <c r="C1" s="118"/>
       <c r="D1" s="118"/>
       <c r="E1" s="118"/>
-      <c r="Z1" s="647" t="s">
+      <c r="Z1" s="660" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="648"/>
-      <c r="AB1" s="648"/>
-      <c r="AC1" s="648"/>
-      <c r="AD1" s="648"/>
-      <c r="AE1" s="648"/>
-      <c r="AF1" s="648"/>
-      <c r="AG1" s="649"/>
+      <c r="AA1" s="661"/>
+      <c r="AB1" s="661"/>
+      <c r="AC1" s="661"/>
+      <c r="AD1" s="661"/>
+      <c r="AE1" s="661"/>
+      <c r="AF1" s="661"/>
+      <c r="AG1" s="662"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="121" t="s">
@@ -15514,18 +15566,18 @@
       <c r="C2" s="122"/>
       <c r="D2" s="122"/>
       <c r="E2" s="122"/>
-      <c r="Z2" s="642" t="s">
+      <c r="Z2" s="643" t="s">
         <v>86</v>
       </c>
-      <c r="AA2" s="643"/>
-      <c r="AB2" s="643"/>
-      <c r="AC2" s="643"/>
-      <c r="AD2" s="643"/>
-      <c r="AE2" s="644"/>
-      <c r="AF2" s="645" t="s">
+      <c r="AA2" s="644"/>
+      <c r="AB2" s="644"/>
+      <c r="AC2" s="644"/>
+      <c r="AD2" s="644"/>
+      <c r="AE2" s="645"/>
+      <c r="AF2" s="646" t="s">
         <v>87</v>
       </c>
-      <c r="AG2" s="646"/>
+      <c r="AG2" s="647"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="121" t="s">
@@ -15535,18 +15587,18 @@
       <c r="C3" s="84"/>
       <c r="D3" s="84"/>
       <c r="E3" s="84"/>
-      <c r="Z3" s="642" t="s">
+      <c r="Z3" s="643" t="s">
         <v>89</v>
       </c>
-      <c r="AA3" s="643"/>
-      <c r="AB3" s="643"/>
-      <c r="AC3" s="643"/>
-      <c r="AD3" s="643"/>
-      <c r="AE3" s="644"/>
-      <c r="AF3" s="645" t="s">
+      <c r="AA3" s="644"/>
+      <c r="AB3" s="644"/>
+      <c r="AC3" s="644"/>
+      <c r="AD3" s="644"/>
+      <c r="AE3" s="645"/>
+      <c r="AF3" s="646" t="s">
         <v>90</v>
       </c>
-      <c r="AG3" s="646"/>
+      <c r="AG3" s="647"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="121" t="s">
@@ -15559,18 +15611,18 @@
       <c r="T4" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="642" t="s">
+      <c r="Z4" s="643" t="s">
         <v>92</v>
       </c>
-      <c r="AA4" s="643"/>
-      <c r="AB4" s="643"/>
-      <c r="AC4" s="643"/>
-      <c r="AD4" s="643"/>
-      <c r="AE4" s="644"/>
-      <c r="AF4" s="645" t="s">
+      <c r="AA4" s="644"/>
+      <c r="AB4" s="644"/>
+      <c r="AC4" s="644"/>
+      <c r="AD4" s="644"/>
+      <c r="AE4" s="645"/>
+      <c r="AF4" s="646" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="646"/>
+      <c r="AG4" s="647"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="121" t="s">
@@ -15580,18 +15632,18 @@
       <c r="C5" s="84"/>
       <c r="D5" s="84"/>
       <c r="E5" s="84"/>
-      <c r="Z5" s="642" t="s">
+      <c r="Z5" s="643" t="s">
         <v>95</v>
       </c>
-      <c r="AA5" s="643"/>
-      <c r="AB5" s="643"/>
-      <c r="AC5" s="643"/>
-      <c r="AD5" s="643"/>
-      <c r="AE5" s="644"/>
-      <c r="AF5" s="645" t="s">
+      <c r="AA5" s="644"/>
+      <c r="AB5" s="644"/>
+      <c r="AC5" s="644"/>
+      <c r="AD5" s="644"/>
+      <c r="AE5" s="645"/>
+      <c r="AF5" s="646" t="s">
         <v>96</v>
       </c>
-      <c r="AG5" s="646"/>
+      <c r="AG5" s="647"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="123"/>
@@ -15601,93 +15653,93 @@
       <c r="E6" s="123"/>
     </row>
     <row r="7" spans="1:40" s="126" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="651" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" s="651"/>
-      <c r="C7" s="651"/>
-      <c r="D7" s="651"/>
-      <c r="E7" s="651"/>
-      <c r="F7" s="651"/>
-      <c r="G7" s="651"/>
-      <c r="H7" s="651"/>
-      <c r="I7" s="651"/>
-      <c r="J7" s="651"/>
-      <c r="K7" s="651"/>
-      <c r="L7" s="651"/>
-      <c r="M7" s="651"/>
-      <c r="N7" s="651"/>
-      <c r="O7" s="651"/>
-      <c r="P7" s="651"/>
-      <c r="Q7" s="651"/>
-      <c r="R7" s="651"/>
-      <c r="S7" s="651"/>
-      <c r="T7" s="651"/>
-      <c r="U7" s="651"/>
-      <c r="V7" s="651"/>
-      <c r="W7" s="651"/>
-      <c r="X7" s="651"/>
-      <c r="Y7" s="651"/>
-      <c r="Z7" s="651"/>
-      <c r="AA7" s="651"/>
-      <c r="AB7" s="651"/>
-      <c r="AC7" s="651"/>
-      <c r="AD7" s="651"/>
-      <c r="AE7" s="651"/>
-      <c r="AF7" s="651"/>
-      <c r="AG7" s="651"/>
-      <c r="AH7" s="651"/>
-      <c r="AI7" s="651"/>
-      <c r="AJ7" s="651"/>
-      <c r="AK7" s="651"/>
-      <c r="AL7" s="651"/>
-      <c r="AM7" s="651"/>
+      <c r="A7" s="648" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="648"/>
+      <c r="C7" s="648"/>
+      <c r="D7" s="648"/>
+      <c r="E7" s="648"/>
+      <c r="F7" s="648"/>
+      <c r="G7" s="648"/>
+      <c r="H7" s="648"/>
+      <c r="I7" s="648"/>
+      <c r="J7" s="648"/>
+      <c r="K7" s="648"/>
+      <c r="L7" s="648"/>
+      <c r="M7" s="648"/>
+      <c r="N7" s="648"/>
+      <c r="O7" s="648"/>
+      <c r="P7" s="648"/>
+      <c r="Q7" s="648"/>
+      <c r="R7" s="648"/>
+      <c r="S7" s="648"/>
+      <c r="T7" s="648"/>
+      <c r="U7" s="648"/>
+      <c r="V7" s="648"/>
+      <c r="W7" s="648"/>
+      <c r="X7" s="648"/>
+      <c r="Y7" s="648"/>
+      <c r="Z7" s="648"/>
+      <c r="AA7" s="648"/>
+      <c r="AB7" s="648"/>
+      <c r="AC7" s="648"/>
+      <c r="AD7" s="648"/>
+      <c r="AE7" s="648"/>
+      <c r="AF7" s="648"/>
+      <c r="AG7" s="648"/>
+      <c r="AH7" s="648"/>
+      <c r="AI7" s="648"/>
+      <c r="AJ7" s="648"/>
+      <c r="AK7" s="648"/>
+      <c r="AL7" s="648"/>
+      <c r="AM7" s="648"/>
       <c r="AN7" s="125"/>
     </row>
     <row r="9" spans="1:40" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="652" t="s">
+      <c r="A9" s="649" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="652" t="s">
+      <c r="B9" s="649" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="652" t="s">
+      <c r="C9" s="649" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="655" t="s">
+      <c r="D9" s="652" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="656"/>
-      <c r="F9" s="656"/>
-      <c r="G9" s="656"/>
-      <c r="H9" s="656"/>
-      <c r="I9" s="656"/>
-      <c r="J9" s="656"/>
-      <c r="K9" s="656"/>
-      <c r="L9" s="656"/>
-      <c r="M9" s="656"/>
-      <c r="N9" s="656"/>
-      <c r="O9" s="656"/>
-      <c r="P9" s="656"/>
-      <c r="Q9" s="656"/>
-      <c r="R9" s="656"/>
-      <c r="S9" s="656"/>
-      <c r="T9" s="656"/>
-      <c r="U9" s="656"/>
-      <c r="V9" s="656"/>
-      <c r="W9" s="656"/>
-      <c r="X9" s="656"/>
-      <c r="Y9" s="656"/>
-      <c r="Z9" s="656"/>
-      <c r="AA9" s="656"/>
-      <c r="AB9" s="656"/>
-      <c r="AC9" s="656"/>
-      <c r="AD9" s="656"/>
-      <c r="AE9" s="656"/>
-      <c r="AF9" s="656"/>
-      <c r="AG9" s="656"/>
-      <c r="AH9" s="657"/>
-      <c r="AI9" s="658" t="s">
+      <c r="E9" s="653"/>
+      <c r="F9" s="653"/>
+      <c r="G9" s="653"/>
+      <c r="H9" s="653"/>
+      <c r="I9" s="653"/>
+      <c r="J9" s="653"/>
+      <c r="K9" s="653"/>
+      <c r="L9" s="653"/>
+      <c r="M9" s="653"/>
+      <c r="N9" s="653"/>
+      <c r="O9" s="653"/>
+      <c r="P9" s="653"/>
+      <c r="Q9" s="653"/>
+      <c r="R9" s="653"/>
+      <c r="S9" s="653"/>
+      <c r="T9" s="653"/>
+      <c r="U9" s="653"/>
+      <c r="V9" s="653"/>
+      <c r="W9" s="653"/>
+      <c r="X9" s="653"/>
+      <c r="Y9" s="653"/>
+      <c r="Z9" s="653"/>
+      <c r="AA9" s="653"/>
+      <c r="AB9" s="653"/>
+      <c r="AC9" s="653"/>
+      <c r="AD9" s="653"/>
+      <c r="AE9" s="653"/>
+      <c r="AF9" s="653"/>
+      <c r="AG9" s="653"/>
+      <c r="AH9" s="654"/>
+      <c r="AI9" s="655" t="s">
         <v>101</v>
       </c>
       <c r="AJ9" s="127"/>
@@ -15697,9 +15749,9 @@
       <c r="AN9" s="130"/>
     </row>
     <row r="10" spans="1:40" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="653"/>
-      <c r="B10" s="653"/>
-      <c r="C10" s="653"/>
+      <c r="A10" s="650"/>
+      <c r="B10" s="650"/>
+      <c r="C10" s="650"/>
       <c r="D10" s="132">
         <v>1</v>
       </c>
@@ -15793,7 +15845,7 @@
       <c r="AH10" s="132">
         <v>31</v>
       </c>
-      <c r="AI10" s="658"/>
+      <c r="AI10" s="655"/>
       <c r="AJ10" s="133"/>
       <c r="AK10" s="129"/>
       <c r="AL10" s="129"/>
@@ -15801,9 +15853,9 @@
       <c r="AN10" s="130"/>
     </row>
     <row r="11" spans="1:40" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="654"/>
-      <c r="B11" s="654"/>
-      <c r="C11" s="654"/>
+      <c r="A11" s="651"/>
+      <c r="B11" s="651"/>
+      <c r="C11" s="651"/>
       <c r="D11" s="132" t="s">
         <v>102</v>
       </c>
@@ -15897,7 +15949,7 @@
       <c r="AH11" s="191" t="s">
         <v>104</v>
       </c>
-      <c r="AI11" s="658"/>
+      <c r="AI11" s="655"/>
       <c r="AJ11" s="137"/>
       <c r="AN11" s="139"/>
     </row>
@@ -16298,10 +16350,10 @@
       <c r="AN15" s="139"/>
     </row>
     <row r="16" spans="1:40" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="659" t="s">
+      <c r="A16" s="656" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="660"/>
+      <c r="B16" s="657"/>
       <c r="C16" s="141"/>
       <c r="D16" s="141"/>
       <c r="E16" s="142"/>
@@ -16344,49 +16396,49 @@
       <c r="AN16" s="139"/>
     </row>
     <row r="18" spans="1:40" s="151" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="661" t="s">
+      <c r="A18" s="658" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="661"/>
-      <c r="C18" s="661"/>
-      <c r="D18" s="661"/>
-      <c r="E18" s="661"/>
-      <c r="F18" s="661"/>
-      <c r="G18" s="661"/>
+      <c r="B18" s="658"/>
+      <c r="C18" s="658"/>
+      <c r="D18" s="658"/>
+      <c r="E18" s="658"/>
+      <c r="F18" s="658"/>
+      <c r="G18" s="658"/>
       <c r="H18" s="146"/>
-      <c r="I18" s="662"/>
-      <c r="J18" s="662"/>
-      <c r="K18" s="662"/>
-      <c r="L18" s="662"/>
-      <c r="M18" s="662"/>
+      <c r="I18" s="659"/>
+      <c r="J18" s="659"/>
+      <c r="K18" s="659"/>
+      <c r="L18" s="659"/>
+      <c r="M18" s="659"/>
       <c r="N18" s="147"/>
-      <c r="O18" s="662" t="s">
+      <c r="O18" s="659" t="s">
         <v>111</v>
       </c>
-      <c r="P18" s="662"/>
-      <c r="Q18" s="662"/>
-      <c r="R18" s="662"/>
-      <c r="S18" s="662"/>
-      <c r="T18" s="662"/>
-      <c r="U18" s="662"/>
-      <c r="V18" s="662"/>
-      <c r="W18" s="662"/>
-      <c r="X18" s="662"/>
-      <c r="Y18" s="662"/>
+      <c r="P18" s="659"/>
+      <c r="Q18" s="659"/>
+      <c r="R18" s="659"/>
+      <c r="S18" s="659"/>
+      <c r="T18" s="659"/>
+      <c r="U18" s="659"/>
+      <c r="V18" s="659"/>
+      <c r="W18" s="659"/>
+      <c r="X18" s="659"/>
+      <c r="Y18" s="659"/>
       <c r="Z18" s="148"/>
       <c r="AA18" s="148"/>
       <c r="AB18" s="149"/>
-      <c r="AC18" s="662"/>
-      <c r="AD18" s="662"/>
-      <c r="AE18" s="662"/>
-      <c r="AF18" s="662"/>
-      <c r="AG18" s="662"/>
-      <c r="AH18" s="662"/>
-      <c r="AI18" s="662"/>
-      <c r="AJ18" s="662"/>
-      <c r="AK18" s="662"/>
-      <c r="AL18" s="662"/>
-      <c r="AM18" s="662"/>
+      <c r="AC18" s="659"/>
+      <c r="AD18" s="659"/>
+      <c r="AE18" s="659"/>
+      <c r="AF18" s="659"/>
+      <c r="AG18" s="659"/>
+      <c r="AH18" s="659"/>
+      <c r="AI18" s="659"/>
+      <c r="AJ18" s="659"/>
+      <c r="AK18" s="659"/>
+      <c r="AL18" s="659"/>
+      <c r="AM18" s="659"/>
       <c r="AN18" s="150"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -16420,131 +16472,131 @@
       <c r="AN33" s="155"/>
     </row>
     <row r="34" spans="3:40" s="154" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="650"/>
-      <c r="H34" s="650"/>
-      <c r="I34" s="650"/>
-      <c r="J34" s="650"/>
-      <c r="K34" s="650"/>
-      <c r="L34" s="650"/>
-      <c r="M34" s="650"/>
-      <c r="N34" s="650"/>
-      <c r="O34" s="650"/>
-      <c r="P34" s="650"/>
-      <c r="Q34" s="650"/>
-      <c r="R34" s="650"/>
-      <c r="S34" s="650"/>
-      <c r="T34" s="650"/>
-      <c r="U34" s="650"/>
-      <c r="V34" s="650"/>
-      <c r="W34" s="650"/>
-      <c r="X34" s="650"/>
+      <c r="G34" s="642"/>
+      <c r="H34" s="642"/>
+      <c r="I34" s="642"/>
+      <c r="J34" s="642"/>
+      <c r="K34" s="642"/>
+      <c r="L34" s="642"/>
+      <c r="M34" s="642"/>
+      <c r="N34" s="642"/>
+      <c r="O34" s="642"/>
+      <c r="P34" s="642"/>
+      <c r="Q34" s="642"/>
+      <c r="R34" s="642"/>
+      <c r="S34" s="642"/>
+      <c r="T34" s="642"/>
+      <c r="U34" s="642"/>
+      <c r="V34" s="642"/>
+      <c r="W34" s="642"/>
+      <c r="X34" s="642"/>
       <c r="AN34" s="155"/>
     </row>
     <row r="35" spans="3:40" s="154" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="650"/>
-      <c r="H35" s="650"/>
-      <c r="I35" s="650"/>
-      <c r="J35" s="650"/>
-      <c r="K35" s="650"/>
-      <c r="L35" s="650"/>
-      <c r="M35" s="650"/>
-      <c r="N35" s="650"/>
-      <c r="O35" s="650"/>
-      <c r="P35" s="650"/>
-      <c r="Q35" s="650"/>
-      <c r="R35" s="650"/>
-      <c r="S35" s="650"/>
-      <c r="T35" s="650"/>
-      <c r="U35" s="650"/>
-      <c r="V35" s="650"/>
-      <c r="W35" s="650"/>
-      <c r="X35" s="650"/>
+      <c r="G35" s="642"/>
+      <c r="H35" s="642"/>
+      <c r="I35" s="642"/>
+      <c r="J35" s="642"/>
+      <c r="K35" s="642"/>
+      <c r="L35" s="642"/>
+      <c r="M35" s="642"/>
+      <c r="N35" s="642"/>
+      <c r="O35" s="642"/>
+      <c r="P35" s="642"/>
+      <c r="Q35" s="642"/>
+      <c r="R35" s="642"/>
+      <c r="S35" s="642"/>
+      <c r="T35" s="642"/>
+      <c r="U35" s="642"/>
+      <c r="V35" s="642"/>
+      <c r="W35" s="642"/>
+      <c r="X35" s="642"/>
       <c r="AN35" s="155"/>
     </row>
     <row r="36" spans="3:40" s="154" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="650"/>
-      <c r="H36" s="650"/>
-      <c r="I36" s="650"/>
-      <c r="J36" s="650"/>
-      <c r="K36" s="650"/>
-      <c r="L36" s="650"/>
-      <c r="M36" s="650"/>
-      <c r="N36" s="650"/>
-      <c r="O36" s="650"/>
-      <c r="P36" s="650"/>
-      <c r="Q36" s="650"/>
-      <c r="R36" s="650"/>
-      <c r="S36" s="650"/>
-      <c r="T36" s="650"/>
-      <c r="U36" s="650"/>
-      <c r="V36" s="650"/>
-      <c r="W36" s="650"/>
-      <c r="X36" s="650"/>
+      <c r="G36" s="642"/>
+      <c r="H36" s="642"/>
+      <c r="I36" s="642"/>
+      <c r="J36" s="642"/>
+      <c r="K36" s="642"/>
+      <c r="L36" s="642"/>
+      <c r="M36" s="642"/>
+      <c r="N36" s="642"/>
+      <c r="O36" s="642"/>
+      <c r="P36" s="642"/>
+      <c r="Q36" s="642"/>
+      <c r="R36" s="642"/>
+      <c r="S36" s="642"/>
+      <c r="T36" s="642"/>
+      <c r="U36" s="642"/>
+      <c r="V36" s="642"/>
+      <c r="W36" s="642"/>
+      <c r="X36" s="642"/>
       <c r="AN36" s="155"/>
     </row>
     <row r="37" spans="3:40" s="154" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="650"/>
-      <c r="H37" s="650"/>
-      <c r="I37" s="650"/>
-      <c r="J37" s="650"/>
-      <c r="K37" s="650"/>
-      <c r="L37" s="650"/>
-      <c r="M37" s="650"/>
-      <c r="N37" s="650"/>
-      <c r="O37" s="650"/>
-      <c r="P37" s="650"/>
-      <c r="Q37" s="650"/>
-      <c r="R37" s="650"/>
-      <c r="S37" s="650"/>
-      <c r="T37" s="650"/>
-      <c r="U37" s="650"/>
-      <c r="V37" s="650"/>
-      <c r="W37" s="650"/>
-      <c r="X37" s="650"/>
+      <c r="G37" s="642"/>
+      <c r="H37" s="642"/>
+      <c r="I37" s="642"/>
+      <c r="J37" s="642"/>
+      <c r="K37" s="642"/>
+      <c r="L37" s="642"/>
+      <c r="M37" s="642"/>
+      <c r="N37" s="642"/>
+      <c r="O37" s="642"/>
+      <c r="P37" s="642"/>
+      <c r="Q37" s="642"/>
+      <c r="R37" s="642"/>
+      <c r="S37" s="642"/>
+      <c r="T37" s="642"/>
+      <c r="U37" s="642"/>
+      <c r="V37" s="642"/>
+      <c r="W37" s="642"/>
+      <c r="X37" s="642"/>
       <c r="AN37" s="155"/>
     </row>
     <row r="38" spans="3:40" s="154" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="650"/>
-      <c r="H38" s="650"/>
-      <c r="I38" s="650"/>
-      <c r="J38" s="650"/>
-      <c r="K38" s="650"/>
-      <c r="L38" s="650"/>
-      <c r="M38" s="650"/>
-      <c r="N38" s="650"/>
-      <c r="O38" s="650"/>
-      <c r="P38" s="650"/>
-      <c r="Q38" s="650"/>
-      <c r="R38" s="650"/>
-      <c r="S38" s="650"/>
-      <c r="T38" s="650"/>
-      <c r="U38" s="650"/>
-      <c r="V38" s="650"/>
-      <c r="W38" s="650"/>
-      <c r="X38" s="650"/>
+      <c r="G38" s="642"/>
+      <c r="H38" s="642"/>
+      <c r="I38" s="642"/>
+      <c r="J38" s="642"/>
+      <c r="K38" s="642"/>
+      <c r="L38" s="642"/>
+      <c r="M38" s="642"/>
+      <c r="N38" s="642"/>
+      <c r="O38" s="642"/>
+      <c r="P38" s="642"/>
+      <c r="Q38" s="642"/>
+      <c r="R38" s="642"/>
+      <c r="S38" s="642"/>
+      <c r="T38" s="642"/>
+      <c r="U38" s="642"/>
+      <c r="V38" s="642"/>
+      <c r="W38" s="642"/>
+      <c r="X38" s="642"/>
       <c r="AN38" s="155"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="119"/>
       <c r="D39" s="119"/>
-      <c r="G39" s="650"/>
-      <c r="H39" s="650"/>
-      <c r="I39" s="650"/>
-      <c r="J39" s="650"/>
-      <c r="K39" s="650"/>
-      <c r="L39" s="650"/>
-      <c r="M39" s="650"/>
-      <c r="N39" s="650"/>
-      <c r="O39" s="650"/>
-      <c r="P39" s="650"/>
-      <c r="Q39" s="650"/>
-      <c r="R39" s="650"/>
-      <c r="S39" s="650"/>
-      <c r="T39" s="650"/>
-      <c r="U39" s="650"/>
-      <c r="V39" s="650"/>
-      <c r="W39" s="650"/>
-      <c r="X39" s="650"/>
+      <c r="G39" s="642"/>
+      <c r="H39" s="642"/>
+      <c r="I39" s="642"/>
+      <c r="J39" s="642"/>
+      <c r="K39" s="642"/>
+      <c r="L39" s="642"/>
+      <c r="M39" s="642"/>
+      <c r="N39" s="642"/>
+      <c r="O39" s="642"/>
+      <c r="P39" s="642"/>
+      <c r="Q39" s="642"/>
+      <c r="R39" s="642"/>
+      <c r="S39" s="642"/>
+      <c r="T39" s="642"/>
+      <c r="U39" s="642"/>
+      <c r="V39" s="642"/>
+      <c r="W39" s="642"/>
+      <c r="X39" s="642"/>
       <c r="AN39" s="119"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -16554,6 +16606,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -16568,13 +16627,6 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -17429,40 +17481,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="209" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="663" t="s">
+      <c r="A1" s="672" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="663"/>
-      <c r="C1" s="663"/>
-      <c r="D1" s="663"/>
+      <c r="B1" s="672"/>
+      <c r="C1" s="672"/>
+      <c r="D1" s="672"/>
       <c r="E1" s="208"/>
-      <c r="F1" s="664" t="s">
+      <c r="F1" s="673" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="664"/>
-      <c r="H1" s="664"/>
-      <c r="I1" s="664"/>
-      <c r="J1" s="664"/>
-      <c r="K1" s="664"/>
-      <c r="L1" s="664"/>
+      <c r="G1" s="673"/>
+      <c r="H1" s="673"/>
+      <c r="I1" s="673"/>
+      <c r="J1" s="673"/>
+      <c r="K1" s="673"/>
+      <c r="L1" s="673"/>
     </row>
     <row r="2" spans="1:16" s="209" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="665" t="s">
+      <c r="A2" s="674" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="665"/>
-      <c r="C2" s="665"/>
-      <c r="D2" s="665"/>
+      <c r="B2" s="674"/>
+      <c r="C2" s="674"/>
+      <c r="D2" s="674"/>
       <c r="E2" s="208"/>
-      <c r="F2" s="666" t="s">
+      <c r="F2" s="675" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="666"/>
-      <c r="H2" s="666"/>
-      <c r="I2" s="666"/>
-      <c r="J2" s="666"/>
-      <c r="K2" s="666"/>
-      <c r="L2" s="666"/>
+      <c r="G2" s="675"/>
+      <c r="H2" s="675"/>
+      <c r="I2" s="675"/>
+      <c r="J2" s="675"/>
+      <c r="K2" s="675"/>
+      <c r="L2" s="675"/>
     </row>
     <row r="3" spans="1:16" s="209" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="210"/>
@@ -17476,45 +17528,45 @@
       <c r="J3" s="211"/>
     </row>
     <row r="4" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="667" t="s">
+      <c r="A4" s="663" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="667"/>
-      <c r="C4" s="667"/>
-      <c r="D4" s="667"/>
-      <c r="E4" s="667"/>
-      <c r="F4" s="667"/>
-      <c r="G4" s="667"/>
-      <c r="H4" s="667"/>
-      <c r="I4" s="667"/>
-      <c r="J4" s="667"/>
-      <c r="K4" s="667"/>
-      <c r="L4" s="667"/>
-      <c r="M4" s="667"/>
+      <c r="B4" s="663"/>
+      <c r="C4" s="663"/>
+      <c r="D4" s="663"/>
+      <c r="E4" s="663"/>
+      <c r="F4" s="663"/>
+      <c r="G4" s="663"/>
+      <c r="H4" s="663"/>
+      <c r="I4" s="663"/>
+      <c r="J4" s="663"/>
+      <c r="K4" s="663"/>
+      <c r="L4" s="663"/>
+      <c r="M4" s="663"/>
     </row>
     <row r="5" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="667" t="s">
+      <c r="A5" s="663" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="667"/>
-      <c r="C5" s="667"/>
-      <c r="D5" s="667"/>
-      <c r="E5" s="667"/>
-      <c r="F5" s="667"/>
-      <c r="G5" s="667"/>
-      <c r="H5" s="667"/>
-      <c r="I5" s="667"/>
-      <c r="J5" s="667"/>
-      <c r="K5" s="667"/>
-      <c r="L5" s="667"/>
-      <c r="M5" s="667"/>
+      <c r="B5" s="663"/>
+      <c r="C5" s="663"/>
+      <c r="D5" s="663"/>
+      <c r="E5" s="663"/>
+      <c r="F5" s="663"/>
+      <c r="G5" s="663"/>
+      <c r="H5" s="663"/>
+      <c r="I5" s="663"/>
+      <c r="J5" s="663"/>
+      <c r="K5" s="663"/>
+      <c r="L5" s="663"/>
+      <c r="M5" s="663"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="668" t="s">
+      <c r="K6" s="664" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="668"/>
-      <c r="M6" s="668"/>
+      <c r="L6" s="664"/>
+      <c r="M6" s="664"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
@@ -17545,7 +17597,7 @@
         <v>112</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K7" s="42" t="s">
         <v>66</v>
@@ -17585,10 +17637,10 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="669" t="s">
+      <c r="A9" s="665" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="670"/>
+      <c r="B9" s="666"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="E9" s="49"/>
@@ -17712,11 +17764,11 @@
       <c r="P12" s="114"/>
     </row>
     <row r="13" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="673" t="s">
+      <c r="A13" s="669" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="674"/>
-      <c r="C13" s="675"/>
+      <c r="B13" s="670"/>
+      <c r="C13" s="671"/>
       <c r="D13" s="188">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -17741,10 +17793,10 @@
       <c r="M13" s="214"/>
     </row>
     <row r="14" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="671" t="s">
+      <c r="A14" s="667" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="672"/>
+      <c r="B14" s="668"/>
       <c r="C14" s="85"/>
       <c r="D14" s="86"/>
       <c r="E14" s="229"/>
@@ -17795,11 +17847,11 @@
       <c r="M15" s="60"/>
     </row>
     <row r="16" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="673" t="s">
+      <c r="A16" s="669" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="674"/>
-      <c r="C16" s="675"/>
+      <c r="B16" s="670"/>
+      <c r="C16" s="671"/>
       <c r="D16" s="215">
         <f>SUM(D15:D15)</f>
         <v>5000000</v>
@@ -17821,14 +17873,14 @@
       <c r="M16" s="214"/>
     </row>
     <row r="18" spans="2:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="667"/>
-      <c r="C18" s="667"/>
-      <c r="D18" s="667"/>
+      <c r="B18" s="663"/>
+      <c r="C18" s="663"/>
+      <c r="D18" s="663"/>
       <c r="E18" s="189"/>
-      <c r="I18" s="667"/>
-      <c r="J18" s="667"/>
-      <c r="K18" s="667"/>
-      <c r="L18" s="667"/>
+      <c r="I18" s="663"/>
+      <c r="J18" s="663"/>
+      <c r="K18" s="663"/>
+      <c r="L18" s="663"/>
     </row>
     <row r="19" spans="2:12" s="209" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="217" t="s">
@@ -17874,6 +17926,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="A9:B9"/>
@@ -17882,11 +17939,6 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
@@ -3215,44 +3215,140 @@
     <xf numFmtId="14" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3263,192 +3359,96 @@
     <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3458,18 +3458,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3479,6 +3467,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3486,6 +3501,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3494,84 +3572,6 @@
     <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3608,24 +3608,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3662,13 +3671,16 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3694,18 +3706,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4041,11 +4041,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10:H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4142,7 +4143,7 @@
       </c>
       <c r="H6" s="507"/>
     </row>
-    <row r="7" spans="1:9" s="437" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="437" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="504"/>
       <c r="B7" s="509"/>
       <c r="C7" s="504"/>
@@ -4160,7 +4161,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="442">
         <v>43974</v>
       </c>
@@ -4180,7 +4181,7 @@
         <v>3433800</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="442">
         <v>44011</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>886000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="471">
         <v>44045</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>1420000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="442">
         <v>44045</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>5525000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="442">
         <v>44045</v>
       </c>
@@ -4320,7 +4321,7 @@
       </c>
       <c r="H15" s="446"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="442">
         <v>44045</v>
       </c>
@@ -4340,7 +4341,7 @@
       </c>
       <c r="H16" s="446"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="442">
         <v>44046</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>21600000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="471">
         <v>44046</v>
       </c>
@@ -4380,7 +4381,7 @@
       <c r="G18" s="445"/>
       <c r="H18" s="446"/>
     </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="471">
         <v>44046</v>
       </c>
@@ -4400,7 +4401,7 @@
       <c r="G19" s="445"/>
       <c r="H19" s="446"/>
     </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="471">
         <v>44047</v>
       </c>
@@ -4420,7 +4421,7 @@
       <c r="G20" s="445"/>
       <c r="H20" s="446"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="442">
         <v>44047</v>
       </c>
@@ -4440,7 +4441,7 @@
       </c>
       <c r="H21" s="446"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="442">
         <v>44047</v>
       </c>
@@ -4460,7 +4461,7 @@
         <v>5388000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="442">
         <v>44047</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="442">
         <v>44047</v>
       </c>
@@ -4500,7 +4501,7 @@
         <v>595000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="442">
         <v>44047</v>
       </c>
@@ -4521,7 +4522,7 @@
         <v>2966000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="442">
         <v>44047</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>83000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="471">
         <v>44047</v>
       </c>
@@ -4562,12 +4563,12 @@
       <c r="G27" s="445"/>
       <c r="H27" s="446"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="442">
         <v>44047</v>
       </c>
       <c r="B28" s="442" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C28" s="443" t="s">
         <v>141</v>
@@ -4582,7 +4583,7 @@
       </c>
       <c r="H28" s="446"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="442">
         <v>44047</v>
       </c>
@@ -4602,12 +4603,12 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="442">
         <v>44048</v>
       </c>
       <c r="B30" s="442" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C30" s="443" t="s">
         <v>133</v>
@@ -4622,7 +4623,7 @@
         <v>2934500</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="471">
         <v>44048</v>
       </c>
@@ -4642,12 +4643,12 @@
       <c r="G31" s="445"/>
       <c r="H31" s="446"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="442">
         <v>44048</v>
       </c>
       <c r="B32" s="442" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C32" s="443" t="s">
         <v>141</v>
@@ -4662,7 +4663,7 @@
       </c>
       <c r="H32" s="446"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="442">
         <v>44048</v>
       </c>
@@ -4682,7 +4683,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="471">
         <v>44049</v>
       </c>
@@ -4702,7 +4703,7 @@
       <c r="G34" s="445"/>
       <c r="H34" s="446"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="442">
         <v>44049</v>
       </c>
@@ -4722,7 +4723,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="442">
         <v>44049</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="442">
         <v>44050</v>
       </c>
@@ -4782,12 +4783,12 @@
         <v>1018000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="442">
         <v>44051</v>
       </c>
       <c r="B39" s="442" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C39" s="443" t="s">
         <v>133</v>
@@ -4802,12 +4803,12 @@
         <v>6208000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="442">
         <v>44051</v>
       </c>
       <c r="B40" s="442" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C40" s="443" t="s">
         <v>134</v>
@@ -4822,12 +4823,12 @@
         <v>7200001</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="442">
         <v>44051</v>
       </c>
       <c r="B41" s="442" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C41" s="443" t="s">
         <v>134</v>
@@ -4842,12 +4843,12 @@
         <v>7490000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="442">
         <v>44053</v>
       </c>
       <c r="B42" s="442" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C42" s="443" t="s">
         <v>134</v>
@@ -4862,7 +4863,7 @@
       </c>
       <c r="H42" s="446"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="471">
         <v>44053</v>
       </c>
@@ -4882,12 +4883,12 @@
       <c r="G43" s="445"/>
       <c r="H43" s="446"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="442">
         <v>44054</v>
       </c>
       <c r="B44" s="442" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C44" s="443" t="s">
         <v>141</v>
@@ -4902,7 +4903,7 @@
       </c>
       <c r="H44" s="446"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="471">
         <v>44054</v>
       </c>
@@ -4922,12 +4923,12 @@
       <c r="G45" s="445"/>
       <c r="H45" s="446"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="442">
         <v>44054</v>
       </c>
       <c r="B46" s="442" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C46" s="443" t="s">
         <v>134</v>
@@ -4942,7 +4943,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="471">
         <v>44055</v>
       </c>
@@ -4962,7 +4963,7 @@
       <c r="G47" s="445"/>
       <c r="H47" s="446"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="471">
         <v>44055</v>
       </c>
@@ -4982,12 +4983,12 @@
       <c r="G48" s="445"/>
       <c r="H48" s="446"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="442">
         <v>44055</v>
       </c>
       <c r="B49" s="442" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C49" s="443" t="s">
         <v>141</v>
@@ -5002,12 +5003,12 @@
       </c>
       <c r="H49" s="446"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="442">
         <v>44055</v>
       </c>
       <c r="B50" s="442" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C50" s="443" t="s">
         <v>138</v>
@@ -5022,7 +5023,7 @@
       </c>
       <c r="H50" s="446"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="471">
         <v>44055</v>
       </c>
@@ -5042,12 +5043,12 @@
       <c r="G51" s="445"/>
       <c r="H51" s="446"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="442">
         <v>44055</v>
       </c>
       <c r="B52" s="442" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C52" s="443" t="s">
         <v>141</v>
@@ -5062,12 +5063,12 @@
       </c>
       <c r="H52" s="446"/>
     </row>
-    <row r="53" spans="1:8" s="482" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="482" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="478">
         <v>44056</v>
       </c>
       <c r="B53" s="478" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C53" s="479" t="s">
         <v>133</v>
@@ -5082,7 +5083,7 @@
         <v>3292200</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="442">
         <v>44056</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="442">
         <v>44056</v>
       </c>
@@ -5122,7 +5123,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="442">
         <v>44056</v>
       </c>
@@ -5142,7 +5143,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="471">
         <v>44056</v>
       </c>
@@ -5162,7 +5163,7 @@
       <c r="G57" s="445"/>
       <c r="H57" s="446"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="471">
         <v>44056</v>
       </c>
@@ -5182,7 +5183,7 @@
       <c r="G58" s="445"/>
       <c r="H58" s="446"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="442">
         <v>44057</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="442">
         <v>44057</v>
       </c>
@@ -5222,7 +5223,7 @@
       </c>
       <c r="H60" s="446"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="442">
         <v>44057</v>
       </c>
@@ -5243,7 +5244,7 @@
       </c>
       <c r="H61" s="446"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="442">
         <v>44057</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="442">
         <v>44058</v>
       </c>
@@ -5283,7 +5284,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="442">
         <v>44058</v>
       </c>
@@ -5303,7 +5304,7 @@
       </c>
       <c r="H64" s="446"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="442">
         <v>44059</v>
       </c>
@@ -5343,7 +5344,7 @@
       </c>
       <c r="H66" s="446"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="471">
         <v>44060</v>
       </c>
@@ -5363,7 +5364,7 @@
       <c r="G67" s="445"/>
       <c r="H67" s="446"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="471">
         <v>44060</v>
       </c>
@@ -5383,7 +5384,7 @@
       <c r="G68" s="445"/>
       <c r="H68" s="446"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="442">
         <v>44060</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="442">
         <v>44060</v>
       </c>
@@ -5423,7 +5424,7 @@
       </c>
       <c r="H70" s="446"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="442">
         <v>44060</v>
       </c>
@@ -5443,7 +5444,7 @@
       </c>
       <c r="H71" s="446"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="442">
         <v>44060</v>
       </c>
@@ -5463,7 +5464,7 @@
       </c>
       <c r="H72" s="446"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="471">
         <v>44061</v>
       </c>
@@ -5483,7 +5484,7 @@
       <c r="G73" s="445"/>
       <c r="H73" s="446"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="471">
         <v>44061</v>
       </c>
@@ -5503,7 +5504,7 @@
       <c r="G74" s="445"/>
       <c r="H74" s="446"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="442">
         <v>44061</v>
       </c>
@@ -5523,7 +5524,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="442">
         <v>44061</v>
       </c>
@@ -5543,7 +5544,7 @@
       </c>
       <c r="H76" s="446"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="471">
         <v>44061</v>
       </c>
@@ -5563,7 +5564,7 @@
       <c r="G77" s="445"/>
       <c r="H77" s="446"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="442">
         <v>44062</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="442">
         <v>44062</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>3880000</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="442">
         <v>44062</v>
       </c>
@@ -5624,7 +5625,7 @@
         <v>26360000</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="442">
         <v>44062</v>
       </c>
@@ -5644,7 +5645,7 @@
       </c>
       <c r="H81" s="446"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="442">
         <v>44062</v>
       </c>
@@ -5664,7 +5665,7 @@
       </c>
       <c r="H82" s="446"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="442">
         <v>44062</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>980000</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="471">
         <v>44063</v>
       </c>
@@ -5704,7 +5705,7 @@
       <c r="G84" s="445"/>
       <c r="H84" s="446"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="442">
         <v>44063</v>
       </c>
@@ -5744,7 +5745,7 @@
       </c>
       <c r="H86" s="448"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="442">
         <v>44064</v>
       </c>
@@ -5764,7 +5765,7 @@
         <v>849900</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="471">
         <v>44064</v>
       </c>
@@ -5784,7 +5785,7 @@
       <c r="G88" s="445"/>
       <c r="H88" s="448"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="442">
         <v>44064</v>
       </c>
@@ -5805,7 +5806,7 @@
       </c>
       <c r="H89" s="448"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="442">
         <v>44064</v>
       </c>
@@ -5825,7 +5826,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="442">
         <v>44065</v>
       </c>
@@ -5845,7 +5846,7 @@
         <v>1014560</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="442">
         <v>44065</v>
       </c>
@@ -5865,7 +5866,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="442">
         <v>44065</v>
       </c>
@@ -5885,7 +5886,7 @@
       </c>
       <c r="H93" s="448"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="442">
         <v>44066</v>
       </c>
@@ -5905,7 +5906,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="442">
         <v>44066</v>
       </c>
@@ -5925,7 +5926,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="442">
         <v>44067</v>
       </c>
@@ -5945,7 +5946,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="471">
         <v>44068</v>
       </c>
@@ -5965,7 +5966,7 @@
       <c r="G97" s="445"/>
       <c r="H97" s="448"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="442">
         <v>44069</v>
       </c>
@@ -5985,7 +5986,7 @@
         <v>1008000</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="442">
         <v>44070</v>
       </c>
@@ -6006,7 +6007,7 @@
         <v>82500000</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="442">
         <v>44070</v>
       </c>
@@ -6026,7 +6027,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="471">
         <v>44070</v>
       </c>
@@ -6046,7 +6047,7 @@
       <c r="G101" s="445"/>
       <c r="H101" s="448"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="442">
         <v>44071</v>
       </c>
@@ -6066,7 +6067,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="442">
         <v>44071</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="471">
         <v>44071</v>
       </c>
@@ -6126,7 +6127,7 @@
         <v>1736000</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="442">
         <v>44073</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="442">
         <v>44073</v>
       </c>
@@ -6166,7 +6167,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="442">
         <v>44074</v>
       </c>
@@ -6187,7 +6188,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="442">
         <v>44074</v>
       </c>
@@ -6207,7 +6208,7 @@
       </c>
       <c r="H109" s="448"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="442">
         <v>44074</v>
       </c>
@@ -6227,7 +6228,7 @@
         <v>980000</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="451" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" s="451" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="499" t="s">
         <v>10</v>
       </c>
@@ -6350,6 +6351,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:H111">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Tiếp khách, Công tác"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
@@ -6405,13 +6411,13 @@
       <c r="J2" s="176"/>
     </row>
     <row r="3" spans="1:14" s="174" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="584" t="s">
+      <c r="A3" s="572" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="584"/>
-      <c r="C3" s="584"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="584"/>
+      <c r="B3" s="572"/>
+      <c r="C3" s="572"/>
+      <c r="D3" s="572"/>
+      <c r="E3" s="572"/>
       <c r="F3" s="173"/>
       <c r="G3" s="173"/>
       <c r="H3" s="173"/>
@@ -6791,13 +6797,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="537" t="s">
+      <c r="A1" s="539" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="537"/>
-      <c r="C1" s="537"/>
-      <c r="D1" s="537"/>
-      <c r="E1" s="537"/>
+      <c r="B1" s="539"/>
+      <c r="C1" s="539"/>
+      <c r="D1" s="539"/>
+      <c r="E1" s="539"/>
       <c r="N1" s="205"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -6811,163 +6817,163 @@
       <c r="N2" s="209"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="538" t="s">
+      <c r="A3" s="540" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="538"/>
-      <c r="C3" s="538"/>
-      <c r="D3" s="538"/>
-      <c r="E3" s="538"/>
-      <c r="F3" s="538"/>
-      <c r="G3" s="538"/>
-      <c r="H3" s="538"/>
-      <c r="I3" s="538"/>
-      <c r="J3" s="538"/>
-      <c r="K3" s="538"/>
-      <c r="L3" s="538"/>
-      <c r="M3" s="538"/>
-      <c r="N3" s="538"/>
-      <c r="O3" s="538"/>
-      <c r="P3" s="538"/>
+      <c r="B3" s="540"/>
+      <c r="C3" s="540"/>
+      <c r="D3" s="540"/>
+      <c r="E3" s="540"/>
+      <c r="F3" s="540"/>
+      <c r="G3" s="540"/>
+      <c r="H3" s="540"/>
+      <c r="I3" s="540"/>
+      <c r="J3" s="540"/>
+      <c r="K3" s="540"/>
+      <c r="L3" s="540"/>
+      <c r="M3" s="540"/>
+      <c r="N3" s="540"/>
+      <c r="O3" s="540"/>
+      <c r="P3" s="540"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="538" t="s">
+      <c r="A4" s="540" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="538"/>
-      <c r="C4" s="538"/>
-      <c r="D4" s="538"/>
-      <c r="E4" s="538"/>
-      <c r="F4" s="538"/>
-      <c r="G4" s="538"/>
-      <c r="H4" s="538"/>
-      <c r="I4" s="538"/>
-      <c r="J4" s="538"/>
-      <c r="K4" s="538"/>
-      <c r="L4" s="538"/>
-      <c r="M4" s="538"/>
-      <c r="N4" s="538"/>
-      <c r="O4" s="538"/>
-      <c r="P4" s="538"/>
+      <c r="B4" s="540"/>
+      <c r="C4" s="540"/>
+      <c r="D4" s="540"/>
+      <c r="E4" s="540"/>
+      <c r="F4" s="540"/>
+      <c r="G4" s="540"/>
+      <c r="H4" s="540"/>
+      <c r="I4" s="540"/>
+      <c r="J4" s="540"/>
+      <c r="K4" s="540"/>
+      <c r="L4" s="540"/>
+      <c r="M4" s="540"/>
+      <c r="N4" s="540"/>
+      <c r="O4" s="540"/>
+      <c r="P4" s="540"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="538"/>
-      <c r="B5" s="538"/>
-      <c r="C5" s="538"/>
-      <c r="D5" s="538"/>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="538"/>
-      <c r="I5" s="538"/>
-      <c r="J5" s="538"/>
-      <c r="K5" s="539"/>
-      <c r="L5" s="539"/>
+      <c r="A5" s="540"/>
+      <c r="B5" s="540"/>
+      <c r="C5" s="540"/>
+      <c r="D5" s="540"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="540"/>
+      <c r="G5" s="540"/>
+      <c r="H5" s="540"/>
+      <c r="I5" s="540"/>
+      <c r="J5" s="540"/>
+      <c r="K5" s="541"/>
+      <c r="L5" s="541"/>
     </row>
     <row r="6" spans="1:17" s="210" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="540" t="s">
+      <c r="A6" s="542" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="542" t="s">
+      <c r="B6" s="544" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="540" t="s">
+      <c r="C6" s="542" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="546" t="s">
+      <c r="D6" s="548" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="546"/>
-      <c r="F6" s="547" t="s">
+      <c r="E6" s="548"/>
+      <c r="F6" s="549" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="547"/>
-      <c r="H6" s="547"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="547"/>
-      <c r="K6" s="547"/>
-      <c r="L6" s="547"/>
-      <c r="M6" s="548"/>
-      <c r="N6" s="548"/>
-      <c r="O6" s="548"/>
-      <c r="P6" s="549" t="s">
+      <c r="G6" s="549"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="549"/>
+      <c r="J6" s="549"/>
+      <c r="K6" s="549"/>
+      <c r="L6" s="549"/>
+      <c r="M6" s="550"/>
+      <c r="N6" s="550"/>
+      <c r="O6" s="550"/>
+      <c r="P6" s="551" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="210" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="541"/>
-      <c r="B7" s="543"/>
-      <c r="C7" s="541"/>
-      <c r="D7" s="540" t="s">
+      <c r="A7" s="543"/>
+      <c r="B7" s="545"/>
+      <c r="C7" s="543"/>
+      <c r="D7" s="542" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="540" t="s">
+      <c r="E7" s="542" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="540" t="s">
+      <c r="F7" s="542" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="540" t="s">
+      <c r="G7" s="542" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="544" t="s">
+      <c r="H7" s="546" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="544" t="s">
+      <c r="I7" s="546" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="551" t="s">
+      <c r="J7" s="553" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="551"/>
-      <c r="L7" s="544" t="s">
+      <c r="K7" s="553"/>
+      <c r="L7" s="546" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="544" t="s">
+      <c r="M7" s="546" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="544" t="s">
+      <c r="N7" s="546" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="544" t="s">
+      <c r="O7" s="546" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="550"/>
+      <c r="P7" s="552"/>
     </row>
     <row r="8" spans="1:17" s="210" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="541"/>
-      <c r="B8" s="543"/>
-      <c r="C8" s="541"/>
-      <c r="D8" s="541"/>
-      <c r="E8" s="541"/>
-      <c r="F8" s="541"/>
-      <c r="G8" s="541"/>
-      <c r="H8" s="545"/>
-      <c r="I8" s="545"/>
+      <c r="A8" s="543"/>
+      <c r="B8" s="545"/>
+      <c r="C8" s="543"/>
+      <c r="D8" s="543"/>
+      <c r="E8" s="543"/>
+      <c r="F8" s="543"/>
+      <c r="G8" s="543"/>
+      <c r="H8" s="547"/>
+      <c r="I8" s="547"/>
       <c r="J8" s="350" t="s">
         <v>83</v>
       </c>
       <c r="K8" s="211" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="545"/>
-      <c r="M8" s="545"/>
-      <c r="N8" s="545"/>
-      <c r="O8" s="545"/>
-      <c r="P8" s="550"/>
+      <c r="L8" s="547"/>
+      <c r="M8" s="547"/>
+      <c r="N8" s="547"/>
+      <c r="O8" s="547"/>
+      <c r="P8" s="552"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="510">
+      <c r="A9" s="516">
         <v>630</v>
       </c>
-      <c r="B9" s="518">
+      <c r="B9" s="525">
         <v>44044</v>
       </c>
-      <c r="C9" s="510" t="s">
+      <c r="C9" s="516" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="510"/>
-      <c r="E9" s="510"/>
+      <c r="D9" s="516"/>
+      <c r="E9" s="516"/>
       <c r="F9" s="351" t="s">
         <v>172</v>
       </c>
@@ -6998,11 +7004,11 @@
       <c r="P9" s="351"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="514"/>
-      <c r="B10" s="522"/>
-      <c r="C10" s="514"/>
-      <c r="D10" s="514"/>
-      <c r="E10" s="514"/>
+      <c r="A10" s="517"/>
+      <c r="B10" s="526"/>
+      <c r="C10" s="517"/>
+      <c r="D10" s="517"/>
+      <c r="E10" s="517"/>
       <c r="F10" s="356" t="s">
         <v>173</v>
       </c>
@@ -7033,11 +7039,11 @@
       <c r="P10" s="343"/>
     </row>
     <row r="11" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="514"/>
-      <c r="B11" s="522"/>
-      <c r="C11" s="514"/>
-      <c r="D11" s="514"/>
-      <c r="E11" s="514"/>
+      <c r="A11" s="517"/>
+      <c r="B11" s="526"/>
+      <c r="C11" s="517"/>
+      <c r="D11" s="517"/>
+      <c r="E11" s="517"/>
       <c r="F11" s="356" t="s">
         <v>170</v>
       </c>
@@ -7069,11 +7075,11 @@
       <c r="Q11" s="366"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="511"/>
-      <c r="B12" s="519"/>
-      <c r="C12" s="511"/>
-      <c r="D12" s="511"/>
-      <c r="E12" s="511"/>
+      <c r="A12" s="518"/>
+      <c r="B12" s="527"/>
+      <c r="C12" s="518"/>
+      <c r="D12" s="518"/>
+      <c r="E12" s="518"/>
       <c r="F12" s="352" t="s">
         <v>174</v>
       </c>
@@ -7104,19 +7110,19 @@
       <c r="P12" s="345"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="516">
+      <c r="A13" s="510">
         <v>628</v>
       </c>
-      <c r="B13" s="530">
+      <c r="B13" s="512">
         <v>44045</v>
       </c>
-      <c r="C13" s="516" t="s">
+      <c r="C13" s="510" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="516" t="s">
+      <c r="D13" s="510" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="516" t="s">
+      <c r="E13" s="510" t="s">
         <v>169</v>
       </c>
       <c r="F13" s="344" t="s">
@@ -7149,11 +7155,11 @@
       <c r="P13" s="344"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="517"/>
-      <c r="B14" s="536"/>
-      <c r="C14" s="517"/>
-      <c r="D14" s="517"/>
-      <c r="E14" s="517"/>
+      <c r="A14" s="528"/>
+      <c r="B14" s="529"/>
+      <c r="C14" s="528"/>
+      <c r="D14" s="528"/>
+      <c r="E14" s="528"/>
       <c r="F14" s="371" t="s">
         <v>184</v>
       </c>
@@ -7270,17 +7276,17 @@
       <c r="P16" s="378"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="510">
+      <c r="A17" s="516">
         <v>635</v>
       </c>
-      <c r="B17" s="518">
+      <c r="B17" s="525">
         <v>44047</v>
       </c>
-      <c r="C17" s="510"/>
-      <c r="D17" s="532" t="s">
+      <c r="C17" s="516"/>
+      <c r="D17" s="522" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="532" t="s">
+      <c r="E17" s="522" t="s">
         <v>180</v>
       </c>
       <c r="F17" s="351" t="s">
@@ -7313,11 +7319,11 @@
       <c r="P17" s="382"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="511"/>
-      <c r="B18" s="519"/>
-      <c r="C18" s="511"/>
-      <c r="D18" s="534"/>
-      <c r="E18" s="534"/>
+      <c r="A18" s="518"/>
+      <c r="B18" s="527"/>
+      <c r="C18" s="518"/>
+      <c r="D18" s="524"/>
+      <c r="E18" s="524"/>
       <c r="F18" s="352" t="s">
         <v>173</v>
       </c>
@@ -7348,19 +7354,19 @@
       <c r="P18" s="384"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="510">
+      <c r="A19" s="516">
         <v>637</v>
       </c>
-      <c r="B19" s="518">
+      <c r="B19" s="525">
         <v>44048</v>
       </c>
-      <c r="C19" s="510" t="s">
+      <c r="C19" s="516" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="532" t="s">
+      <c r="D19" s="522" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="532"/>
+      <c r="E19" s="522"/>
       <c r="F19" s="351" t="s">
         <v>172</v>
       </c>
@@ -7391,11 +7397,11 @@
       <c r="P19" s="382"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="514"/>
-      <c r="B20" s="522"/>
-      <c r="C20" s="514"/>
-      <c r="D20" s="533"/>
-      <c r="E20" s="533"/>
+      <c r="A20" s="517"/>
+      <c r="B20" s="526"/>
+      <c r="C20" s="517"/>
+      <c r="D20" s="523"/>
+      <c r="E20" s="523"/>
       <c r="F20" s="356" t="s">
         <v>173</v>
       </c>
@@ -7426,11 +7432,11 @@
       <c r="P20" s="386"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="514"/>
-      <c r="B21" s="522"/>
-      <c r="C21" s="514"/>
-      <c r="D21" s="533"/>
-      <c r="E21" s="533"/>
+      <c r="A21" s="517"/>
+      <c r="B21" s="526"/>
+      <c r="C21" s="517"/>
+      <c r="D21" s="523"/>
+      <c r="E21" s="523"/>
       <c r="F21" s="356" t="s">
         <v>183</v>
       </c>
@@ -7461,11 +7467,11 @@
       <c r="P21" s="386"/>
     </row>
     <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="514"/>
-      <c r="B22" s="522"/>
-      <c r="C22" s="514"/>
-      <c r="D22" s="533"/>
-      <c r="E22" s="533"/>
+      <c r="A22" s="517"/>
+      <c r="B22" s="526"/>
+      <c r="C22" s="517"/>
+      <c r="D22" s="523"/>
+      <c r="E22" s="523"/>
       <c r="F22" s="356" t="s">
         <v>170</v>
       </c>
@@ -7496,11 +7502,11 @@
       <c r="P22" s="386"/>
     </row>
     <row r="23" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="514"/>
-      <c r="B23" s="522"/>
-      <c r="C23" s="514"/>
-      <c r="D23" s="533"/>
-      <c r="E23" s="533"/>
+      <c r="A23" s="517"/>
+      <c r="B23" s="526"/>
+      <c r="C23" s="517"/>
+      <c r="D23" s="523"/>
+      <c r="E23" s="523"/>
       <c r="F23" s="356" t="s">
         <v>174</v>
       </c>
@@ -7532,11 +7538,11 @@
       <c r="R23" s="366"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="514"/>
-      <c r="B24" s="522"/>
-      <c r="C24" s="514"/>
-      <c r="D24" s="533"/>
-      <c r="E24" s="533"/>
+      <c r="A24" s="517"/>
+      <c r="B24" s="526"/>
+      <c r="C24" s="517"/>
+      <c r="D24" s="523"/>
+      <c r="E24" s="523"/>
       <c r="F24" s="356" t="s">
         <v>176</v>
       </c>
@@ -7567,11 +7573,11 @@
       <c r="P24" s="356"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="514"/>
-      <c r="B25" s="522"/>
-      <c r="C25" s="514"/>
-      <c r="D25" s="533"/>
-      <c r="E25" s="533"/>
+      <c r="A25" s="517"/>
+      <c r="B25" s="526"/>
+      <c r="C25" s="517"/>
+      <c r="D25" s="523"/>
+      <c r="E25" s="523"/>
       <c r="F25" s="356" t="s">
         <v>184</v>
       </c>
@@ -7602,11 +7608,11 @@
       <c r="P25" s="356"/>
     </row>
     <row r="26" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="511"/>
-      <c r="B26" s="519"/>
-      <c r="C26" s="511"/>
-      <c r="D26" s="534"/>
-      <c r="E26" s="534"/>
+      <c r="A26" s="518"/>
+      <c r="B26" s="527"/>
+      <c r="C26" s="518"/>
+      <c r="D26" s="524"/>
+      <c r="E26" s="524"/>
       <c r="F26" s="352" t="s">
         <v>185</v>
       </c>
@@ -7637,19 +7643,19 @@
       <c r="P26" s="352"/>
     </row>
     <row r="27" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="510">
+      <c r="A27" s="516">
         <v>638</v>
       </c>
-      <c r="B27" s="518">
+      <c r="B27" s="525">
         <v>44048</v>
       </c>
-      <c r="C27" s="510" t="s">
+      <c r="C27" s="516" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="510" t="s">
+      <c r="D27" s="516" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="510" t="s">
+      <c r="E27" s="516" t="s">
         <v>188</v>
       </c>
       <c r="F27" s="351" t="s">
@@ -7682,11 +7688,11 @@
       <c r="P27" s="351"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="514"/>
-      <c r="B28" s="522"/>
-      <c r="C28" s="514"/>
-      <c r="D28" s="514"/>
-      <c r="E28" s="514"/>
+      <c r="A28" s="517"/>
+      <c r="B28" s="526"/>
+      <c r="C28" s="517"/>
+      <c r="D28" s="517"/>
+      <c r="E28" s="517"/>
       <c r="F28" s="356" t="s">
         <v>172</v>
       </c>
@@ -7717,11 +7723,11 @@
       <c r="P28" s="356"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="514"/>
-      <c r="B29" s="522"/>
-      <c r="C29" s="514"/>
-      <c r="D29" s="514"/>
-      <c r="E29" s="514"/>
+      <c r="A29" s="517"/>
+      <c r="B29" s="526"/>
+      <c r="C29" s="517"/>
+      <c r="D29" s="517"/>
+      <c r="E29" s="517"/>
       <c r="F29" s="356" t="s">
         <v>173</v>
       </c>
@@ -7752,11 +7758,11 @@
       <c r="P29" s="386"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="514"/>
-      <c r="B30" s="522"/>
-      <c r="C30" s="514"/>
-      <c r="D30" s="514"/>
-      <c r="E30" s="514"/>
+      <c r="A30" s="517"/>
+      <c r="B30" s="526"/>
+      <c r="C30" s="517"/>
+      <c r="D30" s="517"/>
+      <c r="E30" s="517"/>
       <c r="F30" s="356" t="s">
         <v>183</v>
       </c>
@@ -7787,11 +7793,11 @@
       <c r="P30" s="356"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="514"/>
-      <c r="B31" s="522"/>
-      <c r="C31" s="514"/>
-      <c r="D31" s="514"/>
-      <c r="E31" s="514"/>
+      <c r="A31" s="517"/>
+      <c r="B31" s="526"/>
+      <c r="C31" s="517"/>
+      <c r="D31" s="517"/>
+      <c r="E31" s="517"/>
       <c r="F31" s="356" t="s">
         <v>170</v>
       </c>
@@ -7822,11 +7828,11 @@
       <c r="P31" s="356"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="514"/>
-      <c r="B32" s="522"/>
-      <c r="C32" s="514"/>
-      <c r="D32" s="514"/>
-      <c r="E32" s="514"/>
+      <c r="A32" s="517"/>
+      <c r="B32" s="526"/>
+      <c r="C32" s="517"/>
+      <c r="D32" s="517"/>
+      <c r="E32" s="517"/>
       <c r="F32" s="356" t="s">
         <v>174</v>
       </c>
@@ -7857,11 +7863,11 @@
       <c r="P32" s="356"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="511"/>
-      <c r="B33" s="519"/>
-      <c r="C33" s="511"/>
-      <c r="D33" s="511"/>
-      <c r="E33" s="511"/>
+      <c r="A33" s="518"/>
+      <c r="B33" s="527"/>
+      <c r="C33" s="518"/>
+      <c r="D33" s="518"/>
+      <c r="E33" s="518"/>
       <c r="F33" s="352" t="s">
         <v>185</v>
       </c>
@@ -7892,17 +7898,17 @@
       <c r="P33" s="393"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="510">
+      <c r="A34" s="516">
         <v>653</v>
       </c>
-      <c r="B34" s="518">
+      <c r="B34" s="525">
         <v>44051</v>
       </c>
-      <c r="C34" s="510"/>
-      <c r="D34" s="510" t="s">
+      <c r="C34" s="516"/>
+      <c r="D34" s="516" t="s">
         <v>272</v>
       </c>
-      <c r="E34" s="510" t="s">
+      <c r="E34" s="516" t="s">
         <v>273</v>
       </c>
       <c r="F34" s="351" t="s">
@@ -7935,11 +7941,11 @@
       <c r="P34" s="394"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="511"/>
-      <c r="B35" s="519"/>
-      <c r="C35" s="511"/>
-      <c r="D35" s="511"/>
-      <c r="E35" s="511"/>
+      <c r="A35" s="518"/>
+      <c r="B35" s="527"/>
+      <c r="C35" s="518"/>
+      <c r="D35" s="518"/>
+      <c r="E35" s="518"/>
       <c r="F35" s="352" t="s">
         <v>185</v>
       </c>
@@ -7970,17 +7976,17 @@
       <c r="P35" s="393"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="516">
+      <c r="A36" s="510">
         <v>646</v>
       </c>
-      <c r="B36" s="530">
+      <c r="B36" s="512">
         <v>44053</v>
       </c>
-      <c r="C36" s="516" t="s">
+      <c r="C36" s="510" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="528"/>
-      <c r="E36" s="516"/>
+      <c r="D36" s="514"/>
+      <c r="E36" s="510"/>
       <c r="F36" s="202" t="s">
         <v>172</v>
       </c>
@@ -8012,11 +8018,11 @@
       <c r="Q36" s="366"/>
     </row>
     <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="526"/>
-      <c r="B37" s="531"/>
-      <c r="C37" s="526"/>
-      <c r="D37" s="529"/>
-      <c r="E37" s="526"/>
+      <c r="A37" s="511"/>
+      <c r="B37" s="513"/>
+      <c r="C37" s="511"/>
+      <c r="D37" s="515"/>
+      <c r="E37" s="511"/>
       <c r="F37" s="354" t="s">
         <v>173</v>
       </c>
@@ -8048,19 +8054,19 @@
       <c r="Q37" s="366"/>
     </row>
     <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="510">
+      <c r="A38" s="516">
         <v>657</v>
       </c>
-      <c r="B38" s="518">
+      <c r="B38" s="525">
         <v>44053</v>
       </c>
-      <c r="C38" s="518" t="s">
+      <c r="C38" s="525" t="s">
         <v>269</v>
       </c>
-      <c r="D38" s="523" t="s">
+      <c r="D38" s="555" t="s">
         <v>270</v>
       </c>
-      <c r="E38" s="518"/>
+      <c r="E38" s="525"/>
       <c r="F38" s="351" t="s">
         <v>172</v>
       </c>
@@ -8089,11 +8095,11 @@
       <c r="Q38" s="366"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="514"/>
-      <c r="B39" s="522"/>
-      <c r="C39" s="522"/>
-      <c r="D39" s="524"/>
-      <c r="E39" s="522"/>
+      <c r="A39" s="517"/>
+      <c r="B39" s="526"/>
+      <c r="C39" s="526"/>
+      <c r="D39" s="556"/>
+      <c r="E39" s="526"/>
       <c r="F39" s="356" t="s">
         <v>173</v>
       </c>
@@ -8122,11 +8128,11 @@
       <c r="Q39" s="366"/>
     </row>
     <row r="40" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="514"/>
-      <c r="B40" s="522"/>
-      <c r="C40" s="522"/>
-      <c r="D40" s="524"/>
-      <c r="E40" s="522"/>
+      <c r="A40" s="517"/>
+      <c r="B40" s="526"/>
+      <c r="C40" s="526"/>
+      <c r="D40" s="556"/>
+      <c r="E40" s="526"/>
       <c r="F40" s="356" t="s">
         <v>183</v>
       </c>
@@ -8155,11 +8161,11 @@
       <c r="Q40" s="366"/>
     </row>
     <row r="41" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="514"/>
-      <c r="B41" s="522"/>
-      <c r="C41" s="522"/>
-      <c r="D41" s="524"/>
-      <c r="E41" s="522"/>
+      <c r="A41" s="517"/>
+      <c r="B41" s="526"/>
+      <c r="C41" s="526"/>
+      <c r="D41" s="556"/>
+      <c r="E41" s="526"/>
       <c r="F41" s="356" t="s">
         <v>170</v>
       </c>
@@ -8188,11 +8194,11 @@
       <c r="Q41" s="366"/>
     </row>
     <row r="42" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="514"/>
-      <c r="B42" s="522"/>
-      <c r="C42" s="522"/>
-      <c r="D42" s="524"/>
-      <c r="E42" s="522"/>
+      <c r="A42" s="517"/>
+      <c r="B42" s="526"/>
+      <c r="C42" s="526"/>
+      <c r="D42" s="556"/>
+      <c r="E42" s="526"/>
       <c r="F42" s="356" t="s">
         <v>174</v>
       </c>
@@ -8221,11 +8227,11 @@
       <c r="Q42" s="366"/>
     </row>
     <row r="43" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="514"/>
-      <c r="B43" s="522"/>
-      <c r="C43" s="522"/>
-      <c r="D43" s="524"/>
-      <c r="E43" s="522"/>
+      <c r="A43" s="517"/>
+      <c r="B43" s="526"/>
+      <c r="C43" s="526"/>
+      <c r="D43" s="556"/>
+      <c r="E43" s="526"/>
       <c r="F43" s="356" t="s">
         <v>176</v>
       </c>
@@ -8254,11 +8260,11 @@
       <c r="Q43" s="366"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="514"/>
-      <c r="B44" s="522"/>
-      <c r="C44" s="522"/>
-      <c r="D44" s="524"/>
-      <c r="E44" s="522"/>
+      <c r="A44" s="517"/>
+      <c r="B44" s="526"/>
+      <c r="C44" s="526"/>
+      <c r="D44" s="556"/>
+      <c r="E44" s="526"/>
       <c r="F44" s="356" t="s">
         <v>184</v>
       </c>
@@ -8287,11 +8293,11 @@
       <c r="Q44" s="366"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="511"/>
-      <c r="B45" s="519"/>
-      <c r="C45" s="519"/>
-      <c r="D45" s="525"/>
-      <c r="E45" s="519"/>
+      <c r="A45" s="518"/>
+      <c r="B45" s="527"/>
+      <c r="C45" s="527"/>
+      <c r="D45" s="557"/>
+      <c r="E45" s="527"/>
       <c r="F45" s="352" t="s">
         <v>185</v>
       </c>
@@ -8362,19 +8368,19 @@
       <c r="Q46" s="366"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="526">
+      <c r="A47" s="511">
         <v>639</v>
       </c>
-      <c r="B47" s="531">
+      <c r="B47" s="513">
         <v>44055</v>
       </c>
-      <c r="C47" s="526" t="s">
+      <c r="C47" s="511" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="529" t="s">
+      <c r="D47" s="515" t="s">
         <v>190</v>
       </c>
-      <c r="E47" s="526"/>
+      <c r="E47" s="511"/>
       <c r="F47" s="355" t="s">
         <v>170</v>
       </c>
@@ -8405,11 +8411,11 @@
       <c r="P47" s="399"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="517"/>
-      <c r="B48" s="536"/>
-      <c r="C48" s="517"/>
-      <c r="D48" s="535"/>
-      <c r="E48" s="517"/>
+      <c r="A48" s="528"/>
+      <c r="B48" s="529"/>
+      <c r="C48" s="528"/>
+      <c r="D48" s="554"/>
+      <c r="E48" s="528"/>
       <c r="F48" s="352" t="s">
         <v>185</v>
       </c>
@@ -8440,19 +8446,19 @@
       <c r="P48" s="393"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="516">
+      <c r="A49" s="510">
         <v>640</v>
       </c>
-      <c r="B49" s="530">
+      <c r="B49" s="512">
         <v>44055</v>
       </c>
-      <c r="C49" s="516" t="s">
+      <c r="C49" s="510" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="528" t="s">
+      <c r="D49" s="514" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="516" t="s">
+      <c r="E49" s="510" t="s">
         <v>192</v>
       </c>
       <c r="F49" s="351" t="s">
@@ -8485,11 +8491,11 @@
       <c r="P49" s="351"/>
     </row>
     <row r="50" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="526"/>
-      <c r="B50" s="531"/>
-      <c r="C50" s="526"/>
-      <c r="D50" s="529"/>
-      <c r="E50" s="526"/>
+      <c r="A50" s="511"/>
+      <c r="B50" s="513"/>
+      <c r="C50" s="511"/>
+      <c r="D50" s="515"/>
+      <c r="E50" s="511"/>
       <c r="F50" s="354" t="s">
         <v>185</v>
       </c>
@@ -8520,19 +8526,19 @@
       <c r="P50" s="354"/>
     </row>
     <row r="51" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="510">
+      <c r="A51" s="516">
         <v>641</v>
       </c>
-      <c r="B51" s="518">
+      <c r="B51" s="525">
         <v>44055</v>
       </c>
-      <c r="C51" s="510" t="s">
+      <c r="C51" s="516" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="532" t="s">
+      <c r="D51" s="522" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="510" t="s">
+      <c r="E51" s="516" t="s">
         <v>193</v>
       </c>
       <c r="F51" s="351" t="s">
@@ -8565,11 +8571,11 @@
       <c r="P51" s="351"/>
     </row>
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="514"/>
-      <c r="B52" s="522"/>
-      <c r="C52" s="514"/>
-      <c r="D52" s="533"/>
-      <c r="E52" s="514"/>
+      <c r="A52" s="517"/>
+      <c r="B52" s="526"/>
+      <c r="C52" s="517"/>
+      <c r="D52" s="523"/>
+      <c r="E52" s="517"/>
       <c r="F52" s="356" t="s">
         <v>172</v>
       </c>
@@ -8600,11 +8606,11 @@
       <c r="P52" s="356"/>
     </row>
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="514"/>
-      <c r="B53" s="522"/>
-      <c r="C53" s="514"/>
-      <c r="D53" s="533"/>
-      <c r="E53" s="514"/>
+      <c r="A53" s="517"/>
+      <c r="B53" s="526"/>
+      <c r="C53" s="517"/>
+      <c r="D53" s="523"/>
+      <c r="E53" s="517"/>
       <c r="F53" s="356" t="s">
         <v>173</v>
       </c>
@@ -8635,11 +8641,11 @@
       <c r="P53" s="356"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="514"/>
-      <c r="B54" s="522"/>
-      <c r="C54" s="514"/>
-      <c r="D54" s="533"/>
-      <c r="E54" s="514"/>
+      <c r="A54" s="517"/>
+      <c r="B54" s="526"/>
+      <c r="C54" s="517"/>
+      <c r="D54" s="523"/>
+      <c r="E54" s="517"/>
       <c r="F54" s="356" t="s">
         <v>183</v>
       </c>
@@ -8670,11 +8676,11 @@
       <c r="P54" s="356"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="514"/>
-      <c r="B55" s="522"/>
-      <c r="C55" s="514"/>
-      <c r="D55" s="533"/>
-      <c r="E55" s="514"/>
+      <c r="A55" s="517"/>
+      <c r="B55" s="526"/>
+      <c r="C55" s="517"/>
+      <c r="D55" s="523"/>
+      <c r="E55" s="517"/>
       <c r="F55" s="356" t="s">
         <v>170</v>
       </c>
@@ -8705,11 +8711,11 @@
       <c r="P55" s="356"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="514"/>
-      <c r="B56" s="522"/>
-      <c r="C56" s="514"/>
-      <c r="D56" s="533"/>
-      <c r="E56" s="514"/>
+      <c r="A56" s="517"/>
+      <c r="B56" s="526"/>
+      <c r="C56" s="517"/>
+      <c r="D56" s="523"/>
+      <c r="E56" s="517"/>
       <c r="F56" s="356" t="s">
         <v>174</v>
       </c>
@@ -8740,11 +8746,11 @@
       <c r="P56" s="356"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="514"/>
-      <c r="B57" s="522"/>
-      <c r="C57" s="514"/>
-      <c r="D57" s="533"/>
-      <c r="E57" s="514"/>
+      <c r="A57" s="517"/>
+      <c r="B57" s="526"/>
+      <c r="C57" s="517"/>
+      <c r="D57" s="523"/>
+      <c r="E57" s="517"/>
       <c r="F57" s="356" t="s">
         <v>176</v>
       </c>
@@ -8775,11 +8781,11 @@
       <c r="P57" s="356"/>
     </row>
     <row r="58" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="514"/>
-      <c r="B58" s="522"/>
-      <c r="C58" s="514"/>
-      <c r="D58" s="533"/>
-      <c r="E58" s="514"/>
+      <c r="A58" s="517"/>
+      <c r="B58" s="526"/>
+      <c r="C58" s="517"/>
+      <c r="D58" s="523"/>
+      <c r="E58" s="517"/>
       <c r="F58" s="356" t="s">
         <v>184</v>
       </c>
@@ -8810,11 +8816,11 @@
       <c r="P58" s="356"/>
     </row>
     <row r="59" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="511"/>
-      <c r="B59" s="519"/>
-      <c r="C59" s="511"/>
-      <c r="D59" s="534"/>
-      <c r="E59" s="511"/>
+      <c r="A59" s="518"/>
+      <c r="B59" s="527"/>
+      <c r="C59" s="518"/>
+      <c r="D59" s="524"/>
+      <c r="E59" s="518"/>
       <c r="F59" s="352" t="s">
         <v>185</v>
       </c>
@@ -8890,19 +8896,19 @@
       <c r="P60" s="353"/>
     </row>
     <row r="61" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="510">
+      <c r="A61" s="516">
         <v>645</v>
       </c>
-      <c r="B61" s="518">
+      <c r="B61" s="525">
         <v>44056</v>
       </c>
-      <c r="C61" s="510" t="s">
+      <c r="C61" s="516" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="532" t="s">
+      <c r="D61" s="522" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="510" t="s">
+      <c r="E61" s="516" t="s">
         <v>193</v>
       </c>
       <c r="F61" s="351" t="s">
@@ -8936,11 +8942,11 @@
       <c r="Q61" s="366"/>
     </row>
     <row r="62" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="514"/>
-      <c r="B62" s="522"/>
-      <c r="C62" s="514"/>
-      <c r="D62" s="533"/>
-      <c r="E62" s="514"/>
+      <c r="A62" s="517"/>
+      <c r="B62" s="526"/>
+      <c r="C62" s="517"/>
+      <c r="D62" s="523"/>
+      <c r="E62" s="517"/>
       <c r="F62" s="356" t="s">
         <v>173</v>
       </c>
@@ -8972,11 +8978,11 @@
       <c r="Q62" s="366"/>
     </row>
     <row r="63" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="514"/>
-      <c r="B63" s="522"/>
-      <c r="C63" s="514"/>
-      <c r="D63" s="533"/>
-      <c r="E63" s="514"/>
+      <c r="A63" s="517"/>
+      <c r="B63" s="526"/>
+      <c r="C63" s="517"/>
+      <c r="D63" s="523"/>
+      <c r="E63" s="517"/>
       <c r="F63" s="356" t="s">
         <v>183</v>
       </c>
@@ -9008,11 +9014,11 @@
       <c r="Q63" s="366"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="514"/>
-      <c r="B64" s="522"/>
-      <c r="C64" s="514"/>
-      <c r="D64" s="533"/>
-      <c r="E64" s="514"/>
+      <c r="A64" s="517"/>
+      <c r="B64" s="526"/>
+      <c r="C64" s="517"/>
+      <c r="D64" s="523"/>
+      <c r="E64" s="517"/>
       <c r="F64" s="356" t="s">
         <v>174</v>
       </c>
@@ -9044,11 +9050,11 @@
       <c r="Q64" s="366"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="514"/>
-      <c r="B65" s="522"/>
-      <c r="C65" s="514"/>
-      <c r="D65" s="533"/>
-      <c r="E65" s="514"/>
+      <c r="A65" s="517"/>
+      <c r="B65" s="526"/>
+      <c r="C65" s="517"/>
+      <c r="D65" s="523"/>
+      <c r="E65" s="517"/>
       <c r="F65" s="356" t="s">
         <v>176</v>
       </c>
@@ -9080,11 +9086,11 @@
       <c r="Q65" s="366"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="514"/>
-      <c r="B66" s="522"/>
-      <c r="C66" s="514"/>
-      <c r="D66" s="533"/>
-      <c r="E66" s="514"/>
+      <c r="A66" s="517"/>
+      <c r="B66" s="526"/>
+      <c r="C66" s="517"/>
+      <c r="D66" s="523"/>
+      <c r="E66" s="517"/>
       <c r="F66" s="356" t="s">
         <v>184</v>
       </c>
@@ -9116,11 +9122,11 @@
       <c r="Q66" s="366"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="511"/>
-      <c r="B67" s="519"/>
-      <c r="C67" s="511"/>
-      <c r="D67" s="534"/>
-      <c r="E67" s="511"/>
+      <c r="A67" s="518"/>
+      <c r="B67" s="527"/>
+      <c r="C67" s="518"/>
+      <c r="D67" s="524"/>
+      <c r="E67" s="518"/>
       <c r="F67" s="352" t="s">
         <v>185</v>
       </c>
@@ -9152,19 +9158,19 @@
       <c r="Q67" s="366"/>
     </row>
     <row r="68" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="510">
+      <c r="A68" s="516">
         <v>647</v>
       </c>
-      <c r="B68" s="518">
+      <c r="B68" s="525">
         <v>44056</v>
       </c>
-      <c r="C68" s="510" t="s">
+      <c r="C68" s="516" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="532" t="s">
+      <c r="D68" s="522" t="s">
         <v>197</v>
       </c>
-      <c r="E68" s="510" t="s">
+      <c r="E68" s="516" t="s">
         <v>198</v>
       </c>
       <c r="F68" s="351" t="s">
@@ -9194,17 +9200,17 @@
       </c>
       <c r="N68" s="362"/>
       <c r="O68" s="362"/>
-      <c r="P68" s="532" t="s">
+      <c r="P68" s="522" t="s">
         <v>199</v>
       </c>
       <c r="Q68" s="366"/>
     </row>
     <row r="69" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="511"/>
-      <c r="B69" s="519"/>
-      <c r="C69" s="511"/>
-      <c r="D69" s="534"/>
-      <c r="E69" s="511"/>
+      <c r="A69" s="518"/>
+      <c r="B69" s="527"/>
+      <c r="C69" s="518"/>
+      <c r="D69" s="524"/>
+      <c r="E69" s="518"/>
       <c r="F69" s="352" t="s">
         <v>173</v>
       </c>
@@ -9232,7 +9238,7 @@
       </c>
       <c r="N69" s="367"/>
       <c r="O69" s="367"/>
-      <c r="P69" s="534"/>
+      <c r="P69" s="524"/>
       <c r="Q69" s="366"/>
     </row>
     <row r="70" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -9277,19 +9283,19 @@
       <c r="Q70" s="366"/>
     </row>
     <row r="71" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="510">
+      <c r="A71" s="516">
         <v>650</v>
       </c>
-      <c r="B71" s="518">
+      <c r="B71" s="525">
         <v>44057</v>
       </c>
-      <c r="C71" s="510" t="s">
+      <c r="C71" s="516" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="532" t="s">
+      <c r="D71" s="522" t="s">
         <v>194</v>
       </c>
-      <c r="E71" s="510" t="s">
+      <c r="E71" s="516" t="s">
         <v>193</v>
       </c>
       <c r="F71" s="351" t="s">
@@ -9323,11 +9329,11 @@
       <c r="Q71" s="366"/>
     </row>
     <row r="72" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="514"/>
-      <c r="B72" s="522"/>
-      <c r="C72" s="514"/>
-      <c r="D72" s="533"/>
-      <c r="E72" s="514"/>
+      <c r="A72" s="517"/>
+      <c r="B72" s="526"/>
+      <c r="C72" s="517"/>
+      <c r="D72" s="523"/>
+      <c r="E72" s="517"/>
       <c r="F72" s="356" t="s">
         <v>173</v>
       </c>
@@ -9359,11 +9365,11 @@
       <c r="Q72" s="366"/>
     </row>
     <row r="73" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="514"/>
-      <c r="B73" s="522"/>
-      <c r="C73" s="514"/>
-      <c r="D73" s="533"/>
-      <c r="E73" s="514"/>
+      <c r="A73" s="517"/>
+      <c r="B73" s="526"/>
+      <c r="C73" s="517"/>
+      <c r="D73" s="523"/>
+      <c r="E73" s="517"/>
       <c r="F73" s="356" t="s">
         <v>183</v>
       </c>
@@ -9395,11 +9401,11 @@
       <c r="Q73" s="366"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="514"/>
-      <c r="B74" s="522"/>
-      <c r="C74" s="514"/>
-      <c r="D74" s="533"/>
-      <c r="E74" s="514"/>
+      <c r="A74" s="517"/>
+      <c r="B74" s="526"/>
+      <c r="C74" s="517"/>
+      <c r="D74" s="523"/>
+      <c r="E74" s="517"/>
       <c r="F74" s="356" t="s">
         <v>170</v>
       </c>
@@ -9431,11 +9437,11 @@
       <c r="Q74" s="366"/>
     </row>
     <row r="75" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="514"/>
-      <c r="B75" s="522"/>
-      <c r="C75" s="514"/>
-      <c r="D75" s="533"/>
-      <c r="E75" s="514"/>
+      <c r="A75" s="517"/>
+      <c r="B75" s="526"/>
+      <c r="C75" s="517"/>
+      <c r="D75" s="523"/>
+      <c r="E75" s="517"/>
       <c r="F75" s="356" t="s">
         <v>184</v>
       </c>
@@ -9467,11 +9473,11 @@
       <c r="Q75" s="366"/>
     </row>
     <row r="76" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="511"/>
-      <c r="B76" s="519"/>
-      <c r="C76" s="511"/>
-      <c r="D76" s="534"/>
-      <c r="E76" s="511"/>
+      <c r="A76" s="518"/>
+      <c r="B76" s="527"/>
+      <c r="C76" s="518"/>
+      <c r="D76" s="524"/>
+      <c r="E76" s="518"/>
       <c r="F76" s="352" t="s">
         <v>185</v>
       </c>
@@ -9503,17 +9509,17 @@
       <c r="Q76" s="366"/>
     </row>
     <row r="77" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="510">
+      <c r="A77" s="516">
         <v>751</v>
       </c>
-      <c r="B77" s="518">
+      <c r="B77" s="525">
         <v>44060</v>
       </c>
-      <c r="C77" s="510"/>
-      <c r="D77" s="532" t="s">
+      <c r="C77" s="516"/>
+      <c r="D77" s="522" t="s">
         <v>200</v>
       </c>
-      <c r="E77" s="510" t="s">
+      <c r="E77" s="516" t="s">
         <v>201</v>
       </c>
       <c r="F77" s="351" t="s">
@@ -9549,11 +9555,11 @@
       <c r="Q77" s="366"/>
     </row>
     <row r="78" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="514"/>
-      <c r="B78" s="522"/>
-      <c r="C78" s="514"/>
-      <c r="D78" s="533"/>
-      <c r="E78" s="514"/>
+      <c r="A78" s="517"/>
+      <c r="B78" s="526"/>
+      <c r="C78" s="517"/>
+      <c r="D78" s="523"/>
+      <c r="E78" s="517"/>
       <c r="F78" s="356" t="s">
         <v>172</v>
       </c>
@@ -9584,11 +9590,11 @@
       <c r="P78" s="404"/>
     </row>
     <row r="79" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="514"/>
-      <c r="B79" s="522"/>
-      <c r="C79" s="514"/>
-      <c r="D79" s="533"/>
-      <c r="E79" s="514"/>
+      <c r="A79" s="517"/>
+      <c r="B79" s="526"/>
+      <c r="C79" s="517"/>
+      <c r="D79" s="523"/>
+      <c r="E79" s="517"/>
       <c r="F79" s="356" t="s">
         <v>170</v>
       </c>
@@ -9619,11 +9625,11 @@
       <c r="P79" s="404"/>
     </row>
     <row r="80" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="511"/>
-      <c r="B80" s="519"/>
-      <c r="C80" s="511"/>
-      <c r="D80" s="534"/>
-      <c r="E80" s="511"/>
+      <c r="A80" s="518"/>
+      <c r="B80" s="527"/>
+      <c r="C80" s="518"/>
+      <c r="D80" s="524"/>
+      <c r="E80" s="518"/>
       <c r="F80" s="352" t="s">
         <v>185</v>
       </c>
@@ -9744,17 +9750,17 @@
       <c r="P82" s="407"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="510">
+      <c r="A83" s="516">
         <v>757</v>
       </c>
-      <c r="B83" s="512">
+      <c r="B83" s="519">
         <v>44061</v>
       </c>
-      <c r="C83" s="510"/>
-      <c r="D83" s="510" t="s">
+      <c r="C83" s="516"/>
+      <c r="D83" s="516" t="s">
         <v>206</v>
       </c>
-      <c r="E83" s="510" t="s">
+      <c r="E83" s="516" t="s">
         <v>207</v>
       </c>
       <c r="F83" s="351" t="s">
@@ -9787,11 +9793,11 @@
       <c r="P83" s="394"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="514"/>
-      <c r="B84" s="515"/>
-      <c r="C84" s="514"/>
-      <c r="D84" s="514"/>
-      <c r="E84" s="514"/>
+      <c r="A84" s="517"/>
+      <c r="B84" s="520"/>
+      <c r="C84" s="517"/>
+      <c r="D84" s="517"/>
+      <c r="E84" s="517"/>
       <c r="F84" s="356" t="s">
         <v>173</v>
       </c>
@@ -9822,11 +9828,11 @@
       <c r="P84" s="404"/>
     </row>
     <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="514"/>
-      <c r="B85" s="515"/>
-      <c r="C85" s="514"/>
-      <c r="D85" s="514"/>
-      <c r="E85" s="514"/>
+      <c r="A85" s="517"/>
+      <c r="B85" s="520"/>
+      <c r="C85" s="517"/>
+      <c r="D85" s="517"/>
+      <c r="E85" s="517"/>
       <c r="F85" s="356" t="s">
         <v>183</v>
       </c>
@@ -9857,11 +9863,11 @@
       <c r="P85" s="404"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="514"/>
-      <c r="B86" s="515"/>
-      <c r="C86" s="514"/>
-      <c r="D86" s="514"/>
-      <c r="E86" s="514"/>
+      <c r="A86" s="517"/>
+      <c r="B86" s="520"/>
+      <c r="C86" s="517"/>
+      <c r="D86" s="517"/>
+      <c r="E86" s="517"/>
       <c r="F86" s="356" t="s">
         <v>170</v>
       </c>
@@ -9892,11 +9898,11 @@
       <c r="P86" s="404"/>
     </row>
     <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="514"/>
-      <c r="B87" s="515"/>
-      <c r="C87" s="514"/>
-      <c r="D87" s="514"/>
-      <c r="E87" s="514"/>
+      <c r="A87" s="517"/>
+      <c r="B87" s="520"/>
+      <c r="C87" s="517"/>
+      <c r="D87" s="517"/>
+      <c r="E87" s="517"/>
       <c r="F87" s="356" t="s">
         <v>184</v>
       </c>
@@ -9927,11 +9933,11 @@
       <c r="P87" s="356"/>
     </row>
     <row r="88" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="511"/>
-      <c r="B88" s="513"/>
-      <c r="C88" s="511"/>
-      <c r="D88" s="511"/>
-      <c r="E88" s="511"/>
+      <c r="A88" s="518"/>
+      <c r="B88" s="521"/>
+      <c r="C88" s="518"/>
+      <c r="D88" s="518"/>
+      <c r="E88" s="518"/>
       <c r="F88" s="352" t="s">
         <v>185</v>
       </c>
@@ -9962,17 +9968,17 @@
       <c r="P88" s="352"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="516">
+      <c r="A89" s="510">
         <v>761</v>
       </c>
-      <c r="B89" s="520">
+      <c r="B89" s="535">
         <v>44063</v>
       </c>
-      <c r="C89" s="516"/>
-      <c r="D89" s="516" t="s">
+      <c r="C89" s="510"/>
+      <c r="D89" s="510" t="s">
         <v>200</v>
       </c>
-      <c r="E89" s="516" t="s">
+      <c r="E89" s="510" t="s">
         <v>201</v>
       </c>
       <c r="F89" s="351" t="s">
@@ -10007,11 +10013,11 @@
       <c r="P89" s="346"/>
     </row>
     <row r="90" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="526"/>
-      <c r="B90" s="527"/>
-      <c r="C90" s="526"/>
-      <c r="D90" s="526"/>
-      <c r="E90" s="526"/>
+      <c r="A90" s="511"/>
+      <c r="B90" s="536"/>
+      <c r="C90" s="511"/>
+      <c r="D90" s="511"/>
+      <c r="E90" s="511"/>
       <c r="F90" s="354" t="s">
         <v>183</v>
       </c>
@@ -10042,19 +10048,19 @@
       <c r="P90" s="408"/>
     </row>
     <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="510">
+      <c r="A91" s="516">
         <v>762</v>
       </c>
-      <c r="B91" s="512">
+      <c r="B91" s="519">
         <v>44063</v>
       </c>
-      <c r="C91" s="510" t="s">
+      <c r="C91" s="516" t="s">
         <v>187</v>
       </c>
-      <c r="D91" s="510" t="s">
+      <c r="D91" s="516" t="s">
         <v>208</v>
       </c>
-      <c r="E91" s="510"/>
+      <c r="E91" s="516"/>
       <c r="F91" s="351" t="s">
         <v>189</v>
       </c>
@@ -10085,11 +10091,11 @@
       <c r="P91" s="346"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="514"/>
-      <c r="B92" s="515"/>
-      <c r="C92" s="514"/>
-      <c r="D92" s="514"/>
-      <c r="E92" s="514"/>
+      <c r="A92" s="517"/>
+      <c r="B92" s="520"/>
+      <c r="C92" s="517"/>
+      <c r="D92" s="517"/>
+      <c r="E92" s="517"/>
       <c r="F92" s="356" t="s">
         <v>172</v>
       </c>
@@ -10120,11 +10126,11 @@
       <c r="P92" s="356"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="514"/>
-      <c r="B93" s="515"/>
-      <c r="C93" s="514"/>
-      <c r="D93" s="514"/>
-      <c r="E93" s="514"/>
+      <c r="A93" s="517"/>
+      <c r="B93" s="520"/>
+      <c r="C93" s="517"/>
+      <c r="D93" s="517"/>
+      <c r="E93" s="517"/>
       <c r="F93" s="356" t="s">
         <v>173</v>
       </c>
@@ -10155,11 +10161,11 @@
       <c r="P93" s="343"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="511"/>
-      <c r="B94" s="513"/>
-      <c r="C94" s="511"/>
-      <c r="D94" s="511"/>
-      <c r="E94" s="511"/>
+      <c r="A94" s="518"/>
+      <c r="B94" s="521"/>
+      <c r="C94" s="518"/>
+      <c r="D94" s="518"/>
+      <c r="E94" s="518"/>
       <c r="F94" s="352" t="s">
         <v>185</v>
       </c>
@@ -10190,17 +10196,17 @@
       <c r="P94" s="345"/>
     </row>
     <row r="95" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="510">
+      <c r="A95" s="516">
         <v>763</v>
       </c>
-      <c r="B95" s="512">
+      <c r="B95" s="519">
         <v>44063</v>
       </c>
-      <c r="C95" s="510"/>
-      <c r="D95" s="510" t="s">
+      <c r="C95" s="516"/>
+      <c r="D95" s="516" t="s">
         <v>179</v>
       </c>
-      <c r="E95" s="510" t="s">
+      <c r="E95" s="516" t="s">
         <v>180</v>
       </c>
       <c r="F95" s="351" t="s">
@@ -10233,11 +10239,11 @@
       <c r="P95" s="346"/>
     </row>
     <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="514"/>
-      <c r="B96" s="515"/>
-      <c r="C96" s="514"/>
-      <c r="D96" s="514"/>
-      <c r="E96" s="514"/>
+      <c r="A96" s="517"/>
+      <c r="B96" s="520"/>
+      <c r="C96" s="517"/>
+      <c r="D96" s="517"/>
+      <c r="E96" s="517"/>
       <c r="F96" s="356" t="s">
         <v>172</v>
       </c>
@@ -10268,11 +10274,11 @@
       <c r="P96" s="343"/>
     </row>
     <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="511"/>
-      <c r="B97" s="513"/>
-      <c r="C97" s="511"/>
-      <c r="D97" s="511"/>
-      <c r="E97" s="511"/>
+      <c r="A97" s="518"/>
+      <c r="B97" s="521"/>
+      <c r="C97" s="518"/>
+      <c r="D97" s="518"/>
+      <c r="E97" s="518"/>
       <c r="F97" s="352" t="s">
         <v>170</v>
       </c>
@@ -10303,17 +10309,17 @@
       <c r="P97" s="345"/>
     </row>
     <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="516">
+      <c r="A98" s="510">
         <v>764</v>
       </c>
-      <c r="B98" s="520">
+      <c r="B98" s="535">
         <v>44065</v>
       </c>
-      <c r="C98" s="516"/>
-      <c r="D98" s="516" t="s">
+      <c r="C98" s="510"/>
+      <c r="D98" s="510" t="s">
         <v>179</v>
       </c>
-      <c r="E98" s="516" t="s">
+      <c r="E98" s="510" t="s">
         <v>180</v>
       </c>
       <c r="F98" s="355" t="s">
@@ -10346,11 +10352,11 @@
       <c r="P98" s="360"/>
     </row>
     <row r="99" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="526"/>
-      <c r="B99" s="527"/>
-      <c r="C99" s="526"/>
-      <c r="D99" s="526"/>
-      <c r="E99" s="526"/>
+      <c r="A99" s="511"/>
+      <c r="B99" s="536"/>
+      <c r="C99" s="511"/>
+      <c r="D99" s="511"/>
+      <c r="E99" s="511"/>
       <c r="F99" s="356" t="s">
         <v>173</v>
       </c>
@@ -10381,11 +10387,11 @@
       <c r="P99" s="360"/>
     </row>
     <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="526"/>
-      <c r="B100" s="527"/>
-      <c r="C100" s="526"/>
-      <c r="D100" s="526"/>
-      <c r="E100" s="526"/>
+      <c r="A100" s="511"/>
+      <c r="B100" s="536"/>
+      <c r="C100" s="511"/>
+      <c r="D100" s="511"/>
+      <c r="E100" s="511"/>
       <c r="F100" s="356" t="s">
         <v>183</v>
       </c>
@@ -10416,11 +10422,11 @@
       <c r="P100" s="360"/>
     </row>
     <row r="101" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="517"/>
-      <c r="B101" s="521"/>
-      <c r="C101" s="517"/>
-      <c r="D101" s="517"/>
-      <c r="E101" s="517"/>
+      <c r="A101" s="528"/>
+      <c r="B101" s="537"/>
+      <c r="C101" s="528"/>
+      <c r="D101" s="528"/>
+      <c r="E101" s="528"/>
       <c r="F101" s="352" t="s">
         <v>185</v>
       </c>
@@ -10451,17 +10457,17 @@
       <c r="P101" s="375"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="516">
+      <c r="A102" s="510">
         <v>768</v>
       </c>
-      <c r="B102" s="520">
+      <c r="B102" s="535">
         <v>44065</v>
       </c>
-      <c r="C102" s="516"/>
-      <c r="D102" s="516" t="s">
+      <c r="C102" s="510"/>
+      <c r="D102" s="510" t="s">
         <v>220</v>
       </c>
-      <c r="E102" s="516" t="s">
+      <c r="E102" s="510" t="s">
         <v>180</v>
       </c>
       <c r="F102" s="351" t="s">
@@ -10492,11 +10498,11 @@
       <c r="P102" s="342"/>
     </row>
     <row r="103" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="526"/>
-      <c r="B103" s="527"/>
-      <c r="C103" s="526"/>
-      <c r="D103" s="526"/>
-      <c r="E103" s="526"/>
+      <c r="A103" s="511"/>
+      <c r="B103" s="536"/>
+      <c r="C103" s="511"/>
+      <c r="D103" s="511"/>
+      <c r="E103" s="511"/>
       <c r="F103" s="356" t="s">
         <v>172</v>
       </c>
@@ -10525,11 +10531,11 @@
       <c r="P103" s="360"/>
     </row>
     <row r="104" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="526"/>
-      <c r="B104" s="527"/>
-      <c r="C104" s="526"/>
-      <c r="D104" s="526"/>
-      <c r="E104" s="526"/>
+      <c r="A104" s="511"/>
+      <c r="B104" s="536"/>
+      <c r="C104" s="511"/>
+      <c r="D104" s="511"/>
+      <c r="E104" s="511"/>
       <c r="F104" s="354" t="s">
         <v>174</v>
       </c>
@@ -10558,17 +10564,17 @@
       <c r="P104" s="360"/>
     </row>
     <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="516">
+      <c r="A105" s="510">
         <v>773</v>
       </c>
-      <c r="B105" s="520">
+      <c r="B105" s="535">
         <v>44066</v>
       </c>
-      <c r="C105" s="516"/>
-      <c r="D105" s="516" t="s">
+      <c r="C105" s="510"/>
+      <c r="D105" s="510" t="s">
         <v>276</v>
       </c>
-      <c r="E105" s="516" t="s">
+      <c r="E105" s="510" t="s">
         <v>277</v>
       </c>
       <c r="F105" s="351" t="s">
@@ -10601,11 +10607,11 @@
       <c r="P105" s="346"/>
     </row>
     <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="517"/>
-      <c r="B106" s="521"/>
-      <c r="C106" s="517"/>
-      <c r="D106" s="517"/>
-      <c r="E106" s="517"/>
+      <c r="A106" s="528"/>
+      <c r="B106" s="537"/>
+      <c r="C106" s="528"/>
+      <c r="D106" s="528"/>
+      <c r="E106" s="528"/>
       <c r="F106" s="352" t="s">
         <v>278</v>
       </c>
@@ -10636,19 +10642,19 @@
       <c r="P106" s="345"/>
     </row>
     <row r="107" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="556">
+      <c r="A107" s="530">
         <v>769</v>
       </c>
-      <c r="B107" s="557">
+      <c r="B107" s="538">
         <v>44068</v>
       </c>
-      <c r="C107" s="556" t="s">
+      <c r="C107" s="530" t="s">
         <v>187</v>
       </c>
-      <c r="D107" s="556" t="s">
+      <c r="D107" s="530" t="s">
         <v>208</v>
       </c>
-      <c r="E107" s="556"/>
+      <c r="E107" s="530"/>
       <c r="F107" s="344" t="s">
         <v>189</v>
       </c>
@@ -10679,11 +10685,11 @@
       <c r="P107" s="422"/>
     </row>
     <row r="108" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="556"/>
-      <c r="B108" s="557"/>
-      <c r="C108" s="556"/>
-      <c r="D108" s="556"/>
-      <c r="E108" s="556"/>
+      <c r="A108" s="530"/>
+      <c r="B108" s="538"/>
+      <c r="C108" s="530"/>
+      <c r="D108" s="530"/>
+      <c r="E108" s="530"/>
       <c r="F108" s="344" t="s">
         <v>172</v>
       </c>
@@ -10714,11 +10720,11 @@
       <c r="P108" s="422"/>
     </row>
     <row r="109" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="556"/>
-      <c r="B109" s="557"/>
-      <c r="C109" s="556"/>
-      <c r="D109" s="556"/>
-      <c r="E109" s="556"/>
+      <c r="A109" s="530"/>
+      <c r="B109" s="538"/>
+      <c r="C109" s="530"/>
+      <c r="D109" s="530"/>
+      <c r="E109" s="530"/>
       <c r="F109" s="344" t="s">
         <v>221</v>
       </c>
@@ -10749,11 +10755,11 @@
       <c r="P109" s="422"/>
     </row>
     <row r="110" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="556"/>
-      <c r="B110" s="557"/>
-      <c r="C110" s="556"/>
-      <c r="D110" s="556"/>
-      <c r="E110" s="556"/>
+      <c r="A110" s="530"/>
+      <c r="B110" s="538"/>
+      <c r="C110" s="530"/>
+      <c r="D110" s="530"/>
+      <c r="E110" s="530"/>
       <c r="F110" s="344" t="s">
         <v>170</v>
       </c>
@@ -10784,11 +10790,11 @@
       <c r="P110" s="422"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="556"/>
-      <c r="B111" s="557"/>
-      <c r="C111" s="556"/>
-      <c r="D111" s="556"/>
-      <c r="E111" s="556"/>
+      <c r="A111" s="530"/>
+      <c r="B111" s="538"/>
+      <c r="C111" s="530"/>
+      <c r="D111" s="530"/>
+      <c r="E111" s="530"/>
       <c r="F111" s="344" t="s">
         <v>176</v>
       </c>
@@ -10819,11 +10825,11 @@
       <c r="P111" s="344"/>
     </row>
     <row r="112" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="556"/>
-      <c r="B112" s="557"/>
-      <c r="C112" s="556"/>
-      <c r="D112" s="556"/>
-      <c r="E112" s="556"/>
+      <c r="A112" s="530"/>
+      <c r="B112" s="538"/>
+      <c r="C112" s="530"/>
+      <c r="D112" s="530"/>
+      <c r="E112" s="530"/>
       <c r="F112" s="344" t="s">
         <v>185</v>
       </c>
@@ -10895,19 +10901,19 @@
       <c r="P113" s="344"/>
     </row>
     <row r="114" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="510">
+      <c r="A114" s="516">
         <v>777</v>
       </c>
-      <c r="B114" s="512">
+      <c r="B114" s="519">
         <v>44070</v>
       </c>
-      <c r="C114" s="510" t="s">
+      <c r="C114" s="516" t="s">
         <v>167</v>
       </c>
-      <c r="D114" s="510" t="s">
+      <c r="D114" s="516" t="s">
         <v>280</v>
       </c>
-      <c r="E114" s="510" t="s">
+      <c r="E114" s="516" t="s">
         <v>281</v>
       </c>
       <c r="F114" s="351" t="s">
@@ -10940,11 +10946,11 @@
       <c r="P114" s="351"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="511"/>
-      <c r="B115" s="513"/>
-      <c r="C115" s="511"/>
-      <c r="D115" s="511"/>
-      <c r="E115" s="511"/>
+      <c r="A115" s="518"/>
+      <c r="B115" s="521"/>
+      <c r="C115" s="518"/>
+      <c r="D115" s="518"/>
+      <c r="E115" s="518"/>
       <c r="F115" s="352" t="s">
         <v>185</v>
       </c>
@@ -11057,19 +11063,19 @@
       <c r="P117" s="344"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="510">
+      <c r="A118" s="516">
         <v>780</v>
       </c>
-      <c r="B118" s="512">
+      <c r="B118" s="519">
         <v>44071</v>
       </c>
-      <c r="C118" s="510" t="s">
+      <c r="C118" s="516" t="s">
         <v>187</v>
       </c>
-      <c r="D118" s="510" t="s">
+      <c r="D118" s="516" t="s">
         <v>283</v>
       </c>
-      <c r="E118" s="510"/>
+      <c r="E118" s="516"/>
       <c r="F118" s="351" t="s">
         <v>172</v>
       </c>
@@ -11100,11 +11106,11 @@
       <c r="P118" s="351"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="514"/>
-      <c r="B119" s="515"/>
-      <c r="C119" s="514"/>
-      <c r="D119" s="514"/>
-      <c r="E119" s="514"/>
+      <c r="A119" s="517"/>
+      <c r="B119" s="520"/>
+      <c r="C119" s="517"/>
+      <c r="D119" s="517"/>
+      <c r="E119" s="517"/>
       <c r="F119" s="356" t="s">
         <v>173</v>
       </c>
@@ -11135,11 +11141,11 @@
       <c r="P119" s="356"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="514"/>
-      <c r="B120" s="515"/>
-      <c r="C120" s="514"/>
-      <c r="D120" s="514"/>
-      <c r="E120" s="514"/>
+      <c r="A120" s="517"/>
+      <c r="B120" s="520"/>
+      <c r="C120" s="517"/>
+      <c r="D120" s="517"/>
+      <c r="E120" s="517"/>
       <c r="F120" s="356" t="s">
         <v>183</v>
       </c>
@@ -11170,11 +11176,11 @@
       <c r="P120" s="356"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="511"/>
-      <c r="B121" s="513"/>
-      <c r="C121" s="511"/>
-      <c r="D121" s="511"/>
-      <c r="E121" s="511"/>
+      <c r="A121" s="518"/>
+      <c r="B121" s="521"/>
+      <c r="C121" s="518"/>
+      <c r="D121" s="518"/>
+      <c r="E121" s="518"/>
       <c r="F121" s="352" t="s">
         <v>170</v>
       </c>
@@ -11246,14 +11252,14 @@
       <c r="P122" s="401"/>
     </row>
     <row r="123" spans="1:17" s="222" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A123" s="553" t="s">
+      <c r="A123" s="532" t="s">
         <v>76</v>
       </c>
-      <c r="B123" s="553"/>
-      <c r="C123" s="553"/>
-      <c r="D123" s="553"/>
-      <c r="E123" s="553"/>
-      <c r="F123" s="553"/>
+      <c r="B123" s="532"/>
+      <c r="C123" s="532"/>
+      <c r="D123" s="532"/>
+      <c r="E123" s="532"/>
+      <c r="F123" s="532"/>
       <c r="G123" s="262">
         <f>SUM(G13:G122)</f>
         <v>3212</v>
@@ -11272,18 +11278,18 @@
       <c r="M123" s="268"/>
       <c r="N123" s="268"/>
       <c r="O123" s="268"/>
-      <c r="P123" s="554"/>
-      <c r="Q123" s="555"/>
+      <c r="P123" s="533"/>
+      <c r="Q123" s="534"/>
     </row>
     <row r="124" spans="1:17" s="222" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A124" s="552" t="s">
+      <c r="A124" s="531" t="s">
         <v>128</v>
       </c>
-      <c r="B124" s="552"/>
-      <c r="C124" s="552"/>
-      <c r="D124" s="552"/>
-      <c r="E124" s="552"/>
-      <c r="F124" s="552"/>
+      <c r="B124" s="531"/>
+      <c r="C124" s="531"/>
+      <c r="D124" s="531"/>
+      <c r="E124" s="531"/>
+      <c r="F124" s="531"/>
       <c r="G124" s="216">
         <f>G123</f>
         <v>3212</v>
@@ -11299,18 +11305,18 @@
       <c r="M124" s="219"/>
       <c r="N124" s="219"/>
       <c r="O124" s="219"/>
-      <c r="P124" s="554"/>
-      <c r="Q124" s="555"/>
+      <c r="P124" s="533"/>
+      <c r="Q124" s="534"/>
     </row>
     <row r="125" spans="1:17" s="222" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A125" s="552" t="s">
+      <c r="A125" s="531" t="s">
         <v>77</v>
       </c>
-      <c r="B125" s="552"/>
-      <c r="C125" s="552"/>
-      <c r="D125" s="552"/>
-      <c r="E125" s="552"/>
-      <c r="F125" s="552"/>
+      <c r="B125" s="531"/>
+      <c r="C125" s="531"/>
+      <c r="D125" s="531"/>
+      <c r="E125" s="531"/>
+      <c r="F125" s="531"/>
       <c r="G125" s="223" t="s">
         <v>49</v>
       </c>
@@ -11327,14 +11333,14 @@
       <c r="O125" s="219"/>
     </row>
     <row r="126" spans="1:17" s="222" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A126" s="552" t="s">
+      <c r="A126" s="531" t="s">
         <v>78</v>
       </c>
-      <c r="B126" s="552"/>
-      <c r="C126" s="552"/>
-      <c r="D126" s="552"/>
-      <c r="E126" s="552"/>
-      <c r="F126" s="552"/>
+      <c r="B126" s="531"/>
+      <c r="C126" s="531"/>
+      <c r="D126" s="531"/>
+      <c r="E126" s="531"/>
+      <c r="F126" s="531"/>
       <c r="G126" s="223"/>
       <c r="H126" s="244"/>
       <c r="I126" s="217"/>
@@ -11349,14 +11355,14 @@
       <c r="O126" s="219"/>
     </row>
     <row r="127" spans="1:17" s="222" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A127" s="552" t="s">
+      <c r="A127" s="531" t="s">
         <v>79</v>
       </c>
-      <c r="B127" s="552"/>
-      <c r="C127" s="552"/>
-      <c r="D127" s="552"/>
-      <c r="E127" s="552"/>
-      <c r="F127" s="552"/>
+      <c r="B127" s="531"/>
+      <c r="C127" s="531"/>
+      <c r="D127" s="531"/>
+      <c r="E127" s="531"/>
+      <c r="F127" s="531"/>
       <c r="G127" s="223"/>
       <c r="H127" s="244"/>
       <c r="I127" s="217"/>
@@ -11432,6 +11438,137 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="155">
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="E51:E59"/>
+    <mergeCell ref="D51:D59"/>
+    <mergeCell ref="C51:C59"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="P123:P124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="Q123:Q124"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="D107:D112"/>
+    <mergeCell ref="C107:C112"/>
+    <mergeCell ref="E107:E112"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="D61:D67"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="E91:E94"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D89:D90"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
@@ -11456,137 +11593,6 @@
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="C61:C67"/>
-    <mergeCell ref="D61:D67"/>
-    <mergeCell ref="E61:E67"/>
-    <mergeCell ref="E91:E94"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="P123:P124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="Q123:Q124"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="D107:D112"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="E107:E112"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="E51:E59"/>
-    <mergeCell ref="D51:D59"/>
-    <mergeCell ref="C51:C59"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="E38:E45"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E118:E121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11619,93 +11625,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="576" t="s">
+      <c r="A1" s="558" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="576"/>
-      <c r="C1" s="576"/>
-      <c r="D1" s="576"/>
+      <c r="B1" s="558"/>
+      <c r="C1" s="558"/>
+      <c r="D1" s="558"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="577" t="s">
+      <c r="A2" s="559" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="577"/>
-      <c r="C2" s="577"/>
-      <c r="D2" s="577"/>
+      <c r="B2" s="559"/>
+      <c r="C2" s="559"/>
+      <c r="D2" s="559"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="584" t="s">
+      <c r="A3" s="572" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="584"/>
-      <c r="C3" s="584"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="584"/>
-      <c r="F3" s="584"/>
-      <c r="G3" s="584"/>
-      <c r="H3" s="584"/>
-      <c r="I3" s="584"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="584"/>
-      <c r="L3" s="584"/>
-      <c r="M3" s="584"/>
-      <c r="N3" s="584"/>
+      <c r="B3" s="572"/>
+      <c r="C3" s="572"/>
+      <c r="D3" s="572"/>
+      <c r="E3" s="572"/>
+      <c r="F3" s="572"/>
+      <c r="G3" s="572"/>
+      <c r="H3" s="572"/>
+      <c r="I3" s="572"/>
+      <c r="J3" s="572"/>
+      <c r="K3" s="572"/>
+      <c r="L3" s="572"/>
+      <c r="M3" s="572"/>
+      <c r="N3" s="572"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="585" t="s">
+      <c r="A4" s="573" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="585"/>
-      <c r="C4" s="585"/>
-      <c r="D4" s="585"/>
-      <c r="E4" s="585"/>
-      <c r="F4" s="585"/>
-      <c r="G4" s="585"/>
-      <c r="H4" s="585"/>
-      <c r="I4" s="586"/>
-      <c r="J4" s="585"/>
-      <c r="K4" s="585"/>
-      <c r="L4" s="585"/>
-      <c r="M4" s="585"/>
-      <c r="N4" s="585"/>
+      <c r="B4" s="573"/>
+      <c r="C4" s="573"/>
+      <c r="D4" s="573"/>
+      <c r="E4" s="573"/>
+      <c r="F4" s="573"/>
+      <c r="G4" s="573"/>
+      <c r="H4" s="573"/>
+      <c r="I4" s="574"/>
+      <c r="J4" s="573"/>
+      <c r="K4" s="573"/>
+      <c r="L4" s="573"/>
+      <c r="M4" s="573"/>
+      <c r="N4" s="573"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="587" t="s">
+      <c r="A5" s="575" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="572" t="s">
+      <c r="B5" s="583" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="565" t="s">
+      <c r="C5" s="576" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="573" t="s">
+      <c r="E5" s="584" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="573"/>
-      <c r="G5" s="573"/>
-      <c r="H5" s="573"/>
-      <c r="I5" s="574"/>
-      <c r="J5" s="575" t="s">
+      <c r="F5" s="584"/>
+      <c r="G5" s="584"/>
+      <c r="H5" s="584"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="573" t="s">
+      <c r="K5" s="584" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="573"/>
-      <c r="M5" s="573"/>
-      <c r="N5" s="565" t="s">
+      <c r="L5" s="584"/>
+      <c r="M5" s="584"/>
+      <c r="N5" s="576" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="587"/>
-      <c r="B6" s="572"/>
-      <c r="C6" s="565"/>
+      <c r="A6" s="575"/>
+      <c r="B6" s="583"/>
+      <c r="C6" s="576"/>
       <c r="D6" s="237" t="s">
         <v>41</v>
       </c>
@@ -11724,7 +11730,7 @@
       <c r="I6" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="575"/>
+      <c r="J6" s="586"/>
       <c r="K6" s="237" t="s">
         <v>45</v>
       </c>
@@ -11734,7 +11740,7 @@
       <c r="M6" s="237" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="565"/>
+      <c r="N6" s="576"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="419">
@@ -11778,16 +11784,16 @@
       <c r="N7" s="291"/>
     </row>
     <row r="8" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="578">
+      <c r="A8" s="566">
         <v>656</v>
       </c>
-      <c r="B8" s="562">
+      <c r="B8" s="560">
         <v>44053</v>
       </c>
-      <c r="C8" s="581" t="s">
+      <c r="C8" s="569" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="581" t="s">
+      <c r="D8" s="569" t="s">
         <v>179</v>
       </c>
       <c r="E8" s="329" t="s">
@@ -11820,10 +11826,10 @@
       <c r="Q8" s="215"/>
     </row>
     <row r="9" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="580"/>
-      <c r="B9" s="564"/>
-      <c r="C9" s="582"/>
-      <c r="D9" s="582"/>
+      <c r="A9" s="568"/>
+      <c r="B9" s="561"/>
+      <c r="C9" s="570"/>
+      <c r="D9" s="570"/>
       <c r="E9" s="330" t="s">
         <v>173</v>
       </c>
@@ -11854,10 +11860,10 @@
       <c r="Q9" s="215"/>
     </row>
     <row r="10" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="580"/>
-      <c r="B10" s="564"/>
-      <c r="C10" s="582"/>
-      <c r="D10" s="582"/>
+      <c r="A10" s="568"/>
+      <c r="B10" s="561"/>
+      <c r="C10" s="570"/>
+      <c r="D10" s="570"/>
       <c r="E10" s="330" t="s">
         <v>183</v>
       </c>
@@ -11888,10 +11894,10 @@
       <c r="Q10" s="215"/>
     </row>
     <row r="11" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="580"/>
-      <c r="B11" s="564"/>
-      <c r="C11" s="582"/>
-      <c r="D11" s="582"/>
+      <c r="A11" s="568"/>
+      <c r="B11" s="561"/>
+      <c r="C11" s="570"/>
+      <c r="D11" s="570"/>
       <c r="E11" s="330" t="s">
         <v>170</v>
       </c>
@@ -11922,10 +11928,10 @@
       <c r="Q11" s="215"/>
     </row>
     <row r="12" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="580"/>
-      <c r="B12" s="564"/>
-      <c r="C12" s="582"/>
-      <c r="D12" s="582"/>
+      <c r="A12" s="568"/>
+      <c r="B12" s="561"/>
+      <c r="C12" s="570"/>
+      <c r="D12" s="570"/>
       <c r="E12" s="330" t="s">
         <v>174</v>
       </c>
@@ -11956,10 +11962,10 @@
       <c r="Q12" s="215"/>
     </row>
     <row r="13" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="580"/>
-      <c r="B13" s="564"/>
-      <c r="C13" s="582"/>
-      <c r="D13" s="582"/>
+      <c r="A13" s="568"/>
+      <c r="B13" s="561"/>
+      <c r="C13" s="570"/>
+      <c r="D13" s="570"/>
       <c r="E13" s="330" t="s">
         <v>176</v>
       </c>
@@ -11990,10 +11996,10 @@
       <c r="Q13" s="215"/>
     </row>
     <row r="14" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="580"/>
-      <c r="B14" s="564"/>
-      <c r="C14" s="582"/>
-      <c r="D14" s="582"/>
+      <c r="A14" s="568"/>
+      <c r="B14" s="561"/>
+      <c r="C14" s="570"/>
+      <c r="D14" s="570"/>
       <c r="E14" s="330" t="s">
         <v>184</v>
       </c>
@@ -12024,10 +12030,10 @@
       <c r="Q14" s="215"/>
     </row>
     <row r="15" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="579"/>
-      <c r="B15" s="563"/>
-      <c r="C15" s="583"/>
-      <c r="D15" s="583"/>
+      <c r="A15" s="567"/>
+      <c r="B15" s="562"/>
+      <c r="C15" s="571"/>
+      <c r="D15" s="571"/>
       <c r="E15" s="331" t="s">
         <v>185</v>
       </c>
@@ -12098,14 +12104,14 @@
       <c r="Q16" s="215"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="578">
+      <c r="A17" s="566">
         <v>642</v>
       </c>
-      <c r="B17" s="562">
+      <c r="B17" s="560">
         <v>44056</v>
       </c>
-      <c r="C17" s="559"/>
-      <c r="D17" s="559" t="s">
+      <c r="C17" s="563"/>
+      <c r="D17" s="563" t="s">
         <v>179</v>
       </c>
       <c r="E17" s="142" t="s">
@@ -12137,10 +12143,10 @@
       <c r="N17" s="145"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="579"/>
-      <c r="B18" s="563"/>
-      <c r="C18" s="561"/>
-      <c r="D18" s="561"/>
+      <c r="A18" s="567"/>
+      <c r="B18" s="562"/>
+      <c r="C18" s="565"/>
+      <c r="D18" s="565"/>
       <c r="E18" s="151" t="s">
         <v>184</v>
       </c>
@@ -12250,14 +12256,14 @@
       <c r="N20" s="146"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="570">
+      <c r="A21" s="581">
         <v>776</v>
       </c>
-      <c r="B21" s="568">
+      <c r="B21" s="579">
         <v>44070</v>
       </c>
-      <c r="C21" s="566"/>
-      <c r="D21" s="566" t="s">
+      <c r="C21" s="577"/>
+      <c r="D21" s="577" t="s">
         <v>279</v>
       </c>
       <c r="E21" s="146" t="s">
@@ -12289,10 +12295,10 @@
       <c r="N21" s="146"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="571"/>
-      <c r="B22" s="569"/>
-      <c r="C22" s="567"/>
-      <c r="D22" s="567"/>
+      <c r="A22" s="582"/>
+      <c r="B22" s="580"/>
+      <c r="C22" s="578"/>
+      <c r="D22" s="578"/>
       <c r="E22" s="146" t="s">
         <v>176</v>
       </c>
@@ -12393,10 +12399,10 @@
       <c r="N25" s="154"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="559"/>
-      <c r="B26" s="562"/>
-      <c r="C26" s="559"/>
-      <c r="D26" s="559"/>
+      <c r="A26" s="563"/>
+      <c r="B26" s="560"/>
+      <c r="C26" s="563"/>
+      <c r="D26" s="563"/>
       <c r="E26" s="142"/>
       <c r="F26" s="142"/>
       <c r="G26" s="143"/>
@@ -12409,10 +12415,10 @@
       <c r="N26" s="145"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="560"/>
-      <c r="B27" s="564"/>
-      <c r="C27" s="560"/>
-      <c r="D27" s="560"/>
+      <c r="A27" s="564"/>
+      <c r="B27" s="561"/>
+      <c r="C27" s="564"/>
+      <c r="D27" s="564"/>
       <c r="E27" s="146"/>
       <c r="F27" s="146"/>
       <c r="G27" s="147"/>
@@ -12425,10 +12431,10 @@
       <c r="N27" s="150"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="561"/>
-      <c r="B28" s="563"/>
-      <c r="C28" s="561"/>
-      <c r="D28" s="561"/>
+      <c r="A28" s="565"/>
+      <c r="B28" s="562"/>
+      <c r="C28" s="565"/>
+      <c r="D28" s="565"/>
       <c r="E28" s="151"/>
       <c r="F28" s="151"/>
       <c r="G28" s="152"/>
@@ -12441,10 +12447,10 @@
       <c r="N28" s="154"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="559"/>
-      <c r="B29" s="562"/>
-      <c r="C29" s="559"/>
-      <c r="D29" s="559"/>
+      <c r="A29" s="563"/>
+      <c r="B29" s="560"/>
+      <c r="C29" s="563"/>
+      <c r="D29" s="563"/>
       <c r="E29" s="142"/>
       <c r="F29" s="142"/>
       <c r="G29" s="143"/>
@@ -12457,10 +12463,10 @@
       <c r="N29" s="145"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="560"/>
-      <c r="B30" s="564"/>
-      <c r="C30" s="560"/>
-      <c r="D30" s="560"/>
+      <c r="A30" s="564"/>
+      <c r="B30" s="561"/>
+      <c r="C30" s="564"/>
+      <c r="D30" s="564"/>
       <c r="E30" s="146"/>
       <c r="F30" s="146"/>
       <c r="G30" s="147"/>
@@ -12473,10 +12479,10 @@
       <c r="N30" s="150"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="560"/>
-      <c r="B31" s="564"/>
-      <c r="C31" s="560"/>
-      <c r="D31" s="560"/>
+      <c r="A31" s="564"/>
+      <c r="B31" s="561"/>
+      <c r="C31" s="564"/>
+      <c r="D31" s="564"/>
       <c r="E31" s="146"/>
       <c r="F31" s="146"/>
       <c r="G31" s="147"/>
@@ -12489,10 +12495,10 @@
       <c r="N31" s="150"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="561"/>
-      <c r="B32" s="563"/>
-      <c r="C32" s="561"/>
-      <c r="D32" s="561"/>
+      <c r="A32" s="565"/>
+      <c r="B32" s="562"/>
+      <c r="C32" s="565"/>
+      <c r="D32" s="565"/>
       <c r="E32" s="151"/>
       <c r="F32" s="151"/>
       <c r="G32" s="152"/>
@@ -12569,10 +12575,10 @@
       <c r="N36" s="98"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="559"/>
-      <c r="B37" s="562"/>
-      <c r="C37" s="559"/>
-      <c r="D37" s="559"/>
+      <c r="A37" s="563"/>
+      <c r="B37" s="560"/>
+      <c r="C37" s="563"/>
+      <c r="D37" s="563"/>
       <c r="E37" s="142"/>
       <c r="F37" s="142"/>
       <c r="G37" s="143"/>
@@ -12585,10 +12591,10 @@
       <c r="N37" s="145"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="561"/>
-      <c r="B38" s="563"/>
-      <c r="C38" s="561"/>
-      <c r="D38" s="561"/>
+      <c r="A38" s="565"/>
+      <c r="B38" s="562"/>
+      <c r="C38" s="565"/>
+      <c r="D38" s="565"/>
       <c r="E38" s="151"/>
       <c r="F38" s="151"/>
       <c r="G38" s="152"/>
@@ -12633,12 +12639,12 @@
       <c r="N40" s="98"/>
     </row>
     <row r="41" spans="1:14" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="558" t="s">
+      <c r="A41" s="587" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="558"/>
-      <c r="C41" s="558"/>
-      <c r="D41" s="558"/>
+      <c r="B41" s="587"/>
+      <c r="C41" s="587"/>
+      <c r="D41" s="587"/>
       <c r="E41" s="88"/>
       <c r="F41" s="88">
         <f>SUM(F7:F40)</f>
@@ -12726,6 +12732,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B26:B28"/>
@@ -12742,26 +12768,6 @@
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13307,13 +13313,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="607" t="s">
+      <c r="A1" s="622" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="607"/>
-      <c r="C1" s="607"/>
-      <c r="D1" s="607"/>
-      <c r="E1" s="607"/>
+      <c r="B1" s="622"/>
+      <c r="C1" s="622"/>
+      <c r="D1" s="622"/>
+      <c r="E1" s="622"/>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
@@ -13333,105 +13339,105 @@
       <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="608" t="s">
+      <c r="A3" s="598" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="608"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="608"/>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="608"/>
-      <c r="L3" s="608"/>
+      <c r="B3" s="598"/>
+      <c r="C3" s="598"/>
+      <c r="D3" s="598"/>
+      <c r="E3" s="598"/>
+      <c r="F3" s="598"/>
+      <c r="G3" s="598"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="598"/>
+      <c r="J3" s="598"/>
+      <c r="K3" s="598"/>
+      <c r="L3" s="598"/>
     </row>
     <row r="4" spans="1:12" s="99" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="609" t="s">
+      <c r="A4" s="597" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="613" t="s">
+      <c r="B4" s="617" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="609" t="s">
+      <c r="C4" s="597" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="609" t="s">
+      <c r="D4" s="597" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="609"/>
-      <c r="F4" s="612" t="s">
+      <c r="E4" s="597"/>
+      <c r="F4" s="596" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="612"/>
-      <c r="H4" s="612"/>
-      <c r="I4" s="612"/>
-      <c r="J4" s="612"/>
-      <c r="K4" s="612"/>
-      <c r="L4" s="612"/>
+      <c r="G4" s="596"/>
+      <c r="H4" s="596"/>
+      <c r="I4" s="596"/>
+      <c r="J4" s="596"/>
+      <c r="K4" s="596"/>
+      <c r="L4" s="596"/>
     </row>
     <row r="5" spans="1:12" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="609"/>
-      <c r="B5" s="613"/>
-      <c r="C5" s="609"/>
-      <c r="D5" s="609" t="s">
+      <c r="A5" s="597"/>
+      <c r="B5" s="617"/>
+      <c r="C5" s="597"/>
+      <c r="D5" s="597" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="609" t="s">
+      <c r="E5" s="597" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="609" t="s">
+      <c r="F5" s="597" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="609" t="s">
+      <c r="G5" s="597" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="610" t="s">
+      <c r="H5" s="600" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="610" t="s">
+      <c r="I5" s="600" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="611" t="s">
+      <c r="J5" s="599" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="611"/>
-      <c r="L5" s="610" t="s">
+      <c r="K5" s="599"/>
+      <c r="L5" s="600" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="99" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="609"/>
-      <c r="B6" s="613"/>
-      <c r="C6" s="609"/>
-      <c r="D6" s="609"/>
-      <c r="E6" s="609"/>
-      <c r="F6" s="609"/>
-      <c r="G6" s="609"/>
-      <c r="H6" s="610"/>
-      <c r="I6" s="610"/>
+      <c r="A6" s="597"/>
+      <c r="B6" s="617"/>
+      <c r="C6" s="597"/>
+      <c r="D6" s="597"/>
+      <c r="E6" s="597"/>
+      <c r="F6" s="597"/>
+      <c r="G6" s="597"/>
+      <c r="H6" s="600"/>
+      <c r="I6" s="600"/>
       <c r="J6" s="102" t="s">
         <v>83</v>
       </c>
       <c r="K6" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="610"/>
+      <c r="L6" s="600"/>
     </row>
     <row r="7" spans="1:12" s="214" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="559">
+      <c r="A7" s="563">
         <v>630</v>
       </c>
-      <c r="B7" s="562">
+      <c r="B7" s="560">
         <v>44044</v>
       </c>
-      <c r="C7" s="559" t="s">
+      <c r="C7" s="563" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="559"/>
-      <c r="E7" s="559"/>
+      <c r="D7" s="563"/>
+      <c r="E7" s="563"/>
       <c r="F7" s="269" t="s">
         <v>172</v>
       </c>
@@ -13453,11 +13459,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="214" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="560"/>
-      <c r="B8" s="564"/>
-      <c r="C8" s="560"/>
-      <c r="D8" s="560"/>
-      <c r="E8" s="560"/>
+      <c r="A8" s="564"/>
+      <c r="B8" s="561"/>
+      <c r="C8" s="564"/>
+      <c r="D8" s="564"/>
+      <c r="E8" s="564"/>
       <c r="F8" s="270" t="s">
         <v>173</v>
       </c>
@@ -13479,11 +13485,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="560"/>
-      <c r="B9" s="564"/>
-      <c r="C9" s="560"/>
-      <c r="D9" s="560"/>
-      <c r="E9" s="560"/>
+      <c r="A9" s="564"/>
+      <c r="B9" s="561"/>
+      <c r="C9" s="564"/>
+      <c r="D9" s="564"/>
+      <c r="E9" s="564"/>
       <c r="F9" s="270" t="s">
         <v>170</v>
       </c>
@@ -13505,11 +13511,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="214" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="561"/>
-      <c r="B10" s="563"/>
-      <c r="C10" s="561"/>
-      <c r="D10" s="561"/>
-      <c r="E10" s="561"/>
+      <c r="A10" s="565"/>
+      <c r="B10" s="562"/>
+      <c r="C10" s="565"/>
+      <c r="D10" s="565"/>
+      <c r="E10" s="565"/>
       <c r="F10" s="271" t="s">
         <v>174</v>
       </c>
@@ -13563,17 +13569,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="214" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="614">
+      <c r="A12" s="615">
         <v>646</v>
       </c>
-      <c r="B12" s="616">
+      <c r="B12" s="618">
         <v>44053</v>
       </c>
-      <c r="C12" s="614" t="s">
+      <c r="C12" s="615" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="618"/>
-      <c r="E12" s="614"/>
+      <c r="D12" s="620"/>
+      <c r="E12" s="615"/>
       <c r="F12" s="214" t="s">
         <v>172</v>
       </c>
@@ -13595,11 +13601,11 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="615"/>
-      <c r="B13" s="617"/>
-      <c r="C13" s="615"/>
-      <c r="D13" s="619"/>
-      <c r="E13" s="615"/>
+      <c r="A13" s="616"/>
+      <c r="B13" s="619"/>
+      <c r="C13" s="616"/>
+      <c r="D13" s="621"/>
+      <c r="E13" s="616"/>
       <c r="F13" s="273" t="s">
         <v>173</v>
       </c>
@@ -13621,14 +13627,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="598" t="s">
+      <c r="A14" s="603" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="599"/>
-      <c r="C14" s="599"/>
-      <c r="D14" s="599"/>
-      <c r="E14" s="599"/>
-      <c r="F14" s="600"/>
+      <c r="B14" s="604"/>
+      <c r="C14" s="604"/>
+      <c r="D14" s="604"/>
+      <c r="E14" s="604"/>
+      <c r="F14" s="605"/>
       <c r="G14" s="297">
         <f>SUM(G7:G13)</f>
         <v>11</v>
@@ -13674,107 +13680,107 @@
       <c r="L16" s="319"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="608" t="s">
+      <c r="A17" s="598" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="608"/>
-      <c r="C17" s="608"/>
-      <c r="D17" s="608"/>
-      <c r="E17" s="608"/>
-      <c r="F17" s="608"/>
-      <c r="G17" s="608"/>
-      <c r="H17" s="608"/>
-      <c r="I17" s="608"/>
-      <c r="J17" s="608"/>
-      <c r="K17" s="608"/>
-      <c r="L17" s="608"/>
+      <c r="B17" s="598"/>
+      <c r="C17" s="598"/>
+      <c r="D17" s="598"/>
+      <c r="E17" s="598"/>
+      <c r="F17" s="598"/>
+      <c r="G17" s="598"/>
+      <c r="H17" s="598"/>
+      <c r="I17" s="598"/>
+      <c r="J17" s="598"/>
+      <c r="K17" s="598"/>
+      <c r="L17" s="598"/>
     </row>
     <row r="18" spans="1:13" s="99" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="609" t="s">
+      <c r="A18" s="597" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="613" t="s">
+      <c r="B18" s="617" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="609" t="s">
+      <c r="C18" s="597" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="609" t="s">
+      <c r="D18" s="597" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="609"/>
-      <c r="F18" s="612" t="s">
+      <c r="E18" s="597"/>
+      <c r="F18" s="596" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="612"/>
-      <c r="H18" s="612"/>
-      <c r="I18" s="612"/>
-      <c r="J18" s="612"/>
-      <c r="K18" s="612"/>
-      <c r="L18" s="612"/>
+      <c r="G18" s="596"/>
+      <c r="H18" s="596"/>
+      <c r="I18" s="596"/>
+      <c r="J18" s="596"/>
+      <c r="K18" s="596"/>
+      <c r="L18" s="596"/>
     </row>
     <row r="19" spans="1:13" s="99" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="609"/>
-      <c r="B19" s="613"/>
-      <c r="C19" s="609"/>
-      <c r="D19" s="609" t="s">
+      <c r="A19" s="597"/>
+      <c r="B19" s="617"/>
+      <c r="C19" s="597"/>
+      <c r="D19" s="597" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="609" t="s">
+      <c r="E19" s="597" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="609" t="s">
+      <c r="F19" s="597" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="609" t="s">
+      <c r="G19" s="597" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="610" t="s">
+      <c r="H19" s="600" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="610" t="s">
+      <c r="I19" s="600" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="611" t="s">
+      <c r="J19" s="599" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="611"/>
-      <c r="L19" s="610" t="s">
+      <c r="K19" s="599"/>
+      <c r="L19" s="600" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="99" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="609"/>
-      <c r="B20" s="613"/>
-      <c r="C20" s="609"/>
-      <c r="D20" s="609"/>
-      <c r="E20" s="609"/>
-      <c r="F20" s="609"/>
-      <c r="G20" s="609"/>
-      <c r="H20" s="610"/>
-      <c r="I20" s="610"/>
+      <c r="A20" s="597"/>
+      <c r="B20" s="617"/>
+      <c r="C20" s="597"/>
+      <c r="D20" s="597"/>
+      <c r="E20" s="597"/>
+      <c r="F20" s="597"/>
+      <c r="G20" s="597"/>
+      <c r="H20" s="600"/>
+      <c r="I20" s="600"/>
       <c r="J20" s="275" t="s">
         <v>83</v>
       </c>
       <c r="K20" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="610"/>
+      <c r="L20" s="600"/>
     </row>
     <row r="21" spans="1:13" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="559">
+      <c r="A21" s="563">
         <v>647</v>
       </c>
-      <c r="B21" s="562">
+      <c r="B21" s="560">
         <v>44056</v>
       </c>
-      <c r="C21" s="559" t="s">
+      <c r="C21" s="563" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="620" t="s">
+      <c r="D21" s="613" t="s">
         <v>197</v>
       </c>
-      <c r="E21" s="559" t="s">
+      <c r="E21" s="563" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="269" t="s">
@@ -13801,11 +13807,11 @@
       <c r="M21" s="215"/>
     </row>
     <row r="22" spans="1:13" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="561"/>
-      <c r="B22" s="563"/>
-      <c r="C22" s="561"/>
-      <c r="D22" s="621"/>
-      <c r="E22" s="561"/>
+      <c r="A22" s="565"/>
+      <c r="B22" s="562"/>
+      <c r="C22" s="565"/>
+      <c r="D22" s="614"/>
+      <c r="E22" s="565"/>
       <c r="F22" s="271" t="s">
         <v>173</v>
       </c>
@@ -13838,23 +13844,23 @@
       <c r="F23" s="299"/>
       <c r="G23" s="299"/>
       <c r="H23" s="299"/>
-      <c r="I23" s="622" t="s">
+      <c r="I23" s="602" t="s">
         <v>210</v>
       </c>
-      <c r="J23" s="622"/>
-      <c r="K23" s="622"/>
+      <c r="J23" s="602"/>
+      <c r="K23" s="602"/>
       <c r="L23" s="469">
         <v>382000</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="598" t="s">
+      <c r="A24" s="603" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="599"/>
-      <c r="C24" s="599"/>
-      <c r="D24" s="599"/>
-      <c r="E24" s="600"/>
+      <c r="B24" s="604"/>
+      <c r="C24" s="604"/>
+      <c r="D24" s="604"/>
+      <c r="E24" s="605"/>
       <c r="F24" s="302"/>
       <c r="G24" s="302">
         <f>SUM(G21:G23)</f>
@@ -13887,92 +13893,92 @@
       <c r="L25" s="318"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="608" t="s">
+      <c r="A26" s="598" t="s">
         <v>267</v>
       </c>
-      <c r="B26" s="608"/>
-      <c r="C26" s="608"/>
-      <c r="D26" s="608"/>
-      <c r="E26" s="608"/>
-      <c r="F26" s="608"/>
-      <c r="G26" s="608"/>
-      <c r="H26" s="608"/>
-      <c r="I26" s="608"/>
-      <c r="J26" s="608"/>
-      <c r="K26" s="608"/>
-      <c r="L26" s="608"/>
+      <c r="B26" s="598"/>
+      <c r="C26" s="598"/>
+      <c r="D26" s="598"/>
+      <c r="E26" s="598"/>
+      <c r="F26" s="598"/>
+      <c r="G26" s="598"/>
+      <c r="H26" s="598"/>
+      <c r="I26" s="598"/>
+      <c r="J26" s="598"/>
+      <c r="K26" s="598"/>
+      <c r="L26" s="598"/>
     </row>
     <row r="27" spans="1:13" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="609" t="s">
+      <c r="A27" s="597" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="628" t="s">
+      <c r="B27" s="601" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="609" t="s">
+      <c r="C27" s="597" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="609" t="s">
+      <c r="D27" s="597" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="609"/>
-      <c r="F27" s="612" t="s">
+      <c r="E27" s="597"/>
+      <c r="F27" s="596" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="612"/>
-      <c r="H27" s="612"/>
-      <c r="I27" s="612"/>
-      <c r="J27" s="612"/>
-      <c r="K27" s="612"/>
-      <c r="L27" s="612"/>
+      <c r="G27" s="596"/>
+      <c r="H27" s="596"/>
+      <c r="I27" s="596"/>
+      <c r="J27" s="596"/>
+      <c r="K27" s="596"/>
+      <c r="L27" s="596"/>
     </row>
     <row r="28" spans="1:13" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="609"/>
-      <c r="B28" s="628"/>
-      <c r="C28" s="609"/>
-      <c r="D28" s="609" t="s">
+      <c r="A28" s="597"/>
+      <c r="B28" s="601"/>
+      <c r="C28" s="597"/>
+      <c r="D28" s="597" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="609" t="s">
+      <c r="E28" s="597" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="609" t="s">
+      <c r="F28" s="597" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="609" t="s">
+      <c r="G28" s="597" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="610" t="s">
+      <c r="H28" s="600" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="610" t="s">
+      <c r="I28" s="600" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="611" t="s">
+      <c r="J28" s="599" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="611"/>
-      <c r="L28" s="610" t="s">
+      <c r="K28" s="599"/>
+      <c r="L28" s="600" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="609"/>
-      <c r="B29" s="628"/>
-      <c r="C29" s="609"/>
-      <c r="D29" s="609"/>
-      <c r="E29" s="609"/>
-      <c r="F29" s="609"/>
-      <c r="G29" s="609"/>
-      <c r="H29" s="610"/>
-      <c r="I29" s="610"/>
+      <c r="A29" s="597"/>
+      <c r="B29" s="601"/>
+      <c r="C29" s="597"/>
+      <c r="D29" s="597"/>
+      <c r="E29" s="597"/>
+      <c r="F29" s="597"/>
+      <c r="G29" s="597"/>
+      <c r="H29" s="600"/>
+      <c r="I29" s="600"/>
       <c r="J29" s="327" t="s">
         <v>83</v>
       </c>
       <c r="K29" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="610"/>
+      <c r="L29" s="600"/>
     </row>
     <row r="30" spans="1:13" s="214" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="158">
@@ -14022,11 +14028,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="305" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="608" t="s">
+      <c r="A32" s="598" t="s">
         <v>211</v>
       </c>
-      <c r="B32" s="608"/>
-      <c r="C32" s="608"/>
+      <c r="B32" s="598"/>
+      <c r="C32" s="598"/>
       <c r="D32" s="315"/>
       <c r="E32" s="315"/>
       <c r="F32" s="315"/>
@@ -14039,225 +14045,225 @@
       <c r="A33" s="274"/>
       <c r="B33" s="274"/>
       <c r="C33" s="274"/>
-      <c r="D33" s="625" t="s">
+      <c r="D33" s="610" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="626"/>
-      <c r="F33" s="626"/>
-      <c r="G33" s="626"/>
-      <c r="H33" s="626"/>
-      <c r="I33" s="627"/>
-      <c r="J33" s="623" t="s">
+      <c r="E33" s="611"/>
+      <c r="F33" s="611"/>
+      <c r="G33" s="611"/>
+      <c r="H33" s="611"/>
+      <c r="I33" s="612"/>
+      <c r="J33" s="608" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="624"/>
+      <c r="K33" s="609"/>
       <c r="L33" s="304"/>
     </row>
     <row r="34" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="274"/>
       <c r="B34" s="274"/>
       <c r="C34" s="274"/>
-      <c r="D34" s="595" t="s">
+      <c r="D34" s="591" t="s">
         <v>213</v>
       </c>
-      <c r="E34" s="596"/>
-      <c r="F34" s="596"/>
-      <c r="G34" s="596"/>
-      <c r="H34" s="596"/>
-      <c r="I34" s="597"/>
-      <c r="J34" s="603">
+      <c r="E34" s="592"/>
+      <c r="F34" s="592"/>
+      <c r="G34" s="592"/>
+      <c r="H34" s="592"/>
+      <c r="I34" s="593"/>
+      <c r="J34" s="594">
         <v>550415</v>
       </c>
-      <c r="K34" s="604"/>
+      <c r="K34" s="595"/>
       <c r="L34" s="304"/>
     </row>
     <row r="35" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="274"/>
       <c r="B35" s="274"/>
       <c r="C35" s="274"/>
-      <c r="D35" s="595" t="s">
+      <c r="D35" s="591" t="s">
         <v>214</v>
       </c>
-      <c r="E35" s="596"/>
-      <c r="F35" s="596"/>
-      <c r="G35" s="596"/>
-      <c r="H35" s="596"/>
-      <c r="I35" s="597"/>
-      <c r="J35" s="603">
+      <c r="E35" s="592"/>
+      <c r="F35" s="592"/>
+      <c r="G35" s="592"/>
+      <c r="H35" s="592"/>
+      <c r="I35" s="593"/>
+      <c r="J35" s="594">
         <f>L14</f>
         <v>3082750.0000000005</v>
       </c>
-      <c r="K35" s="604"/>
+      <c r="K35" s="595"/>
       <c r="L35" s="304"/>
     </row>
     <row r="36" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="274"/>
       <c r="B36" s="274"/>
       <c r="C36" s="274"/>
-      <c r="D36" s="595" t="s">
+      <c r="D36" s="591" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="596"/>
-      <c r="F36" s="596"/>
-      <c r="G36" s="596"/>
-      <c r="H36" s="596"/>
-      <c r="I36" s="597"/>
-      <c r="J36" s="603">
+      <c r="E36" s="592"/>
+      <c r="F36" s="592"/>
+      <c r="G36" s="592"/>
+      <c r="H36" s="592"/>
+      <c r="I36" s="593"/>
+      <c r="J36" s="594">
         <f>L24</f>
         <v>1109750</v>
       </c>
-      <c r="K36" s="604"/>
+      <c r="K36" s="595"/>
       <c r="N36" s="306"/>
     </row>
     <row r="37" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="326"/>
       <c r="B37" s="326"/>
       <c r="C37" s="326"/>
-      <c r="D37" s="595" t="s">
+      <c r="D37" s="591" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="596"/>
-      <c r="F37" s="596"/>
-      <c r="G37" s="596"/>
-      <c r="H37" s="596"/>
-      <c r="I37" s="597"/>
-      <c r="J37" s="603">
+      <c r="E37" s="592"/>
+      <c r="F37" s="592"/>
+      <c r="G37" s="592"/>
+      <c r="H37" s="592"/>
+      <c r="I37" s="593"/>
+      <c r="J37" s="594">
         <f>L31</f>
         <v>225000</v>
       </c>
-      <c r="K37" s="604"/>
+      <c r="K37" s="595"/>
       <c r="N37" s="306"/>
     </row>
     <row r="38" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="325"/>
       <c r="B38" s="325"/>
       <c r="C38" s="325"/>
-      <c r="D38" s="595" t="s">
+      <c r="D38" s="591" t="s">
         <v>252</v>
       </c>
-      <c r="E38" s="596"/>
-      <c r="F38" s="596"/>
-      <c r="G38" s="596"/>
-      <c r="H38" s="596"/>
-      <c r="I38" s="597"/>
-      <c r="J38" s="603">
+      <c r="E38" s="592"/>
+      <c r="F38" s="592"/>
+      <c r="G38" s="592"/>
+      <c r="H38" s="592"/>
+      <c r="I38" s="593"/>
+      <c r="J38" s="594">
         <v>5000000</v>
       </c>
-      <c r="K38" s="604"/>
+      <c r="K38" s="595"/>
       <c r="N38" s="306"/>
     </row>
     <row r="39" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="325"/>
       <c r="B39" s="325"/>
       <c r="C39" s="325"/>
-      <c r="D39" s="598" t="s">
+      <c r="D39" s="603" t="s">
         <v>222</v>
       </c>
-      <c r="E39" s="599"/>
-      <c r="F39" s="599"/>
-      <c r="G39" s="599"/>
-      <c r="H39" s="599"/>
-      <c r="I39" s="600"/>
-      <c r="J39" s="605">
+      <c r="E39" s="604"/>
+      <c r="F39" s="604"/>
+      <c r="G39" s="604"/>
+      <c r="H39" s="604"/>
+      <c r="I39" s="605"/>
+      <c r="J39" s="606">
         <f>SUM(J34:K38)</f>
         <v>9967915</v>
       </c>
-      <c r="K39" s="606"/>
+      <c r="K39" s="607"/>
       <c r="N39" s="306"/>
     </row>
     <row r="40" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="274"/>
       <c r="B40" s="274"/>
       <c r="C40" s="274"/>
-      <c r="D40" s="595" t="s">
+      <c r="D40" s="591" t="s">
         <v>216</v>
       </c>
-      <c r="E40" s="596"/>
-      <c r="F40" s="596"/>
-      <c r="G40" s="596"/>
-      <c r="H40" s="596"/>
-      <c r="I40" s="597"/>
-      <c r="J40" s="603">
+      <c r="E40" s="592"/>
+      <c r="F40" s="592"/>
+      <c r="G40" s="592"/>
+      <c r="H40" s="592"/>
+      <c r="I40" s="593"/>
+      <c r="J40" s="594">
         <f>'Bảng lương'!K15</f>
         <v>5695384.615384616</v>
       </c>
-      <c r="K40" s="604"/>
+      <c r="K40" s="595"/>
       <c r="L40" s="304"/>
     </row>
     <row r="41" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="325"/>
       <c r="B41" s="325"/>
       <c r="C41" s="325"/>
-      <c r="D41" s="595" t="s">
+      <c r="D41" s="591" t="s">
         <v>247</v>
       </c>
-      <c r="E41" s="596"/>
-      <c r="F41" s="596"/>
-      <c r="G41" s="596"/>
-      <c r="H41" s="596"/>
-      <c r="I41" s="597"/>
-      <c r="J41" s="603">
+      <c r="E41" s="592"/>
+      <c r="F41" s="592"/>
+      <c r="G41" s="592"/>
+      <c r="H41" s="592"/>
+      <c r="I41" s="593"/>
+      <c r="J41" s="594">
         <f>'Chi phí văn phòng'!D9</f>
         <v>674000</v>
       </c>
-      <c r="K41" s="604"/>
+      <c r="K41" s="595"/>
       <c r="L41" s="304"/>
     </row>
     <row r="42" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="325"/>
       <c r="B42" s="325"/>
       <c r="C42" s="325"/>
-      <c r="D42" s="595" t="s">
+      <c r="D42" s="591" t="s">
         <v>248</v>
       </c>
-      <c r="E42" s="596"/>
-      <c r="F42" s="596"/>
-      <c r="G42" s="596"/>
-      <c r="H42" s="596"/>
-      <c r="I42" s="597"/>
-      <c r="J42" s="603">
+      <c r="E42" s="592"/>
+      <c r="F42" s="592"/>
+      <c r="G42" s="592"/>
+      <c r="H42" s="592"/>
+      <c r="I42" s="593"/>
+      <c r="J42" s="594">
         <f>'Chi phí văn phòng'!D21</f>
         <v>1289000</v>
       </c>
-      <c r="K42" s="604"/>
+      <c r="K42" s="595"/>
       <c r="L42" s="304"/>
     </row>
     <row r="43" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="325"/>
       <c r="B43" s="325"/>
       <c r="C43" s="325"/>
-      <c r="D43" s="598" t="s">
+      <c r="D43" s="603" t="s">
         <v>223</v>
       </c>
-      <c r="E43" s="599"/>
-      <c r="F43" s="599"/>
-      <c r="G43" s="599"/>
-      <c r="H43" s="599"/>
-      <c r="I43" s="600"/>
-      <c r="J43" s="605">
+      <c r="E43" s="604"/>
+      <c r="F43" s="604"/>
+      <c r="G43" s="604"/>
+      <c r="H43" s="604"/>
+      <c r="I43" s="605"/>
+      <c r="J43" s="606">
         <f>SUM(J40:K42)</f>
         <v>7658384.615384616</v>
       </c>
-      <c r="K43" s="606"/>
+      <c r="K43" s="607"/>
       <c r="L43" s="304"/>
     </row>
     <row r="44" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="274"/>
       <c r="B44" s="274"/>
       <c r="C44" s="274"/>
-      <c r="D44" s="601" t="s">
+      <c r="D44" s="627" t="s">
         <v>251</v>
       </c>
-      <c r="E44" s="601"/>
-      <c r="F44" s="601"/>
-      <c r="G44" s="601"/>
-      <c r="H44" s="601"/>
-      <c r="I44" s="601"/>
-      <c r="J44" s="602">
+      <c r="E44" s="627"/>
+      <c r="F44" s="627"/>
+      <c r="G44" s="627"/>
+      <c r="H44" s="627"/>
+      <c r="I44" s="627"/>
+      <c r="J44" s="628">
         <f>J39-J43</f>
         <v>2309530.384615384</v>
       </c>
-      <c r="K44" s="602"/>
+      <c r="K44" s="628"/>
     </row>
     <row r="45" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="325"/>
@@ -14267,14 +14273,14 @@
       <c r="E45" s="307"/>
       <c r="F45" s="307"/>
       <c r="G45" s="307"/>
-      <c r="H45" s="591" t="s">
+      <c r="H45" s="623" t="s">
         <v>249</v>
       </c>
-      <c r="I45" s="591"/>
-      <c r="J45" s="592">
+      <c r="I45" s="623"/>
+      <c r="J45" s="624">
         <v>2500000</v>
       </c>
-      <c r="K45" s="592"/>
+      <c r="K45" s="624"/>
     </row>
     <row r="46" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="321"/>
@@ -14284,49 +14290,95 @@
       <c r="E46" s="307"/>
       <c r="F46" s="307"/>
       <c r="G46" s="307"/>
-      <c r="H46" s="594" t="s">
+      <c r="H46" s="626" t="s">
         <v>250</v>
       </c>
-      <c r="I46" s="594"/>
-      <c r="J46" s="593">
+      <c r="I46" s="626"/>
+      <c r="J46" s="625">
         <f>J44+J45</f>
         <v>4809530.384615384</v>
       </c>
-      <c r="K46" s="593"/>
+      <c r="K46" s="625"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="79"/>
-      <c r="B47" s="608" t="s">
+      <c r="B47" s="598" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="608"/>
-      <c r="D47" s="608"/>
+      <c r="C47" s="598"/>
+      <c r="D47" s="598"/>
       <c r="E47" s="79"/>
       <c r="F47" s="79"/>
       <c r="G47" s="79"/>
       <c r="H47" s="79"/>
-      <c r="I47" s="608" t="s">
+      <c r="I47" s="598" t="s">
         <v>111</v>
       </c>
-      <c r="J47" s="608"/>
+      <c r="J47" s="598"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A32:C32"/>
@@ -14343,67 +14395,21 @@
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="D34:I34"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <pageMargins left="0.91" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -14427,13 +14433,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="607" t="s">
+      <c r="B1" s="622" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="607"/>
-      <c r="D1" s="607"/>
-      <c r="E1" s="607"/>
-      <c r="F1" s="607"/>
+      <c r="C1" s="622"/>
+      <c r="D1" s="622"/>
+      <c r="E1" s="622"/>
+      <c r="F1" s="622"/>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
       <c r="I1" s="58"/>
@@ -14453,11 +14459,11 @@
       <c r="J2" s="58"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="584" t="s">
+      <c r="B4" s="572" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="584"/>
-      <c r="D4" s="584"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="173"/>
       <c r="F4" s="173"/>
     </row>
@@ -14779,13 +14785,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="607" t="s">
+      <c r="A1" s="622" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="607"/>
-      <c r="C1" s="607"/>
-      <c r="D1" s="607"/>
-      <c r="E1" s="607"/>
+      <c r="B1" s="622"/>
+      <c r="C1" s="622"/>
+      <c r="D1" s="622"/>
+      <c r="E1" s="622"/>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
@@ -14859,34 +14865,34 @@
       <c r="H8" s="637"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="595" t="s">
+      <c r="A9" s="591" t="s">
         <v>216</v>
       </c>
-      <c r="B9" s="596"/>
-      <c r="C9" s="596"/>
-      <c r="D9" s="596"/>
-      <c r="E9" s="596"/>
-      <c r="F9" s="597"/>
-      <c r="G9" s="603">
+      <c r="B9" s="592"/>
+      <c r="C9" s="592"/>
+      <c r="D9" s="592"/>
+      <c r="E9" s="592"/>
+      <c r="F9" s="593"/>
+      <c r="G9" s="594">
         <f>'Bảng lương'!K12</f>
         <v>7135000</v>
       </c>
-      <c r="H9" s="604"/>
+      <c r="H9" s="595"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="601" t="s">
+      <c r="A10" s="627" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="601"/>
-      <c r="C10" s="601"/>
-      <c r="D10" s="601"/>
-      <c r="E10" s="601"/>
-      <c r="F10" s="601"/>
-      <c r="G10" s="602">
+      <c r="B10" s="627"/>
+      <c r="C10" s="627"/>
+      <c r="D10" s="627"/>
+      <c r="E10" s="627"/>
+      <c r="F10" s="627"/>
+      <c r="G10" s="628">
         <f>SUM(G7:H9)</f>
         <v>9935000</v>
       </c>
-      <c r="H10" s="602"/>
+      <c r="H10" s="628"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -15442,16 +15448,16 @@
       <c r="C1" s="104"/>
       <c r="D1" s="104"/>
       <c r="E1" s="104"/>
-      <c r="Z1" s="659" t="s">
+      <c r="Z1" s="646" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="660"/>
-      <c r="AB1" s="660"/>
-      <c r="AC1" s="660"/>
-      <c r="AD1" s="660"/>
-      <c r="AE1" s="660"/>
-      <c r="AF1" s="660"/>
-      <c r="AG1" s="661"/>
+      <c r="AA1" s="647"/>
+      <c r="AB1" s="647"/>
+      <c r="AC1" s="647"/>
+      <c r="AD1" s="647"/>
+      <c r="AE1" s="647"/>
+      <c r="AF1" s="647"/>
+      <c r="AG1" s="648"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
@@ -15461,18 +15467,18 @@
       <c r="C2" s="108"/>
       <c r="D2" s="108"/>
       <c r="E2" s="108"/>
-      <c r="Z2" s="642" t="s">
+      <c r="Z2" s="641" t="s">
         <v>85</v>
       </c>
-      <c r="AA2" s="643"/>
-      <c r="AB2" s="643"/>
-      <c r="AC2" s="643"/>
-      <c r="AD2" s="643"/>
-      <c r="AE2" s="644"/>
-      <c r="AF2" s="645" t="s">
+      <c r="AA2" s="642"/>
+      <c r="AB2" s="642"/>
+      <c r="AC2" s="642"/>
+      <c r="AD2" s="642"/>
+      <c r="AE2" s="643"/>
+      <c r="AF2" s="644" t="s">
         <v>86</v>
       </c>
-      <c r="AG2" s="646"/>
+      <c r="AG2" s="645"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="107" t="s">
@@ -15482,18 +15488,18 @@
       <c r="C3" s="75"/>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="Z3" s="642" t="s">
+      <c r="Z3" s="641" t="s">
         <v>88</v>
       </c>
-      <c r="AA3" s="643"/>
-      <c r="AB3" s="643"/>
-      <c r="AC3" s="643"/>
-      <c r="AD3" s="643"/>
-      <c r="AE3" s="644"/>
-      <c r="AF3" s="645" t="s">
+      <c r="AA3" s="642"/>
+      <c r="AB3" s="642"/>
+      <c r="AC3" s="642"/>
+      <c r="AD3" s="642"/>
+      <c r="AE3" s="643"/>
+      <c r="AF3" s="644" t="s">
         <v>89</v>
       </c>
-      <c r="AG3" s="646"/>
+      <c r="AG3" s="645"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="107" t="s">
@@ -15506,18 +15512,18 @@
       <c r="T4" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="642" t="s">
+      <c r="Z4" s="641" t="s">
         <v>91</v>
       </c>
-      <c r="AA4" s="643"/>
-      <c r="AB4" s="643"/>
-      <c r="AC4" s="643"/>
-      <c r="AD4" s="643"/>
-      <c r="AE4" s="644"/>
-      <c r="AF4" s="645" t="s">
+      <c r="AA4" s="642"/>
+      <c r="AB4" s="642"/>
+      <c r="AC4" s="642"/>
+      <c r="AD4" s="642"/>
+      <c r="AE4" s="643"/>
+      <c r="AF4" s="644" t="s">
         <v>92</v>
       </c>
-      <c r="AG4" s="646"/>
+      <c r="AG4" s="645"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="107" t="s">
@@ -15527,18 +15533,18 @@
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="Z5" s="642" t="s">
+      <c r="Z5" s="641" t="s">
         <v>94</v>
       </c>
-      <c r="AA5" s="643"/>
-      <c r="AB5" s="643"/>
-      <c r="AC5" s="643"/>
-      <c r="AD5" s="643"/>
-      <c r="AE5" s="644"/>
-      <c r="AF5" s="645" t="s">
+      <c r="AA5" s="642"/>
+      <c r="AB5" s="642"/>
+      <c r="AC5" s="642"/>
+      <c r="AD5" s="642"/>
+      <c r="AE5" s="643"/>
+      <c r="AF5" s="644" t="s">
         <v>95</v>
       </c>
-      <c r="AG5" s="646"/>
+      <c r="AG5" s="645"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="109"/>
@@ -15548,93 +15554,93 @@
       <c r="E6" s="109"/>
     </row>
     <row r="7" spans="1:40" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="647" t="s">
+      <c r="A7" s="650" t="s">
         <v>286</v>
       </c>
-      <c r="B7" s="647"/>
-      <c r="C7" s="647"/>
-      <c r="D7" s="647"/>
-      <c r="E7" s="647"/>
-      <c r="F7" s="647"/>
-      <c r="G7" s="647"/>
-      <c r="H7" s="647"/>
-      <c r="I7" s="647"/>
-      <c r="J7" s="647"/>
-      <c r="K7" s="647"/>
-      <c r="L7" s="647"/>
-      <c r="M7" s="647"/>
-      <c r="N7" s="647"/>
-      <c r="O7" s="647"/>
-      <c r="P7" s="647"/>
-      <c r="Q7" s="647"/>
-      <c r="R7" s="647"/>
-      <c r="S7" s="647"/>
-      <c r="T7" s="647"/>
-      <c r="U7" s="647"/>
-      <c r="V7" s="647"/>
-      <c r="W7" s="647"/>
-      <c r="X7" s="647"/>
-      <c r="Y7" s="647"/>
-      <c r="Z7" s="647"/>
-      <c r="AA7" s="647"/>
-      <c r="AB7" s="647"/>
-      <c r="AC7" s="647"/>
-      <c r="AD7" s="647"/>
-      <c r="AE7" s="647"/>
-      <c r="AF7" s="647"/>
-      <c r="AG7" s="647"/>
-      <c r="AH7" s="647"/>
-      <c r="AI7" s="647"/>
-      <c r="AJ7" s="647"/>
-      <c r="AK7" s="647"/>
-      <c r="AL7" s="647"/>
-      <c r="AM7" s="647"/>
+      <c r="B7" s="650"/>
+      <c r="C7" s="650"/>
+      <c r="D7" s="650"/>
+      <c r="E7" s="650"/>
+      <c r="F7" s="650"/>
+      <c r="G7" s="650"/>
+      <c r="H7" s="650"/>
+      <c r="I7" s="650"/>
+      <c r="J7" s="650"/>
+      <c r="K7" s="650"/>
+      <c r="L7" s="650"/>
+      <c r="M7" s="650"/>
+      <c r="N7" s="650"/>
+      <c r="O7" s="650"/>
+      <c r="P7" s="650"/>
+      <c r="Q7" s="650"/>
+      <c r="R7" s="650"/>
+      <c r="S7" s="650"/>
+      <c r="T7" s="650"/>
+      <c r="U7" s="650"/>
+      <c r="V7" s="650"/>
+      <c r="W7" s="650"/>
+      <c r="X7" s="650"/>
+      <c r="Y7" s="650"/>
+      <c r="Z7" s="650"/>
+      <c r="AA7" s="650"/>
+      <c r="AB7" s="650"/>
+      <c r="AC7" s="650"/>
+      <c r="AD7" s="650"/>
+      <c r="AE7" s="650"/>
+      <c r="AF7" s="650"/>
+      <c r="AG7" s="650"/>
+      <c r="AH7" s="650"/>
+      <c r="AI7" s="650"/>
+      <c r="AJ7" s="650"/>
+      <c r="AK7" s="650"/>
+      <c r="AL7" s="650"/>
+      <c r="AM7" s="650"/>
       <c r="AN7" s="111"/>
     </row>
     <row r="9" spans="1:40" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="648" t="s">
+      <c r="A9" s="651" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="648" t="s">
+      <c r="B9" s="651" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="648" t="s">
+      <c r="C9" s="651" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="651" t="s">
+      <c r="D9" s="654" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="652"/>
-      <c r="F9" s="652"/>
-      <c r="G9" s="652"/>
-      <c r="H9" s="652"/>
-      <c r="I9" s="652"/>
-      <c r="J9" s="652"/>
-      <c r="K9" s="652"/>
-      <c r="L9" s="652"/>
-      <c r="M9" s="652"/>
-      <c r="N9" s="652"/>
-      <c r="O9" s="652"/>
-      <c r="P9" s="652"/>
-      <c r="Q9" s="652"/>
-      <c r="R9" s="652"/>
-      <c r="S9" s="652"/>
-      <c r="T9" s="652"/>
-      <c r="U9" s="652"/>
-      <c r="V9" s="652"/>
-      <c r="W9" s="652"/>
-      <c r="X9" s="652"/>
-      <c r="Y9" s="652"/>
-      <c r="Z9" s="652"/>
-      <c r="AA9" s="652"/>
-      <c r="AB9" s="652"/>
-      <c r="AC9" s="652"/>
-      <c r="AD9" s="652"/>
-      <c r="AE9" s="652"/>
-      <c r="AF9" s="652"/>
-      <c r="AG9" s="652"/>
-      <c r="AH9" s="653"/>
-      <c r="AI9" s="654" t="s">
+      <c r="E9" s="655"/>
+      <c r="F9" s="655"/>
+      <c r="G9" s="655"/>
+      <c r="H9" s="655"/>
+      <c r="I9" s="655"/>
+      <c r="J9" s="655"/>
+      <c r="K9" s="655"/>
+      <c r="L9" s="655"/>
+      <c r="M9" s="655"/>
+      <c r="N9" s="655"/>
+      <c r="O9" s="655"/>
+      <c r="P9" s="655"/>
+      <c r="Q9" s="655"/>
+      <c r="R9" s="655"/>
+      <c r="S9" s="655"/>
+      <c r="T9" s="655"/>
+      <c r="U9" s="655"/>
+      <c r="V9" s="655"/>
+      <c r="W9" s="655"/>
+      <c r="X9" s="655"/>
+      <c r="Y9" s="655"/>
+      <c r="Z9" s="655"/>
+      <c r="AA9" s="655"/>
+      <c r="AB9" s="655"/>
+      <c r="AC9" s="655"/>
+      <c r="AD9" s="655"/>
+      <c r="AE9" s="655"/>
+      <c r="AF9" s="655"/>
+      <c r="AG9" s="655"/>
+      <c r="AH9" s="656"/>
+      <c r="AI9" s="657" t="s">
         <v>100</v>
       </c>
       <c r="AJ9" s="113"/>
@@ -15644,9 +15650,9 @@
       <c r="AN9" s="116"/>
     </row>
     <row r="10" spans="1:40" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="649"/>
-      <c r="B10" s="649"/>
-      <c r="C10" s="649"/>
+      <c r="A10" s="652"/>
+      <c r="B10" s="652"/>
+      <c r="C10" s="652"/>
       <c r="D10" s="118">
         <v>1</v>
       </c>
@@ -15740,7 +15746,7 @@
       <c r="AH10" s="118">
         <v>31</v>
       </c>
-      <c r="AI10" s="654"/>
+      <c r="AI10" s="657"/>
       <c r="AJ10" s="119"/>
       <c r="AK10" s="115"/>
       <c r="AL10" s="115"/>
@@ -15748,9 +15754,9 @@
       <c r="AN10" s="116"/>
     </row>
     <row r="11" spans="1:40" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="650"/>
-      <c r="B11" s="650"/>
-      <c r="C11" s="650"/>
+      <c r="A11" s="653"/>
+      <c r="B11" s="653"/>
+      <c r="C11" s="653"/>
       <c r="D11" s="118" t="s">
         <v>101</v>
       </c>
@@ -15844,7 +15850,7 @@
       <c r="AH11" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="AI11" s="654"/>
+      <c r="AI11" s="657"/>
       <c r="AJ11" s="123"/>
       <c r="AN11" s="125"/>
     </row>
@@ -16245,10 +16251,10 @@
       <c r="AN15" s="125"/>
     </row>
     <row r="16" spans="1:40" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="655" t="s">
+      <c r="A16" s="658" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="656"/>
+      <c r="B16" s="659"/>
       <c r="C16" s="127"/>
       <c r="D16" s="127"/>
       <c r="E16" s="128"/>
@@ -16300,12 +16306,12 @@
       <c r="N18" s="224" t="s">
         <v>108</v>
       </c>
-      <c r="AB18" s="657" t="s">
+      <c r="AB18" s="660" t="s">
         <v>401</v>
       </c>
-      <c r="AC18" s="657"/>
-      <c r="AD18" s="657"/>
-      <c r="AE18" s="657"/>
+      <c r="AC18" s="660"/>
+      <c r="AD18" s="660"/>
+      <c r="AE18" s="660"/>
     </row>
     <row r="19" spans="1:40" s="484" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="485" t="s">
@@ -16317,12 +16323,12 @@
       <c r="N19" s="485" t="s">
         <v>402</v>
       </c>
-      <c r="AB19" s="658" t="s">
+      <c r="AB19" s="661" t="s">
         <v>402</v>
       </c>
-      <c r="AC19" s="658"/>
-      <c r="AD19" s="658"/>
-      <c r="AE19" s="658"/>
+      <c r="AC19" s="661"/>
+      <c r="AD19" s="661"/>
+      <c r="AE19" s="661"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="132"/>
@@ -16355,131 +16361,131 @@
       <c r="AN33" s="135"/>
     </row>
     <row r="34" spans="3:40" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="641"/>
-      <c r="H34" s="641"/>
-      <c r="I34" s="641"/>
-      <c r="J34" s="641"/>
-      <c r="K34" s="641"/>
-      <c r="L34" s="641"/>
-      <c r="M34" s="641"/>
-      <c r="N34" s="641"/>
-      <c r="O34" s="641"/>
-      <c r="P34" s="641"/>
-      <c r="Q34" s="641"/>
-      <c r="R34" s="641"/>
-      <c r="S34" s="641"/>
-      <c r="T34" s="641"/>
-      <c r="U34" s="641"/>
-      <c r="V34" s="641"/>
-      <c r="W34" s="641"/>
-      <c r="X34" s="641"/>
+      <c r="G34" s="649"/>
+      <c r="H34" s="649"/>
+      <c r="I34" s="649"/>
+      <c r="J34" s="649"/>
+      <c r="K34" s="649"/>
+      <c r="L34" s="649"/>
+      <c r="M34" s="649"/>
+      <c r="N34" s="649"/>
+      <c r="O34" s="649"/>
+      <c r="P34" s="649"/>
+      <c r="Q34" s="649"/>
+      <c r="R34" s="649"/>
+      <c r="S34" s="649"/>
+      <c r="T34" s="649"/>
+      <c r="U34" s="649"/>
+      <c r="V34" s="649"/>
+      <c r="W34" s="649"/>
+      <c r="X34" s="649"/>
       <c r="AN34" s="135"/>
     </row>
     <row r="35" spans="3:40" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="641"/>
-      <c r="H35" s="641"/>
-      <c r="I35" s="641"/>
-      <c r="J35" s="641"/>
-      <c r="K35" s="641"/>
-      <c r="L35" s="641"/>
-      <c r="M35" s="641"/>
-      <c r="N35" s="641"/>
-      <c r="O35" s="641"/>
-      <c r="P35" s="641"/>
-      <c r="Q35" s="641"/>
-      <c r="R35" s="641"/>
-      <c r="S35" s="641"/>
-      <c r="T35" s="641"/>
-      <c r="U35" s="641"/>
-      <c r="V35" s="641"/>
-      <c r="W35" s="641"/>
-      <c r="X35" s="641"/>
+      <c r="G35" s="649"/>
+      <c r="H35" s="649"/>
+      <c r="I35" s="649"/>
+      <c r="J35" s="649"/>
+      <c r="K35" s="649"/>
+      <c r="L35" s="649"/>
+      <c r="M35" s="649"/>
+      <c r="N35" s="649"/>
+      <c r="O35" s="649"/>
+      <c r="P35" s="649"/>
+      <c r="Q35" s="649"/>
+      <c r="R35" s="649"/>
+      <c r="S35" s="649"/>
+      <c r="T35" s="649"/>
+      <c r="U35" s="649"/>
+      <c r="V35" s="649"/>
+      <c r="W35" s="649"/>
+      <c r="X35" s="649"/>
       <c r="AN35" s="135"/>
     </row>
     <row r="36" spans="3:40" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="641"/>
-      <c r="H36" s="641"/>
-      <c r="I36" s="641"/>
-      <c r="J36" s="641"/>
-      <c r="K36" s="641"/>
-      <c r="L36" s="641"/>
-      <c r="M36" s="641"/>
-      <c r="N36" s="641"/>
-      <c r="O36" s="641"/>
-      <c r="P36" s="641"/>
-      <c r="Q36" s="641"/>
-      <c r="R36" s="641"/>
-      <c r="S36" s="641"/>
-      <c r="T36" s="641"/>
-      <c r="U36" s="641"/>
-      <c r="V36" s="641"/>
-      <c r="W36" s="641"/>
-      <c r="X36" s="641"/>
+      <c r="G36" s="649"/>
+      <c r="H36" s="649"/>
+      <c r="I36" s="649"/>
+      <c r="J36" s="649"/>
+      <c r="K36" s="649"/>
+      <c r="L36" s="649"/>
+      <c r="M36" s="649"/>
+      <c r="N36" s="649"/>
+      <c r="O36" s="649"/>
+      <c r="P36" s="649"/>
+      <c r="Q36" s="649"/>
+      <c r="R36" s="649"/>
+      <c r="S36" s="649"/>
+      <c r="T36" s="649"/>
+      <c r="U36" s="649"/>
+      <c r="V36" s="649"/>
+      <c r="W36" s="649"/>
+      <c r="X36" s="649"/>
       <c r="AN36" s="135"/>
     </row>
     <row r="37" spans="3:40" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="641"/>
-      <c r="H37" s="641"/>
-      <c r="I37" s="641"/>
-      <c r="J37" s="641"/>
-      <c r="K37" s="641"/>
-      <c r="L37" s="641"/>
-      <c r="M37" s="641"/>
-      <c r="N37" s="641"/>
-      <c r="O37" s="641"/>
-      <c r="P37" s="641"/>
-      <c r="Q37" s="641"/>
-      <c r="R37" s="641"/>
-      <c r="S37" s="641"/>
-      <c r="T37" s="641"/>
-      <c r="U37" s="641"/>
-      <c r="V37" s="641"/>
-      <c r="W37" s="641"/>
-      <c r="X37" s="641"/>
+      <c r="G37" s="649"/>
+      <c r="H37" s="649"/>
+      <c r="I37" s="649"/>
+      <c r="J37" s="649"/>
+      <c r="K37" s="649"/>
+      <c r="L37" s="649"/>
+      <c r="M37" s="649"/>
+      <c r="N37" s="649"/>
+      <c r="O37" s="649"/>
+      <c r="P37" s="649"/>
+      <c r="Q37" s="649"/>
+      <c r="R37" s="649"/>
+      <c r="S37" s="649"/>
+      <c r="T37" s="649"/>
+      <c r="U37" s="649"/>
+      <c r="V37" s="649"/>
+      <c r="W37" s="649"/>
+      <c r="X37" s="649"/>
       <c r="AN37" s="135"/>
     </row>
     <row r="38" spans="3:40" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="641"/>
-      <c r="H38" s="641"/>
-      <c r="I38" s="641"/>
-      <c r="J38" s="641"/>
-      <c r="K38" s="641"/>
-      <c r="L38" s="641"/>
-      <c r="M38" s="641"/>
-      <c r="N38" s="641"/>
-      <c r="O38" s="641"/>
-      <c r="P38" s="641"/>
-      <c r="Q38" s="641"/>
-      <c r="R38" s="641"/>
-      <c r="S38" s="641"/>
-      <c r="T38" s="641"/>
-      <c r="U38" s="641"/>
-      <c r="V38" s="641"/>
-      <c r="W38" s="641"/>
-      <c r="X38" s="641"/>
+      <c r="G38" s="649"/>
+      <c r="H38" s="649"/>
+      <c r="I38" s="649"/>
+      <c r="J38" s="649"/>
+      <c r="K38" s="649"/>
+      <c r="L38" s="649"/>
+      <c r="M38" s="649"/>
+      <c r="N38" s="649"/>
+      <c r="O38" s="649"/>
+      <c r="P38" s="649"/>
+      <c r="Q38" s="649"/>
+      <c r="R38" s="649"/>
+      <c r="S38" s="649"/>
+      <c r="T38" s="649"/>
+      <c r="U38" s="649"/>
+      <c r="V38" s="649"/>
+      <c r="W38" s="649"/>
+      <c r="X38" s="649"/>
       <c r="AN38" s="135"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="105"/>
       <c r="D39" s="105"/>
-      <c r="G39" s="641"/>
-      <c r="H39" s="641"/>
-      <c r="I39" s="641"/>
-      <c r="J39" s="641"/>
-      <c r="K39" s="641"/>
-      <c r="L39" s="641"/>
-      <c r="M39" s="641"/>
-      <c r="N39" s="641"/>
-      <c r="O39" s="641"/>
-      <c r="P39" s="641"/>
-      <c r="Q39" s="641"/>
-      <c r="R39" s="641"/>
-      <c r="S39" s="641"/>
-      <c r="T39" s="641"/>
-      <c r="U39" s="641"/>
-      <c r="V39" s="641"/>
-      <c r="W39" s="641"/>
-      <c r="X39" s="641"/>
+      <c r="G39" s="649"/>
+      <c r="H39" s="649"/>
+      <c r="I39" s="649"/>
+      <c r="J39" s="649"/>
+      <c r="K39" s="649"/>
+      <c r="L39" s="649"/>
+      <c r="M39" s="649"/>
+      <c r="N39" s="649"/>
+      <c r="O39" s="649"/>
+      <c r="P39" s="649"/>
+      <c r="Q39" s="649"/>
+      <c r="R39" s="649"/>
+      <c r="S39" s="649"/>
+      <c r="T39" s="649"/>
+      <c r="U39" s="649"/>
+      <c r="V39" s="649"/>
+      <c r="W39" s="649"/>
+      <c r="X39" s="649"/>
       <c r="AN39" s="105"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -16489,13 +16495,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -16508,6 +16507,13 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="AB18:AE18"/>
     <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -17362,40 +17368,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="187" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="670" t="s">
+      <c r="A1" s="662" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="670"/>
-      <c r="C1" s="670"/>
-      <c r="D1" s="670"/>
+      <c r="B1" s="662"/>
+      <c r="C1" s="662"/>
+      <c r="D1" s="662"/>
       <c r="E1" s="186"/>
-      <c r="F1" s="671" t="s">
+      <c r="F1" s="663" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="671"/>
-      <c r="H1" s="671"/>
-      <c r="I1" s="671"/>
-      <c r="J1" s="671"/>
-      <c r="K1" s="671"/>
-      <c r="L1" s="671"/>
+      <c r="G1" s="663"/>
+      <c r="H1" s="663"/>
+      <c r="I1" s="663"/>
+      <c r="J1" s="663"/>
+      <c r="K1" s="663"/>
+      <c r="L1" s="663"/>
     </row>
     <row r="2" spans="1:16" s="187" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="672" t="s">
+      <c r="A2" s="664" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="672"/>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
+      <c r="B2" s="664"/>
+      <c r="C2" s="664"/>
+      <c r="D2" s="664"/>
       <c r="E2" s="186"/>
-      <c r="F2" s="673" t="s">
+      <c r="F2" s="665" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="673"/>
-      <c r="H2" s="673"/>
-      <c r="I2" s="673"/>
-      <c r="J2" s="673"/>
-      <c r="K2" s="673"/>
-      <c r="L2" s="673"/>
+      <c r="G2" s="665"/>
+      <c r="H2" s="665"/>
+      <c r="I2" s="665"/>
+      <c r="J2" s="665"/>
+      <c r="K2" s="665"/>
+      <c r="L2" s="665"/>
     </row>
     <row r="3" spans="1:16" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="188"/>
@@ -17409,45 +17415,45 @@
       <c r="J3" s="189"/>
     </row>
     <row r="4" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="662" t="s">
+      <c r="A4" s="666" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="662"/>
-      <c r="C4" s="662"/>
-      <c r="D4" s="662"/>
-      <c r="E4" s="662"/>
-      <c r="F4" s="662"/>
-      <c r="G4" s="662"/>
-      <c r="H4" s="662"/>
-      <c r="I4" s="662"/>
-      <c r="J4" s="662"/>
-      <c r="K4" s="662"/>
-      <c r="L4" s="662"/>
-      <c r="M4" s="662"/>
+      <c r="B4" s="666"/>
+      <c r="C4" s="666"/>
+      <c r="D4" s="666"/>
+      <c r="E4" s="666"/>
+      <c r="F4" s="666"/>
+      <c r="G4" s="666"/>
+      <c r="H4" s="666"/>
+      <c r="I4" s="666"/>
+      <c r="J4" s="666"/>
+      <c r="K4" s="666"/>
+      <c r="L4" s="666"/>
+      <c r="M4" s="666"/>
     </row>
     <row r="5" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="662" t="s">
+      <c r="A5" s="666" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="662"/>
-      <c r="C5" s="662"/>
-      <c r="D5" s="662"/>
-      <c r="E5" s="662"/>
-      <c r="F5" s="662"/>
-      <c r="G5" s="662"/>
-      <c r="H5" s="662"/>
-      <c r="I5" s="662"/>
-      <c r="J5" s="662"/>
-      <c r="K5" s="662"/>
-      <c r="L5" s="662"/>
-      <c r="M5" s="662"/>
+      <c r="B5" s="666"/>
+      <c r="C5" s="666"/>
+      <c r="D5" s="666"/>
+      <c r="E5" s="666"/>
+      <c r="F5" s="666"/>
+      <c r="G5" s="666"/>
+      <c r="H5" s="666"/>
+      <c r="I5" s="666"/>
+      <c r="J5" s="666"/>
+      <c r="K5" s="666"/>
+      <c r="L5" s="666"/>
+      <c r="M5" s="666"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="663" t="s">
+      <c r="K6" s="667" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="663"/>
-      <c r="M6" s="663"/>
+      <c r="L6" s="667"/>
+      <c r="M6" s="667"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="489" t="s">
@@ -17518,13 +17524,13 @@
       <c r="M8" s="489"/>
     </row>
     <row r="9" spans="1:16" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="667" t="s">
+      <c r="A9" s="671" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="668"/>
-      <c r="C9" s="668"/>
-      <c r="D9" s="668"/>
-      <c r="E9" s="669"/>
+      <c r="B9" s="672"/>
+      <c r="C9" s="672"/>
+      <c r="D9" s="672"/>
+      <c r="E9" s="673"/>
       <c r="F9" s="193">
         <f>SUM(F10:F12)</f>
         <v>27000000</v>
@@ -17661,13 +17667,13 @@
       <c r="P12" s="100"/>
     </row>
     <row r="13" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="664" t="s">
+      <c r="A13" s="668" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="665"/>
-      <c r="C13" s="665"/>
-      <c r="D13" s="665"/>
-      <c r="E13" s="666"/>
+      <c r="B13" s="669"/>
+      <c r="C13" s="669"/>
+      <c r="D13" s="669"/>
+      <c r="E13" s="670"/>
       <c r="F13" s="168">
         <f>SUM(F14:F15)</f>
         <v>7615384.615384616</v>
@@ -17758,11 +17764,11 @@
       <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="664" t="s">
+      <c r="A16" s="668" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="665"/>
-      <c r="C16" s="666"/>
+      <c r="B16" s="669"/>
+      <c r="C16" s="670"/>
       <c r="D16" s="193"/>
       <c r="E16" s="194"/>
       <c r="F16" s="193">
@@ -17793,14 +17799,14 @@
       <c r="M16" s="192"/>
     </row>
     <row r="18" spans="2:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="662"/>
-      <c r="C18" s="662"/>
-      <c r="D18" s="662"/>
+      <c r="B18" s="666"/>
+      <c r="C18" s="666"/>
+      <c r="D18" s="666"/>
       <c r="E18" s="169"/>
-      <c r="I18" s="662"/>
-      <c r="J18" s="662"/>
-      <c r="K18" s="662"/>
-      <c r="L18" s="662"/>
+      <c r="I18" s="666"/>
+      <c r="J18" s="666"/>
+      <c r="K18" s="666"/>
+      <c r="L18" s="666"/>
     </row>
     <row r="19" spans="2:12" s="483" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B19" s="224" t="s">
@@ -17851,11 +17857,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="B18:D18"/>
@@ -17863,6 +17864,11 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -3215,16 +3215,58 @@
     <xf numFmtId="14" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3233,22 +3275,10 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3260,46 +3290,10 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3347,17 +3341,77 @@
     <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3365,24 +3419,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3413,42 +3449,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3458,6 +3458,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3467,111 +3479,99 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3608,33 +3608,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3671,6 +3662,39 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3682,30 +3706,6 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4044,7 +4044,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10:H105"/>
     </sheetView>
@@ -6411,13 +6411,13 @@
       <c r="J2" s="176"/>
     </row>
     <row r="3" spans="1:14" s="174" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="572" t="s">
+      <c r="A3" s="584" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="572"/>
-      <c r="C3" s="572"/>
-      <c r="D3" s="572"/>
-      <c r="E3" s="572"/>
+      <c r="B3" s="584"/>
+      <c r="C3" s="584"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="584"/>
       <c r="F3" s="173"/>
       <c r="G3" s="173"/>
       <c r="H3" s="173"/>
@@ -6770,9 +6770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L114" sqref="L114:L115"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6797,13 +6797,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="539" t="s">
+      <c r="A1" s="537" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="539"/>
-      <c r="C1" s="539"/>
-      <c r="D1" s="539"/>
-      <c r="E1" s="539"/>
+      <c r="B1" s="537"/>
+      <c r="C1" s="537"/>
+      <c r="D1" s="537"/>
+      <c r="E1" s="537"/>
       <c r="N1" s="205"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -6817,163 +6817,163 @@
       <c r="N2" s="209"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="540" t="s">
+      <c r="A3" s="538" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="540"/>
-      <c r="C3" s="540"/>
-      <c r="D3" s="540"/>
-      <c r="E3" s="540"/>
-      <c r="F3" s="540"/>
-      <c r="G3" s="540"/>
-      <c r="H3" s="540"/>
-      <c r="I3" s="540"/>
-      <c r="J3" s="540"/>
-      <c r="K3" s="540"/>
-      <c r="L3" s="540"/>
-      <c r="M3" s="540"/>
-      <c r="N3" s="540"/>
-      <c r="O3" s="540"/>
-      <c r="P3" s="540"/>
+      <c r="B3" s="538"/>
+      <c r="C3" s="538"/>
+      <c r="D3" s="538"/>
+      <c r="E3" s="538"/>
+      <c r="F3" s="538"/>
+      <c r="G3" s="538"/>
+      <c r="H3" s="538"/>
+      <c r="I3" s="538"/>
+      <c r="J3" s="538"/>
+      <c r="K3" s="538"/>
+      <c r="L3" s="538"/>
+      <c r="M3" s="538"/>
+      <c r="N3" s="538"/>
+      <c r="O3" s="538"/>
+      <c r="P3" s="538"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="540" t="s">
+      <c r="A4" s="538" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="540"/>
-      <c r="C4" s="540"/>
-      <c r="D4" s="540"/>
-      <c r="E4" s="540"/>
-      <c r="F4" s="540"/>
-      <c r="G4" s="540"/>
-      <c r="H4" s="540"/>
-      <c r="I4" s="540"/>
-      <c r="J4" s="540"/>
-      <c r="K4" s="540"/>
-      <c r="L4" s="540"/>
-      <c r="M4" s="540"/>
-      <c r="N4" s="540"/>
-      <c r="O4" s="540"/>
-      <c r="P4" s="540"/>
+      <c r="B4" s="538"/>
+      <c r="C4" s="538"/>
+      <c r="D4" s="538"/>
+      <c r="E4" s="538"/>
+      <c r="F4" s="538"/>
+      <c r="G4" s="538"/>
+      <c r="H4" s="538"/>
+      <c r="I4" s="538"/>
+      <c r="J4" s="538"/>
+      <c r="K4" s="538"/>
+      <c r="L4" s="538"/>
+      <c r="M4" s="538"/>
+      <c r="N4" s="538"/>
+      <c r="O4" s="538"/>
+      <c r="P4" s="538"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="540"/>
-      <c r="B5" s="540"/>
-      <c r="C5" s="540"/>
-      <c r="D5" s="540"/>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="540"/>
-      <c r="I5" s="540"/>
-      <c r="J5" s="540"/>
-      <c r="K5" s="541"/>
-      <c r="L5" s="541"/>
+      <c r="A5" s="538"/>
+      <c r="B5" s="538"/>
+      <c r="C5" s="538"/>
+      <c r="D5" s="538"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="538"/>
+      <c r="I5" s="538"/>
+      <c r="J5" s="538"/>
+      <c r="K5" s="539"/>
+      <c r="L5" s="539"/>
     </row>
     <row r="6" spans="1:17" s="210" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="542" t="s">
+      <c r="A6" s="540" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="544" t="s">
+      <c r="B6" s="542" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="542" t="s">
+      <c r="C6" s="540" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="548" t="s">
+      <c r="D6" s="546" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="549" t="s">
+      <c r="E6" s="546"/>
+      <c r="F6" s="547" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="549"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="549"/>
-      <c r="J6" s="549"/>
-      <c r="K6" s="549"/>
-      <c r="L6" s="549"/>
-      <c r="M6" s="550"/>
-      <c r="N6" s="550"/>
-      <c r="O6" s="550"/>
-      <c r="P6" s="551" t="s">
+      <c r="G6" s="547"/>
+      <c r="H6" s="547"/>
+      <c r="I6" s="547"/>
+      <c r="J6" s="547"/>
+      <c r="K6" s="547"/>
+      <c r="L6" s="547"/>
+      <c r="M6" s="548"/>
+      <c r="N6" s="548"/>
+      <c r="O6" s="548"/>
+      <c r="P6" s="549" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="210" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="543"/>
-      <c r="B7" s="545"/>
-      <c r="C7" s="543"/>
-      <c r="D7" s="542" t="s">
+      <c r="A7" s="541"/>
+      <c r="B7" s="543"/>
+      <c r="C7" s="541"/>
+      <c r="D7" s="540" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="542" t="s">
+      <c r="E7" s="540" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="542" t="s">
+      <c r="F7" s="540" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="542" t="s">
+      <c r="G7" s="540" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="546" t="s">
+      <c r="H7" s="544" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="546" t="s">
+      <c r="I7" s="544" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="553" t="s">
+      <c r="J7" s="551" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="553"/>
-      <c r="L7" s="546" t="s">
+      <c r="K7" s="551"/>
+      <c r="L7" s="544" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="546" t="s">
+      <c r="M7" s="544" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="546" t="s">
+      <c r="N7" s="544" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="546" t="s">
+      <c r="O7" s="544" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="552"/>
+      <c r="P7" s="550"/>
     </row>
     <row r="8" spans="1:17" s="210" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="543"/>
-      <c r="B8" s="545"/>
-      <c r="C8" s="543"/>
-      <c r="D8" s="543"/>
-      <c r="E8" s="543"/>
-      <c r="F8" s="543"/>
-      <c r="G8" s="543"/>
-      <c r="H8" s="547"/>
-      <c r="I8" s="547"/>
+      <c r="A8" s="541"/>
+      <c r="B8" s="543"/>
+      <c r="C8" s="541"/>
+      <c r="D8" s="541"/>
+      <c r="E8" s="541"/>
+      <c r="F8" s="541"/>
+      <c r="G8" s="541"/>
+      <c r="H8" s="545"/>
+      <c r="I8" s="545"/>
       <c r="J8" s="350" t="s">
         <v>83</v>
       </c>
       <c r="K8" s="211" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="547"/>
-      <c r="M8" s="547"/>
-      <c r="N8" s="547"/>
-      <c r="O8" s="547"/>
-      <c r="P8" s="552"/>
+      <c r="L8" s="545"/>
+      <c r="M8" s="545"/>
+      <c r="N8" s="545"/>
+      <c r="O8" s="545"/>
+      <c r="P8" s="550"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="516">
+      <c r="A9" s="510">
         <v>630</v>
       </c>
-      <c r="B9" s="525">
+      <c r="B9" s="518">
         <v>44044</v>
       </c>
-      <c r="C9" s="516" t="s">
+      <c r="C9" s="510" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="516"/>
-      <c r="E9" s="516"/>
+      <c r="D9" s="510"/>
+      <c r="E9" s="510"/>
       <c r="F9" s="351" t="s">
         <v>172</v>
       </c>
@@ -7004,11 +7004,11 @@
       <c r="P9" s="351"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="517"/>
-      <c r="B10" s="526"/>
-      <c r="C10" s="517"/>
-      <c r="D10" s="517"/>
-      <c r="E10" s="517"/>
+      <c r="A10" s="514"/>
+      <c r="B10" s="522"/>
+      <c r="C10" s="514"/>
+      <c r="D10" s="514"/>
+      <c r="E10" s="514"/>
       <c r="F10" s="356" t="s">
         <v>173</v>
       </c>
@@ -7039,11 +7039,11 @@
       <c r="P10" s="343"/>
     </row>
     <row r="11" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="517"/>
-      <c r="B11" s="526"/>
-      <c r="C11" s="517"/>
-      <c r="D11" s="517"/>
-      <c r="E11" s="517"/>
+      <c r="A11" s="514"/>
+      <c r="B11" s="522"/>
+      <c r="C11" s="514"/>
+      <c r="D11" s="514"/>
+      <c r="E11" s="514"/>
       <c r="F11" s="356" t="s">
         <v>170</v>
       </c>
@@ -7075,11 +7075,11 @@
       <c r="Q11" s="366"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="518"/>
-      <c r="B12" s="527"/>
-      <c r="C12" s="518"/>
-      <c r="D12" s="518"/>
-      <c r="E12" s="518"/>
+      <c r="A12" s="511"/>
+      <c r="B12" s="519"/>
+      <c r="C12" s="511"/>
+      <c r="D12" s="511"/>
+      <c r="E12" s="511"/>
       <c r="F12" s="352" t="s">
         <v>174</v>
       </c>
@@ -7110,19 +7110,19 @@
       <c r="P12" s="345"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="510">
+      <c r="A13" s="516">
         <v>628</v>
       </c>
-      <c r="B13" s="512">
+      <c r="B13" s="530">
         <v>44045</v>
       </c>
-      <c r="C13" s="510" t="s">
+      <c r="C13" s="516" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="510" t="s">
+      <c r="D13" s="516" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="510" t="s">
+      <c r="E13" s="516" t="s">
         <v>169</v>
       </c>
       <c r="F13" s="344" t="s">
@@ -7155,11 +7155,11 @@
       <c r="P13" s="344"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="528"/>
-      <c r="B14" s="529"/>
-      <c r="C14" s="528"/>
-      <c r="D14" s="528"/>
-      <c r="E14" s="528"/>
+      <c r="A14" s="517"/>
+      <c r="B14" s="536"/>
+      <c r="C14" s="517"/>
+      <c r="D14" s="517"/>
+      <c r="E14" s="517"/>
       <c r="F14" s="371" t="s">
         <v>184</v>
       </c>
@@ -7276,17 +7276,17 @@
       <c r="P16" s="378"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="516">
+      <c r="A17" s="510">
         <v>635</v>
       </c>
-      <c r="B17" s="525">
+      <c r="B17" s="518">
         <v>44047</v>
       </c>
-      <c r="C17" s="516"/>
-      <c r="D17" s="522" t="s">
+      <c r="C17" s="510"/>
+      <c r="D17" s="532" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="522" t="s">
+      <c r="E17" s="532" t="s">
         <v>180</v>
       </c>
       <c r="F17" s="351" t="s">
@@ -7319,11 +7319,11 @@
       <c r="P17" s="382"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="518"/>
-      <c r="B18" s="527"/>
-      <c r="C18" s="518"/>
-      <c r="D18" s="524"/>
-      <c r="E18" s="524"/>
+      <c r="A18" s="511"/>
+      <c r="B18" s="519"/>
+      <c r="C18" s="511"/>
+      <c r="D18" s="534"/>
+      <c r="E18" s="534"/>
       <c r="F18" s="352" t="s">
         <v>173</v>
       </c>
@@ -7354,19 +7354,19 @@
       <c r="P18" s="384"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="516">
+      <c r="A19" s="510">
         <v>637</v>
       </c>
-      <c r="B19" s="525">
+      <c r="B19" s="518">
         <v>44048</v>
       </c>
-      <c r="C19" s="516" t="s">
+      <c r="C19" s="510" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="522" t="s">
+      <c r="D19" s="532" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="522"/>
+      <c r="E19" s="532"/>
       <c r="F19" s="351" t="s">
         <v>172</v>
       </c>
@@ -7397,11 +7397,11 @@
       <c r="P19" s="382"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="517"/>
-      <c r="B20" s="526"/>
-      <c r="C20" s="517"/>
-      <c r="D20" s="523"/>
-      <c r="E20" s="523"/>
+      <c r="A20" s="514"/>
+      <c r="B20" s="522"/>
+      <c r="C20" s="514"/>
+      <c r="D20" s="533"/>
+      <c r="E20" s="533"/>
       <c r="F20" s="356" t="s">
         <v>173</v>
       </c>
@@ -7432,11 +7432,11 @@
       <c r="P20" s="386"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="517"/>
-      <c r="B21" s="526"/>
-      <c r="C21" s="517"/>
-      <c r="D21" s="523"/>
-      <c r="E21" s="523"/>
+      <c r="A21" s="514"/>
+      <c r="B21" s="522"/>
+      <c r="C21" s="514"/>
+      <c r="D21" s="533"/>
+      <c r="E21" s="533"/>
       <c r="F21" s="356" t="s">
         <v>183</v>
       </c>
@@ -7467,11 +7467,11 @@
       <c r="P21" s="386"/>
     </row>
     <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="517"/>
-      <c r="B22" s="526"/>
-      <c r="C22" s="517"/>
-      <c r="D22" s="523"/>
-      <c r="E22" s="523"/>
+      <c r="A22" s="514"/>
+      <c r="B22" s="522"/>
+      <c r="C22" s="514"/>
+      <c r="D22" s="533"/>
+      <c r="E22" s="533"/>
       <c r="F22" s="356" t="s">
         <v>170</v>
       </c>
@@ -7502,11 +7502,11 @@
       <c r="P22" s="386"/>
     </row>
     <row r="23" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="517"/>
-      <c r="B23" s="526"/>
-      <c r="C23" s="517"/>
-      <c r="D23" s="523"/>
-      <c r="E23" s="523"/>
+      <c r="A23" s="514"/>
+      <c r="B23" s="522"/>
+      <c r="C23" s="514"/>
+      <c r="D23" s="533"/>
+      <c r="E23" s="533"/>
       <c r="F23" s="356" t="s">
         <v>174</v>
       </c>
@@ -7538,11 +7538,11 @@
       <c r="R23" s="366"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="517"/>
-      <c r="B24" s="526"/>
-      <c r="C24" s="517"/>
-      <c r="D24" s="523"/>
-      <c r="E24" s="523"/>
+      <c r="A24" s="514"/>
+      <c r="B24" s="522"/>
+      <c r="C24" s="514"/>
+      <c r="D24" s="533"/>
+      <c r="E24" s="533"/>
       <c r="F24" s="356" t="s">
         <v>176</v>
       </c>
@@ -7573,11 +7573,11 @@
       <c r="P24" s="356"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="517"/>
-      <c r="B25" s="526"/>
-      <c r="C25" s="517"/>
-      <c r="D25" s="523"/>
-      <c r="E25" s="523"/>
+      <c r="A25" s="514"/>
+      <c r="B25" s="522"/>
+      <c r="C25" s="514"/>
+      <c r="D25" s="533"/>
+      <c r="E25" s="533"/>
       <c r="F25" s="356" t="s">
         <v>184</v>
       </c>
@@ -7608,11 +7608,11 @@
       <c r="P25" s="356"/>
     </row>
     <row r="26" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="518"/>
-      <c r="B26" s="527"/>
-      <c r="C26" s="518"/>
-      <c r="D26" s="524"/>
-      <c r="E26" s="524"/>
+      <c r="A26" s="511"/>
+      <c r="B26" s="519"/>
+      <c r="C26" s="511"/>
+      <c r="D26" s="534"/>
+      <c r="E26" s="534"/>
       <c r="F26" s="352" t="s">
         <v>185</v>
       </c>
@@ -7643,19 +7643,19 @@
       <c r="P26" s="352"/>
     </row>
     <row r="27" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="516">
+      <c r="A27" s="510">
         <v>638</v>
       </c>
-      <c r="B27" s="525">
+      <c r="B27" s="518">
         <v>44048</v>
       </c>
-      <c r="C27" s="516" t="s">
+      <c r="C27" s="510" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="516" t="s">
+      <c r="D27" s="510" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="516" t="s">
+      <c r="E27" s="510" t="s">
         <v>188</v>
       </c>
       <c r="F27" s="351" t="s">
@@ -7688,11 +7688,11 @@
       <c r="P27" s="351"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="517"/>
-      <c r="B28" s="526"/>
-      <c r="C28" s="517"/>
-      <c r="D28" s="517"/>
-      <c r="E28" s="517"/>
+      <c r="A28" s="514"/>
+      <c r="B28" s="522"/>
+      <c r="C28" s="514"/>
+      <c r="D28" s="514"/>
+      <c r="E28" s="514"/>
       <c r="F28" s="356" t="s">
         <v>172</v>
       </c>
@@ -7723,11 +7723,11 @@
       <c r="P28" s="356"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="517"/>
-      <c r="B29" s="526"/>
-      <c r="C29" s="517"/>
-      <c r="D29" s="517"/>
-      <c r="E29" s="517"/>
+      <c r="A29" s="514"/>
+      <c r="B29" s="522"/>
+      <c r="C29" s="514"/>
+      <c r="D29" s="514"/>
+      <c r="E29" s="514"/>
       <c r="F29" s="356" t="s">
         <v>173</v>
       </c>
@@ -7758,11 +7758,11 @@
       <c r="P29" s="386"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="517"/>
-      <c r="B30" s="526"/>
-      <c r="C30" s="517"/>
-      <c r="D30" s="517"/>
-      <c r="E30" s="517"/>
+      <c r="A30" s="514"/>
+      <c r="B30" s="522"/>
+      <c r="C30" s="514"/>
+      <c r="D30" s="514"/>
+      <c r="E30" s="514"/>
       <c r="F30" s="356" t="s">
         <v>183</v>
       </c>
@@ -7793,11 +7793,11 @@
       <c r="P30" s="356"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="517"/>
-      <c r="B31" s="526"/>
-      <c r="C31" s="517"/>
-      <c r="D31" s="517"/>
-      <c r="E31" s="517"/>
+      <c r="A31" s="514"/>
+      <c r="B31" s="522"/>
+      <c r="C31" s="514"/>
+      <c r="D31" s="514"/>
+      <c r="E31" s="514"/>
       <c r="F31" s="356" t="s">
         <v>170</v>
       </c>
@@ -7828,11 +7828,11 @@
       <c r="P31" s="356"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="517"/>
-      <c r="B32" s="526"/>
-      <c r="C32" s="517"/>
-      <c r="D32" s="517"/>
-      <c r="E32" s="517"/>
+      <c r="A32" s="514"/>
+      <c r="B32" s="522"/>
+      <c r="C32" s="514"/>
+      <c r="D32" s="514"/>
+      <c r="E32" s="514"/>
       <c r="F32" s="356" t="s">
         <v>174</v>
       </c>
@@ -7863,11 +7863,11 @@
       <c r="P32" s="356"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="518"/>
-      <c r="B33" s="527"/>
-      <c r="C33" s="518"/>
-      <c r="D33" s="518"/>
-      <c r="E33" s="518"/>
+      <c r="A33" s="511"/>
+      <c r="B33" s="519"/>
+      <c r="C33" s="511"/>
+      <c r="D33" s="511"/>
+      <c r="E33" s="511"/>
       <c r="F33" s="352" t="s">
         <v>185</v>
       </c>
@@ -7898,17 +7898,17 @@
       <c r="P33" s="393"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="516">
+      <c r="A34" s="510">
         <v>653</v>
       </c>
-      <c r="B34" s="525">
+      <c r="B34" s="518">
         <v>44051</v>
       </c>
-      <c r="C34" s="516"/>
-      <c r="D34" s="516" t="s">
+      <c r="C34" s="510"/>
+      <c r="D34" s="510" t="s">
         <v>272</v>
       </c>
-      <c r="E34" s="516" t="s">
+      <c r="E34" s="510" t="s">
         <v>273</v>
       </c>
       <c r="F34" s="351" t="s">
@@ -7941,11 +7941,11 @@
       <c r="P34" s="394"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="518"/>
-      <c r="B35" s="527"/>
-      <c r="C35" s="518"/>
-      <c r="D35" s="518"/>
-      <c r="E35" s="518"/>
+      <c r="A35" s="511"/>
+      <c r="B35" s="519"/>
+      <c r="C35" s="511"/>
+      <c r="D35" s="511"/>
+      <c r="E35" s="511"/>
       <c r="F35" s="352" t="s">
         <v>185</v>
       </c>
@@ -7976,17 +7976,17 @@
       <c r="P35" s="393"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="510">
+      <c r="A36" s="516">
         <v>646</v>
       </c>
-      <c r="B36" s="512">
+      <c r="B36" s="530">
         <v>44053</v>
       </c>
-      <c r="C36" s="510" t="s">
+      <c r="C36" s="516" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="514"/>
-      <c r="E36" s="510"/>
+      <c r="D36" s="528"/>
+      <c r="E36" s="516"/>
       <c r="F36" s="202" t="s">
         <v>172</v>
       </c>
@@ -8018,11 +8018,11 @@
       <c r="Q36" s="366"/>
     </row>
     <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="511"/>
-      <c r="B37" s="513"/>
-      <c r="C37" s="511"/>
-      <c r="D37" s="515"/>
-      <c r="E37" s="511"/>
+      <c r="A37" s="526"/>
+      <c r="B37" s="531"/>
+      <c r="C37" s="526"/>
+      <c r="D37" s="529"/>
+      <c r="E37" s="526"/>
       <c r="F37" s="354" t="s">
         <v>173</v>
       </c>
@@ -8054,19 +8054,19 @@
       <c r="Q37" s="366"/>
     </row>
     <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="516">
+      <c r="A38" s="510">
         <v>657</v>
       </c>
-      <c r="B38" s="525">
+      <c r="B38" s="518">
         <v>44053</v>
       </c>
-      <c r="C38" s="525" t="s">
+      <c r="C38" s="518" t="s">
         <v>269</v>
       </c>
-      <c r="D38" s="555" t="s">
+      <c r="D38" s="523" t="s">
         <v>270</v>
       </c>
-      <c r="E38" s="525"/>
+      <c r="E38" s="518"/>
       <c r="F38" s="351" t="s">
         <v>172</v>
       </c>
@@ -8095,11 +8095,11 @@
       <c r="Q38" s="366"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="517"/>
-      <c r="B39" s="526"/>
-      <c r="C39" s="526"/>
-      <c r="D39" s="556"/>
-      <c r="E39" s="526"/>
+      <c r="A39" s="514"/>
+      <c r="B39" s="522"/>
+      <c r="C39" s="522"/>
+      <c r="D39" s="524"/>
+      <c r="E39" s="522"/>
       <c r="F39" s="356" t="s">
         <v>173</v>
       </c>
@@ -8128,11 +8128,11 @@
       <c r="Q39" s="366"/>
     </row>
     <row r="40" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="517"/>
-      <c r="B40" s="526"/>
-      <c r="C40" s="526"/>
-      <c r="D40" s="556"/>
-      <c r="E40" s="526"/>
+      <c r="A40" s="514"/>
+      <c r="B40" s="522"/>
+      <c r="C40" s="522"/>
+      <c r="D40" s="524"/>
+      <c r="E40" s="522"/>
       <c r="F40" s="356" t="s">
         <v>183</v>
       </c>
@@ -8161,11 +8161,11 @@
       <c r="Q40" s="366"/>
     </row>
     <row r="41" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="517"/>
-      <c r="B41" s="526"/>
-      <c r="C41" s="526"/>
-      <c r="D41" s="556"/>
-      <c r="E41" s="526"/>
+      <c r="A41" s="514"/>
+      <c r="B41" s="522"/>
+      <c r="C41" s="522"/>
+      <c r="D41" s="524"/>
+      <c r="E41" s="522"/>
       <c r="F41" s="356" t="s">
         <v>170</v>
       </c>
@@ -8194,11 +8194,11 @@
       <c r="Q41" s="366"/>
     </row>
     <row r="42" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="517"/>
-      <c r="B42" s="526"/>
-      <c r="C42" s="526"/>
-      <c r="D42" s="556"/>
-      <c r="E42" s="526"/>
+      <c r="A42" s="514"/>
+      <c r="B42" s="522"/>
+      <c r="C42" s="522"/>
+      <c r="D42" s="524"/>
+      <c r="E42" s="522"/>
       <c r="F42" s="356" t="s">
         <v>174</v>
       </c>
@@ -8227,11 +8227,11 @@
       <c r="Q42" s="366"/>
     </row>
     <row r="43" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="517"/>
-      <c r="B43" s="526"/>
-      <c r="C43" s="526"/>
-      <c r="D43" s="556"/>
-      <c r="E43" s="526"/>
+      <c r="A43" s="514"/>
+      <c r="B43" s="522"/>
+      <c r="C43" s="522"/>
+      <c r="D43" s="524"/>
+      <c r="E43" s="522"/>
       <c r="F43" s="356" t="s">
         <v>176</v>
       </c>
@@ -8260,11 +8260,11 @@
       <c r="Q43" s="366"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="517"/>
-      <c r="B44" s="526"/>
-      <c r="C44" s="526"/>
-      <c r="D44" s="556"/>
-      <c r="E44" s="526"/>
+      <c r="A44" s="514"/>
+      <c r="B44" s="522"/>
+      <c r="C44" s="522"/>
+      <c r="D44" s="524"/>
+      <c r="E44" s="522"/>
       <c r="F44" s="356" t="s">
         <v>184</v>
       </c>
@@ -8293,11 +8293,11 @@
       <c r="Q44" s="366"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="518"/>
-      <c r="B45" s="527"/>
-      <c r="C45" s="527"/>
-      <c r="D45" s="557"/>
-      <c r="E45" s="527"/>
+      <c r="A45" s="511"/>
+      <c r="B45" s="519"/>
+      <c r="C45" s="519"/>
+      <c r="D45" s="525"/>
+      <c r="E45" s="519"/>
       <c r="F45" s="352" t="s">
         <v>185</v>
       </c>
@@ -8368,19 +8368,19 @@
       <c r="Q46" s="366"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="511">
+      <c r="A47" s="526">
         <v>639</v>
       </c>
-      <c r="B47" s="513">
+      <c r="B47" s="531">
         <v>44055</v>
       </c>
-      <c r="C47" s="511" t="s">
+      <c r="C47" s="526" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="515" t="s">
+      <c r="D47" s="529" t="s">
         <v>190</v>
       </c>
-      <c r="E47" s="511"/>
+      <c r="E47" s="526"/>
       <c r="F47" s="355" t="s">
         <v>170</v>
       </c>
@@ -8411,11 +8411,11 @@
       <c r="P47" s="399"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="528"/>
-      <c r="B48" s="529"/>
-      <c r="C48" s="528"/>
-      <c r="D48" s="554"/>
-      <c r="E48" s="528"/>
+      <c r="A48" s="517"/>
+      <c r="B48" s="536"/>
+      <c r="C48" s="517"/>
+      <c r="D48" s="535"/>
+      <c r="E48" s="517"/>
       <c r="F48" s="352" t="s">
         <v>185</v>
       </c>
@@ -8446,19 +8446,19 @@
       <c r="P48" s="393"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="510">
+      <c r="A49" s="516">
         <v>640</v>
       </c>
-      <c r="B49" s="512">
+      <c r="B49" s="530">
         <v>44055</v>
       </c>
-      <c r="C49" s="510" t="s">
+      <c r="C49" s="516" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="514" t="s">
+      <c r="D49" s="528" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="510" t="s">
+      <c r="E49" s="516" t="s">
         <v>192</v>
       </c>
       <c r="F49" s="351" t="s">
@@ -8491,11 +8491,11 @@
       <c r="P49" s="351"/>
     </row>
     <row r="50" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="511"/>
-      <c r="B50" s="513"/>
-      <c r="C50" s="511"/>
-      <c r="D50" s="515"/>
-      <c r="E50" s="511"/>
+      <c r="A50" s="526"/>
+      <c r="B50" s="531"/>
+      <c r="C50" s="526"/>
+      <c r="D50" s="529"/>
+      <c r="E50" s="526"/>
       <c r="F50" s="354" t="s">
         <v>185</v>
       </c>
@@ -8526,19 +8526,19 @@
       <c r="P50" s="354"/>
     </row>
     <row r="51" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="516">
+      <c r="A51" s="510">
         <v>641</v>
       </c>
-      <c r="B51" s="525">
+      <c r="B51" s="518">
         <v>44055</v>
       </c>
-      <c r="C51" s="516" t="s">
+      <c r="C51" s="510" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="522" t="s">
+      <c r="D51" s="532" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="516" t="s">
+      <c r="E51" s="510" t="s">
         <v>193</v>
       </c>
       <c r="F51" s="351" t="s">
@@ -8571,11 +8571,11 @@
       <c r="P51" s="351"/>
     </row>
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="517"/>
-      <c r="B52" s="526"/>
-      <c r="C52" s="517"/>
-      <c r="D52" s="523"/>
-      <c r="E52" s="517"/>
+      <c r="A52" s="514"/>
+      <c r="B52" s="522"/>
+      <c r="C52" s="514"/>
+      <c r="D52" s="533"/>
+      <c r="E52" s="514"/>
       <c r="F52" s="356" t="s">
         <v>172</v>
       </c>
@@ -8606,11 +8606,11 @@
       <c r="P52" s="356"/>
     </row>
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="517"/>
-      <c r="B53" s="526"/>
-      <c r="C53" s="517"/>
-      <c r="D53" s="523"/>
-      <c r="E53" s="517"/>
+      <c r="A53" s="514"/>
+      <c r="B53" s="522"/>
+      <c r="C53" s="514"/>
+      <c r="D53" s="533"/>
+      <c r="E53" s="514"/>
       <c r="F53" s="356" t="s">
         <v>173</v>
       </c>
@@ -8641,11 +8641,11 @@
       <c r="P53" s="356"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="517"/>
-      <c r="B54" s="526"/>
-      <c r="C54" s="517"/>
-      <c r="D54" s="523"/>
-      <c r="E54" s="517"/>
+      <c r="A54" s="514"/>
+      <c r="B54" s="522"/>
+      <c r="C54" s="514"/>
+      <c r="D54" s="533"/>
+      <c r="E54" s="514"/>
       <c r="F54" s="356" t="s">
         <v>183</v>
       </c>
@@ -8676,11 +8676,11 @@
       <c r="P54" s="356"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="517"/>
-      <c r="B55" s="526"/>
-      <c r="C55" s="517"/>
-      <c r="D55" s="523"/>
-      <c r="E55" s="517"/>
+      <c r="A55" s="514"/>
+      <c r="B55" s="522"/>
+      <c r="C55" s="514"/>
+      <c r="D55" s="533"/>
+      <c r="E55" s="514"/>
       <c r="F55" s="356" t="s">
         <v>170</v>
       </c>
@@ -8711,11 +8711,11 @@
       <c r="P55" s="356"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="517"/>
-      <c r="B56" s="526"/>
-      <c r="C56" s="517"/>
-      <c r="D56" s="523"/>
-      <c r="E56" s="517"/>
+      <c r="A56" s="514"/>
+      <c r="B56" s="522"/>
+      <c r="C56" s="514"/>
+      <c r="D56" s="533"/>
+      <c r="E56" s="514"/>
       <c r="F56" s="356" t="s">
         <v>174</v>
       </c>
@@ -8746,11 +8746,11 @@
       <c r="P56" s="356"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="517"/>
-      <c r="B57" s="526"/>
-      <c r="C57" s="517"/>
-      <c r="D57" s="523"/>
-      <c r="E57" s="517"/>
+      <c r="A57" s="514"/>
+      <c r="B57" s="522"/>
+      <c r="C57" s="514"/>
+      <c r="D57" s="533"/>
+      <c r="E57" s="514"/>
       <c r="F57" s="356" t="s">
         <v>176</v>
       </c>
@@ -8781,11 +8781,11 @@
       <c r="P57" s="356"/>
     </row>
     <row r="58" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="517"/>
-      <c r="B58" s="526"/>
-      <c r="C58" s="517"/>
-      <c r="D58" s="523"/>
-      <c r="E58" s="517"/>
+      <c r="A58" s="514"/>
+      <c r="B58" s="522"/>
+      <c r="C58" s="514"/>
+      <c r="D58" s="533"/>
+      <c r="E58" s="514"/>
       <c r="F58" s="356" t="s">
         <v>184</v>
       </c>
@@ -8816,11 +8816,11 @@
       <c r="P58" s="356"/>
     </row>
     <row r="59" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="518"/>
-      <c r="B59" s="527"/>
-      <c r="C59" s="518"/>
-      <c r="D59" s="524"/>
-      <c r="E59" s="518"/>
+      <c r="A59" s="511"/>
+      <c r="B59" s="519"/>
+      <c r="C59" s="511"/>
+      <c r="D59" s="534"/>
+      <c r="E59" s="511"/>
       <c r="F59" s="352" t="s">
         <v>185</v>
       </c>
@@ -8896,19 +8896,19 @@
       <c r="P60" s="353"/>
     </row>
     <row r="61" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="516">
+      <c r="A61" s="510">
         <v>645</v>
       </c>
-      <c r="B61" s="525">
+      <c r="B61" s="518">
         <v>44056</v>
       </c>
-      <c r="C61" s="516" t="s">
+      <c r="C61" s="510" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="522" t="s">
+      <c r="D61" s="532" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="516" t="s">
+      <c r="E61" s="510" t="s">
         <v>193</v>
       </c>
       <c r="F61" s="351" t="s">
@@ -8942,11 +8942,11 @@
       <c r="Q61" s="366"/>
     </row>
     <row r="62" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="517"/>
-      <c r="B62" s="526"/>
-      <c r="C62" s="517"/>
-      <c r="D62" s="523"/>
-      <c r="E62" s="517"/>
+      <c r="A62" s="514"/>
+      <c r="B62" s="522"/>
+      <c r="C62" s="514"/>
+      <c r="D62" s="533"/>
+      <c r="E62" s="514"/>
       <c r="F62" s="356" t="s">
         <v>173</v>
       </c>
@@ -8978,11 +8978,11 @@
       <c r="Q62" s="366"/>
     </row>
     <row r="63" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="517"/>
-      <c r="B63" s="526"/>
-      <c r="C63" s="517"/>
-      <c r="D63" s="523"/>
-      <c r="E63" s="517"/>
+      <c r="A63" s="514"/>
+      <c r="B63" s="522"/>
+      <c r="C63" s="514"/>
+      <c r="D63" s="533"/>
+      <c r="E63" s="514"/>
       <c r="F63" s="356" t="s">
         <v>183</v>
       </c>
@@ -9014,11 +9014,11 @@
       <c r="Q63" s="366"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="517"/>
-      <c r="B64" s="526"/>
-      <c r="C64" s="517"/>
-      <c r="D64" s="523"/>
-      <c r="E64" s="517"/>
+      <c r="A64" s="514"/>
+      <c r="B64" s="522"/>
+      <c r="C64" s="514"/>
+      <c r="D64" s="533"/>
+      <c r="E64" s="514"/>
       <c r="F64" s="356" t="s">
         <v>174</v>
       </c>
@@ -9050,11 +9050,11 @@
       <c r="Q64" s="366"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="517"/>
-      <c r="B65" s="526"/>
-      <c r="C65" s="517"/>
-      <c r="D65" s="523"/>
-      <c r="E65" s="517"/>
+      <c r="A65" s="514"/>
+      <c r="B65" s="522"/>
+      <c r="C65" s="514"/>
+      <c r="D65" s="533"/>
+      <c r="E65" s="514"/>
       <c r="F65" s="356" t="s">
         <v>176</v>
       </c>
@@ -9086,11 +9086,11 @@
       <c r="Q65" s="366"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="517"/>
-      <c r="B66" s="526"/>
-      <c r="C66" s="517"/>
-      <c r="D66" s="523"/>
-      <c r="E66" s="517"/>
+      <c r="A66" s="514"/>
+      <c r="B66" s="522"/>
+      <c r="C66" s="514"/>
+      <c r="D66" s="533"/>
+      <c r="E66" s="514"/>
       <c r="F66" s="356" t="s">
         <v>184</v>
       </c>
@@ -9122,11 +9122,11 @@
       <c r="Q66" s="366"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="518"/>
-      <c r="B67" s="527"/>
-      <c r="C67" s="518"/>
-      <c r="D67" s="524"/>
-      <c r="E67" s="518"/>
+      <c r="A67" s="511"/>
+      <c r="B67" s="519"/>
+      <c r="C67" s="511"/>
+      <c r="D67" s="534"/>
+      <c r="E67" s="511"/>
       <c r="F67" s="352" t="s">
         <v>185</v>
       </c>
@@ -9158,19 +9158,19 @@
       <c r="Q67" s="366"/>
     </row>
     <row r="68" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="516">
+      <c r="A68" s="510">
         <v>647</v>
       </c>
-      <c r="B68" s="525">
+      <c r="B68" s="518">
         <v>44056</v>
       </c>
-      <c r="C68" s="516" t="s">
+      <c r="C68" s="510" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="522" t="s">
+      <c r="D68" s="532" t="s">
         <v>197</v>
       </c>
-      <c r="E68" s="516" t="s">
+      <c r="E68" s="510" t="s">
         <v>198</v>
       </c>
       <c r="F68" s="351" t="s">
@@ -9200,17 +9200,17 @@
       </c>
       <c r="N68" s="362"/>
       <c r="O68" s="362"/>
-      <c r="P68" s="522" t="s">
+      <c r="P68" s="532" t="s">
         <v>199</v>
       </c>
       <c r="Q68" s="366"/>
     </row>
     <row r="69" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="518"/>
-      <c r="B69" s="527"/>
-      <c r="C69" s="518"/>
-      <c r="D69" s="524"/>
-      <c r="E69" s="518"/>
+      <c r="A69" s="511"/>
+      <c r="B69" s="519"/>
+      <c r="C69" s="511"/>
+      <c r="D69" s="534"/>
+      <c r="E69" s="511"/>
       <c r="F69" s="352" t="s">
         <v>173</v>
       </c>
@@ -9238,7 +9238,7 @@
       </c>
       <c r="N69" s="367"/>
       <c r="O69" s="367"/>
-      <c r="P69" s="524"/>
+      <c r="P69" s="534"/>
       <c r="Q69" s="366"/>
     </row>
     <row r="70" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -9283,19 +9283,19 @@
       <c r="Q70" s="366"/>
     </row>
     <row r="71" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="516">
+      <c r="A71" s="510">
         <v>650</v>
       </c>
-      <c r="B71" s="525">
+      <c r="B71" s="518">
         <v>44057</v>
       </c>
-      <c r="C71" s="516" t="s">
+      <c r="C71" s="510" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="522" t="s">
+      <c r="D71" s="532" t="s">
         <v>194</v>
       </c>
-      <c r="E71" s="516" t="s">
+      <c r="E71" s="510" t="s">
         <v>193</v>
       </c>
       <c r="F71" s="351" t="s">
@@ -9329,11 +9329,11 @@
       <c r="Q71" s="366"/>
     </row>
     <row r="72" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="517"/>
-      <c r="B72" s="526"/>
-      <c r="C72" s="517"/>
-      <c r="D72" s="523"/>
-      <c r="E72" s="517"/>
+      <c r="A72" s="514"/>
+      <c r="B72" s="522"/>
+      <c r="C72" s="514"/>
+      <c r="D72" s="533"/>
+      <c r="E72" s="514"/>
       <c r="F72" s="356" t="s">
         <v>173</v>
       </c>
@@ -9365,11 +9365,11 @@
       <c r="Q72" s="366"/>
     </row>
     <row r="73" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="517"/>
-      <c r="B73" s="526"/>
-      <c r="C73" s="517"/>
-      <c r="D73" s="523"/>
-      <c r="E73" s="517"/>
+      <c r="A73" s="514"/>
+      <c r="B73" s="522"/>
+      <c r="C73" s="514"/>
+      <c r="D73" s="533"/>
+      <c r="E73" s="514"/>
       <c r="F73" s="356" t="s">
         <v>183</v>
       </c>
@@ -9401,11 +9401,11 @@
       <c r="Q73" s="366"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="517"/>
-      <c r="B74" s="526"/>
-      <c r="C74" s="517"/>
-      <c r="D74" s="523"/>
-      <c r="E74" s="517"/>
+      <c r="A74" s="514"/>
+      <c r="B74" s="522"/>
+      <c r="C74" s="514"/>
+      <c r="D74" s="533"/>
+      <c r="E74" s="514"/>
       <c r="F74" s="356" t="s">
         <v>170</v>
       </c>
@@ -9437,11 +9437,11 @@
       <c r="Q74" s="366"/>
     </row>
     <row r="75" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="517"/>
-      <c r="B75" s="526"/>
-      <c r="C75" s="517"/>
-      <c r="D75" s="523"/>
-      <c r="E75" s="517"/>
+      <c r="A75" s="514"/>
+      <c r="B75" s="522"/>
+      <c r="C75" s="514"/>
+      <c r="D75" s="533"/>
+      <c r="E75" s="514"/>
       <c r="F75" s="356" t="s">
         <v>184</v>
       </c>
@@ -9473,11 +9473,11 @@
       <c r="Q75" s="366"/>
     </row>
     <row r="76" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="518"/>
-      <c r="B76" s="527"/>
-      <c r="C76" s="518"/>
-      <c r="D76" s="524"/>
-      <c r="E76" s="518"/>
+      <c r="A76" s="511"/>
+      <c r="B76" s="519"/>
+      <c r="C76" s="511"/>
+      <c r="D76" s="534"/>
+      <c r="E76" s="511"/>
       <c r="F76" s="352" t="s">
         <v>185</v>
       </c>
@@ -9509,17 +9509,17 @@
       <c r="Q76" s="366"/>
     </row>
     <row r="77" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="516">
+      <c r="A77" s="510">
         <v>751</v>
       </c>
-      <c r="B77" s="525">
+      <c r="B77" s="518">
         <v>44060</v>
       </c>
-      <c r="C77" s="516"/>
-      <c r="D77" s="522" t="s">
+      <c r="C77" s="510"/>
+      <c r="D77" s="532" t="s">
         <v>200</v>
       </c>
-      <c r="E77" s="516" t="s">
+      <c r="E77" s="510" t="s">
         <v>201</v>
       </c>
       <c r="F77" s="351" t="s">
@@ -9555,11 +9555,11 @@
       <c r="Q77" s="366"/>
     </row>
     <row r="78" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="517"/>
-      <c r="B78" s="526"/>
-      <c r="C78" s="517"/>
-      <c r="D78" s="523"/>
-      <c r="E78" s="517"/>
+      <c r="A78" s="514"/>
+      <c r="B78" s="522"/>
+      <c r="C78" s="514"/>
+      <c r="D78" s="533"/>
+      <c r="E78" s="514"/>
       <c r="F78" s="356" t="s">
         <v>172</v>
       </c>
@@ -9590,11 +9590,11 @@
       <c r="P78" s="404"/>
     </row>
     <row r="79" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="517"/>
-      <c r="B79" s="526"/>
-      <c r="C79" s="517"/>
-      <c r="D79" s="523"/>
-      <c r="E79" s="517"/>
+      <c r="A79" s="514"/>
+      <c r="B79" s="522"/>
+      <c r="C79" s="514"/>
+      <c r="D79" s="533"/>
+      <c r="E79" s="514"/>
       <c r="F79" s="356" t="s">
         <v>170</v>
       </c>
@@ -9625,11 +9625,11 @@
       <c r="P79" s="404"/>
     </row>
     <row r="80" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="518"/>
-      <c r="B80" s="527"/>
-      <c r="C80" s="518"/>
-      <c r="D80" s="524"/>
-      <c r="E80" s="518"/>
+      <c r="A80" s="511"/>
+      <c r="B80" s="519"/>
+      <c r="C80" s="511"/>
+      <c r="D80" s="534"/>
+      <c r="E80" s="511"/>
       <c r="F80" s="352" t="s">
         <v>185</v>
       </c>
@@ -9750,17 +9750,17 @@
       <c r="P82" s="407"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="516">
+      <c r="A83" s="510">
         <v>757</v>
       </c>
-      <c r="B83" s="519">
+      <c r="B83" s="512">
         <v>44061</v>
       </c>
-      <c r="C83" s="516"/>
-      <c r="D83" s="516" t="s">
+      <c r="C83" s="510"/>
+      <c r="D83" s="510" t="s">
         <v>206</v>
       </c>
-      <c r="E83" s="516" t="s">
+      <c r="E83" s="510" t="s">
         <v>207</v>
       </c>
       <c r="F83" s="351" t="s">
@@ -9793,11 +9793,11 @@
       <c r="P83" s="394"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="517"/>
-      <c r="B84" s="520"/>
-      <c r="C84" s="517"/>
-      <c r="D84" s="517"/>
-      <c r="E84" s="517"/>
+      <c r="A84" s="514"/>
+      <c r="B84" s="515"/>
+      <c r="C84" s="514"/>
+      <c r="D84" s="514"/>
+      <c r="E84" s="514"/>
       <c r="F84" s="356" t="s">
         <v>173</v>
       </c>
@@ -9828,11 +9828,11 @@
       <c r="P84" s="404"/>
     </row>
     <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="517"/>
-      <c r="B85" s="520"/>
-      <c r="C85" s="517"/>
-      <c r="D85" s="517"/>
-      <c r="E85" s="517"/>
+      <c r="A85" s="514"/>
+      <c r="B85" s="515"/>
+      <c r="C85" s="514"/>
+      <c r="D85" s="514"/>
+      <c r="E85" s="514"/>
       <c r="F85" s="356" t="s">
         <v>183</v>
       </c>
@@ -9863,11 +9863,11 @@
       <c r="P85" s="404"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="517"/>
-      <c r="B86" s="520"/>
-      <c r="C86" s="517"/>
-      <c r="D86" s="517"/>
-      <c r="E86" s="517"/>
+      <c r="A86" s="514"/>
+      <c r="B86" s="515"/>
+      <c r="C86" s="514"/>
+      <c r="D86" s="514"/>
+      <c r="E86" s="514"/>
       <c r="F86" s="356" t="s">
         <v>170</v>
       </c>
@@ -9898,11 +9898,11 @@
       <c r="P86" s="404"/>
     </row>
     <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="517"/>
-      <c r="B87" s="520"/>
-      <c r="C87" s="517"/>
-      <c r="D87" s="517"/>
-      <c r="E87" s="517"/>
+      <c r="A87" s="514"/>
+      <c r="B87" s="515"/>
+      <c r="C87" s="514"/>
+      <c r="D87" s="514"/>
+      <c r="E87" s="514"/>
       <c r="F87" s="356" t="s">
         <v>184</v>
       </c>
@@ -9933,11 +9933,11 @@
       <c r="P87" s="356"/>
     </row>
     <row r="88" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="518"/>
-      <c r="B88" s="521"/>
-      <c r="C88" s="518"/>
-      <c r="D88" s="518"/>
-      <c r="E88" s="518"/>
+      <c r="A88" s="511"/>
+      <c r="B88" s="513"/>
+      <c r="C88" s="511"/>
+      <c r="D88" s="511"/>
+      <c r="E88" s="511"/>
       <c r="F88" s="352" t="s">
         <v>185</v>
       </c>
@@ -9968,17 +9968,17 @@
       <c r="P88" s="352"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="510">
+      <c r="A89" s="516">
         <v>761</v>
       </c>
-      <c r="B89" s="535">
+      <c r="B89" s="520">
         <v>44063</v>
       </c>
-      <c r="C89" s="510"/>
-      <c r="D89" s="510" t="s">
+      <c r="C89" s="516"/>
+      <c r="D89" s="516" t="s">
         <v>200</v>
       </c>
-      <c r="E89" s="510" t="s">
+      <c r="E89" s="516" t="s">
         <v>201</v>
       </c>
       <c r="F89" s="351" t="s">
@@ -10013,11 +10013,11 @@
       <c r="P89" s="346"/>
     </row>
     <row r="90" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="511"/>
-      <c r="B90" s="536"/>
-      <c r="C90" s="511"/>
-      <c r="D90" s="511"/>
-      <c r="E90" s="511"/>
+      <c r="A90" s="526"/>
+      <c r="B90" s="527"/>
+      <c r="C90" s="526"/>
+      <c r="D90" s="526"/>
+      <c r="E90" s="526"/>
       <c r="F90" s="354" t="s">
         <v>183</v>
       </c>
@@ -10048,19 +10048,19 @@
       <c r="P90" s="408"/>
     </row>
     <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="516">
+      <c r="A91" s="510">
         <v>762</v>
       </c>
-      <c r="B91" s="519">
+      <c r="B91" s="512">
         <v>44063</v>
       </c>
-      <c r="C91" s="516" t="s">
+      <c r="C91" s="510" t="s">
         <v>187</v>
       </c>
-      <c r="D91" s="516" t="s">
+      <c r="D91" s="510" t="s">
         <v>208</v>
       </c>
-      <c r="E91" s="516"/>
+      <c r="E91" s="510"/>
       <c r="F91" s="351" t="s">
         <v>189</v>
       </c>
@@ -10091,11 +10091,11 @@
       <c r="P91" s="346"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="517"/>
-      <c r="B92" s="520"/>
-      <c r="C92" s="517"/>
-      <c r="D92" s="517"/>
-      <c r="E92" s="517"/>
+      <c r="A92" s="514"/>
+      <c r="B92" s="515"/>
+      <c r="C92" s="514"/>
+      <c r="D92" s="514"/>
+      <c r="E92" s="514"/>
       <c r="F92" s="356" t="s">
         <v>172</v>
       </c>
@@ -10126,11 +10126,11 @@
       <c r="P92" s="356"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="517"/>
-      <c r="B93" s="520"/>
-      <c r="C93" s="517"/>
-      <c r="D93" s="517"/>
-      <c r="E93" s="517"/>
+      <c r="A93" s="514"/>
+      <c r="B93" s="515"/>
+      <c r="C93" s="514"/>
+      <c r="D93" s="514"/>
+      <c r="E93" s="514"/>
       <c r="F93" s="356" t="s">
         <v>173</v>
       </c>
@@ -10161,11 +10161,11 @@
       <c r="P93" s="343"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="518"/>
-      <c r="B94" s="521"/>
-      <c r="C94" s="518"/>
-      <c r="D94" s="518"/>
-      <c r="E94" s="518"/>
+      <c r="A94" s="511"/>
+      <c r="B94" s="513"/>
+      <c r="C94" s="511"/>
+      <c r="D94" s="511"/>
+      <c r="E94" s="511"/>
       <c r="F94" s="352" t="s">
         <v>185</v>
       </c>
@@ -10196,17 +10196,17 @@
       <c r="P94" s="345"/>
     </row>
     <row r="95" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="516">
+      <c r="A95" s="510">
         <v>763</v>
       </c>
-      <c r="B95" s="519">
+      <c r="B95" s="512">
         <v>44063</v>
       </c>
-      <c r="C95" s="516"/>
-      <c r="D95" s="516" t="s">
+      <c r="C95" s="510"/>
+      <c r="D95" s="510" t="s">
         <v>179</v>
       </c>
-      <c r="E95" s="516" t="s">
+      <c r="E95" s="510" t="s">
         <v>180</v>
       </c>
       <c r="F95" s="351" t="s">
@@ -10239,11 +10239,11 @@
       <c r="P95" s="346"/>
     </row>
     <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="517"/>
-      <c r="B96" s="520"/>
-      <c r="C96" s="517"/>
-      <c r="D96" s="517"/>
-      <c r="E96" s="517"/>
+      <c r="A96" s="514"/>
+      <c r="B96" s="515"/>
+      <c r="C96" s="514"/>
+      <c r="D96" s="514"/>
+      <c r="E96" s="514"/>
       <c r="F96" s="356" t="s">
         <v>172</v>
       </c>
@@ -10274,11 +10274,11 @@
       <c r="P96" s="343"/>
     </row>
     <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="518"/>
-      <c r="B97" s="521"/>
-      <c r="C97" s="518"/>
-      <c r="D97" s="518"/>
-      <c r="E97" s="518"/>
+      <c r="A97" s="511"/>
+      <c r="B97" s="513"/>
+      <c r="C97" s="511"/>
+      <c r="D97" s="511"/>
+      <c r="E97" s="511"/>
       <c r="F97" s="352" t="s">
         <v>170</v>
       </c>
@@ -10309,17 +10309,17 @@
       <c r="P97" s="345"/>
     </row>
     <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="510">
+      <c r="A98" s="516">
         <v>764</v>
       </c>
-      <c r="B98" s="535">
+      <c r="B98" s="520">
         <v>44065</v>
       </c>
-      <c r="C98" s="510"/>
-      <c r="D98" s="510" t="s">
+      <c r="C98" s="516"/>
+      <c r="D98" s="516" t="s">
         <v>179</v>
       </c>
-      <c r="E98" s="510" t="s">
+      <c r="E98" s="516" t="s">
         <v>180</v>
       </c>
       <c r="F98" s="355" t="s">
@@ -10352,11 +10352,11 @@
       <c r="P98" s="360"/>
     </row>
     <row r="99" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="511"/>
-      <c r="B99" s="536"/>
-      <c r="C99" s="511"/>
-      <c r="D99" s="511"/>
-      <c r="E99" s="511"/>
+      <c r="A99" s="526"/>
+      <c r="B99" s="527"/>
+      <c r="C99" s="526"/>
+      <c r="D99" s="526"/>
+      <c r="E99" s="526"/>
       <c r="F99" s="356" t="s">
         <v>173</v>
       </c>
@@ -10387,11 +10387,11 @@
       <c r="P99" s="360"/>
     </row>
     <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="511"/>
-      <c r="B100" s="536"/>
-      <c r="C100" s="511"/>
-      <c r="D100" s="511"/>
-      <c r="E100" s="511"/>
+      <c r="A100" s="526"/>
+      <c r="B100" s="527"/>
+      <c r="C100" s="526"/>
+      <c r="D100" s="526"/>
+      <c r="E100" s="526"/>
       <c r="F100" s="356" t="s">
         <v>183</v>
       </c>
@@ -10422,11 +10422,11 @@
       <c r="P100" s="360"/>
     </row>
     <row r="101" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="528"/>
-      <c r="B101" s="537"/>
-      <c r="C101" s="528"/>
-      <c r="D101" s="528"/>
-      <c r="E101" s="528"/>
+      <c r="A101" s="517"/>
+      <c r="B101" s="521"/>
+      <c r="C101" s="517"/>
+      <c r="D101" s="517"/>
+      <c r="E101" s="517"/>
       <c r="F101" s="352" t="s">
         <v>185</v>
       </c>
@@ -10457,17 +10457,17 @@
       <c r="P101" s="375"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="510">
+      <c r="A102" s="516">
         <v>768</v>
       </c>
-      <c r="B102" s="535">
+      <c r="B102" s="520">
         <v>44065</v>
       </c>
-      <c r="C102" s="510"/>
-      <c r="D102" s="510" t="s">
+      <c r="C102" s="516"/>
+      <c r="D102" s="516" t="s">
         <v>220</v>
       </c>
-      <c r="E102" s="510" t="s">
+      <c r="E102" s="516" t="s">
         <v>180</v>
       </c>
       <c r="F102" s="351" t="s">
@@ -10498,11 +10498,11 @@
       <c r="P102" s="342"/>
     </row>
     <row r="103" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="511"/>
-      <c r="B103" s="536"/>
-      <c r="C103" s="511"/>
-      <c r="D103" s="511"/>
-      <c r="E103" s="511"/>
+      <c r="A103" s="526"/>
+      <c r="B103" s="527"/>
+      <c r="C103" s="526"/>
+      <c r="D103" s="526"/>
+      <c r="E103" s="526"/>
       <c r="F103" s="356" t="s">
         <v>172</v>
       </c>
@@ -10531,11 +10531,11 @@
       <c r="P103" s="360"/>
     </row>
     <row r="104" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="511"/>
-      <c r="B104" s="536"/>
-      <c r="C104" s="511"/>
-      <c r="D104" s="511"/>
-      <c r="E104" s="511"/>
+      <c r="A104" s="526"/>
+      <c r="B104" s="527"/>
+      <c r="C104" s="526"/>
+      <c r="D104" s="526"/>
+      <c r="E104" s="526"/>
       <c r="F104" s="354" t="s">
         <v>174</v>
       </c>
@@ -10564,17 +10564,17 @@
       <c r="P104" s="360"/>
     </row>
     <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="510">
+      <c r="A105" s="516">
         <v>773</v>
       </c>
-      <c r="B105" s="535">
+      <c r="B105" s="520">
         <v>44066</v>
       </c>
-      <c r="C105" s="510"/>
-      <c r="D105" s="510" t="s">
+      <c r="C105" s="516"/>
+      <c r="D105" s="516" t="s">
         <v>276</v>
       </c>
-      <c r="E105" s="510" t="s">
+      <c r="E105" s="516" t="s">
         <v>277</v>
       </c>
       <c r="F105" s="351" t="s">
@@ -10607,11 +10607,11 @@
       <c r="P105" s="346"/>
     </row>
     <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="528"/>
-      <c r="B106" s="537"/>
-      <c r="C106" s="528"/>
-      <c r="D106" s="528"/>
-      <c r="E106" s="528"/>
+      <c r="A106" s="517"/>
+      <c r="B106" s="521"/>
+      <c r="C106" s="517"/>
+      <c r="D106" s="517"/>
+      <c r="E106" s="517"/>
       <c r="F106" s="352" t="s">
         <v>278</v>
       </c>
@@ -10619,11 +10619,11 @@
         <v>120</v>
       </c>
       <c r="H106" s="367">
-        <v>285000</v>
+        <v>255000</v>
       </c>
       <c r="I106" s="367">
         <f t="shared" si="3"/>
-        <v>34200000</v>
+        <v>30600000</v>
       </c>
       <c r="J106" s="367"/>
       <c r="K106" s="368">
@@ -10631,30 +10631,30 @@
       </c>
       <c r="L106" s="367">
         <f t="shared" si="15"/>
-        <v>17100000</v>
+        <v>15300000</v>
       </c>
       <c r="M106" s="367"/>
       <c r="N106" s="367"/>
       <c r="O106" s="367">
         <f t="shared" si="17"/>
-        <v>17100000</v>
+        <v>15300000</v>
       </c>
       <c r="P106" s="345"/>
     </row>
     <row r="107" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="530">
+      <c r="A107" s="556">
         <v>769</v>
       </c>
-      <c r="B107" s="538">
+      <c r="B107" s="557">
         <v>44068</v>
       </c>
-      <c r="C107" s="530" t="s">
+      <c r="C107" s="556" t="s">
         <v>187</v>
       </c>
-      <c r="D107" s="530" t="s">
+      <c r="D107" s="556" t="s">
         <v>208</v>
       </c>
-      <c r="E107" s="530"/>
+      <c r="E107" s="556"/>
       <c r="F107" s="344" t="s">
         <v>189</v>
       </c>
@@ -10685,11 +10685,11 @@
       <c r="P107" s="422"/>
     </row>
     <row r="108" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="530"/>
-      <c r="B108" s="538"/>
-      <c r="C108" s="530"/>
-      <c r="D108" s="530"/>
-      <c r="E108" s="530"/>
+      <c r="A108" s="556"/>
+      <c r="B108" s="557"/>
+      <c r="C108" s="556"/>
+      <c r="D108" s="556"/>
+      <c r="E108" s="556"/>
       <c r="F108" s="344" t="s">
         <v>172</v>
       </c>
@@ -10720,11 +10720,11 @@
       <c r="P108" s="422"/>
     </row>
     <row r="109" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="530"/>
-      <c r="B109" s="538"/>
-      <c r="C109" s="530"/>
-      <c r="D109" s="530"/>
-      <c r="E109" s="530"/>
+      <c r="A109" s="556"/>
+      <c r="B109" s="557"/>
+      <c r="C109" s="556"/>
+      <c r="D109" s="556"/>
+      <c r="E109" s="556"/>
       <c r="F109" s="344" t="s">
         <v>221</v>
       </c>
@@ -10755,11 +10755,11 @@
       <c r="P109" s="422"/>
     </row>
     <row r="110" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="530"/>
-      <c r="B110" s="538"/>
-      <c r="C110" s="530"/>
-      <c r="D110" s="530"/>
-      <c r="E110" s="530"/>
+      <c r="A110" s="556"/>
+      <c r="B110" s="557"/>
+      <c r="C110" s="556"/>
+      <c r="D110" s="556"/>
+      <c r="E110" s="556"/>
       <c r="F110" s="344" t="s">
         <v>170</v>
       </c>
@@ -10790,11 +10790,11 @@
       <c r="P110" s="422"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="530"/>
-      <c r="B111" s="538"/>
-      <c r="C111" s="530"/>
-      <c r="D111" s="530"/>
-      <c r="E111" s="530"/>
+      <c r="A111" s="556"/>
+      <c r="B111" s="557"/>
+      <c r="C111" s="556"/>
+      <c r="D111" s="556"/>
+      <c r="E111" s="556"/>
       <c r="F111" s="344" t="s">
         <v>176</v>
       </c>
@@ -10825,11 +10825,11 @@
       <c r="P111" s="344"/>
     </row>
     <row r="112" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="530"/>
-      <c r="B112" s="538"/>
-      <c r="C112" s="530"/>
-      <c r="D112" s="530"/>
-      <c r="E112" s="530"/>
+      <c r="A112" s="556"/>
+      <c r="B112" s="557"/>
+      <c r="C112" s="556"/>
+      <c r="D112" s="556"/>
+      <c r="E112" s="556"/>
       <c r="F112" s="344" t="s">
         <v>185</v>
       </c>
@@ -10901,19 +10901,19 @@
       <c r="P113" s="344"/>
     </row>
     <row r="114" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="516">
+      <c r="A114" s="510">
         <v>777</v>
       </c>
-      <c r="B114" s="519">
+      <c r="B114" s="512">
         <v>44070</v>
       </c>
-      <c r="C114" s="516" t="s">
+      <c r="C114" s="510" t="s">
         <v>167</v>
       </c>
-      <c r="D114" s="516" t="s">
+      <c r="D114" s="510" t="s">
         <v>280</v>
       </c>
-      <c r="E114" s="516" t="s">
+      <c r="E114" s="510" t="s">
         <v>281</v>
       </c>
       <c r="F114" s="351" t="s">
@@ -10946,11 +10946,11 @@
       <c r="P114" s="351"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="518"/>
-      <c r="B115" s="521"/>
-      <c r="C115" s="518"/>
-      <c r="D115" s="518"/>
-      <c r="E115" s="518"/>
+      <c r="A115" s="511"/>
+      <c r="B115" s="513"/>
+      <c r="C115" s="511"/>
+      <c r="D115" s="511"/>
+      <c r="E115" s="511"/>
       <c r="F115" s="352" t="s">
         <v>185</v>
       </c>
@@ -11063,19 +11063,19 @@
       <c r="P117" s="344"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="516">
+      <c r="A118" s="510">
         <v>780</v>
       </c>
-      <c r="B118" s="519">
+      <c r="B118" s="512">
         <v>44071</v>
       </c>
-      <c r="C118" s="516" t="s">
+      <c r="C118" s="510" t="s">
         <v>187</v>
       </c>
-      <c r="D118" s="516" t="s">
+      <c r="D118" s="510" t="s">
         <v>283</v>
       </c>
-      <c r="E118" s="516"/>
+      <c r="E118" s="510"/>
       <c r="F118" s="351" t="s">
         <v>172</v>
       </c>
@@ -11106,11 +11106,11 @@
       <c r="P118" s="351"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="517"/>
-      <c r="B119" s="520"/>
-      <c r="C119" s="517"/>
-      <c r="D119" s="517"/>
-      <c r="E119" s="517"/>
+      <c r="A119" s="514"/>
+      <c r="B119" s="515"/>
+      <c r="C119" s="514"/>
+      <c r="D119" s="514"/>
+      <c r="E119" s="514"/>
       <c r="F119" s="356" t="s">
         <v>173</v>
       </c>
@@ -11141,11 +11141,11 @@
       <c r="P119" s="356"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="517"/>
-      <c r="B120" s="520"/>
-      <c r="C120" s="517"/>
-      <c r="D120" s="517"/>
-      <c r="E120" s="517"/>
+      <c r="A120" s="514"/>
+      <c r="B120" s="515"/>
+      <c r="C120" s="514"/>
+      <c r="D120" s="514"/>
+      <c r="E120" s="514"/>
       <c r="F120" s="356" t="s">
         <v>183</v>
       </c>
@@ -11176,11 +11176,11 @@
       <c r="P120" s="356"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="518"/>
-      <c r="B121" s="521"/>
-      <c r="C121" s="518"/>
-      <c r="D121" s="518"/>
-      <c r="E121" s="518"/>
+      <c r="A121" s="511"/>
+      <c r="B121" s="513"/>
+      <c r="C121" s="511"/>
+      <c r="D121" s="511"/>
+      <c r="E121" s="511"/>
       <c r="F121" s="352" t="s">
         <v>170</v>
       </c>
@@ -11252,14 +11252,14 @@
       <c r="P122" s="401"/>
     </row>
     <row r="123" spans="1:17" s="222" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A123" s="532" t="s">
+      <c r="A123" s="553" t="s">
         <v>76</v>
       </c>
-      <c r="B123" s="532"/>
-      <c r="C123" s="532"/>
-      <c r="D123" s="532"/>
-      <c r="E123" s="532"/>
-      <c r="F123" s="532"/>
+      <c r="B123" s="553"/>
+      <c r="C123" s="553"/>
+      <c r="D123" s="553"/>
+      <c r="E123" s="553"/>
+      <c r="F123" s="553"/>
       <c r="G123" s="262">
         <f>SUM(G13:G122)</f>
         <v>3212</v>
@@ -11267,29 +11267,29 @@
       <c r="H123" s="263"/>
       <c r="I123" s="264">
         <f>SUM(I13:I122)</f>
-        <v>1435540000</v>
+        <v>1431940000</v>
       </c>
       <c r="J123" s="265"/>
       <c r="K123" s="266"/>
       <c r="L123" s="267">
         <f>SUM(L13:L122)</f>
-        <v>780050100</v>
+        <v>778250100</v>
       </c>
       <c r="M123" s="268"/>
       <c r="N123" s="268"/>
       <c r="O123" s="268"/>
-      <c r="P123" s="533"/>
-      <c r="Q123" s="534"/>
+      <c r="P123" s="554"/>
+      <c r="Q123" s="555"/>
     </row>
     <row r="124" spans="1:17" s="222" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A124" s="531" t="s">
+      <c r="A124" s="552" t="s">
         <v>128</v>
       </c>
-      <c r="B124" s="531"/>
-      <c r="C124" s="531"/>
-      <c r="D124" s="531"/>
-      <c r="E124" s="531"/>
-      <c r="F124" s="531"/>
+      <c r="B124" s="552"/>
+      <c r="C124" s="552"/>
+      <c r="D124" s="552"/>
+      <c r="E124" s="552"/>
+      <c r="F124" s="552"/>
       <c r="G124" s="216">
         <f>G123</f>
         <v>3212</v>
@@ -11300,23 +11300,23 @@
       <c r="K124" s="220"/>
       <c r="L124" s="221">
         <f>L123</f>
-        <v>780050100</v>
+        <v>778250100</v>
       </c>
       <c r="M124" s="219"/>
       <c r="N124" s="219"/>
       <c r="O124" s="219"/>
-      <c r="P124" s="533"/>
-      <c r="Q124" s="534"/>
+      <c r="P124" s="554"/>
+      <c r="Q124" s="555"/>
     </row>
     <row r="125" spans="1:17" s="222" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A125" s="531" t="s">
+      <c r="A125" s="552" t="s">
         <v>77</v>
       </c>
-      <c r="B125" s="531"/>
-      <c r="C125" s="531"/>
-      <c r="D125" s="531"/>
-      <c r="E125" s="531"/>
-      <c r="F125" s="531"/>
+      <c r="B125" s="552"/>
+      <c r="C125" s="552"/>
+      <c r="D125" s="552"/>
+      <c r="E125" s="552"/>
+      <c r="F125" s="552"/>
       <c r="G125" s="223" t="s">
         <v>49</v>
       </c>
@@ -11333,14 +11333,14 @@
       <c r="O125" s="219"/>
     </row>
     <row r="126" spans="1:17" s="222" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A126" s="531" t="s">
+      <c r="A126" s="552" t="s">
         <v>78</v>
       </c>
-      <c r="B126" s="531"/>
-      <c r="C126" s="531"/>
-      <c r="D126" s="531"/>
-      <c r="E126" s="531"/>
-      <c r="F126" s="531"/>
+      <c r="B126" s="552"/>
+      <c r="C126" s="552"/>
+      <c r="D126" s="552"/>
+      <c r="E126" s="552"/>
+      <c r="F126" s="552"/>
       <c r="G126" s="223"/>
       <c r="H126" s="244"/>
       <c r="I126" s="217"/>
@@ -11355,14 +11355,14 @@
       <c r="O126" s="219"/>
     </row>
     <row r="127" spans="1:17" s="222" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A127" s="531" t="s">
+      <c r="A127" s="552" t="s">
         <v>79</v>
       </c>
-      <c r="B127" s="531"/>
-      <c r="C127" s="531"/>
-      <c r="D127" s="531"/>
-      <c r="E127" s="531"/>
-      <c r="F127" s="531"/>
+      <c r="B127" s="552"/>
+      <c r="C127" s="552"/>
+      <c r="D127" s="552"/>
+      <c r="E127" s="552"/>
+      <c r="F127" s="552"/>
       <c r="G127" s="223"/>
       <c r="H127" s="244"/>
       <c r="I127" s="217"/>
@@ -11370,7 +11370,7 @@
       <c r="K127" s="220"/>
       <c r="L127" s="221">
         <f>SUM(O13:O122)</f>
-        <v>652384900</v>
+        <v>650584900</v>
       </c>
       <c r="M127" s="219"/>
       <c r="N127" s="219"/>
@@ -11438,16 +11438,127 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="155">
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="D61:D67"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="E91:E94"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="P123:P124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="Q123:Q124"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="D107:D112"/>
+    <mergeCell ref="C107:C112"/>
+    <mergeCell ref="E107:E112"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="E51:E59"/>
+    <mergeCell ref="D51:D59"/>
+    <mergeCell ref="C51:C59"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="D47:D48"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
@@ -11472,127 +11583,16 @@
     <mergeCell ref="D102:D104"/>
     <mergeCell ref="C102:C104"/>
     <mergeCell ref="B102:B104"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="E51:E59"/>
-    <mergeCell ref="D51:D59"/>
-    <mergeCell ref="C51:C59"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="P123:P124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="Q123:Q124"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="D107:D112"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="E107:E112"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="C61:C67"/>
-    <mergeCell ref="D61:D67"/>
-    <mergeCell ref="E61:E67"/>
-    <mergeCell ref="E91:E94"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E118:E121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11625,93 +11625,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="558" t="s">
+      <c r="A1" s="576" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="558"/>
-      <c r="C1" s="558"/>
-      <c r="D1" s="558"/>
+      <c r="B1" s="576"/>
+      <c r="C1" s="576"/>
+      <c r="D1" s="576"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="559" t="s">
+      <c r="A2" s="577" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="559"/>
-      <c r="C2" s="559"/>
-      <c r="D2" s="559"/>
+      <c r="B2" s="577"/>
+      <c r="C2" s="577"/>
+      <c r="D2" s="577"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="572" t="s">
+      <c r="A3" s="584" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="572"/>
-      <c r="C3" s="572"/>
-      <c r="D3" s="572"/>
-      <c r="E3" s="572"/>
-      <c r="F3" s="572"/>
-      <c r="G3" s="572"/>
-      <c r="H3" s="572"/>
-      <c r="I3" s="572"/>
-      <c r="J3" s="572"/>
-      <c r="K3" s="572"/>
-      <c r="L3" s="572"/>
-      <c r="M3" s="572"/>
-      <c r="N3" s="572"/>
+      <c r="B3" s="584"/>
+      <c r="C3" s="584"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="584"/>
+      <c r="F3" s="584"/>
+      <c r="G3" s="584"/>
+      <c r="H3" s="584"/>
+      <c r="I3" s="584"/>
+      <c r="J3" s="584"/>
+      <c r="K3" s="584"/>
+      <c r="L3" s="584"/>
+      <c r="M3" s="584"/>
+      <c r="N3" s="584"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="573" t="s">
+      <c r="A4" s="585" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="573"/>
-      <c r="C4" s="573"/>
-      <c r="D4" s="573"/>
-      <c r="E4" s="573"/>
-      <c r="F4" s="573"/>
-      <c r="G4" s="573"/>
-      <c r="H4" s="573"/>
-      <c r="I4" s="574"/>
-      <c r="J4" s="573"/>
-      <c r="K4" s="573"/>
-      <c r="L4" s="573"/>
-      <c r="M4" s="573"/>
-      <c r="N4" s="573"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="585"/>
+      <c r="D4" s="585"/>
+      <c r="E4" s="585"/>
+      <c r="F4" s="585"/>
+      <c r="G4" s="585"/>
+      <c r="H4" s="585"/>
+      <c r="I4" s="586"/>
+      <c r="J4" s="585"/>
+      <c r="K4" s="585"/>
+      <c r="L4" s="585"/>
+      <c r="M4" s="585"/>
+      <c r="N4" s="585"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="575" t="s">
+      <c r="A5" s="587" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="572" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="576" t="s">
+      <c r="C5" s="565" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="584" t="s">
+      <c r="E5" s="573" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="584"/>
-      <c r="G5" s="584"/>
-      <c r="H5" s="584"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586" t="s">
+      <c r="F5" s="573"/>
+      <c r="G5" s="573"/>
+      <c r="H5" s="573"/>
+      <c r="I5" s="574"/>
+      <c r="J5" s="575" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="584" t="s">
+      <c r="K5" s="573" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="584"/>
-      <c r="M5" s="584"/>
-      <c r="N5" s="576" t="s">
+      <c r="L5" s="573"/>
+      <c r="M5" s="573"/>
+      <c r="N5" s="565" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="575"/>
-      <c r="B6" s="583"/>
-      <c r="C6" s="576"/>
+      <c r="A6" s="587"/>
+      <c r="B6" s="572"/>
+      <c r="C6" s="565"/>
       <c r="D6" s="237" t="s">
         <v>41</v>
       </c>
@@ -11730,7 +11730,7 @@
       <c r="I6" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="586"/>
+      <c r="J6" s="575"/>
       <c r="K6" s="237" t="s">
         <v>45</v>
       </c>
@@ -11740,7 +11740,7 @@
       <c r="M6" s="237" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="576"/>
+      <c r="N6" s="565"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="419">
@@ -11784,16 +11784,16 @@
       <c r="N7" s="291"/>
     </row>
     <row r="8" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="566">
+      <c r="A8" s="578">
         <v>656</v>
       </c>
-      <c r="B8" s="560">
+      <c r="B8" s="562">
         <v>44053</v>
       </c>
-      <c r="C8" s="569" t="s">
+      <c r="C8" s="581" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="569" t="s">
+      <c r="D8" s="581" t="s">
         <v>179</v>
       </c>
       <c r="E8" s="329" t="s">
@@ -11826,10 +11826,10 @@
       <c r="Q8" s="215"/>
     </row>
     <row r="9" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="568"/>
-      <c r="B9" s="561"/>
-      <c r="C9" s="570"/>
-      <c r="D9" s="570"/>
+      <c r="A9" s="580"/>
+      <c r="B9" s="564"/>
+      <c r="C9" s="582"/>
+      <c r="D9" s="582"/>
       <c r="E9" s="330" t="s">
         <v>173</v>
       </c>
@@ -11860,10 +11860,10 @@
       <c r="Q9" s="215"/>
     </row>
     <row r="10" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="568"/>
-      <c r="B10" s="561"/>
-      <c r="C10" s="570"/>
-      <c r="D10" s="570"/>
+      <c r="A10" s="580"/>
+      <c r="B10" s="564"/>
+      <c r="C10" s="582"/>
+      <c r="D10" s="582"/>
       <c r="E10" s="330" t="s">
         <v>183</v>
       </c>
@@ -11894,10 +11894,10 @@
       <c r="Q10" s="215"/>
     </row>
     <row r="11" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="568"/>
-      <c r="B11" s="561"/>
-      <c r="C11" s="570"/>
-      <c r="D11" s="570"/>
+      <c r="A11" s="580"/>
+      <c r="B11" s="564"/>
+      <c r="C11" s="582"/>
+      <c r="D11" s="582"/>
       <c r="E11" s="330" t="s">
         <v>170</v>
       </c>
@@ -11928,10 +11928,10 @@
       <c r="Q11" s="215"/>
     </row>
     <row r="12" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="568"/>
-      <c r="B12" s="561"/>
-      <c r="C12" s="570"/>
-      <c r="D12" s="570"/>
+      <c r="A12" s="580"/>
+      <c r="B12" s="564"/>
+      <c r="C12" s="582"/>
+      <c r="D12" s="582"/>
       <c r="E12" s="330" t="s">
         <v>174</v>
       </c>
@@ -11962,10 +11962,10 @@
       <c r="Q12" s="215"/>
     </row>
     <row r="13" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="568"/>
-      <c r="B13" s="561"/>
-      <c r="C13" s="570"/>
-      <c r="D13" s="570"/>
+      <c r="A13" s="580"/>
+      <c r="B13" s="564"/>
+      <c r="C13" s="582"/>
+      <c r="D13" s="582"/>
       <c r="E13" s="330" t="s">
         <v>176</v>
       </c>
@@ -11996,10 +11996,10 @@
       <c r="Q13" s="215"/>
     </row>
     <row r="14" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="568"/>
-      <c r="B14" s="561"/>
-      <c r="C14" s="570"/>
-      <c r="D14" s="570"/>
+      <c r="A14" s="580"/>
+      <c r="B14" s="564"/>
+      <c r="C14" s="582"/>
+      <c r="D14" s="582"/>
       <c r="E14" s="330" t="s">
         <v>184</v>
       </c>
@@ -12030,10 +12030,10 @@
       <c r="Q14" s="215"/>
     </row>
     <row r="15" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="567"/>
-      <c r="B15" s="562"/>
-      <c r="C15" s="571"/>
-      <c r="D15" s="571"/>
+      <c r="A15" s="579"/>
+      <c r="B15" s="563"/>
+      <c r="C15" s="583"/>
+      <c r="D15" s="583"/>
       <c r="E15" s="331" t="s">
         <v>185</v>
       </c>
@@ -12104,14 +12104,14 @@
       <c r="Q16" s="215"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="566">
+      <c r="A17" s="578">
         <v>642</v>
       </c>
-      <c r="B17" s="560">
+      <c r="B17" s="562">
         <v>44056</v>
       </c>
-      <c r="C17" s="563"/>
-      <c r="D17" s="563" t="s">
+      <c r="C17" s="559"/>
+      <c r="D17" s="559" t="s">
         <v>179</v>
       </c>
       <c r="E17" s="142" t="s">
@@ -12143,10 +12143,10 @@
       <c r="N17" s="145"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="567"/>
-      <c r="B18" s="562"/>
-      <c r="C18" s="565"/>
-      <c r="D18" s="565"/>
+      <c r="A18" s="579"/>
+      <c r="B18" s="563"/>
+      <c r="C18" s="561"/>
+      <c r="D18" s="561"/>
       <c r="E18" s="151" t="s">
         <v>184</v>
       </c>
@@ -12256,14 +12256,14 @@
       <c r="N20" s="146"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="581">
+      <c r="A21" s="570">
         <v>776</v>
       </c>
-      <c r="B21" s="579">
+      <c r="B21" s="568">
         <v>44070</v>
       </c>
-      <c r="C21" s="577"/>
-      <c r="D21" s="577" t="s">
+      <c r="C21" s="566"/>
+      <c r="D21" s="566" t="s">
         <v>279</v>
       </c>
       <c r="E21" s="146" t="s">
@@ -12295,10 +12295,10 @@
       <c r="N21" s="146"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="582"/>
-      <c r="B22" s="580"/>
-      <c r="C22" s="578"/>
-      <c r="D22" s="578"/>
+      <c r="A22" s="571"/>
+      <c r="B22" s="569"/>
+      <c r="C22" s="567"/>
+      <c r="D22" s="567"/>
       <c r="E22" s="146" t="s">
         <v>176</v>
       </c>
@@ -12399,10 +12399,10 @@
       <c r="N25" s="154"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="563"/>
-      <c r="B26" s="560"/>
-      <c r="C26" s="563"/>
-      <c r="D26" s="563"/>
+      <c r="A26" s="559"/>
+      <c r="B26" s="562"/>
+      <c r="C26" s="559"/>
+      <c r="D26" s="559"/>
       <c r="E26" s="142"/>
       <c r="F26" s="142"/>
       <c r="G26" s="143"/>
@@ -12415,10 +12415,10 @@
       <c r="N26" s="145"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="564"/>
-      <c r="B27" s="561"/>
-      <c r="C27" s="564"/>
-      <c r="D27" s="564"/>
+      <c r="A27" s="560"/>
+      <c r="B27" s="564"/>
+      <c r="C27" s="560"/>
+      <c r="D27" s="560"/>
       <c r="E27" s="146"/>
       <c r="F27" s="146"/>
       <c r="G27" s="147"/>
@@ -12431,10 +12431,10 @@
       <c r="N27" s="150"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="565"/>
-      <c r="B28" s="562"/>
-      <c r="C28" s="565"/>
-      <c r="D28" s="565"/>
+      <c r="A28" s="561"/>
+      <c r="B28" s="563"/>
+      <c r="C28" s="561"/>
+      <c r="D28" s="561"/>
       <c r="E28" s="151"/>
       <c r="F28" s="151"/>
       <c r="G28" s="152"/>
@@ -12447,10 +12447,10 @@
       <c r="N28" s="154"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="563"/>
-      <c r="B29" s="560"/>
-      <c r="C29" s="563"/>
-      <c r="D29" s="563"/>
+      <c r="A29" s="559"/>
+      <c r="B29" s="562"/>
+      <c r="C29" s="559"/>
+      <c r="D29" s="559"/>
       <c r="E29" s="142"/>
       <c r="F29" s="142"/>
       <c r="G29" s="143"/>
@@ -12463,10 +12463,10 @@
       <c r="N29" s="145"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="564"/>
-      <c r="B30" s="561"/>
-      <c r="C30" s="564"/>
-      <c r="D30" s="564"/>
+      <c r="A30" s="560"/>
+      <c r="B30" s="564"/>
+      <c r="C30" s="560"/>
+      <c r="D30" s="560"/>
       <c r="E30" s="146"/>
       <c r="F30" s="146"/>
       <c r="G30" s="147"/>
@@ -12479,10 +12479,10 @@
       <c r="N30" s="150"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="564"/>
-      <c r="B31" s="561"/>
-      <c r="C31" s="564"/>
-      <c r="D31" s="564"/>
+      <c r="A31" s="560"/>
+      <c r="B31" s="564"/>
+      <c r="C31" s="560"/>
+      <c r="D31" s="560"/>
       <c r="E31" s="146"/>
       <c r="F31" s="146"/>
       <c r="G31" s="147"/>
@@ -12495,10 +12495,10 @@
       <c r="N31" s="150"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="565"/>
-      <c r="B32" s="562"/>
-      <c r="C32" s="565"/>
-      <c r="D32" s="565"/>
+      <c r="A32" s="561"/>
+      <c r="B32" s="563"/>
+      <c r="C32" s="561"/>
+      <c r="D32" s="561"/>
       <c r="E32" s="151"/>
       <c r="F32" s="151"/>
       <c r="G32" s="152"/>
@@ -12575,10 +12575,10 @@
       <c r="N36" s="98"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="563"/>
-      <c r="B37" s="560"/>
-      <c r="C37" s="563"/>
-      <c r="D37" s="563"/>
+      <c r="A37" s="559"/>
+      <c r="B37" s="562"/>
+      <c r="C37" s="559"/>
+      <c r="D37" s="559"/>
       <c r="E37" s="142"/>
       <c r="F37" s="142"/>
       <c r="G37" s="143"/>
@@ -12591,10 +12591,10 @@
       <c r="N37" s="145"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="565"/>
-      <c r="B38" s="562"/>
-      <c r="C38" s="565"/>
-      <c r="D38" s="565"/>
+      <c r="A38" s="561"/>
+      <c r="B38" s="563"/>
+      <c r="C38" s="561"/>
+      <c r="D38" s="561"/>
       <c r="E38" s="151"/>
       <c r="F38" s="151"/>
       <c r="G38" s="152"/>
@@ -12639,12 +12639,12 @@
       <c r="N40" s="98"/>
     </row>
     <row r="41" spans="1:14" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="587" t="s">
+      <c r="A41" s="558" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="587"/>
-      <c r="C41" s="587"/>
-      <c r="D41" s="587"/>
+      <c r="B41" s="558"/>
+      <c r="C41" s="558"/>
+      <c r="D41" s="558"/>
       <c r="E41" s="88"/>
       <c r="F41" s="88">
         <f>SUM(F7:F40)</f>
@@ -12732,26 +12732,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B26:B28"/>
@@ -12768,6 +12748,26 @@
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="D8" s="65">
         <f>'DOANH THU'!L124</f>
-        <v>780050100</v>
+        <v>778250100</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="56"/>
@@ -13058,7 +13058,7 @@
       <c r="C12" s="72"/>
       <c r="D12" s="73">
         <f>D8-D9-D10</f>
-        <v>652384900</v>
+        <v>650584900</v>
       </c>
       <c r="E12" s="70"/>
       <c r="F12" s="56"/>
@@ -13313,13 +13313,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="622" t="s">
+      <c r="A1" s="607" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="622"/>
-      <c r="C1" s="622"/>
-      <c r="D1" s="622"/>
-      <c r="E1" s="622"/>
+      <c r="B1" s="607"/>
+      <c r="C1" s="607"/>
+      <c r="D1" s="607"/>
+      <c r="E1" s="607"/>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
@@ -13339,105 +13339,105 @@
       <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="598" t="s">
+      <c r="A3" s="608" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="598"/>
-      <c r="C3" s="598"/>
-      <c r="D3" s="598"/>
-      <c r="E3" s="598"/>
-      <c r="F3" s="598"/>
-      <c r="G3" s="598"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="598"/>
-      <c r="J3" s="598"/>
-      <c r="K3" s="598"/>
-      <c r="L3" s="598"/>
+      <c r="B3" s="608"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="608"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="608"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="608"/>
+      <c r="L3" s="608"/>
     </row>
     <row r="4" spans="1:12" s="99" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="597" t="s">
+      <c r="A4" s="609" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="617" t="s">
+      <c r="B4" s="613" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="597" t="s">
+      <c r="C4" s="609" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="597" t="s">
+      <c r="D4" s="609" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="597"/>
-      <c r="F4" s="596" t="s">
+      <c r="E4" s="609"/>
+      <c r="F4" s="612" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="596"/>
-      <c r="H4" s="596"/>
-      <c r="I4" s="596"/>
-      <c r="J4" s="596"/>
-      <c r="K4" s="596"/>
-      <c r="L4" s="596"/>
+      <c r="G4" s="612"/>
+      <c r="H4" s="612"/>
+      <c r="I4" s="612"/>
+      <c r="J4" s="612"/>
+      <c r="K4" s="612"/>
+      <c r="L4" s="612"/>
     </row>
     <row r="5" spans="1:12" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="597"/>
-      <c r="B5" s="617"/>
-      <c r="C5" s="597"/>
-      <c r="D5" s="597" t="s">
+      <c r="A5" s="609"/>
+      <c r="B5" s="613"/>
+      <c r="C5" s="609"/>
+      <c r="D5" s="609" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="597" t="s">
+      <c r="E5" s="609" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="597" t="s">
+      <c r="F5" s="609" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="597" t="s">
+      <c r="G5" s="609" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="600" t="s">
+      <c r="H5" s="610" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="600" t="s">
+      <c r="I5" s="610" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="599" t="s">
+      <c r="J5" s="611" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="599"/>
-      <c r="L5" s="600" t="s">
+      <c r="K5" s="611"/>
+      <c r="L5" s="610" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="99" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="597"/>
-      <c r="B6" s="617"/>
-      <c r="C6" s="597"/>
-      <c r="D6" s="597"/>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="600"/>
-      <c r="I6" s="600"/>
+      <c r="A6" s="609"/>
+      <c r="B6" s="613"/>
+      <c r="C6" s="609"/>
+      <c r="D6" s="609"/>
+      <c r="E6" s="609"/>
+      <c r="F6" s="609"/>
+      <c r="G6" s="609"/>
+      <c r="H6" s="610"/>
+      <c r="I6" s="610"/>
       <c r="J6" s="102" t="s">
         <v>83</v>
       </c>
       <c r="K6" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="600"/>
+      <c r="L6" s="610"/>
     </row>
     <row r="7" spans="1:12" s="214" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="563">
+      <c r="A7" s="559">
         <v>630</v>
       </c>
-      <c r="B7" s="560">
+      <c r="B7" s="562">
         <v>44044</v>
       </c>
-      <c r="C7" s="563" t="s">
+      <c r="C7" s="559" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="563"/>
-      <c r="E7" s="563"/>
+      <c r="D7" s="559"/>
+      <c r="E7" s="559"/>
       <c r="F7" s="269" t="s">
         <v>172</v>
       </c>
@@ -13459,11 +13459,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="214" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="564"/>
-      <c r="B8" s="561"/>
-      <c r="C8" s="564"/>
-      <c r="D8" s="564"/>
-      <c r="E8" s="564"/>
+      <c r="A8" s="560"/>
+      <c r="B8" s="564"/>
+      <c r="C8" s="560"/>
+      <c r="D8" s="560"/>
+      <c r="E8" s="560"/>
       <c r="F8" s="270" t="s">
         <v>173</v>
       </c>
@@ -13485,11 +13485,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="564"/>
-      <c r="B9" s="561"/>
-      <c r="C9" s="564"/>
-      <c r="D9" s="564"/>
-      <c r="E9" s="564"/>
+      <c r="A9" s="560"/>
+      <c r="B9" s="564"/>
+      <c r="C9" s="560"/>
+      <c r="D9" s="560"/>
+      <c r="E9" s="560"/>
       <c r="F9" s="270" t="s">
         <v>170</v>
       </c>
@@ -13511,11 +13511,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="214" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="565"/>
-      <c r="B10" s="562"/>
-      <c r="C10" s="565"/>
-      <c r="D10" s="565"/>
-      <c r="E10" s="565"/>
+      <c r="A10" s="561"/>
+      <c r="B10" s="563"/>
+      <c r="C10" s="561"/>
+      <c r="D10" s="561"/>
+      <c r="E10" s="561"/>
       <c r="F10" s="271" t="s">
         <v>174</v>
       </c>
@@ -13569,17 +13569,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="214" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="615">
+      <c r="A12" s="614">
         <v>646</v>
       </c>
-      <c r="B12" s="618">
+      <c r="B12" s="616">
         <v>44053</v>
       </c>
-      <c r="C12" s="615" t="s">
+      <c r="C12" s="614" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="620"/>
-      <c r="E12" s="615"/>
+      <c r="D12" s="618"/>
+      <c r="E12" s="614"/>
       <c r="F12" s="214" t="s">
         <v>172</v>
       </c>
@@ -13601,11 +13601,11 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="616"/>
-      <c r="B13" s="619"/>
-      <c r="C13" s="616"/>
-      <c r="D13" s="621"/>
-      <c r="E13" s="616"/>
+      <c r="A13" s="615"/>
+      <c r="B13" s="617"/>
+      <c r="C13" s="615"/>
+      <c r="D13" s="619"/>
+      <c r="E13" s="615"/>
       <c r="F13" s="273" t="s">
         <v>173</v>
       </c>
@@ -13627,14 +13627,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="603" t="s">
+      <c r="A14" s="598" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="604"/>
-      <c r="C14" s="604"/>
-      <c r="D14" s="604"/>
-      <c r="E14" s="604"/>
-      <c r="F14" s="605"/>
+      <c r="B14" s="599"/>
+      <c r="C14" s="599"/>
+      <c r="D14" s="599"/>
+      <c r="E14" s="599"/>
+      <c r="F14" s="600"/>
       <c r="G14" s="297">
         <f>SUM(G7:G13)</f>
         <v>11</v>
@@ -13680,107 +13680,107 @@
       <c r="L16" s="319"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="598" t="s">
+      <c r="A17" s="608" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="598"/>
-      <c r="C17" s="598"/>
-      <c r="D17" s="598"/>
-      <c r="E17" s="598"/>
-      <c r="F17" s="598"/>
-      <c r="G17" s="598"/>
-      <c r="H17" s="598"/>
-      <c r="I17" s="598"/>
-      <c r="J17" s="598"/>
-      <c r="K17" s="598"/>
-      <c r="L17" s="598"/>
+      <c r="B17" s="608"/>
+      <c r="C17" s="608"/>
+      <c r="D17" s="608"/>
+      <c r="E17" s="608"/>
+      <c r="F17" s="608"/>
+      <c r="G17" s="608"/>
+      <c r="H17" s="608"/>
+      <c r="I17" s="608"/>
+      <c r="J17" s="608"/>
+      <c r="K17" s="608"/>
+      <c r="L17" s="608"/>
     </row>
     <row r="18" spans="1:13" s="99" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="597" t="s">
+      <c r="A18" s="609" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="617" t="s">
+      <c r="B18" s="613" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="597" t="s">
+      <c r="C18" s="609" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="597" t="s">
+      <c r="D18" s="609" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="597"/>
-      <c r="F18" s="596" t="s">
+      <c r="E18" s="609"/>
+      <c r="F18" s="612" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="596"/>
-      <c r="H18" s="596"/>
-      <c r="I18" s="596"/>
-      <c r="J18" s="596"/>
-      <c r="K18" s="596"/>
-      <c r="L18" s="596"/>
+      <c r="G18" s="612"/>
+      <c r="H18" s="612"/>
+      <c r="I18" s="612"/>
+      <c r="J18" s="612"/>
+      <c r="K18" s="612"/>
+      <c r="L18" s="612"/>
     </row>
     <row r="19" spans="1:13" s="99" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="597"/>
-      <c r="B19" s="617"/>
-      <c r="C19" s="597"/>
-      <c r="D19" s="597" t="s">
+      <c r="A19" s="609"/>
+      <c r="B19" s="613"/>
+      <c r="C19" s="609"/>
+      <c r="D19" s="609" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="597" t="s">
+      <c r="E19" s="609" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="597" t="s">
+      <c r="F19" s="609" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="597" t="s">
+      <c r="G19" s="609" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="600" t="s">
+      <c r="H19" s="610" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="600" t="s">
+      <c r="I19" s="610" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="599" t="s">
+      <c r="J19" s="611" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="599"/>
-      <c r="L19" s="600" t="s">
+      <c r="K19" s="611"/>
+      <c r="L19" s="610" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="99" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="597"/>
-      <c r="B20" s="617"/>
-      <c r="C20" s="597"/>
-      <c r="D20" s="597"/>
-      <c r="E20" s="597"/>
-      <c r="F20" s="597"/>
-      <c r="G20" s="597"/>
-      <c r="H20" s="600"/>
-      <c r="I20" s="600"/>
+      <c r="A20" s="609"/>
+      <c r="B20" s="613"/>
+      <c r="C20" s="609"/>
+      <c r="D20" s="609"/>
+      <c r="E20" s="609"/>
+      <c r="F20" s="609"/>
+      <c r="G20" s="609"/>
+      <c r="H20" s="610"/>
+      <c r="I20" s="610"/>
       <c r="J20" s="275" t="s">
         <v>83</v>
       </c>
       <c r="K20" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="600"/>
+      <c r="L20" s="610"/>
     </row>
     <row r="21" spans="1:13" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="563">
+      <c r="A21" s="559">
         <v>647</v>
       </c>
-      <c r="B21" s="560">
+      <c r="B21" s="562">
         <v>44056</v>
       </c>
-      <c r="C21" s="563" t="s">
+      <c r="C21" s="559" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="613" t="s">
+      <c r="D21" s="620" t="s">
         <v>197</v>
       </c>
-      <c r="E21" s="563" t="s">
+      <c r="E21" s="559" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="269" t="s">
@@ -13807,11 +13807,11 @@
       <c r="M21" s="215"/>
     </row>
     <row r="22" spans="1:13" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="565"/>
-      <c r="B22" s="562"/>
-      <c r="C22" s="565"/>
-      <c r="D22" s="614"/>
-      <c r="E22" s="565"/>
+      <c r="A22" s="561"/>
+      <c r="B22" s="563"/>
+      <c r="C22" s="561"/>
+      <c r="D22" s="621"/>
+      <c r="E22" s="561"/>
       <c r="F22" s="271" t="s">
         <v>173</v>
       </c>
@@ -13844,23 +13844,23 @@
       <c r="F23" s="299"/>
       <c r="G23" s="299"/>
       <c r="H23" s="299"/>
-      <c r="I23" s="602" t="s">
+      <c r="I23" s="622" t="s">
         <v>210</v>
       </c>
-      <c r="J23" s="602"/>
-      <c r="K23" s="602"/>
+      <c r="J23" s="622"/>
+      <c r="K23" s="622"/>
       <c r="L23" s="469">
         <v>382000</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="603" t="s">
+      <c r="A24" s="598" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="604"/>
-      <c r="C24" s="604"/>
-      <c r="D24" s="604"/>
-      <c r="E24" s="605"/>
+      <c r="B24" s="599"/>
+      <c r="C24" s="599"/>
+      <c r="D24" s="599"/>
+      <c r="E24" s="600"/>
       <c r="F24" s="302"/>
       <c r="G24" s="302">
         <f>SUM(G21:G23)</f>
@@ -13893,92 +13893,92 @@
       <c r="L25" s="318"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="598" t="s">
+      <c r="A26" s="608" t="s">
         <v>267</v>
       </c>
-      <c r="B26" s="598"/>
-      <c r="C26" s="598"/>
-      <c r="D26" s="598"/>
-      <c r="E26" s="598"/>
-      <c r="F26" s="598"/>
-      <c r="G26" s="598"/>
-      <c r="H26" s="598"/>
-      <c r="I26" s="598"/>
-      <c r="J26" s="598"/>
-      <c r="K26" s="598"/>
-      <c r="L26" s="598"/>
+      <c r="B26" s="608"/>
+      <c r="C26" s="608"/>
+      <c r="D26" s="608"/>
+      <c r="E26" s="608"/>
+      <c r="F26" s="608"/>
+      <c r="G26" s="608"/>
+      <c r="H26" s="608"/>
+      <c r="I26" s="608"/>
+      <c r="J26" s="608"/>
+      <c r="K26" s="608"/>
+      <c r="L26" s="608"/>
     </row>
     <row r="27" spans="1:13" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="597" t="s">
+      <c r="A27" s="609" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="601" t="s">
+      <c r="B27" s="628" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="597" t="s">
+      <c r="C27" s="609" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="597" t="s">
+      <c r="D27" s="609" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="597"/>
-      <c r="F27" s="596" t="s">
+      <c r="E27" s="609"/>
+      <c r="F27" s="612" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="596"/>
-      <c r="H27" s="596"/>
-      <c r="I27" s="596"/>
-      <c r="J27" s="596"/>
-      <c r="K27" s="596"/>
-      <c r="L27" s="596"/>
+      <c r="G27" s="612"/>
+      <c r="H27" s="612"/>
+      <c r="I27" s="612"/>
+      <c r="J27" s="612"/>
+      <c r="K27" s="612"/>
+      <c r="L27" s="612"/>
     </row>
     <row r="28" spans="1:13" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="597"/>
-      <c r="B28" s="601"/>
-      <c r="C28" s="597"/>
-      <c r="D28" s="597" t="s">
+      <c r="A28" s="609"/>
+      <c r="B28" s="628"/>
+      <c r="C28" s="609"/>
+      <c r="D28" s="609" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="597" t="s">
+      <c r="E28" s="609" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="597" t="s">
+      <c r="F28" s="609" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="597" t="s">
+      <c r="G28" s="609" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="600" t="s">
+      <c r="H28" s="610" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="600" t="s">
+      <c r="I28" s="610" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="599" t="s">
+      <c r="J28" s="611" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="599"/>
-      <c r="L28" s="600" t="s">
+      <c r="K28" s="611"/>
+      <c r="L28" s="610" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="597"/>
-      <c r="B29" s="601"/>
-      <c r="C29" s="597"/>
-      <c r="D29" s="597"/>
-      <c r="E29" s="597"/>
-      <c r="F29" s="597"/>
-      <c r="G29" s="597"/>
-      <c r="H29" s="600"/>
-      <c r="I29" s="600"/>
+      <c r="A29" s="609"/>
+      <c r="B29" s="628"/>
+      <c r="C29" s="609"/>
+      <c r="D29" s="609"/>
+      <c r="E29" s="609"/>
+      <c r="F29" s="609"/>
+      <c r="G29" s="609"/>
+      <c r="H29" s="610"/>
+      <c r="I29" s="610"/>
       <c r="J29" s="327" t="s">
         <v>83</v>
       </c>
       <c r="K29" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="600"/>
+      <c r="L29" s="610"/>
     </row>
     <row r="30" spans="1:13" s="214" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="158">
@@ -14028,11 +14028,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="305" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="598" t="s">
+      <c r="A32" s="608" t="s">
         <v>211</v>
       </c>
-      <c r="B32" s="598"/>
-      <c r="C32" s="598"/>
+      <c r="B32" s="608"/>
+      <c r="C32" s="608"/>
       <c r="D32" s="315"/>
       <c r="E32" s="315"/>
       <c r="F32" s="315"/>
@@ -14045,225 +14045,225 @@
       <c r="A33" s="274"/>
       <c r="B33" s="274"/>
       <c r="C33" s="274"/>
-      <c r="D33" s="610" t="s">
+      <c r="D33" s="625" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="611"/>
-      <c r="F33" s="611"/>
-      <c r="G33" s="611"/>
-      <c r="H33" s="611"/>
-      <c r="I33" s="612"/>
-      <c r="J33" s="608" t="s">
+      <c r="E33" s="626"/>
+      <c r="F33" s="626"/>
+      <c r="G33" s="626"/>
+      <c r="H33" s="626"/>
+      <c r="I33" s="627"/>
+      <c r="J33" s="623" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="609"/>
+      <c r="K33" s="624"/>
       <c r="L33" s="304"/>
     </row>
     <row r="34" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="274"/>
       <c r="B34" s="274"/>
       <c r="C34" s="274"/>
-      <c r="D34" s="591" t="s">
+      <c r="D34" s="595" t="s">
         <v>213</v>
       </c>
-      <c r="E34" s="592"/>
-      <c r="F34" s="592"/>
-      <c r="G34" s="592"/>
-      <c r="H34" s="592"/>
-      <c r="I34" s="593"/>
-      <c r="J34" s="594">
+      <c r="E34" s="596"/>
+      <c r="F34" s="596"/>
+      <c r="G34" s="596"/>
+      <c r="H34" s="596"/>
+      <c r="I34" s="597"/>
+      <c r="J34" s="603">
         <v>550415</v>
       </c>
-      <c r="K34" s="595"/>
+      <c r="K34" s="604"/>
       <c r="L34" s="304"/>
     </row>
     <row r="35" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="274"/>
       <c r="B35" s="274"/>
       <c r="C35" s="274"/>
-      <c r="D35" s="591" t="s">
+      <c r="D35" s="595" t="s">
         <v>214</v>
       </c>
-      <c r="E35" s="592"/>
-      <c r="F35" s="592"/>
-      <c r="G35" s="592"/>
-      <c r="H35" s="592"/>
-      <c r="I35" s="593"/>
-      <c r="J35" s="594">
+      <c r="E35" s="596"/>
+      <c r="F35" s="596"/>
+      <c r="G35" s="596"/>
+      <c r="H35" s="596"/>
+      <c r="I35" s="597"/>
+      <c r="J35" s="603">
         <f>L14</f>
         <v>3082750.0000000005</v>
       </c>
-      <c r="K35" s="595"/>
+      <c r="K35" s="604"/>
       <c r="L35" s="304"/>
     </row>
     <row r="36" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="274"/>
       <c r="B36" s="274"/>
       <c r="C36" s="274"/>
-      <c r="D36" s="591" t="s">
+      <c r="D36" s="595" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="592"/>
-      <c r="F36" s="592"/>
-      <c r="G36" s="592"/>
-      <c r="H36" s="592"/>
-      <c r="I36" s="593"/>
-      <c r="J36" s="594">
+      <c r="E36" s="596"/>
+      <c r="F36" s="596"/>
+      <c r="G36" s="596"/>
+      <c r="H36" s="596"/>
+      <c r="I36" s="597"/>
+      <c r="J36" s="603">
         <f>L24</f>
         <v>1109750</v>
       </c>
-      <c r="K36" s="595"/>
+      <c r="K36" s="604"/>
       <c r="N36" s="306"/>
     </row>
     <row r="37" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="326"/>
       <c r="B37" s="326"/>
       <c r="C37" s="326"/>
-      <c r="D37" s="591" t="s">
+      <c r="D37" s="595" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="592"/>
-      <c r="F37" s="592"/>
-      <c r="G37" s="592"/>
-      <c r="H37" s="592"/>
-      <c r="I37" s="593"/>
-      <c r="J37" s="594">
+      <c r="E37" s="596"/>
+      <c r="F37" s="596"/>
+      <c r="G37" s="596"/>
+      <c r="H37" s="596"/>
+      <c r="I37" s="597"/>
+      <c r="J37" s="603">
         <f>L31</f>
         <v>225000</v>
       </c>
-      <c r="K37" s="595"/>
+      <c r="K37" s="604"/>
       <c r="N37" s="306"/>
     </row>
     <row r="38" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="325"/>
       <c r="B38" s="325"/>
       <c r="C38" s="325"/>
-      <c r="D38" s="591" t="s">
+      <c r="D38" s="595" t="s">
         <v>252</v>
       </c>
-      <c r="E38" s="592"/>
-      <c r="F38" s="592"/>
-      <c r="G38" s="592"/>
-      <c r="H38" s="592"/>
-      <c r="I38" s="593"/>
-      <c r="J38" s="594">
+      <c r="E38" s="596"/>
+      <c r="F38" s="596"/>
+      <c r="G38" s="596"/>
+      <c r="H38" s="596"/>
+      <c r="I38" s="597"/>
+      <c r="J38" s="603">
         <v>5000000</v>
       </c>
-      <c r="K38" s="595"/>
+      <c r="K38" s="604"/>
       <c r="N38" s="306"/>
     </row>
     <row r="39" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="325"/>
       <c r="B39" s="325"/>
       <c r="C39" s="325"/>
-      <c r="D39" s="603" t="s">
+      <c r="D39" s="598" t="s">
         <v>222</v>
       </c>
-      <c r="E39" s="604"/>
-      <c r="F39" s="604"/>
-      <c r="G39" s="604"/>
-      <c r="H39" s="604"/>
-      <c r="I39" s="605"/>
-      <c r="J39" s="606">
+      <c r="E39" s="599"/>
+      <c r="F39" s="599"/>
+      <c r="G39" s="599"/>
+      <c r="H39" s="599"/>
+      <c r="I39" s="600"/>
+      <c r="J39" s="605">
         <f>SUM(J34:K38)</f>
         <v>9967915</v>
       </c>
-      <c r="K39" s="607"/>
+      <c r="K39" s="606"/>
       <c r="N39" s="306"/>
     </row>
     <row r="40" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="274"/>
       <c r="B40" s="274"/>
       <c r="C40" s="274"/>
-      <c r="D40" s="591" t="s">
+      <c r="D40" s="595" t="s">
         <v>216</v>
       </c>
-      <c r="E40" s="592"/>
-      <c r="F40" s="592"/>
-      <c r="G40" s="592"/>
-      <c r="H40" s="592"/>
-      <c r="I40" s="593"/>
-      <c r="J40" s="594">
+      <c r="E40" s="596"/>
+      <c r="F40" s="596"/>
+      <c r="G40" s="596"/>
+      <c r="H40" s="596"/>
+      <c r="I40" s="597"/>
+      <c r="J40" s="603">
         <f>'Bảng lương'!K15</f>
         <v>5695384.615384616</v>
       </c>
-      <c r="K40" s="595"/>
+      <c r="K40" s="604"/>
       <c r="L40" s="304"/>
     </row>
     <row r="41" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="325"/>
       <c r="B41" s="325"/>
       <c r="C41" s="325"/>
-      <c r="D41" s="591" t="s">
+      <c r="D41" s="595" t="s">
         <v>247</v>
       </c>
-      <c r="E41" s="592"/>
-      <c r="F41" s="592"/>
-      <c r="G41" s="592"/>
-      <c r="H41" s="592"/>
-      <c r="I41" s="593"/>
-      <c r="J41" s="594">
+      <c r="E41" s="596"/>
+      <c r="F41" s="596"/>
+      <c r="G41" s="596"/>
+      <c r="H41" s="596"/>
+      <c r="I41" s="597"/>
+      <c r="J41" s="603">
         <f>'Chi phí văn phòng'!D9</f>
         <v>674000</v>
       </c>
-      <c r="K41" s="595"/>
+      <c r="K41" s="604"/>
       <c r="L41" s="304"/>
     </row>
     <row r="42" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="325"/>
       <c r="B42" s="325"/>
       <c r="C42" s="325"/>
-      <c r="D42" s="591" t="s">
+      <c r="D42" s="595" t="s">
         <v>248</v>
       </c>
-      <c r="E42" s="592"/>
-      <c r="F42" s="592"/>
-      <c r="G42" s="592"/>
-      <c r="H42" s="592"/>
-      <c r="I42" s="593"/>
-      <c r="J42" s="594">
+      <c r="E42" s="596"/>
+      <c r="F42" s="596"/>
+      <c r="G42" s="596"/>
+      <c r="H42" s="596"/>
+      <c r="I42" s="597"/>
+      <c r="J42" s="603">
         <f>'Chi phí văn phòng'!D21</f>
         <v>1289000</v>
       </c>
-      <c r="K42" s="595"/>
+      <c r="K42" s="604"/>
       <c r="L42" s="304"/>
     </row>
     <row r="43" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="325"/>
       <c r="B43" s="325"/>
       <c r="C43" s="325"/>
-      <c r="D43" s="603" t="s">
+      <c r="D43" s="598" t="s">
         <v>223</v>
       </c>
-      <c r="E43" s="604"/>
-      <c r="F43" s="604"/>
-      <c r="G43" s="604"/>
-      <c r="H43" s="604"/>
-      <c r="I43" s="605"/>
-      <c r="J43" s="606">
+      <c r="E43" s="599"/>
+      <c r="F43" s="599"/>
+      <c r="G43" s="599"/>
+      <c r="H43" s="599"/>
+      <c r="I43" s="600"/>
+      <c r="J43" s="605">
         <f>SUM(J40:K42)</f>
         <v>7658384.615384616</v>
       </c>
-      <c r="K43" s="607"/>
+      <c r="K43" s="606"/>
       <c r="L43" s="304"/>
     </row>
     <row r="44" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="274"/>
       <c r="B44" s="274"/>
       <c r="C44" s="274"/>
-      <c r="D44" s="627" t="s">
+      <c r="D44" s="601" t="s">
         <v>251</v>
       </c>
-      <c r="E44" s="627"/>
-      <c r="F44" s="627"/>
-      <c r="G44" s="627"/>
-      <c r="H44" s="627"/>
-      <c r="I44" s="627"/>
-      <c r="J44" s="628">
+      <c r="E44" s="601"/>
+      <c r="F44" s="601"/>
+      <c r="G44" s="601"/>
+      <c r="H44" s="601"/>
+      <c r="I44" s="601"/>
+      <c r="J44" s="602">
         <f>J39-J43</f>
         <v>2309530.384615384</v>
       </c>
-      <c r="K44" s="628"/>
+      <c r="K44" s="602"/>
     </row>
     <row r="45" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="325"/>
@@ -14273,14 +14273,14 @@
       <c r="E45" s="307"/>
       <c r="F45" s="307"/>
       <c r="G45" s="307"/>
-      <c r="H45" s="623" t="s">
+      <c r="H45" s="591" t="s">
         <v>249</v>
       </c>
-      <c r="I45" s="623"/>
-      <c r="J45" s="624">
+      <c r="I45" s="591"/>
+      <c r="J45" s="592">
         <v>2500000</v>
       </c>
-      <c r="K45" s="624"/>
+      <c r="K45" s="592"/>
     </row>
     <row r="46" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="321"/>
@@ -14290,58 +14290,86 @@
       <c r="E46" s="307"/>
       <c r="F46" s="307"/>
       <c r="G46" s="307"/>
-      <c r="H46" s="626" t="s">
+      <c r="H46" s="594" t="s">
         <v>250</v>
       </c>
-      <c r="I46" s="626"/>
-      <c r="J46" s="625">
+      <c r="I46" s="594"/>
+      <c r="J46" s="593">
         <f>J44+J45</f>
         <v>4809530.384615384</v>
       </c>
-      <c r="K46" s="625"/>
+      <c r="K46" s="593"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="79"/>
-      <c r="B47" s="598" t="s">
+      <c r="B47" s="608" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="598"/>
-      <c r="D47" s="598"/>
+      <c r="C47" s="608"/>
+      <c r="D47" s="608"/>
       <c r="E47" s="79"/>
       <c r="F47" s="79"/>
       <c r="G47" s="79"/>
       <c r="H47" s="79"/>
-      <c r="I47" s="598" t="s">
+      <c r="I47" s="608" t="s">
         <v>111</v>
       </c>
-      <c r="J47" s="598"/>
+      <c r="J47" s="608"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:L20"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="D4:E4"/>
@@ -14358,58 +14386,30 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
   </mergeCells>
   <pageMargins left="0.91" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -14433,13 +14433,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="622" t="s">
+      <c r="B1" s="607" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="622"/>
-      <c r="D1" s="622"/>
-      <c r="E1" s="622"/>
-      <c r="F1" s="622"/>
+      <c r="C1" s="607"/>
+      <c r="D1" s="607"/>
+      <c r="E1" s="607"/>
+      <c r="F1" s="607"/>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
       <c r="I1" s="58"/>
@@ -14459,11 +14459,11 @@
       <c r="J2" s="58"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="572" t="s">
+      <c r="B4" s="584" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="572"/>
-      <c r="D4" s="572"/>
+      <c r="C4" s="584"/>
+      <c r="D4" s="584"/>
       <c r="E4" s="173"/>
       <c r="F4" s="173"/>
     </row>
@@ -14785,13 +14785,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="622" t="s">
+      <c r="A1" s="607" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="622"/>
-      <c r="C1" s="622"/>
-      <c r="D1" s="622"/>
-      <c r="E1" s="622"/>
+      <c r="B1" s="607"/>
+      <c r="C1" s="607"/>
+      <c r="D1" s="607"/>
+      <c r="E1" s="607"/>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
@@ -14865,34 +14865,34 @@
       <c r="H8" s="637"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="591" t="s">
+      <c r="A9" s="595" t="s">
         <v>216</v>
       </c>
-      <c r="B9" s="592"/>
-      <c r="C9" s="592"/>
-      <c r="D9" s="592"/>
-      <c r="E9" s="592"/>
-      <c r="F9" s="593"/>
-      <c r="G9" s="594">
+      <c r="B9" s="596"/>
+      <c r="C9" s="596"/>
+      <c r="D9" s="596"/>
+      <c r="E9" s="596"/>
+      <c r="F9" s="597"/>
+      <c r="G9" s="603">
         <f>'Bảng lương'!K12</f>
         <v>7135000</v>
       </c>
-      <c r="H9" s="595"/>
+      <c r="H9" s="604"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="627" t="s">
+      <c r="A10" s="601" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="627"/>
-      <c r="C10" s="627"/>
-      <c r="D10" s="627"/>
-      <c r="E10" s="627"/>
-      <c r="F10" s="627"/>
-      <c r="G10" s="628">
+      <c r="B10" s="601"/>
+      <c r="C10" s="601"/>
+      <c r="D10" s="601"/>
+      <c r="E10" s="601"/>
+      <c r="F10" s="601"/>
+      <c r="G10" s="602">
         <f>SUM(G7:H9)</f>
         <v>9935000</v>
       </c>
-      <c r="H10" s="628"/>
+      <c r="H10" s="602"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -15448,16 +15448,16 @@
       <c r="C1" s="104"/>
       <c r="D1" s="104"/>
       <c r="E1" s="104"/>
-      <c r="Z1" s="646" t="s">
+      <c r="Z1" s="659" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="647"/>
-      <c r="AB1" s="647"/>
-      <c r="AC1" s="647"/>
-      <c r="AD1" s="647"/>
-      <c r="AE1" s="647"/>
-      <c r="AF1" s="647"/>
-      <c r="AG1" s="648"/>
+      <c r="AA1" s="660"/>
+      <c r="AB1" s="660"/>
+      <c r="AC1" s="660"/>
+      <c r="AD1" s="660"/>
+      <c r="AE1" s="660"/>
+      <c r="AF1" s="660"/>
+      <c r="AG1" s="661"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
@@ -15467,18 +15467,18 @@
       <c r="C2" s="108"/>
       <c r="D2" s="108"/>
       <c r="E2" s="108"/>
-      <c r="Z2" s="641" t="s">
+      <c r="Z2" s="642" t="s">
         <v>85</v>
       </c>
-      <c r="AA2" s="642"/>
-      <c r="AB2" s="642"/>
-      <c r="AC2" s="642"/>
-      <c r="AD2" s="642"/>
-      <c r="AE2" s="643"/>
-      <c r="AF2" s="644" t="s">
+      <c r="AA2" s="643"/>
+      <c r="AB2" s="643"/>
+      <c r="AC2" s="643"/>
+      <c r="AD2" s="643"/>
+      <c r="AE2" s="644"/>
+      <c r="AF2" s="645" t="s">
         <v>86</v>
       </c>
-      <c r="AG2" s="645"/>
+      <c r="AG2" s="646"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="107" t="s">
@@ -15488,18 +15488,18 @@
       <c r="C3" s="75"/>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="Z3" s="641" t="s">
+      <c r="Z3" s="642" t="s">
         <v>88</v>
       </c>
-      <c r="AA3" s="642"/>
-      <c r="AB3" s="642"/>
-      <c r="AC3" s="642"/>
-      <c r="AD3" s="642"/>
-      <c r="AE3" s="643"/>
-      <c r="AF3" s="644" t="s">
+      <c r="AA3" s="643"/>
+      <c r="AB3" s="643"/>
+      <c r="AC3" s="643"/>
+      <c r="AD3" s="643"/>
+      <c r="AE3" s="644"/>
+      <c r="AF3" s="645" t="s">
         <v>89</v>
       </c>
-      <c r="AG3" s="645"/>
+      <c r="AG3" s="646"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="107" t="s">
@@ -15512,18 +15512,18 @@
       <c r="T4" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="641" t="s">
+      <c r="Z4" s="642" t="s">
         <v>91</v>
       </c>
-      <c r="AA4" s="642"/>
-      <c r="AB4" s="642"/>
-      <c r="AC4" s="642"/>
-      <c r="AD4" s="642"/>
-      <c r="AE4" s="643"/>
-      <c r="AF4" s="644" t="s">
+      <c r="AA4" s="643"/>
+      <c r="AB4" s="643"/>
+      <c r="AC4" s="643"/>
+      <c r="AD4" s="643"/>
+      <c r="AE4" s="644"/>
+      <c r="AF4" s="645" t="s">
         <v>92</v>
       </c>
-      <c r="AG4" s="645"/>
+      <c r="AG4" s="646"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="107" t="s">
@@ -15533,18 +15533,18 @@
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="Z5" s="641" t="s">
+      <c r="Z5" s="642" t="s">
         <v>94</v>
       </c>
-      <c r="AA5" s="642"/>
-      <c r="AB5" s="642"/>
-      <c r="AC5" s="642"/>
-      <c r="AD5" s="642"/>
-      <c r="AE5" s="643"/>
-      <c r="AF5" s="644" t="s">
+      <c r="AA5" s="643"/>
+      <c r="AB5" s="643"/>
+      <c r="AC5" s="643"/>
+      <c r="AD5" s="643"/>
+      <c r="AE5" s="644"/>
+      <c r="AF5" s="645" t="s">
         <v>95</v>
       </c>
-      <c r="AG5" s="645"/>
+      <c r="AG5" s="646"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="109"/>
@@ -15554,93 +15554,93 @@
       <c r="E6" s="109"/>
     </row>
     <row r="7" spans="1:40" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="650" t="s">
+      <c r="A7" s="647" t="s">
         <v>286</v>
       </c>
-      <c r="B7" s="650"/>
-      <c r="C7" s="650"/>
-      <c r="D7" s="650"/>
-      <c r="E7" s="650"/>
-      <c r="F7" s="650"/>
-      <c r="G7" s="650"/>
-      <c r="H7" s="650"/>
-      <c r="I7" s="650"/>
-      <c r="J7" s="650"/>
-      <c r="K7" s="650"/>
-      <c r="L7" s="650"/>
-      <c r="M7" s="650"/>
-      <c r="N7" s="650"/>
-      <c r="O7" s="650"/>
-      <c r="P7" s="650"/>
-      <c r="Q7" s="650"/>
-      <c r="R7" s="650"/>
-      <c r="S7" s="650"/>
-      <c r="T7" s="650"/>
-      <c r="U7" s="650"/>
-      <c r="V7" s="650"/>
-      <c r="W7" s="650"/>
-      <c r="X7" s="650"/>
-      <c r="Y7" s="650"/>
-      <c r="Z7" s="650"/>
-      <c r="AA7" s="650"/>
-      <c r="AB7" s="650"/>
-      <c r="AC7" s="650"/>
-      <c r="AD7" s="650"/>
-      <c r="AE7" s="650"/>
-      <c r="AF7" s="650"/>
-      <c r="AG7" s="650"/>
-      <c r="AH7" s="650"/>
-      <c r="AI7" s="650"/>
-      <c r="AJ7" s="650"/>
-      <c r="AK7" s="650"/>
-      <c r="AL7" s="650"/>
-      <c r="AM7" s="650"/>
+      <c r="B7" s="647"/>
+      <c r="C7" s="647"/>
+      <c r="D7" s="647"/>
+      <c r="E7" s="647"/>
+      <c r="F7" s="647"/>
+      <c r="G7" s="647"/>
+      <c r="H7" s="647"/>
+      <c r="I7" s="647"/>
+      <c r="J7" s="647"/>
+      <c r="K7" s="647"/>
+      <c r="L7" s="647"/>
+      <c r="M7" s="647"/>
+      <c r="N7" s="647"/>
+      <c r="O7" s="647"/>
+      <c r="P7" s="647"/>
+      <c r="Q7" s="647"/>
+      <c r="R7" s="647"/>
+      <c r="S7" s="647"/>
+      <c r="T7" s="647"/>
+      <c r="U7" s="647"/>
+      <c r="V7" s="647"/>
+      <c r="W7" s="647"/>
+      <c r="X7" s="647"/>
+      <c r="Y7" s="647"/>
+      <c r="Z7" s="647"/>
+      <c r="AA7" s="647"/>
+      <c r="AB7" s="647"/>
+      <c r="AC7" s="647"/>
+      <c r="AD7" s="647"/>
+      <c r="AE7" s="647"/>
+      <c r="AF7" s="647"/>
+      <c r="AG7" s="647"/>
+      <c r="AH7" s="647"/>
+      <c r="AI7" s="647"/>
+      <c r="AJ7" s="647"/>
+      <c r="AK7" s="647"/>
+      <c r="AL7" s="647"/>
+      <c r="AM7" s="647"/>
       <c r="AN7" s="111"/>
     </row>
     <row r="9" spans="1:40" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="651" t="s">
+      <c r="A9" s="648" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="651" t="s">
+      <c r="B9" s="648" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="651" t="s">
+      <c r="C9" s="648" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="654" t="s">
+      <c r="D9" s="651" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="655"/>
-      <c r="F9" s="655"/>
-      <c r="G9" s="655"/>
-      <c r="H9" s="655"/>
-      <c r="I9" s="655"/>
-      <c r="J9" s="655"/>
-      <c r="K9" s="655"/>
-      <c r="L9" s="655"/>
-      <c r="M9" s="655"/>
-      <c r="N9" s="655"/>
-      <c r="O9" s="655"/>
-      <c r="P9" s="655"/>
-      <c r="Q9" s="655"/>
-      <c r="R9" s="655"/>
-      <c r="S9" s="655"/>
-      <c r="T9" s="655"/>
-      <c r="U9" s="655"/>
-      <c r="V9" s="655"/>
-      <c r="W9" s="655"/>
-      <c r="X9" s="655"/>
-      <c r="Y9" s="655"/>
-      <c r="Z9" s="655"/>
-      <c r="AA9" s="655"/>
-      <c r="AB9" s="655"/>
-      <c r="AC9" s="655"/>
-      <c r="AD9" s="655"/>
-      <c r="AE9" s="655"/>
-      <c r="AF9" s="655"/>
-      <c r="AG9" s="655"/>
-      <c r="AH9" s="656"/>
-      <c r="AI9" s="657" t="s">
+      <c r="E9" s="652"/>
+      <c r="F9" s="652"/>
+      <c r="G9" s="652"/>
+      <c r="H9" s="652"/>
+      <c r="I9" s="652"/>
+      <c r="J9" s="652"/>
+      <c r="K9" s="652"/>
+      <c r="L9" s="652"/>
+      <c r="M9" s="652"/>
+      <c r="N9" s="652"/>
+      <c r="O9" s="652"/>
+      <c r="P9" s="652"/>
+      <c r="Q9" s="652"/>
+      <c r="R9" s="652"/>
+      <c r="S9" s="652"/>
+      <c r="T9" s="652"/>
+      <c r="U9" s="652"/>
+      <c r="V9" s="652"/>
+      <c r="W9" s="652"/>
+      <c r="X9" s="652"/>
+      <c r="Y9" s="652"/>
+      <c r="Z9" s="652"/>
+      <c r="AA9" s="652"/>
+      <c r="AB9" s="652"/>
+      <c r="AC9" s="652"/>
+      <c r="AD9" s="652"/>
+      <c r="AE9" s="652"/>
+      <c r="AF9" s="652"/>
+      <c r="AG9" s="652"/>
+      <c r="AH9" s="653"/>
+      <c r="AI9" s="654" t="s">
         <v>100</v>
       </c>
       <c r="AJ9" s="113"/>
@@ -15650,9 +15650,9 @@
       <c r="AN9" s="116"/>
     </row>
     <row r="10" spans="1:40" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="652"/>
-      <c r="B10" s="652"/>
-      <c r="C10" s="652"/>
+      <c r="A10" s="649"/>
+      <c r="B10" s="649"/>
+      <c r="C10" s="649"/>
       <c r="D10" s="118">
         <v>1</v>
       </c>
@@ -15746,7 +15746,7 @@
       <c r="AH10" s="118">
         <v>31</v>
       </c>
-      <c r="AI10" s="657"/>
+      <c r="AI10" s="654"/>
       <c r="AJ10" s="119"/>
       <c r="AK10" s="115"/>
       <c r="AL10" s="115"/>
@@ -15754,9 +15754,9 @@
       <c r="AN10" s="116"/>
     </row>
     <row r="11" spans="1:40" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="653"/>
-      <c r="B11" s="653"/>
-      <c r="C11" s="653"/>
+      <c r="A11" s="650"/>
+      <c r="B11" s="650"/>
+      <c r="C11" s="650"/>
       <c r="D11" s="118" t="s">
         <v>101</v>
       </c>
@@ -15850,7 +15850,7 @@
       <c r="AH11" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="AI11" s="657"/>
+      <c r="AI11" s="654"/>
       <c r="AJ11" s="123"/>
       <c r="AN11" s="125"/>
     </row>
@@ -16251,10 +16251,10 @@
       <c r="AN15" s="125"/>
     </row>
     <row r="16" spans="1:40" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="658" t="s">
+      <c r="A16" s="655" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="659"/>
+      <c r="B16" s="656"/>
       <c r="C16" s="127"/>
       <c r="D16" s="127"/>
       <c r="E16" s="128"/>
@@ -16306,12 +16306,12 @@
       <c r="N18" s="224" t="s">
         <v>108</v>
       </c>
-      <c r="AB18" s="660" t="s">
+      <c r="AB18" s="657" t="s">
         <v>401</v>
       </c>
-      <c r="AC18" s="660"/>
-      <c r="AD18" s="660"/>
-      <c r="AE18" s="660"/>
+      <c r="AC18" s="657"/>
+      <c r="AD18" s="657"/>
+      <c r="AE18" s="657"/>
     </row>
     <row r="19" spans="1:40" s="484" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="485" t="s">
@@ -16323,12 +16323,12 @@
       <c r="N19" s="485" t="s">
         <v>402</v>
       </c>
-      <c r="AB19" s="661" t="s">
+      <c r="AB19" s="658" t="s">
         <v>402</v>
       </c>
-      <c r="AC19" s="661"/>
-      <c r="AD19" s="661"/>
-      <c r="AE19" s="661"/>
+      <c r="AC19" s="658"/>
+      <c r="AD19" s="658"/>
+      <c r="AE19" s="658"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="132"/>
@@ -16361,131 +16361,131 @@
       <c r="AN33" s="135"/>
     </row>
     <row r="34" spans="3:40" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="649"/>
-      <c r="H34" s="649"/>
-      <c r="I34" s="649"/>
-      <c r="J34" s="649"/>
-      <c r="K34" s="649"/>
-      <c r="L34" s="649"/>
-      <c r="M34" s="649"/>
-      <c r="N34" s="649"/>
-      <c r="O34" s="649"/>
-      <c r="P34" s="649"/>
-      <c r="Q34" s="649"/>
-      <c r="R34" s="649"/>
-      <c r="S34" s="649"/>
-      <c r="T34" s="649"/>
-      <c r="U34" s="649"/>
-      <c r="V34" s="649"/>
-      <c r="W34" s="649"/>
-      <c r="X34" s="649"/>
+      <c r="G34" s="641"/>
+      <c r="H34" s="641"/>
+      <c r="I34" s="641"/>
+      <c r="J34" s="641"/>
+      <c r="K34" s="641"/>
+      <c r="L34" s="641"/>
+      <c r="M34" s="641"/>
+      <c r="N34" s="641"/>
+      <c r="O34" s="641"/>
+      <c r="P34" s="641"/>
+      <c r="Q34" s="641"/>
+      <c r="R34" s="641"/>
+      <c r="S34" s="641"/>
+      <c r="T34" s="641"/>
+      <c r="U34" s="641"/>
+      <c r="V34" s="641"/>
+      <c r="W34" s="641"/>
+      <c r="X34" s="641"/>
       <c r="AN34" s="135"/>
     </row>
     <row r="35" spans="3:40" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="649"/>
-      <c r="H35" s="649"/>
-      <c r="I35" s="649"/>
-      <c r="J35" s="649"/>
-      <c r="K35" s="649"/>
-      <c r="L35" s="649"/>
-      <c r="M35" s="649"/>
-      <c r="N35" s="649"/>
-      <c r="O35" s="649"/>
-      <c r="P35" s="649"/>
-      <c r="Q35" s="649"/>
-      <c r="R35" s="649"/>
-      <c r="S35" s="649"/>
-      <c r="T35" s="649"/>
-      <c r="U35" s="649"/>
-      <c r="V35" s="649"/>
-      <c r="W35" s="649"/>
-      <c r="X35" s="649"/>
+      <c r="G35" s="641"/>
+      <c r="H35" s="641"/>
+      <c r="I35" s="641"/>
+      <c r="J35" s="641"/>
+      <c r="K35" s="641"/>
+      <c r="L35" s="641"/>
+      <c r="M35" s="641"/>
+      <c r="N35" s="641"/>
+      <c r="O35" s="641"/>
+      <c r="P35" s="641"/>
+      <c r="Q35" s="641"/>
+      <c r="R35" s="641"/>
+      <c r="S35" s="641"/>
+      <c r="T35" s="641"/>
+      <c r="U35" s="641"/>
+      <c r="V35" s="641"/>
+      <c r="W35" s="641"/>
+      <c r="X35" s="641"/>
       <c r="AN35" s="135"/>
     </row>
     <row r="36" spans="3:40" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="649"/>
-      <c r="H36" s="649"/>
-      <c r="I36" s="649"/>
-      <c r="J36" s="649"/>
-      <c r="K36" s="649"/>
-      <c r="L36" s="649"/>
-      <c r="M36" s="649"/>
-      <c r="N36" s="649"/>
-      <c r="O36" s="649"/>
-      <c r="P36" s="649"/>
-      <c r="Q36" s="649"/>
-      <c r="R36" s="649"/>
-      <c r="S36" s="649"/>
-      <c r="T36" s="649"/>
-      <c r="U36" s="649"/>
-      <c r="V36" s="649"/>
-      <c r="W36" s="649"/>
-      <c r="X36" s="649"/>
+      <c r="G36" s="641"/>
+      <c r="H36" s="641"/>
+      <c r="I36" s="641"/>
+      <c r="J36" s="641"/>
+      <c r="K36" s="641"/>
+      <c r="L36" s="641"/>
+      <c r="M36" s="641"/>
+      <c r="N36" s="641"/>
+      <c r="O36" s="641"/>
+      <c r="P36" s="641"/>
+      <c r="Q36" s="641"/>
+      <c r="R36" s="641"/>
+      <c r="S36" s="641"/>
+      <c r="T36" s="641"/>
+      <c r="U36" s="641"/>
+      <c r="V36" s="641"/>
+      <c r="W36" s="641"/>
+      <c r="X36" s="641"/>
       <c r="AN36" s="135"/>
     </row>
     <row r="37" spans="3:40" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="649"/>
-      <c r="H37" s="649"/>
-      <c r="I37" s="649"/>
-      <c r="J37" s="649"/>
-      <c r="K37" s="649"/>
-      <c r="L37" s="649"/>
-      <c r="M37" s="649"/>
-      <c r="N37" s="649"/>
-      <c r="O37" s="649"/>
-      <c r="P37" s="649"/>
-      <c r="Q37" s="649"/>
-      <c r="R37" s="649"/>
-      <c r="S37" s="649"/>
-      <c r="T37" s="649"/>
-      <c r="U37" s="649"/>
-      <c r="V37" s="649"/>
-      <c r="W37" s="649"/>
-      <c r="X37" s="649"/>
+      <c r="G37" s="641"/>
+      <c r="H37" s="641"/>
+      <c r="I37" s="641"/>
+      <c r="J37" s="641"/>
+      <c r="K37" s="641"/>
+      <c r="L37" s="641"/>
+      <c r="M37" s="641"/>
+      <c r="N37" s="641"/>
+      <c r="O37" s="641"/>
+      <c r="P37" s="641"/>
+      <c r="Q37" s="641"/>
+      <c r="R37" s="641"/>
+      <c r="S37" s="641"/>
+      <c r="T37" s="641"/>
+      <c r="U37" s="641"/>
+      <c r="V37" s="641"/>
+      <c r="W37" s="641"/>
+      <c r="X37" s="641"/>
       <c r="AN37" s="135"/>
     </row>
     <row r="38" spans="3:40" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="649"/>
-      <c r="H38" s="649"/>
-      <c r="I38" s="649"/>
-      <c r="J38" s="649"/>
-      <c r="K38" s="649"/>
-      <c r="L38" s="649"/>
-      <c r="M38" s="649"/>
-      <c r="N38" s="649"/>
-      <c r="O38" s="649"/>
-      <c r="P38" s="649"/>
-      <c r="Q38" s="649"/>
-      <c r="R38" s="649"/>
-      <c r="S38" s="649"/>
-      <c r="T38" s="649"/>
-      <c r="U38" s="649"/>
-      <c r="V38" s="649"/>
-      <c r="W38" s="649"/>
-      <c r="X38" s="649"/>
+      <c r="G38" s="641"/>
+      <c r="H38" s="641"/>
+      <c r="I38" s="641"/>
+      <c r="J38" s="641"/>
+      <c r="K38" s="641"/>
+      <c r="L38" s="641"/>
+      <c r="M38" s="641"/>
+      <c r="N38" s="641"/>
+      <c r="O38" s="641"/>
+      <c r="P38" s="641"/>
+      <c r="Q38" s="641"/>
+      <c r="R38" s="641"/>
+      <c r="S38" s="641"/>
+      <c r="T38" s="641"/>
+      <c r="U38" s="641"/>
+      <c r="V38" s="641"/>
+      <c r="W38" s="641"/>
+      <c r="X38" s="641"/>
       <c r="AN38" s="135"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="105"/>
       <c r="D39" s="105"/>
-      <c r="G39" s="649"/>
-      <c r="H39" s="649"/>
-      <c r="I39" s="649"/>
-      <c r="J39" s="649"/>
-      <c r="K39" s="649"/>
-      <c r="L39" s="649"/>
-      <c r="M39" s="649"/>
-      <c r="N39" s="649"/>
-      <c r="O39" s="649"/>
-      <c r="P39" s="649"/>
-      <c r="Q39" s="649"/>
-      <c r="R39" s="649"/>
-      <c r="S39" s="649"/>
-      <c r="T39" s="649"/>
-      <c r="U39" s="649"/>
-      <c r="V39" s="649"/>
-      <c r="W39" s="649"/>
-      <c r="X39" s="649"/>
+      <c r="G39" s="641"/>
+      <c r="H39" s="641"/>
+      <c r="I39" s="641"/>
+      <c r="J39" s="641"/>
+      <c r="K39" s="641"/>
+      <c r="L39" s="641"/>
+      <c r="M39" s="641"/>
+      <c r="N39" s="641"/>
+      <c r="O39" s="641"/>
+      <c r="P39" s="641"/>
+      <c r="Q39" s="641"/>
+      <c r="R39" s="641"/>
+      <c r="S39" s="641"/>
+      <c r="T39" s="641"/>
+      <c r="U39" s="641"/>
+      <c r="V39" s="641"/>
+      <c r="W39" s="641"/>
+      <c r="X39" s="641"/>
       <c r="AN39" s="105"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -16495,6 +16495,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -16507,13 +16514,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="AB18:AE18"/>
     <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -17368,40 +17368,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="187" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="662" t="s">
+      <c r="A1" s="670" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="662"/>
-      <c r="C1" s="662"/>
-      <c r="D1" s="662"/>
+      <c r="B1" s="670"/>
+      <c r="C1" s="670"/>
+      <c r="D1" s="670"/>
       <c r="E1" s="186"/>
-      <c r="F1" s="663" t="s">
+      <c r="F1" s="671" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="663"/>
-      <c r="H1" s="663"/>
-      <c r="I1" s="663"/>
-      <c r="J1" s="663"/>
-      <c r="K1" s="663"/>
-      <c r="L1" s="663"/>
+      <c r="G1" s="671"/>
+      <c r="H1" s="671"/>
+      <c r="I1" s="671"/>
+      <c r="J1" s="671"/>
+      <c r="K1" s="671"/>
+      <c r="L1" s="671"/>
     </row>
     <row r="2" spans="1:16" s="187" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="664" t="s">
+      <c r="A2" s="672" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="664"/>
-      <c r="C2" s="664"/>
-      <c r="D2" s="664"/>
+      <c r="B2" s="672"/>
+      <c r="C2" s="672"/>
+      <c r="D2" s="672"/>
       <c r="E2" s="186"/>
-      <c r="F2" s="665" t="s">
+      <c r="F2" s="673" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="665"/>
-      <c r="H2" s="665"/>
-      <c r="I2" s="665"/>
-      <c r="J2" s="665"/>
-      <c r="K2" s="665"/>
-      <c r="L2" s="665"/>
+      <c r="G2" s="673"/>
+      <c r="H2" s="673"/>
+      <c r="I2" s="673"/>
+      <c r="J2" s="673"/>
+      <c r="K2" s="673"/>
+      <c r="L2" s="673"/>
     </row>
     <row r="3" spans="1:16" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="188"/>
@@ -17415,45 +17415,45 @@
       <c r="J3" s="189"/>
     </row>
     <row r="4" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="666" t="s">
+      <c r="A4" s="662" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="666"/>
-      <c r="C4" s="666"/>
-      <c r="D4" s="666"/>
-      <c r="E4" s="666"/>
-      <c r="F4" s="666"/>
-      <c r="G4" s="666"/>
-      <c r="H4" s="666"/>
-      <c r="I4" s="666"/>
-      <c r="J4" s="666"/>
-      <c r="K4" s="666"/>
-      <c r="L4" s="666"/>
-      <c r="M4" s="666"/>
+      <c r="B4" s="662"/>
+      <c r="C4" s="662"/>
+      <c r="D4" s="662"/>
+      <c r="E4" s="662"/>
+      <c r="F4" s="662"/>
+      <c r="G4" s="662"/>
+      <c r="H4" s="662"/>
+      <c r="I4" s="662"/>
+      <c r="J4" s="662"/>
+      <c r="K4" s="662"/>
+      <c r="L4" s="662"/>
+      <c r="M4" s="662"/>
     </row>
     <row r="5" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="666" t="s">
+      <c r="A5" s="662" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="666"/>
-      <c r="C5" s="666"/>
-      <c r="D5" s="666"/>
-      <c r="E5" s="666"/>
-      <c r="F5" s="666"/>
-      <c r="G5" s="666"/>
-      <c r="H5" s="666"/>
-      <c r="I5" s="666"/>
-      <c r="J5" s="666"/>
-      <c r="K5" s="666"/>
-      <c r="L5" s="666"/>
-      <c r="M5" s="666"/>
+      <c r="B5" s="662"/>
+      <c r="C5" s="662"/>
+      <c r="D5" s="662"/>
+      <c r="E5" s="662"/>
+      <c r="F5" s="662"/>
+      <c r="G5" s="662"/>
+      <c r="H5" s="662"/>
+      <c r="I5" s="662"/>
+      <c r="J5" s="662"/>
+      <c r="K5" s="662"/>
+      <c r="L5" s="662"/>
+      <c r="M5" s="662"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="667" t="s">
+      <c r="K6" s="663" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="667"/>
-      <c r="M6" s="667"/>
+      <c r="L6" s="663"/>
+      <c r="M6" s="663"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="489" t="s">
@@ -17524,13 +17524,13 @@
       <c r="M8" s="489"/>
     </row>
     <row r="9" spans="1:16" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="671" t="s">
+      <c r="A9" s="667" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="672"/>
-      <c r="C9" s="672"/>
-      <c r="D9" s="672"/>
-      <c r="E9" s="673"/>
+      <c r="B9" s="668"/>
+      <c r="C9" s="668"/>
+      <c r="D9" s="668"/>
+      <c r="E9" s="669"/>
       <c r="F9" s="193">
         <f>SUM(F10:F12)</f>
         <v>27000000</v>
@@ -17667,13 +17667,13 @@
       <c r="P12" s="100"/>
     </row>
     <row r="13" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="668" t="s">
+      <c r="A13" s="664" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="669"/>
-      <c r="C13" s="669"/>
-      <c r="D13" s="669"/>
-      <c r="E13" s="670"/>
+      <c r="B13" s="665"/>
+      <c r="C13" s="665"/>
+      <c r="D13" s="665"/>
+      <c r="E13" s="666"/>
       <c r="F13" s="168">
         <f>SUM(F14:F15)</f>
         <v>7615384.615384616</v>
@@ -17764,11 +17764,11 @@
       <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="668" t="s">
+      <c r="A16" s="664" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="669"/>
-      <c r="C16" s="670"/>
+      <c r="B16" s="665"/>
+      <c r="C16" s="666"/>
       <c r="D16" s="193"/>
       <c r="E16" s="194"/>
       <c r="F16" s="193">
@@ -17799,14 +17799,14 @@
       <c r="M16" s="192"/>
     </row>
     <row r="18" spans="2:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="666"/>
-      <c r="C18" s="666"/>
-      <c r="D18" s="666"/>
+      <c r="B18" s="662"/>
+      <c r="C18" s="662"/>
+      <c r="D18" s="662"/>
       <c r="E18" s="169"/>
-      <c r="I18" s="666"/>
-      <c r="J18" s="666"/>
-      <c r="K18" s="666"/>
-      <c r="L18" s="666"/>
+      <c r="I18" s="662"/>
+      <c r="J18" s="662"/>
+      <c r="K18" s="662"/>
+      <c r="L18" s="662"/>
     </row>
     <row r="19" spans="2:12" s="483" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B19" s="224" t="s">
@@ -17857,6 +17857,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="B18:D18"/>
@@ -17864,11 +17869,6 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -3215,44 +3215,140 @@
     <xf numFmtId="14" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3263,192 +3359,96 @@
     <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3458,18 +3458,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3479,6 +3467,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3486,6 +3501,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3494,84 +3572,6 @@
     <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3608,24 +3608,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3662,13 +3671,16 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3694,18 +3706,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6411,13 +6411,13 @@
       <c r="J2" s="176"/>
     </row>
     <row r="3" spans="1:14" s="174" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="584" t="s">
+      <c r="A3" s="572" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="584"/>
-      <c r="C3" s="584"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="584"/>
+      <c r="B3" s="572"/>
+      <c r="C3" s="572"/>
+      <c r="D3" s="572"/>
+      <c r="E3" s="572"/>
       <c r="F3" s="173"/>
       <c r="G3" s="173"/>
       <c r="H3" s="173"/>
@@ -6770,9 +6770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K105" sqref="K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6797,13 +6797,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="537" t="s">
+      <c r="A1" s="539" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="537"/>
-      <c r="C1" s="537"/>
-      <c r="D1" s="537"/>
-      <c r="E1" s="537"/>
+      <c r="B1" s="539"/>
+      <c r="C1" s="539"/>
+      <c r="D1" s="539"/>
+      <c r="E1" s="539"/>
       <c r="N1" s="205"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -6817,163 +6817,163 @@
       <c r="N2" s="209"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="538" t="s">
+      <c r="A3" s="540" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="538"/>
-      <c r="C3" s="538"/>
-      <c r="D3" s="538"/>
-      <c r="E3" s="538"/>
-      <c r="F3" s="538"/>
-      <c r="G3" s="538"/>
-      <c r="H3" s="538"/>
-      <c r="I3" s="538"/>
-      <c r="J3" s="538"/>
-      <c r="K3" s="538"/>
-      <c r="L3" s="538"/>
-      <c r="M3" s="538"/>
-      <c r="N3" s="538"/>
-      <c r="O3" s="538"/>
-      <c r="P3" s="538"/>
+      <c r="B3" s="540"/>
+      <c r="C3" s="540"/>
+      <c r="D3" s="540"/>
+      <c r="E3" s="540"/>
+      <c r="F3" s="540"/>
+      <c r="G3" s="540"/>
+      <c r="H3" s="540"/>
+      <c r="I3" s="540"/>
+      <c r="J3" s="540"/>
+      <c r="K3" s="540"/>
+      <c r="L3" s="540"/>
+      <c r="M3" s="540"/>
+      <c r="N3" s="540"/>
+      <c r="O3" s="540"/>
+      <c r="P3" s="540"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="538" t="s">
+      <c r="A4" s="540" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="538"/>
-      <c r="C4" s="538"/>
-      <c r="D4" s="538"/>
-      <c r="E4" s="538"/>
-      <c r="F4" s="538"/>
-      <c r="G4" s="538"/>
-      <c r="H4" s="538"/>
-      <c r="I4" s="538"/>
-      <c r="J4" s="538"/>
-      <c r="K4" s="538"/>
-      <c r="L4" s="538"/>
-      <c r="M4" s="538"/>
-      <c r="N4" s="538"/>
-      <c r="O4" s="538"/>
-      <c r="P4" s="538"/>
+      <c r="B4" s="540"/>
+      <c r="C4" s="540"/>
+      <c r="D4" s="540"/>
+      <c r="E4" s="540"/>
+      <c r="F4" s="540"/>
+      <c r="G4" s="540"/>
+      <c r="H4" s="540"/>
+      <c r="I4" s="540"/>
+      <c r="J4" s="540"/>
+      <c r="K4" s="540"/>
+      <c r="L4" s="540"/>
+      <c r="M4" s="540"/>
+      <c r="N4" s="540"/>
+      <c r="O4" s="540"/>
+      <c r="P4" s="540"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="538"/>
-      <c r="B5" s="538"/>
-      <c r="C5" s="538"/>
-      <c r="D5" s="538"/>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="538"/>
-      <c r="I5" s="538"/>
-      <c r="J5" s="538"/>
-      <c r="K5" s="539"/>
-      <c r="L5" s="539"/>
+      <c r="A5" s="540"/>
+      <c r="B5" s="540"/>
+      <c r="C5" s="540"/>
+      <c r="D5" s="540"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="540"/>
+      <c r="G5" s="540"/>
+      <c r="H5" s="540"/>
+      <c r="I5" s="540"/>
+      <c r="J5" s="540"/>
+      <c r="K5" s="541"/>
+      <c r="L5" s="541"/>
     </row>
     <row r="6" spans="1:17" s="210" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="540" t="s">
+      <c r="A6" s="542" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="542" t="s">
+      <c r="B6" s="544" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="540" t="s">
+      <c r="C6" s="542" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="546" t="s">
+      <c r="D6" s="548" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="546"/>
-      <c r="F6" s="547" t="s">
+      <c r="E6" s="548"/>
+      <c r="F6" s="549" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="547"/>
-      <c r="H6" s="547"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="547"/>
-      <c r="K6" s="547"/>
-      <c r="L6" s="547"/>
-      <c r="M6" s="548"/>
-      <c r="N6" s="548"/>
-      <c r="O6" s="548"/>
-      <c r="P6" s="549" t="s">
+      <c r="G6" s="549"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="549"/>
+      <c r="J6" s="549"/>
+      <c r="K6" s="549"/>
+      <c r="L6" s="549"/>
+      <c r="M6" s="550"/>
+      <c r="N6" s="550"/>
+      <c r="O6" s="550"/>
+      <c r="P6" s="551" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="210" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="541"/>
-      <c r="B7" s="543"/>
-      <c r="C7" s="541"/>
-      <c r="D7" s="540" t="s">
+      <c r="A7" s="543"/>
+      <c r="B7" s="545"/>
+      <c r="C7" s="543"/>
+      <c r="D7" s="542" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="540" t="s">
+      <c r="E7" s="542" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="540" t="s">
+      <c r="F7" s="542" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="540" t="s">
+      <c r="G7" s="542" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="544" t="s">
+      <c r="H7" s="546" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="544" t="s">
+      <c r="I7" s="546" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="551" t="s">
+      <c r="J7" s="553" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="551"/>
-      <c r="L7" s="544" t="s">
+      <c r="K7" s="553"/>
+      <c r="L7" s="546" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="544" t="s">
+      <c r="M7" s="546" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="544" t="s">
+      <c r="N7" s="546" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="544" t="s">
+      <c r="O7" s="546" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="550"/>
+      <c r="P7" s="552"/>
     </row>
     <row r="8" spans="1:17" s="210" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="541"/>
-      <c r="B8" s="543"/>
-      <c r="C8" s="541"/>
-      <c r="D8" s="541"/>
-      <c r="E8" s="541"/>
-      <c r="F8" s="541"/>
-      <c r="G8" s="541"/>
-      <c r="H8" s="545"/>
-      <c r="I8" s="545"/>
+      <c r="A8" s="543"/>
+      <c r="B8" s="545"/>
+      <c r="C8" s="543"/>
+      <c r="D8" s="543"/>
+      <c r="E8" s="543"/>
+      <c r="F8" s="543"/>
+      <c r="G8" s="543"/>
+      <c r="H8" s="547"/>
+      <c r="I8" s="547"/>
       <c r="J8" s="350" t="s">
         <v>83</v>
       </c>
       <c r="K8" s="211" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="545"/>
-      <c r="M8" s="545"/>
-      <c r="N8" s="545"/>
-      <c r="O8" s="545"/>
-      <c r="P8" s="550"/>
+      <c r="L8" s="547"/>
+      <c r="M8" s="547"/>
+      <c r="N8" s="547"/>
+      <c r="O8" s="547"/>
+      <c r="P8" s="552"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="510">
+      <c r="A9" s="516">
         <v>630</v>
       </c>
-      <c r="B9" s="518">
+      <c r="B9" s="525">
         <v>44044</v>
       </c>
-      <c r="C9" s="510" t="s">
+      <c r="C9" s="516" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="510"/>
-      <c r="E9" s="510"/>
+      <c r="D9" s="516"/>
+      <c r="E9" s="516"/>
       <c r="F9" s="351" t="s">
         <v>172</v>
       </c>
@@ -7004,11 +7004,11 @@
       <c r="P9" s="351"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="514"/>
-      <c r="B10" s="522"/>
-      <c r="C10" s="514"/>
-      <c r="D10" s="514"/>
-      <c r="E10" s="514"/>
+      <c r="A10" s="517"/>
+      <c r="B10" s="526"/>
+      <c r="C10" s="517"/>
+      <c r="D10" s="517"/>
+      <c r="E10" s="517"/>
       <c r="F10" s="356" t="s">
         <v>173</v>
       </c>
@@ -7039,11 +7039,11 @@
       <c r="P10" s="343"/>
     </row>
     <row r="11" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="514"/>
-      <c r="B11" s="522"/>
-      <c r="C11" s="514"/>
-      <c r="D11" s="514"/>
-      <c r="E11" s="514"/>
+      <c r="A11" s="517"/>
+      <c r="B11" s="526"/>
+      <c r="C11" s="517"/>
+      <c r="D11" s="517"/>
+      <c r="E11" s="517"/>
       <c r="F11" s="356" t="s">
         <v>170</v>
       </c>
@@ -7075,11 +7075,11 @@
       <c r="Q11" s="366"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="511"/>
-      <c r="B12" s="519"/>
-      <c r="C12" s="511"/>
-      <c r="D12" s="511"/>
-      <c r="E12" s="511"/>
+      <c r="A12" s="518"/>
+      <c r="B12" s="527"/>
+      <c r="C12" s="518"/>
+      <c r="D12" s="518"/>
+      <c r="E12" s="518"/>
       <c r="F12" s="352" t="s">
         <v>174</v>
       </c>
@@ -7110,19 +7110,19 @@
       <c r="P12" s="345"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="516">
+      <c r="A13" s="510">
         <v>628</v>
       </c>
-      <c r="B13" s="530">
+      <c r="B13" s="512">
         <v>44045</v>
       </c>
-      <c r="C13" s="516" t="s">
+      <c r="C13" s="510" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="516" t="s">
+      <c r="D13" s="510" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="516" t="s">
+      <c r="E13" s="510" t="s">
         <v>169</v>
       </c>
       <c r="F13" s="344" t="s">
@@ -7155,11 +7155,11 @@
       <c r="P13" s="344"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="517"/>
-      <c r="B14" s="536"/>
-      <c r="C14" s="517"/>
-      <c r="D14" s="517"/>
-      <c r="E14" s="517"/>
+      <c r="A14" s="528"/>
+      <c r="B14" s="529"/>
+      <c r="C14" s="528"/>
+      <c r="D14" s="528"/>
+      <c r="E14" s="528"/>
       <c r="F14" s="371" t="s">
         <v>184</v>
       </c>
@@ -7276,17 +7276,17 @@
       <c r="P16" s="378"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="510">
+      <c r="A17" s="516">
         <v>635</v>
       </c>
-      <c r="B17" s="518">
+      <c r="B17" s="525">
         <v>44047</v>
       </c>
-      <c r="C17" s="510"/>
-      <c r="D17" s="532" t="s">
+      <c r="C17" s="516"/>
+      <c r="D17" s="522" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="532" t="s">
+      <c r="E17" s="522" t="s">
         <v>180</v>
       </c>
       <c r="F17" s="351" t="s">
@@ -7319,11 +7319,11 @@
       <c r="P17" s="382"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="511"/>
-      <c r="B18" s="519"/>
-      <c r="C18" s="511"/>
-      <c r="D18" s="534"/>
-      <c r="E18" s="534"/>
+      <c r="A18" s="518"/>
+      <c r="B18" s="527"/>
+      <c r="C18" s="518"/>
+      <c r="D18" s="524"/>
+      <c r="E18" s="524"/>
       <c r="F18" s="352" t="s">
         <v>173</v>
       </c>
@@ -7354,19 +7354,19 @@
       <c r="P18" s="384"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="510">
+      <c r="A19" s="516">
         <v>637</v>
       </c>
-      <c r="B19" s="518">
+      <c r="B19" s="525">
         <v>44048</v>
       </c>
-      <c r="C19" s="510" t="s">
+      <c r="C19" s="516" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="532" t="s">
+      <c r="D19" s="522" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="532"/>
+      <c r="E19" s="522"/>
       <c r="F19" s="351" t="s">
         <v>172</v>
       </c>
@@ -7397,11 +7397,11 @@
       <c r="P19" s="382"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="514"/>
-      <c r="B20" s="522"/>
-      <c r="C20" s="514"/>
-      <c r="D20" s="533"/>
-      <c r="E20" s="533"/>
+      <c r="A20" s="517"/>
+      <c r="B20" s="526"/>
+      <c r="C20" s="517"/>
+      <c r="D20" s="523"/>
+      <c r="E20" s="523"/>
       <c r="F20" s="356" t="s">
         <v>173</v>
       </c>
@@ -7432,11 +7432,11 @@
       <c r="P20" s="386"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="514"/>
-      <c r="B21" s="522"/>
-      <c r="C21" s="514"/>
-      <c r="D21" s="533"/>
-      <c r="E21" s="533"/>
+      <c r="A21" s="517"/>
+      <c r="B21" s="526"/>
+      <c r="C21" s="517"/>
+      <c r="D21" s="523"/>
+      <c r="E21" s="523"/>
       <c r="F21" s="356" t="s">
         <v>183</v>
       </c>
@@ -7467,11 +7467,11 @@
       <c r="P21" s="386"/>
     </row>
     <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="514"/>
-      <c r="B22" s="522"/>
-      <c r="C22" s="514"/>
-      <c r="D22" s="533"/>
-      <c r="E22" s="533"/>
+      <c r="A22" s="517"/>
+      <c r="B22" s="526"/>
+      <c r="C22" s="517"/>
+      <c r="D22" s="523"/>
+      <c r="E22" s="523"/>
       <c r="F22" s="356" t="s">
         <v>170</v>
       </c>
@@ -7502,11 +7502,11 @@
       <c r="P22" s="386"/>
     </row>
     <row r="23" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="514"/>
-      <c r="B23" s="522"/>
-      <c r="C23" s="514"/>
-      <c r="D23" s="533"/>
-      <c r="E23" s="533"/>
+      <c r="A23" s="517"/>
+      <c r="B23" s="526"/>
+      <c r="C23" s="517"/>
+      <c r="D23" s="523"/>
+      <c r="E23" s="523"/>
       <c r="F23" s="356" t="s">
         <v>174</v>
       </c>
@@ -7538,11 +7538,11 @@
       <c r="R23" s="366"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="514"/>
-      <c r="B24" s="522"/>
-      <c r="C24" s="514"/>
-      <c r="D24" s="533"/>
-      <c r="E24" s="533"/>
+      <c r="A24" s="517"/>
+      <c r="B24" s="526"/>
+      <c r="C24" s="517"/>
+      <c r="D24" s="523"/>
+      <c r="E24" s="523"/>
       <c r="F24" s="356" t="s">
         <v>176</v>
       </c>
@@ -7573,11 +7573,11 @@
       <c r="P24" s="356"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="514"/>
-      <c r="B25" s="522"/>
-      <c r="C25" s="514"/>
-      <c r="D25" s="533"/>
-      <c r="E25" s="533"/>
+      <c r="A25" s="517"/>
+      <c r="B25" s="526"/>
+      <c r="C25" s="517"/>
+      <c r="D25" s="523"/>
+      <c r="E25" s="523"/>
       <c r="F25" s="356" t="s">
         <v>184</v>
       </c>
@@ -7608,11 +7608,11 @@
       <c r="P25" s="356"/>
     </row>
     <row r="26" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="511"/>
-      <c r="B26" s="519"/>
-      <c r="C26" s="511"/>
-      <c r="D26" s="534"/>
-      <c r="E26" s="534"/>
+      <c r="A26" s="518"/>
+      <c r="B26" s="527"/>
+      <c r="C26" s="518"/>
+      <c r="D26" s="524"/>
+      <c r="E26" s="524"/>
       <c r="F26" s="352" t="s">
         <v>185</v>
       </c>
@@ -7643,19 +7643,19 @@
       <c r="P26" s="352"/>
     </row>
     <row r="27" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="510">
+      <c r="A27" s="516">
         <v>638</v>
       </c>
-      <c r="B27" s="518">
+      <c r="B27" s="525">
         <v>44048</v>
       </c>
-      <c r="C27" s="510" t="s">
+      <c r="C27" s="516" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="510" t="s">
+      <c r="D27" s="516" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="510" t="s">
+      <c r="E27" s="516" t="s">
         <v>188</v>
       </c>
       <c r="F27" s="351" t="s">
@@ -7688,11 +7688,11 @@
       <c r="P27" s="351"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="514"/>
-      <c r="B28" s="522"/>
-      <c r="C28" s="514"/>
-      <c r="D28" s="514"/>
-      <c r="E28" s="514"/>
+      <c r="A28" s="517"/>
+      <c r="B28" s="526"/>
+      <c r="C28" s="517"/>
+      <c r="D28" s="517"/>
+      <c r="E28" s="517"/>
       <c r="F28" s="356" t="s">
         <v>172</v>
       </c>
@@ -7723,11 +7723,11 @@
       <c r="P28" s="356"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="514"/>
-      <c r="B29" s="522"/>
-      <c r="C29" s="514"/>
-      <c r="D29" s="514"/>
-      <c r="E29" s="514"/>
+      <c r="A29" s="517"/>
+      <c r="B29" s="526"/>
+      <c r="C29" s="517"/>
+      <c r="D29" s="517"/>
+      <c r="E29" s="517"/>
       <c r="F29" s="356" t="s">
         <v>173</v>
       </c>
@@ -7758,11 +7758,11 @@
       <c r="P29" s="386"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="514"/>
-      <c r="B30" s="522"/>
-      <c r="C30" s="514"/>
-      <c r="D30" s="514"/>
-      <c r="E30" s="514"/>
+      <c r="A30" s="517"/>
+      <c r="B30" s="526"/>
+      <c r="C30" s="517"/>
+      <c r="D30" s="517"/>
+      <c r="E30" s="517"/>
       <c r="F30" s="356" t="s">
         <v>183</v>
       </c>
@@ -7793,11 +7793,11 @@
       <c r="P30" s="356"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="514"/>
-      <c r="B31" s="522"/>
-      <c r="C31" s="514"/>
-      <c r="D31" s="514"/>
-      <c r="E31" s="514"/>
+      <c r="A31" s="517"/>
+      <c r="B31" s="526"/>
+      <c r="C31" s="517"/>
+      <c r="D31" s="517"/>
+      <c r="E31" s="517"/>
       <c r="F31" s="356" t="s">
         <v>170</v>
       </c>
@@ -7828,11 +7828,11 @@
       <c r="P31" s="356"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="514"/>
-      <c r="B32" s="522"/>
-      <c r="C32" s="514"/>
-      <c r="D32" s="514"/>
-      <c r="E32" s="514"/>
+      <c r="A32" s="517"/>
+      <c r="B32" s="526"/>
+      <c r="C32" s="517"/>
+      <c r="D32" s="517"/>
+      <c r="E32" s="517"/>
       <c r="F32" s="356" t="s">
         <v>174</v>
       </c>
@@ -7863,11 +7863,11 @@
       <c r="P32" s="356"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="511"/>
-      <c r="B33" s="519"/>
-      <c r="C33" s="511"/>
-      <c r="D33" s="511"/>
-      <c r="E33" s="511"/>
+      <c r="A33" s="518"/>
+      <c r="B33" s="527"/>
+      <c r="C33" s="518"/>
+      <c r="D33" s="518"/>
+      <c r="E33" s="518"/>
       <c r="F33" s="352" t="s">
         <v>185</v>
       </c>
@@ -7898,17 +7898,17 @@
       <c r="P33" s="393"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="510">
+      <c r="A34" s="516">
         <v>653</v>
       </c>
-      <c r="B34" s="518">
+      <c r="B34" s="525">
         <v>44051</v>
       </c>
-      <c r="C34" s="510"/>
-      <c r="D34" s="510" t="s">
+      <c r="C34" s="516"/>
+      <c r="D34" s="516" t="s">
         <v>272</v>
       </c>
-      <c r="E34" s="510" t="s">
+      <c r="E34" s="516" t="s">
         <v>273</v>
       </c>
       <c r="F34" s="351" t="s">
@@ -7941,11 +7941,11 @@
       <c r="P34" s="394"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="511"/>
-      <c r="B35" s="519"/>
-      <c r="C35" s="511"/>
-      <c r="D35" s="511"/>
-      <c r="E35" s="511"/>
+      <c r="A35" s="518"/>
+      <c r="B35" s="527"/>
+      <c r="C35" s="518"/>
+      <c r="D35" s="518"/>
+      <c r="E35" s="518"/>
       <c r="F35" s="352" t="s">
         <v>185</v>
       </c>
@@ -7976,17 +7976,17 @@
       <c r="P35" s="393"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="516">
+      <c r="A36" s="510">
         <v>646</v>
       </c>
-      <c r="B36" s="530">
+      <c r="B36" s="512">
         <v>44053</v>
       </c>
-      <c r="C36" s="516" t="s">
+      <c r="C36" s="510" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="528"/>
-      <c r="E36" s="516"/>
+      <c r="D36" s="514"/>
+      <c r="E36" s="510"/>
       <c r="F36" s="202" t="s">
         <v>172</v>
       </c>
@@ -8018,11 +8018,11 @@
       <c r="Q36" s="366"/>
     </row>
     <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="526"/>
-      <c r="B37" s="531"/>
-      <c r="C37" s="526"/>
-      <c r="D37" s="529"/>
-      <c r="E37" s="526"/>
+      <c r="A37" s="511"/>
+      <c r="B37" s="513"/>
+      <c r="C37" s="511"/>
+      <c r="D37" s="515"/>
+      <c r="E37" s="511"/>
       <c r="F37" s="354" t="s">
         <v>173</v>
       </c>
@@ -8054,19 +8054,19 @@
       <c r="Q37" s="366"/>
     </row>
     <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="510">
+      <c r="A38" s="516">
         <v>657</v>
       </c>
-      <c r="B38" s="518">
+      <c r="B38" s="525">
         <v>44053</v>
       </c>
-      <c r="C38" s="518" t="s">
+      <c r="C38" s="525" t="s">
         <v>269</v>
       </c>
-      <c r="D38" s="523" t="s">
+      <c r="D38" s="555" t="s">
         <v>270</v>
       </c>
-      <c r="E38" s="518"/>
+      <c r="E38" s="525"/>
       <c r="F38" s="351" t="s">
         <v>172</v>
       </c>
@@ -8095,11 +8095,11 @@
       <c r="Q38" s="366"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="514"/>
-      <c r="B39" s="522"/>
-      <c r="C39" s="522"/>
-      <c r="D39" s="524"/>
-      <c r="E39" s="522"/>
+      <c r="A39" s="517"/>
+      <c r="B39" s="526"/>
+      <c r="C39" s="526"/>
+      <c r="D39" s="556"/>
+      <c r="E39" s="526"/>
       <c r="F39" s="356" t="s">
         <v>173</v>
       </c>
@@ -8128,11 +8128,11 @@
       <c r="Q39" s="366"/>
     </row>
     <row r="40" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="514"/>
-      <c r="B40" s="522"/>
-      <c r="C40" s="522"/>
-      <c r="D40" s="524"/>
-      <c r="E40" s="522"/>
+      <c r="A40" s="517"/>
+      <c r="B40" s="526"/>
+      <c r="C40" s="526"/>
+      <c r="D40" s="556"/>
+      <c r="E40" s="526"/>
       <c r="F40" s="356" t="s">
         <v>183</v>
       </c>
@@ -8161,11 +8161,11 @@
       <c r="Q40" s="366"/>
     </row>
     <row r="41" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="514"/>
-      <c r="B41" s="522"/>
-      <c r="C41" s="522"/>
-      <c r="D41" s="524"/>
-      <c r="E41" s="522"/>
+      <c r="A41" s="517"/>
+      <c r="B41" s="526"/>
+      <c r="C41" s="526"/>
+      <c r="D41" s="556"/>
+      <c r="E41" s="526"/>
       <c r="F41" s="356" t="s">
         <v>170</v>
       </c>
@@ -8194,11 +8194,11 @@
       <c r="Q41" s="366"/>
     </row>
     <row r="42" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="514"/>
-      <c r="B42" s="522"/>
-      <c r="C42" s="522"/>
-      <c r="D42" s="524"/>
-      <c r="E42" s="522"/>
+      <c r="A42" s="517"/>
+      <c r="B42" s="526"/>
+      <c r="C42" s="526"/>
+      <c r="D42" s="556"/>
+      <c r="E42" s="526"/>
       <c r="F42" s="356" t="s">
         <v>174</v>
       </c>
@@ -8227,11 +8227,11 @@
       <c r="Q42" s="366"/>
     </row>
     <row r="43" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="514"/>
-      <c r="B43" s="522"/>
-      <c r="C43" s="522"/>
-      <c r="D43" s="524"/>
-      <c r="E43" s="522"/>
+      <c r="A43" s="517"/>
+      <c r="B43" s="526"/>
+      <c r="C43" s="526"/>
+      <c r="D43" s="556"/>
+      <c r="E43" s="526"/>
       <c r="F43" s="356" t="s">
         <v>176</v>
       </c>
@@ -8260,11 +8260,11 @@
       <c r="Q43" s="366"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="514"/>
-      <c r="B44" s="522"/>
-      <c r="C44" s="522"/>
-      <c r="D44" s="524"/>
-      <c r="E44" s="522"/>
+      <c r="A44" s="517"/>
+      <c r="B44" s="526"/>
+      <c r="C44" s="526"/>
+      <c r="D44" s="556"/>
+      <c r="E44" s="526"/>
       <c r="F44" s="356" t="s">
         <v>184</v>
       </c>
@@ -8293,11 +8293,11 @@
       <c r="Q44" s="366"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="511"/>
-      <c r="B45" s="519"/>
-      <c r="C45" s="519"/>
-      <c r="D45" s="525"/>
-      <c r="E45" s="519"/>
+      <c r="A45" s="518"/>
+      <c r="B45" s="527"/>
+      <c r="C45" s="527"/>
+      <c r="D45" s="557"/>
+      <c r="E45" s="527"/>
       <c r="F45" s="352" t="s">
         <v>185</v>
       </c>
@@ -8368,19 +8368,19 @@
       <c r="Q46" s="366"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="526">
+      <c r="A47" s="511">
         <v>639</v>
       </c>
-      <c r="B47" s="531">
+      <c r="B47" s="513">
         <v>44055</v>
       </c>
-      <c r="C47" s="526" t="s">
+      <c r="C47" s="511" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="529" t="s">
+      <c r="D47" s="515" t="s">
         <v>190</v>
       </c>
-      <c r="E47" s="526"/>
+      <c r="E47" s="511"/>
       <c r="F47" s="355" t="s">
         <v>170</v>
       </c>
@@ -8411,11 +8411,11 @@
       <c r="P47" s="399"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="517"/>
-      <c r="B48" s="536"/>
-      <c r="C48" s="517"/>
-      <c r="D48" s="535"/>
-      <c r="E48" s="517"/>
+      <c r="A48" s="528"/>
+      <c r="B48" s="529"/>
+      <c r="C48" s="528"/>
+      <c r="D48" s="554"/>
+      <c r="E48" s="528"/>
       <c r="F48" s="352" t="s">
         <v>185</v>
       </c>
@@ -8446,19 +8446,19 @@
       <c r="P48" s="393"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="516">
+      <c r="A49" s="510">
         <v>640</v>
       </c>
-      <c r="B49" s="530">
+      <c r="B49" s="512">
         <v>44055</v>
       </c>
-      <c r="C49" s="516" t="s">
+      <c r="C49" s="510" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="528" t="s">
+      <c r="D49" s="514" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="516" t="s">
+      <c r="E49" s="510" t="s">
         <v>192</v>
       </c>
       <c r="F49" s="351" t="s">
@@ -8491,11 +8491,11 @@
       <c r="P49" s="351"/>
     </row>
     <row r="50" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="526"/>
-      <c r="B50" s="531"/>
-      <c r="C50" s="526"/>
-      <c r="D50" s="529"/>
-      <c r="E50" s="526"/>
+      <c r="A50" s="511"/>
+      <c r="B50" s="513"/>
+      <c r="C50" s="511"/>
+      <c r="D50" s="515"/>
+      <c r="E50" s="511"/>
       <c r="F50" s="354" t="s">
         <v>185</v>
       </c>
@@ -8526,19 +8526,19 @@
       <c r="P50" s="354"/>
     </row>
     <row r="51" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="510">
+      <c r="A51" s="516">
         <v>641</v>
       </c>
-      <c r="B51" s="518">
+      <c r="B51" s="525">
         <v>44055</v>
       </c>
-      <c r="C51" s="510" t="s">
+      <c r="C51" s="516" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="532" t="s">
+      <c r="D51" s="522" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="510" t="s">
+      <c r="E51" s="516" t="s">
         <v>193</v>
       </c>
       <c r="F51" s="351" t="s">
@@ -8571,11 +8571,11 @@
       <c r="P51" s="351"/>
     </row>
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="514"/>
-      <c r="B52" s="522"/>
-      <c r="C52" s="514"/>
-      <c r="D52" s="533"/>
-      <c r="E52" s="514"/>
+      <c r="A52" s="517"/>
+      <c r="B52" s="526"/>
+      <c r="C52" s="517"/>
+      <c r="D52" s="523"/>
+      <c r="E52" s="517"/>
       <c r="F52" s="356" t="s">
         <v>172</v>
       </c>
@@ -8606,11 +8606,11 @@
       <c r="P52" s="356"/>
     </row>
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="514"/>
-      <c r="B53" s="522"/>
-      <c r="C53" s="514"/>
-      <c r="D53" s="533"/>
-      <c r="E53" s="514"/>
+      <c r="A53" s="517"/>
+      <c r="B53" s="526"/>
+      <c r="C53" s="517"/>
+      <c r="D53" s="523"/>
+      <c r="E53" s="517"/>
       <c r="F53" s="356" t="s">
         <v>173</v>
       </c>
@@ -8641,11 +8641,11 @@
       <c r="P53" s="356"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="514"/>
-      <c r="B54" s="522"/>
-      <c r="C54" s="514"/>
-      <c r="D54" s="533"/>
-      <c r="E54" s="514"/>
+      <c r="A54" s="517"/>
+      <c r="B54" s="526"/>
+      <c r="C54" s="517"/>
+      <c r="D54" s="523"/>
+      <c r="E54" s="517"/>
       <c r="F54" s="356" t="s">
         <v>183</v>
       </c>
@@ -8676,11 +8676,11 @@
       <c r="P54" s="356"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="514"/>
-      <c r="B55" s="522"/>
-      <c r="C55" s="514"/>
-      <c r="D55" s="533"/>
-      <c r="E55" s="514"/>
+      <c r="A55" s="517"/>
+      <c r="B55" s="526"/>
+      <c r="C55" s="517"/>
+      <c r="D55" s="523"/>
+      <c r="E55" s="517"/>
       <c r="F55" s="356" t="s">
         <v>170</v>
       </c>
@@ -8711,11 +8711,11 @@
       <c r="P55" s="356"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="514"/>
-      <c r="B56" s="522"/>
-      <c r="C56" s="514"/>
-      <c r="D56" s="533"/>
-      <c r="E56" s="514"/>
+      <c r="A56" s="517"/>
+      <c r="B56" s="526"/>
+      <c r="C56" s="517"/>
+      <c r="D56" s="523"/>
+      <c r="E56" s="517"/>
       <c r="F56" s="356" t="s">
         <v>174</v>
       </c>
@@ -8746,11 +8746,11 @@
       <c r="P56" s="356"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="514"/>
-      <c r="B57" s="522"/>
-      <c r="C57" s="514"/>
-      <c r="D57" s="533"/>
-      <c r="E57" s="514"/>
+      <c r="A57" s="517"/>
+      <c r="B57" s="526"/>
+      <c r="C57" s="517"/>
+      <c r="D57" s="523"/>
+      <c r="E57" s="517"/>
       <c r="F57" s="356" t="s">
         <v>176</v>
       </c>
@@ -8781,11 +8781,11 @@
       <c r="P57" s="356"/>
     </row>
     <row r="58" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="514"/>
-      <c r="B58" s="522"/>
-      <c r="C58" s="514"/>
-      <c r="D58" s="533"/>
-      <c r="E58" s="514"/>
+      <c r="A58" s="517"/>
+      <c r="B58" s="526"/>
+      <c r="C58" s="517"/>
+      <c r="D58" s="523"/>
+      <c r="E58" s="517"/>
       <c r="F58" s="356" t="s">
         <v>184</v>
       </c>
@@ -8816,11 +8816,11 @@
       <c r="P58" s="356"/>
     </row>
     <row r="59" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="511"/>
-      <c r="B59" s="519"/>
-      <c r="C59" s="511"/>
-      <c r="D59" s="534"/>
-      <c r="E59" s="511"/>
+      <c r="A59" s="518"/>
+      <c r="B59" s="527"/>
+      <c r="C59" s="518"/>
+      <c r="D59" s="524"/>
+      <c r="E59" s="518"/>
       <c r="F59" s="352" t="s">
         <v>185</v>
       </c>
@@ -8896,19 +8896,19 @@
       <c r="P60" s="353"/>
     </row>
     <row r="61" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="510">
+      <c r="A61" s="516">
         <v>645</v>
       </c>
-      <c r="B61" s="518">
+      <c r="B61" s="525">
         <v>44056</v>
       </c>
-      <c r="C61" s="510" t="s">
+      <c r="C61" s="516" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="532" t="s">
+      <c r="D61" s="522" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="510" t="s">
+      <c r="E61" s="516" t="s">
         <v>193</v>
       </c>
       <c r="F61" s="351" t="s">
@@ -8942,11 +8942,11 @@
       <c r="Q61" s="366"/>
     </row>
     <row r="62" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="514"/>
-      <c r="B62" s="522"/>
-      <c r="C62" s="514"/>
-      <c r="D62" s="533"/>
-      <c r="E62" s="514"/>
+      <c r="A62" s="517"/>
+      <c r="B62" s="526"/>
+      <c r="C62" s="517"/>
+      <c r="D62" s="523"/>
+      <c r="E62" s="517"/>
       <c r="F62" s="356" t="s">
         <v>173</v>
       </c>
@@ -8978,11 +8978,11 @@
       <c r="Q62" s="366"/>
     </row>
     <row r="63" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="514"/>
-      <c r="B63" s="522"/>
-      <c r="C63" s="514"/>
-      <c r="D63" s="533"/>
-      <c r="E63" s="514"/>
+      <c r="A63" s="517"/>
+      <c r="B63" s="526"/>
+      <c r="C63" s="517"/>
+      <c r="D63" s="523"/>
+      <c r="E63" s="517"/>
       <c r="F63" s="356" t="s">
         <v>183</v>
       </c>
@@ -9014,11 +9014,11 @@
       <c r="Q63" s="366"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="514"/>
-      <c r="B64" s="522"/>
-      <c r="C64" s="514"/>
-      <c r="D64" s="533"/>
-      <c r="E64" s="514"/>
+      <c r="A64" s="517"/>
+      <c r="B64" s="526"/>
+      <c r="C64" s="517"/>
+      <c r="D64" s="523"/>
+      <c r="E64" s="517"/>
       <c r="F64" s="356" t="s">
         <v>174</v>
       </c>
@@ -9050,11 +9050,11 @@
       <c r="Q64" s="366"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="514"/>
-      <c r="B65" s="522"/>
-      <c r="C65" s="514"/>
-      <c r="D65" s="533"/>
-      <c r="E65" s="514"/>
+      <c r="A65" s="517"/>
+      <c r="B65" s="526"/>
+      <c r="C65" s="517"/>
+      <c r="D65" s="523"/>
+      <c r="E65" s="517"/>
       <c r="F65" s="356" t="s">
         <v>176</v>
       </c>
@@ -9086,11 +9086,11 @@
       <c r="Q65" s="366"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="514"/>
-      <c r="B66" s="522"/>
-      <c r="C66" s="514"/>
-      <c r="D66" s="533"/>
-      <c r="E66" s="514"/>
+      <c r="A66" s="517"/>
+      <c r="B66" s="526"/>
+      <c r="C66" s="517"/>
+      <c r="D66" s="523"/>
+      <c r="E66" s="517"/>
       <c r="F66" s="356" t="s">
         <v>184</v>
       </c>
@@ -9122,11 +9122,11 @@
       <c r="Q66" s="366"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="511"/>
-      <c r="B67" s="519"/>
-      <c r="C67" s="511"/>
-      <c r="D67" s="534"/>
-      <c r="E67" s="511"/>
+      <c r="A67" s="518"/>
+      <c r="B67" s="527"/>
+      <c r="C67" s="518"/>
+      <c r="D67" s="524"/>
+      <c r="E67" s="518"/>
       <c r="F67" s="352" t="s">
         <v>185</v>
       </c>
@@ -9158,19 +9158,19 @@
       <c r="Q67" s="366"/>
     </row>
     <row r="68" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="510">
+      <c r="A68" s="516">
         <v>647</v>
       </c>
-      <c r="B68" s="518">
+      <c r="B68" s="525">
         <v>44056</v>
       </c>
-      <c r="C68" s="510" t="s">
+      <c r="C68" s="516" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="532" t="s">
+      <c r="D68" s="522" t="s">
         <v>197</v>
       </c>
-      <c r="E68" s="510" t="s">
+      <c r="E68" s="516" t="s">
         <v>198</v>
       </c>
       <c r="F68" s="351" t="s">
@@ -9200,17 +9200,17 @@
       </c>
       <c r="N68" s="362"/>
       <c r="O68" s="362"/>
-      <c r="P68" s="532" t="s">
+      <c r="P68" s="522" t="s">
         <v>199</v>
       </c>
       <c r="Q68" s="366"/>
     </row>
     <row r="69" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="511"/>
-      <c r="B69" s="519"/>
-      <c r="C69" s="511"/>
-      <c r="D69" s="534"/>
-      <c r="E69" s="511"/>
+      <c r="A69" s="518"/>
+      <c r="B69" s="527"/>
+      <c r="C69" s="518"/>
+      <c r="D69" s="524"/>
+      <c r="E69" s="518"/>
       <c r="F69" s="352" t="s">
         <v>173</v>
       </c>
@@ -9238,7 +9238,7 @@
       </c>
       <c r="N69" s="367"/>
       <c r="O69" s="367"/>
-      <c r="P69" s="534"/>
+      <c r="P69" s="524"/>
       <c r="Q69" s="366"/>
     </row>
     <row r="70" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -9283,19 +9283,19 @@
       <c r="Q70" s="366"/>
     </row>
     <row r="71" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="510">
+      <c r="A71" s="516">
         <v>650</v>
       </c>
-      <c r="B71" s="518">
+      <c r="B71" s="525">
         <v>44057</v>
       </c>
-      <c r="C71" s="510" t="s">
+      <c r="C71" s="516" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="532" t="s">
+      <c r="D71" s="522" t="s">
         <v>194</v>
       </c>
-      <c r="E71" s="510" t="s">
+      <c r="E71" s="516" t="s">
         <v>193</v>
       </c>
       <c r="F71" s="351" t="s">
@@ -9329,11 +9329,11 @@
       <c r="Q71" s="366"/>
     </row>
     <row r="72" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="514"/>
-      <c r="B72" s="522"/>
-      <c r="C72" s="514"/>
-      <c r="D72" s="533"/>
-      <c r="E72" s="514"/>
+      <c r="A72" s="517"/>
+      <c r="B72" s="526"/>
+      <c r="C72" s="517"/>
+      <c r="D72" s="523"/>
+      <c r="E72" s="517"/>
       <c r="F72" s="356" t="s">
         <v>173</v>
       </c>
@@ -9365,11 +9365,11 @@
       <c r="Q72" s="366"/>
     </row>
     <row r="73" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="514"/>
-      <c r="B73" s="522"/>
-      <c r="C73" s="514"/>
-      <c r="D73" s="533"/>
-      <c r="E73" s="514"/>
+      <c r="A73" s="517"/>
+      <c r="B73" s="526"/>
+      <c r="C73" s="517"/>
+      <c r="D73" s="523"/>
+      <c r="E73" s="517"/>
       <c r="F73" s="356" t="s">
         <v>183</v>
       </c>
@@ -9401,11 +9401,11 @@
       <c r="Q73" s="366"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="514"/>
-      <c r="B74" s="522"/>
-      <c r="C74" s="514"/>
-      <c r="D74" s="533"/>
-      <c r="E74" s="514"/>
+      <c r="A74" s="517"/>
+      <c r="B74" s="526"/>
+      <c r="C74" s="517"/>
+      <c r="D74" s="523"/>
+      <c r="E74" s="517"/>
       <c r="F74" s="356" t="s">
         <v>170</v>
       </c>
@@ -9437,11 +9437,11 @@
       <c r="Q74" s="366"/>
     </row>
     <row r="75" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="514"/>
-      <c r="B75" s="522"/>
-      <c r="C75" s="514"/>
-      <c r="D75" s="533"/>
-      <c r="E75" s="514"/>
+      <c r="A75" s="517"/>
+      <c r="B75" s="526"/>
+      <c r="C75" s="517"/>
+      <c r="D75" s="523"/>
+      <c r="E75" s="517"/>
       <c r="F75" s="356" t="s">
         <v>184</v>
       </c>
@@ -9473,11 +9473,11 @@
       <c r="Q75" s="366"/>
     </row>
     <row r="76" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="511"/>
-      <c r="B76" s="519"/>
-      <c r="C76" s="511"/>
-      <c r="D76" s="534"/>
-      <c r="E76" s="511"/>
+      <c r="A76" s="518"/>
+      <c r="B76" s="527"/>
+      <c r="C76" s="518"/>
+      <c r="D76" s="524"/>
+      <c r="E76" s="518"/>
       <c r="F76" s="352" t="s">
         <v>185</v>
       </c>
@@ -9509,17 +9509,17 @@
       <c r="Q76" s="366"/>
     </row>
     <row r="77" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="510">
+      <c r="A77" s="516">
         <v>751</v>
       </c>
-      <c r="B77" s="518">
+      <c r="B77" s="525">
         <v>44060</v>
       </c>
-      <c r="C77" s="510"/>
-      <c r="D77" s="532" t="s">
+      <c r="C77" s="516"/>
+      <c r="D77" s="522" t="s">
         <v>200</v>
       </c>
-      <c r="E77" s="510" t="s">
+      <c r="E77" s="516" t="s">
         <v>201</v>
       </c>
       <c r="F77" s="351" t="s">
@@ -9555,11 +9555,11 @@
       <c r="Q77" s="366"/>
     </row>
     <row r="78" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="514"/>
-      <c r="B78" s="522"/>
-      <c r="C78" s="514"/>
-      <c r="D78" s="533"/>
-      <c r="E78" s="514"/>
+      <c r="A78" s="517"/>
+      <c r="B78" s="526"/>
+      <c r="C78" s="517"/>
+      <c r="D78" s="523"/>
+      <c r="E78" s="517"/>
       <c r="F78" s="356" t="s">
         <v>172</v>
       </c>
@@ -9590,11 +9590,11 @@
       <c r="P78" s="404"/>
     </row>
     <row r="79" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="514"/>
-      <c r="B79" s="522"/>
-      <c r="C79" s="514"/>
-      <c r="D79" s="533"/>
-      <c r="E79" s="514"/>
+      <c r="A79" s="517"/>
+      <c r="B79" s="526"/>
+      <c r="C79" s="517"/>
+      <c r="D79" s="523"/>
+      <c r="E79" s="517"/>
       <c r="F79" s="356" t="s">
         <v>170</v>
       </c>
@@ -9625,11 +9625,11 @@
       <c r="P79" s="404"/>
     </row>
     <row r="80" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="511"/>
-      <c r="B80" s="519"/>
-      <c r="C80" s="511"/>
-      <c r="D80" s="534"/>
-      <c r="E80" s="511"/>
+      <c r="A80" s="518"/>
+      <c r="B80" s="527"/>
+      <c r="C80" s="518"/>
+      <c r="D80" s="524"/>
+      <c r="E80" s="518"/>
       <c r="F80" s="352" t="s">
         <v>185</v>
       </c>
@@ -9750,17 +9750,17 @@
       <c r="P82" s="407"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="510">
+      <c r="A83" s="516">
         <v>757</v>
       </c>
-      <c r="B83" s="512">
+      <c r="B83" s="519">
         <v>44061</v>
       </c>
-      <c r="C83" s="510"/>
-      <c r="D83" s="510" t="s">
+      <c r="C83" s="516"/>
+      <c r="D83" s="516" t="s">
         <v>206</v>
       </c>
-      <c r="E83" s="510" t="s">
+      <c r="E83" s="516" t="s">
         <v>207</v>
       </c>
       <c r="F83" s="351" t="s">
@@ -9793,11 +9793,11 @@
       <c r="P83" s="394"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="514"/>
-      <c r="B84" s="515"/>
-      <c r="C84" s="514"/>
-      <c r="D84" s="514"/>
-      <c r="E84" s="514"/>
+      <c r="A84" s="517"/>
+      <c r="B84" s="520"/>
+      <c r="C84" s="517"/>
+      <c r="D84" s="517"/>
+      <c r="E84" s="517"/>
       <c r="F84" s="356" t="s">
         <v>173</v>
       </c>
@@ -9828,11 +9828,11 @@
       <c r="P84" s="404"/>
     </row>
     <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="514"/>
-      <c r="B85" s="515"/>
-      <c r="C85" s="514"/>
-      <c r="D85" s="514"/>
-      <c r="E85" s="514"/>
+      <c r="A85" s="517"/>
+      <c r="B85" s="520"/>
+      <c r="C85" s="517"/>
+      <c r="D85" s="517"/>
+      <c r="E85" s="517"/>
       <c r="F85" s="356" t="s">
         <v>183</v>
       </c>
@@ -9863,11 +9863,11 @@
       <c r="P85" s="404"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="514"/>
-      <c r="B86" s="515"/>
-      <c r="C86" s="514"/>
-      <c r="D86" s="514"/>
-      <c r="E86" s="514"/>
+      <c r="A86" s="517"/>
+      <c r="B86" s="520"/>
+      <c r="C86" s="517"/>
+      <c r="D86" s="517"/>
+      <c r="E86" s="517"/>
       <c r="F86" s="356" t="s">
         <v>170</v>
       </c>
@@ -9898,11 +9898,11 @@
       <c r="P86" s="404"/>
     </row>
     <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="514"/>
-      <c r="B87" s="515"/>
-      <c r="C87" s="514"/>
-      <c r="D87" s="514"/>
-      <c r="E87" s="514"/>
+      <c r="A87" s="517"/>
+      <c r="B87" s="520"/>
+      <c r="C87" s="517"/>
+      <c r="D87" s="517"/>
+      <c r="E87" s="517"/>
       <c r="F87" s="356" t="s">
         <v>184</v>
       </c>
@@ -9933,11 +9933,11 @@
       <c r="P87" s="356"/>
     </row>
     <row r="88" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="511"/>
-      <c r="B88" s="513"/>
-      <c r="C88" s="511"/>
-      <c r="D88" s="511"/>
-      <c r="E88" s="511"/>
+      <c r="A88" s="518"/>
+      <c r="B88" s="521"/>
+      <c r="C88" s="518"/>
+      <c r="D88" s="518"/>
+      <c r="E88" s="518"/>
       <c r="F88" s="352" t="s">
         <v>185</v>
       </c>
@@ -9968,17 +9968,17 @@
       <c r="P88" s="352"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="516">
+      <c r="A89" s="510">
         <v>761</v>
       </c>
-      <c r="B89" s="520">
+      <c r="B89" s="535">
         <v>44063</v>
       </c>
-      <c r="C89" s="516"/>
-      <c r="D89" s="516" t="s">
+      <c r="C89" s="510"/>
+      <c r="D89" s="510" t="s">
         <v>200</v>
       </c>
-      <c r="E89" s="516" t="s">
+      <c r="E89" s="510" t="s">
         <v>201</v>
       </c>
       <c r="F89" s="351" t="s">
@@ -10013,11 +10013,11 @@
       <c r="P89" s="346"/>
     </row>
     <row r="90" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="526"/>
-      <c r="B90" s="527"/>
-      <c r="C90" s="526"/>
-      <c r="D90" s="526"/>
-      <c r="E90" s="526"/>
+      <c r="A90" s="511"/>
+      <c r="B90" s="536"/>
+      <c r="C90" s="511"/>
+      <c r="D90" s="511"/>
+      <c r="E90" s="511"/>
       <c r="F90" s="354" t="s">
         <v>183</v>
       </c>
@@ -10048,19 +10048,19 @@
       <c r="P90" s="408"/>
     </row>
     <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="510">
+      <c r="A91" s="516">
         <v>762</v>
       </c>
-      <c r="B91" s="512">
+      <c r="B91" s="519">
         <v>44063</v>
       </c>
-      <c r="C91" s="510" t="s">
+      <c r="C91" s="516" t="s">
         <v>187</v>
       </c>
-      <c r="D91" s="510" t="s">
+      <c r="D91" s="516" t="s">
         <v>208</v>
       </c>
-      <c r="E91" s="510"/>
+      <c r="E91" s="516"/>
       <c r="F91" s="351" t="s">
         <v>189</v>
       </c>
@@ -10091,11 +10091,11 @@
       <c r="P91" s="346"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="514"/>
-      <c r="B92" s="515"/>
-      <c r="C92" s="514"/>
-      <c r="D92" s="514"/>
-      <c r="E92" s="514"/>
+      <c r="A92" s="517"/>
+      <c r="B92" s="520"/>
+      <c r="C92" s="517"/>
+      <c r="D92" s="517"/>
+      <c r="E92" s="517"/>
       <c r="F92" s="356" t="s">
         <v>172</v>
       </c>
@@ -10126,11 +10126,11 @@
       <c r="P92" s="356"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="514"/>
-      <c r="B93" s="515"/>
-      <c r="C93" s="514"/>
-      <c r="D93" s="514"/>
-      <c r="E93" s="514"/>
+      <c r="A93" s="517"/>
+      <c r="B93" s="520"/>
+      <c r="C93" s="517"/>
+      <c r="D93" s="517"/>
+      <c r="E93" s="517"/>
       <c r="F93" s="356" t="s">
         <v>173</v>
       </c>
@@ -10161,11 +10161,11 @@
       <c r="P93" s="343"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="511"/>
-      <c r="B94" s="513"/>
-      <c r="C94" s="511"/>
-      <c r="D94" s="511"/>
-      <c r="E94" s="511"/>
+      <c r="A94" s="518"/>
+      <c r="B94" s="521"/>
+      <c r="C94" s="518"/>
+      <c r="D94" s="518"/>
+      <c r="E94" s="518"/>
       <c r="F94" s="352" t="s">
         <v>185</v>
       </c>
@@ -10196,17 +10196,17 @@
       <c r="P94" s="345"/>
     </row>
     <row r="95" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="510">
+      <c r="A95" s="516">
         <v>763</v>
       </c>
-      <c r="B95" s="512">
+      <c r="B95" s="519">
         <v>44063</v>
       </c>
-      <c r="C95" s="510"/>
-      <c r="D95" s="510" t="s">
+      <c r="C95" s="516"/>
+      <c r="D95" s="516" t="s">
         <v>179</v>
       </c>
-      <c r="E95" s="510" t="s">
+      <c r="E95" s="516" t="s">
         <v>180</v>
       </c>
       <c r="F95" s="351" t="s">
@@ -10239,11 +10239,11 @@
       <c r="P95" s="346"/>
     </row>
     <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="514"/>
-      <c r="B96" s="515"/>
-      <c r="C96" s="514"/>
-      <c r="D96" s="514"/>
-      <c r="E96" s="514"/>
+      <c r="A96" s="517"/>
+      <c r="B96" s="520"/>
+      <c r="C96" s="517"/>
+      <c r="D96" s="517"/>
+      <c r="E96" s="517"/>
       <c r="F96" s="356" t="s">
         <v>172</v>
       </c>
@@ -10274,11 +10274,11 @@
       <c r="P96" s="343"/>
     </row>
     <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="511"/>
-      <c r="B97" s="513"/>
-      <c r="C97" s="511"/>
-      <c r="D97" s="511"/>
-      <c r="E97" s="511"/>
+      <c r="A97" s="518"/>
+      <c r="B97" s="521"/>
+      <c r="C97" s="518"/>
+      <c r="D97" s="518"/>
+      <c r="E97" s="518"/>
       <c r="F97" s="352" t="s">
         <v>170</v>
       </c>
@@ -10309,17 +10309,17 @@
       <c r="P97" s="345"/>
     </row>
     <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="516">
+      <c r="A98" s="510">
         <v>764</v>
       </c>
-      <c r="B98" s="520">
+      <c r="B98" s="535">
         <v>44065</v>
       </c>
-      <c r="C98" s="516"/>
-      <c r="D98" s="516" t="s">
+      <c r="C98" s="510"/>
+      <c r="D98" s="510" t="s">
         <v>179</v>
       </c>
-      <c r="E98" s="516" t="s">
+      <c r="E98" s="510" t="s">
         <v>180</v>
       </c>
       <c r="F98" s="355" t="s">
@@ -10352,11 +10352,11 @@
       <c r="P98" s="360"/>
     </row>
     <row r="99" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="526"/>
-      <c r="B99" s="527"/>
-      <c r="C99" s="526"/>
-      <c r="D99" s="526"/>
-      <c r="E99" s="526"/>
+      <c r="A99" s="511"/>
+      <c r="B99" s="536"/>
+      <c r="C99" s="511"/>
+      <c r="D99" s="511"/>
+      <c r="E99" s="511"/>
       <c r="F99" s="356" t="s">
         <v>173</v>
       </c>
@@ -10387,11 +10387,11 @@
       <c r="P99" s="360"/>
     </row>
     <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="526"/>
-      <c r="B100" s="527"/>
-      <c r="C100" s="526"/>
-      <c r="D100" s="526"/>
-      <c r="E100" s="526"/>
+      <c r="A100" s="511"/>
+      <c r="B100" s="536"/>
+      <c r="C100" s="511"/>
+      <c r="D100" s="511"/>
+      <c r="E100" s="511"/>
       <c r="F100" s="356" t="s">
         <v>183</v>
       </c>
@@ -10422,11 +10422,11 @@
       <c r="P100" s="360"/>
     </row>
     <row r="101" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="517"/>
-      <c r="B101" s="521"/>
-      <c r="C101" s="517"/>
-      <c r="D101" s="517"/>
-      <c r="E101" s="517"/>
+      <c r="A101" s="528"/>
+      <c r="B101" s="537"/>
+      <c r="C101" s="528"/>
+      <c r="D101" s="528"/>
+      <c r="E101" s="528"/>
       <c r="F101" s="352" t="s">
         <v>185</v>
       </c>
@@ -10457,17 +10457,17 @@
       <c r="P101" s="375"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="516">
-        <v>768</v>
-      </c>
-      <c r="B102" s="520">
+      <c r="A102" s="510">
+        <v>660</v>
+      </c>
+      <c r="B102" s="535">
         <v>44065</v>
       </c>
-      <c r="C102" s="516"/>
-      <c r="D102" s="516" t="s">
+      <c r="C102" s="510"/>
+      <c r="D102" s="510" t="s">
         <v>220</v>
       </c>
-      <c r="E102" s="516" t="s">
+      <c r="E102" s="510" t="s">
         <v>180</v>
       </c>
       <c r="F102" s="351" t="s">
@@ -10484,25 +10484,27 @@
         <v>5400000</v>
       </c>
       <c r="J102" s="362"/>
-      <c r="K102" s="363"/>
+      <c r="K102" s="363">
+        <v>0.38</v>
+      </c>
       <c r="L102" s="367">
         <f t="shared" si="15"/>
-        <v>5400000</v>
+        <v>3348000</v>
       </c>
       <c r="M102" s="362"/>
       <c r="N102" s="362"/>
       <c r="O102" s="367">
         <f t="shared" si="17"/>
-        <v>5400000</v>
+        <v>3348000</v>
       </c>
       <c r="P102" s="342"/>
     </row>
     <row r="103" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="526"/>
-      <c r="B103" s="527"/>
-      <c r="C103" s="526"/>
-      <c r="D103" s="526"/>
-      <c r="E103" s="526"/>
+      <c r="A103" s="511"/>
+      <c r="B103" s="536"/>
+      <c r="C103" s="511"/>
+      <c r="D103" s="511"/>
+      <c r="E103" s="511"/>
       <c r="F103" s="356" t="s">
         <v>172</v>
       </c>
@@ -10517,25 +10519,27 @@
         <v>5460000</v>
       </c>
       <c r="J103" s="364"/>
-      <c r="K103" s="365"/>
+      <c r="K103" s="365">
+        <v>0.38</v>
+      </c>
       <c r="L103" s="367">
         <f t="shared" si="15"/>
-        <v>5460000</v>
+        <v>3385200</v>
       </c>
       <c r="M103" s="364"/>
       <c r="N103" s="364"/>
       <c r="O103" s="367">
         <f t="shared" si="17"/>
-        <v>5460000</v>
+        <v>3385200</v>
       </c>
       <c r="P103" s="360"/>
     </row>
     <row r="104" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="526"/>
-      <c r="B104" s="527"/>
-      <c r="C104" s="526"/>
-      <c r="D104" s="526"/>
-      <c r="E104" s="526"/>
+      <c r="A104" s="511"/>
+      <c r="B104" s="536"/>
+      <c r="C104" s="511"/>
+      <c r="D104" s="511"/>
+      <c r="E104" s="511"/>
       <c r="F104" s="354" t="s">
         <v>174</v>
       </c>
@@ -10550,31 +10554,33 @@
         <v>5820000</v>
       </c>
       <c r="J104" s="397"/>
-      <c r="K104" s="398"/>
+      <c r="K104" s="398">
+        <v>0.38</v>
+      </c>
       <c r="L104" s="397">
         <f t="shared" si="15"/>
-        <v>5820000</v>
+        <v>3608400</v>
       </c>
       <c r="M104" s="397"/>
       <c r="N104" s="397"/>
       <c r="O104" s="397">
         <f t="shared" si="17"/>
-        <v>5820000</v>
+        <v>3608400</v>
       </c>
       <c r="P104" s="360"/>
     </row>
     <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="516">
+      <c r="A105" s="510">
         <v>773</v>
       </c>
-      <c r="B105" s="520">
+      <c r="B105" s="535">
         <v>44066</v>
       </c>
-      <c r="C105" s="516"/>
-      <c r="D105" s="516" t="s">
+      <c r="C105" s="510"/>
+      <c r="D105" s="510" t="s">
         <v>276</v>
       </c>
-      <c r="E105" s="516" t="s">
+      <c r="E105" s="510" t="s">
         <v>277</v>
       </c>
       <c r="F105" s="351" t="s">
@@ -10607,11 +10613,11 @@
       <c r="P105" s="346"/>
     </row>
     <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="517"/>
-      <c r="B106" s="521"/>
-      <c r="C106" s="517"/>
-      <c r="D106" s="517"/>
-      <c r="E106" s="517"/>
+      <c r="A106" s="528"/>
+      <c r="B106" s="537"/>
+      <c r="C106" s="528"/>
+      <c r="D106" s="528"/>
+      <c r="E106" s="528"/>
       <c r="F106" s="352" t="s">
         <v>278</v>
       </c>
@@ -10642,19 +10648,19 @@
       <c r="P106" s="345"/>
     </row>
     <row r="107" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="556">
+      <c r="A107" s="530">
         <v>769</v>
       </c>
-      <c r="B107" s="557">
+      <c r="B107" s="538">
         <v>44068</v>
       </c>
-      <c r="C107" s="556" t="s">
+      <c r="C107" s="530" t="s">
         <v>187</v>
       </c>
-      <c r="D107" s="556" t="s">
+      <c r="D107" s="530" t="s">
         <v>208</v>
       </c>
-      <c r="E107" s="556"/>
+      <c r="E107" s="530"/>
       <c r="F107" s="344" t="s">
         <v>189</v>
       </c>
@@ -10685,11 +10691,11 @@
       <c r="P107" s="422"/>
     </row>
     <row r="108" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="556"/>
-      <c r="B108" s="557"/>
-      <c r="C108" s="556"/>
-      <c r="D108" s="556"/>
-      <c r="E108" s="556"/>
+      <c r="A108" s="530"/>
+      <c r="B108" s="538"/>
+      <c r="C108" s="530"/>
+      <c r="D108" s="530"/>
+      <c r="E108" s="530"/>
       <c r="F108" s="344" t="s">
         <v>172</v>
       </c>
@@ -10720,11 +10726,11 @@
       <c r="P108" s="422"/>
     </row>
     <row r="109" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="556"/>
-      <c r="B109" s="557"/>
-      <c r="C109" s="556"/>
-      <c r="D109" s="556"/>
-      <c r="E109" s="556"/>
+      <c r="A109" s="530"/>
+      <c r="B109" s="538"/>
+      <c r="C109" s="530"/>
+      <c r="D109" s="530"/>
+      <c r="E109" s="530"/>
       <c r="F109" s="344" t="s">
         <v>221</v>
       </c>
@@ -10755,11 +10761,11 @@
       <c r="P109" s="422"/>
     </row>
     <row r="110" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="556"/>
-      <c r="B110" s="557"/>
-      <c r="C110" s="556"/>
-      <c r="D110" s="556"/>
-      <c r="E110" s="556"/>
+      <c r="A110" s="530"/>
+      <c r="B110" s="538"/>
+      <c r="C110" s="530"/>
+      <c r="D110" s="530"/>
+      <c r="E110" s="530"/>
       <c r="F110" s="344" t="s">
         <v>170</v>
       </c>
@@ -10790,11 +10796,11 @@
       <c r="P110" s="422"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="556"/>
-      <c r="B111" s="557"/>
-      <c r="C111" s="556"/>
-      <c r="D111" s="556"/>
-      <c r="E111" s="556"/>
+      <c r="A111" s="530"/>
+      <c r="B111" s="538"/>
+      <c r="C111" s="530"/>
+      <c r="D111" s="530"/>
+      <c r="E111" s="530"/>
       <c r="F111" s="344" t="s">
         <v>176</v>
       </c>
@@ -10825,11 +10831,11 @@
       <c r="P111" s="344"/>
     </row>
     <row r="112" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="556"/>
-      <c r="B112" s="557"/>
-      <c r="C112" s="556"/>
-      <c r="D112" s="556"/>
-      <c r="E112" s="556"/>
+      <c r="A112" s="530"/>
+      <c r="B112" s="538"/>
+      <c r="C112" s="530"/>
+      <c r="D112" s="530"/>
+      <c r="E112" s="530"/>
       <c r="F112" s="344" t="s">
         <v>185</v>
       </c>
@@ -10861,10 +10867,10 @@
     </row>
     <row r="113" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="422">
-        <v>774</v>
+        <v>661</v>
       </c>
       <c r="B113" s="423">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="C113" s="422"/>
       <c r="D113" s="422" t="s">
@@ -10901,19 +10907,19 @@
       <c r="P113" s="344"/>
     </row>
     <row r="114" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="510">
+      <c r="A114" s="516">
         <v>777</v>
       </c>
-      <c r="B114" s="512">
+      <c r="B114" s="519">
         <v>44070</v>
       </c>
-      <c r="C114" s="510" t="s">
+      <c r="C114" s="516" t="s">
         <v>167</v>
       </c>
-      <c r="D114" s="510" t="s">
+      <c r="D114" s="516" t="s">
         <v>280</v>
       </c>
-      <c r="E114" s="510" t="s">
+      <c r="E114" s="516" t="s">
         <v>281</v>
       </c>
       <c r="F114" s="351" t="s">
@@ -10946,11 +10952,11 @@
       <c r="P114" s="351"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="511"/>
-      <c r="B115" s="513"/>
-      <c r="C115" s="511"/>
-      <c r="D115" s="511"/>
-      <c r="E115" s="511"/>
+      <c r="A115" s="518"/>
+      <c r="B115" s="521"/>
+      <c r="C115" s="518"/>
+      <c r="D115" s="518"/>
+      <c r="E115" s="518"/>
       <c r="F115" s="352" t="s">
         <v>185</v>
       </c>
@@ -11063,19 +11069,19 @@
       <c r="P117" s="344"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="510">
+      <c r="A118" s="516">
         <v>780</v>
       </c>
-      <c r="B118" s="512">
+      <c r="B118" s="519">
         <v>44071</v>
       </c>
-      <c r="C118" s="510" t="s">
+      <c r="C118" s="516" t="s">
         <v>187</v>
       </c>
-      <c r="D118" s="510" t="s">
+      <c r="D118" s="516" t="s">
         <v>283</v>
       </c>
-      <c r="E118" s="510"/>
+      <c r="E118" s="516"/>
       <c r="F118" s="351" t="s">
         <v>172</v>
       </c>
@@ -11106,11 +11112,11 @@
       <c r="P118" s="351"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="514"/>
-      <c r="B119" s="515"/>
-      <c r="C119" s="514"/>
-      <c r="D119" s="514"/>
-      <c r="E119" s="514"/>
+      <c r="A119" s="517"/>
+      <c r="B119" s="520"/>
+      <c r="C119" s="517"/>
+      <c r="D119" s="517"/>
+      <c r="E119" s="517"/>
       <c r="F119" s="356" t="s">
         <v>173</v>
       </c>
@@ -11141,11 +11147,11 @@
       <c r="P119" s="356"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="514"/>
-      <c r="B120" s="515"/>
-      <c r="C120" s="514"/>
-      <c r="D120" s="514"/>
-      <c r="E120" s="514"/>
+      <c r="A120" s="517"/>
+      <c r="B120" s="520"/>
+      <c r="C120" s="517"/>
+      <c r="D120" s="517"/>
+      <c r="E120" s="517"/>
       <c r="F120" s="356" t="s">
         <v>183</v>
       </c>
@@ -11176,11 +11182,11 @@
       <c r="P120" s="356"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="511"/>
-      <c r="B121" s="513"/>
-      <c r="C121" s="511"/>
-      <c r="D121" s="511"/>
-      <c r="E121" s="511"/>
+      <c r="A121" s="518"/>
+      <c r="B121" s="521"/>
+      <c r="C121" s="518"/>
+      <c r="D121" s="518"/>
+      <c r="E121" s="518"/>
       <c r="F121" s="352" t="s">
         <v>170</v>
       </c>
@@ -11252,14 +11258,14 @@
       <c r="P122" s="401"/>
     </row>
     <row r="123" spans="1:17" s="222" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A123" s="553" t="s">
+      <c r="A123" s="532" t="s">
         <v>76</v>
       </c>
-      <c r="B123" s="553"/>
-      <c r="C123" s="553"/>
-      <c r="D123" s="553"/>
-      <c r="E123" s="553"/>
-      <c r="F123" s="553"/>
+      <c r="B123" s="532"/>
+      <c r="C123" s="532"/>
+      <c r="D123" s="532"/>
+      <c r="E123" s="532"/>
+      <c r="F123" s="532"/>
       <c r="G123" s="262">
         <f>SUM(G13:G122)</f>
         <v>3212</v>
@@ -11273,23 +11279,23 @@
       <c r="K123" s="266"/>
       <c r="L123" s="267">
         <f>SUM(L13:L122)</f>
-        <v>778250100</v>
+        <v>771911700</v>
       </c>
       <c r="M123" s="268"/>
       <c r="N123" s="268"/>
       <c r="O123" s="268"/>
-      <c r="P123" s="554"/>
-      <c r="Q123" s="555"/>
+      <c r="P123" s="533"/>
+      <c r="Q123" s="534"/>
     </row>
     <row r="124" spans="1:17" s="222" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A124" s="552" t="s">
+      <c r="A124" s="531" t="s">
         <v>128</v>
       </c>
-      <c r="B124" s="552"/>
-      <c r="C124" s="552"/>
-      <c r="D124" s="552"/>
-      <c r="E124" s="552"/>
-      <c r="F124" s="552"/>
+      <c r="B124" s="531"/>
+      <c r="C124" s="531"/>
+      <c r="D124" s="531"/>
+      <c r="E124" s="531"/>
+      <c r="F124" s="531"/>
       <c r="G124" s="216">
         <f>G123</f>
         <v>3212</v>
@@ -11300,23 +11306,23 @@
       <c r="K124" s="220"/>
       <c r="L124" s="221">
         <f>L123</f>
-        <v>778250100</v>
+        <v>771911700</v>
       </c>
       <c r="M124" s="219"/>
       <c r="N124" s="219"/>
       <c r="O124" s="219"/>
-      <c r="P124" s="554"/>
-      <c r="Q124" s="555"/>
+      <c r="P124" s="533"/>
+      <c r="Q124" s="534"/>
     </row>
     <row r="125" spans="1:17" s="222" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A125" s="552" t="s">
+      <c r="A125" s="531" t="s">
         <v>77</v>
       </c>
-      <c r="B125" s="552"/>
-      <c r="C125" s="552"/>
-      <c r="D125" s="552"/>
-      <c r="E125" s="552"/>
-      <c r="F125" s="552"/>
+      <c r="B125" s="531"/>
+      <c r="C125" s="531"/>
+      <c r="D125" s="531"/>
+      <c r="E125" s="531"/>
+      <c r="F125" s="531"/>
       <c r="G125" s="223" t="s">
         <v>49</v>
       </c>
@@ -11333,14 +11339,14 @@
       <c r="O125" s="219"/>
     </row>
     <row r="126" spans="1:17" s="222" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A126" s="552" t="s">
+      <c r="A126" s="531" t="s">
         <v>78</v>
       </c>
-      <c r="B126" s="552"/>
-      <c r="C126" s="552"/>
-      <c r="D126" s="552"/>
-      <c r="E126" s="552"/>
-      <c r="F126" s="552"/>
+      <c r="B126" s="531"/>
+      <c r="C126" s="531"/>
+      <c r="D126" s="531"/>
+      <c r="E126" s="531"/>
+      <c r="F126" s="531"/>
       <c r="G126" s="223"/>
       <c r="H126" s="244"/>
       <c r="I126" s="217"/>
@@ -11355,14 +11361,14 @@
       <c r="O126" s="219"/>
     </row>
     <row r="127" spans="1:17" s="222" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A127" s="552" t="s">
+      <c r="A127" s="531" t="s">
         <v>79</v>
       </c>
-      <c r="B127" s="552"/>
-      <c r="C127" s="552"/>
-      <c r="D127" s="552"/>
-      <c r="E127" s="552"/>
-      <c r="F127" s="552"/>
+      <c r="B127" s="531"/>
+      <c r="C127" s="531"/>
+      <c r="D127" s="531"/>
+      <c r="E127" s="531"/>
+      <c r="F127" s="531"/>
       <c r="G127" s="223"/>
       <c r="H127" s="244"/>
       <c r="I127" s="217"/>
@@ -11370,7 +11376,7 @@
       <c r="K127" s="220"/>
       <c r="L127" s="221">
         <f>SUM(O13:O122)</f>
-        <v>650584900</v>
+        <v>644246500</v>
       </c>
       <c r="M127" s="219"/>
       <c r="N127" s="219"/>
@@ -11438,6 +11444,137 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="155">
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="E51:E59"/>
+    <mergeCell ref="D51:D59"/>
+    <mergeCell ref="C51:C59"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="P123:P124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="Q123:Q124"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="D107:D112"/>
+    <mergeCell ref="C107:C112"/>
+    <mergeCell ref="E107:E112"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="D61:D67"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="E91:E94"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D89:D90"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
@@ -11462,137 +11599,6 @@
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="C61:C67"/>
-    <mergeCell ref="D61:D67"/>
-    <mergeCell ref="E61:E67"/>
-    <mergeCell ref="E91:E94"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="P123:P124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="Q123:Q124"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="D107:D112"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="E107:E112"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="E51:E59"/>
-    <mergeCell ref="D51:D59"/>
-    <mergeCell ref="C51:C59"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="E38:E45"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E118:E121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11603,7 +11609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -11625,93 +11631,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="576" t="s">
+      <c r="A1" s="558" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="576"/>
-      <c r="C1" s="576"/>
-      <c r="D1" s="576"/>
+      <c r="B1" s="558"/>
+      <c r="C1" s="558"/>
+      <c r="D1" s="558"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="577" t="s">
+      <c r="A2" s="559" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="577"/>
-      <c r="C2" s="577"/>
-      <c r="D2" s="577"/>
+      <c r="B2" s="559"/>
+      <c r="C2" s="559"/>
+      <c r="D2" s="559"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="584" t="s">
+      <c r="A3" s="572" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="584"/>
-      <c r="C3" s="584"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="584"/>
-      <c r="F3" s="584"/>
-      <c r="G3" s="584"/>
-      <c r="H3" s="584"/>
-      <c r="I3" s="584"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="584"/>
-      <c r="L3" s="584"/>
-      <c r="M3" s="584"/>
-      <c r="N3" s="584"/>
+      <c r="B3" s="572"/>
+      <c r="C3" s="572"/>
+      <c r="D3" s="572"/>
+      <c r="E3" s="572"/>
+      <c r="F3" s="572"/>
+      <c r="G3" s="572"/>
+      <c r="H3" s="572"/>
+      <c r="I3" s="572"/>
+      <c r="J3" s="572"/>
+      <c r="K3" s="572"/>
+      <c r="L3" s="572"/>
+      <c r="M3" s="572"/>
+      <c r="N3" s="572"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="585" t="s">
+      <c r="A4" s="573" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="585"/>
-      <c r="C4" s="585"/>
-      <c r="D4" s="585"/>
-      <c r="E4" s="585"/>
-      <c r="F4" s="585"/>
-      <c r="G4" s="585"/>
-      <c r="H4" s="585"/>
-      <c r="I4" s="586"/>
-      <c r="J4" s="585"/>
-      <c r="K4" s="585"/>
-      <c r="L4" s="585"/>
-      <c r="M4" s="585"/>
-      <c r="N4" s="585"/>
+      <c r="B4" s="573"/>
+      <c r="C4" s="573"/>
+      <c r="D4" s="573"/>
+      <c r="E4" s="573"/>
+      <c r="F4" s="573"/>
+      <c r="G4" s="573"/>
+      <c r="H4" s="573"/>
+      <c r="I4" s="574"/>
+      <c r="J4" s="573"/>
+      <c r="K4" s="573"/>
+      <c r="L4" s="573"/>
+      <c r="M4" s="573"/>
+      <c r="N4" s="573"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="587" t="s">
+      <c r="A5" s="575" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="572" t="s">
+      <c r="B5" s="583" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="565" t="s">
+      <c r="C5" s="576" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="573" t="s">
+      <c r="E5" s="584" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="573"/>
-      <c r="G5" s="573"/>
-      <c r="H5" s="573"/>
-      <c r="I5" s="574"/>
-      <c r="J5" s="575" t="s">
+      <c r="F5" s="584"/>
+      <c r="G5" s="584"/>
+      <c r="H5" s="584"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="573" t="s">
+      <c r="K5" s="584" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="573"/>
-      <c r="M5" s="573"/>
-      <c r="N5" s="565" t="s">
+      <c r="L5" s="584"/>
+      <c r="M5" s="584"/>
+      <c r="N5" s="576" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="587"/>
-      <c r="B6" s="572"/>
-      <c r="C6" s="565"/>
+      <c r="A6" s="575"/>
+      <c r="B6" s="583"/>
+      <c r="C6" s="576"/>
       <c r="D6" s="237" t="s">
         <v>41</v>
       </c>
@@ -11730,7 +11736,7 @@
       <c r="I6" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="575"/>
+      <c r="J6" s="586"/>
       <c r="K6" s="237" t="s">
         <v>45</v>
       </c>
@@ -11740,7 +11746,7 @@
       <c r="M6" s="237" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="565"/>
+      <c r="N6" s="576"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="419">
@@ -11784,16 +11790,16 @@
       <c r="N7" s="291"/>
     </row>
     <row r="8" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="578">
+      <c r="A8" s="566">
         <v>656</v>
       </c>
-      <c r="B8" s="562">
+      <c r="B8" s="560">
         <v>44053</v>
       </c>
-      <c r="C8" s="581" t="s">
+      <c r="C8" s="569" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="581" t="s">
+      <c r="D8" s="569" t="s">
         <v>179</v>
       </c>
       <c r="E8" s="329" t="s">
@@ -11826,10 +11832,10 @@
       <c r="Q8" s="215"/>
     </row>
     <row r="9" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="580"/>
-      <c r="B9" s="564"/>
-      <c r="C9" s="582"/>
-      <c r="D9" s="582"/>
+      <c r="A9" s="568"/>
+      <c r="B9" s="561"/>
+      <c r="C9" s="570"/>
+      <c r="D9" s="570"/>
       <c r="E9" s="330" t="s">
         <v>173</v>
       </c>
@@ -11860,10 +11866,10 @@
       <c r="Q9" s="215"/>
     </row>
     <row r="10" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="580"/>
-      <c r="B10" s="564"/>
-      <c r="C10" s="582"/>
-      <c r="D10" s="582"/>
+      <c r="A10" s="568"/>
+      <c r="B10" s="561"/>
+      <c r="C10" s="570"/>
+      <c r="D10" s="570"/>
       <c r="E10" s="330" t="s">
         <v>183</v>
       </c>
@@ -11894,10 +11900,10 @@
       <c r="Q10" s="215"/>
     </row>
     <row r="11" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="580"/>
-      <c r="B11" s="564"/>
-      <c r="C11" s="582"/>
-      <c r="D11" s="582"/>
+      <c r="A11" s="568"/>
+      <c r="B11" s="561"/>
+      <c r="C11" s="570"/>
+      <c r="D11" s="570"/>
       <c r="E11" s="330" t="s">
         <v>170</v>
       </c>
@@ -11928,10 +11934,10 @@
       <c r="Q11" s="215"/>
     </row>
     <row r="12" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="580"/>
-      <c r="B12" s="564"/>
-      <c r="C12" s="582"/>
-      <c r="D12" s="582"/>
+      <c r="A12" s="568"/>
+      <c r="B12" s="561"/>
+      <c r="C12" s="570"/>
+      <c r="D12" s="570"/>
       <c r="E12" s="330" t="s">
         <v>174</v>
       </c>
@@ -11962,10 +11968,10 @@
       <c r="Q12" s="215"/>
     </row>
     <row r="13" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="580"/>
-      <c r="B13" s="564"/>
-      <c r="C13" s="582"/>
-      <c r="D13" s="582"/>
+      <c r="A13" s="568"/>
+      <c r="B13" s="561"/>
+      <c r="C13" s="570"/>
+      <c r="D13" s="570"/>
       <c r="E13" s="330" t="s">
         <v>176</v>
       </c>
@@ -11996,10 +12002,10 @@
       <c r="Q13" s="215"/>
     </row>
     <row r="14" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="580"/>
-      <c r="B14" s="564"/>
-      <c r="C14" s="582"/>
-      <c r="D14" s="582"/>
+      <c r="A14" s="568"/>
+      <c r="B14" s="561"/>
+      <c r="C14" s="570"/>
+      <c r="D14" s="570"/>
       <c r="E14" s="330" t="s">
         <v>184</v>
       </c>
@@ -12030,10 +12036,10 @@
       <c r="Q14" s="215"/>
     </row>
     <row r="15" spans="1:17" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="579"/>
-      <c r="B15" s="563"/>
-      <c r="C15" s="583"/>
-      <c r="D15" s="583"/>
+      <c r="A15" s="567"/>
+      <c r="B15" s="562"/>
+      <c r="C15" s="571"/>
+      <c r="D15" s="571"/>
       <c r="E15" s="331" t="s">
         <v>185</v>
       </c>
@@ -12104,14 +12110,14 @@
       <c r="Q16" s="215"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="578">
+      <c r="A17" s="566">
         <v>642</v>
       </c>
-      <c r="B17" s="562">
+      <c r="B17" s="560">
         <v>44056</v>
       </c>
-      <c r="C17" s="559"/>
-      <c r="D17" s="559" t="s">
+      <c r="C17" s="563"/>
+      <c r="D17" s="563" t="s">
         <v>179</v>
       </c>
       <c r="E17" s="142" t="s">
@@ -12143,10 +12149,10 @@
       <c r="N17" s="145"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="579"/>
-      <c r="B18" s="563"/>
-      <c r="C18" s="561"/>
-      <c r="D18" s="561"/>
+      <c r="A18" s="567"/>
+      <c r="B18" s="562"/>
+      <c r="C18" s="565"/>
+      <c r="D18" s="565"/>
       <c r="E18" s="151" t="s">
         <v>184</v>
       </c>
@@ -12256,14 +12262,14 @@
       <c r="N20" s="146"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="570">
+      <c r="A21" s="581">
         <v>776</v>
       </c>
-      <c r="B21" s="568">
+      <c r="B21" s="579">
         <v>44070</v>
       </c>
-      <c r="C21" s="566"/>
-      <c r="D21" s="566" t="s">
+      <c r="C21" s="577"/>
+      <c r="D21" s="577" t="s">
         <v>279</v>
       </c>
       <c r="E21" s="146" t="s">
@@ -12295,10 +12301,10 @@
       <c r="N21" s="146"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="571"/>
-      <c r="B22" s="569"/>
-      <c r="C22" s="567"/>
-      <c r="D22" s="567"/>
+      <c r="A22" s="582"/>
+      <c r="B22" s="580"/>
+      <c r="C22" s="578"/>
+      <c r="D22" s="578"/>
       <c r="E22" s="146" t="s">
         <v>176</v>
       </c>
@@ -12399,10 +12405,10 @@
       <c r="N25" s="154"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="559"/>
-      <c r="B26" s="562"/>
-      <c r="C26" s="559"/>
-      <c r="D26" s="559"/>
+      <c r="A26" s="563"/>
+      <c r="B26" s="560"/>
+      <c r="C26" s="563"/>
+      <c r="D26" s="563"/>
       <c r="E26" s="142"/>
       <c r="F26" s="142"/>
       <c r="G26" s="143"/>
@@ -12415,10 +12421,10 @@
       <c r="N26" s="145"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="560"/>
-      <c r="B27" s="564"/>
-      <c r="C27" s="560"/>
-      <c r="D27" s="560"/>
+      <c r="A27" s="564"/>
+      <c r="B27" s="561"/>
+      <c r="C27" s="564"/>
+      <c r="D27" s="564"/>
       <c r="E27" s="146"/>
       <c r="F27" s="146"/>
       <c r="G27" s="147"/>
@@ -12431,10 +12437,10 @@
       <c r="N27" s="150"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="561"/>
-      <c r="B28" s="563"/>
-      <c r="C28" s="561"/>
-      <c r="D28" s="561"/>
+      <c r="A28" s="565"/>
+      <c r="B28" s="562"/>
+      <c r="C28" s="565"/>
+      <c r="D28" s="565"/>
       <c r="E28" s="151"/>
       <c r="F28" s="151"/>
       <c r="G28" s="152"/>
@@ -12447,10 +12453,10 @@
       <c r="N28" s="154"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="559"/>
-      <c r="B29" s="562"/>
-      <c r="C29" s="559"/>
-      <c r="D29" s="559"/>
+      <c r="A29" s="563"/>
+      <c r="B29" s="560"/>
+      <c r="C29" s="563"/>
+      <c r="D29" s="563"/>
       <c r="E29" s="142"/>
       <c r="F29" s="142"/>
       <c r="G29" s="143"/>
@@ -12463,10 +12469,10 @@
       <c r="N29" s="145"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="560"/>
-      <c r="B30" s="564"/>
-      <c r="C30" s="560"/>
-      <c r="D30" s="560"/>
+      <c r="A30" s="564"/>
+      <c r="B30" s="561"/>
+      <c r="C30" s="564"/>
+      <c r="D30" s="564"/>
       <c r="E30" s="146"/>
       <c r="F30" s="146"/>
       <c r="G30" s="147"/>
@@ -12479,10 +12485,10 @@
       <c r="N30" s="150"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="560"/>
-      <c r="B31" s="564"/>
-      <c r="C31" s="560"/>
-      <c r="D31" s="560"/>
+      <c r="A31" s="564"/>
+      <c r="B31" s="561"/>
+      <c r="C31" s="564"/>
+      <c r="D31" s="564"/>
       <c r="E31" s="146"/>
       <c r="F31" s="146"/>
       <c r="G31" s="147"/>
@@ -12495,10 +12501,10 @@
       <c r="N31" s="150"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="561"/>
-      <c r="B32" s="563"/>
-      <c r="C32" s="561"/>
-      <c r="D32" s="561"/>
+      <c r="A32" s="565"/>
+      <c r="B32" s="562"/>
+      <c r="C32" s="565"/>
+      <c r="D32" s="565"/>
       <c r="E32" s="151"/>
       <c r="F32" s="151"/>
       <c r="G32" s="152"/>
@@ -12575,10 +12581,10 @@
       <c r="N36" s="98"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="559"/>
-      <c r="B37" s="562"/>
-      <c r="C37" s="559"/>
-      <c r="D37" s="559"/>
+      <c r="A37" s="563"/>
+      <c r="B37" s="560"/>
+      <c r="C37" s="563"/>
+      <c r="D37" s="563"/>
       <c r="E37" s="142"/>
       <c r="F37" s="142"/>
       <c r="G37" s="143"/>
@@ -12591,10 +12597,10 @@
       <c r="N37" s="145"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="561"/>
-      <c r="B38" s="563"/>
-      <c r="C38" s="561"/>
-      <c r="D38" s="561"/>
+      <c r="A38" s="565"/>
+      <c r="B38" s="562"/>
+      <c r="C38" s="565"/>
+      <c r="D38" s="565"/>
       <c r="E38" s="151"/>
       <c r="F38" s="151"/>
       <c r="G38" s="152"/>
@@ -12639,12 +12645,12 @@
       <c r="N40" s="98"/>
     </row>
     <row r="41" spans="1:14" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="558" t="s">
+      <c r="A41" s="587" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="558"/>
-      <c r="C41" s="558"/>
-      <c r="D41" s="558"/>
+      <c r="B41" s="587"/>
+      <c r="C41" s="587"/>
+      <c r="D41" s="587"/>
       <c r="E41" s="88"/>
       <c r="F41" s="88">
         <f>SUM(F7:F40)</f>
@@ -12732,6 +12738,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B26:B28"/>
@@ -12748,26 +12774,6 @@
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12958,7 +12964,7 @@
       </c>
       <c r="D8" s="65">
         <f>'DOANH THU'!L124</f>
-        <v>778250100</v>
+        <v>771911700</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="56"/>
@@ -13058,7 +13064,7 @@
       <c r="C12" s="72"/>
       <c r="D12" s="73">
         <f>D8-D9-D10</f>
-        <v>650584900</v>
+        <v>644246500</v>
       </c>
       <c r="E12" s="70"/>
       <c r="F12" s="56"/>
@@ -13313,13 +13319,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="607" t="s">
+      <c r="A1" s="622" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="607"/>
-      <c r="C1" s="607"/>
-      <c r="D1" s="607"/>
-      <c r="E1" s="607"/>
+      <c r="B1" s="622"/>
+      <c r="C1" s="622"/>
+      <c r="D1" s="622"/>
+      <c r="E1" s="622"/>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
@@ -13339,105 +13345,105 @@
       <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="608" t="s">
+      <c r="A3" s="598" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="608"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="608"/>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="608"/>
-      <c r="L3" s="608"/>
+      <c r="B3" s="598"/>
+      <c r="C3" s="598"/>
+      <c r="D3" s="598"/>
+      <c r="E3" s="598"/>
+      <c r="F3" s="598"/>
+      <c r="G3" s="598"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="598"/>
+      <c r="J3" s="598"/>
+      <c r="K3" s="598"/>
+      <c r="L3" s="598"/>
     </row>
     <row r="4" spans="1:12" s="99" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="609" t="s">
+      <c r="A4" s="597" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="613" t="s">
+      <c r="B4" s="617" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="609" t="s">
+      <c r="C4" s="597" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="609" t="s">
+      <c r="D4" s="597" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="609"/>
-      <c r="F4" s="612" t="s">
+      <c r="E4" s="597"/>
+      <c r="F4" s="596" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="612"/>
-      <c r="H4" s="612"/>
-      <c r="I4" s="612"/>
-      <c r="J4" s="612"/>
-      <c r="K4" s="612"/>
-      <c r="L4" s="612"/>
+      <c r="G4" s="596"/>
+      <c r="H4" s="596"/>
+      <c r="I4" s="596"/>
+      <c r="J4" s="596"/>
+      <c r="K4" s="596"/>
+      <c r="L4" s="596"/>
     </row>
     <row r="5" spans="1:12" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="609"/>
-      <c r="B5" s="613"/>
-      <c r="C5" s="609"/>
-      <c r="D5" s="609" t="s">
+      <c r="A5" s="597"/>
+      <c r="B5" s="617"/>
+      <c r="C5" s="597"/>
+      <c r="D5" s="597" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="609" t="s">
+      <c r="E5" s="597" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="609" t="s">
+      <c r="F5" s="597" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="609" t="s">
+      <c r="G5" s="597" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="610" t="s">
+      <c r="H5" s="600" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="610" t="s">
+      <c r="I5" s="600" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="611" t="s">
+      <c r="J5" s="599" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="611"/>
-      <c r="L5" s="610" t="s">
+      <c r="K5" s="599"/>
+      <c r="L5" s="600" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="99" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="609"/>
-      <c r="B6" s="613"/>
-      <c r="C6" s="609"/>
-      <c r="D6" s="609"/>
-      <c r="E6" s="609"/>
-      <c r="F6" s="609"/>
-      <c r="G6" s="609"/>
-      <c r="H6" s="610"/>
-      <c r="I6" s="610"/>
+      <c r="A6" s="597"/>
+      <c r="B6" s="617"/>
+      <c r="C6" s="597"/>
+      <c r="D6" s="597"/>
+      <c r="E6" s="597"/>
+      <c r="F6" s="597"/>
+      <c r="G6" s="597"/>
+      <c r="H6" s="600"/>
+      <c r="I6" s="600"/>
       <c r="J6" s="102" t="s">
         <v>83</v>
       </c>
       <c r="K6" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="610"/>
+      <c r="L6" s="600"/>
     </row>
     <row r="7" spans="1:12" s="214" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="559">
+      <c r="A7" s="563">
         <v>630</v>
       </c>
-      <c r="B7" s="562">
+      <c r="B7" s="560">
         <v>44044</v>
       </c>
-      <c r="C7" s="559" t="s">
+      <c r="C7" s="563" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="559"/>
-      <c r="E7" s="559"/>
+      <c r="D7" s="563"/>
+      <c r="E7" s="563"/>
       <c r="F7" s="269" t="s">
         <v>172</v>
       </c>
@@ -13459,11 +13465,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="214" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="560"/>
-      <c r="B8" s="564"/>
-      <c r="C8" s="560"/>
-      <c r="D8" s="560"/>
-      <c r="E8" s="560"/>
+      <c r="A8" s="564"/>
+      <c r="B8" s="561"/>
+      <c r="C8" s="564"/>
+      <c r="D8" s="564"/>
+      <c r="E8" s="564"/>
       <c r="F8" s="270" t="s">
         <v>173</v>
       </c>
@@ -13485,11 +13491,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="560"/>
-      <c r="B9" s="564"/>
-      <c r="C9" s="560"/>
-      <c r="D9" s="560"/>
-      <c r="E9" s="560"/>
+      <c r="A9" s="564"/>
+      <c r="B9" s="561"/>
+      <c r="C9" s="564"/>
+      <c r="D9" s="564"/>
+      <c r="E9" s="564"/>
       <c r="F9" s="270" t="s">
         <v>170</v>
       </c>
@@ -13511,11 +13517,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="214" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="561"/>
-      <c r="B10" s="563"/>
-      <c r="C10" s="561"/>
-      <c r="D10" s="561"/>
-      <c r="E10" s="561"/>
+      <c r="A10" s="565"/>
+      <c r="B10" s="562"/>
+      <c r="C10" s="565"/>
+      <c r="D10" s="565"/>
+      <c r="E10" s="565"/>
       <c r="F10" s="271" t="s">
         <v>174</v>
       </c>
@@ -13569,17 +13575,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="214" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="614">
+      <c r="A12" s="615">
         <v>646</v>
       </c>
-      <c r="B12" s="616">
+      <c r="B12" s="618">
         <v>44053</v>
       </c>
-      <c r="C12" s="614" t="s">
+      <c r="C12" s="615" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="618"/>
-      <c r="E12" s="614"/>
+      <c r="D12" s="620"/>
+      <c r="E12" s="615"/>
       <c r="F12" s="214" t="s">
         <v>172</v>
       </c>
@@ -13601,11 +13607,11 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="615"/>
-      <c r="B13" s="617"/>
-      <c r="C13" s="615"/>
-      <c r="D13" s="619"/>
-      <c r="E13" s="615"/>
+      <c r="A13" s="616"/>
+      <c r="B13" s="619"/>
+      <c r="C13" s="616"/>
+      <c r="D13" s="621"/>
+      <c r="E13" s="616"/>
       <c r="F13" s="273" t="s">
         <v>173</v>
       </c>
@@ -13627,14 +13633,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="598" t="s">
+      <c r="A14" s="603" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="599"/>
-      <c r="C14" s="599"/>
-      <c r="D14" s="599"/>
-      <c r="E14" s="599"/>
-      <c r="F14" s="600"/>
+      <c r="B14" s="604"/>
+      <c r="C14" s="604"/>
+      <c r="D14" s="604"/>
+      <c r="E14" s="604"/>
+      <c r="F14" s="605"/>
       <c r="G14" s="297">
         <f>SUM(G7:G13)</f>
         <v>11</v>
@@ -13680,107 +13686,107 @@
       <c r="L16" s="319"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="608" t="s">
+      <c r="A17" s="598" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="608"/>
-      <c r="C17" s="608"/>
-      <c r="D17" s="608"/>
-      <c r="E17" s="608"/>
-      <c r="F17" s="608"/>
-      <c r="G17" s="608"/>
-      <c r="H17" s="608"/>
-      <c r="I17" s="608"/>
-      <c r="J17" s="608"/>
-      <c r="K17" s="608"/>
-      <c r="L17" s="608"/>
+      <c r="B17" s="598"/>
+      <c r="C17" s="598"/>
+      <c r="D17" s="598"/>
+      <c r="E17" s="598"/>
+      <c r="F17" s="598"/>
+      <c r="G17" s="598"/>
+      <c r="H17" s="598"/>
+      <c r="I17" s="598"/>
+      <c r="J17" s="598"/>
+      <c r="K17" s="598"/>
+      <c r="L17" s="598"/>
     </row>
     <row r="18" spans="1:13" s="99" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="609" t="s">
+      <c r="A18" s="597" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="613" t="s">
+      <c r="B18" s="617" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="609" t="s">
+      <c r="C18" s="597" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="609" t="s">
+      <c r="D18" s="597" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="609"/>
-      <c r="F18" s="612" t="s">
+      <c r="E18" s="597"/>
+      <c r="F18" s="596" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="612"/>
-      <c r="H18" s="612"/>
-      <c r="I18" s="612"/>
-      <c r="J18" s="612"/>
-      <c r="K18" s="612"/>
-      <c r="L18" s="612"/>
+      <c r="G18" s="596"/>
+      <c r="H18" s="596"/>
+      <c r="I18" s="596"/>
+      <c r="J18" s="596"/>
+      <c r="K18" s="596"/>
+      <c r="L18" s="596"/>
     </row>
     <row r="19" spans="1:13" s="99" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="609"/>
-      <c r="B19" s="613"/>
-      <c r="C19" s="609"/>
-      <c r="D19" s="609" t="s">
+      <c r="A19" s="597"/>
+      <c r="B19" s="617"/>
+      <c r="C19" s="597"/>
+      <c r="D19" s="597" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="609" t="s">
+      <c r="E19" s="597" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="609" t="s">
+      <c r="F19" s="597" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="609" t="s">
+      <c r="G19" s="597" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="610" t="s">
+      <c r="H19" s="600" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="610" t="s">
+      <c r="I19" s="600" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="611" t="s">
+      <c r="J19" s="599" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="611"/>
-      <c r="L19" s="610" t="s">
+      <c r="K19" s="599"/>
+      <c r="L19" s="600" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="99" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="609"/>
-      <c r="B20" s="613"/>
-      <c r="C20" s="609"/>
-      <c r="D20" s="609"/>
-      <c r="E20" s="609"/>
-      <c r="F20" s="609"/>
-      <c r="G20" s="609"/>
-      <c r="H20" s="610"/>
-      <c r="I20" s="610"/>
+      <c r="A20" s="597"/>
+      <c r="B20" s="617"/>
+      <c r="C20" s="597"/>
+      <c r="D20" s="597"/>
+      <c r="E20" s="597"/>
+      <c r="F20" s="597"/>
+      <c r="G20" s="597"/>
+      <c r="H20" s="600"/>
+      <c r="I20" s="600"/>
       <c r="J20" s="275" t="s">
         <v>83</v>
       </c>
       <c r="K20" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="610"/>
+      <c r="L20" s="600"/>
     </row>
     <row r="21" spans="1:13" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="559">
+      <c r="A21" s="563">
         <v>647</v>
       </c>
-      <c r="B21" s="562">
+      <c r="B21" s="560">
         <v>44056</v>
       </c>
-      <c r="C21" s="559" t="s">
+      <c r="C21" s="563" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="620" t="s">
+      <c r="D21" s="613" t="s">
         <v>197</v>
       </c>
-      <c r="E21" s="559" t="s">
+      <c r="E21" s="563" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="269" t="s">
@@ -13807,11 +13813,11 @@
       <c r="M21" s="215"/>
     </row>
     <row r="22" spans="1:13" s="214" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="561"/>
-      <c r="B22" s="563"/>
-      <c r="C22" s="561"/>
-      <c r="D22" s="621"/>
-      <c r="E22" s="561"/>
+      <c r="A22" s="565"/>
+      <c r="B22" s="562"/>
+      <c r="C22" s="565"/>
+      <c r="D22" s="614"/>
+      <c r="E22" s="565"/>
       <c r="F22" s="271" t="s">
         <v>173</v>
       </c>
@@ -13844,23 +13850,23 @@
       <c r="F23" s="299"/>
       <c r="G23" s="299"/>
       <c r="H23" s="299"/>
-      <c r="I23" s="622" t="s">
+      <c r="I23" s="602" t="s">
         <v>210</v>
       </c>
-      <c r="J23" s="622"/>
-      <c r="K23" s="622"/>
+      <c r="J23" s="602"/>
+      <c r="K23" s="602"/>
       <c r="L23" s="469">
         <v>382000</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="598" t="s">
+      <c r="A24" s="603" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="599"/>
-      <c r="C24" s="599"/>
-      <c r="D24" s="599"/>
-      <c r="E24" s="600"/>
+      <c r="B24" s="604"/>
+      <c r="C24" s="604"/>
+      <c r="D24" s="604"/>
+      <c r="E24" s="605"/>
       <c r="F24" s="302"/>
       <c r="G24" s="302">
         <f>SUM(G21:G23)</f>
@@ -13893,92 +13899,92 @@
       <c r="L25" s="318"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="608" t="s">
+      <c r="A26" s="598" t="s">
         <v>267</v>
       </c>
-      <c r="B26" s="608"/>
-      <c r="C26" s="608"/>
-      <c r="D26" s="608"/>
-      <c r="E26" s="608"/>
-      <c r="F26" s="608"/>
-      <c r="G26" s="608"/>
-      <c r="H26" s="608"/>
-      <c r="I26" s="608"/>
-      <c r="J26" s="608"/>
-      <c r="K26" s="608"/>
-      <c r="L26" s="608"/>
+      <c r="B26" s="598"/>
+      <c r="C26" s="598"/>
+      <c r="D26" s="598"/>
+      <c r="E26" s="598"/>
+      <c r="F26" s="598"/>
+      <c r="G26" s="598"/>
+      <c r="H26" s="598"/>
+      <c r="I26" s="598"/>
+      <c r="J26" s="598"/>
+      <c r="K26" s="598"/>
+      <c r="L26" s="598"/>
     </row>
     <row r="27" spans="1:13" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="609" t="s">
+      <c r="A27" s="597" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="628" t="s">
+      <c r="B27" s="601" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="609" t="s">
+      <c r="C27" s="597" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="609" t="s">
+      <c r="D27" s="597" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="609"/>
-      <c r="F27" s="612" t="s">
+      <c r="E27" s="597"/>
+      <c r="F27" s="596" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="612"/>
-      <c r="H27" s="612"/>
-      <c r="I27" s="612"/>
-      <c r="J27" s="612"/>
-      <c r="K27" s="612"/>
-      <c r="L27" s="612"/>
+      <c r="G27" s="596"/>
+      <c r="H27" s="596"/>
+      <c r="I27" s="596"/>
+      <c r="J27" s="596"/>
+      <c r="K27" s="596"/>
+      <c r="L27" s="596"/>
     </row>
     <row r="28" spans="1:13" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="609"/>
-      <c r="B28" s="628"/>
-      <c r="C28" s="609"/>
-      <c r="D28" s="609" t="s">
+      <c r="A28" s="597"/>
+      <c r="B28" s="601"/>
+      <c r="C28" s="597"/>
+      <c r="D28" s="597" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="609" t="s">
+      <c r="E28" s="597" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="609" t="s">
+      <c r="F28" s="597" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="609" t="s">
+      <c r="G28" s="597" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="610" t="s">
+      <c r="H28" s="600" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="610" t="s">
+      <c r="I28" s="600" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="611" t="s">
+      <c r="J28" s="599" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="611"/>
-      <c r="L28" s="610" t="s">
+      <c r="K28" s="599"/>
+      <c r="L28" s="600" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="609"/>
-      <c r="B29" s="628"/>
-      <c r="C29" s="609"/>
-      <c r="D29" s="609"/>
-      <c r="E29" s="609"/>
-      <c r="F29" s="609"/>
-      <c r="G29" s="609"/>
-      <c r="H29" s="610"/>
-      <c r="I29" s="610"/>
+      <c r="A29" s="597"/>
+      <c r="B29" s="601"/>
+      <c r="C29" s="597"/>
+      <c r="D29" s="597"/>
+      <c r="E29" s="597"/>
+      <c r="F29" s="597"/>
+      <c r="G29" s="597"/>
+      <c r="H29" s="600"/>
+      <c r="I29" s="600"/>
       <c r="J29" s="327" t="s">
         <v>83</v>
       </c>
       <c r="K29" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="610"/>
+      <c r="L29" s="600"/>
     </row>
     <row r="30" spans="1:13" s="214" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="158">
@@ -14028,11 +14034,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="305" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="608" t="s">
+      <c r="A32" s="598" t="s">
         <v>211</v>
       </c>
-      <c r="B32" s="608"/>
-      <c r="C32" s="608"/>
+      <c r="B32" s="598"/>
+      <c r="C32" s="598"/>
       <c r="D32" s="315"/>
       <c r="E32" s="315"/>
       <c r="F32" s="315"/>
@@ -14045,225 +14051,225 @@
       <c r="A33" s="274"/>
       <c r="B33" s="274"/>
       <c r="C33" s="274"/>
-      <c r="D33" s="625" t="s">
+      <c r="D33" s="610" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="626"/>
-      <c r="F33" s="626"/>
-      <c r="G33" s="626"/>
-      <c r="H33" s="626"/>
-      <c r="I33" s="627"/>
-      <c r="J33" s="623" t="s">
+      <c r="E33" s="611"/>
+      <c r="F33" s="611"/>
+      <c r="G33" s="611"/>
+      <c r="H33" s="611"/>
+      <c r="I33" s="612"/>
+      <c r="J33" s="608" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="624"/>
+      <c r="K33" s="609"/>
       <c r="L33" s="304"/>
     </row>
     <row r="34" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="274"/>
       <c r="B34" s="274"/>
       <c r="C34" s="274"/>
-      <c r="D34" s="595" t="s">
+      <c r="D34" s="591" t="s">
         <v>213</v>
       </c>
-      <c r="E34" s="596"/>
-      <c r="F34" s="596"/>
-      <c r="G34" s="596"/>
-      <c r="H34" s="596"/>
-      <c r="I34" s="597"/>
-      <c r="J34" s="603">
+      <c r="E34" s="592"/>
+      <c r="F34" s="592"/>
+      <c r="G34" s="592"/>
+      <c r="H34" s="592"/>
+      <c r="I34" s="593"/>
+      <c r="J34" s="594">
         <v>550415</v>
       </c>
-      <c r="K34" s="604"/>
+      <c r="K34" s="595"/>
       <c r="L34" s="304"/>
     </row>
     <row r="35" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="274"/>
       <c r="B35" s="274"/>
       <c r="C35" s="274"/>
-      <c r="D35" s="595" t="s">
+      <c r="D35" s="591" t="s">
         <v>214</v>
       </c>
-      <c r="E35" s="596"/>
-      <c r="F35" s="596"/>
-      <c r="G35" s="596"/>
-      <c r="H35" s="596"/>
-      <c r="I35" s="597"/>
-      <c r="J35" s="603">
+      <c r="E35" s="592"/>
+      <c r="F35" s="592"/>
+      <c r="G35" s="592"/>
+      <c r="H35" s="592"/>
+      <c r="I35" s="593"/>
+      <c r="J35" s="594">
         <f>L14</f>
         <v>3082750.0000000005</v>
       </c>
-      <c r="K35" s="604"/>
+      <c r="K35" s="595"/>
       <c r="L35" s="304"/>
     </row>
     <row r="36" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="274"/>
       <c r="B36" s="274"/>
       <c r="C36" s="274"/>
-      <c r="D36" s="595" t="s">
+      <c r="D36" s="591" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="596"/>
-      <c r="F36" s="596"/>
-      <c r="G36" s="596"/>
-      <c r="H36" s="596"/>
-      <c r="I36" s="597"/>
-      <c r="J36" s="603">
+      <c r="E36" s="592"/>
+      <c r="F36" s="592"/>
+      <c r="G36" s="592"/>
+      <c r="H36" s="592"/>
+      <c r="I36" s="593"/>
+      <c r="J36" s="594">
         <f>L24</f>
         <v>1109750</v>
       </c>
-      <c r="K36" s="604"/>
+      <c r="K36" s="595"/>
       <c r="N36" s="306"/>
     </row>
     <row r="37" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="326"/>
       <c r="B37" s="326"/>
       <c r="C37" s="326"/>
-      <c r="D37" s="595" t="s">
+      <c r="D37" s="591" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="596"/>
-      <c r="F37" s="596"/>
-      <c r="G37" s="596"/>
-      <c r="H37" s="596"/>
-      <c r="I37" s="597"/>
-      <c r="J37" s="603">
+      <c r="E37" s="592"/>
+      <c r="F37" s="592"/>
+      <c r="G37" s="592"/>
+      <c r="H37" s="592"/>
+      <c r="I37" s="593"/>
+      <c r="J37" s="594">
         <f>L31</f>
         <v>225000</v>
       </c>
-      <c r="K37" s="604"/>
+      <c r="K37" s="595"/>
       <c r="N37" s="306"/>
     </row>
     <row r="38" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="325"/>
       <c r="B38" s="325"/>
       <c r="C38" s="325"/>
-      <c r="D38" s="595" t="s">
+      <c r="D38" s="591" t="s">
         <v>252</v>
       </c>
-      <c r="E38" s="596"/>
-      <c r="F38" s="596"/>
-      <c r="G38" s="596"/>
-      <c r="H38" s="596"/>
-      <c r="I38" s="597"/>
-      <c r="J38" s="603">
+      <c r="E38" s="592"/>
+      <c r="F38" s="592"/>
+      <c r="G38" s="592"/>
+      <c r="H38" s="592"/>
+      <c r="I38" s="593"/>
+      <c r="J38" s="594">
         <v>5000000</v>
       </c>
-      <c r="K38" s="604"/>
+      <c r="K38" s="595"/>
       <c r="N38" s="306"/>
     </row>
     <row r="39" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="325"/>
       <c r="B39" s="325"/>
       <c r="C39" s="325"/>
-      <c r="D39" s="598" t="s">
+      <c r="D39" s="603" t="s">
         <v>222</v>
       </c>
-      <c r="E39" s="599"/>
-      <c r="F39" s="599"/>
-      <c r="G39" s="599"/>
-      <c r="H39" s="599"/>
-      <c r="I39" s="600"/>
-      <c r="J39" s="605">
+      <c r="E39" s="604"/>
+      <c r="F39" s="604"/>
+      <c r="G39" s="604"/>
+      <c r="H39" s="604"/>
+      <c r="I39" s="605"/>
+      <c r="J39" s="606">
         <f>SUM(J34:K38)</f>
         <v>9967915</v>
       </c>
-      <c r="K39" s="606"/>
+      <c r="K39" s="607"/>
       <c r="N39" s="306"/>
     </row>
     <row r="40" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="274"/>
       <c r="B40" s="274"/>
       <c r="C40" s="274"/>
-      <c r="D40" s="595" t="s">
+      <c r="D40" s="591" t="s">
         <v>216</v>
       </c>
-      <c r="E40" s="596"/>
-      <c r="F40" s="596"/>
-      <c r="G40" s="596"/>
-      <c r="H40" s="596"/>
-      <c r="I40" s="597"/>
-      <c r="J40" s="603">
+      <c r="E40" s="592"/>
+      <c r="F40" s="592"/>
+      <c r="G40" s="592"/>
+      <c r="H40" s="592"/>
+      <c r="I40" s="593"/>
+      <c r="J40" s="594">
         <f>'Bảng lương'!K15</f>
         <v>5695384.615384616</v>
       </c>
-      <c r="K40" s="604"/>
+      <c r="K40" s="595"/>
       <c r="L40" s="304"/>
     </row>
     <row r="41" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="325"/>
       <c r="B41" s="325"/>
       <c r="C41" s="325"/>
-      <c r="D41" s="595" t="s">
+      <c r="D41" s="591" t="s">
         <v>247</v>
       </c>
-      <c r="E41" s="596"/>
-      <c r="F41" s="596"/>
-      <c r="G41" s="596"/>
-      <c r="H41" s="596"/>
-      <c r="I41" s="597"/>
-      <c r="J41" s="603">
+      <c r="E41" s="592"/>
+      <c r="F41" s="592"/>
+      <c r="G41" s="592"/>
+      <c r="H41" s="592"/>
+      <c r="I41" s="593"/>
+      <c r="J41" s="594">
         <f>'Chi phí văn phòng'!D9</f>
         <v>674000</v>
       </c>
-      <c r="K41" s="604"/>
+      <c r="K41" s="595"/>
       <c r="L41" s="304"/>
     </row>
     <row r="42" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="325"/>
       <c r="B42" s="325"/>
       <c r="C42" s="325"/>
-      <c r="D42" s="595" t="s">
+      <c r="D42" s="591" t="s">
         <v>248</v>
       </c>
-      <c r="E42" s="596"/>
-      <c r="F42" s="596"/>
-      <c r="G42" s="596"/>
-      <c r="H42" s="596"/>
-      <c r="I42" s="597"/>
-      <c r="J42" s="603">
+      <c r="E42" s="592"/>
+      <c r="F42" s="592"/>
+      <c r="G42" s="592"/>
+      <c r="H42" s="592"/>
+      <c r="I42" s="593"/>
+      <c r="J42" s="594">
         <f>'Chi phí văn phòng'!D21</f>
         <v>1289000</v>
       </c>
-      <c r="K42" s="604"/>
+      <c r="K42" s="595"/>
       <c r="L42" s="304"/>
     </row>
     <row r="43" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="325"/>
       <c r="B43" s="325"/>
       <c r="C43" s="325"/>
-      <c r="D43" s="598" t="s">
+      <c r="D43" s="603" t="s">
         <v>223</v>
       </c>
-      <c r="E43" s="599"/>
-      <c r="F43" s="599"/>
-      <c r="G43" s="599"/>
-      <c r="H43" s="599"/>
-      <c r="I43" s="600"/>
-      <c r="J43" s="605">
+      <c r="E43" s="604"/>
+      <c r="F43" s="604"/>
+      <c r="G43" s="604"/>
+      <c r="H43" s="604"/>
+      <c r="I43" s="605"/>
+      <c r="J43" s="606">
         <f>SUM(J40:K42)</f>
         <v>7658384.615384616</v>
       </c>
-      <c r="K43" s="606"/>
+      <c r="K43" s="607"/>
       <c r="L43" s="304"/>
     </row>
     <row r="44" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="274"/>
       <c r="B44" s="274"/>
       <c r="C44" s="274"/>
-      <c r="D44" s="601" t="s">
+      <c r="D44" s="627" t="s">
         <v>251</v>
       </c>
-      <c r="E44" s="601"/>
-      <c r="F44" s="601"/>
-      <c r="G44" s="601"/>
-      <c r="H44" s="601"/>
-      <c r="I44" s="601"/>
-      <c r="J44" s="602">
+      <c r="E44" s="627"/>
+      <c r="F44" s="627"/>
+      <c r="G44" s="627"/>
+      <c r="H44" s="627"/>
+      <c r="I44" s="627"/>
+      <c r="J44" s="628">
         <f>J39-J43</f>
         <v>2309530.384615384</v>
       </c>
-      <c r="K44" s="602"/>
+      <c r="K44" s="628"/>
     </row>
     <row r="45" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="325"/>
@@ -14273,14 +14279,14 @@
       <c r="E45" s="307"/>
       <c r="F45" s="307"/>
       <c r="G45" s="307"/>
-      <c r="H45" s="591" t="s">
+      <c r="H45" s="623" t="s">
         <v>249</v>
       </c>
-      <c r="I45" s="591"/>
-      <c r="J45" s="592">
+      <c r="I45" s="623"/>
+      <c r="J45" s="624">
         <v>2500000</v>
       </c>
-      <c r="K45" s="592"/>
+      <c r="K45" s="624"/>
     </row>
     <row r="46" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="321"/>
@@ -14290,49 +14296,95 @@
       <c r="E46" s="307"/>
       <c r="F46" s="307"/>
       <c r="G46" s="307"/>
-      <c r="H46" s="594" t="s">
+      <c r="H46" s="626" t="s">
         <v>250</v>
       </c>
-      <c r="I46" s="594"/>
-      <c r="J46" s="593">
+      <c r="I46" s="626"/>
+      <c r="J46" s="625">
         <f>J44+J45</f>
         <v>4809530.384615384</v>
       </c>
-      <c r="K46" s="593"/>
+      <c r="K46" s="625"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="79"/>
-      <c r="B47" s="608" t="s">
+      <c r="B47" s="598" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="608"/>
-      <c r="D47" s="608"/>
+      <c r="C47" s="598"/>
+      <c r="D47" s="598"/>
       <c r="E47" s="79"/>
       <c r="F47" s="79"/>
       <c r="G47" s="79"/>
       <c r="H47" s="79"/>
-      <c r="I47" s="608" t="s">
+      <c r="I47" s="598" t="s">
         <v>111</v>
       </c>
-      <c r="J47" s="608"/>
+      <c r="J47" s="598"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A32:C32"/>
@@ -14349,67 +14401,21 @@
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="D34:I34"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <pageMargins left="0.91" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -14433,13 +14439,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="607" t="s">
+      <c r="B1" s="622" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="607"/>
-      <c r="D1" s="607"/>
-      <c r="E1" s="607"/>
-      <c r="F1" s="607"/>
+      <c r="C1" s="622"/>
+      <c r="D1" s="622"/>
+      <c r="E1" s="622"/>
+      <c r="F1" s="622"/>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
       <c r="I1" s="58"/>
@@ -14459,11 +14465,11 @@
       <c r="J2" s="58"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="584" t="s">
+      <c r="B4" s="572" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="584"/>
-      <c r="D4" s="584"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="173"/>
       <c r="F4" s="173"/>
     </row>
@@ -14785,13 +14791,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="607" t="s">
+      <c r="A1" s="622" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="607"/>
-      <c r="C1" s="607"/>
-      <c r="D1" s="607"/>
-      <c r="E1" s="607"/>
+      <c r="B1" s="622"/>
+      <c r="C1" s="622"/>
+      <c r="D1" s="622"/>
+      <c r="E1" s="622"/>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
@@ -14865,34 +14871,34 @@
       <c r="H8" s="637"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="595" t="s">
+      <c r="A9" s="591" t="s">
         <v>216</v>
       </c>
-      <c r="B9" s="596"/>
-      <c r="C9" s="596"/>
-      <c r="D9" s="596"/>
-      <c r="E9" s="596"/>
-      <c r="F9" s="597"/>
-      <c r="G9" s="603">
+      <c r="B9" s="592"/>
+      <c r="C9" s="592"/>
+      <c r="D9" s="592"/>
+      <c r="E9" s="592"/>
+      <c r="F9" s="593"/>
+      <c r="G9" s="594">
         <f>'Bảng lương'!K12</f>
         <v>7135000</v>
       </c>
-      <c r="H9" s="604"/>
+      <c r="H9" s="595"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="601" t="s">
+      <c r="A10" s="627" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="601"/>
-      <c r="C10" s="601"/>
-      <c r="D10" s="601"/>
-      <c r="E10" s="601"/>
-      <c r="F10" s="601"/>
-      <c r="G10" s="602">
+      <c r="B10" s="627"/>
+      <c r="C10" s="627"/>
+      <c r="D10" s="627"/>
+      <c r="E10" s="627"/>
+      <c r="F10" s="627"/>
+      <c r="G10" s="628">
         <f>SUM(G7:H9)</f>
         <v>9935000</v>
       </c>
-      <c r="H10" s="602"/>
+      <c r="H10" s="628"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -15448,16 +15454,16 @@
       <c r="C1" s="104"/>
       <c r="D1" s="104"/>
       <c r="E1" s="104"/>
-      <c r="Z1" s="659" t="s">
+      <c r="Z1" s="646" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="660"/>
-      <c r="AB1" s="660"/>
-      <c r="AC1" s="660"/>
-      <c r="AD1" s="660"/>
-      <c r="AE1" s="660"/>
-      <c r="AF1" s="660"/>
-      <c r="AG1" s="661"/>
+      <c r="AA1" s="647"/>
+      <c r="AB1" s="647"/>
+      <c r="AC1" s="647"/>
+      <c r="AD1" s="647"/>
+      <c r="AE1" s="647"/>
+      <c r="AF1" s="647"/>
+      <c r="AG1" s="648"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
@@ -15467,18 +15473,18 @@
       <c r="C2" s="108"/>
       <c r="D2" s="108"/>
       <c r="E2" s="108"/>
-      <c r="Z2" s="642" t="s">
+      <c r="Z2" s="641" t="s">
         <v>85</v>
       </c>
-      <c r="AA2" s="643"/>
-      <c r="AB2" s="643"/>
-      <c r="AC2" s="643"/>
-      <c r="AD2" s="643"/>
-      <c r="AE2" s="644"/>
-      <c r="AF2" s="645" t="s">
+      <c r="AA2" s="642"/>
+      <c r="AB2" s="642"/>
+      <c r="AC2" s="642"/>
+      <c r="AD2" s="642"/>
+      <c r="AE2" s="643"/>
+      <c r="AF2" s="644" t="s">
         <v>86</v>
       </c>
-      <c r="AG2" s="646"/>
+      <c r="AG2" s="645"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="107" t="s">
@@ -15488,18 +15494,18 @@
       <c r="C3" s="75"/>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="Z3" s="642" t="s">
+      <c r="Z3" s="641" t="s">
         <v>88</v>
       </c>
-      <c r="AA3" s="643"/>
-      <c r="AB3" s="643"/>
-      <c r="AC3" s="643"/>
-      <c r="AD3" s="643"/>
-      <c r="AE3" s="644"/>
-      <c r="AF3" s="645" t="s">
+      <c r="AA3" s="642"/>
+      <c r="AB3" s="642"/>
+      <c r="AC3" s="642"/>
+      <c r="AD3" s="642"/>
+      <c r="AE3" s="643"/>
+      <c r="AF3" s="644" t="s">
         <v>89</v>
       </c>
-      <c r="AG3" s="646"/>
+      <c r="AG3" s="645"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="107" t="s">
@@ -15512,18 +15518,18 @@
       <c r="T4" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="642" t="s">
+      <c r="Z4" s="641" t="s">
         <v>91</v>
       </c>
-      <c r="AA4" s="643"/>
-      <c r="AB4" s="643"/>
-      <c r="AC4" s="643"/>
-      <c r="AD4" s="643"/>
-      <c r="AE4" s="644"/>
-      <c r="AF4" s="645" t="s">
+      <c r="AA4" s="642"/>
+      <c r="AB4" s="642"/>
+      <c r="AC4" s="642"/>
+      <c r="AD4" s="642"/>
+      <c r="AE4" s="643"/>
+      <c r="AF4" s="644" t="s">
         <v>92</v>
       </c>
-      <c r="AG4" s="646"/>
+      <c r="AG4" s="645"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="107" t="s">
@@ -15533,18 +15539,18 @@
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="Z5" s="642" t="s">
+      <c r="Z5" s="641" t="s">
         <v>94</v>
       </c>
-      <c r="AA5" s="643"/>
-      <c r="AB5" s="643"/>
-      <c r="AC5" s="643"/>
-      <c r="AD5" s="643"/>
-      <c r="AE5" s="644"/>
-      <c r="AF5" s="645" t="s">
+      <c r="AA5" s="642"/>
+      <c r="AB5" s="642"/>
+      <c r="AC5" s="642"/>
+      <c r="AD5" s="642"/>
+      <c r="AE5" s="643"/>
+      <c r="AF5" s="644" t="s">
         <v>95</v>
       </c>
-      <c r="AG5" s="646"/>
+      <c r="AG5" s="645"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="109"/>
@@ -15554,93 +15560,93 @@
       <c r="E6" s="109"/>
     </row>
     <row r="7" spans="1:40" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="647" t="s">
+      <c r="A7" s="650" t="s">
         <v>286</v>
       </c>
-      <c r="B7" s="647"/>
-      <c r="C7" s="647"/>
-      <c r="D7" s="647"/>
-      <c r="E7" s="647"/>
-      <c r="F7" s="647"/>
-      <c r="G7" s="647"/>
-      <c r="H7" s="647"/>
-      <c r="I7" s="647"/>
-      <c r="J7" s="647"/>
-      <c r="K7" s="647"/>
-      <c r="L7" s="647"/>
-      <c r="M7" s="647"/>
-      <c r="N7" s="647"/>
-      <c r="O7" s="647"/>
-      <c r="P7" s="647"/>
-      <c r="Q7" s="647"/>
-      <c r="R7" s="647"/>
-      <c r="S7" s="647"/>
-      <c r="T7" s="647"/>
-      <c r="U7" s="647"/>
-      <c r="V7" s="647"/>
-      <c r="W7" s="647"/>
-      <c r="X7" s="647"/>
-      <c r="Y7" s="647"/>
-      <c r="Z7" s="647"/>
-      <c r="AA7" s="647"/>
-      <c r="AB7" s="647"/>
-      <c r="AC7" s="647"/>
-      <c r="AD7" s="647"/>
-      <c r="AE7" s="647"/>
-      <c r="AF7" s="647"/>
-      <c r="AG7" s="647"/>
-      <c r="AH7" s="647"/>
-      <c r="AI7" s="647"/>
-      <c r="AJ7" s="647"/>
-      <c r="AK7" s="647"/>
-      <c r="AL7" s="647"/>
-      <c r="AM7" s="647"/>
+      <c r="B7" s="650"/>
+      <c r="C7" s="650"/>
+      <c r="D7" s="650"/>
+      <c r="E7" s="650"/>
+      <c r="F7" s="650"/>
+      <c r="G7" s="650"/>
+      <c r="H7" s="650"/>
+      <c r="I7" s="650"/>
+      <c r="J7" s="650"/>
+      <c r="K7" s="650"/>
+      <c r="L7" s="650"/>
+      <c r="M7" s="650"/>
+      <c r="N7" s="650"/>
+      <c r="O7" s="650"/>
+      <c r="P7" s="650"/>
+      <c r="Q7" s="650"/>
+      <c r="R7" s="650"/>
+      <c r="S7" s="650"/>
+      <c r="T7" s="650"/>
+      <c r="U7" s="650"/>
+      <c r="V7" s="650"/>
+      <c r="W7" s="650"/>
+      <c r="X7" s="650"/>
+      <c r="Y7" s="650"/>
+      <c r="Z7" s="650"/>
+      <c r="AA7" s="650"/>
+      <c r="AB7" s="650"/>
+      <c r="AC7" s="650"/>
+      <c r="AD7" s="650"/>
+      <c r="AE7" s="650"/>
+      <c r="AF7" s="650"/>
+      <c r="AG7" s="650"/>
+      <c r="AH7" s="650"/>
+      <c r="AI7" s="650"/>
+      <c r="AJ7" s="650"/>
+      <c r="AK7" s="650"/>
+      <c r="AL7" s="650"/>
+      <c r="AM7" s="650"/>
       <c r="AN7" s="111"/>
     </row>
     <row r="9" spans="1:40" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="648" t="s">
+      <c r="A9" s="651" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="648" t="s">
+      <c r="B9" s="651" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="648" t="s">
+      <c r="C9" s="651" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="651" t="s">
+      <c r="D9" s="654" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="652"/>
-      <c r="F9" s="652"/>
-      <c r="G9" s="652"/>
-      <c r="H9" s="652"/>
-      <c r="I9" s="652"/>
-      <c r="J9" s="652"/>
-      <c r="K9" s="652"/>
-      <c r="L9" s="652"/>
-      <c r="M9" s="652"/>
-      <c r="N9" s="652"/>
-      <c r="O9" s="652"/>
-      <c r="P9" s="652"/>
-      <c r="Q9" s="652"/>
-      <c r="R9" s="652"/>
-      <c r="S9" s="652"/>
-      <c r="T9" s="652"/>
-      <c r="U9" s="652"/>
-      <c r="V9" s="652"/>
-      <c r="W9" s="652"/>
-      <c r="X9" s="652"/>
-      <c r="Y9" s="652"/>
-      <c r="Z9" s="652"/>
-      <c r="AA9" s="652"/>
-      <c r="AB9" s="652"/>
-      <c r="AC9" s="652"/>
-      <c r="AD9" s="652"/>
-      <c r="AE9" s="652"/>
-      <c r="AF9" s="652"/>
-      <c r="AG9" s="652"/>
-      <c r="AH9" s="653"/>
-      <c r="AI9" s="654" t="s">
+      <c r="E9" s="655"/>
+      <c r="F9" s="655"/>
+      <c r="G9" s="655"/>
+      <c r="H9" s="655"/>
+      <c r="I9" s="655"/>
+      <c r="J9" s="655"/>
+      <c r="K9" s="655"/>
+      <c r="L9" s="655"/>
+      <c r="M9" s="655"/>
+      <c r="N9" s="655"/>
+      <c r="O9" s="655"/>
+      <c r="P9" s="655"/>
+      <c r="Q9" s="655"/>
+      <c r="R9" s="655"/>
+      <c r="S9" s="655"/>
+      <c r="T9" s="655"/>
+      <c r="U9" s="655"/>
+      <c r="V9" s="655"/>
+      <c r="W9" s="655"/>
+      <c r="X9" s="655"/>
+      <c r="Y9" s="655"/>
+      <c r="Z9" s="655"/>
+      <c r="AA9" s="655"/>
+      <c r="AB9" s="655"/>
+      <c r="AC9" s="655"/>
+      <c r="AD9" s="655"/>
+      <c r="AE9" s="655"/>
+      <c r="AF9" s="655"/>
+      <c r="AG9" s="655"/>
+      <c r="AH9" s="656"/>
+      <c r="AI9" s="657" t="s">
         <v>100</v>
       </c>
       <c r="AJ9" s="113"/>
@@ -15650,9 +15656,9 @@
       <c r="AN9" s="116"/>
     </row>
     <row r="10" spans="1:40" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="649"/>
-      <c r="B10" s="649"/>
-      <c r="C10" s="649"/>
+      <c r="A10" s="652"/>
+      <c r="B10" s="652"/>
+      <c r="C10" s="652"/>
       <c r="D10" s="118">
         <v>1</v>
       </c>
@@ -15746,7 +15752,7 @@
       <c r="AH10" s="118">
         <v>31</v>
       </c>
-      <c r="AI10" s="654"/>
+      <c r="AI10" s="657"/>
       <c r="AJ10" s="119"/>
       <c r="AK10" s="115"/>
       <c r="AL10" s="115"/>
@@ -15754,9 +15760,9 @@
       <c r="AN10" s="116"/>
     </row>
     <row r="11" spans="1:40" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="650"/>
-      <c r="B11" s="650"/>
-      <c r="C11" s="650"/>
+      <c r="A11" s="653"/>
+      <c r="B11" s="653"/>
+      <c r="C11" s="653"/>
       <c r="D11" s="118" t="s">
         <v>101</v>
       </c>
@@ -15850,7 +15856,7 @@
       <c r="AH11" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="AI11" s="654"/>
+      <c r="AI11" s="657"/>
       <c r="AJ11" s="123"/>
       <c r="AN11" s="125"/>
     </row>
@@ -16251,10 +16257,10 @@
       <c r="AN15" s="125"/>
     </row>
     <row r="16" spans="1:40" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="655" t="s">
+      <c r="A16" s="658" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="656"/>
+      <c r="B16" s="659"/>
       <c r="C16" s="127"/>
       <c r="D16" s="127"/>
       <c r="E16" s="128"/>
@@ -16306,12 +16312,12 @@
       <c r="N18" s="224" t="s">
         <v>108</v>
       </c>
-      <c r="AB18" s="657" t="s">
+      <c r="AB18" s="660" t="s">
         <v>401</v>
       </c>
-      <c r="AC18" s="657"/>
-      <c r="AD18" s="657"/>
-      <c r="AE18" s="657"/>
+      <c r="AC18" s="660"/>
+      <c r="AD18" s="660"/>
+      <c r="AE18" s="660"/>
     </row>
     <row r="19" spans="1:40" s="484" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="485" t="s">
@@ -16323,12 +16329,12 @@
       <c r="N19" s="485" t="s">
         <v>402</v>
       </c>
-      <c r="AB19" s="658" t="s">
+      <c r="AB19" s="661" t="s">
         <v>402</v>
       </c>
-      <c r="AC19" s="658"/>
-      <c r="AD19" s="658"/>
-      <c r="AE19" s="658"/>
+      <c r="AC19" s="661"/>
+      <c r="AD19" s="661"/>
+      <c r="AE19" s="661"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="132"/>
@@ -16361,131 +16367,131 @@
       <c r="AN33" s="135"/>
     </row>
     <row r="34" spans="3:40" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="641"/>
-      <c r="H34" s="641"/>
-      <c r="I34" s="641"/>
-      <c r="J34" s="641"/>
-      <c r="K34" s="641"/>
-      <c r="L34" s="641"/>
-      <c r="M34" s="641"/>
-      <c r="N34" s="641"/>
-      <c r="O34" s="641"/>
-      <c r="P34" s="641"/>
-      <c r="Q34" s="641"/>
-      <c r="R34" s="641"/>
-      <c r="S34" s="641"/>
-      <c r="T34" s="641"/>
-      <c r="U34" s="641"/>
-      <c r="V34" s="641"/>
-      <c r="W34" s="641"/>
-      <c r="X34" s="641"/>
+      <c r="G34" s="649"/>
+      <c r="H34" s="649"/>
+      <c r="I34" s="649"/>
+      <c r="J34" s="649"/>
+      <c r="K34" s="649"/>
+      <c r="L34" s="649"/>
+      <c r="M34" s="649"/>
+      <c r="N34" s="649"/>
+      <c r="O34" s="649"/>
+      <c r="P34" s="649"/>
+      <c r="Q34" s="649"/>
+      <c r="R34" s="649"/>
+      <c r="S34" s="649"/>
+      <c r="T34" s="649"/>
+      <c r="U34" s="649"/>
+      <c r="V34" s="649"/>
+      <c r="W34" s="649"/>
+      <c r="X34" s="649"/>
       <c r="AN34" s="135"/>
     </row>
     <row r="35" spans="3:40" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="641"/>
-      <c r="H35" s="641"/>
-      <c r="I35" s="641"/>
-      <c r="J35" s="641"/>
-      <c r="K35" s="641"/>
-      <c r="L35" s="641"/>
-      <c r="M35" s="641"/>
-      <c r="N35" s="641"/>
-      <c r="O35" s="641"/>
-      <c r="P35" s="641"/>
-      <c r="Q35" s="641"/>
-      <c r="R35" s="641"/>
-      <c r="S35" s="641"/>
-      <c r="T35" s="641"/>
-      <c r="U35" s="641"/>
-      <c r="V35" s="641"/>
-      <c r="W35" s="641"/>
-      <c r="X35" s="641"/>
+      <c r="G35" s="649"/>
+      <c r="H35" s="649"/>
+      <c r="I35" s="649"/>
+      <c r="J35" s="649"/>
+      <c r="K35" s="649"/>
+      <c r="L35" s="649"/>
+      <c r="M35" s="649"/>
+      <c r="N35" s="649"/>
+      <c r="O35" s="649"/>
+      <c r="P35" s="649"/>
+      <c r="Q35" s="649"/>
+      <c r="R35" s="649"/>
+      <c r="S35" s="649"/>
+      <c r="T35" s="649"/>
+      <c r="U35" s="649"/>
+      <c r="V35" s="649"/>
+      <c r="W35" s="649"/>
+      <c r="X35" s="649"/>
       <c r="AN35" s="135"/>
     </row>
     <row r="36" spans="3:40" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="641"/>
-      <c r="H36" s="641"/>
-      <c r="I36" s="641"/>
-      <c r="J36" s="641"/>
-      <c r="K36" s="641"/>
-      <c r="L36" s="641"/>
-      <c r="M36" s="641"/>
-      <c r="N36" s="641"/>
-      <c r="O36" s="641"/>
-      <c r="P36" s="641"/>
-      <c r="Q36" s="641"/>
-      <c r="R36" s="641"/>
-      <c r="S36" s="641"/>
-      <c r="T36" s="641"/>
-      <c r="U36" s="641"/>
-      <c r="V36" s="641"/>
-      <c r="W36" s="641"/>
-      <c r="X36" s="641"/>
+      <c r="G36" s="649"/>
+      <c r="H36" s="649"/>
+      <c r="I36" s="649"/>
+      <c r="J36" s="649"/>
+      <c r="K36" s="649"/>
+      <c r="L36" s="649"/>
+      <c r="M36" s="649"/>
+      <c r="N36" s="649"/>
+      <c r="O36" s="649"/>
+      <c r="P36" s="649"/>
+      <c r="Q36" s="649"/>
+      <c r="R36" s="649"/>
+      <c r="S36" s="649"/>
+      <c r="T36" s="649"/>
+      <c r="U36" s="649"/>
+      <c r="V36" s="649"/>
+      <c r="W36" s="649"/>
+      <c r="X36" s="649"/>
       <c r="AN36" s="135"/>
     </row>
     <row r="37" spans="3:40" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="641"/>
-      <c r="H37" s="641"/>
-      <c r="I37" s="641"/>
-      <c r="J37" s="641"/>
-      <c r="K37" s="641"/>
-      <c r="L37" s="641"/>
-      <c r="M37" s="641"/>
-      <c r="N37" s="641"/>
-      <c r="O37" s="641"/>
-      <c r="P37" s="641"/>
-      <c r="Q37" s="641"/>
-      <c r="R37" s="641"/>
-      <c r="S37" s="641"/>
-      <c r="T37" s="641"/>
-      <c r="U37" s="641"/>
-      <c r="V37" s="641"/>
-      <c r="W37" s="641"/>
-      <c r="X37" s="641"/>
+      <c r="G37" s="649"/>
+      <c r="H37" s="649"/>
+      <c r="I37" s="649"/>
+      <c r="J37" s="649"/>
+      <c r="K37" s="649"/>
+      <c r="L37" s="649"/>
+      <c r="M37" s="649"/>
+      <c r="N37" s="649"/>
+      <c r="O37" s="649"/>
+      <c r="P37" s="649"/>
+      <c r="Q37" s="649"/>
+      <c r="R37" s="649"/>
+      <c r="S37" s="649"/>
+      <c r="T37" s="649"/>
+      <c r="U37" s="649"/>
+      <c r="V37" s="649"/>
+      <c r="W37" s="649"/>
+      <c r="X37" s="649"/>
       <c r="AN37" s="135"/>
     </row>
     <row r="38" spans="3:40" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="641"/>
-      <c r="H38" s="641"/>
-      <c r="I38" s="641"/>
-      <c r="J38" s="641"/>
-      <c r="K38" s="641"/>
-      <c r="L38" s="641"/>
-      <c r="M38" s="641"/>
-      <c r="N38" s="641"/>
-      <c r="O38" s="641"/>
-      <c r="P38" s="641"/>
-      <c r="Q38" s="641"/>
-      <c r="R38" s="641"/>
-      <c r="S38" s="641"/>
-      <c r="T38" s="641"/>
-      <c r="U38" s="641"/>
-      <c r="V38" s="641"/>
-      <c r="W38" s="641"/>
-      <c r="X38" s="641"/>
+      <c r="G38" s="649"/>
+      <c r="H38" s="649"/>
+      <c r="I38" s="649"/>
+      <c r="J38" s="649"/>
+      <c r="K38" s="649"/>
+      <c r="L38" s="649"/>
+      <c r="M38" s="649"/>
+      <c r="N38" s="649"/>
+      <c r="O38" s="649"/>
+      <c r="P38" s="649"/>
+      <c r="Q38" s="649"/>
+      <c r="R38" s="649"/>
+      <c r="S38" s="649"/>
+      <c r="T38" s="649"/>
+      <c r="U38" s="649"/>
+      <c r="V38" s="649"/>
+      <c r="W38" s="649"/>
+      <c r="X38" s="649"/>
       <c r="AN38" s="135"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="105"/>
       <c r="D39" s="105"/>
-      <c r="G39" s="641"/>
-      <c r="H39" s="641"/>
-      <c r="I39" s="641"/>
-      <c r="J39" s="641"/>
-      <c r="K39" s="641"/>
-      <c r="L39" s="641"/>
-      <c r="M39" s="641"/>
-      <c r="N39" s="641"/>
-      <c r="O39" s="641"/>
-      <c r="P39" s="641"/>
-      <c r="Q39" s="641"/>
-      <c r="R39" s="641"/>
-      <c r="S39" s="641"/>
-      <c r="T39" s="641"/>
-      <c r="U39" s="641"/>
-      <c r="V39" s="641"/>
-      <c r="W39" s="641"/>
-      <c r="X39" s="641"/>
+      <c r="G39" s="649"/>
+      <c r="H39" s="649"/>
+      <c r="I39" s="649"/>
+      <c r="J39" s="649"/>
+      <c r="K39" s="649"/>
+      <c r="L39" s="649"/>
+      <c r="M39" s="649"/>
+      <c r="N39" s="649"/>
+      <c r="O39" s="649"/>
+      <c r="P39" s="649"/>
+      <c r="Q39" s="649"/>
+      <c r="R39" s="649"/>
+      <c r="S39" s="649"/>
+      <c r="T39" s="649"/>
+      <c r="U39" s="649"/>
+      <c r="V39" s="649"/>
+      <c r="W39" s="649"/>
+      <c r="X39" s="649"/>
       <c r="AN39" s="105"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -16495,13 +16501,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -16514,6 +16513,13 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="AB18:AE18"/>
     <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -17368,40 +17374,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="187" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="670" t="s">
+      <c r="A1" s="662" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="670"/>
-      <c r="C1" s="670"/>
-      <c r="D1" s="670"/>
+      <c r="B1" s="662"/>
+      <c r="C1" s="662"/>
+      <c r="D1" s="662"/>
       <c r="E1" s="186"/>
-      <c r="F1" s="671" t="s">
+      <c r="F1" s="663" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="671"/>
-      <c r="H1" s="671"/>
-      <c r="I1" s="671"/>
-      <c r="J1" s="671"/>
-      <c r="K1" s="671"/>
-      <c r="L1" s="671"/>
+      <c r="G1" s="663"/>
+      <c r="H1" s="663"/>
+      <c r="I1" s="663"/>
+      <c r="J1" s="663"/>
+      <c r="K1" s="663"/>
+      <c r="L1" s="663"/>
     </row>
     <row r="2" spans="1:16" s="187" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="672" t="s">
+      <c r="A2" s="664" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="672"/>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
+      <c r="B2" s="664"/>
+      <c r="C2" s="664"/>
+      <c r="D2" s="664"/>
       <c r="E2" s="186"/>
-      <c r="F2" s="673" t="s">
+      <c r="F2" s="665" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="673"/>
-      <c r="H2" s="673"/>
-      <c r="I2" s="673"/>
-      <c r="J2" s="673"/>
-      <c r="K2" s="673"/>
-      <c r="L2" s="673"/>
+      <c r="G2" s="665"/>
+      <c r="H2" s="665"/>
+      <c r="I2" s="665"/>
+      <c r="J2" s="665"/>
+      <c r="K2" s="665"/>
+      <c r="L2" s="665"/>
     </row>
     <row r="3" spans="1:16" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="188"/>
@@ -17415,45 +17421,45 @@
       <c r="J3" s="189"/>
     </row>
     <row r="4" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="662" t="s">
+      <c r="A4" s="666" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="662"/>
-      <c r="C4" s="662"/>
-      <c r="D4" s="662"/>
-      <c r="E4" s="662"/>
-      <c r="F4" s="662"/>
-      <c r="G4" s="662"/>
-      <c r="H4" s="662"/>
-      <c r="I4" s="662"/>
-      <c r="J4" s="662"/>
-      <c r="K4" s="662"/>
-      <c r="L4" s="662"/>
-      <c r="M4" s="662"/>
+      <c r="B4" s="666"/>
+      <c r="C4" s="666"/>
+      <c r="D4" s="666"/>
+      <c r="E4" s="666"/>
+      <c r="F4" s="666"/>
+      <c r="G4" s="666"/>
+      <c r="H4" s="666"/>
+      <c r="I4" s="666"/>
+      <c r="J4" s="666"/>
+      <c r="K4" s="666"/>
+      <c r="L4" s="666"/>
+      <c r="M4" s="666"/>
     </row>
     <row r="5" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="662" t="s">
+      <c r="A5" s="666" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="662"/>
-      <c r="C5" s="662"/>
-      <c r="D5" s="662"/>
-      <c r="E5" s="662"/>
-      <c r="F5" s="662"/>
-      <c r="G5" s="662"/>
-      <c r="H5" s="662"/>
-      <c r="I5" s="662"/>
-      <c r="J5" s="662"/>
-      <c r="K5" s="662"/>
-      <c r="L5" s="662"/>
-      <c r="M5" s="662"/>
+      <c r="B5" s="666"/>
+      <c r="C5" s="666"/>
+      <c r="D5" s="666"/>
+      <c r="E5" s="666"/>
+      <c r="F5" s="666"/>
+      <c r="G5" s="666"/>
+      <c r="H5" s="666"/>
+      <c r="I5" s="666"/>
+      <c r="J5" s="666"/>
+      <c r="K5" s="666"/>
+      <c r="L5" s="666"/>
+      <c r="M5" s="666"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="663" t="s">
+      <c r="K6" s="667" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="663"/>
-      <c r="M6" s="663"/>
+      <c r="L6" s="667"/>
+      <c r="M6" s="667"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="489" t="s">
@@ -17524,13 +17530,13 @@
       <c r="M8" s="489"/>
     </row>
     <row r="9" spans="1:16" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="667" t="s">
+      <c r="A9" s="671" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="668"/>
-      <c r="C9" s="668"/>
-      <c r="D9" s="668"/>
-      <c r="E9" s="669"/>
+      <c r="B9" s="672"/>
+      <c r="C9" s="672"/>
+      <c r="D9" s="672"/>
+      <c r="E9" s="673"/>
       <c r="F9" s="193">
         <f>SUM(F10:F12)</f>
         <v>27000000</v>
@@ -17667,13 +17673,13 @@
       <c r="P12" s="100"/>
     </row>
     <row r="13" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="664" t="s">
+      <c r="A13" s="668" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="665"/>
-      <c r="C13" s="665"/>
-      <c r="D13" s="665"/>
-      <c r="E13" s="666"/>
+      <c r="B13" s="669"/>
+      <c r="C13" s="669"/>
+      <c r="D13" s="669"/>
+      <c r="E13" s="670"/>
       <c r="F13" s="168">
         <f>SUM(F14:F15)</f>
         <v>7615384.615384616</v>
@@ -17764,11 +17770,11 @@
       <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="664" t="s">
+      <c r="A16" s="668" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="665"/>
-      <c r="C16" s="666"/>
+      <c r="B16" s="669"/>
+      <c r="C16" s="670"/>
       <c r="D16" s="193"/>
       <c r="E16" s="194"/>
       <c r="F16" s="193">
@@ -17799,14 +17805,14 @@
       <c r="M16" s="192"/>
     </row>
     <row r="18" spans="2:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="662"/>
-      <c r="C18" s="662"/>
-      <c r="D18" s="662"/>
+      <c r="B18" s="666"/>
+      <c r="C18" s="666"/>
+      <c r="D18" s="666"/>
       <c r="E18" s="169"/>
-      <c r="I18" s="662"/>
-      <c r="J18" s="662"/>
-      <c r="K18" s="662"/>
-      <c r="L18" s="662"/>
+      <c r="I18" s="666"/>
+      <c r="J18" s="666"/>
+      <c r="K18" s="666"/>
+      <c r="L18" s="666"/>
     </row>
     <row r="19" spans="2:12" s="483" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B19" s="224" t="s">
@@ -17857,11 +17863,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="B18:D18"/>
@@ -17869,6 +17870,11 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 8_2020.xlsx
@@ -3191,16 +3191,58 @@
     <xf numFmtId="14" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3209,22 +3251,10 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3236,46 +3266,10 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3323,17 +3317,65 @@
     <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3347,12 +3389,6 @@
     <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3389,42 +3425,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3434,6 +3434,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3443,111 +3455,99 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3584,33 +3584,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3647,6 +3638,39 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3658,30 +3682,6 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6387,13 +6387,13 @@
       <c r="J2" s="174"/>
     </row>
     <row r="3" spans="1:14" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="564" t="s">
+      <c r="A3" s="576" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="564"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="564"/>
+      <c r="B3" s="576"/>
+      <c r="C3" s="576"/>
+      <c r="D3" s="576"/>
+      <c r="E3" s="576"/>
       <c r="F3" s="171"/>
       <c r="G3" s="171"/>
       <c r="H3" s="171"/>
@@ -6747,8 +6747,8 @@
   <dimension ref="A1:R134"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I102" sqref="I102:I104"/>
+      <pane ySplit="8" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L121" sqref="L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6773,13 +6773,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="531" t="s">
+      <c r="A1" s="529" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="531"/>
-      <c r="C1" s="531"/>
-      <c r="D1" s="531"/>
-      <c r="E1" s="531"/>
+      <c r="B1" s="529"/>
+      <c r="C1" s="529"/>
+      <c r="D1" s="529"/>
+      <c r="E1" s="529"/>
       <c r="N1" s="203"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -6793,163 +6793,163 @@
       <c r="N2" s="207"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="532" t="s">
+      <c r="A3" s="530" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="532"/>
-      <c r="C3" s="532"/>
-      <c r="D3" s="532"/>
-      <c r="E3" s="532"/>
-      <c r="F3" s="532"/>
-      <c r="G3" s="532"/>
-      <c r="H3" s="532"/>
-      <c r="I3" s="532"/>
-      <c r="J3" s="532"/>
-      <c r="K3" s="532"/>
-      <c r="L3" s="532"/>
-      <c r="M3" s="532"/>
-      <c r="N3" s="532"/>
-      <c r="O3" s="532"/>
-      <c r="P3" s="532"/>
+      <c r="B3" s="530"/>
+      <c r="C3" s="530"/>
+      <c r="D3" s="530"/>
+      <c r="E3" s="530"/>
+      <c r="F3" s="530"/>
+      <c r="G3" s="530"/>
+      <c r="H3" s="530"/>
+      <c r="I3" s="530"/>
+      <c r="J3" s="530"/>
+      <c r="K3" s="530"/>
+      <c r="L3" s="530"/>
+      <c r="M3" s="530"/>
+      <c r="N3" s="530"/>
+      <c r="O3" s="530"/>
+      <c r="P3" s="530"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="532" t="s">
+      <c r="A4" s="530" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="532"/>
-      <c r="C4" s="532"/>
-      <c r="D4" s="532"/>
-      <c r="E4" s="532"/>
-      <c r="F4" s="532"/>
-      <c r="G4" s="532"/>
-      <c r="H4" s="532"/>
-      <c r="I4" s="532"/>
-      <c r="J4" s="532"/>
-      <c r="K4" s="532"/>
-      <c r="L4" s="532"/>
-      <c r="M4" s="532"/>
-      <c r="N4" s="532"/>
-      <c r="O4" s="532"/>
-      <c r="P4" s="532"/>
+      <c r="B4" s="530"/>
+      <c r="C4" s="530"/>
+      <c r="D4" s="530"/>
+      <c r="E4" s="530"/>
+      <c r="F4" s="530"/>
+      <c r="G4" s="530"/>
+      <c r="H4" s="530"/>
+      <c r="I4" s="530"/>
+      <c r="J4" s="530"/>
+      <c r="K4" s="530"/>
+      <c r="L4" s="530"/>
+      <c r="M4" s="530"/>
+      <c r="N4" s="530"/>
+      <c r="O4" s="530"/>
+      <c r="P4" s="530"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="532"/>
-      <c r="B5" s="532"/>
-      <c r="C5" s="532"/>
-      <c r="D5" s="532"/>
-      <c r="E5" s="532"/>
-      <c r="F5" s="532"/>
-      <c r="G5" s="532"/>
-      <c r="H5" s="532"/>
-      <c r="I5" s="532"/>
-      <c r="J5" s="532"/>
-      <c r="K5" s="533"/>
-      <c r="L5" s="533"/>
+      <c r="A5" s="530"/>
+      <c r="B5" s="530"/>
+      <c r="C5" s="530"/>
+      <c r="D5" s="530"/>
+      <c r="E5" s="530"/>
+      <c r="F5" s="530"/>
+      <c r="G5" s="530"/>
+      <c r="H5" s="530"/>
+      <c r="I5" s="530"/>
+      <c r="J5" s="530"/>
+      <c r="K5" s="531"/>
+      <c r="L5" s="531"/>
     </row>
     <row r="6" spans="1:17" s="208" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="534" t="s">
+      <c r="A6" s="532" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="536" t="s">
+      <c r="B6" s="534" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="534" t="s">
+      <c r="C6" s="532" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="540" t="s">
+      <c r="D6" s="538" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="540"/>
-      <c r="F6" s="541" t="s">
+      <c r="E6" s="538"/>
+      <c r="F6" s="539" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="541"/>
-      <c r="H6" s="541"/>
-      <c r="I6" s="541"/>
-      <c r="J6" s="541"/>
-      <c r="K6" s="541"/>
-      <c r="L6" s="541"/>
-      <c r="M6" s="542"/>
-      <c r="N6" s="542"/>
-      <c r="O6" s="542"/>
-      <c r="P6" s="543" t="s">
+      <c r="G6" s="539"/>
+      <c r="H6" s="539"/>
+      <c r="I6" s="539"/>
+      <c r="J6" s="539"/>
+      <c r="K6" s="539"/>
+      <c r="L6" s="539"/>
+      <c r="M6" s="540"/>
+      <c r="N6" s="540"/>
+      <c r="O6" s="540"/>
+      <c r="P6" s="541" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="208" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="535"/>
-      <c r="B7" s="537"/>
-      <c r="C7" s="535"/>
-      <c r="D7" s="534" t="s">
+      <c r="A7" s="533"/>
+      <c r="B7" s="535"/>
+      <c r="C7" s="533"/>
+      <c r="D7" s="532" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="534" t="s">
+      <c r="E7" s="532" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="534" t="s">
+      <c r="F7" s="532" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="534" t="s">
+      <c r="G7" s="532" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="538" t="s">
+      <c r="H7" s="536" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="538" t="s">
+      <c r="I7" s="536" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="545" t="s">
+      <c r="J7" s="543" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="545"/>
-      <c r="L7" s="538" t="s">
+      <c r="K7" s="543"/>
+      <c r="L7" s="536" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="538" t="s">
+      <c r="M7" s="536" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="538" t="s">
+      <c r="N7" s="536" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="538" t="s">
+      <c r="O7" s="536" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="544"/>
+      <c r="P7" s="542"/>
     </row>
     <row r="8" spans="1:17" s="208" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="535"/>
-      <c r="B8" s="537"/>
-      <c r="C8" s="535"/>
-      <c r="D8" s="535"/>
-      <c r="E8" s="535"/>
-      <c r="F8" s="535"/>
-      <c r="G8" s="535"/>
-      <c r="H8" s="539"/>
-      <c r="I8" s="539"/>
+      <c r="A8" s="533"/>
+      <c r="B8" s="535"/>
+      <c r="C8" s="533"/>
+      <c r="D8" s="533"/>
+      <c r="E8" s="533"/>
+      <c r="F8" s="533"/>
+      <c r="G8" s="533"/>
+      <c r="H8" s="537"/>
+      <c r="I8" s="537"/>
       <c r="J8" s="342" t="s">
         <v>83</v>
       </c>
       <c r="K8" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="539"/>
-      <c r="M8" s="539"/>
-      <c r="N8" s="539"/>
-      <c r="O8" s="539"/>
-      <c r="P8" s="544"/>
+      <c r="L8" s="537"/>
+      <c r="M8" s="537"/>
+      <c r="N8" s="537"/>
+      <c r="O8" s="537"/>
+      <c r="P8" s="542"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="508">
+      <c r="A9" s="502">
         <v>630</v>
       </c>
-      <c r="B9" s="517">
+      <c r="B9" s="510">
         <v>44044</v>
       </c>
-      <c r="C9" s="508" t="s">
+      <c r="C9" s="502" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="508"/>
-      <c r="E9" s="508"/>
+      <c r="D9" s="502"/>
+      <c r="E9" s="502"/>
       <c r="F9" s="343" t="s">
         <v>172</v>
       </c>
@@ -6980,11 +6980,11 @@
       <c r="P9" s="343"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="509"/>
-      <c r="B10" s="518"/>
-      <c r="C10" s="509"/>
-      <c r="D10" s="509"/>
-      <c r="E10" s="509"/>
+      <c r="A10" s="506"/>
+      <c r="B10" s="514"/>
+      <c r="C10" s="506"/>
+      <c r="D10" s="506"/>
+      <c r="E10" s="506"/>
       <c r="F10" s="348" t="s">
         <v>173</v>
       </c>
@@ -7015,11 +7015,11 @@
       <c r="P10" s="335"/>
     </row>
     <row r="11" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="509"/>
-      <c r="B11" s="518"/>
-      <c r="C11" s="509"/>
-      <c r="D11" s="509"/>
-      <c r="E11" s="509"/>
+      <c r="A11" s="506"/>
+      <c r="B11" s="514"/>
+      <c r="C11" s="506"/>
+      <c r="D11" s="506"/>
+      <c r="E11" s="506"/>
       <c r="F11" s="348" t="s">
         <v>170</v>
       </c>
@@ -7051,11 +7051,11 @@
       <c r="Q11" s="358"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="510"/>
-      <c r="B12" s="519"/>
-      <c r="C12" s="510"/>
-      <c r="D12" s="510"/>
-      <c r="E12" s="510"/>
+      <c r="A12" s="503"/>
+      <c r="B12" s="511"/>
+      <c r="C12" s="503"/>
+      <c r="D12" s="503"/>
+      <c r="E12" s="503"/>
       <c r="F12" s="344" t="s">
         <v>174</v>
       </c>
@@ -7086,19 +7086,19 @@
       <c r="P12" s="337"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="502">
+      <c r="A13" s="508">
         <v>628</v>
       </c>
-      <c r="B13" s="504">
+      <c r="B13" s="522">
         <v>44045</v>
       </c>
-      <c r="C13" s="502" t="s">
+      <c r="C13" s="508" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="502" t="s">
+      <c r="D13" s="508" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="502" t="s">
+      <c r="E13" s="508" t="s">
         <v>169</v>
       </c>
       <c r="F13" s="336" t="s">
@@ -7131,11 +7131,11 @@
       <c r="P13" s="336"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="520"/>
-      <c r="B14" s="521"/>
-      <c r="C14" s="520"/>
-      <c r="D14" s="520"/>
-      <c r="E14" s="520"/>
+      <c r="A14" s="509"/>
+      <c r="B14" s="528"/>
+      <c r="C14" s="509"/>
+      <c r="D14" s="509"/>
+      <c r="E14" s="509"/>
       <c r="F14" s="363" t="s">
         <v>184</v>
       </c>
@@ -7252,17 +7252,17 @@
       <c r="P16" s="370"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="508">
+      <c r="A17" s="502">
         <v>635</v>
       </c>
-      <c r="B17" s="517">
+      <c r="B17" s="510">
         <v>44047</v>
       </c>
-      <c r="C17" s="508"/>
-      <c r="D17" s="514" t="s">
+      <c r="C17" s="502"/>
+      <c r="D17" s="524" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="514" t="s">
+      <c r="E17" s="524" t="s">
         <v>180</v>
       </c>
       <c r="F17" s="343" t="s">
@@ -7295,11 +7295,11 @@
       <c r="P17" s="374"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="510"/>
-      <c r="B18" s="519"/>
-      <c r="C18" s="510"/>
-      <c r="D18" s="516"/>
-      <c r="E18" s="516"/>
+      <c r="A18" s="503"/>
+      <c r="B18" s="511"/>
+      <c r="C18" s="503"/>
+      <c r="D18" s="526"/>
+      <c r="E18" s="526"/>
       <c r="F18" s="344" t="s">
         <v>173</v>
       </c>
@@ -7330,19 +7330,19 @@
       <c r="P18" s="376"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="508">
+      <c r="A19" s="502">
         <v>637</v>
       </c>
-      <c r="B19" s="517">
+      <c r="B19" s="510">
         <v>44048</v>
       </c>
-      <c r="C19" s="508" t="s">
+      <c r="C19" s="502" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="514" t="s">
+      <c r="D19" s="524" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="514"/>
+      <c r="E19" s="524"/>
       <c r="F19" s="343" t="s">
         <v>172</v>
       </c>
@@ -7373,11 +7373,11 @@
       <c r="P19" s="374"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="509"/>
-      <c r="B20" s="518"/>
-      <c r="C20" s="509"/>
-      <c r="D20" s="515"/>
-      <c r="E20" s="515"/>
+      <c r="A20" s="506"/>
+      <c r="B20" s="514"/>
+      <c r="C20" s="506"/>
+      <c r="D20" s="525"/>
+      <c r="E20" s="525"/>
       <c r="F20" s="348" t="s">
         <v>173</v>
       </c>
@@ -7408,11 +7408,11 @@
       <c r="P20" s="378"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="509"/>
-      <c r="B21" s="518"/>
-      <c r="C21" s="509"/>
-      <c r="D21" s="515"/>
-      <c r="E21" s="515"/>
+      <c r="A21" s="506"/>
+      <c r="B21" s="514"/>
+      <c r="C21" s="506"/>
+      <c r="D21" s="525"/>
+      <c r="E21" s="525"/>
       <c r="F21" s="348" t="s">
         <v>183</v>
       </c>
@@ -7443,11 +7443,11 @@
       <c r="P21" s="378"/>
     </row>
     <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="509"/>
-      <c r="B22" s="518"/>
-      <c r="C22" s="509"/>
-      <c r="D22" s="515"/>
-      <c r="E22" s="515"/>
+      <c r="A22" s="506"/>
+      <c r="B22" s="514"/>
+      <c r="C22" s="506"/>
+      <c r="D22" s="525"/>
+      <c r="E22" s="525"/>
       <c r="F22" s="348" t="s">
         <v>170</v>
       </c>
@@ -7478,11 +7478,11 @@
       <c r="P22" s="378"/>
     </row>
     <row r="23" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="509"/>
-      <c r="B23" s="518"/>
-      <c r="C23" s="509"/>
-      <c r="D23" s="515"/>
-      <c r="E23" s="515"/>
+      <c r="A23" s="506"/>
+      <c r="B23" s="514"/>
+      <c r="C23" s="506"/>
+      <c r="D23" s="525"/>
+      <c r="E23" s="525"/>
       <c r="F23" s="348" t="s">
         <v>174</v>
       </c>
@@ -7514,11 +7514,11 @@
       <c r="R23" s="358"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="509"/>
-      <c r="B24" s="518"/>
-      <c r="C24" s="509"/>
-      <c r="D24" s="515"/>
-      <c r="E24" s="515"/>
+      <c r="A24" s="506"/>
+      <c r="B24" s="514"/>
+      <c r="C24" s="506"/>
+      <c r="D24" s="525"/>
+      <c r="E24" s="525"/>
       <c r="F24" s="348" t="s">
         <v>176</v>
       </c>
@@ -7549,11 +7549,11 @@
       <c r="P24" s="348"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="509"/>
-      <c r="B25" s="518"/>
-      <c r="C25" s="509"/>
-      <c r="D25" s="515"/>
-      <c r="E25" s="515"/>
+      <c r="A25" s="506"/>
+      <c r="B25" s="514"/>
+      <c r="C25" s="506"/>
+      <c r="D25" s="525"/>
+      <c r="E25" s="525"/>
       <c r="F25" s="348" t="s">
         <v>184</v>
       </c>
@@ -7584,11 +7584,11 @@
       <c r="P25" s="348"/>
     </row>
     <row r="26" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="510"/>
-      <c r="B26" s="519"/>
-      <c r="C26" s="510"/>
-      <c r="D26" s="516"/>
-      <c r="E26" s="516"/>
+      <c r="A26" s="503"/>
+      <c r="B26" s="511"/>
+      <c r="C26" s="503"/>
+      <c r="D26" s="526"/>
+      <c r="E26" s="526"/>
       <c r="F26" s="344" t="s">
         <v>185</v>
       </c>
@@ -7619,19 +7619,19 @@
       <c r="P26" s="344"/>
     </row>
     <row r="27" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="508">
+      <c r="A27" s="502">
         <v>638</v>
       </c>
-      <c r="B27" s="517">
+      <c r="B27" s="510">
         <v>44048</v>
       </c>
-      <c r="C27" s="508" t="s">
+      <c r="C27" s="502" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="508" t="s">
+      <c r="D27" s="502" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="508" t="s">
+      <c r="E27" s="502" t="s">
         <v>188</v>
       </c>
       <c r="F27" s="343" t="s">
@@ -7664,11 +7664,11 @@
       <c r="P27" s="343"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="509"/>
-      <c r="B28" s="518"/>
-      <c r="C28" s="509"/>
-      <c r="D28" s="509"/>
-      <c r="E28" s="509"/>
+      <c r="A28" s="506"/>
+      <c r="B28" s="514"/>
+      <c r="C28" s="506"/>
+      <c r="D28" s="506"/>
+      <c r="E28" s="506"/>
       <c r="F28" s="348" t="s">
         <v>172</v>
       </c>
@@ -7699,11 +7699,11 @@
       <c r="P28" s="348"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="509"/>
-      <c r="B29" s="518"/>
-      <c r="C29" s="509"/>
-      <c r="D29" s="509"/>
-      <c r="E29" s="509"/>
+      <c r="A29" s="506"/>
+      <c r="B29" s="514"/>
+      <c r="C29" s="506"/>
+      <c r="D29" s="506"/>
+      <c r="E29" s="506"/>
       <c r="F29" s="348" t="s">
         <v>173</v>
       </c>
@@ -7734,11 +7734,11 @@
       <c r="P29" s="378"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="509"/>
-      <c r="B30" s="518"/>
-      <c r="C30" s="509"/>
-      <c r="D30" s="509"/>
-      <c r="E30" s="509"/>
+      <c r="A30" s="506"/>
+      <c r="B30" s="514"/>
+      <c r="C30" s="506"/>
+      <c r="D30" s="506"/>
+      <c r="E30" s="506"/>
       <c r="F30" s="348" t="s">
         <v>183</v>
       </c>
@@ -7769,11 +7769,11 @@
       <c r="P30" s="348"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="509"/>
-      <c r="B31" s="518"/>
-      <c r="C31" s="509"/>
-      <c r="D31" s="509"/>
-      <c r="E31" s="509"/>
+      <c r="A31" s="506"/>
+      <c r="B31" s="514"/>
+      <c r="C31" s="506"/>
+      <c r="D31" s="506"/>
+      <c r="E31" s="506"/>
       <c r="F31" s="348" t="s">
         <v>170</v>
       </c>
@@ -7804,11 +7804,11 @@
       <c r="P31" s="348"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="509"/>
-      <c r="B32" s="518"/>
-      <c r="C32" s="509"/>
-      <c r="D32" s="509"/>
-      <c r="E32" s="509"/>
+      <c r="A32" s="506"/>
+      <c r="B32" s="514"/>
+      <c r="C32" s="506"/>
+      <c r="D32" s="506"/>
+      <c r="E32" s="506"/>
       <c r="F32" s="348" t="s">
         <v>174</v>
       </c>
@@ -7839,11 +7839,11 @@
       <c r="P32" s="348"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="510"/>
-      <c r="B33" s="519"/>
-      <c r="C33" s="510"/>
-      <c r="D33" s="510"/>
-      <c r="E33" s="510"/>
+      <c r="A33" s="503"/>
+      <c r="B33" s="511"/>
+      <c r="C33" s="503"/>
+      <c r="D33" s="503"/>
+      <c r="E33" s="503"/>
       <c r="F33" s="344" t="s">
         <v>185</v>
       </c>
@@ -7874,17 +7874,17 @@
       <c r="P33" s="385"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="508">
+      <c r="A34" s="502">
         <v>653</v>
       </c>
-      <c r="B34" s="517">
+      <c r="B34" s="510">
         <v>44051</v>
       </c>
-      <c r="C34" s="508"/>
-      <c r="D34" s="508" t="s">
+      <c r="C34" s="502"/>
+      <c r="D34" s="502" t="s">
         <v>272</v>
       </c>
-      <c r="E34" s="508" t="s">
+      <c r="E34" s="502" t="s">
         <v>273</v>
       </c>
       <c r="F34" s="343" t="s">
@@ -7917,11 +7917,11 @@
       <c r="P34" s="386"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="510"/>
-      <c r="B35" s="519"/>
-      <c r="C35" s="510"/>
-      <c r="D35" s="510"/>
-      <c r="E35" s="510"/>
+      <c r="A35" s="503"/>
+      <c r="B35" s="511"/>
+      <c r="C35" s="503"/>
+      <c r="D35" s="503"/>
+      <c r="E35" s="503"/>
       <c r="F35" s="344" t="s">
         <v>185</v>
       </c>
@@ -7952,17 +7952,17 @@
       <c r="P35" s="385"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="502">
+      <c r="A36" s="508">
         <v>646</v>
       </c>
-      <c r="B36" s="504">
+      <c r="B36" s="522">
         <v>44053</v>
       </c>
-      <c r="C36" s="502" t="s">
+      <c r="C36" s="508" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="506"/>
-      <c r="E36" s="502"/>
+      <c r="D36" s="520"/>
+      <c r="E36" s="508"/>
       <c r="F36" s="200" t="s">
         <v>172</v>
       </c>
@@ -7994,11 +7994,11 @@
       <c r="Q36" s="358"/>
     </row>
     <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="503"/>
-      <c r="B37" s="505"/>
-      <c r="C37" s="503"/>
-      <c r="D37" s="507"/>
-      <c r="E37" s="503"/>
+      <c r="A37" s="518"/>
+      <c r="B37" s="523"/>
+      <c r="C37" s="518"/>
+      <c r="D37" s="521"/>
+      <c r="E37" s="518"/>
       <c r="F37" s="346" t="s">
         <v>173</v>
       </c>
@@ -8030,19 +8030,19 @@
       <c r="Q37" s="358"/>
     </row>
     <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="508">
+      <c r="A38" s="502">
         <v>657</v>
       </c>
-      <c r="B38" s="517">
+      <c r="B38" s="510">
         <v>44053</v>
       </c>
-      <c r="C38" s="517" t="s">
+      <c r="C38" s="510" t="s">
         <v>269</v>
       </c>
-      <c r="D38" s="547" t="s">
+      <c r="D38" s="515" t="s">
         <v>270</v>
       </c>
-      <c r="E38" s="517"/>
+      <c r="E38" s="510"/>
       <c r="F38" s="343" t="s">
         <v>172</v>
       </c>
@@ -8071,11 +8071,11 @@
       <c r="Q38" s="358"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="509"/>
-      <c r="B39" s="518"/>
-      <c r="C39" s="518"/>
-      <c r="D39" s="548"/>
-      <c r="E39" s="518"/>
+      <c r="A39" s="506"/>
+      <c r="B39" s="514"/>
+      <c r="C39" s="514"/>
+      <c r="D39" s="516"/>
+      <c r="E39" s="514"/>
       <c r="F39" s="348" t="s">
         <v>173</v>
       </c>
@@ -8104,11 +8104,11 @@
       <c r="Q39" s="358"/>
     </row>
     <row r="40" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="509"/>
-      <c r="B40" s="518"/>
-      <c r="C40" s="518"/>
-      <c r="D40" s="548"/>
-      <c r="E40" s="518"/>
+      <c r="A40" s="506"/>
+      <c r="B40" s="514"/>
+      <c r="C40" s="514"/>
+      <c r="D40" s="516"/>
+      <c r="E40" s="514"/>
       <c r="F40" s="348" t="s">
         <v>183</v>
       </c>
@@ -8137,11 +8137,11 @@
       <c r="Q40" s="358"/>
     </row>
     <row r="41" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="509"/>
-      <c r="B41" s="518"/>
-      <c r="C41" s="518"/>
-      <c r="D41" s="548"/>
-      <c r="E41" s="518"/>
+      <c r="A41" s="506"/>
+      <c r="B41" s="514"/>
+      <c r="C41" s="514"/>
+      <c r="D41" s="516"/>
+      <c r="E41" s="514"/>
       <c r="F41" s="348" t="s">
         <v>170</v>
       </c>
@@ -8170,11 +8170,11 @@
       <c r="Q41" s="358"/>
     </row>
     <row r="42" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="509"/>
-      <c r="B42" s="518"/>
-      <c r="C42" s="518"/>
-      <c r="D42" s="548"/>
-      <c r="E42" s="518"/>
+      <c r="A42" s="506"/>
+      <c r="B42" s="514"/>
+      <c r="C42" s="514"/>
+      <c r="D42" s="516"/>
+      <c r="E42" s="514"/>
       <c r="F42" s="348" t="s">
         <v>174</v>
       </c>
@@ -8203,11 +8203,11 @@
       <c r="Q42" s="358"/>
     </row>
     <row r="43" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="509"/>
-      <c r="B43" s="518"/>
-      <c r="C43" s="518"/>
-      <c r="D43" s="548"/>
-      <c r="E43" s="518"/>
+      <c r="A43" s="506"/>
+      <c r="B43" s="514"/>
+      <c r="C43" s="514"/>
+      <c r="D43" s="516"/>
+      <c r="E43" s="514"/>
       <c r="F43" s="348" t="s">
         <v>176</v>
       </c>
@@ -8236,11 +8236,11 @@
       <c r="Q43" s="358"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="509"/>
-      <c r="B44" s="518"/>
-      <c r="C44" s="518"/>
-      <c r="D44" s="548"/>
-      <c r="E44" s="518"/>
+      <c r="A44" s="506"/>
+      <c r="B44" s="514"/>
+      <c r="C44" s="514"/>
+      <c r="D44" s="516"/>
+      <c r="E44" s="514"/>
       <c r="F44" s="348" t="s">
         <v>184</v>
       </c>
@@ -8269,11 +8269,11 @@
       <c r="Q44" s="358"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="510"/>
-      <c r="B45" s="519"/>
-      <c r="C45" s="519"/>
-      <c r="D45" s="549"/>
-      <c r="E45" s="519"/>
+      <c r="A45" s="503"/>
+      <c r="B45" s="511"/>
+      <c r="C45" s="511"/>
+      <c r="D45" s="517"/>
+      <c r="E45" s="511"/>
       <c r="F45" s="344" t="s">
         <v>185</v>
       </c>
@@ -8344,19 +8344,19 @@
       <c r="Q46" s="358"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="503">
+      <c r="A47" s="518">
         <v>639</v>
       </c>
-      <c r="B47" s="505">
+      <c r="B47" s="523">
         <v>44055</v>
       </c>
-      <c r="C47" s="503" t="s">
+      <c r="C47" s="518" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="507" t="s">
+      <c r="D47" s="521" t="s">
         <v>190</v>
       </c>
-      <c r="E47" s="503"/>
+      <c r="E47" s="518"/>
       <c r="F47" s="347" t="s">
         <v>170</v>
       </c>
@@ -8387,11 +8387,11 @@
       <c r="P47" s="391"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="520"/>
-      <c r="B48" s="521"/>
-      <c r="C48" s="520"/>
-      <c r="D48" s="546"/>
-      <c r="E48" s="520"/>
+      <c r="A48" s="509"/>
+      <c r="B48" s="528"/>
+      <c r="C48" s="509"/>
+      <c r="D48" s="527"/>
+      <c r="E48" s="509"/>
       <c r="F48" s="344" t="s">
         <v>185</v>
       </c>
@@ -8422,19 +8422,19 @@
       <c r="P48" s="385"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="502">
+      <c r="A49" s="508">
         <v>640</v>
       </c>
-      <c r="B49" s="504">
+      <c r="B49" s="522">
         <v>44055</v>
       </c>
-      <c r="C49" s="502" t="s">
+      <c r="C49" s="508" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="506" t="s">
+      <c r="D49" s="520" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="502" t="s">
+      <c r="E49" s="508" t="s">
         <v>192</v>
       </c>
       <c r="F49" s="343" t="s">
@@ -8467,11 +8467,11 @@
       <c r="P49" s="343"/>
     </row>
     <row r="50" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="503"/>
-      <c r="B50" s="505"/>
-      <c r="C50" s="503"/>
-      <c r="D50" s="507"/>
-      <c r="E50" s="503"/>
+      <c r="A50" s="518"/>
+      <c r="B50" s="523"/>
+      <c r="C50" s="518"/>
+      <c r="D50" s="521"/>
+      <c r="E50" s="518"/>
       <c r="F50" s="346" t="s">
         <v>185</v>
       </c>
@@ -8502,19 +8502,19 @@
       <c r="P50" s="346"/>
     </row>
     <row r="51" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="508">
+      <c r="A51" s="502">
         <v>641</v>
       </c>
-      <c r="B51" s="517">
+      <c r="B51" s="510">
         <v>44055</v>
       </c>
-      <c r="C51" s="508" t="s">
+      <c r="C51" s="502" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="514" t="s">
+      <c r="D51" s="524" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="508" t="s">
+      <c r="E51" s="502" t="s">
         <v>193</v>
       </c>
       <c r="F51" s="343" t="s">
@@ -8547,11 +8547,11 @@
       <c r="P51" s="343"/>
     </row>
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="509"/>
-      <c r="B52" s="518"/>
-      <c r="C52" s="509"/>
-      <c r="D52" s="515"/>
-      <c r="E52" s="509"/>
+      <c r="A52" s="506"/>
+      <c r="B52" s="514"/>
+      <c r="C52" s="506"/>
+      <c r="D52" s="525"/>
+      <c r="E52" s="506"/>
       <c r="F52" s="348" t="s">
         <v>172</v>
       </c>
@@ -8582,11 +8582,11 @@
       <c r="P52" s="348"/>
     </row>
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="509"/>
-      <c r="B53" s="518"/>
-      <c r="C53" s="509"/>
-      <c r="D53" s="515"/>
-      <c r="E53" s="509"/>
+      <c r="A53" s="506"/>
+      <c r="B53" s="514"/>
+      <c r="C53" s="506"/>
+      <c r="D53" s="525"/>
+      <c r="E53" s="506"/>
       <c r="F53" s="348" t="s">
         <v>173</v>
       </c>
@@ -8617,11 +8617,11 @@
       <c r="P53" s="348"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="509"/>
-      <c r="B54" s="518"/>
-      <c r="C54" s="509"/>
-      <c r="D54" s="515"/>
-      <c r="E54" s="509"/>
+      <c r="A54" s="506"/>
+      <c r="B54" s="514"/>
+      <c r="C54" s="506"/>
+      <c r="D54" s="525"/>
+      <c r="E54" s="506"/>
       <c r="F54" s="348" t="s">
         <v>183</v>
       </c>
@@ -8652,11 +8652,11 @@
       <c r="P54" s="348"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="509"/>
-      <c r="B55" s="518"/>
-      <c r="C55" s="509"/>
-      <c r="D55" s="515"/>
-      <c r="E55" s="509"/>
+      <c r="A55" s="506"/>
+      <c r="B55" s="514"/>
+      <c r="C55" s="506"/>
+      <c r="D55" s="525"/>
+      <c r="E55" s="506"/>
       <c r="F55" s="348" t="s">
         <v>170</v>
       </c>
@@ -8687,11 +8687,11 @@
       <c r="P55" s="348"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="509"/>
-      <c r="B56" s="518"/>
-      <c r="C56" s="509"/>
-      <c r="D56" s="515"/>
-      <c r="E56" s="509"/>
+      <c r="A56" s="506"/>
+      <c r="B56" s="514"/>
+      <c r="C56" s="506"/>
+      <c r="D56" s="525"/>
+      <c r="E56" s="506"/>
       <c r="F56" s="348" t="s">
         <v>174</v>
       </c>
@@ -8722,11 +8722,11 @@
       <c r="P56" s="348"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="509"/>
-      <c r="B57" s="518"/>
-      <c r="C57" s="509"/>
-      <c r="D57" s="515"/>
-      <c r="E57" s="509"/>
+      <c r="A57" s="506"/>
+      <c r="B57" s="514"/>
+      <c r="C57" s="506"/>
+      <c r="D57" s="525"/>
+      <c r="E57" s="506"/>
       <c r="F57" s="348" t="s">
         <v>176</v>
       </c>
@@ -8757,11 +8757,11 @@
       <c r="P57" s="348"/>
     </row>
     <row r="58" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="509"/>
-      <c r="B58" s="518"/>
-      <c r="C58" s="509"/>
-      <c r="D58" s="515"/>
-      <c r="E58" s="509"/>
+      <c r="A58" s="506"/>
+      <c r="B58" s="514"/>
+      <c r="C58" s="506"/>
+      <c r="D58" s="525"/>
+      <c r="E58" s="506"/>
       <c r="F58" s="348" t="s">
         <v>184</v>
       </c>
@@ -8792,11 +8792,11 @@
       <c r="P58" s="348"/>
     </row>
     <row r="59" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="510"/>
-      <c r="B59" s="519"/>
-      <c r="C59" s="510"/>
-      <c r="D59" s="516"/>
-      <c r="E59" s="510"/>
+      <c r="A59" s="503"/>
+      <c r="B59" s="511"/>
+      <c r="C59" s="503"/>
+      <c r="D59" s="526"/>
+      <c r="E59" s="503"/>
       <c r="F59" s="344" t="s">
         <v>185</v>
       </c>
@@ -8872,19 +8872,19 @@
       <c r="P60" s="345"/>
     </row>
     <row r="61" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="508">
+      <c r="A61" s="502">
         <v>645</v>
       </c>
-      <c r="B61" s="517">
+      <c r="B61" s="510">
         <v>44056</v>
       </c>
-      <c r="C61" s="508" t="s">
+      <c r="C61" s="502" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="514" t="s">
+      <c r="D61" s="524" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="508" t="s">
+      <c r="E61" s="502" t="s">
         <v>193</v>
       </c>
       <c r="F61" s="343" t="s">
@@ -8918,11 +8918,11 @@
       <c r="Q61" s="358"/>
     </row>
     <row r="62" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="509"/>
-      <c r="B62" s="518"/>
-      <c r="C62" s="509"/>
-      <c r="D62" s="515"/>
-      <c r="E62" s="509"/>
+      <c r="A62" s="506"/>
+      <c r="B62" s="514"/>
+      <c r="C62" s="506"/>
+      <c r="D62" s="525"/>
+      <c r="E62" s="506"/>
       <c r="F62" s="348" t="s">
         <v>173</v>
       </c>
@@ -8954,11 +8954,11 @@
       <c r="Q62" s="358"/>
     </row>
     <row r="63" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="509"/>
-      <c r="B63" s="518"/>
-      <c r="C63" s="509"/>
-      <c r="D63" s="515"/>
-      <c r="E63" s="509"/>
+      <c r="A63" s="506"/>
+      <c r="B63" s="514"/>
+      <c r="C63" s="506"/>
+      <c r="D63" s="525"/>
+      <c r="E63" s="506"/>
       <c r="F63" s="348" t="s">
         <v>183</v>
       </c>
@@ -8990,11 +8990,11 @@
       <c r="Q63" s="358"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="509"/>
-      <c r="B64" s="518"/>
-      <c r="C64" s="509"/>
-      <c r="D64" s="515"/>
-      <c r="E64" s="509"/>
+      <c r="A64" s="506"/>
+      <c r="B64" s="514"/>
+      <c r="C64" s="506"/>
+      <c r="D64" s="525"/>
+      <c r="E64" s="506"/>
       <c r="F64" s="348" t="s">
         <v>174</v>
       </c>
@@ -9026,11 +9026,11 @@
       <c r="Q64" s="358"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="509"/>
-      <c r="B65" s="518"/>
-      <c r="C65" s="509"/>
-      <c r="D65" s="515"/>
-      <c r="E65" s="509"/>
+      <c r="A65" s="506"/>
+      <c r="B65" s="514"/>
+      <c r="C65" s="506"/>
+      <c r="D65" s="525"/>
+      <c r="E65" s="506"/>
       <c r="F65" s="348" t="s">
         <v>176</v>
       </c>
@@ -9062,11 +9062,11 @@
       <c r="Q65" s="358"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="509"/>
-      <c r="B66" s="518"/>
-      <c r="C66" s="509"/>
-      <c r="D66" s="515"/>
-      <c r="E66" s="509"/>
+      <c r="A66" s="506"/>
+      <c r="B66" s="514"/>
+      <c r="C66" s="506"/>
+      <c r="D66" s="525"/>
+      <c r="E66" s="506"/>
       <c r="F66" s="348" t="s">
         <v>184</v>
       </c>
@@ -9098,11 +9098,11 @@
       <c r="Q66" s="358"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="510"/>
-      <c r="B67" s="519"/>
-      <c r="C67" s="510"/>
-      <c r="D67" s="516"/>
-      <c r="E67" s="510"/>
+      <c r="A67" s="503"/>
+      <c r="B67" s="511"/>
+      <c r="C67" s="503"/>
+      <c r="D67" s="526"/>
+      <c r="E67" s="503"/>
       <c r="F67" s="344" t="s">
         <v>185</v>
       </c>
@@ -9134,19 +9134,19 @@
       <c r="Q67" s="358"/>
     </row>
     <row r="68" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="508">
+      <c r="A68" s="502">
         <v>647</v>
       </c>
-      <c r="B68" s="517">
+      <c r="B68" s="510">
         <v>44056</v>
       </c>
-      <c r="C68" s="508" t="s">
+      <c r="C68" s="502" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="514" t="s">
+      <c r="D68" s="524" t="s">
         <v>197</v>
       </c>
-      <c r="E68" s="508" t="s">
+      <c r="E68" s="502" t="s">
         <v>198</v>
       </c>
       <c r="F68" s="343" t="s">
@@ -9176,17 +9176,17 @@
       </c>
       <c r="N68" s="354"/>
       <c r="O68" s="354"/>
-      <c r="P68" s="514" t="s">
+      <c r="P68" s="524" t="s">
         <v>199</v>
       </c>
       <c r="Q68" s="358"/>
     </row>
     <row r="69" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="510"/>
-      <c r="B69" s="519"/>
-      <c r="C69" s="510"/>
-      <c r="D69" s="516"/>
-      <c r="E69" s="510"/>
+      <c r="A69" s="503"/>
+      <c r="B69" s="511"/>
+      <c r="C69" s="503"/>
+      <c r="D69" s="526"/>
+      <c r="E69" s="503"/>
       <c r="F69" s="344" t="s">
         <v>173</v>
       </c>
@@ -9214,7 +9214,7 @@
       </c>
       <c r="N69" s="359"/>
       <c r="O69" s="359"/>
-      <c r="P69" s="516"/>
+      <c r="P69" s="526"/>
       <c r="Q69" s="358"/>
     </row>
     <row r="70" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -9259,19 +9259,19 @@
       <c r="Q70" s="358"/>
     </row>
     <row r="71" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="508">
+      <c r="A71" s="502">
         <v>650</v>
       </c>
-      <c r="B71" s="517">
+      <c r="B71" s="510">
         <v>44057</v>
       </c>
-      <c r="C71" s="508" t="s">
+      <c r="C71" s="502" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="514" t="s">
+      <c r="D71" s="524" t="s">
         <v>194</v>
       </c>
-      <c r="E71" s="508" t="s">
+      <c r="E71" s="502" t="s">
         <v>193</v>
       </c>
       <c r="F71" s="343" t="s">
@@ -9305,11 +9305,11 @@
       <c r="Q71" s="358"/>
     </row>
     <row r="72" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="509"/>
-      <c r="B72" s="518"/>
-      <c r="C72" s="509"/>
-      <c r="D72" s="515"/>
-      <c r="E72" s="509"/>
+      <c r="A72" s="506"/>
+      <c r="B72" s="514"/>
+      <c r="C72" s="506"/>
+      <c r="D72" s="525"/>
+      <c r="E72" s="506"/>
       <c r="F72" s="348" t="s">
         <v>173</v>
       </c>
@@ -9341,11 +9341,11 @@
       <c r="Q72" s="358"/>
     </row>
     <row r="73" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="509"/>
-      <c r="B73" s="518"/>
-      <c r="C73" s="509"/>
-      <c r="D73" s="515"/>
-      <c r="E73" s="509"/>
+      <c r="A73" s="506"/>
+      <c r="B73" s="514"/>
+      <c r="C73" s="506"/>
+      <c r="D73" s="525"/>
+      <c r="E73" s="506"/>
       <c r="F73" s="348" t="s">
         <v>183</v>
       </c>
@@ -9377,11 +9377,11 @@
       <c r="Q73" s="358"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="509"/>
-      <c r="B74" s="518"/>
-      <c r="C74" s="509"/>
-      <c r="D74" s="515"/>
-      <c r="E74" s="509"/>
+      <c r="A74" s="506"/>
+      <c r="B74" s="514"/>
+      <c r="C74" s="506"/>
+      <c r="D74" s="525"/>
+      <c r="E74" s="506"/>
       <c r="F74" s="348" t="s">
         <v>170</v>
       </c>
@@ -9413,11 +9413,11 @@
       <c r="Q74" s="358"/>
     </row>
     <row r="75" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="509"/>
-      <c r="B75" s="518"/>
-      <c r="C75" s="509"/>
-      <c r="D75" s="515"/>
-      <c r="E75" s="509"/>
+      <c r="A75" s="506"/>
+      <c r="B75" s="514"/>
+      <c r="C75" s="506"/>
+      <c r="D75" s="525"/>
+      <c r="E75" s="506"/>
       <c r="F75" s="348" t="s">
         <v>184</v>
       </c>
@@ -9449,11 +9449,11 @@
       <c r="Q75" s="358"/>
     </row>
     <row r="76" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="510"/>
-      <c r="B76" s="519"/>
-      <c r="C76" s="510"/>
-      <c r="D76" s="516"/>
-      <c r="E76" s="510"/>
+      <c r="A76" s="503"/>
+      <c r="B76" s="511"/>
+      <c r="C76" s="503"/>
+      <c r="D76" s="526"/>
+      <c r="E76" s="503"/>
       <c r="F76" s="344" t="s">
         <v>185</v>
       </c>
@@ -9485,17 +9485,17 @@
       <c r="Q76" s="358"/>
     </row>
     <row r="77" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="508">
+      <c r="A77" s="502">
         <v>751</v>
       </c>
-      <c r="B77" s="517">
+      <c r="B77" s="510">
         <v>44060</v>
       </c>
-      <c r="C77" s="508"/>
-      <c r="D77" s="514" t="s">
+      <c r="C77" s="502"/>
+      <c r="D77" s="524" t="s">
         <v>200</v>
       </c>
-      <c r="E77" s="508" t="s">
+      <c r="E77" s="502" t="s">
         <v>201</v>
       </c>
       <c r="F77" s="343" t="s">
@@ -9531,11 +9531,11 @@
       <c r="Q77" s="358"/>
     </row>
     <row r="78" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="509"/>
-      <c r="B78" s="518"/>
-      <c r="C78" s="509"/>
-      <c r="D78" s="515"/>
-      <c r="E78" s="509"/>
+      <c r="A78" s="506"/>
+      <c r="B78" s="514"/>
+      <c r="C78" s="506"/>
+      <c r="D78" s="525"/>
+      <c r="E78" s="506"/>
       <c r="F78" s="348" t="s">
         <v>172</v>
       </c>
@@ -9566,11 +9566,11 @@
       <c r="P78" s="396"/>
     </row>
     <row r="79" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="509"/>
-      <c r="B79" s="518"/>
-      <c r="C79" s="509"/>
-      <c r="D79" s="515"/>
-      <c r="E79" s="509"/>
+      <c r="A79" s="506"/>
+      <c r="B79" s="514"/>
+      <c r="C79" s="506"/>
+      <c r="D79" s="525"/>
+      <c r="E79" s="506"/>
       <c r="F79" s="348" t="s">
         <v>170</v>
       </c>
@@ -9601,11 +9601,11 @@
       <c r="P79" s="396"/>
     </row>
     <row r="80" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="510"/>
-      <c r="B80" s="519"/>
-      <c r="C80" s="510"/>
-      <c r="D80" s="516"/>
-      <c r="E80" s="510"/>
+      <c r="A80" s="503"/>
+      <c r="B80" s="511"/>
+      <c r="C80" s="503"/>
+      <c r="D80" s="526"/>
+      <c r="E80" s="503"/>
       <c r="F80" s="344" t="s">
         <v>185</v>
       </c>
@@ -9726,17 +9726,17 @@
       <c r="P82" s="399"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="508">
+      <c r="A83" s="502">
         <v>757</v>
       </c>
-      <c r="B83" s="511">
+      <c r="B83" s="504">
         <v>44061</v>
       </c>
-      <c r="C83" s="508"/>
-      <c r="D83" s="508" t="s">
+      <c r="C83" s="502"/>
+      <c r="D83" s="502" t="s">
         <v>206</v>
       </c>
-      <c r="E83" s="508" t="s">
+      <c r="E83" s="502" t="s">
         <v>207</v>
       </c>
       <c r="F83" s="343" t="s">
@@ -9769,11 +9769,11 @@
       <c r="P83" s="386"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="509"/>
-      <c r="B84" s="512"/>
-      <c r="C84" s="509"/>
-      <c r="D84" s="509"/>
-      <c r="E84" s="509"/>
+      <c r="A84" s="506"/>
+      <c r="B84" s="507"/>
+      <c r="C84" s="506"/>
+      <c r="D84" s="506"/>
+      <c r="E84" s="506"/>
       <c r="F84" s="348" t="s">
         <v>173</v>
       </c>
@@ -9804,11 +9804,11 @@
       <c r="P84" s="396"/>
     </row>
     <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="509"/>
-      <c r="B85" s="512"/>
-      <c r="C85" s="509"/>
-      <c r="D85" s="509"/>
-      <c r="E85" s="509"/>
+      <c r="A85" s="506"/>
+      <c r="B85" s="507"/>
+      <c r="C85" s="506"/>
+      <c r="D85" s="506"/>
+      <c r="E85" s="506"/>
       <c r="F85" s="348" t="s">
         <v>183</v>
       </c>
@@ -9839,11 +9839,11 @@
       <c r="P85" s="396"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="509"/>
-      <c r="B86" s="512"/>
-      <c r="C86" s="509"/>
-      <c r="D86" s="509"/>
-      <c r="E86" s="509"/>
+      <c r="A86" s="506"/>
+      <c r="B86" s="507"/>
+      <c r="C86" s="506"/>
+      <c r="D86" s="506"/>
+      <c r="E86" s="506"/>
       <c r="F86" s="348" t="s">
         <v>170</v>
       </c>
@@ -9874,11 +9874,11 @@
       <c r="P86" s="396"/>
     </row>
     <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="509"/>
-      <c r="B87" s="512"/>
-      <c r="C87" s="509"/>
-      <c r="D87" s="509"/>
-      <c r="E87" s="509"/>
+      <c r="A87" s="506"/>
+      <c r="B87" s="507"/>
+      <c r="C87" s="506"/>
+      <c r="D87" s="506"/>
+      <c r="E87" s="506"/>
       <c r="F87" s="348" t="s">
         <v>184</v>
       </c>
@@ -9909,11 +9909,11 @@
       <c r="P87" s="348"/>
     </row>
     <row r="88" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="510"/>
-      <c r="B88" s="513"/>
-      <c r="C88" s="510"/>
-      <c r="D88" s="510"/>
-      <c r="E88" s="510"/>
+      <c r="A88" s="503"/>
+      <c r="B88" s="505"/>
+      <c r="C88" s="503"/>
+      <c r="D88" s="503"/>
+      <c r="E88" s="503"/>
       <c r="F88" s="344" t="s">
         <v>185</v>
       </c>
@@ -9944,17 +9944,17 @@
       <c r="P88" s="344"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="502">
+      <c r="A89" s="508">
         <v>761</v>
       </c>
-      <c r="B89" s="527">
+      <c r="B89" s="512">
         <v>44063</v>
       </c>
-      <c r="C89" s="502"/>
-      <c r="D89" s="502" t="s">
+      <c r="C89" s="508"/>
+      <c r="D89" s="508" t="s">
         <v>200</v>
       </c>
-      <c r="E89" s="502" t="s">
+      <c r="E89" s="508" t="s">
         <v>201</v>
       </c>
       <c r="F89" s="343" t="s">
@@ -9989,11 +9989,11 @@
       <c r="P89" s="338"/>
     </row>
     <row r="90" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="503"/>
-      <c r="B90" s="528"/>
-      <c r="C90" s="503"/>
-      <c r="D90" s="503"/>
-      <c r="E90" s="503"/>
+      <c r="A90" s="518"/>
+      <c r="B90" s="519"/>
+      <c r="C90" s="518"/>
+      <c r="D90" s="518"/>
+      <c r="E90" s="518"/>
       <c r="F90" s="346" t="s">
         <v>183</v>
       </c>
@@ -10024,19 +10024,19 @@
       <c r="P90" s="400"/>
     </row>
     <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="508">
+      <c r="A91" s="502">
         <v>762</v>
       </c>
-      <c r="B91" s="511">
+      <c r="B91" s="504">
         <v>44063</v>
       </c>
-      <c r="C91" s="508" t="s">
+      <c r="C91" s="502" t="s">
         <v>187</v>
       </c>
-      <c r="D91" s="508" t="s">
+      <c r="D91" s="502" t="s">
         <v>208</v>
       </c>
-      <c r="E91" s="508"/>
+      <c r="E91" s="502"/>
       <c r="F91" s="343" t="s">
         <v>189</v>
       </c>
@@ -10067,11 +10067,11 @@
       <c r="P91" s="338"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="509"/>
-      <c r="B92" s="512"/>
-      <c r="C92" s="509"/>
-      <c r="D92" s="509"/>
-      <c r="E92" s="509"/>
+      <c r="A92" s="506"/>
+      <c r="B92" s="507"/>
+      <c r="C92" s="506"/>
+      <c r="D92" s="506"/>
+      <c r="E92" s="506"/>
       <c r="F92" s="348" t="s">
         <v>172</v>
       </c>
@@ -10102,11 +10102,11 @@
       <c r="P92" s="348"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="509"/>
-      <c r="B93" s="512"/>
-      <c r="C93" s="509"/>
-      <c r="D93" s="509"/>
-      <c r="E93" s="509"/>
+      <c r="A93" s="506"/>
+      <c r="B93" s="507"/>
+      <c r="C93" s="506"/>
+      <c r="D93" s="506"/>
+      <c r="E93" s="506"/>
       <c r="F93" s="348" t="s">
         <v>173</v>
       </c>
@@ -10137,11 +10137,11 @@
       <c r="P93" s="335"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="510"/>
-      <c r="B94" s="513"/>
-      <c r="C94" s="510"/>
-      <c r="D94" s="510"/>
-      <c r="E94" s="510"/>
+      <c r="A94" s="503"/>
+      <c r="B94" s="505"/>
+      <c r="C94" s="503"/>
+      <c r="D94" s="503"/>
+      <c r="E94" s="503"/>
       <c r="F94" s="344" t="s">
         <v>185</v>
       </c>
@@ -10172,17 +10172,17 @@
       <c r="P94" s="337"/>
     </row>
     <row r="95" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="508">
+      <c r="A95" s="502">
         <v>763</v>
       </c>
-      <c r="B95" s="511">
+      <c r="B95" s="504">
         <v>44063</v>
       </c>
-      <c r="C95" s="508"/>
-      <c r="D95" s="508" t="s">
+      <c r="C95" s="502"/>
+      <c r="D95" s="502" t="s">
         <v>179</v>
       </c>
-      <c r="E95" s="508" t="s">
+      <c r="E95" s="502" t="s">
         <v>180</v>
       </c>
       <c r="F95" s="343" t="s">
@@ -10215,11 +10215,11 @@
       <c r="P95" s="338"/>
     </row>
     <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="509"/>
-      <c r="B96" s="512"/>
-      <c r="C96" s="509"/>
-      <c r="D96" s="509"/>
-      <c r="E96" s="509"/>
+      <c r="A96" s="506"/>
+      <c r="B96" s="507"/>
+      <c r="C96" s="506"/>
+      <c r="D96" s="506"/>
+      <c r="E96" s="506"/>
       <c r="F96" s="348" t="s">
         <v>172</v>
       </c>
@@ -10250,11 +10250,11 @@
       <c r="P96" s="335"/>
     </row>
     <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="510"/>
-      <c r="B97" s="513"/>
-      <c r="C97" s="510"/>
-      <c r="D97" s="510"/>
-      <c r="E97" s="510"/>
+      <c r="A97" s="503"/>
+      <c r="B97" s="505"/>
+      <c r="C97" s="503"/>
+      <c r="D97" s="503"/>
+      <c r="E97" s="503"/>
       <c r="F97" s="344" t="s">
         <v>170</v>
       </c>
@@ -10285,17 +10285,17 @@
       <c r="P97" s="337"/>
     </row>
     <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="502">
+      <c r="A98" s="508">
         <v>764</v>
       </c>
-      <c r="B98" s="527">
+      <c r="B98" s="512">
         <v>44065</v>
       </c>
-      <c r="C98" s="502"/>
-      <c r="D98" s="502" t="s">
+      <c r="C98" s="508"/>
+      <c r="D98" s="508" t="s">
         <v>179</v>
       </c>
-      <c r="E98" s="502" t="s">
+      <c r="E98" s="508" t="s">
         <v>180</v>
       </c>
       <c r="F98" s="347" t="s">
@@ -10328,11 +10328,11 @@
       <c r="P98" s="352"/>
     </row>
     <row r="99" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="503"/>
-      <c r="B99" s="528"/>
-      <c r="C99" s="503"/>
-      <c r="D99" s="503"/>
-      <c r="E99" s="503"/>
+      <c r="A99" s="518"/>
+      <c r="B99" s="519"/>
+      <c r="C99" s="518"/>
+      <c r="D99" s="518"/>
+      <c r="E99" s="518"/>
       <c r="F99" s="348" t="s">
         <v>173</v>
       </c>
@@ -10363,11 +10363,11 @@
       <c r="P99" s="352"/>
     </row>
     <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="503"/>
-      <c r="B100" s="528"/>
-      <c r="C100" s="503"/>
-      <c r="D100" s="503"/>
-      <c r="E100" s="503"/>
+      <c r="A100" s="518"/>
+      <c r="B100" s="519"/>
+      <c r="C100" s="518"/>
+      <c r="D100" s="518"/>
+      <c r="E100" s="518"/>
       <c r="F100" s="348" t="s">
         <v>183</v>
       </c>
@@ -10398,11 +10398,11 @@
       <c r="P100" s="352"/>
     </row>
     <row r="101" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="520"/>
-      <c r="B101" s="529"/>
-      <c r="C101" s="520"/>
-      <c r="D101" s="520"/>
-      <c r="E101" s="520"/>
+      <c r="A101" s="509"/>
+      <c r="B101" s="513"/>
+      <c r="C101" s="509"/>
+      <c r="D101" s="509"/>
+      <c r="E101" s="509"/>
       <c r="F101" s="344" t="s">
         <v>185</v>
       </c>
@@ -10433,17 +10433,17 @@
       <c r="P101" s="367"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="502">
+      <c r="A102" s="508">
         <v>660</v>
       </c>
-      <c r="B102" s="527">
+      <c r="B102" s="512">
         <v>44065</v>
       </c>
-      <c r="C102" s="502"/>
-      <c r="D102" s="502" t="s">
+      <c r="C102" s="508"/>
+      <c r="D102" s="508" t="s">
         <v>220</v>
       </c>
-      <c r="E102" s="502" t="s">
+      <c r="E102" s="508" t="s">
         <v>180</v>
       </c>
       <c r="F102" s="343" t="s">
@@ -10476,11 +10476,11 @@
       <c r="P102" s="334"/>
     </row>
     <row r="103" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="503"/>
-      <c r="B103" s="528"/>
-      <c r="C103" s="503"/>
-      <c r="D103" s="503"/>
-      <c r="E103" s="503"/>
+      <c r="A103" s="518"/>
+      <c r="B103" s="519"/>
+      <c r="C103" s="518"/>
+      <c r="D103" s="518"/>
+      <c r="E103" s="518"/>
       <c r="F103" s="348" t="s">
         <v>172</v>
       </c>
@@ -10511,11 +10511,11 @@
       <c r="P103" s="352"/>
     </row>
     <row r="104" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="503"/>
-      <c r="B104" s="528"/>
-      <c r="C104" s="503"/>
-      <c r="D104" s="503"/>
-      <c r="E104" s="503"/>
+      <c r="A104" s="518"/>
+      <c r="B104" s="519"/>
+      <c r="C104" s="518"/>
+      <c r="D104" s="518"/>
+      <c r="E104" s="518"/>
       <c r="F104" s="346" t="s">
         <v>174</v>
       </c>
@@ -10546,17 +10546,17 @@
       <c r="P104" s="352"/>
     </row>
     <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="502">
+      <c r="A105" s="508">
         <v>773</v>
       </c>
-      <c r="B105" s="527">
+      <c r="B105" s="512">
         <v>44066</v>
       </c>
-      <c r="C105" s="502"/>
-      <c r="D105" s="502" t="s">
+      <c r="C105" s="508"/>
+      <c r="D105" s="508" t="s">
         <v>276</v>
       </c>
-      <c r="E105" s="502" t="s">
+      <c r="E105" s="508" t="s">
         <v>277</v>
       </c>
       <c r="F105" s="343" t="s">
@@ -10589,11 +10589,11 @@
       <c r="P105" s="338"/>
     </row>
     <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="520"/>
-      <c r="B106" s="529"/>
-      <c r="C106" s="520"/>
-      <c r="D106" s="520"/>
-      <c r="E106" s="520"/>
+      <c r="A106" s="509"/>
+      <c r="B106" s="513"/>
+      <c r="C106" s="509"/>
+      <c r="D106" s="509"/>
+      <c r="E106" s="509"/>
       <c r="F106" s="344" t="s">
         <v>278</v>
       </c>
@@ -10624,19 +10624,19 @@
       <c r="P106" s="337"/>
     </row>
     <row r="107" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="522">
+      <c r="A107" s="548">
         <v>769</v>
       </c>
-      <c r="B107" s="530">
+      <c r="B107" s="549">
         <v>44068</v>
       </c>
-      <c r="C107" s="522" t="s">
+      <c r="C107" s="548" t="s">
         <v>187</v>
       </c>
-      <c r="D107" s="522" t="s">
+      <c r="D107" s="548" t="s">
         <v>208</v>
       </c>
-      <c r="E107" s="522"/>
+      <c r="E107" s="548"/>
       <c r="F107" s="336" t="s">
         <v>189</v>
       </c>
@@ -10667,11 +10667,11 @@
       <c r="P107" s="414"/>
     </row>
     <row r="108" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="522"/>
-      <c r="B108" s="530"/>
-      <c r="C108" s="522"/>
-      <c r="D108" s="522"/>
-      <c r="E108" s="522"/>
+      <c r="A108" s="548"/>
+      <c r="B108" s="549"/>
+      <c r="C108" s="548"/>
+      <c r="D108" s="548"/>
+      <c r="E108" s="548"/>
       <c r="F108" s="336" t="s">
         <v>172</v>
       </c>
@@ -10702,11 +10702,11 @@
       <c r="P108" s="414"/>
     </row>
     <row r="109" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="522"/>
-      <c r="B109" s="530"/>
-      <c r="C109" s="522"/>
-      <c r="D109" s="522"/>
-      <c r="E109" s="522"/>
+      <c r="A109" s="548"/>
+      <c r="B109" s="549"/>
+      <c r="C109" s="548"/>
+      <c r="D109" s="548"/>
+      <c r="E109" s="548"/>
       <c r="F109" s="336" t="s">
         <v>221</v>
       </c>
@@ -10737,11 +10737,11 @@
       <c r="P109" s="414"/>
     </row>
     <row r="110" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="522"/>
-      <c r="B110" s="530"/>
-      <c r="C110" s="522"/>
-      <c r="D110" s="522"/>
-      <c r="E110" s="522"/>
+      <c r="A110" s="548"/>
+      <c r="B110" s="549"/>
+      <c r="C110" s="548"/>
+      <c r="D110" s="548"/>
+      <c r="E110" s="548"/>
       <c r="F110" s="336" t="s">
         <v>170</v>
       </c>
@@ -10772,11 +10772,11 @@
       <c r="P110" s="414"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="522"/>
-      <c r="B111" s="530"/>
-      <c r="C111" s="522"/>
-      <c r="D111" s="522"/>
-      <c r="E111" s="522"/>
+      <c r="A111" s="548"/>
+      <c r="B111" s="549"/>
+      <c r="C111" s="548"/>
+      <c r="D111" s="548"/>
+      <c r="E111" s="548"/>
       <c r="F111" s="336" t="s">
         <v>176</v>
       </c>
@@ -10807,11 +10807,11 @@
       <c r="P111" s="336"/>
     </row>
     <row r="112" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="522"/>
-      <c r="B112" s="530"/>
-      <c r="C112" s="522"/>
-      <c r="D112" s="522"/>
-      <c r="E112" s="522"/>
+      <c r="A112" s="548"/>
+      <c r="B112" s="549"/>
+      <c r="C112" s="548"/>
+      <c r="D112" s="548"/>
+      <c r="E112" s="548"/>
       <c r="F112" s="336" t="s">
         <v>185</v>
       </c>
@@ -10883,19 +10883,19 @@
       <c r="P113" s="336"/>
     </row>
     <row r="114" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="508">
+      <c r="A114" s="502">
         <v>777</v>
       </c>
-      <c r="B114" s="511">
+      <c r="B114" s="504">
         <v>44070</v>
       </c>
-      <c r="C114" s="508" t="s">
+      <c r="C114" s="502" t="s">
         <v>167</v>
       </c>
-      <c r="D114" s="508" t="s">
+      <c r="D114" s="502" t="s">
         <v>280</v>
       </c>
-      <c r="E114" s="508" t="s">
+      <c r="E114" s="502" t="s">
         <v>281</v>
       </c>
       <c r="F114" s="343" t="s">
@@ -10928,11 +10928,11 @@
       <c r="P114" s="343"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="510"/>
-      <c r="B115" s="513"/>
-      <c r="C115" s="510"/>
-      <c r="D115" s="510"/>
-      <c r="E115" s="510"/>
+      <c r="A115" s="503"/>
+      <c r="B115" s="505"/>
+      <c r="C115" s="503"/>
+      <c r="D115" s="503"/>
+      <c r="E115" s="503"/>
       <c r="F115" s="344" t="s">
         <v>185</v>
       </c>
@@ -11045,19 +11045,19 @@
       <c r="P117" s="336"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="508">
+      <c r="A118" s="502">
         <v>780</v>
       </c>
-      <c r="B118" s="511">
+      <c r="B118" s="504">
         <v>44071</v>
       </c>
-      <c r="C118" s="508" t="s">
+      <c r="C118" s="502" t="s">
         <v>187</v>
       </c>
-      <c r="D118" s="508" t="s">
+      <c r="D118" s="502" t="s">
         <v>283</v>
       </c>
-      <c r="E118" s="508"/>
+      <c r="E118" s="502"/>
       <c r="F118" s="343" t="s">
         <v>172</v>
       </c>
@@ -11073,26 +11073,26 @@
       </c>
       <c r="J118" s="382"/>
       <c r="K118" s="355">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="L118" s="354">
         <f t="shared" si="15"/>
-        <v>16380000</v>
+        <v>20311200</v>
       </c>
       <c r="M118" s="354"/>
       <c r="N118" s="354"/>
       <c r="O118" s="354">
         <f t="shared" si="17"/>
-        <v>16380000</v>
+        <v>20311200</v>
       </c>
       <c r="P118" s="343"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="509"/>
-      <c r="B119" s="512"/>
-      <c r="C119" s="509"/>
-      <c r="D119" s="509"/>
-      <c r="E119" s="509"/>
+      <c r="A119" s="506"/>
+      <c r="B119" s="507"/>
+      <c r="C119" s="506"/>
+      <c r="D119" s="506"/>
+      <c r="E119" s="506"/>
       <c r="F119" s="348" t="s">
         <v>173</v>
       </c>
@@ -11108,26 +11108,26 @@
       </c>
       <c r="J119" s="384"/>
       <c r="K119" s="357">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="L119" s="356">
         <f>I119*(1-K119)</f>
-        <v>8370000</v>
+        <v>10378800</v>
       </c>
       <c r="M119" s="356"/>
       <c r="N119" s="356"/>
       <c r="O119" s="356">
         <f t="shared" si="17"/>
-        <v>8370000</v>
+        <v>10378800</v>
       </c>
       <c r="P119" s="348"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="509"/>
-      <c r="B120" s="512"/>
-      <c r="C120" s="509"/>
-      <c r="D120" s="509"/>
-      <c r="E120" s="509"/>
+      <c r="A120" s="506"/>
+      <c r="B120" s="507"/>
+      <c r="C120" s="506"/>
+      <c r="D120" s="506"/>
+      <c r="E120" s="506"/>
       <c r="F120" s="348" t="s">
         <v>183</v>
       </c>
@@ -11143,26 +11143,26 @@
       </c>
       <c r="J120" s="384"/>
       <c r="K120" s="357">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="L120" s="356">
         <f>I120*(1-K120)</f>
-        <v>5700000</v>
+        <v>7068000</v>
       </c>
       <c r="M120" s="356"/>
       <c r="N120" s="356"/>
       <c r="O120" s="356">
         <f t="shared" si="17"/>
-        <v>5700000</v>
+        <v>7068000</v>
       </c>
       <c r="P120" s="348"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="510"/>
-      <c r="B121" s="513"/>
-      <c r="C121" s="510"/>
-      <c r="D121" s="510"/>
-      <c r="E121" s="510"/>
+      <c r="A121" s="503"/>
+      <c r="B121" s="505"/>
+      <c r="C121" s="503"/>
+      <c r="D121" s="503"/>
+      <c r="E121" s="503"/>
       <c r="F121" s="344" t="s">
         <v>170</v>
       </c>
@@ -11178,17 +11178,17 @@
       </c>
       <c r="J121" s="375"/>
       <c r="K121" s="360">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="L121" s="359">
         <f>I121*(1-K121)</f>
-        <v>8730000</v>
+        <v>10825200</v>
       </c>
       <c r="M121" s="359"/>
       <c r="N121" s="359"/>
       <c r="O121" s="359">
         <f t="shared" si="17"/>
-        <v>8730000</v>
+        <v>10825200</v>
       </c>
       <c r="P121" s="344"/>
     </row>
@@ -11234,14 +11234,14 @@
       <c r="P122" s="393"/>
     </row>
     <row r="123" spans="1:17" s="220" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A123" s="524" t="s">
+      <c r="A123" s="545" t="s">
         <v>76</v>
       </c>
-      <c r="B123" s="524"/>
-      <c r="C123" s="524"/>
-      <c r="D123" s="524"/>
-      <c r="E123" s="524"/>
-      <c r="F123" s="524"/>
+      <c r="B123" s="545"/>
+      <c r="C123" s="545"/>
+      <c r="D123" s="545"/>
+      <c r="E123" s="545"/>
+      <c r="F123" s="545"/>
       <c r="G123" s="254">
         <f>SUM(G13:G122)</f>
         <v>3212</v>
@@ -11255,23 +11255,23 @@
       <c r="K123" s="258"/>
       <c r="L123" s="259">
         <f>SUM(L13:L122)</f>
-        <v>771911700</v>
+        <v>781314900</v>
       </c>
       <c r="M123" s="260"/>
       <c r="N123" s="260"/>
       <c r="O123" s="260"/>
-      <c r="P123" s="525"/>
-      <c r="Q123" s="526"/>
+      <c r="P123" s="546"/>
+      <c r="Q123" s="547"/>
     </row>
     <row r="124" spans="1:17" s="220" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A124" s="523" t="s">
+      <c r="A124" s="544" t="s">
         <v>128</v>
       </c>
-      <c r="B124" s="523"/>
-      <c r="C124" s="523"/>
-      <c r="D124" s="523"/>
-      <c r="E124" s="523"/>
-      <c r="F124" s="523"/>
+      <c r="B124" s="544"/>
+      <c r="C124" s="544"/>
+      <c r="D124" s="544"/>
+      <c r="E124" s="544"/>
+      <c r="F124" s="544"/>
       <c r="G124" s="214">
         <f>G123</f>
         <v>3212</v>
@@ -11282,23 +11282,23 @@
       <c r="K124" s="218"/>
       <c r="L124" s="219">
         <f>L123</f>
-        <v>771911700</v>
+        <v>781314900</v>
       </c>
       <c r="M124" s="217"/>
       <c r="N124" s="217"/>
       <c r="O124" s="217"/>
-      <c r="P124" s="525"/>
-      <c r="Q124" s="526"/>
+      <c r="P124" s="546"/>
+      <c r="Q124" s="547"/>
     </row>
     <row r="125" spans="1:17" s="220" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A125" s="523" t="s">
+      <c r="A125" s="544" t="s">
         <v>77</v>
       </c>
-      <c r="B125" s="523"/>
-      <c r="C125" s="523"/>
-      <c r="D125" s="523"/>
-      <c r="E125" s="523"/>
-      <c r="F125" s="523"/>
+      <c r="B125" s="544"/>
+      <c r="C125" s="544"/>
+      <c r="D125" s="544"/>
+      <c r="E125" s="544"/>
+      <c r="F125" s="544"/>
       <c r="G125" s="221" t="s">
         <v>49</v>
       </c>
@@ -11315,14 +11315,14 @@
       <c r="O125" s="217"/>
     </row>
     <row r="126" spans="1:17" s="220" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A126" s="523" t="s">
+      <c r="A126" s="544" t="s">
         <v>78</v>
       </c>
-      <c r="B126" s="523"/>
-      <c r="C126" s="523"/>
-      <c r="D126" s="523"/>
-      <c r="E126" s="523"/>
-      <c r="F126" s="523"/>
+      <c r="B126" s="544"/>
+      <c r="C126" s="544"/>
+      <c r="D126" s="544"/>
+      <c r="E126" s="544"/>
+      <c r="F126" s="544"/>
       <c r="G126" s="221"/>
       <c r="H126" s="241"/>
       <c r="I126" s="215"/>
@@ -11337,14 +11337,14 @@
       <c r="O126" s="217"/>
     </row>
     <row r="127" spans="1:17" s="220" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A127" s="523" t="s">
+      <c r="A127" s="544" t="s">
         <v>79</v>
       </c>
-      <c r="B127" s="523"/>
-      <c r="C127" s="523"/>
-      <c r="D127" s="523"/>
-      <c r="E127" s="523"/>
-      <c r="F127" s="523"/>
+      <c r="B127" s="544"/>
+      <c r="C127" s="544"/>
+      <c r="D127" s="544"/>
+      <c r="E127" s="544"/>
+      <c r="F127" s="544"/>
       <c r="G127" s="221"/>
       <c r="H127" s="241"/>
       <c r="I127" s="215"/>
@@ -11352,7 +11352,7 @@
       <c r="K127" s="218"/>
       <c r="L127" s="219">
         <f>SUM(O13:O122)</f>
-        <v>644246500</v>
+        <v>653649700</v>
       </c>
       <c r="M127" s="217"/>
       <c r="N127" s="217"/>
@@ -11420,16 +11420,127 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="155">
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="D61:D67"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="E91:E94"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="P123:P124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="Q123:Q124"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="D107:D112"/>
+    <mergeCell ref="C107:C112"/>
+    <mergeCell ref="E107:E112"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="E51:E59"/>
+    <mergeCell ref="D51:D59"/>
+    <mergeCell ref="C51:C59"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="D47:D48"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
@@ -11454,127 +11565,16 @@
     <mergeCell ref="D102:D104"/>
     <mergeCell ref="C102:C104"/>
     <mergeCell ref="B102:B104"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="E51:E59"/>
-    <mergeCell ref="D51:D59"/>
-    <mergeCell ref="C51:C59"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="P123:P124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="Q123:Q124"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="D107:D112"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="E107:E112"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="C61:C67"/>
-    <mergeCell ref="D61:D67"/>
-    <mergeCell ref="E61:E67"/>
-    <mergeCell ref="E91:E94"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E118:E121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11585,7 +11585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -11607,93 +11607,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="550" t="s">
+      <c r="A1" s="564" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="550"/>
-      <c r="C1" s="550"/>
-      <c r="D1" s="550"/>
+      <c r="B1" s="564"/>
+      <c r="C1" s="564"/>
+      <c r="D1" s="564"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="551" t="s">
+      <c r="A2" s="565" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="551"/>
-      <c r="C2" s="551"/>
-      <c r="D2" s="551"/>
+      <c r="B2" s="565"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="565"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="564" t="s">
+      <c r="A3" s="576" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="564"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="564"/>
-      <c r="F3" s="564"/>
-      <c r="G3" s="564"/>
-      <c r="H3" s="564"/>
-      <c r="I3" s="564"/>
-      <c r="J3" s="564"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="564"/>
-      <c r="M3" s="564"/>
-      <c r="N3" s="564"/>
+      <c r="B3" s="576"/>
+      <c r="C3" s="576"/>
+      <c r="D3" s="576"/>
+      <c r="E3" s="576"/>
+      <c r="F3" s="576"/>
+      <c r="G3" s="576"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="576"/>
+      <c r="J3" s="576"/>
+      <c r="K3" s="576"/>
+      <c r="L3" s="576"/>
+      <c r="M3" s="576"/>
+      <c r="N3" s="576"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="565" t="s">
+      <c r="A4" s="577" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="565"/>
-      <c r="C4" s="565"/>
-      <c r="D4" s="565"/>
-      <c r="E4" s="565"/>
-      <c r="F4" s="565"/>
-      <c r="G4" s="565"/>
-      <c r="H4" s="565"/>
-      <c r="I4" s="566"/>
-      <c r="J4" s="565"/>
-      <c r="K4" s="565"/>
-      <c r="L4" s="565"/>
-      <c r="M4" s="565"/>
-      <c r="N4" s="565"/>
+      <c r="B4" s="577"/>
+      <c r="C4" s="577"/>
+      <c r="D4" s="577"/>
+      <c r="E4" s="577"/>
+      <c r="F4" s="577"/>
+      <c r="G4" s="577"/>
+      <c r="H4" s="577"/>
+      <c r="I4" s="578"/>
+      <c r="J4" s="577"/>
+      <c r="K4" s="577"/>
+      <c r="L4" s="577"/>
+      <c r="M4" s="577"/>
+      <c r="N4" s="577"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="567" t="s">
+      <c r="A5" s="579" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="560" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="568" t="s">
+      <c r="C5" s="553" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="238" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="576" t="s">
+      <c r="E5" s="561" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="576"/>
-      <c r="G5" s="576"/>
-      <c r="H5" s="576"/>
-      <c r="I5" s="577"/>
-      <c r="J5" s="578" t="s">
+      <c r="F5" s="561"/>
+      <c r="G5" s="561"/>
+      <c r="H5" s="561"/>
+      <c r="I5" s="562"/>
+      <c r="J5" s="563" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="576" t="s">
+      <c r="K5" s="561" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="576"/>
-      <c r="M5" s="576"/>
-      <c r="N5" s="568" t="s">
+      <c r="L5" s="561"/>
+      <c r="M5" s="561"/>
+      <c r="N5" s="553" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="567"/>
-      <c r="B6" s="575"/>
-      <c r="C6" s="568"/>
+      <c r="A6" s="579"/>
+      <c r="B6" s="560"/>
+      <c r="C6" s="553"/>
       <c r="D6" s="235" t="s">
         <v>41</v>
       </c>
@@ -11712,7 +11712,7 @@
       <c r="I6" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="578"/>
+      <c r="J6" s="563"/>
       <c r="K6" s="235" t="s">
         <v>45</v>
       </c>
@@ -11722,7 +11722,7 @@
       <c r="M6" s="235" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="568"/>
+      <c r="N6" s="553"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="411">
@@ -11766,16 +11766,16 @@
       <c r="N7" s="283"/>
     </row>
     <row r="8" spans="1:17" s="212" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="558">
+      <c r="A8" s="570">
         <v>656</v>
       </c>
-      <c r="B8" s="552">
+      <c r="B8" s="566">
         <v>44053</v>
       </c>
-      <c r="C8" s="561" t="s">
+      <c r="C8" s="573" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="561" t="s">
+      <c r="D8" s="573" t="s">
         <v>179</v>
       </c>
       <c r="E8" s="321" t="s">
@@ -11808,10 +11808,10 @@
       <c r="Q8" s="213"/>
     </row>
     <row r="9" spans="1:17" s="212" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="560"/>
-      <c r="B9" s="553"/>
-      <c r="C9" s="562"/>
-      <c r="D9" s="562"/>
+      <c r="A9" s="572"/>
+      <c r="B9" s="567"/>
+      <c r="C9" s="574"/>
+      <c r="D9" s="574"/>
       <c r="E9" s="322" t="s">
         <v>173</v>
       </c>
@@ -11842,10 +11842,10 @@
       <c r="Q9" s="213"/>
     </row>
     <row r="10" spans="1:17" s="212" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="560"/>
-      <c r="B10" s="553"/>
-      <c r="C10" s="562"/>
-      <c r="D10" s="562"/>
+      <c r="A10" s="572"/>
+      <c r="B10" s="567"/>
+      <c r="C10" s="574"/>
+      <c r="D10" s="574"/>
       <c r="E10" s="322" t="s">
         <v>183</v>
       </c>
@@ -11876,10 +11876,10 @@
       <c r="Q10" s="213"/>
     </row>
     <row r="11" spans="1:17" s="212" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="560"/>
-      <c r="B11" s="553"/>
-      <c r="C11" s="562"/>
-      <c r="D11" s="562"/>
+      <c r="A11" s="572"/>
+      <c r="B11" s="567"/>
+      <c r="C11" s="574"/>
+      <c r="D11" s="574"/>
       <c r="E11" s="322" t="s">
         <v>170</v>
       </c>
@@ -11910,10 +11910,10 @@
       <c r="Q11" s="213"/>
     </row>
     <row r="12" spans="1:17" s="212" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="560"/>
-      <c r="B12" s="553"/>
-      <c r="C12" s="562"/>
-      <c r="D12" s="562"/>
+      <c r="A12" s="572"/>
+      <c r="B12" s="567"/>
+      <c r="C12" s="574"/>
+      <c r="D12" s="574"/>
       <c r="E12" s="322" t="s">
         <v>174</v>
       </c>
@@ -11944,10 +11944,10 @@
       <c r="Q12" s="213"/>
     </row>
     <row r="13" spans="1:17" s="212" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="560"/>
-      <c r="B13" s="553"/>
-      <c r="C13" s="562"/>
-      <c r="D13" s="562"/>
+      <c r="A13" s="572"/>
+      <c r="B13" s="567"/>
+      <c r="C13" s="574"/>
+      <c r="D13" s="574"/>
       <c r="E13" s="322" t="s">
         <v>176</v>
       </c>
@@ -11978,10 +11978,10 @@
       <c r="Q13" s="213"/>
     </row>
     <row r="14" spans="1:17" s="212" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="560"/>
-      <c r="B14" s="553"/>
-      <c r="C14" s="562"/>
-      <c r="D14" s="562"/>
+      <c r="A14" s="572"/>
+      <c r="B14" s="567"/>
+      <c r="C14" s="574"/>
+      <c r="D14" s="574"/>
       <c r="E14" s="322" t="s">
         <v>184</v>
       </c>
@@ -12012,10 +12012,10 @@
       <c r="Q14" s="213"/>
     </row>
     <row r="15" spans="1:17" s="212" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="559"/>
-      <c r="B15" s="557"/>
-      <c r="C15" s="563"/>
-      <c r="D15" s="563"/>
+      <c r="A15" s="571"/>
+      <c r="B15" s="569"/>
+      <c r="C15" s="575"/>
+      <c r="D15" s="575"/>
       <c r="E15" s="323" t="s">
         <v>185</v>
       </c>
@@ -12086,14 +12086,14 @@
       <c r="Q16" s="213"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="558">
+      <c r="A17" s="570">
         <v>642</v>
       </c>
-      <c r="B17" s="552">
+      <c r="B17" s="566">
         <v>44056</v>
       </c>
-      <c r="C17" s="554"/>
-      <c r="D17" s="554" t="s">
+      <c r="C17" s="551"/>
+      <c r="D17" s="551" t="s">
         <v>179</v>
       </c>
       <c r="E17" s="140" t="s">
@@ -12125,10 +12125,10 @@
       <c r="N17" s="143"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="559"/>
-      <c r="B18" s="557"/>
-      <c r="C18" s="556"/>
-      <c r="D18" s="556"/>
+      <c r="A18" s="571"/>
+      <c r="B18" s="569"/>
+      <c r="C18" s="568"/>
+      <c r="D18" s="568"/>
       <c r="E18" s="149" t="s">
         <v>184</v>
       </c>
@@ -12238,14 +12238,14 @@
       <c r="N20" s="144"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="573">
+      <c r="A21" s="558">
         <v>776</v>
       </c>
-      <c r="B21" s="571">
+      <c r="B21" s="556">
         <v>44070</v>
       </c>
-      <c r="C21" s="569"/>
-      <c r="D21" s="569" t="s">
+      <c r="C21" s="554"/>
+      <c r="D21" s="554" t="s">
         <v>279</v>
       </c>
       <c r="E21" s="144" t="s">
@@ -12276,10 +12276,10 @@
       <c r="N21" s="144"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="574"/>
-      <c r="B22" s="572"/>
-      <c r="C22" s="570"/>
-      <c r="D22" s="570"/>
+      <c r="A22" s="559"/>
+      <c r="B22" s="557"/>
+      <c r="C22" s="555"/>
+      <c r="D22" s="555"/>
       <c r="E22" s="144" t="s">
         <v>176</v>
       </c>
@@ -12341,7 +12341,7 @@
       <c r="K23" s="144"/>
       <c r="L23" s="144"/>
       <c r="M23" s="245">
-        <f t="shared" ref="M21:M23" si="5">J23</f>
+        <f t="shared" ref="M23" si="5">J23</f>
         <v>3549000</v>
       </c>
       <c r="N23" s="148"/>
@@ -12379,10 +12379,10 @@
       <c r="N25" s="152"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="554"/>
-      <c r="B26" s="552"/>
-      <c r="C26" s="554"/>
-      <c r="D26" s="554"/>
+      <c r="A26" s="551"/>
+      <c r="B26" s="566"/>
+      <c r="C26" s="551"/>
+      <c r="D26" s="551"/>
       <c r="E26" s="140"/>
       <c r="F26" s="140"/>
       <c r="G26" s="141"/>
@@ -12395,10 +12395,10 @@
       <c r="N26" s="143"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="555"/>
-      <c r="B27" s="553"/>
-      <c r="C27" s="555"/>
-      <c r="D27" s="555"/>
+      <c r="A27" s="552"/>
+      <c r="B27" s="567"/>
+      <c r="C27" s="552"/>
+      <c r="D27" s="552"/>
       <c r="E27" s="144"/>
       <c r="F27" s="144"/>
       <c r="G27" s="145"/>
@@ -12411,12 +12411,12 @@
       <c r="N27" s="148"/>
     </row>
     <row r="28" spans="1:14" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="579" t="s">
+      <c r="A28" s="550" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="579"/>
-      <c r="C28" s="579"/>
-      <c r="D28" s="579"/>
+      <c r="B28" s="550"/>
+      <c r="C28" s="550"/>
+      <c r="D28" s="550"/>
       <c r="E28" s="88"/>
       <c r="F28" s="88">
         <f>SUM(F7:F27)</f>
@@ -12504,18 +12504,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B26:B27"/>
@@ -12532,6 +12520,18 @@
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12722,7 +12722,7 @@
       </c>
       <c r="D8" s="65">
         <f>'DOANH THU'!L124</f>
-        <v>771911700</v>
+        <v>781314900</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="56"/>
@@ -12822,7 +12822,7 @@
       <c r="C12" s="72"/>
       <c r="D12" s="73">
         <f>D8-D9-D10</f>
-        <v>644246500</v>
+        <v>653649700</v>
       </c>
       <c r="E12" s="70"/>
       <c r="F12" s="56"/>
@@ -13077,13 +13077,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="614" t="s">
+      <c r="A1" s="599" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="614"/>
-      <c r="C1" s="614"/>
-      <c r="D1" s="614"/>
-      <c r="E1" s="614"/>
+      <c r="B1" s="599"/>
+      <c r="C1" s="599"/>
+      <c r="D1" s="599"/>
+      <c r="E1" s="599"/>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
@@ -13103,105 +13103,105 @@
       <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="590" t="s">
+      <c r="A3" s="600" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="590"/>
-      <c r="C3" s="590"/>
-      <c r="D3" s="590"/>
-      <c r="E3" s="590"/>
-      <c r="F3" s="590"/>
-      <c r="G3" s="590"/>
-      <c r="H3" s="590"/>
-      <c r="I3" s="590"/>
-      <c r="J3" s="590"/>
-      <c r="K3" s="590"/>
-      <c r="L3" s="590"/>
+      <c r="B3" s="600"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="600"/>
+      <c r="F3" s="600"/>
+      <c r="G3" s="600"/>
+      <c r="H3" s="600"/>
+      <c r="I3" s="600"/>
+      <c r="J3" s="600"/>
+      <c r="K3" s="600"/>
+      <c r="L3" s="600"/>
     </row>
     <row r="4" spans="1:12" s="97" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="589" t="s">
+      <c r="A4" s="601" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="609" t="s">
+      <c r="B4" s="605" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="589" t="s">
+      <c r="C4" s="601" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="589" t="s">
+      <c r="D4" s="601" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="589"/>
-      <c r="F4" s="588" t="s">
+      <c r="E4" s="601"/>
+      <c r="F4" s="604" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="588"/>
-      <c r="H4" s="588"/>
-      <c r="I4" s="588"/>
-      <c r="J4" s="588"/>
-      <c r="K4" s="588"/>
-      <c r="L4" s="588"/>
+      <c r="G4" s="604"/>
+      <c r="H4" s="604"/>
+      <c r="I4" s="604"/>
+      <c r="J4" s="604"/>
+      <c r="K4" s="604"/>
+      <c r="L4" s="604"/>
     </row>
     <row r="5" spans="1:12" s="97" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="589"/>
-      <c r="B5" s="609"/>
-      <c r="C5" s="589"/>
-      <c r="D5" s="589" t="s">
+      <c r="A5" s="601"/>
+      <c r="B5" s="605"/>
+      <c r="C5" s="601"/>
+      <c r="D5" s="601" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="589" t="s">
+      <c r="E5" s="601" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="589" t="s">
+      <c r="F5" s="601" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="589" t="s">
+      <c r="G5" s="601" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="592" t="s">
+      <c r="H5" s="602" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="592" t="s">
+      <c r="I5" s="602" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="591" t="s">
+      <c r="J5" s="603" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="591"/>
-      <c r="L5" s="592" t="s">
+      <c r="K5" s="603"/>
+      <c r="L5" s="602" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="589"/>
-      <c r="B6" s="609"/>
-      <c r="C6" s="589"/>
-      <c r="D6" s="589"/>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="592"/>
+      <c r="A6" s="601"/>
+      <c r="B6" s="605"/>
+      <c r="C6" s="601"/>
+      <c r="D6" s="601"/>
+      <c r="E6" s="601"/>
+      <c r="F6" s="601"/>
+      <c r="G6" s="601"/>
+      <c r="H6" s="602"/>
+      <c r="I6" s="602"/>
       <c r="J6" s="100" t="s">
         <v>83</v>
       </c>
       <c r="K6" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="592"/>
+      <c r="L6" s="602"/>
     </row>
     <row r="7" spans="1:12" s="212" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="554">
+      <c r="A7" s="551">
         <v>630</v>
       </c>
-      <c r="B7" s="552">
+      <c r="B7" s="566">
         <v>44044</v>
       </c>
-      <c r="C7" s="554" t="s">
+      <c r="C7" s="551" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="554"/>
-      <c r="E7" s="554"/>
+      <c r="D7" s="551"/>
+      <c r="E7" s="551"/>
       <c r="F7" s="261" t="s">
         <v>172</v>
       </c>
@@ -13223,11 +13223,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="212" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="555"/>
-      <c r="B8" s="553"/>
-      <c r="C8" s="555"/>
-      <c r="D8" s="555"/>
-      <c r="E8" s="555"/>
+      <c r="A8" s="552"/>
+      <c r="B8" s="567"/>
+      <c r="C8" s="552"/>
+      <c r="D8" s="552"/>
+      <c r="E8" s="552"/>
       <c r="F8" s="262" t="s">
         <v>173</v>
       </c>
@@ -13249,11 +13249,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="212" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="555"/>
-      <c r="B9" s="553"/>
-      <c r="C9" s="555"/>
-      <c r="D9" s="555"/>
-      <c r="E9" s="555"/>
+      <c r="A9" s="552"/>
+      <c r="B9" s="567"/>
+      <c r="C9" s="552"/>
+      <c r="D9" s="552"/>
+      <c r="E9" s="552"/>
       <c r="F9" s="262" t="s">
         <v>170</v>
       </c>
@@ -13275,11 +13275,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="212" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="556"/>
-      <c r="B10" s="557"/>
-      <c r="C10" s="556"/>
-      <c r="D10" s="556"/>
-      <c r="E10" s="556"/>
+      <c r="A10" s="568"/>
+      <c r="B10" s="569"/>
+      <c r="C10" s="568"/>
+      <c r="D10" s="568"/>
+      <c r="E10" s="568"/>
       <c r="F10" s="263" t="s">
         <v>174</v>
       </c>
@@ -13333,17 +13333,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="212" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="607">
+      <c r="A12" s="606">
         <v>646</v>
       </c>
-      <c r="B12" s="610">
+      <c r="B12" s="608">
         <v>44053</v>
       </c>
-      <c r="C12" s="607" t="s">
+      <c r="C12" s="606" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="612"/>
-      <c r="E12" s="607"/>
+      <c r="D12" s="610"/>
+      <c r="E12" s="606"/>
       <c r="F12" s="212" t="s">
         <v>172</v>
       </c>
@@ -13365,11 +13365,11 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="212" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="608"/>
-      <c r="B13" s="611"/>
-      <c r="C13" s="608"/>
-      <c r="D13" s="613"/>
-      <c r="E13" s="608"/>
+      <c r="A13" s="607"/>
+      <c r="B13" s="609"/>
+      <c r="C13" s="607"/>
+      <c r="D13" s="611"/>
+      <c r="E13" s="607"/>
       <c r="F13" s="265" t="s">
         <v>173</v>
       </c>
@@ -13391,14 +13391,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="595" t="s">
+      <c r="A14" s="590" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="596"/>
-      <c r="C14" s="596"/>
-      <c r="D14" s="596"/>
-      <c r="E14" s="596"/>
-      <c r="F14" s="597"/>
+      <c r="B14" s="591"/>
+      <c r="C14" s="591"/>
+      <c r="D14" s="591"/>
+      <c r="E14" s="591"/>
+      <c r="F14" s="592"/>
       <c r="G14" s="289">
         <f>SUM(G7:G13)</f>
         <v>11</v>
@@ -13444,107 +13444,107 @@
       <c r="L16" s="311"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="590" t="s">
+      <c r="A17" s="600" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="590"/>
-      <c r="C17" s="590"/>
-      <c r="D17" s="590"/>
-      <c r="E17" s="590"/>
-      <c r="F17" s="590"/>
-      <c r="G17" s="590"/>
-      <c r="H17" s="590"/>
-      <c r="I17" s="590"/>
-      <c r="J17" s="590"/>
-      <c r="K17" s="590"/>
-      <c r="L17" s="590"/>
+      <c r="B17" s="600"/>
+      <c r="C17" s="600"/>
+      <c r="D17" s="600"/>
+      <c r="E17" s="600"/>
+      <c r="F17" s="600"/>
+      <c r="G17" s="600"/>
+      <c r="H17" s="600"/>
+      <c r="I17" s="600"/>
+      <c r="J17" s="600"/>
+      <c r="K17" s="600"/>
+      <c r="L17" s="600"/>
     </row>
     <row r="18" spans="1:13" s="97" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="589" t="s">
+      <c r="A18" s="601" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="609" t="s">
+      <c r="B18" s="605" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="589" t="s">
+      <c r="C18" s="601" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="589" t="s">
+      <c r="D18" s="601" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="589"/>
-      <c r="F18" s="588" t="s">
+      <c r="E18" s="601"/>
+      <c r="F18" s="604" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="588"/>
-      <c r="H18" s="588"/>
-      <c r="I18" s="588"/>
-      <c r="J18" s="588"/>
-      <c r="K18" s="588"/>
-      <c r="L18" s="588"/>
+      <c r="G18" s="604"/>
+      <c r="H18" s="604"/>
+      <c r="I18" s="604"/>
+      <c r="J18" s="604"/>
+      <c r="K18" s="604"/>
+      <c r="L18" s="604"/>
     </row>
     <row r="19" spans="1:13" s="97" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="589"/>
-      <c r="B19" s="609"/>
-      <c r="C19" s="589"/>
-      <c r="D19" s="589" t="s">
+      <c r="A19" s="601"/>
+      <c r="B19" s="605"/>
+      <c r="C19" s="601"/>
+      <c r="D19" s="601" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="589" t="s">
+      <c r="E19" s="601" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="589" t="s">
+      <c r="F19" s="601" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="589" t="s">
+      <c r="G19" s="601" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="592" t="s">
+      <c r="H19" s="602" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="592" t="s">
+      <c r="I19" s="602" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="591" t="s">
+      <c r="J19" s="603" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="591"/>
-      <c r="L19" s="592" t="s">
+      <c r="K19" s="603"/>
+      <c r="L19" s="602" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="589"/>
-      <c r="B20" s="609"/>
-      <c r="C20" s="589"/>
-      <c r="D20" s="589"/>
-      <c r="E20" s="589"/>
-      <c r="F20" s="589"/>
-      <c r="G20" s="589"/>
-      <c r="H20" s="592"/>
-      <c r="I20" s="592"/>
+      <c r="A20" s="601"/>
+      <c r="B20" s="605"/>
+      <c r="C20" s="601"/>
+      <c r="D20" s="601"/>
+      <c r="E20" s="601"/>
+      <c r="F20" s="601"/>
+      <c r="G20" s="601"/>
+      <c r="H20" s="602"/>
+      <c r="I20" s="602"/>
       <c r="J20" s="267" t="s">
         <v>83</v>
       </c>
       <c r="K20" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="592"/>
+      <c r="L20" s="602"/>
     </row>
     <row r="21" spans="1:13" s="212" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="554">
+      <c r="A21" s="551">
         <v>647</v>
       </c>
-      <c r="B21" s="552">
+      <c r="B21" s="566">
         <v>44056</v>
       </c>
-      <c r="C21" s="554" t="s">
+      <c r="C21" s="551" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="605" t="s">
+      <c r="D21" s="612" t="s">
         <v>197</v>
       </c>
-      <c r="E21" s="554" t="s">
+      <c r="E21" s="551" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="261" t="s">
@@ -13571,11 +13571,11 @@
       <c r="M21" s="213"/>
     </row>
     <row r="22" spans="1:13" s="212" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="556"/>
-      <c r="B22" s="557"/>
-      <c r="C22" s="556"/>
-      <c r="D22" s="606"/>
-      <c r="E22" s="556"/>
+      <c r="A22" s="568"/>
+      <c r="B22" s="569"/>
+      <c r="C22" s="568"/>
+      <c r="D22" s="613"/>
+      <c r="E22" s="568"/>
       <c r="F22" s="263" t="s">
         <v>173</v>
       </c>
@@ -13608,23 +13608,23 @@
       <c r="F23" s="291"/>
       <c r="G23" s="291"/>
       <c r="H23" s="291"/>
-      <c r="I23" s="594" t="s">
+      <c r="I23" s="614" t="s">
         <v>210</v>
       </c>
-      <c r="J23" s="594"/>
-      <c r="K23" s="594"/>
+      <c r="J23" s="614"/>
+      <c r="K23" s="614"/>
       <c r="L23" s="461">
         <v>382000</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="595" t="s">
+      <c r="A24" s="590" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="596"/>
-      <c r="C24" s="596"/>
-      <c r="D24" s="596"/>
-      <c r="E24" s="597"/>
+      <c r="B24" s="591"/>
+      <c r="C24" s="591"/>
+      <c r="D24" s="591"/>
+      <c r="E24" s="592"/>
       <c r="F24" s="294"/>
       <c r="G24" s="294">
         <f>SUM(G21:G23)</f>
@@ -13657,92 +13657,92 @@
       <c r="L25" s="310"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="590" t="s">
+      <c r="A26" s="600" t="s">
         <v>267</v>
       </c>
-      <c r="B26" s="590"/>
-      <c r="C26" s="590"/>
-      <c r="D26" s="590"/>
-      <c r="E26" s="590"/>
-      <c r="F26" s="590"/>
-      <c r="G26" s="590"/>
-      <c r="H26" s="590"/>
-      <c r="I26" s="590"/>
-      <c r="J26" s="590"/>
-      <c r="K26" s="590"/>
-      <c r="L26" s="590"/>
+      <c r="B26" s="600"/>
+      <c r="C26" s="600"/>
+      <c r="D26" s="600"/>
+      <c r="E26" s="600"/>
+      <c r="F26" s="600"/>
+      <c r="G26" s="600"/>
+      <c r="H26" s="600"/>
+      <c r="I26" s="600"/>
+      <c r="J26" s="600"/>
+      <c r="K26" s="600"/>
+      <c r="L26" s="600"/>
     </row>
     <row r="27" spans="1:13" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="589" t="s">
+      <c r="A27" s="601" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="593" t="s">
+      <c r="B27" s="620" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="589" t="s">
+      <c r="C27" s="601" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="589" t="s">
+      <c r="D27" s="601" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="589"/>
-      <c r="F27" s="588" t="s">
+      <c r="E27" s="601"/>
+      <c r="F27" s="604" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="588"/>
-      <c r="H27" s="588"/>
-      <c r="I27" s="588"/>
-      <c r="J27" s="588"/>
-      <c r="K27" s="588"/>
-      <c r="L27" s="588"/>
+      <c r="G27" s="604"/>
+      <c r="H27" s="604"/>
+      <c r="I27" s="604"/>
+      <c r="J27" s="604"/>
+      <c r="K27" s="604"/>
+      <c r="L27" s="604"/>
     </row>
     <row r="28" spans="1:13" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="589"/>
-      <c r="B28" s="593"/>
-      <c r="C28" s="589"/>
-      <c r="D28" s="589" t="s">
+      <c r="A28" s="601"/>
+      <c r="B28" s="620"/>
+      <c r="C28" s="601"/>
+      <c r="D28" s="601" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="589" t="s">
+      <c r="E28" s="601" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="589" t="s">
+      <c r="F28" s="601" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="589" t="s">
+      <c r="G28" s="601" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="592" t="s">
+      <c r="H28" s="602" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="592" t="s">
+      <c r="I28" s="602" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="591" t="s">
+      <c r="J28" s="603" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="591"/>
-      <c r="L28" s="592" t="s">
+      <c r="K28" s="603"/>
+      <c r="L28" s="602" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="589"/>
-      <c r="B29" s="593"/>
-      <c r="C29" s="589"/>
-      <c r="D29" s="589"/>
-      <c r="E29" s="589"/>
-      <c r="F29" s="589"/>
-      <c r="G29" s="589"/>
-      <c r="H29" s="592"/>
-      <c r="I29" s="592"/>
+      <c r="A29" s="601"/>
+      <c r="B29" s="620"/>
+      <c r="C29" s="601"/>
+      <c r="D29" s="601"/>
+      <c r="E29" s="601"/>
+      <c r="F29" s="601"/>
+      <c r="G29" s="601"/>
+      <c r="H29" s="602"/>
+      <c r="I29" s="602"/>
       <c r="J29" s="319" t="s">
         <v>83</v>
       </c>
       <c r="K29" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="592"/>
+      <c r="L29" s="602"/>
     </row>
     <row r="30" spans="1:13" s="212" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="156">
@@ -13792,11 +13792,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="297" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="590" t="s">
+      <c r="A32" s="600" t="s">
         <v>211</v>
       </c>
-      <c r="B32" s="590"/>
-      <c r="C32" s="590"/>
+      <c r="B32" s="600"/>
+      <c r="C32" s="600"/>
       <c r="D32" s="307"/>
       <c r="E32" s="307"/>
       <c r="F32" s="307"/>
@@ -13809,225 +13809,225 @@
       <c r="A33" s="266"/>
       <c r="B33" s="266"/>
       <c r="C33" s="266"/>
-      <c r="D33" s="602" t="s">
+      <c r="D33" s="617" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="603"/>
-      <c r="F33" s="603"/>
-      <c r="G33" s="603"/>
-      <c r="H33" s="603"/>
-      <c r="I33" s="604"/>
-      <c r="J33" s="600" t="s">
+      <c r="E33" s="618"/>
+      <c r="F33" s="618"/>
+      <c r="G33" s="618"/>
+      <c r="H33" s="618"/>
+      <c r="I33" s="619"/>
+      <c r="J33" s="615" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="601"/>
+      <c r="K33" s="616"/>
       <c r="L33" s="296"/>
     </row>
     <row r="34" spans="1:14" s="297" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="266"/>
       <c r="B34" s="266"/>
       <c r="C34" s="266"/>
-      <c r="D34" s="583" t="s">
+      <c r="D34" s="587" t="s">
         <v>213</v>
       </c>
-      <c r="E34" s="584"/>
-      <c r="F34" s="584"/>
-      <c r="G34" s="584"/>
-      <c r="H34" s="584"/>
-      <c r="I34" s="585"/>
-      <c r="J34" s="586">
+      <c r="E34" s="588"/>
+      <c r="F34" s="588"/>
+      <c r="G34" s="588"/>
+      <c r="H34" s="588"/>
+      <c r="I34" s="589"/>
+      <c r="J34" s="595">
         <v>550415</v>
       </c>
-      <c r="K34" s="587"/>
+      <c r="K34" s="596"/>
       <c r="L34" s="296"/>
     </row>
     <row r="35" spans="1:14" s="297" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="266"/>
       <c r="B35" s="266"/>
       <c r="C35" s="266"/>
-      <c r="D35" s="583" t="s">
+      <c r="D35" s="587" t="s">
         <v>214</v>
       </c>
-      <c r="E35" s="584"/>
-      <c r="F35" s="584"/>
-      <c r="G35" s="584"/>
-      <c r="H35" s="584"/>
-      <c r="I35" s="585"/>
-      <c r="J35" s="586">
+      <c r="E35" s="588"/>
+      <c r="F35" s="588"/>
+      <c r="G35" s="588"/>
+      <c r="H35" s="588"/>
+      <c r="I35" s="589"/>
+      <c r="J35" s="595">
         <f>L14</f>
         <v>3082750.0000000005</v>
       </c>
-      <c r="K35" s="587"/>
+      <c r="K35" s="596"/>
       <c r="L35" s="296"/>
     </row>
     <row r="36" spans="1:14" s="297" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="266"/>
       <c r="B36" s="266"/>
       <c r="C36" s="266"/>
-      <c r="D36" s="583" t="s">
+      <c r="D36" s="587" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="584"/>
-      <c r="F36" s="584"/>
-      <c r="G36" s="584"/>
-      <c r="H36" s="584"/>
-      <c r="I36" s="585"/>
-      <c r="J36" s="586">
+      <c r="E36" s="588"/>
+      <c r="F36" s="588"/>
+      <c r="G36" s="588"/>
+      <c r="H36" s="588"/>
+      <c r="I36" s="589"/>
+      <c r="J36" s="595">
         <f>L24</f>
         <v>1109750</v>
       </c>
-      <c r="K36" s="587"/>
+      <c r="K36" s="596"/>
       <c r="N36" s="298"/>
     </row>
     <row r="37" spans="1:14" s="297" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="318"/>
       <c r="B37" s="318"/>
       <c r="C37" s="318"/>
-      <c r="D37" s="583" t="s">
+      <c r="D37" s="587" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="584"/>
-      <c r="F37" s="584"/>
-      <c r="G37" s="584"/>
-      <c r="H37" s="584"/>
-      <c r="I37" s="585"/>
-      <c r="J37" s="586">
+      <c r="E37" s="588"/>
+      <c r="F37" s="588"/>
+      <c r="G37" s="588"/>
+      <c r="H37" s="588"/>
+      <c r="I37" s="589"/>
+      <c r="J37" s="595">
         <f>L31</f>
         <v>225000</v>
       </c>
-      <c r="K37" s="587"/>
+      <c r="K37" s="596"/>
       <c r="N37" s="298"/>
     </row>
     <row r="38" spans="1:14" s="297" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="317"/>
       <c r="B38" s="317"/>
       <c r="C38" s="317"/>
-      <c r="D38" s="583" t="s">
+      <c r="D38" s="587" t="s">
         <v>252</v>
       </c>
-      <c r="E38" s="584"/>
-      <c r="F38" s="584"/>
-      <c r="G38" s="584"/>
-      <c r="H38" s="584"/>
-      <c r="I38" s="585"/>
-      <c r="J38" s="586">
+      <c r="E38" s="588"/>
+      <c r="F38" s="588"/>
+      <c r="G38" s="588"/>
+      <c r="H38" s="588"/>
+      <c r="I38" s="589"/>
+      <c r="J38" s="595">
         <v>5000000</v>
       </c>
-      <c r="K38" s="587"/>
+      <c r="K38" s="596"/>
       <c r="N38" s="298"/>
     </row>
     <row r="39" spans="1:14" s="297" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="317"/>
       <c r="B39" s="317"/>
       <c r="C39" s="317"/>
-      <c r="D39" s="595" t="s">
+      <c r="D39" s="590" t="s">
         <v>222</v>
       </c>
-      <c r="E39" s="596"/>
-      <c r="F39" s="596"/>
-      <c r="G39" s="596"/>
-      <c r="H39" s="596"/>
-      <c r="I39" s="597"/>
-      <c r="J39" s="598">
+      <c r="E39" s="591"/>
+      <c r="F39" s="591"/>
+      <c r="G39" s="591"/>
+      <c r="H39" s="591"/>
+      <c r="I39" s="592"/>
+      <c r="J39" s="597">
         <f>SUM(J34:K38)</f>
         <v>9967915</v>
       </c>
-      <c r="K39" s="599"/>
+      <c r="K39" s="598"/>
       <c r="N39" s="298"/>
     </row>
     <row r="40" spans="1:14" s="297" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="266"/>
       <c r="B40" s="266"/>
       <c r="C40" s="266"/>
-      <c r="D40" s="583" t="s">
+      <c r="D40" s="587" t="s">
         <v>216</v>
       </c>
-      <c r="E40" s="584"/>
-      <c r="F40" s="584"/>
-      <c r="G40" s="584"/>
-      <c r="H40" s="584"/>
-      <c r="I40" s="585"/>
-      <c r="J40" s="586">
+      <c r="E40" s="588"/>
+      <c r="F40" s="588"/>
+      <c r="G40" s="588"/>
+      <c r="H40" s="588"/>
+      <c r="I40" s="589"/>
+      <c r="J40" s="595">
         <f>'Bảng lương'!K15</f>
         <v>5695384.615384616</v>
       </c>
-      <c r="K40" s="587"/>
+      <c r="K40" s="596"/>
       <c r="L40" s="296"/>
     </row>
     <row r="41" spans="1:14" s="297" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="317"/>
       <c r="B41" s="317"/>
       <c r="C41" s="317"/>
-      <c r="D41" s="583" t="s">
+      <c r="D41" s="587" t="s">
         <v>247</v>
       </c>
-      <c r="E41" s="584"/>
-      <c r="F41" s="584"/>
-      <c r="G41" s="584"/>
-      <c r="H41" s="584"/>
-      <c r="I41" s="585"/>
-      <c r="J41" s="586">
+      <c r="E41" s="588"/>
+      <c r="F41" s="588"/>
+      <c r="G41" s="588"/>
+      <c r="H41" s="588"/>
+      <c r="I41" s="589"/>
+      <c r="J41" s="595">
         <f>'Chi phí văn phòng'!D9</f>
         <v>674000</v>
       </c>
-      <c r="K41" s="587"/>
+      <c r="K41" s="596"/>
       <c r="L41" s="296"/>
     </row>
     <row r="42" spans="1:14" s="297" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="317"/>
       <c r="B42" s="317"/>
       <c r="C42" s="317"/>
-      <c r="D42" s="583" t="s">
+      <c r="D42" s="587" t="s">
         <v>248</v>
       </c>
-      <c r="E42" s="584"/>
-      <c r="F42" s="584"/>
-      <c r="G42" s="584"/>
-      <c r="H42" s="584"/>
-      <c r="I42" s="585"/>
-      <c r="J42" s="586">
+      <c r="E42" s="588"/>
+      <c r="F42" s="588"/>
+      <c r="G42" s="588"/>
+      <c r="H42" s="588"/>
+      <c r="I42" s="589"/>
+      <c r="J42" s="595">
         <f>'Chi phí văn phòng'!D21</f>
         <v>1289000</v>
       </c>
-      <c r="K42" s="587"/>
+      <c r="K42" s="596"/>
       <c r="L42" s="296"/>
     </row>
     <row r="43" spans="1:14" s="297" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="317"/>
       <c r="B43" s="317"/>
       <c r="C43" s="317"/>
-      <c r="D43" s="595" t="s">
+      <c r="D43" s="590" t="s">
         <v>223</v>
       </c>
-      <c r="E43" s="596"/>
-      <c r="F43" s="596"/>
-      <c r="G43" s="596"/>
-      <c r="H43" s="596"/>
-      <c r="I43" s="597"/>
-      <c r="J43" s="598">
+      <c r="E43" s="591"/>
+      <c r="F43" s="591"/>
+      <c r="G43" s="591"/>
+      <c r="H43" s="591"/>
+      <c r="I43" s="592"/>
+      <c r="J43" s="597">
         <f>SUM(J40:K42)</f>
         <v>7658384.615384616</v>
       </c>
-      <c r="K43" s="599"/>
+      <c r="K43" s="598"/>
       <c r="L43" s="296"/>
     </row>
     <row r="44" spans="1:14" s="297" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="266"/>
       <c r="B44" s="266"/>
       <c r="C44" s="266"/>
-      <c r="D44" s="619" t="s">
+      <c r="D44" s="593" t="s">
         <v>251</v>
       </c>
-      <c r="E44" s="619"/>
-      <c r="F44" s="619"/>
-      <c r="G44" s="619"/>
-      <c r="H44" s="619"/>
-      <c r="I44" s="619"/>
-      <c r="J44" s="620">
+      <c r="E44" s="593"/>
+      <c r="F44" s="593"/>
+      <c r="G44" s="593"/>
+      <c r="H44" s="593"/>
+      <c r="I44" s="593"/>
+      <c r="J44" s="594">
         <f>J39-J43</f>
         <v>2309530.384615384</v>
       </c>
-      <c r="K44" s="620"/>
+      <c r="K44" s="594"/>
     </row>
     <row r="45" spans="1:14" s="297" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="317"/>
@@ -14037,14 +14037,14 @@
       <c r="E45" s="299"/>
       <c r="F45" s="299"/>
       <c r="G45" s="299"/>
-      <c r="H45" s="615" t="s">
+      <c r="H45" s="583" t="s">
         <v>249</v>
       </c>
-      <c r="I45" s="615"/>
-      <c r="J45" s="616">
+      <c r="I45" s="583"/>
+      <c r="J45" s="584">
         <v>2500000</v>
       </c>
-      <c r="K45" s="616"/>
+      <c r="K45" s="584"/>
     </row>
     <row r="46" spans="1:14" s="297" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="313"/>
@@ -14054,58 +14054,86 @@
       <c r="E46" s="299"/>
       <c r="F46" s="299"/>
       <c r="G46" s="299"/>
-      <c r="H46" s="618" t="s">
+      <c r="H46" s="586" t="s">
         <v>250</v>
       </c>
-      <c r="I46" s="618"/>
-      <c r="J46" s="617">
+      <c r="I46" s="586"/>
+      <c r="J46" s="585">
         <f>J44+J45</f>
         <v>4809530.384615384</v>
       </c>
-      <c r="K46" s="617"/>
+      <c r="K46" s="585"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="79"/>
-      <c r="B47" s="590" t="s">
+      <c r="B47" s="600" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="590"/>
-      <c r="D47" s="590"/>
+      <c r="C47" s="600"/>
+      <c r="D47" s="600"/>
       <c r="E47" s="79"/>
       <c r="F47" s="79"/>
       <c r="G47" s="79"/>
       <c r="H47" s="79"/>
-      <c r="I47" s="590" t="s">
+      <c r="I47" s="600" t="s">
         <v>111</v>
       </c>
-      <c r="J47" s="590"/>
+      <c r="J47" s="600"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:L20"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="D4:E4"/>
@@ -14122,58 +14150,30 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
   </mergeCells>
   <pageMargins left="0.91" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -14197,13 +14197,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="614" t="s">
+      <c r="B1" s="599" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="614"/>
-      <c r="D1" s="614"/>
-      <c r="E1" s="614"/>
-      <c r="F1" s="614"/>
+      <c r="C1" s="599"/>
+      <c r="D1" s="599"/>
+      <c r="E1" s="599"/>
+      <c r="F1" s="599"/>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
       <c r="I1" s="58"/>
@@ -14223,11 +14223,11 @@
       <c r="J2" s="58"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="564" t="s">
+      <c r="B4" s="576" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="564"/>
-      <c r="D4" s="564"/>
+      <c r="C4" s="576"/>
+      <c r="D4" s="576"/>
       <c r="E4" s="171"/>
       <c r="F4" s="171"/>
     </row>
@@ -14549,13 +14549,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="614" t="s">
+      <c r="A1" s="599" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="614"/>
-      <c r="C1" s="614"/>
-      <c r="D1" s="614"/>
-      <c r="E1" s="614"/>
+      <c r="B1" s="599"/>
+      <c r="C1" s="599"/>
+      <c r="D1" s="599"/>
+      <c r="E1" s="599"/>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
@@ -14629,34 +14629,34 @@
       <c r="H8" s="629"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="583" t="s">
+      <c r="A9" s="587" t="s">
         <v>216</v>
       </c>
-      <c r="B9" s="584"/>
-      <c r="C9" s="584"/>
-      <c r="D9" s="584"/>
-      <c r="E9" s="584"/>
-      <c r="F9" s="585"/>
-      <c r="G9" s="586">
+      <c r="B9" s="588"/>
+      <c r="C9" s="588"/>
+      <c r="D9" s="588"/>
+      <c r="E9" s="588"/>
+      <c r="F9" s="589"/>
+      <c r="G9" s="595">
         <f>'Bảng lương'!K12</f>
         <v>7135000</v>
       </c>
-      <c r="H9" s="587"/>
+      <c r="H9" s="596"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="619" t="s">
+      <c r="A10" s="593" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="619"/>
-      <c r="C10" s="619"/>
-      <c r="D10" s="619"/>
-      <c r="E10" s="619"/>
-      <c r="F10" s="619"/>
-      <c r="G10" s="620">
+      <c r="B10" s="593"/>
+      <c r="C10" s="593"/>
+      <c r="D10" s="593"/>
+      <c r="E10" s="593"/>
+      <c r="F10" s="593"/>
+      <c r="G10" s="594">
         <f>SUM(G7:H9)</f>
         <v>9935000</v>
       </c>
-      <c r="H10" s="620"/>
+      <c r="H10" s="594"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -15212,16 +15212,16 @@
       <c r="C1" s="102"/>
       <c r="D1" s="102"/>
       <c r="E1" s="102"/>
-      <c r="Z1" s="638" t="s">
+      <c r="Z1" s="651" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="639"/>
-      <c r="AB1" s="639"/>
-      <c r="AC1" s="639"/>
-      <c r="AD1" s="639"/>
-      <c r="AE1" s="639"/>
-      <c r="AF1" s="639"/>
-      <c r="AG1" s="640"/>
+      <c r="AA1" s="652"/>
+      <c r="AB1" s="652"/>
+      <c r="AC1" s="652"/>
+      <c r="AD1" s="652"/>
+      <c r="AE1" s="652"/>
+      <c r="AF1" s="652"/>
+      <c r="AG1" s="653"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
@@ -15231,18 +15231,18 @@
       <c r="C2" s="106"/>
       <c r="D2" s="106"/>
       <c r="E2" s="106"/>
-      <c r="Z2" s="633" t="s">
+      <c r="Z2" s="634" t="s">
         <v>85</v>
       </c>
-      <c r="AA2" s="634"/>
-      <c r="AB2" s="634"/>
-      <c r="AC2" s="634"/>
-      <c r="AD2" s="634"/>
-      <c r="AE2" s="635"/>
-      <c r="AF2" s="636" t="s">
+      <c r="AA2" s="635"/>
+      <c r="AB2" s="635"/>
+      <c r="AC2" s="635"/>
+      <c r="AD2" s="635"/>
+      <c r="AE2" s="636"/>
+      <c r="AF2" s="637" t="s">
         <v>86</v>
       </c>
-      <c r="AG2" s="637"/>
+      <c r="AG2" s="638"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="105" t="s">
@@ -15252,18 +15252,18 @@
       <c r="C3" s="75"/>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="Z3" s="633" t="s">
+      <c r="Z3" s="634" t="s">
         <v>88</v>
       </c>
-      <c r="AA3" s="634"/>
-      <c r="AB3" s="634"/>
-      <c r="AC3" s="634"/>
-      <c r="AD3" s="634"/>
-      <c r="AE3" s="635"/>
-      <c r="AF3" s="636" t="s">
+      <c r="AA3" s="635"/>
+      <c r="AB3" s="635"/>
+      <c r="AC3" s="635"/>
+      <c r="AD3" s="635"/>
+      <c r="AE3" s="636"/>
+      <c r="AF3" s="637" t="s">
         <v>89</v>
       </c>
-      <c r="AG3" s="637"/>
+      <c r="AG3" s="638"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="105" t="s">
@@ -15276,18 +15276,18 @@
       <c r="T4" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="633" t="s">
+      <c r="Z4" s="634" t="s">
         <v>91</v>
       </c>
-      <c r="AA4" s="634"/>
-      <c r="AB4" s="634"/>
-      <c r="AC4" s="634"/>
-      <c r="AD4" s="634"/>
-      <c r="AE4" s="635"/>
-      <c r="AF4" s="636" t="s">
+      <c r="AA4" s="635"/>
+      <c r="AB4" s="635"/>
+      <c r="AC4" s="635"/>
+      <c r="AD4" s="635"/>
+      <c r="AE4" s="636"/>
+      <c r="AF4" s="637" t="s">
         <v>92</v>
       </c>
-      <c r="AG4" s="637"/>
+      <c r="AG4" s="638"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="105" t="s">
@@ -15297,18 +15297,18 @@
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="Z5" s="633" t="s">
+      <c r="Z5" s="634" t="s">
         <v>94</v>
       </c>
-      <c r="AA5" s="634"/>
-      <c r="AB5" s="634"/>
-      <c r="AC5" s="634"/>
-      <c r="AD5" s="634"/>
-      <c r="AE5" s="635"/>
-      <c r="AF5" s="636" t="s">
+      <c r="AA5" s="635"/>
+      <c r="AB5" s="635"/>
+      <c r="AC5" s="635"/>
+      <c r="AD5" s="635"/>
+      <c r="AE5" s="636"/>
+      <c r="AF5" s="637" t="s">
         <v>95</v>
       </c>
-      <c r="AG5" s="637"/>
+      <c r="AG5" s="638"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="107"/>
@@ -15318,93 +15318,93 @@
       <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:40" s="110" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="642" t="s">
+      <c r="A7" s="639" t="s">
         <v>286</v>
       </c>
-      <c r="B7" s="642"/>
-      <c r="C7" s="642"/>
-      <c r="D7" s="642"/>
-      <c r="E7" s="642"/>
-      <c r="F7" s="642"/>
-      <c r="G7" s="642"/>
-      <c r="H7" s="642"/>
-      <c r="I7" s="642"/>
-      <c r="J7" s="642"/>
-      <c r="K7" s="642"/>
-      <c r="L7" s="642"/>
-      <c r="M7" s="642"/>
-      <c r="N7" s="642"/>
-      <c r="O7" s="642"/>
-      <c r="P7" s="642"/>
-      <c r="Q7" s="642"/>
-      <c r="R7" s="642"/>
-      <c r="S7" s="642"/>
-      <c r="T7" s="642"/>
-      <c r="U7" s="642"/>
-      <c r="V7" s="642"/>
-      <c r="W7" s="642"/>
-      <c r="X7" s="642"/>
-      <c r="Y7" s="642"/>
-      <c r="Z7" s="642"/>
-      <c r="AA7" s="642"/>
-      <c r="AB7" s="642"/>
-      <c r="AC7" s="642"/>
-      <c r="AD7" s="642"/>
-      <c r="AE7" s="642"/>
-      <c r="AF7" s="642"/>
-      <c r="AG7" s="642"/>
-      <c r="AH7" s="642"/>
-      <c r="AI7" s="642"/>
-      <c r="AJ7" s="642"/>
-      <c r="AK7" s="642"/>
-      <c r="AL7" s="642"/>
-      <c r="AM7" s="642"/>
+      <c r="B7" s="639"/>
+      <c r="C7" s="639"/>
+      <c r="D7" s="639"/>
+      <c r="E7" s="639"/>
+      <c r="F7" s="639"/>
+      <c r="G7" s="639"/>
+      <c r="H7" s="639"/>
+      <c r="I7" s="639"/>
+      <c r="J7" s="639"/>
+      <c r="K7" s="639"/>
+      <c r="L7" s="639"/>
+      <c r="M7" s="639"/>
+      <c r="N7" s="639"/>
+      <c r="O7" s="639"/>
+      <c r="P7" s="639"/>
+      <c r="Q7" s="639"/>
+      <c r="R7" s="639"/>
+      <c r="S7" s="639"/>
+      <c r="T7" s="639"/>
+      <c r="U7" s="639"/>
+      <c r="V7" s="639"/>
+      <c r="W7" s="639"/>
+      <c r="X7" s="639"/>
+      <c r="Y7" s="639"/>
+      <c r="Z7" s="639"/>
+      <c r="AA7" s="639"/>
+      <c r="AB7" s="639"/>
+      <c r="AC7" s="639"/>
+      <c r="AD7" s="639"/>
+      <c r="AE7" s="639"/>
+      <c r="AF7" s="639"/>
+      <c r="AG7" s="639"/>
+      <c r="AH7" s="639"/>
+      <c r="AI7" s="639"/>
+      <c r="AJ7" s="639"/>
+      <c r="AK7" s="639"/>
+      <c r="AL7" s="639"/>
+      <c r="AM7" s="639"/>
       <c r="AN7" s="109"/>
     </row>
     <row r="9" spans="1:40" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="643" t="s">
+      <c r="A9" s="640" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="643" t="s">
+      <c r="B9" s="640" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="643" t="s">
+      <c r="C9" s="640" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="646" t="s">
+      <c r="D9" s="643" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="647"/>
-      <c r="F9" s="647"/>
-      <c r="G9" s="647"/>
-      <c r="H9" s="647"/>
-      <c r="I9" s="647"/>
-      <c r="J9" s="647"/>
-      <c r="K9" s="647"/>
-      <c r="L9" s="647"/>
-      <c r="M9" s="647"/>
-      <c r="N9" s="647"/>
-      <c r="O9" s="647"/>
-      <c r="P9" s="647"/>
-      <c r="Q9" s="647"/>
-      <c r="R9" s="647"/>
-      <c r="S9" s="647"/>
-      <c r="T9" s="647"/>
-      <c r="U9" s="647"/>
-      <c r="V9" s="647"/>
-      <c r="W9" s="647"/>
-      <c r="X9" s="647"/>
-      <c r="Y9" s="647"/>
-      <c r="Z9" s="647"/>
-      <c r="AA9" s="647"/>
-      <c r="AB9" s="647"/>
-      <c r="AC9" s="647"/>
-      <c r="AD9" s="647"/>
-      <c r="AE9" s="647"/>
-      <c r="AF9" s="647"/>
-      <c r="AG9" s="647"/>
-      <c r="AH9" s="648"/>
-      <c r="AI9" s="649" t="s">
+      <c r="E9" s="644"/>
+      <c r="F9" s="644"/>
+      <c r="G9" s="644"/>
+      <c r="H9" s="644"/>
+      <c r="I9" s="644"/>
+      <c r="J9" s="644"/>
+      <c r="K9" s="644"/>
+      <c r="L9" s="644"/>
+      <c r="M9" s="644"/>
+      <c r="N9" s="644"/>
+      <c r="O9" s="644"/>
+      <c r="P9" s="644"/>
+      <c r="Q9" s="644"/>
+      <c r="R9" s="644"/>
+      <c r="S9" s="644"/>
+      <c r="T9" s="644"/>
+      <c r="U9" s="644"/>
+      <c r="V9" s="644"/>
+      <c r="W9" s="644"/>
+      <c r="X9" s="644"/>
+      <c r="Y9" s="644"/>
+      <c r="Z9" s="644"/>
+      <c r="AA9" s="644"/>
+      <c r="AB9" s="644"/>
+      <c r="AC9" s="644"/>
+      <c r="AD9" s="644"/>
+      <c r="AE9" s="644"/>
+      <c r="AF9" s="644"/>
+      <c r="AG9" s="644"/>
+      <c r="AH9" s="645"/>
+      <c r="AI9" s="646" t="s">
         <v>100</v>
       </c>
       <c r="AJ9" s="111"/>
@@ -15414,9 +15414,9 @@
       <c r="AN9" s="114"/>
     </row>
     <row r="10" spans="1:40" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="644"/>
-      <c r="B10" s="644"/>
-      <c r="C10" s="644"/>
+      <c r="A10" s="641"/>
+      <c r="B10" s="641"/>
+      <c r="C10" s="641"/>
       <c r="D10" s="116">
         <v>1</v>
       </c>
@@ -15510,7 +15510,7 @@
       <c r="AH10" s="116">
         <v>31</v>
       </c>
-      <c r="AI10" s="649"/>
+      <c r="AI10" s="646"/>
       <c r="AJ10" s="117"/>
       <c r="AK10" s="113"/>
       <c r="AL10" s="113"/>
@@ -15518,9 +15518,9 @@
       <c r="AN10" s="114"/>
     </row>
     <row r="11" spans="1:40" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="645"/>
-      <c r="B11" s="645"/>
-      <c r="C11" s="645"/>
+      <c r="A11" s="642"/>
+      <c r="B11" s="642"/>
+      <c r="C11" s="642"/>
       <c r="D11" s="116" t="s">
         <v>101</v>
       </c>
@@ -15614,7 +15614,7 @@
       <c r="AH11" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="AI11" s="649"/>
+      <c r="AI11" s="646"/>
       <c r="AJ11" s="121"/>
       <c r="AN11" s="123"/>
     </row>
@@ -16015,10 +16015,10 @@
       <c r="AN15" s="123"/>
     </row>
     <row r="16" spans="1:40" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="650" t="s">
+      <c r="A16" s="647" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="651"/>
+      <c r="B16" s="648"/>
       <c r="C16" s="125"/>
       <c r="D16" s="125"/>
       <c r="E16" s="126"/>
@@ -16070,12 +16070,12 @@
       <c r="N18" s="222" t="s">
         <v>108</v>
       </c>
-      <c r="AB18" s="652" t="s">
+      <c r="AB18" s="649" t="s">
         <v>401</v>
       </c>
-      <c r="AC18" s="652"/>
-      <c r="AD18" s="652"/>
-      <c r="AE18" s="652"/>
+      <c r="AC18" s="649"/>
+      <c r="AD18" s="649"/>
+      <c r="AE18" s="649"/>
     </row>
     <row r="19" spans="1:40" s="476" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="477" t="s">
@@ -16087,12 +16087,12 @@
       <c r="N19" s="477" t="s">
         <v>402</v>
       </c>
-      <c r="AB19" s="653" t="s">
+      <c r="AB19" s="650" t="s">
         <v>402</v>
       </c>
-      <c r="AC19" s="653"/>
-      <c r="AD19" s="653"/>
-      <c r="AE19" s="653"/>
+      <c r="AC19" s="650"/>
+      <c r="AD19" s="650"/>
+      <c r="AE19" s="650"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="130"/>
@@ -16125,131 +16125,131 @@
       <c r="AN33" s="133"/>
     </row>
     <row r="34" spans="3:40" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="641"/>
-      <c r="H34" s="641"/>
-      <c r="I34" s="641"/>
-      <c r="J34" s="641"/>
-      <c r="K34" s="641"/>
-      <c r="L34" s="641"/>
-      <c r="M34" s="641"/>
-      <c r="N34" s="641"/>
-      <c r="O34" s="641"/>
-      <c r="P34" s="641"/>
-      <c r="Q34" s="641"/>
-      <c r="R34" s="641"/>
-      <c r="S34" s="641"/>
-      <c r="T34" s="641"/>
-      <c r="U34" s="641"/>
-      <c r="V34" s="641"/>
-      <c r="W34" s="641"/>
-      <c r="X34" s="641"/>
+      <c r="G34" s="633"/>
+      <c r="H34" s="633"/>
+      <c r="I34" s="633"/>
+      <c r="J34" s="633"/>
+      <c r="K34" s="633"/>
+      <c r="L34" s="633"/>
+      <c r="M34" s="633"/>
+      <c r="N34" s="633"/>
+      <c r="O34" s="633"/>
+      <c r="P34" s="633"/>
+      <c r="Q34" s="633"/>
+      <c r="R34" s="633"/>
+      <c r="S34" s="633"/>
+      <c r="T34" s="633"/>
+      <c r="U34" s="633"/>
+      <c r="V34" s="633"/>
+      <c r="W34" s="633"/>
+      <c r="X34" s="633"/>
       <c r="AN34" s="133"/>
     </row>
     <row r="35" spans="3:40" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="641"/>
-      <c r="H35" s="641"/>
-      <c r="I35" s="641"/>
-      <c r="J35" s="641"/>
-      <c r="K35" s="641"/>
-      <c r="L35" s="641"/>
-      <c r="M35" s="641"/>
-      <c r="N35" s="641"/>
-      <c r="O35" s="641"/>
-      <c r="P35" s="641"/>
-      <c r="Q35" s="641"/>
-      <c r="R35" s="641"/>
-      <c r="S35" s="641"/>
-      <c r="T35" s="641"/>
-      <c r="U35" s="641"/>
-      <c r="V35" s="641"/>
-      <c r="W35" s="641"/>
-      <c r="X35" s="641"/>
+      <c r="G35" s="633"/>
+      <c r="H35" s="633"/>
+      <c r="I35" s="633"/>
+      <c r="J35" s="633"/>
+      <c r="K35" s="633"/>
+      <c r="L35" s="633"/>
+      <c r="M35" s="633"/>
+      <c r="N35" s="633"/>
+      <c r="O35" s="633"/>
+      <c r="P35" s="633"/>
+      <c r="Q35" s="633"/>
+      <c r="R35" s="633"/>
+      <c r="S35" s="633"/>
+      <c r="T35" s="633"/>
+      <c r="U35" s="633"/>
+      <c r="V35" s="633"/>
+      <c r="W35" s="633"/>
+      <c r="X35" s="633"/>
       <c r="AN35" s="133"/>
     </row>
     <row r="36" spans="3:40" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="641"/>
-      <c r="H36" s="641"/>
-      <c r="I36" s="641"/>
-      <c r="J36" s="641"/>
-      <c r="K36" s="641"/>
-      <c r="L36" s="641"/>
-      <c r="M36" s="641"/>
-      <c r="N36" s="641"/>
-      <c r="O36" s="641"/>
-      <c r="P36" s="641"/>
-      <c r="Q36" s="641"/>
-      <c r="R36" s="641"/>
-      <c r="S36" s="641"/>
-      <c r="T36" s="641"/>
-      <c r="U36" s="641"/>
-      <c r="V36" s="641"/>
-      <c r="W36" s="641"/>
-      <c r="X36" s="641"/>
+      <c r="G36" s="633"/>
+      <c r="H36" s="633"/>
+      <c r="I36" s="633"/>
+      <c r="J36" s="633"/>
+      <c r="K36" s="633"/>
+      <c r="L36" s="633"/>
+      <c r="M36" s="633"/>
+      <c r="N36" s="633"/>
+      <c r="O36" s="633"/>
+      <c r="P36" s="633"/>
+      <c r="Q36" s="633"/>
+      <c r="R36" s="633"/>
+      <c r="S36" s="633"/>
+      <c r="T36" s="633"/>
+      <c r="U36" s="633"/>
+      <c r="V36" s="633"/>
+      <c r="W36" s="633"/>
+      <c r="X36" s="633"/>
       <c r="AN36" s="133"/>
     </row>
     <row r="37" spans="3:40" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="641"/>
-      <c r="H37" s="641"/>
-      <c r="I37" s="641"/>
-      <c r="J37" s="641"/>
-      <c r="K37" s="641"/>
-      <c r="L37" s="641"/>
-      <c r="M37" s="641"/>
-      <c r="N37" s="641"/>
-      <c r="O37" s="641"/>
-      <c r="P37" s="641"/>
-      <c r="Q37" s="641"/>
-      <c r="R37" s="641"/>
-      <c r="S37" s="641"/>
-      <c r="T37" s="641"/>
-      <c r="U37" s="641"/>
-      <c r="V37" s="641"/>
-      <c r="W37" s="641"/>
-      <c r="X37" s="641"/>
+      <c r="G37" s="633"/>
+      <c r="H37" s="633"/>
+      <c r="I37" s="633"/>
+      <c r="J37" s="633"/>
+      <c r="K37" s="633"/>
+      <c r="L37" s="633"/>
+      <c r="M37" s="633"/>
+      <c r="N37" s="633"/>
+      <c r="O37" s="633"/>
+      <c r="P37" s="633"/>
+      <c r="Q37" s="633"/>
+      <c r="R37" s="633"/>
+      <c r="S37" s="633"/>
+      <c r="T37" s="633"/>
+      <c r="U37" s="633"/>
+      <c r="V37" s="633"/>
+      <c r="W37" s="633"/>
+      <c r="X37" s="633"/>
       <c r="AN37" s="133"/>
     </row>
     <row r="38" spans="3:40" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="641"/>
-      <c r="H38" s="641"/>
-      <c r="I38" s="641"/>
-      <c r="J38" s="641"/>
-      <c r="K38" s="641"/>
-      <c r="L38" s="641"/>
-      <c r="M38" s="641"/>
-      <c r="N38" s="641"/>
-      <c r="O38" s="641"/>
-      <c r="P38" s="641"/>
-      <c r="Q38" s="641"/>
-      <c r="R38" s="641"/>
-      <c r="S38" s="641"/>
-      <c r="T38" s="641"/>
-      <c r="U38" s="641"/>
-      <c r="V38" s="641"/>
-      <c r="W38" s="641"/>
-      <c r="X38" s="641"/>
+      <c r="G38" s="633"/>
+      <c r="H38" s="633"/>
+      <c r="I38" s="633"/>
+      <c r="J38" s="633"/>
+      <c r="K38" s="633"/>
+      <c r="L38" s="633"/>
+      <c r="M38" s="633"/>
+      <c r="N38" s="633"/>
+      <c r="O38" s="633"/>
+      <c r="P38" s="633"/>
+      <c r="Q38" s="633"/>
+      <c r="R38" s="633"/>
+      <c r="S38" s="633"/>
+      <c r="T38" s="633"/>
+      <c r="U38" s="633"/>
+      <c r="V38" s="633"/>
+      <c r="W38" s="633"/>
+      <c r="X38" s="633"/>
       <c r="AN38" s="133"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="103"/>
       <c r="D39" s="103"/>
-      <c r="G39" s="641"/>
-      <c r="H39" s="641"/>
-      <c r="I39" s="641"/>
-      <c r="J39" s="641"/>
-      <c r="K39" s="641"/>
-      <c r="L39" s="641"/>
-      <c r="M39" s="641"/>
-      <c r="N39" s="641"/>
-      <c r="O39" s="641"/>
-      <c r="P39" s="641"/>
-      <c r="Q39" s="641"/>
-      <c r="R39" s="641"/>
-      <c r="S39" s="641"/>
-      <c r="T39" s="641"/>
-      <c r="U39" s="641"/>
-      <c r="V39" s="641"/>
-      <c r="W39" s="641"/>
-      <c r="X39" s="641"/>
+      <c r="G39" s="633"/>
+      <c r="H39" s="633"/>
+      <c r="I39" s="633"/>
+      <c r="J39" s="633"/>
+      <c r="K39" s="633"/>
+      <c r="L39" s="633"/>
+      <c r="M39" s="633"/>
+      <c r="N39" s="633"/>
+      <c r="O39" s="633"/>
+      <c r="P39" s="633"/>
+      <c r="Q39" s="633"/>
+      <c r="R39" s="633"/>
+      <c r="S39" s="633"/>
+      <c r="T39" s="633"/>
+      <c r="U39" s="633"/>
+      <c r="V39" s="633"/>
+      <c r="W39" s="633"/>
+      <c r="X39" s="633"/>
       <c r="AN39" s="103"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -16259,6 +16259,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -16271,13 +16278,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="AB18:AE18"/>
     <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -17132,40 +17132,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="185" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="654" t="s">
+      <c r="A1" s="662" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="654"/>
-      <c r="C1" s="654"/>
-      <c r="D1" s="654"/>
+      <c r="B1" s="662"/>
+      <c r="C1" s="662"/>
+      <c r="D1" s="662"/>
       <c r="E1" s="184"/>
-      <c r="F1" s="655" t="s">
+      <c r="F1" s="663" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="655"/>
-      <c r="H1" s="655"/>
-      <c r="I1" s="655"/>
-      <c r="J1" s="655"/>
-      <c r="K1" s="655"/>
-      <c r="L1" s="655"/>
+      <c r="G1" s="663"/>
+      <c r="H1" s="663"/>
+      <c r="I1" s="663"/>
+      <c r="J1" s="663"/>
+      <c r="K1" s="663"/>
+      <c r="L1" s="663"/>
     </row>
     <row r="2" spans="1:16" s="185" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="656" t="s">
+      <c r="A2" s="664" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="656"/>
-      <c r="C2" s="656"/>
-      <c r="D2" s="656"/>
+      <c r="B2" s="664"/>
+      <c r="C2" s="664"/>
+      <c r="D2" s="664"/>
       <c r="E2" s="184"/>
-      <c r="F2" s="657" t="s">
+      <c r="F2" s="665" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="657"/>
-      <c r="H2" s="657"/>
-      <c r="I2" s="657"/>
-      <c r="J2" s="657"/>
-      <c r="K2" s="657"/>
-      <c r="L2" s="657"/>
+      <c r="G2" s="665"/>
+      <c r="H2" s="665"/>
+      <c r="I2" s="665"/>
+      <c r="J2" s="665"/>
+      <c r="K2" s="665"/>
+      <c r="L2" s="665"/>
     </row>
     <row r="3" spans="1:16" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="186"/>
@@ -17179,45 +17179,45 @@
       <c r="J3" s="187"/>
     </row>
     <row r="4" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="658" t="s">
+      <c r="A4" s="654" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="658"/>
-      <c r="C4" s="658"/>
-      <c r="D4" s="658"/>
-      <c r="E4" s="658"/>
-      <c r="F4" s="658"/>
-      <c r="G4" s="658"/>
-      <c r="H4" s="658"/>
-      <c r="I4" s="658"/>
-      <c r="J4" s="658"/>
-      <c r="K4" s="658"/>
-      <c r="L4" s="658"/>
-      <c r="M4" s="658"/>
+      <c r="B4" s="654"/>
+      <c r="C4" s="654"/>
+      <c r="D4" s="654"/>
+      <c r="E4" s="654"/>
+      <c r="F4" s="654"/>
+      <c r="G4" s="654"/>
+      <c r="H4" s="654"/>
+      <c r="I4" s="654"/>
+      <c r="J4" s="654"/>
+      <c r="K4" s="654"/>
+      <c r="L4" s="654"/>
+      <c r="M4" s="654"/>
     </row>
     <row r="5" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="658" t="s">
+      <c r="A5" s="654" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="658"/>
-      <c r="C5" s="658"/>
-      <c r="D5" s="658"/>
-      <c r="E5" s="658"/>
-      <c r="F5" s="658"/>
-      <c r="G5" s="658"/>
-      <c r="H5" s="658"/>
-      <c r="I5" s="658"/>
-      <c r="J5" s="658"/>
-      <c r="K5" s="658"/>
-      <c r="L5" s="658"/>
-      <c r="M5" s="658"/>
+      <c r="B5" s="654"/>
+      <c r="C5" s="654"/>
+      <c r="D5" s="654"/>
+      <c r="E5" s="654"/>
+      <c r="F5" s="654"/>
+      <c r="G5" s="654"/>
+      <c r="H5" s="654"/>
+      <c r="I5" s="654"/>
+      <c r="J5" s="654"/>
+      <c r="K5" s="654"/>
+      <c r="L5" s="654"/>
+      <c r="M5" s="654"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="659" t="s">
+      <c r="K6" s="655" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="659"/>
-      <c r="M6" s="659"/>
+      <c r="L6" s="655"/>
+      <c r="M6" s="655"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="481" t="s">
@@ -17288,13 +17288,13 @@
       <c r="M8" s="481"/>
     </row>
     <row r="9" spans="1:16" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="663" t="s">
+      <c r="A9" s="659" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="664"/>
-      <c r="C9" s="664"/>
-      <c r="D9" s="664"/>
-      <c r="E9" s="665"/>
+      <c r="B9" s="660"/>
+      <c r="C9" s="660"/>
+      <c r="D9" s="660"/>
+      <c r="E9" s="661"/>
       <c r="F9" s="191">
         <f>SUM(F10:F12)</f>
         <v>27000000</v>
@@ -17431,13 +17431,13 @@
       <c r="P12" s="98"/>
     </row>
     <row r="13" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="660" t="s">
+      <c r="A13" s="656" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="661"/>
-      <c r="C13" s="661"/>
-      <c r="D13" s="661"/>
-      <c r="E13" s="662"/>
+      <c r="B13" s="657"/>
+      <c r="C13" s="657"/>
+      <c r="D13" s="657"/>
+      <c r="E13" s="658"/>
       <c r="F13" s="166">
         <f>SUM(F14:F15)</f>
         <v>7615384.615384616</v>
@@ -17528,11 +17528,11 @@
       <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="660" t="s">
+      <c r="A16" s="656" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="661"/>
-      <c r="C16" s="662"/>
+      <c r="B16" s="657"/>
+      <c r="C16" s="658"/>
       <c r="D16" s="191"/>
       <c r="E16" s="192"/>
       <c r="F16" s="191">
@@ -17563,14 +17563,14 @@
       <c r="M16" s="190"/>
     </row>
     <row r="18" spans="2:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="658"/>
-      <c r="C18" s="658"/>
-      <c r="D18" s="658"/>
+      <c r="B18" s="654"/>
+      <c r="C18" s="654"/>
+      <c r="D18" s="654"/>
       <c r="E18" s="167"/>
-      <c r="I18" s="658"/>
-      <c r="J18" s="658"/>
-      <c r="K18" s="658"/>
-      <c r="L18" s="658"/>
+      <c r="I18" s="654"/>
+      <c r="J18" s="654"/>
+      <c r="K18" s="654"/>
+      <c r="L18" s="654"/>
     </row>
     <row r="19" spans="2:12" s="475" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B19" s="222" t="s">
@@ -17621,6 +17621,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="B18:D18"/>
@@ -17628,11 +17633,6 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
